--- a/experiments/all_results.xlsx
+++ b/experiments/all_results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ancarey\PycharmProjects\adaptive-hypernets\experiments\compas\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ancarey\PycharmProjects\adaptive-hypernets\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CE1C96-637B-41A6-AC1F-874DE79DB583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5405C7C-83FF-414D-AA22-7B8B4AD30040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="707" firstSheet="2" activeTab="3" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="188">
   <si>
     <t>Model</t>
   </si>
@@ -597,6 +597,15 @@
   </si>
   <si>
     <t>2 min 37 sec</t>
+  </si>
+  <si>
+    <t>5 min 9 sec</t>
+  </si>
+  <si>
+    <t>h:1000, c: 50</t>
+  </si>
+  <si>
+    <t>h: 5e-4, c: 1e-3</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1481,9 +1490,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1506,21 +1512,183 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1536,10 +1704,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1554,9 +1719,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1576,6 +1738,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1602,39 +1779,114 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1647,242 +1899,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2232,72 +2253,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="85" t="s">
+      <c r="C1" s="138"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="141" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="84" t="s">
+      <c r="G1" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="84" t="s">
+      <c r="H1" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="84" t="s">
+      <c r="I1" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="92" t="s">
+      <c r="J1" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="93"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="87" t="s">
+      <c r="K1" s="146"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="88"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="87" t="s">
+      <c r="N1" s="138"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="87" t="s">
+      <c r="Q1" s="138"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="88"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="87" t="s">
+      <c r="T1" s="138"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="88"/>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="84" t="s">
+      <c r="W1" s="138"/>
+      <c r="X1" s="139"/>
+      <c r="Y1" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="90" t="s">
+      <c r="Z1" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="90" t="s">
+      <c r="AA1" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="90" t="s">
+      <c r="AB1" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="AC1" s="84" t="s">
+      <c r="AC1" s="140" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="96"/>
+      <c r="A2" s="136"/>
       <c r="B2" s="12" t="s">
         <v>17</v>
       </c>
@@ -2307,11 +2328,11 @@
       <c r="D2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
       <c r="J2" s="12" t="s">
         <v>17</v>
       </c>
@@ -2357,11 +2378,11 @@
       <c r="X2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="91"/>
-      <c r="AA2" s="91"/>
-      <c r="AB2" s="91"/>
-      <c r="AC2" s="84"/>
+      <c r="Y2" s="140"/>
+      <c r="Z2" s="144"/>
+      <c r="AA2" s="144"/>
+      <c r="AB2" s="144"/>
+      <c r="AC2" s="140"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -2910,6 +2931,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="S1:U1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="G1:G2"/>
@@ -2926,7 +2948,6 @@
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2983,114 +3004,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="87" t="s">
+      <c r="C1" s="138"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="85" t="s">
+      <c r="F1" s="138"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="84" t="s">
+      <c r="I1" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="84" t="s">
+      <c r="J1" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="84" t="s">
+      <c r="K1" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="92" t="s">
+      <c r="L1" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="93"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="92" t="s">
+      <c r="M1" s="146"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="87" t="s">
+      <c r="P1" s="146"/>
+      <c r="Q1" s="147"/>
+      <c r="R1" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="88"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="87" t="s">
+      <c r="S1" s="138"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="88"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="87" t="s">
+      <c r="V1" s="138"/>
+      <c r="W1" s="139"/>
+      <c r="X1" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="88"/>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="87" t="s">
+      <c r="Y1" s="138"/>
+      <c r="Z1" s="139"/>
+      <c r="AA1" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="88"/>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="87" t="s">
+      <c r="AB1" s="138"/>
+      <c r="AC1" s="139"/>
+      <c r="AD1" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="88"/>
-      <c r="AF1" s="89"/>
-      <c r="AG1" s="87" t="s">
+      <c r="AE1" s="138"/>
+      <c r="AF1" s="139"/>
+      <c r="AG1" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="88"/>
-      <c r="AI1" s="89"/>
-      <c r="AJ1" s="87" t="s">
+      <c r="AH1" s="138"/>
+      <c r="AI1" s="139"/>
+      <c r="AJ1" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="88"/>
-      <c r="AL1" s="89"/>
-      <c r="AM1" s="87" t="s">
+      <c r="AK1" s="138"/>
+      <c r="AL1" s="139"/>
+      <c r="AM1" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="AN1" s="88"/>
-      <c r="AO1" s="89"/>
-      <c r="AP1" s="84" t="s">
+      <c r="AN1" s="138"/>
+      <c r="AO1" s="139"/>
+      <c r="AP1" s="140" t="s">
         <v>36</v>
       </c>
-      <c r="AQ1" s="84" t="s">
+      <c r="AQ1" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="AR1" s="90" t="s">
+      <c r="AR1" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="AS1" s="90" t="s">
+      <c r="AS1" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="AT1" s="90" t="s">
+      <c r="AT1" s="143" t="s">
         <v>40</v>
       </c>
-      <c r="AU1" s="90" t="s">
+      <c r="AU1" s="143" t="s">
         <v>41</v>
       </c>
-      <c r="AV1" s="90" t="s">
+      <c r="AV1" s="143" t="s">
         <v>42</v>
       </c>
-      <c r="AW1" s="90" t="s">
+      <c r="AW1" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="AX1" s="84" t="s">
+      <c r="AX1" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="AY1" s="84" t="s">
+      <c r="AY1" s="140" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A2" s="96"/>
+      <c r="A2" s="136"/>
       <c r="B2" s="12" t="s">
         <v>17</v>
       </c>
@@ -3109,10 +3130,10 @@
       <c r="G2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="86"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
       <c r="L2" s="12" t="s">
         <v>17</v>
       </c>
@@ -3203,16 +3224,16 @@
       <c r="AO2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="91"/>
-      <c r="AS2" s="91"/>
-      <c r="AT2" s="91"/>
-      <c r="AU2" s="91"/>
-      <c r="AV2" s="91"/>
-      <c r="AW2" s="91"/>
-      <c r="AX2" s="84"/>
-      <c r="AY2" s="84"/>
+      <c r="AP2" s="140"/>
+      <c r="AQ2" s="140"/>
+      <c r="AR2" s="144"/>
+      <c r="AS2" s="144"/>
+      <c r="AT2" s="144"/>
+      <c r="AU2" s="144"/>
+      <c r="AV2" s="144"/>
+      <c r="AW2" s="144"/>
+      <c r="AX2" s="140"/>
+      <c r="AY2" s="140"/>
     </row>
     <row r="3" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
@@ -3945,159 +3966,159 @@
       <c r="AY8" s="19"/>
     </row>
     <row r="11" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="87" t="s">
+      <c r="C11" s="138"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="88"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="87" t="s">
+      <c r="F11" s="138"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="137" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="88"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="85" t="s">
+      <c r="I11" s="138"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="84" t="s">
+      <c r="L11" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="M11" s="84" t="s">
+      <c r="M11" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="84" t="s">
+      <c r="N11" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="O11" s="92" t="s">
+      <c r="O11" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="92" t="s">
+      <c r="P11" s="146"/>
+      <c r="Q11" s="147"/>
+      <c r="R11" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="S11" s="93"/>
-      <c r="T11" s="94"/>
-      <c r="U11" s="92" t="s">
+      <c r="S11" s="146"/>
+      <c r="T11" s="147"/>
+      <c r="U11" s="145" t="s">
         <v>56</v>
       </c>
-      <c r="V11" s="93"/>
-      <c r="W11" s="94"/>
-      <c r="X11" s="87" t="s">
+      <c r="V11" s="146"/>
+      <c r="W11" s="147"/>
+      <c r="X11" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="Y11" s="88"/>
-      <c r="Z11" s="89"/>
-      <c r="AA11" s="87" t="s">
+      <c r="Y11" s="138"/>
+      <c r="Z11" s="139"/>
+      <c r="AA11" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="AB11" s="88"/>
-      <c r="AC11" s="89"/>
-      <c r="AD11" s="87" t="s">
+      <c r="AB11" s="138"/>
+      <c r="AC11" s="139"/>
+      <c r="AD11" s="137" t="s">
         <v>57</v>
       </c>
-      <c r="AE11" s="88"/>
-      <c r="AF11" s="89"/>
-      <c r="AG11" s="87" t="s">
+      <c r="AE11" s="138"/>
+      <c r="AF11" s="139"/>
+      <c r="AG11" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="AH11" s="88"/>
-      <c r="AI11" s="89"/>
-      <c r="AJ11" s="87" t="s">
+      <c r="AH11" s="138"/>
+      <c r="AI11" s="139"/>
+      <c r="AJ11" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="AK11" s="88"/>
-      <c r="AL11" s="89"/>
-      <c r="AM11" s="87" t="s">
+      <c r="AK11" s="138"/>
+      <c r="AL11" s="139"/>
+      <c r="AM11" s="137" t="s">
         <v>58</v>
       </c>
-      <c r="AN11" s="88"/>
-      <c r="AO11" s="89"/>
-      <c r="AP11" s="87" t="s">
+      <c r="AN11" s="138"/>
+      <c r="AO11" s="139"/>
+      <c r="AP11" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="AQ11" s="88"/>
-      <c r="AR11" s="89"/>
-      <c r="AS11" s="87" t="s">
+      <c r="AQ11" s="138"/>
+      <c r="AR11" s="139"/>
+      <c r="AS11" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="AT11" s="88"/>
-      <c r="AU11" s="89"/>
-      <c r="AV11" s="87" t="s">
+      <c r="AT11" s="138"/>
+      <c r="AU11" s="139"/>
+      <c r="AV11" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="AW11" s="88"/>
-      <c r="AX11" s="89"/>
-      <c r="AY11" s="87" t="s">
+      <c r="AW11" s="138"/>
+      <c r="AX11" s="139"/>
+      <c r="AY11" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="AZ11" s="88"/>
-      <c r="BA11" s="89"/>
-      <c r="BB11" s="87" t="s">
+      <c r="AZ11" s="138"/>
+      <c r="BA11" s="139"/>
+      <c r="BB11" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="BC11" s="88"/>
-      <c r="BD11" s="89"/>
-      <c r="BE11" s="87" t="s">
+      <c r="BC11" s="138"/>
+      <c r="BD11" s="139"/>
+      <c r="BE11" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="BF11" s="88"/>
-      <c r="BG11" s="89"/>
-      <c r="BH11" s="84" t="s">
+      <c r="BF11" s="138"/>
+      <c r="BG11" s="139"/>
+      <c r="BH11" s="140" t="s">
         <v>36</v>
       </c>
-      <c r="BI11" s="84" t="s">
+      <c r="BI11" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="BJ11" s="85" t="s">
+      <c r="BJ11" s="141" t="s">
         <v>61</v>
       </c>
-      <c r="BK11" s="90" t="s">
+      <c r="BK11" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="BL11" s="90" t="s">
+      <c r="BL11" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="BM11" s="90" t="s">
+      <c r="BM11" s="143" t="s">
         <v>62</v>
       </c>
-      <c r="BN11" s="90" t="s">
+      <c r="BN11" s="143" t="s">
         <v>40</v>
       </c>
-      <c r="BO11" s="90" t="s">
+      <c r="BO11" s="143" t="s">
         <v>41</v>
       </c>
-      <c r="BP11" s="90" t="s">
+      <c r="BP11" s="143" t="s">
         <v>63</v>
       </c>
-      <c r="BQ11" s="90" t="s">
+      <c r="BQ11" s="143" t="s">
         <v>42</v>
       </c>
-      <c r="BR11" s="90" t="s">
+      <c r="BR11" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="BS11" s="90" t="s">
+      <c r="BS11" s="143" t="s">
         <v>64</v>
       </c>
-      <c r="BT11" s="84" t="s">
+      <c r="BT11" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="BU11" s="84" t="s">
+      <c r="BU11" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="BV11" s="84" t="s">
+      <c r="BV11" s="140" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A12" s="96"/>
+      <c r="A12" s="136"/>
       <c r="B12" s="12" t="s">
         <v>17</v>
       </c>
@@ -4125,10 +4146,10 @@
       <c r="J12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="86"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="84"/>
+      <c r="K12" s="142"/>
+      <c r="L12" s="140"/>
+      <c r="M12" s="140"/>
+      <c r="N12" s="140"/>
       <c r="O12" s="12" t="s">
         <v>17</v>
       </c>
@@ -4264,21 +4285,21 @@
       <c r="BG12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="BH12" s="84"/>
-      <c r="BI12" s="84"/>
-      <c r="BJ12" s="86"/>
-      <c r="BK12" s="91"/>
-      <c r="BL12" s="91"/>
-      <c r="BM12" s="91"/>
-      <c r="BN12" s="91"/>
-      <c r="BO12" s="91"/>
-      <c r="BP12" s="91"/>
-      <c r="BQ12" s="91"/>
-      <c r="BR12" s="91"/>
-      <c r="BS12" s="91"/>
-      <c r="BT12" s="84"/>
-      <c r="BU12" s="84"/>
-      <c r="BV12" s="84"/>
+      <c r="BH12" s="140"/>
+      <c r="BI12" s="140"/>
+      <c r="BJ12" s="142"/>
+      <c r="BK12" s="144"/>
+      <c r="BL12" s="144"/>
+      <c r="BM12" s="144"/>
+      <c r="BN12" s="144"/>
+      <c r="BO12" s="144"/>
+      <c r="BP12" s="144"/>
+      <c r="BQ12" s="144"/>
+      <c r="BR12" s="144"/>
+      <c r="BS12" s="144"/>
+      <c r="BT12" s="140"/>
+      <c r="BU12" s="140"/>
+      <c r="BV12" s="140"/>
     </row>
     <row r="13" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
@@ -5378,18 +5399,43 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="BV11:BV12"/>
-    <mergeCell ref="BK11:BK12"/>
-    <mergeCell ref="BL11:BL12"/>
-    <mergeCell ref="BM11:BM12"/>
-    <mergeCell ref="BN11:BN12"/>
-    <mergeCell ref="BO11:BO12"/>
-    <mergeCell ref="BP11:BP12"/>
-    <mergeCell ref="BQ11:BQ12"/>
-    <mergeCell ref="BR11:BR12"/>
-    <mergeCell ref="BS11:BS12"/>
-    <mergeCell ref="BT11:BT12"/>
-    <mergeCell ref="BU11:BU12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="AD11:AF11"/>
+    <mergeCell ref="AV1:AV2"/>
+    <mergeCell ref="AW1:AW2"/>
+    <mergeCell ref="AX1:AX2"/>
+    <mergeCell ref="AY1:AY2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="AP1:AP2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AS1:AS2"/>
+    <mergeCell ref="AT1:AT2"/>
+    <mergeCell ref="AU1:AU2"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:Q11"/>
     <mergeCell ref="R11:T11"/>
     <mergeCell ref="U11:W11"/>
     <mergeCell ref="X11:Z11"/>
@@ -5406,43 +5452,18 @@
     <mergeCell ref="BE11:BG11"/>
     <mergeCell ref="BH11:BH12"/>
     <mergeCell ref="BI11:BI12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="AV1:AV2"/>
-    <mergeCell ref="AW1:AW2"/>
-    <mergeCell ref="AX1:AX2"/>
-    <mergeCell ref="AY1:AY2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="AP1:AP2"/>
-    <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="AS1:AS2"/>
-    <mergeCell ref="AT1:AT2"/>
-    <mergeCell ref="AU1:AU2"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="AD11:AF11"/>
+    <mergeCell ref="BV11:BV12"/>
+    <mergeCell ref="BK11:BK12"/>
+    <mergeCell ref="BL11:BL12"/>
+    <mergeCell ref="BM11:BM12"/>
+    <mergeCell ref="BN11:BN12"/>
+    <mergeCell ref="BO11:BO12"/>
+    <mergeCell ref="BP11:BP12"/>
+    <mergeCell ref="BQ11:BQ12"/>
+    <mergeCell ref="BR11:BR12"/>
+    <mergeCell ref="BS11:BS12"/>
+    <mergeCell ref="BT11:BT12"/>
+    <mergeCell ref="BU11:BU12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -5474,40 +5495,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="84" t="s">
+      <c r="C1" s="138"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="137" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="88"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="90" t="s">
+      <c r="G1" s="138"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="143" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="90" t="s">
+      <c r="J1" s="143" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="90" t="s">
+      <c r="K1" s="143" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="84" t="s">
+      <c r="L1" s="140" t="s">
         <v>177</v>
       </c>
-      <c r="M1" s="84" t="s">
+      <c r="M1" s="140" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="96"/>
+      <c r="A2" s="136"/>
       <c r="B2" s="13" t="s">
         <v>17</v>
       </c>
@@ -5517,7 +5538,7 @@
       <c r="D2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="84"/>
+      <c r="E2" s="140"/>
       <c r="F2" s="13" t="s">
         <v>17</v>
       </c>
@@ -5527,11 +5548,11 @@
       <c r="H2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
@@ -5806,39 +5827,39 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="25"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D24" s="83"/>
+      <c r="D24" s="82"/>
       <c r="E24" s="31"/>
-      <c r="F24" s="83"/>
+      <c r="F24" s="82"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D25" s="83"/>
+      <c r="D25" s="82"/>
       <c r="E25" s="31"/>
-      <c r="F25" s="83"/>
+      <c r="F25" s="82"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D26" s="83"/>
+      <c r="D26" s="82"/>
       <c r="E26" s="31"/>
-      <c r="F26" s="83"/>
+      <c r="F26" s="82"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D27" s="83"/>
+      <c r="D27" s="82"/>
       <c r="E27" s="31"/>
-      <c r="F27" s="83"/>
+      <c r="F27" s="82"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5864,7 +5885,7 @@
   <dimension ref="A1:BR50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="AF29" sqref="AF29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5888,142 +5909,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101" t="s">
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101" t="s">
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
-      <c r="X1" s="101"/>
-      <c r="Y1" s="101" t="s">
+      <c r="U1" s="148"/>
+      <c r="V1" s="148"/>
+      <c r="W1" s="148"/>
+      <c r="X1" s="148"/>
+      <c r="Y1" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="101"/>
-      <c r="AA1" s="101"/>
-      <c r="AB1" s="101"/>
-      <c r="AC1" s="101"/>
-      <c r="AD1" s="101" t="s">
+      <c r="Z1" s="148"/>
+      <c r="AA1" s="148"/>
+      <c r="AB1" s="148"/>
+      <c r="AC1" s="148"/>
+      <c r="AD1" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="AE1" s="101"/>
-      <c r="AF1" s="101"/>
-      <c r="AG1" s="101"/>
-      <c r="AH1" s="101"/>
+      <c r="AE1" s="148"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="148"/>
+      <c r="AH1" s="148"/>
       <c r="AI1" s="7" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A2" s="105"/>
-      <c r="B2" s="97" t="s">
+      <c r="A2" s="156"/>
+      <c r="B2" s="149" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="153" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="102" t="s">
+      <c r="D2" s="154"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="153" t="s">
         <v>135</v>
       </c>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="102" t="s">
+      <c r="G2" s="154"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="153" t="s">
         <v>136</v>
       </c>
-      <c r="J2" s="103"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="102" t="s">
+      <c r="J2" s="154"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="153" t="s">
         <v>137</v>
       </c>
-      <c r="M2" s="103"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="97" t="s">
+      <c r="M2" s="154"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="149" t="s">
         <v>133</v>
       </c>
-      <c r="P2" s="97" t="s">
+      <c r="P2" s="149" t="s">
         <v>134</v>
       </c>
-      <c r="Q2" s="97" t="s">
+      <c r="Q2" s="149" t="s">
         <v>135</v>
       </c>
-      <c r="R2" s="97" t="s">
+      <c r="R2" s="149" t="s">
         <v>136</v>
       </c>
-      <c r="S2" s="99" t="s">
+      <c r="S2" s="151" t="s">
         <v>137</v>
       </c>
-      <c r="T2" s="97" t="s">
+      <c r="T2" s="149" t="s">
         <v>133</v>
       </c>
-      <c r="U2" s="97" t="s">
+      <c r="U2" s="149" t="s">
         <v>134</v>
       </c>
-      <c r="V2" s="97" t="s">
+      <c r="V2" s="149" t="s">
         <v>135</v>
       </c>
-      <c r="W2" s="97" t="s">
+      <c r="W2" s="149" t="s">
         <v>136</v>
       </c>
-      <c r="X2" s="99" t="s">
+      <c r="X2" s="151" t="s">
         <v>137</v>
       </c>
-      <c r="Y2" s="97" t="s">
+      <c r="Y2" s="149" t="s">
         <v>133</v>
       </c>
-      <c r="Z2" s="97" t="s">
+      <c r="Z2" s="149" t="s">
         <v>134</v>
       </c>
-      <c r="AA2" s="97" t="s">
+      <c r="AA2" s="149" t="s">
         <v>135</v>
       </c>
-      <c r="AB2" s="97" t="s">
+      <c r="AB2" s="149" t="s">
         <v>136</v>
       </c>
-      <c r="AC2" s="99" t="s">
+      <c r="AC2" s="151" t="s">
         <v>137</v>
       </c>
-      <c r="AD2" s="97" t="s">
+      <c r="AD2" s="149" t="s">
         <v>133</v>
       </c>
-      <c r="AE2" s="97" t="s">
+      <c r="AE2" s="149" t="s">
         <v>134</v>
       </c>
-      <c r="AF2" s="97" t="s">
+      <c r="AF2" s="149" t="s">
         <v>135</v>
       </c>
-      <c r="AG2" s="97" t="s">
+      <c r="AG2" s="149" t="s">
         <v>136</v>
       </c>
-      <c r="AH2" s="99" t="s">
+      <c r="AH2" s="151" t="s">
         <v>137</v>
       </c>
-      <c r="AI2" s="97" t="s">
+      <c r="AI2" s="149" t="s">
         <v>133</v>
       </c>
       <c r="AY2" s="56"/>
@@ -6035,8 +6056,8 @@
       <c r="BH2" s="72"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A3" s="98"/>
-      <c r="B3" s="98"/>
+      <c r="A3" s="150"/>
+      <c r="B3" s="150"/>
       <c r="C3" s="7" t="s">
         <v>138</v>
       </c>
@@ -6073,27 +6094,27 @@
       <c r="N3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="100"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="100"/>
-      <c r="AD3" s="98"/>
-      <c r="AE3" s="98"/>
-      <c r="AF3" s="98"/>
-      <c r="AG3" s="98"/>
-      <c r="AH3" s="100"/>
-      <c r="AI3" s="98"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="152"/>
+      <c r="T3" s="150"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="150"/>
+      <c r="W3" s="150"/>
+      <c r="X3" s="152"/>
+      <c r="Y3" s="150"/>
+      <c r="Z3" s="150"/>
+      <c r="AA3" s="150"/>
+      <c r="AB3" s="150"/>
+      <c r="AC3" s="152"/>
+      <c r="AD3" s="150"/>
+      <c r="AE3" s="150"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="150"/>
+      <c r="AH3" s="152"/>
+      <c r="AI3" s="150"/>
       <c r="AY3" s="56"/>
       <c r="AZ3" s="56"/>
       <c r="BA3" s="56"/>
@@ -6474,142 +6495,142 @@
       <c r="BF6" s="15"/>
       <c r="BH6" s="72"/>
     </row>
-    <row r="7" spans="1:62" s="209" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="203" t="s">
+    <row r="7" spans="1:62" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="203">
+      <c r="B7" s="127">
         <v>0.61580000000000001</v>
       </c>
-      <c r="C7" s="203">
+      <c r="C7" s="127">
         <v>0.65129999999999999</v>
       </c>
-      <c r="D7" s="203">
+      <c r="D7" s="127">
         <v>0.5161</v>
       </c>
-      <c r="E7" s="203">
+      <c r="E7" s="127">
         <v>0.68600000000000005</v>
       </c>
-      <c r="F7" s="203">
+      <c r="F7" s="127">
         <v>0.60960000000000003</v>
       </c>
-      <c r="G7" s="203">
+      <c r="G7" s="127">
         <v>0.76190000000000002</v>
       </c>
-      <c r="H7" s="203">
+      <c r="H7" s="127">
         <v>0.58399999999999996</v>
       </c>
-      <c r="I7" s="203">
+      <c r="I7" s="127">
         <v>0.5857</v>
       </c>
-      <c r="J7" s="203">
+      <c r="J7" s="127">
         <v>0.625</v>
       </c>
-      <c r="K7" s="203">
+      <c r="K7" s="127">
         <v>0.5776</v>
       </c>
-      <c r="L7" s="203">
+      <c r="L7" s="127">
         <v>0.6139</v>
       </c>
-      <c r="M7" s="203">
+      <c r="M7" s="127">
         <v>0.55559999999999998</v>
       </c>
-      <c r="N7" s="203">
+      <c r="N7" s="127">
         <v>0.626</v>
       </c>
-      <c r="O7" s="203">
+      <c r="O7" s="127">
         <f t="shared" si="0"/>
         <v>0.42420000000000002</v>
       </c>
-      <c r="P7" s="204" t="s">
+      <c r="P7" s="128" t="s">
         <v>148</v>
       </c>
-      <c r="Q7" s="203">
+      <c r="Q7" s="127">
         <v>0.42420000000000002</v>
       </c>
-      <c r="R7" s="204" t="s">
+      <c r="R7" s="128" t="s">
         <v>149</v>
       </c>
-      <c r="S7" s="204" t="s">
+      <c r="S7" s="128" t="s">
         <v>150</v>
       </c>
-      <c r="T7" s="203">
+      <c r="T7" s="127">
         <f t="shared" si="1"/>
         <v>-2.2849999999999999E-2</v>
       </c>
-      <c r="U7" s="205">
+      <c r="U7" s="129">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="V7" s="205">
+      <c r="V7" s="129">
         <v>-4.0399999999999998E-2</v>
       </c>
-      <c r="W7" s="205">
+      <c r="W7" s="129">
         <v>-5.8299999999999998E-2</v>
       </c>
-      <c r="X7" s="205">
+      <c r="X7" s="129">
         <v>-1.6E-2</v>
       </c>
-      <c r="Y7" s="206">
+      <c r="Y7" s="130">
         <f t="shared" si="2"/>
         <v>-5.9999999999999967E-3</v>
       </c>
-      <c r="Z7" s="205">
+      <c r="Z7" s="129">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="AA7" s="205">
+      <c r="AA7" s="129">
         <v>-8.9899999999999994E-2</v>
       </c>
-      <c r="AB7" s="205">
+      <c r="AB7" s="129">
         <v>0.05</v>
       </c>
-      <c r="AC7" s="205">
+      <c r="AC7" s="129">
         <v>1.23E-2</v>
       </c>
-      <c r="AD7" s="203">
+      <c r="AD7" s="127">
         <f t="shared" si="3"/>
         <v>-6.4375000000000002E-2</v>
       </c>
-      <c r="AE7" s="205">
+      <c r="AE7" s="129">
         <v>-5.1000000000000004E-3</v>
       </c>
-      <c r="AF7" s="205">
+      <c r="AF7" s="129">
         <v>-8.8800000000000004E-2</v>
       </c>
-      <c r="AG7" s="205">
+      <c r="AG7" s="129">
         <v>-9.0899999999999995E-2</v>
       </c>
-      <c r="AH7" s="205">
+      <c r="AH7" s="129">
         <v>-7.2700000000000001E-2</v>
       </c>
-      <c r="AI7" s="205" t="s">
+      <c r="AI7" s="129" t="s">
         <v>151</v>
       </c>
-      <c r="AJ7" s="207"/>
-      <c r="AK7" s="207"/>
-      <c r="AL7" s="207"/>
-      <c r="AM7" s="207"/>
-      <c r="AN7" s="207"/>
-      <c r="AO7" s="207"/>
-      <c r="AP7" s="207"/>
-      <c r="AQ7" s="207"/>
-      <c r="AR7" s="207"/>
-      <c r="AS7" s="207"/>
-      <c r="AT7" s="207"/>
-      <c r="AU7" s="207"/>
-      <c r="AV7" s="207"/>
-      <c r="AW7" s="207"/>
-      <c r="AX7" s="207"/>
-      <c r="AY7" s="207"/>
-      <c r="AZ7" s="207"/>
-      <c r="BA7" s="208"/>
-      <c r="BB7" s="208"/>
-      <c r="BC7" s="208"/>
-      <c r="BD7" s="208"/>
-      <c r="BE7" s="208"/>
-      <c r="BF7" s="208"/>
-      <c r="BG7" s="207"/>
-      <c r="BH7" s="207"/>
-      <c r="BJ7" s="210"/>
+      <c r="AJ7" s="131"/>
+      <c r="AK7" s="131"/>
+      <c r="AL7" s="131"/>
+      <c r="AM7" s="131"/>
+      <c r="AN7" s="131"/>
+      <c r="AO7" s="131"/>
+      <c r="AP7" s="131"/>
+      <c r="AQ7" s="131"/>
+      <c r="AR7" s="131"/>
+      <c r="AS7" s="131"/>
+      <c r="AT7" s="131"/>
+      <c r="AU7" s="131"/>
+      <c r="AV7" s="131"/>
+      <c r="AW7" s="131"/>
+      <c r="AX7" s="131"/>
+      <c r="AY7" s="131"/>
+      <c r="AZ7" s="131"/>
+      <c r="BA7" s="132"/>
+      <c r="BB7" s="132"/>
+      <c r="BC7" s="132"/>
+      <c r="BD7" s="132"/>
+      <c r="BE7" s="132"/>
+      <c r="BF7" s="132"/>
+      <c r="BG7" s="131"/>
+      <c r="BH7" s="131"/>
+      <c r="BJ7" s="134"/>
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -6807,7 +6828,7 @@
       <c r="S9" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="T9" s="79">
+      <c r="T9" s="78">
         <f t="shared" si="1"/>
         <v>-1.5750000000000007E-2</v>
       </c>
@@ -6839,7 +6860,7 @@
       <c r="AC9" s="8">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="AD9" s="79">
+      <c r="AD9" s="78">
         <f t="shared" si="3"/>
         <v>-3.5574999999999996E-2</v>
       </c>
@@ -7191,6 +7212,9 @@
       <c r="BD19" s="56"/>
     </row>
     <row r="20" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>95</v>
+      </c>
       <c r="P20" s="61"/>
       <c r="Q20" s="61"/>
       <c r="R20" s="61"/>
@@ -7281,25 +7305,55 @@
       <c r="BF21" s="15"/>
     </row>
     <row r="22" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="P22" s="61"/>
-      <c r="R22" s="61"/>
-      <c r="S22" s="61"/>
-      <c r="T22" s="61"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="15"/>
-      <c r="AF22" s="15"/>
-      <c r="AG22" s="15"/>
-      <c r="AH22" s="15"/>
-      <c r="AI22" s="15"/>
+      <c r="A22" s="149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="148" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="148"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="148"/>
+      <c r="H22" s="148"/>
+      <c r="I22" s="148"/>
+      <c r="J22" s="148"/>
+      <c r="K22" s="148"/>
+      <c r="L22" s="148"/>
+      <c r="M22" s="148"/>
+      <c r="N22" s="148"/>
+      <c r="O22" s="148" t="s">
+        <v>13</v>
+      </c>
+      <c r="P22" s="148"/>
+      <c r="Q22" s="148"/>
+      <c r="R22" s="148"/>
+      <c r="S22" s="148"/>
+      <c r="T22" s="148" t="s">
+        <v>20</v>
+      </c>
+      <c r="U22" s="148"/>
+      <c r="V22" s="148"/>
+      <c r="W22" s="148"/>
+      <c r="X22" s="148"/>
+      <c r="Y22" s="148" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z22" s="148"/>
+      <c r="AA22" s="148"/>
+      <c r="AB22" s="148"/>
+      <c r="AC22" s="148"/>
+      <c r="AD22" s="148" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE22" s="148"/>
+      <c r="AF22" s="148"/>
+      <c r="AG22" s="148"/>
+      <c r="AH22" s="148"/>
+      <c r="AI22" s="85" t="s">
+        <v>144</v>
+      </c>
       <c r="AJ22" s="15"/>
       <c r="AK22" s="15"/>
       <c r="AL22" s="15"/>
@@ -7325,25 +7379,93 @@
       <c r="BF22" s="56"/>
     </row>
     <row r="23" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="P23" s="61"/>
-      <c r="R23" s="61"/>
-      <c r="S23" s="61"/>
-      <c r="T23" s="61"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="15"/>
-      <c r="AD23" s="15"/>
-      <c r="AE23" s="15"/>
-      <c r="AF23" s="15"/>
-      <c r="AG23" s="15"/>
-      <c r="AH23" s="15"/>
-      <c r="AI23" s="15"/>
+      <c r="A23" s="156"/>
+      <c r="B23" s="149" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="153" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="154"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="153" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="154"/>
+      <c r="H23" s="155"/>
+      <c r="I23" s="153" t="s">
+        <v>136</v>
+      </c>
+      <c r="J23" s="154"/>
+      <c r="K23" s="155"/>
+      <c r="L23" s="153" t="s">
+        <v>137</v>
+      </c>
+      <c r="M23" s="154"/>
+      <c r="N23" s="155"/>
+      <c r="O23" s="149" t="s">
+        <v>133</v>
+      </c>
+      <c r="P23" s="149" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q23" s="149" t="s">
+        <v>135</v>
+      </c>
+      <c r="R23" s="149" t="s">
+        <v>136</v>
+      </c>
+      <c r="S23" s="151" t="s">
+        <v>137</v>
+      </c>
+      <c r="T23" s="149" t="s">
+        <v>133</v>
+      </c>
+      <c r="U23" s="149" t="s">
+        <v>134</v>
+      </c>
+      <c r="V23" s="149" t="s">
+        <v>135</v>
+      </c>
+      <c r="W23" s="149" t="s">
+        <v>136</v>
+      </c>
+      <c r="X23" s="151" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y23" s="149" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z23" s="149" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA23" s="149" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB23" s="149" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC23" s="151" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD23" s="149" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE23" s="149" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF23" s="149" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG23" s="149" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH23" s="151" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI23" s="149" t="s">
+        <v>133</v>
+      </c>
       <c r="AJ23" s="15"/>
       <c r="AK23" s="15"/>
       <c r="AL23" s="15"/>
@@ -7369,35 +7491,229 @@
       <c r="BF23" s="15"/>
     </row>
     <row r="24" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="P24" s="61"/>
-      <c r="R24" s="61"/>
-      <c r="S24" s="61"/>
-      <c r="U24" s="61"/>
+      <c r="A24" s="150"/>
+      <c r="B24" s="150"/>
+      <c r="C24" s="85" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="85" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="85" t="s">
+        <v>138</v>
+      </c>
+      <c r="J24" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="85" t="s">
+        <v>138</v>
+      </c>
+      <c r="M24" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="O24" s="150"/>
+      <c r="P24" s="150"/>
+      <c r="Q24" s="150"/>
+      <c r="R24" s="150"/>
+      <c r="S24" s="152"/>
+      <c r="T24" s="150"/>
+      <c r="U24" s="150"/>
+      <c r="V24" s="150"/>
+      <c r="W24" s="150"/>
+      <c r="X24" s="152"/>
+      <c r="Y24" s="150"/>
+      <c r="Z24" s="150"/>
+      <c r="AA24" s="150"/>
+      <c r="AB24" s="150"/>
+      <c r="AC24" s="152"/>
+      <c r="AD24" s="150"/>
+      <c r="AE24" s="150"/>
+      <c r="AF24" s="150"/>
+      <c r="AG24" s="150"/>
+      <c r="AH24" s="152"/>
+      <c r="AI24" s="150"/>
       <c r="BH24" s="56"/>
     </row>
     <row r="25" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="P25" s="61"/>
-      <c r="R25" s="61"/>
-      <c r="S25" s="61"/>
-      <c r="U25" s="61"/>
+      <c r="A25" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="85"/>
+      <c r="O25" s="85" t="e">
+        <f>AVERAGE(P25:S25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="85"/>
+      <c r="S25" s="85"/>
+      <c r="T25" s="85" t="e">
+        <f>AVERAGE(U25:X25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U25" s="85"/>
+      <c r="V25" s="85"/>
+      <c r="W25" s="85"/>
+      <c r="X25" s="85"/>
+      <c r="Y25" s="85" t="e">
+        <f>AVERAGE(Z25:AC25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z25" s="85"/>
+      <c r="AA25" s="85"/>
+      <c r="AB25" s="85"/>
+      <c r="AC25" s="85"/>
+      <c r="AD25" s="85" t="e">
+        <f>AVERAGE(AE25:AH25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE25" s="85"/>
+      <c r="AF25" s="85"/>
+      <c r="AG25" s="85"/>
+      <c r="AH25" s="85"/>
+      <c r="AI25" s="85"/>
       <c r="BH25" s="56"/>
     </row>
     <row r="26" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="U26" s="61"/>
-      <c r="V26" s="61"/>
-      <c r="W26" s="61"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="15"/>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="15"/>
-      <c r="AD26" s="15"/>
-      <c r="AE26" s="15"/>
-      <c r="AF26" s="15"/>
-      <c r="AG26" s="15"/>
-      <c r="AH26" s="15"/>
-      <c r="AI26" s="15"/>
+      <c r="A26" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="85">
+        <v>0.78969999999999996</v>
+      </c>
+      <c r="C26" s="85">
+        <v>0.75780000000000003</v>
+      </c>
+      <c r="D26" s="85">
+        <v>0.74890000000000001</v>
+      </c>
+      <c r="E26" s="85">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="F26" s="85">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="G26" s="85">
+        <v>0.73729999999999996</v>
+      </c>
+      <c r="H26" s="85">
+        <v>0.77780000000000005</v>
+      </c>
+      <c r="I26" s="85">
+        <v>0.79120000000000001</v>
+      </c>
+      <c r="J26" s="85">
+        <v>0.78759999999999997</v>
+      </c>
+      <c r="K26" s="85">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="L26" s="85">
+        <v>0.79430000000000001</v>
+      </c>
+      <c r="M26" s="85">
+        <v>0.78959999999999997</v>
+      </c>
+      <c r="N26" s="85">
+        <v>0.84530000000000005</v>
+      </c>
+      <c r="O26" s="85">
+        <f t="shared" ref="O26:O32" si="4">AVERAGE(P26:S26)</f>
+        <v>0.30312499999999998</v>
+      </c>
+      <c r="P26" s="85">
+        <v>0.29380000000000001</v>
+      </c>
+      <c r="Q26" s="85">
+        <v>0.27929999999999999</v>
+      </c>
+      <c r="R26" s="85">
+        <v>0.30570000000000003</v>
+      </c>
+      <c r="S26" s="85">
+        <v>0.3337</v>
+      </c>
+      <c r="T26" s="85">
+        <f t="shared" ref="T26:T32" si="5">AVERAGE(U26:X26)</f>
+        <v>-0.41260000000000002</v>
+      </c>
+      <c r="U26" s="85">
+        <v>-0.44180000000000003</v>
+      </c>
+      <c r="V26" s="85">
+        <v>-0.4294</v>
+      </c>
+      <c r="W26" s="85">
+        <v>-0.38600000000000001</v>
+      </c>
+      <c r="X26" s="85">
+        <v>-0.39319999999999999</v>
+      </c>
+      <c r="Y26" s="85">
+        <f t="shared" ref="Y26:Y32" si="6">AVERAGE(Z26:AC26)</f>
+        <v>-0.73732500000000001</v>
+      </c>
+      <c r="Z26" s="85">
+        <v>-0.78369999999999995</v>
+      </c>
+      <c r="AA26" s="85">
+        <v>-0.72499999999999998</v>
+      </c>
+      <c r="AB26" s="85">
+        <v>-0.70630000000000004</v>
+      </c>
+      <c r="AC26" s="85">
+        <v>-0.73429999999999995</v>
+      </c>
+      <c r="AD26" s="85">
+        <f t="shared" ref="AD26:AD32" si="7">AVERAGE(AE26:AH26)</f>
+        <v>-0.49470000000000003</v>
+      </c>
+      <c r="AE26" s="85">
+        <v>-0.50270000000000004</v>
+      </c>
+      <c r="AF26" s="85">
+        <v>-0.54449999999999998</v>
+      </c>
+      <c r="AG26" s="85">
+        <v>-0.44419999999999998</v>
+      </c>
+      <c r="AH26" s="85">
+        <v>-0.4874</v>
+      </c>
+      <c r="AI26" s="85" t="s">
+        <v>185</v>
+      </c>
       <c r="AJ26" s="15"/>
       <c r="AK26" s="15"/>
       <c r="AL26" s="15"/>
@@ -7431,15 +7747,106 @@
       <c r="BN26" s="15"/>
     </row>
     <row r="27" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
+      <c r="A27" s="85" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="85"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="85"/>
+      <c r="N27" s="85"/>
+      <c r="O27" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="85" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="85" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="85" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
     </row>
     <row r="28" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15"/>
-      <c r="X28" s="15"/>
+      <c r="A28" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="85"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="85"/>
+      <c r="O28" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="85"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="85" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="78" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="85" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
       <c r="AY28" s="56"/>
       <c r="AZ28" s="56"/>
       <c r="BA28" s="56"/>
@@ -7448,8 +7855,55 @@
       <c r="BD28" s="56"/>
     </row>
     <row r="29" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="W29" s="76"/>
-      <c r="X29" s="76"/>
+      <c r="A29" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="85"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="85"/>
+      <c r="N29" s="85"/>
+      <c r="O29" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="85"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="85" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="85" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="85" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
       <c r="AY29" s="56"/>
       <c r="AZ29" s="56"/>
       <c r="BA29" s="56"/>
@@ -7458,26 +7912,55 @@
       <c r="BD29" s="56"/>
     </row>
     <row r="30" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="P30" s="61"/>
-      <c r="Q30" s="61"/>
-      <c r="R30" s="61"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="15"/>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="15"/>
-      <c r="Z30" s="15"/>
-      <c r="AA30" s="15"/>
-      <c r="AB30" s="15"/>
-      <c r="AC30" s="15"/>
-      <c r="AD30" s="15"/>
-      <c r="AE30" s="15"/>
-      <c r="AF30" s="15"/>
-      <c r="AG30" s="15"/>
-      <c r="AH30" s="15"/>
-      <c r="AI30" s="15"/>
+      <c r="A30" s="85" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="85"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="85"/>
+      <c r="O30" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P30" s="85"/>
+      <c r="Q30" s="85"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="78" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="85" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="78" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
       <c r="AJ30" s="15"/>
       <c r="AK30" s="15"/>
       <c r="AL30" s="15"/>
@@ -7503,26 +7986,55 @@
       <c r="BF30" s="15"/>
     </row>
     <row r="31" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="P31" s="61"/>
-      <c r="Q31" s="61"/>
-      <c r="R31" s="61"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="15"/>
-      <c r="Z31" s="15"/>
-      <c r="AA31" s="15"/>
-      <c r="AB31" s="15"/>
-      <c r="AC31" s="15"/>
-      <c r="AD31" s="15"/>
-      <c r="AE31" s="15"/>
-      <c r="AF31" s="15"/>
-      <c r="AG31" s="15"/>
-      <c r="AH31" s="15"/>
-      <c r="AI31" s="15"/>
+      <c r="A31" s="85" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" s="85"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="85"/>
+      <c r="M31" s="85"/>
+      <c r="N31" s="85"/>
+      <c r="O31" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P31" s="85"/>
+      <c r="Q31" s="85"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="85" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="85" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="85" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
       <c r="AJ31" s="15"/>
       <c r="AK31" s="15"/>
       <c r="AL31" s="15"/>
@@ -7548,25 +8060,55 @@
       <c r="BF31" s="15"/>
     </row>
     <row r="32" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="P32" s="61"/>
-      <c r="R32" s="61"/>
-      <c r="S32" s="61"/>
-      <c r="T32" s="61"/>
-      <c r="U32" s="15"/>
-      <c r="V32" s="15"/>
-      <c r="W32" s="15"/>
-      <c r="X32" s="15"/>
-      <c r="Y32" s="15"/>
-      <c r="Z32" s="15"/>
-      <c r="AA32" s="15"/>
-      <c r="AB32" s="15"/>
-      <c r="AC32" s="15"/>
-      <c r="AD32" s="15"/>
-      <c r="AE32" s="15"/>
-      <c r="AF32" s="15"/>
-      <c r="AG32" s="15"/>
-      <c r="AH32" s="15"/>
-      <c r="AI32" s="15"/>
+      <c r="A32" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="85"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="85"/>
+      <c r="N32" s="85"/>
+      <c r="O32" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="85"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="85"/>
+      <c r="T32" s="85" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U32" s="85"/>
+      <c r="V32" s="85"/>
+      <c r="W32" s="85"/>
+      <c r="X32" s="85"/>
+      <c r="Y32" s="85" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z32" s="85"/>
+      <c r="AA32" s="85"/>
+      <c r="AB32" s="85"/>
+      <c r="AC32" s="85"/>
+      <c r="AD32" s="85" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE32" s="85"/>
+      <c r="AF32" s="85"/>
+      <c r="AG32" s="85"/>
+      <c r="AH32" s="85"/>
+      <c r="AI32" s="85"/>
       <c r="AJ32" s="15"/>
       <c r="AK32" s="15"/>
       <c r="AL32" s="15"/>
@@ -7899,12 +8441,50 @@
       <c r="U50" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
+  <mergeCells count="64">
+    <mergeCell ref="AI23:AI24"/>
+    <mergeCell ref="AD23:AD24"/>
+    <mergeCell ref="AE23:AE24"/>
+    <mergeCell ref="AF23:AF24"/>
+    <mergeCell ref="AG23:AG24"/>
+    <mergeCell ref="AH23:AH24"/>
+    <mergeCell ref="AD22:AH22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:N22"/>
+    <mergeCell ref="O22:S22"/>
+    <mergeCell ref="T22:X22"/>
+    <mergeCell ref="Y22:AC22"/>
+    <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="Z23:Z24"/>
+    <mergeCell ref="AA23:AA24"/>
+    <mergeCell ref="AB23:AB24"/>
+    <mergeCell ref="AC23:AC24"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
     <mergeCell ref="Y1:AC1"/>
     <mergeCell ref="AD1:AH1"/>
     <mergeCell ref="C2:E2"/>
@@ -7921,17 +8501,11 @@
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -7980,7 +8554,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8014,31 +8588,31 @@
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="49"/>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="169" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="115" t="s">
+      <c r="C2" s="171" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="115" t="s">
+      <c r="D2" s="171" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="115" t="s">
+      <c r="E2" s="171" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="115" t="s">
+      <c r="F2" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="109" t="s">
+      <c r="G2" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="116" t="s">
+      <c r="H2" s="172" t="s">
         <v>104</v>
       </c>
-      <c r="I2" s="109" t="s">
+      <c r="I2" s="165" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="118" t="s">
+      <c r="J2" s="173" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="31"/>
@@ -8047,21 +8621,21 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="49"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="119"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="174"/>
       <c r="K3" s="31"/>
       <c r="L3" s="31"/>
       <c r="O3" s="54"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="157" t="s">
         <v>93</v>
       </c>
       <c r="B4" s="69" t="s">
@@ -8096,7 +8670,7 @@
       <c r="O4" s="54"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="107"/>
+      <c r="A5" s="158"/>
       <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
@@ -8129,7 +8703,7 @@
       <c r="O5" s="54"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="107"/>
+      <c r="A6" s="158"/>
       <c r="B6" s="6" t="s">
         <v>97</v>
       </c>
@@ -8162,7 +8736,7 @@
       <c r="O6" s="54"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="107"/>
+      <c r="A7" s="158"/>
       <c r="B7" s="38" t="s">
         <v>96</v>
       </c>
@@ -8195,7 +8769,7 @@
       <c r="O7" s="54"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="108"/>
+      <c r="A8" s="159"/>
       <c r="B8" s="53" t="s">
         <v>98</v>
       </c>
@@ -8228,51 +8802,89 @@
       <c r="O8" s="54"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="120" t="s">
+      <c r="A9" s="160" t="s">
         <v>95</v>
       </c>
       <c r="B9" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="52"/>
+      <c r="C9" s="84">
+        <v>1</v>
+      </c>
+      <c r="D9" s="84" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="84" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="84" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="H9" s="213">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="I9" s="37">
+        <v>256</v>
+      </c>
+      <c r="J9" s="52" t="s">
+        <v>186</v>
+      </c>
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
       <c r="O9" s="54"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="107"/>
+      <c r="A10" s="158"/>
       <c r="B10" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="67"/>
+      <c r="C10" s="83">
+        <v>3</v>
+      </c>
+      <c r="D10" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="83">
+        <v>10</v>
+      </c>
+      <c r="F10" s="83">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="84" t="s">
+        <v>187</v>
+      </c>
+      <c r="H10" s="214">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="I10" s="23">
+        <v>256</v>
+      </c>
+      <c r="J10" s="67" t="s">
+        <v>186</v>
+      </c>
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
       <c r="M10" s="32"/>
       <c r="O10" s="54"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="107"/>
+      <c r="A11" s="158"/>
       <c r="B11" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23" t="s">
+      <c r="C11" s="83">
+        <v>3</v>
+      </c>
+      <c r="D11" s="83" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="83">
+        <v>50</v>
+      </c>
+      <c r="F11" s="83" t="s">
         <v>101</v>
       </c>
       <c r="G11" s="23" t="s">
@@ -8293,14 +8905,22 @@
       <c r="O11" s="54"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="107"/>
+      <c r="A12" s="158"/>
       <c r="B12" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="C12" s="83">
+        <v>4</v>
+      </c>
+      <c r="D12" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="83">
+        <v>100</v>
+      </c>
+      <c r="F12" s="83" t="s">
+        <v>101</v>
+      </c>
       <c r="G12" s="23" t="s">
         <v>101</v>
       </c>
@@ -8319,14 +8939,22 @@
       <c r="O12" s="54"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="108"/>
+      <c r="A13" s="159"/>
       <c r="B13" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
+      <c r="C13" s="44">
+        <v>4</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="44">
+        <v>100</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>101</v>
+      </c>
       <c r="G13" s="44" t="s">
         <v>101</v>
       </c>
@@ -8373,34 +9001,34 @@
     </row>
     <row r="17" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49"/>
-      <c r="B17" s="122" t="s">
+      <c r="B17" s="163" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="109" t="s">
+      <c r="C17" s="165" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="109" t="s">
+      <c r="D17" s="165" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="109" t="s">
+      <c r="E17" s="165" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="109" t="s">
+      <c r="F17" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="109" t="s">
+      <c r="G17" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="121" t="s">
+      <c r="H17" s="161" t="s">
         <v>104</v>
       </c>
-      <c r="I17" s="109" t="s">
+      <c r="I17" s="165" t="s">
         <v>100</v>
       </c>
-      <c r="J17" s="109" t="s">
+      <c r="J17" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="111" t="s">
+      <c r="K17" s="167" t="s">
         <v>66</v>
       </c>
       <c r="L17" s="63"/>
@@ -8408,20 +9036,20 @@
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="50"/>
-      <c r="B18" s="123"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="112"/>
+      <c r="B18" s="164"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="166"/>
+      <c r="E18" s="166"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="162"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="166"/>
+      <c r="K18" s="168"/>
       <c r="L18" s="63"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="106" t="s">
+      <c r="A19" s="157" t="s">
         <v>93</v>
       </c>
       <c r="B19" s="16" t="s">
@@ -8451,12 +9079,12 @@
       <c r="J19" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="K19" s="77" t="s">
+      <c r="K19" s="76" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="107"/>
+      <c r="A20" s="158"/>
       <c r="B20" s="7" t="s">
         <v>158</v>
       </c>
@@ -8484,13 +9112,13 @@
       <c r="J20" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="K20" s="78" t="s">
+      <c r="K20" s="77" t="s">
         <v>161</v>
       </c>
       <c r="L20" s="32"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="107"/>
+      <c r="A21" s="158"/>
       <c r="B21" s="7" t="s">
         <v>97</v>
       </c>
@@ -8524,7 +9152,7 @@
       <c r="L21" s="32"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="107"/>
+      <c r="A22" s="158"/>
       <c r="B22" s="7" t="s">
         <v>159</v>
       </c>
@@ -8557,7 +9185,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="108"/>
+      <c r="A23" s="159"/>
       <c r="B23" s="47" t="s">
         <v>160</v>
       </c>
@@ -8590,7 +9218,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="106" t="s">
+      <c r="A24" s="157" t="s">
         <v>95</v>
       </c>
       <c r="B24" s="37" t="s">
@@ -8607,7 +9235,7 @@
       <c r="K24" s="52"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="107"/>
+      <c r="A25" s="158"/>
       <c r="B25" s="23" t="s">
         <v>14</v>
       </c>
@@ -8622,7 +9250,7 @@
       <c r="K25" s="67"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="107"/>
+      <c r="A26" s="158"/>
       <c r="B26" s="23" t="s">
         <v>97</v>
       </c>
@@ -8649,7 +9277,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="107"/>
+      <c r="A27" s="158"/>
       <c r="B27" s="23" t="s">
         <v>96</v>
       </c>
@@ -8674,7 +9302,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="108"/>
+      <c r="A28" s="159"/>
       <c r="B28" s="44" t="s">
         <v>98</v>
       </c>
@@ -8713,12 +9341,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="I17:I18"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -8731,11 +9358,12 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="J17:J18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -8763,84 +9391,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="208" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="124"/>
+      <c r="B1" s="208"/>
       <c r="C1" s="48"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
       <c r="G1" s="48"/>
       <c r="H1" s="48"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
       <c r="L1" s="48"/>
       <c r="M1" s="48"/>
       <c r="N1" s="48"/>
-      <c r="O1" s="82"/>
+      <c r="O1" s="81"/>
       <c r="P1" s="32"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="165" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="135" t="s">
+      <c r="C2" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="135" t="s">
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="199" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="137" t="s">
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="137" t="s">
+      <c r="N2" s="178" t="s">
         <v>116</v>
       </c>
-      <c r="O2" s="151" t="s">
+      <c r="O2" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="147" t="s">
+      <c r="P2" s="175" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="129"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="84" t="s">
+      <c r="A3" s="210"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84" t="s">
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="152"/>
-      <c r="P3" s="132"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="179"/>
+      <c r="N3" s="179"/>
+      <c r="O3" s="182"/>
+      <c r="P3" s="176"/>
     </row>
     <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="130"/>
-      <c r="B4" s="110"/>
+      <c r="A4" s="211"/>
+      <c r="B4" s="166"/>
       <c r="C4" s="44" t="s">
         <v>180</v>
       </c>
@@ -8871,306 +9499,306 @@
       <c r="L4" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="M4" s="153"/>
-      <c r="N4" s="153"/>
-      <c r="O4" s="154"/>
-      <c r="P4" s="148"/>
+      <c r="M4" s="180"/>
+      <c r="N4" s="180"/>
+      <c r="O4" s="183"/>
+      <c r="P4" s="177"/>
     </row>
     <row r="5" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="184" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="142"/>
-      <c r="L5" s="142"/>
-      <c r="M5" s="141"/>
-      <c r="N5" s="149"/>
-      <c r="O5" s="149"/>
-      <c r="P5" s="144"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="89"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="126"/>
+      <c r="A6" s="185"/>
       <c r="B6" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="133">
+      <c r="C6" s="187">
         <v>0.65300000000000002</v>
       </c>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="133">
+      <c r="D6" s="188"/>
+      <c r="E6" s="188"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="189"/>
+      <c r="H6" s="187">
         <v>0.66700000000000004</v>
       </c>
-      <c r="I6" s="140"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="140"/>
-      <c r="L6" s="134"/>
-      <c r="M6" s="81">
+      <c r="I6" s="188"/>
+      <c r="J6" s="188"/>
+      <c r="K6" s="188"/>
+      <c r="L6" s="189"/>
+      <c r="M6" s="80">
         <v>-0.36249999999999999</v>
       </c>
-      <c r="N6" s="81">
+      <c r="N6" s="80">
         <v>-0.37590000000000001</v>
       </c>
-      <c r="O6" s="81">
+      <c r="O6" s="80">
         <v>-0.32519999999999999</v>
       </c>
-      <c r="P6" s="78" t="s">
+      <c r="P6" s="77" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="127"/>
+      <c r="A7" s="186"/>
       <c r="B7" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="157">
+      <c r="C7" s="96">
         <v>0.66949999999999998</v>
       </c>
-      <c r="D7" s="157">
+      <c r="D7" s="96">
         <v>0.73029999999999995</v>
       </c>
-      <c r="E7" s="157">
+      <c r="E7" s="96">
         <v>0.63700000000000001</v>
       </c>
-      <c r="F7" s="157">
+      <c r="F7" s="96">
         <v>0.64290000000000003</v>
       </c>
-      <c r="G7" s="155">
+      <c r="G7" s="94">
         <v>0.66459999999999997</v>
       </c>
-      <c r="H7" s="155">
+      <c r="H7" s="94">
         <v>0.70352500000000007</v>
       </c>
-      <c r="I7" s="155">
+      <c r="I7" s="94">
         <v>0.80189999999999995</v>
       </c>
-      <c r="J7" s="155">
+      <c r="J7" s="94">
         <v>0.59540000000000004</v>
       </c>
-      <c r="K7" s="155">
+      <c r="K7" s="94">
         <v>0.69140000000000001</v>
       </c>
-      <c r="L7" s="155">
+      <c r="L7" s="94">
         <v>0.72540000000000004</v>
       </c>
-      <c r="M7" s="156">
+      <c r="M7" s="95">
         <v>-0.38785000000000003</v>
       </c>
-      <c r="N7" s="156">
+      <c r="N7" s="95">
         <v>-0.39932500000000004</v>
       </c>
-      <c r="O7" s="156">
+      <c r="O7" s="95">
         <v>-0.43992500000000001</v>
       </c>
-      <c r="P7" s="158" t="s">
+      <c r="P7" s="97" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="184" t="s">
         <v>112</v>
       </c>
       <c r="B8" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="159"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="159"/>
-      <c r="I8" s="160"/>
-      <c r="J8" s="160"/>
-      <c r="K8" s="160"/>
-      <c r="L8" s="161"/>
-      <c r="M8" s="162"/>
-      <c r="N8" s="162"/>
-      <c r="O8" s="162"/>
-      <c r="P8" s="158"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="191"/>
+      <c r="E8" s="191"/>
+      <c r="F8" s="191"/>
+      <c r="G8" s="192"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="191"/>
+      <c r="J8" s="191"/>
+      <c r="K8" s="191"/>
+      <c r="L8" s="192"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="97"/>
     </row>
     <row r="9" spans="1:22" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="126"/>
+      <c r="A9" s="185"/>
       <c r="B9" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="163"/>
-      <c r="D9" s="164"/>
-      <c r="E9" s="164"/>
-      <c r="F9" s="164"/>
-      <c r="G9" s="165"/>
-      <c r="H9" s="166"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="167"/>
-      <c r="K9" s="167"/>
-      <c r="L9" s="168"/>
-      <c r="M9" s="169"/>
-      <c r="N9" s="169"/>
-      <c r="O9" s="169"/>
-      <c r="P9" s="158"/>
+      <c r="C9" s="193"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="194"/>
+      <c r="G9" s="195"/>
+      <c r="H9" s="196"/>
+      <c r="I9" s="197"/>
+      <c r="J9" s="197"/>
+      <c r="K9" s="197"/>
+      <c r="L9" s="198"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="97"/>
     </row>
     <row r="10" spans="1:22" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="126"/>
+      <c r="A10" s="185"/>
       <c r="B10" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="133"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="140"/>
-      <c r="K10" s="140"/>
-      <c r="L10" s="134"/>
-      <c r="M10" s="170"/>
-      <c r="N10" s="170"/>
-      <c r="O10" s="170"/>
-      <c r="P10" s="158"/>
+      <c r="C10" s="187"/>
+      <c r="D10" s="188"/>
+      <c r="E10" s="188"/>
+      <c r="F10" s="188"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="187"/>
+      <c r="I10" s="188"/>
+      <c r="J10" s="188"/>
+      <c r="K10" s="188"/>
+      <c r="L10" s="189"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="97"/>
     </row>
     <row r="11" spans="1:22" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="127"/>
+      <c r="A11" s="186"/>
       <c r="B11" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="157"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="157"/>
-      <c r="G11" s="155"/>
-      <c r="H11" s="155"/>
-      <c r="I11" s="155"/>
-      <c r="J11" s="155"/>
-      <c r="K11" s="155"/>
-      <c r="L11" s="155"/>
-      <c r="M11" s="155"/>
-      <c r="N11" s="155"/>
-      <c r="O11" s="156"/>
-      <c r="P11" s="158"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="97"/>
     </row>
     <row r="12" spans="1:22" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="125" t="s">
+      <c r="A12" s="184" t="s">
         <v>113</v>
       </c>
       <c r="B12" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="159"/>
-      <c r="D12" s="160"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="160"/>
-      <c r="J12" s="160"/>
-      <c r="K12" s="160"/>
-      <c r="L12" s="161"/>
-      <c r="M12" s="162"/>
-      <c r="N12" s="162"/>
-      <c r="O12" s="162"/>
-      <c r="P12" s="158"/>
+      <c r="C12" s="190"/>
+      <c r="D12" s="191"/>
+      <c r="E12" s="191"/>
+      <c r="F12" s="191"/>
+      <c r="G12" s="192"/>
+      <c r="H12" s="190"/>
+      <c r="I12" s="191"/>
+      <c r="J12" s="191"/>
+      <c r="K12" s="191"/>
+      <c r="L12" s="192"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="97"/>
     </row>
     <row r="13" spans="1:22" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="126"/>
+      <c r="A13" s="185"/>
       <c r="B13" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="163"/>
-      <c r="D13" s="164"/>
-      <c r="E13" s="164"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="165"/>
-      <c r="H13" s="166"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="167"/>
-      <c r="L13" s="168"/>
-      <c r="M13" s="169"/>
-      <c r="N13" s="169"/>
-      <c r="O13" s="169"/>
-      <c r="P13" s="158"/>
+      <c r="C13" s="193"/>
+      <c r="D13" s="194"/>
+      <c r="E13" s="194"/>
+      <c r="F13" s="194"/>
+      <c r="G13" s="195"/>
+      <c r="H13" s="196"/>
+      <c r="I13" s="197"/>
+      <c r="J13" s="197"/>
+      <c r="K13" s="197"/>
+      <c r="L13" s="198"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="97"/>
     </row>
     <row r="14" spans="1:22" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="126"/>
+      <c r="A14" s="185"/>
       <c r="B14" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="133"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="140"/>
-      <c r="K14" s="140"/>
-      <c r="L14" s="134"/>
-      <c r="M14" s="170"/>
-      <c r="N14" s="170"/>
-      <c r="O14" s="170"/>
-      <c r="P14" s="158"/>
+      <c r="C14" s="187"/>
+      <c r="D14" s="188"/>
+      <c r="E14" s="188"/>
+      <c r="F14" s="188"/>
+      <c r="G14" s="189"/>
+      <c r="H14" s="187"/>
+      <c r="I14" s="188"/>
+      <c r="J14" s="188"/>
+      <c r="K14" s="188"/>
+      <c r="L14" s="189"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="97"/>
     </row>
     <row r="15" spans="1:22" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="127"/>
+      <c r="A15" s="186"/>
       <c r="B15" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="157"/>
-      <c r="D15" s="157"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="155"/>
-      <c r="I15" s="155"/>
-      <c r="J15" s="155"/>
-      <c r="K15" s="155"/>
-      <c r="L15" s="155"/>
-      <c r="M15" s="155"/>
-      <c r="N15" s="155"/>
-      <c r="O15" s="156"/>
-      <c r="P15" s="171"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="101"/>
     </row>
     <row r="16" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="126" t="s">
+      <c r="A16" s="185" t="s">
         <v>53</v>
       </c>
       <c r="B16" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="195"/>
-      <c r="D16" s="196"/>
-      <c r="E16" s="196"/>
-      <c r="F16" s="196"/>
-      <c r="G16" s="196"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="197"/>
-      <c r="J16" s="197"/>
-      <c r="K16" s="197"/>
-      <c r="L16" s="198"/>
-      <c r="M16" s="197"/>
-      <c r="N16" s="197"/>
-      <c r="O16" s="197"/>
-      <c r="P16" s="199"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="122"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="121"/>
+      <c r="P16" s="123"/>
       <c r="S16" s="35"/>
       <c r="T16" s="35"/>
       <c r="U16" s="35"/>
       <c r="V16" s="35"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="126"/>
-      <c r="B17" s="145" t="s">
+      <c r="A17" s="185"/>
+      <c r="B17" s="90" t="s">
         <v>107</v>
       </c>
       <c r="C17" s="19"/>
@@ -9186,7 +9814,7 @@
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
-      <c r="P17" s="78"/>
+      <c r="P17" s="77"/>
       <c r="S17" s="35"/>
       <c r="T17" s="35"/>
       <c r="U17" s="35"/>
@@ -9196,50 +9824,50 @@
       <c r="Y17" s="35"/>
     </row>
     <row r="18" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="127"/>
+      <c r="A18" s="186"/>
       <c r="B18" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="192">
+      <c r="C18" s="116">
         <v>0.60399999999999998</v>
       </c>
-      <c r="D18" s="192">
+      <c r="D18" s="116">
         <v>0.60529999999999995</v>
       </c>
-      <c r="E18" s="192">
+      <c r="E18" s="116">
         <v>0.58899999999999997</v>
       </c>
-      <c r="F18" s="192">
+      <c r="F18" s="116">
         <v>0.61429999999999996</v>
       </c>
-      <c r="G18" s="200">
+      <c r="G18" s="124">
         <v>0.60760000000000003</v>
       </c>
-      <c r="H18" s="200">
+      <c r="H18" s="124">
         <v>0.71819999999999995</v>
       </c>
-      <c r="I18" s="200" t="s">
+      <c r="I18" s="124" t="s">
         <v>153</v>
       </c>
-      <c r="J18" s="200" t="s">
+      <c r="J18" s="124" t="s">
         <v>154</v>
       </c>
-      <c r="K18" s="200" t="s">
+      <c r="K18" s="124" t="s">
         <v>155</v>
       </c>
-      <c r="L18" s="200">
+      <c r="L18" s="124">
         <v>0.71819999999999995</v>
       </c>
-      <c r="M18" s="201">
+      <c r="M18" s="125">
         <v>1.1824999999999994E-2</v>
       </c>
-      <c r="N18" s="201">
+      <c r="N18" s="125">
         <v>-0.14877499999999999</v>
       </c>
-      <c r="O18" s="201">
+      <c r="O18" s="125">
         <v>-9.580000000000001E-2</v>
       </c>
-      <c r="P18" s="202" t="s">
+      <c r="P18" s="126" t="s">
         <v>156</v>
       </c>
       <c r="S18" s="35"/>
@@ -9251,26 +9879,26 @@
       <c r="Y18" s="35"/>
     </row>
     <row r="19" spans="1:25" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="125" t="s">
+      <c r="A19" s="184" t="s">
         <v>121</v>
       </c>
       <c r="B19" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="159"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="159"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="160"/>
-      <c r="K19" s="160"/>
-      <c r="L19" s="161"/>
-      <c r="M19" s="162"/>
-      <c r="N19" s="162"/>
-      <c r="O19" s="162"/>
-      <c r="P19" s="177"/>
+      <c r="C19" s="190"/>
+      <c r="D19" s="191"/>
+      <c r="E19" s="191"/>
+      <c r="F19" s="191"/>
+      <c r="G19" s="192"/>
+      <c r="H19" s="190"/>
+      <c r="I19" s="191"/>
+      <c r="J19" s="191"/>
+      <c r="K19" s="191"/>
+      <c r="L19" s="192"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="98"/>
+      <c r="O19" s="98"/>
+      <c r="P19" s="107"/>
       <c r="S19" s="35"/>
       <c r="T19" s="35"/>
       <c r="U19" s="35"/>
@@ -9280,24 +9908,24 @@
       <c r="Y19" s="35"/>
     </row>
     <row r="20" spans="1:25" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="126"/>
+      <c r="A20" s="185"/>
       <c r="B20" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="163"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="164"/>
-      <c r="F20" s="164"/>
-      <c r="G20" s="165"/>
-      <c r="H20" s="166"/>
-      <c r="I20" s="167"/>
-      <c r="J20" s="167"/>
-      <c r="K20" s="167"/>
-      <c r="L20" s="168"/>
-      <c r="M20" s="169"/>
-      <c r="N20" s="169"/>
-      <c r="O20" s="169"/>
-      <c r="P20" s="158"/>
+      <c r="C20" s="193"/>
+      <c r="D20" s="194"/>
+      <c r="E20" s="194"/>
+      <c r="F20" s="194"/>
+      <c r="G20" s="195"/>
+      <c r="H20" s="196"/>
+      <c r="I20" s="197"/>
+      <c r="J20" s="197"/>
+      <c r="K20" s="197"/>
+      <c r="L20" s="198"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="97"/>
       <c r="S20" s="35"/>
       <c r="T20" s="35"/>
       <c r="U20" s="35"/>
@@ -9307,24 +9935,24 @@
       <c r="Y20" s="35"/>
     </row>
     <row r="21" spans="1:25" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="126"/>
+      <c r="A21" s="185"/>
       <c r="B21" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="133"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="140"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="134"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="140"/>
-      <c r="K21" s="140"/>
-      <c r="L21" s="134"/>
-      <c r="M21" s="170"/>
-      <c r="N21" s="170"/>
-      <c r="O21" s="170"/>
-      <c r="P21" s="158"/>
+      <c r="C21" s="187"/>
+      <c r="D21" s="188"/>
+      <c r="E21" s="188"/>
+      <c r="F21" s="188"/>
+      <c r="G21" s="189"/>
+      <c r="H21" s="187"/>
+      <c r="I21" s="188"/>
+      <c r="J21" s="188"/>
+      <c r="K21" s="188"/>
+      <c r="L21" s="189"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="100"/>
+      <c r="O21" s="100"/>
+      <c r="P21" s="97"/>
       <c r="S21" s="35"/>
       <c r="T21" s="35"/>
       <c r="U21" s="35"/>
@@ -9334,24 +9962,24 @@
       <c r="Y21" s="35"/>
     </row>
     <row r="22" spans="1:25" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="127"/>
+      <c r="A22" s="186"/>
       <c r="B22" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="157"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="155"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="155"/>
-      <c r="K22" s="155"/>
-      <c r="L22" s="155"/>
-      <c r="M22" s="155"/>
-      <c r="N22" s="155"/>
-      <c r="O22" s="156"/>
-      <c r="P22" s="158"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="97"/>
       <c r="S22" s="35"/>
       <c r="T22" s="35"/>
       <c r="U22" s="35"/>
@@ -9361,26 +9989,26 @@
       <c r="Y22" s="35"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="125" t="s">
+      <c r="A23" s="184" t="s">
         <v>122</v>
       </c>
       <c r="B23" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="159"/>
-      <c r="D23" s="160"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="159"/>
-      <c r="I23" s="160"/>
-      <c r="J23" s="160"/>
-      <c r="K23" s="160"/>
-      <c r="L23" s="161"/>
-      <c r="M23" s="162"/>
-      <c r="N23" s="162"/>
-      <c r="O23" s="162"/>
-      <c r="P23" s="158"/>
+      <c r="C23" s="190"/>
+      <c r="D23" s="191"/>
+      <c r="E23" s="191"/>
+      <c r="F23" s="191"/>
+      <c r="G23" s="192"/>
+      <c r="H23" s="190"/>
+      <c r="I23" s="191"/>
+      <c r="J23" s="191"/>
+      <c r="K23" s="191"/>
+      <c r="L23" s="192"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="98"/>
+      <c r="P23" s="97"/>
       <c r="S23" s="35"/>
       <c r="T23" s="35"/>
       <c r="U23" s="35"/>
@@ -9390,24 +10018,24 @@
       <c r="Y23" s="35"/>
     </row>
     <row r="24" spans="1:25" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="126"/>
+      <c r="A24" s="185"/>
       <c r="B24" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="163"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="164"/>
-      <c r="G24" s="165"/>
-      <c r="H24" s="166"/>
-      <c r="I24" s="167"/>
-      <c r="J24" s="167"/>
-      <c r="K24" s="167"/>
-      <c r="L24" s="168"/>
-      <c r="M24" s="169"/>
-      <c r="N24" s="169"/>
-      <c r="O24" s="169"/>
-      <c r="P24" s="158"/>
+      <c r="C24" s="193"/>
+      <c r="D24" s="194"/>
+      <c r="E24" s="194"/>
+      <c r="F24" s="194"/>
+      <c r="G24" s="195"/>
+      <c r="H24" s="196"/>
+      <c r="I24" s="197"/>
+      <c r="J24" s="197"/>
+      <c r="K24" s="197"/>
+      <c r="L24" s="198"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="97"/>
       <c r="S24" s="35"/>
       <c r="T24" s="35"/>
       <c r="U24" s="35"/>
@@ -9417,24 +10045,24 @@
       <c r="Y24" s="35"/>
     </row>
     <row r="25" spans="1:25" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="126"/>
+      <c r="A25" s="185"/>
       <c r="B25" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="133"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="140"/>
-      <c r="F25" s="140"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="140"/>
-      <c r="K25" s="140"/>
-      <c r="L25" s="134"/>
-      <c r="M25" s="170"/>
-      <c r="N25" s="170"/>
-      <c r="O25" s="170"/>
-      <c r="P25" s="158"/>
+      <c r="C25" s="187"/>
+      <c r="D25" s="188"/>
+      <c r="E25" s="188"/>
+      <c r="F25" s="188"/>
+      <c r="G25" s="189"/>
+      <c r="H25" s="187"/>
+      <c r="I25" s="188"/>
+      <c r="J25" s="188"/>
+      <c r="K25" s="188"/>
+      <c r="L25" s="189"/>
+      <c r="M25" s="100"/>
+      <c r="N25" s="100"/>
+      <c r="O25" s="100"/>
+      <c r="P25" s="97"/>
       <c r="S25" s="35"/>
       <c r="T25" s="35"/>
       <c r="U25" s="35"/>
@@ -9444,24 +10072,24 @@
       <c r="Y25" s="35"/>
     </row>
     <row r="26" spans="1:25" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="127"/>
+      <c r="A26" s="186"/>
       <c r="B26" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="157"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="155"/>
-      <c r="I26" s="155"/>
-      <c r="J26" s="155"/>
-      <c r="K26" s="155"/>
-      <c r="L26" s="155"/>
-      <c r="M26" s="155"/>
-      <c r="N26" s="155"/>
-      <c r="O26" s="156"/>
-      <c r="P26" s="158"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="94"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="97"/>
       <c r="S26" s="35"/>
       <c r="T26" s="35"/>
       <c r="U26" s="35"/>
@@ -9471,26 +10099,26 @@
       <c r="Y26" s="35"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="126" t="s">
+      <c r="A27" s="185" t="s">
         <v>67</v>
       </c>
       <c r="B27" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="172"/>
-      <c r="D27" s="173"/>
-      <c r="E27" s="173"/>
-      <c r="F27" s="173"/>
-      <c r="G27" s="173"/>
-      <c r="H27" s="174"/>
-      <c r="I27" s="178"/>
-      <c r="J27" s="178"/>
-      <c r="K27" s="178"/>
-      <c r="L27" s="178"/>
-      <c r="M27" s="162"/>
-      <c r="N27" s="162"/>
-      <c r="O27" s="162"/>
-      <c r="P27" s="158"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="108"/>
+      <c r="L27" s="108"/>
+      <c r="M27" s="98"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="98"/>
+      <c r="P27" s="97"/>
       <c r="S27" s="35"/>
       <c r="T27" s="35"/>
       <c r="U27" s="35"/>
@@ -9500,24 +10128,24 @@
       <c r="Y27" s="35"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="126"/>
+      <c r="A28" s="185"/>
       <c r="B28" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="133"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="134"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="140"/>
-      <c r="K28" s="140"/>
-      <c r="L28" s="134"/>
-      <c r="M28" s="170"/>
-      <c r="N28" s="170"/>
-      <c r="O28" s="170"/>
-      <c r="P28" s="158"/>
+      <c r="C28" s="187"/>
+      <c r="D28" s="188"/>
+      <c r="E28" s="188"/>
+      <c r="F28" s="188"/>
+      <c r="G28" s="189"/>
+      <c r="H28" s="187"/>
+      <c r="I28" s="188"/>
+      <c r="J28" s="188"/>
+      <c r="K28" s="188"/>
+      <c r="L28" s="189"/>
+      <c r="M28" s="100"/>
+      <c r="N28" s="100"/>
+      <c r="O28" s="100"/>
+      <c r="P28" s="97"/>
       <c r="U28" s="35"/>
       <c r="V28" s="35"/>
       <c r="W28" s="35"/>
@@ -9525,50 +10153,50 @@
       <c r="Y28" s="35"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="127"/>
+      <c r="A29" s="186"/>
       <c r="B29" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="157">
+      <c r="C29" s="96">
         <v>0.59730000000000005</v>
       </c>
-      <c r="D29" s="157">
+      <c r="D29" s="96">
         <v>0.61839999999999995</v>
       </c>
-      <c r="E29" s="157">
+      <c r="E29" s="96">
         <v>0.58220000000000005</v>
       </c>
-      <c r="F29" s="157">
+      <c r="F29" s="96">
         <v>0.5857</v>
       </c>
-      <c r="G29" s="155">
+      <c r="G29" s="94">
         <v>0.60129999999999995</v>
       </c>
-      <c r="H29" s="155">
+      <c r="H29" s="94">
         <v>0.50409999999999999</v>
       </c>
-      <c r="I29" s="155" t="s">
+      <c r="I29" s="94" t="s">
         <v>165</v>
       </c>
-      <c r="J29" s="155">
+      <c r="J29" s="94">
         <v>0.50409999999999999</v>
       </c>
-      <c r="K29" s="155" t="s">
+      <c r="K29" s="94" t="s">
         <v>166</v>
       </c>
-      <c r="L29" s="155" t="s">
+      <c r="L29" s="94" t="s">
         <v>167</v>
       </c>
-      <c r="M29" s="156">
+      <c r="M29" s="95">
         <v>-3.5249999999999997E-2</v>
       </c>
-      <c r="N29" s="155">
+      <c r="N29" s="94">
         <v>-3.8250000000000006E-2</v>
       </c>
-      <c r="O29" s="156">
+      <c r="O29" s="95">
         <v>-5.1025000000000008E-2</v>
       </c>
-      <c r="P29" s="171" t="s">
+      <c r="P29" s="101" t="s">
         <v>168</v>
       </c>
       <c r="U29" s="35"/>
@@ -9578,26 +10206,26 @@
       <c r="Y29" s="35"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="126" t="s">
+      <c r="A30" s="185" t="s">
         <v>123</v>
       </c>
       <c r="B30" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="133"/>
-      <c r="D30" s="140"/>
-      <c r="E30" s="140"/>
-      <c r="F30" s="140"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="133"/>
-      <c r="I30" s="140"/>
-      <c r="J30" s="140"/>
-      <c r="K30" s="140"/>
-      <c r="L30" s="134"/>
-      <c r="M30" s="170"/>
-      <c r="N30" s="170"/>
-      <c r="O30" s="170"/>
-      <c r="P30" s="175"/>
+      <c r="C30" s="187"/>
+      <c r="D30" s="188"/>
+      <c r="E30" s="188"/>
+      <c r="F30" s="188"/>
+      <c r="G30" s="189"/>
+      <c r="H30" s="187"/>
+      <c r="I30" s="188"/>
+      <c r="J30" s="188"/>
+      <c r="K30" s="188"/>
+      <c r="L30" s="189"/>
+      <c r="M30" s="100"/>
+      <c r="N30" s="100"/>
+      <c r="O30" s="100"/>
+      <c r="P30" s="105"/>
       <c r="U30" s="35"/>
       <c r="V30" s="35"/>
       <c r="W30" s="35"/>
@@ -9605,50 +10233,50 @@
       <c r="Y30" s="35"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="127"/>
+      <c r="A31" s="186"/>
       <c r="B31" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="157">
+      <c r="C31" s="96">
         <v>0.60399999999999998</v>
       </c>
-      <c r="D31" s="157">
+      <c r="D31" s="96">
         <v>0.60529999999999995</v>
       </c>
-      <c r="E31" s="157">
+      <c r="E31" s="96">
         <v>0.56850000000000001</v>
       </c>
-      <c r="F31" s="157">
+      <c r="F31" s="96">
         <v>0.62860000000000005</v>
       </c>
-      <c r="G31" s="155">
+      <c r="G31" s="94">
         <v>0.6139</v>
       </c>
-      <c r="H31" s="155">
+      <c r="H31" s="94">
         <v>0.60030000000000006</v>
       </c>
-      <c r="I31" s="155">
+      <c r="I31" s="94">
         <v>0.73909999999999998</v>
       </c>
-      <c r="J31" s="155">
+      <c r="J31" s="94">
         <v>0.46150000000000002</v>
       </c>
-      <c r="K31" s="155" t="s">
+      <c r="K31" s="94" t="s">
         <v>169</v>
       </c>
-      <c r="L31" s="155" t="s">
+      <c r="L31" s="94" t="s">
         <v>170</v>
       </c>
-      <c r="M31" s="156">
+      <c r="M31" s="95">
         <v>-6.2550000000000008E-2</v>
       </c>
-      <c r="N31" s="155">
+      <c r="N31" s="94">
         <v>-8.2850000000000007E-2</v>
       </c>
-      <c r="O31" s="156">
+      <c r="O31" s="95">
         <v>-8.9025000000000007E-2</v>
       </c>
-      <c r="P31" s="171" t="s">
+      <c r="P31" s="101" t="s">
         <v>171</v>
       </c>
       <c r="U31" s="35"/>
@@ -9658,26 +10286,26 @@
       <c r="Y31" s="35"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="125" t="s">
+      <c r="A32" s="184" t="s">
         <v>14</v>
       </c>
       <c r="B32" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="179"/>
-      <c r="D32" s="180"/>
-      <c r="E32" s="180"/>
-      <c r="F32" s="180"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="181"/>
-      <c r="I32" s="182"/>
-      <c r="J32" s="182"/>
-      <c r="K32" s="182"/>
-      <c r="L32" s="183"/>
-      <c r="M32" s="184"/>
-      <c r="N32" s="185"/>
-      <c r="O32" s="169"/>
-      <c r="P32" s="175"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="112"/>
+      <c r="J32" s="112"/>
+      <c r="K32" s="112"/>
+      <c r="L32" s="113"/>
+      <c r="M32" s="114"/>
+      <c r="N32" s="115"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="105"/>
       <c r="U32" s="35"/>
       <c r="V32" s="35"/>
       <c r="W32" s="35"/>
@@ -9685,34 +10313,34 @@
       <c r="Y32" s="35"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A33" s="126"/>
+      <c r="A33" s="185"/>
       <c r="B33" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="133">
+      <c r="C33" s="187">
         <v>0.63200000000000001</v>
       </c>
-      <c r="D33" s="140"/>
-      <c r="E33" s="140"/>
-      <c r="F33" s="140"/>
-      <c r="G33" s="134"/>
-      <c r="H33" s="133">
+      <c r="D33" s="188"/>
+      <c r="E33" s="188"/>
+      <c r="F33" s="188"/>
+      <c r="G33" s="189"/>
+      <c r="H33" s="187">
         <v>0.627</v>
       </c>
-      <c r="I33" s="140"/>
-      <c r="J33" s="140"/>
-      <c r="K33" s="140"/>
-      <c r="L33" s="134"/>
-      <c r="M33" s="170">
+      <c r="I33" s="188"/>
+      <c r="J33" s="188"/>
+      <c r="K33" s="188"/>
+      <c r="L33" s="189"/>
+      <c r="M33" s="100">
         <v>-0.28299999999999997</v>
       </c>
-      <c r="N33" s="170">
+      <c r="N33" s="100">
         <v>-0.33079999999999998</v>
       </c>
-      <c r="O33" s="170">
+      <c r="O33" s="100">
         <v>-0.27879999999999999</v>
       </c>
-      <c r="P33" s="158" t="s">
+      <c r="P33" s="97" t="s">
         <v>183</v>
       </c>
       <c r="T33" s="32"/>
@@ -9725,50 +10353,50 @@
       <c r="AA33" s="32"/>
     </row>
     <row r="34" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="127"/>
+      <c r="A34" s="186"/>
       <c r="B34" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="155">
+      <c r="C34" s="94">
         <v>0.67449999999999999</v>
       </c>
-      <c r="D34" s="155">
+      <c r="D34" s="94">
         <v>0.73680000000000001</v>
       </c>
-      <c r="E34" s="155">
+      <c r="E34" s="94">
         <v>0.63009999999999999</v>
       </c>
-      <c r="F34" s="155">
+      <c r="F34" s="94">
         <v>0.64290000000000003</v>
       </c>
-      <c r="G34" s="155">
+      <c r="G34" s="94">
         <v>0.6835</v>
       </c>
-      <c r="H34" s="155">
+      <c r="H34" s="94">
         <v>0.71909999999999996</v>
       </c>
-      <c r="I34" s="155" t="s">
+      <c r="I34" s="94" t="s">
         <v>139</v>
       </c>
-      <c r="J34" s="155" t="s">
+      <c r="J34" s="94" t="s">
         <v>140</v>
       </c>
-      <c r="K34" s="155" t="s">
+      <c r="K34" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="L34" s="155">
+      <c r="L34" s="94">
         <v>0.71909999999999996</v>
       </c>
-      <c r="M34" s="156">
+      <c r="M34" s="95">
         <v>-0.43069999999999997</v>
       </c>
-      <c r="N34" s="155">
+      <c r="N34" s="94">
         <v>-0.41462500000000002</v>
       </c>
-      <c r="O34" s="156">
+      <c r="O34" s="95">
         <v>-0.48835000000000001</v>
       </c>
-      <c r="P34" s="171" t="s">
+      <c r="P34" s="101" t="s">
         <v>146</v>
       </c>
       <c r="T34" s="32"/>
@@ -9781,26 +10409,26 @@
       <c r="AA34" s="32"/>
     </row>
     <row r="35" spans="1:27" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="125" t="s">
+      <c r="A35" s="184" t="s">
         <v>114</v>
       </c>
       <c r="B35" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="186"/>
-      <c r="D35" s="187"/>
-      <c r="E35" s="187"/>
-      <c r="F35" s="187"/>
-      <c r="G35" s="188"/>
-      <c r="H35" s="186"/>
-      <c r="I35" s="187"/>
-      <c r="J35" s="187"/>
-      <c r="K35" s="187"/>
-      <c r="L35" s="188"/>
-      <c r="M35" s="184"/>
-      <c r="N35" s="162"/>
-      <c r="O35" s="184"/>
-      <c r="P35" s="175"/>
+      <c r="C35" s="205"/>
+      <c r="D35" s="206"/>
+      <c r="E35" s="206"/>
+      <c r="F35" s="206"/>
+      <c r="G35" s="207"/>
+      <c r="H35" s="205"/>
+      <c r="I35" s="206"/>
+      <c r="J35" s="206"/>
+      <c r="K35" s="206"/>
+      <c r="L35" s="207"/>
+      <c r="M35" s="114"/>
+      <c r="N35" s="98"/>
+      <c r="O35" s="114"/>
+      <c r="P35" s="105"/>
       <c r="T35" s="32"/>
       <c r="U35" s="35"/>
       <c r="V35" s="35"/>
@@ -9811,24 +10439,24 @@
       <c r="AA35" s="32"/>
     </row>
     <row r="36" spans="1:27" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="131"/>
+      <c r="A36" s="212"/>
       <c r="B36" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="163"/>
-      <c r="D36" s="164"/>
-      <c r="E36" s="164"/>
-      <c r="F36" s="164"/>
-      <c r="G36" s="165"/>
-      <c r="H36" s="189"/>
-      <c r="I36" s="190"/>
-      <c r="J36" s="190"/>
-      <c r="K36" s="190"/>
-      <c r="L36" s="191"/>
-      <c r="M36" s="185"/>
-      <c r="N36" s="185"/>
-      <c r="O36" s="169"/>
-      <c r="P36" s="158"/>
+      <c r="C36" s="193"/>
+      <c r="D36" s="194"/>
+      <c r="E36" s="194"/>
+      <c r="F36" s="194"/>
+      <c r="G36" s="195"/>
+      <c r="H36" s="202"/>
+      <c r="I36" s="203"/>
+      <c r="J36" s="203"/>
+      <c r="K36" s="203"/>
+      <c r="L36" s="204"/>
+      <c r="M36" s="115"/>
+      <c r="N36" s="115"/>
+      <c r="O36" s="99"/>
+      <c r="P36" s="97"/>
       <c r="T36" s="32"/>
       <c r="U36" s="35"/>
       <c r="V36" s="35"/>
@@ -9839,24 +10467,24 @@
       <c r="AA36" s="32"/>
     </row>
     <row r="37" spans="1:27" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="131"/>
+      <c r="A37" s="212"/>
       <c r="B37" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="133"/>
-      <c r="D37" s="140"/>
-      <c r="E37" s="140"/>
-      <c r="F37" s="140"/>
-      <c r="G37" s="134"/>
-      <c r="H37" s="133"/>
-      <c r="I37" s="140"/>
-      <c r="J37" s="140"/>
-      <c r="K37" s="140"/>
-      <c r="L37" s="134"/>
-      <c r="M37" s="170"/>
-      <c r="N37" s="170"/>
-      <c r="O37" s="170"/>
-      <c r="P37" s="158"/>
+      <c r="C37" s="187"/>
+      <c r="D37" s="188"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="188"/>
+      <c r="G37" s="189"/>
+      <c r="H37" s="187"/>
+      <c r="I37" s="188"/>
+      <c r="J37" s="188"/>
+      <c r="K37" s="188"/>
+      <c r="L37" s="189"/>
+      <c r="M37" s="100"/>
+      <c r="N37" s="100"/>
+      <c r="O37" s="100"/>
+      <c r="P37" s="97"/>
       <c r="T37" s="32"/>
       <c r="U37" s="35"/>
       <c r="V37" s="35"/>
@@ -9867,24 +10495,24 @@
       <c r="AA37" s="32"/>
     </row>
     <row r="38" spans="1:27" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="127"/>
+      <c r="A38" s="186"/>
       <c r="B38" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="192"/>
-      <c r="D38" s="192"/>
-      <c r="E38" s="192"/>
-      <c r="F38" s="192"/>
-      <c r="G38" s="155"/>
-      <c r="H38" s="155"/>
-      <c r="I38" s="155"/>
-      <c r="J38" s="155"/>
-      <c r="K38" s="155"/>
-      <c r="L38" s="155"/>
-      <c r="M38" s="155"/>
-      <c r="N38" s="155"/>
-      <c r="O38" s="156"/>
-      <c r="P38" s="158"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="94"/>
+      <c r="H38" s="94"/>
+      <c r="I38" s="94"/>
+      <c r="J38" s="94"/>
+      <c r="K38" s="94"/>
+      <c r="L38" s="94"/>
+      <c r="M38" s="94"/>
+      <c r="N38" s="94"/>
+      <c r="O38" s="95"/>
+      <c r="P38" s="97"/>
       <c r="T38" s="32"/>
       <c r="U38" s="32"/>
       <c r="V38" s="32"/>
@@ -9895,26 +10523,26 @@
       <c r="AA38" s="32"/>
     </row>
     <row r="39" spans="1:27" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="125" t="s">
+      <c r="A39" s="184" t="s">
         <v>115</v>
       </c>
       <c r="B39" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="186"/>
-      <c r="D39" s="187"/>
-      <c r="E39" s="187"/>
-      <c r="F39" s="187"/>
-      <c r="G39" s="188"/>
-      <c r="H39" s="186"/>
-      <c r="I39" s="187"/>
-      <c r="J39" s="187"/>
-      <c r="K39" s="187"/>
-      <c r="L39" s="188"/>
-      <c r="M39" s="184"/>
-      <c r="N39" s="162"/>
-      <c r="O39" s="184"/>
-      <c r="P39" s="158"/>
+      <c r="C39" s="205"/>
+      <c r="D39" s="206"/>
+      <c r="E39" s="206"/>
+      <c r="F39" s="206"/>
+      <c r="G39" s="207"/>
+      <c r="H39" s="205"/>
+      <c r="I39" s="206"/>
+      <c r="J39" s="206"/>
+      <c r="K39" s="206"/>
+      <c r="L39" s="207"/>
+      <c r="M39" s="114"/>
+      <c r="N39" s="98"/>
+      <c r="O39" s="114"/>
+      <c r="P39" s="97"/>
       <c r="T39" s="32"/>
       <c r="U39" s="32"/>
       <c r="V39" s="32"/>
@@ -9925,24 +10553,24 @@
       <c r="AA39" s="32"/>
     </row>
     <row r="40" spans="1:27" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="131"/>
+      <c r="A40" s="212"/>
       <c r="B40" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="163"/>
-      <c r="D40" s="164"/>
-      <c r="E40" s="164"/>
-      <c r="F40" s="164"/>
-      <c r="G40" s="165"/>
-      <c r="H40" s="189"/>
-      <c r="I40" s="190"/>
-      <c r="J40" s="190"/>
-      <c r="K40" s="190"/>
-      <c r="L40" s="191"/>
-      <c r="M40" s="185"/>
-      <c r="N40" s="185"/>
-      <c r="O40" s="169"/>
-      <c r="P40" s="158"/>
+      <c r="C40" s="193"/>
+      <c r="D40" s="194"/>
+      <c r="E40" s="194"/>
+      <c r="F40" s="194"/>
+      <c r="G40" s="195"/>
+      <c r="H40" s="202"/>
+      <c r="I40" s="203"/>
+      <c r="J40" s="203"/>
+      <c r="K40" s="203"/>
+      <c r="L40" s="204"/>
+      <c r="M40" s="115"/>
+      <c r="N40" s="115"/>
+      <c r="O40" s="99"/>
+      <c r="P40" s="97"/>
       <c r="T40" s="32"/>
       <c r="U40" s="32"/>
       <c r="V40" s="32"/>
@@ -9953,24 +10581,24 @@
       <c r="AA40" s="32"/>
     </row>
     <row r="41" spans="1:27" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="131"/>
+      <c r="A41" s="212"/>
       <c r="B41" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="133"/>
-      <c r="D41" s="140"/>
-      <c r="E41" s="140"/>
-      <c r="F41" s="140"/>
-      <c r="G41" s="134"/>
-      <c r="H41" s="133"/>
-      <c r="I41" s="140"/>
-      <c r="J41" s="140"/>
-      <c r="K41" s="140"/>
-      <c r="L41" s="134"/>
-      <c r="M41" s="170"/>
-      <c r="N41" s="170"/>
-      <c r="O41" s="170"/>
-      <c r="P41" s="158"/>
+      <c r="C41" s="187"/>
+      <c r="D41" s="188"/>
+      <c r="E41" s="188"/>
+      <c r="F41" s="188"/>
+      <c r="G41" s="189"/>
+      <c r="H41" s="187"/>
+      <c r="I41" s="188"/>
+      <c r="J41" s="188"/>
+      <c r="K41" s="188"/>
+      <c r="L41" s="189"/>
+      <c r="M41" s="100"/>
+      <c r="N41" s="100"/>
+      <c r="O41" s="100"/>
+      <c r="P41" s="97"/>
       <c r="T41" s="32"/>
       <c r="U41" s="32"/>
       <c r="V41" s="32"/>
@@ -9981,24 +10609,24 @@
       <c r="AA41" s="32"/>
     </row>
     <row r="42" spans="1:27" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="127"/>
+      <c r="A42" s="186"/>
       <c r="B42" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="192"/>
-      <c r="D42" s="192"/>
-      <c r="E42" s="192"/>
-      <c r="F42" s="192"/>
-      <c r="G42" s="155"/>
-      <c r="H42" s="155"/>
-      <c r="I42" s="155"/>
-      <c r="J42" s="155"/>
-      <c r="K42" s="155"/>
-      <c r="L42" s="155"/>
-      <c r="M42" s="155"/>
-      <c r="N42" s="155"/>
-      <c r="O42" s="156"/>
-      <c r="P42" s="171"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="116"/>
+      <c r="E42" s="116"/>
+      <c r="F42" s="116"/>
+      <c r="G42" s="94"/>
+      <c r="H42" s="94"/>
+      <c r="I42" s="94"/>
+      <c r="J42" s="94"/>
+      <c r="K42" s="94"/>
+      <c r="L42" s="94"/>
+      <c r="M42" s="94"/>
+      <c r="N42" s="94"/>
+      <c r="O42" s="95"/>
+      <c r="P42" s="101"/>
       <c r="T42" s="32"/>
       <c r="U42" s="32"/>
       <c r="V42" s="32"/>
@@ -10009,54 +10637,54 @@
       <c r="AA42" s="32"/>
     </row>
     <row r="43" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="126" t="s">
+      <c r="A43" s="185" t="s">
         <v>54</v>
       </c>
       <c r="B43" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="193"/>
-      <c r="D43" s="193"/>
-      <c r="E43" s="193"/>
-      <c r="F43" s="193"/>
-      <c r="G43" s="172"/>
-      <c r="H43" s="184"/>
-      <c r="I43" s="184"/>
-      <c r="J43" s="184"/>
-      <c r="K43" s="184"/>
-      <c r="L43" s="181"/>
-      <c r="M43" s="184"/>
-      <c r="N43" s="184"/>
-      <c r="O43" s="162"/>
-      <c r="P43" s="175"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="117"/>
+      <c r="E43" s="117"/>
+      <c r="F43" s="117"/>
+      <c r="G43" s="102"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="114"/>
+      <c r="L43" s="111"/>
+      <c r="M43" s="114"/>
+      <c r="N43" s="114"/>
+      <c r="O43" s="98"/>
+      <c r="P43" s="105"/>
       <c r="T43" s="31"/>
       <c r="U43" s="31"/>
-      <c r="V43" s="194"/>
-      <c r="W43" s="194"/>
-      <c r="X43" s="194"/>
+      <c r="V43" s="118"/>
+      <c r="W43" s="118"/>
+      <c r="X43" s="118"/>
       <c r="Y43" s="31"/>
       <c r="Z43" s="32"/>
       <c r="AA43" s="32"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A44" s="126"/>
+      <c r="A44" s="185"/>
       <c r="B44" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C44" s="133"/>
-      <c r="D44" s="140"/>
-      <c r="E44" s="140"/>
-      <c r="F44" s="140"/>
-      <c r="G44" s="134"/>
-      <c r="H44" s="133"/>
-      <c r="I44" s="140"/>
-      <c r="J44" s="140"/>
-      <c r="K44" s="140"/>
-      <c r="L44" s="134"/>
-      <c r="M44" s="170"/>
-      <c r="N44" s="170"/>
-      <c r="O44" s="170"/>
-      <c r="P44" s="158"/>
+      <c r="C44" s="187"/>
+      <c r="D44" s="188"/>
+      <c r="E44" s="188"/>
+      <c r="F44" s="188"/>
+      <c r="G44" s="189"/>
+      <c r="H44" s="187"/>
+      <c r="I44" s="188"/>
+      <c r="J44" s="188"/>
+      <c r="K44" s="188"/>
+      <c r="L44" s="189"/>
+      <c r="M44" s="100"/>
+      <c r="N44" s="100"/>
+      <c r="O44" s="100"/>
+      <c r="P44" s="97"/>
       <c r="T44" s="32"/>
       <c r="U44" s="32"/>
       <c r="V44" s="32"/>
@@ -10067,387 +10695,460 @@
       <c r="AA44" s="32"/>
     </row>
     <row r="45" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="127"/>
+      <c r="A45" s="186"/>
       <c r="B45" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="C45" s="155">
+      <c r="C45" s="94">
         <v>0.61580000000000001</v>
       </c>
-      <c r="D45" s="155">
+      <c r="D45" s="94">
         <v>0.65129999999999999</v>
       </c>
-      <c r="E45" s="155">
+      <c r="E45" s="94">
         <v>0.60960000000000003</v>
       </c>
-      <c r="F45" s="155">
+      <c r="F45" s="94">
         <v>0.5857</v>
       </c>
-      <c r="G45" s="155">
+      <c r="G45" s="94">
         <v>0.6139</v>
       </c>
-      <c r="H45" s="155">
+      <c r="H45" s="94">
         <v>0.42420000000000002</v>
       </c>
-      <c r="I45" s="155" t="s">
+      <c r="I45" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="J45" s="155">
+      <c r="J45" s="94">
         <v>0.42420000000000002</v>
       </c>
-      <c r="K45" s="155" t="s">
+      <c r="K45" s="94" t="s">
         <v>149</v>
       </c>
-      <c r="L45" s="155" t="s">
+      <c r="L45" s="94" t="s">
         <v>150</v>
       </c>
-      <c r="M45" s="155">
+      <c r="M45" s="94">
         <v>-2.2849999999999999E-2</v>
       </c>
-      <c r="N45" s="155">
+      <c r="N45" s="94">
         <v>-5.9999999999999967E-3</v>
       </c>
-      <c r="O45" s="156">
+      <c r="O45" s="95">
         <v>-6.4375000000000002E-2</v>
       </c>
-      <c r="P45" s="158" t="s">
+      <c r="P45" s="97" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:27" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="125" t="s">
+      <c r="A46" s="184" t="s">
         <v>124</v>
       </c>
       <c r="B46" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="159"/>
-      <c r="D46" s="160"/>
-      <c r="E46" s="160"/>
-      <c r="F46" s="160"/>
-      <c r="G46" s="161"/>
-      <c r="H46" s="159"/>
-      <c r="I46" s="160"/>
-      <c r="J46" s="160"/>
-      <c r="K46" s="160"/>
-      <c r="L46" s="161"/>
-      <c r="M46" s="162"/>
-      <c r="N46" s="162"/>
-      <c r="O46" s="162"/>
-      <c r="P46" s="158"/>
+      <c r="C46" s="190"/>
+      <c r="D46" s="191"/>
+      <c r="E46" s="191"/>
+      <c r="F46" s="191"/>
+      <c r="G46" s="192"/>
+      <c r="H46" s="190"/>
+      <c r="I46" s="191"/>
+      <c r="J46" s="191"/>
+      <c r="K46" s="191"/>
+      <c r="L46" s="192"/>
+      <c r="M46" s="98"/>
+      <c r="N46" s="98"/>
+      <c r="O46" s="98"/>
+      <c r="P46" s="97"/>
     </row>
     <row r="47" spans="1:27" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="126"/>
+      <c r="A47" s="185"/>
       <c r="B47" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C47" s="163"/>
-      <c r="D47" s="164"/>
-      <c r="E47" s="164"/>
-      <c r="F47" s="164"/>
-      <c r="G47" s="165"/>
-      <c r="H47" s="166"/>
-      <c r="I47" s="167"/>
-      <c r="J47" s="167"/>
-      <c r="K47" s="167"/>
-      <c r="L47" s="168"/>
-      <c r="M47" s="169"/>
-      <c r="N47" s="169"/>
-      <c r="O47" s="169"/>
-      <c r="P47" s="158"/>
+      <c r="C47" s="193"/>
+      <c r="D47" s="194"/>
+      <c r="E47" s="194"/>
+      <c r="F47" s="194"/>
+      <c r="G47" s="195"/>
+      <c r="H47" s="196"/>
+      <c r="I47" s="197"/>
+      <c r="J47" s="197"/>
+      <c r="K47" s="197"/>
+      <c r="L47" s="198"/>
+      <c r="M47" s="99"/>
+      <c r="N47" s="99"/>
+      <c r="O47" s="99"/>
+      <c r="P47" s="97"/>
       <c r="W47" s="19"/>
       <c r="X47" s="19"/>
       <c r="Y47" s="19"/>
       <c r="Z47" s="19"/>
     </row>
     <row r="48" spans="1:27" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="126"/>
+      <c r="A48" s="185"/>
       <c r="B48" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="133"/>
-      <c r="D48" s="140"/>
-      <c r="E48" s="140"/>
-      <c r="F48" s="140"/>
-      <c r="G48" s="134"/>
-      <c r="H48" s="133"/>
-      <c r="I48" s="140"/>
-      <c r="J48" s="140"/>
-      <c r="K48" s="140"/>
-      <c r="L48" s="134"/>
-      <c r="M48" s="170"/>
-      <c r="N48" s="170"/>
-      <c r="O48" s="170"/>
-      <c r="P48" s="158"/>
+      <c r="C48" s="187"/>
+      <c r="D48" s="188"/>
+      <c r="E48" s="188"/>
+      <c r="F48" s="188"/>
+      <c r="G48" s="189"/>
+      <c r="H48" s="187"/>
+      <c r="I48" s="188"/>
+      <c r="J48" s="188"/>
+      <c r="K48" s="188"/>
+      <c r="L48" s="189"/>
+      <c r="M48" s="100"/>
+      <c r="N48" s="100"/>
+      <c r="O48" s="100"/>
+      <c r="P48" s="97"/>
       <c r="U48" s="19"/>
     </row>
     <row r="49" spans="1:16" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="127"/>
+      <c r="A49" s="186"/>
       <c r="B49" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="157"/>
-      <c r="D49" s="157"/>
-      <c r="E49" s="157"/>
-      <c r="F49" s="157"/>
-      <c r="G49" s="155"/>
-      <c r="H49" s="155"/>
-      <c r="I49" s="155"/>
-      <c r="J49" s="155"/>
-      <c r="K49" s="155"/>
-      <c r="L49" s="155"/>
-      <c r="M49" s="155"/>
-      <c r="N49" s="155"/>
-      <c r="O49" s="156"/>
-      <c r="P49" s="158"/>
+      <c r="C49" s="96"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="96"/>
+      <c r="F49" s="96"/>
+      <c r="G49" s="94"/>
+      <c r="H49" s="94"/>
+      <c r="I49" s="94"/>
+      <c r="J49" s="94"/>
+      <c r="K49" s="94"/>
+      <c r="L49" s="94"/>
+      <c r="M49" s="94"/>
+      <c r="N49" s="94"/>
+      <c r="O49" s="95"/>
+      <c r="P49" s="97"/>
     </row>
     <row r="50" spans="1:16" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="125" t="s">
+      <c r="A50" s="184" t="s">
         <v>125</v>
       </c>
       <c r="B50" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="159"/>
-      <c r="D50" s="160"/>
-      <c r="E50" s="160"/>
-      <c r="F50" s="160"/>
-      <c r="G50" s="161"/>
-      <c r="H50" s="159"/>
-      <c r="I50" s="160"/>
-      <c r="J50" s="160"/>
-      <c r="K50" s="160"/>
-      <c r="L50" s="161"/>
-      <c r="M50" s="162"/>
-      <c r="N50" s="162"/>
-      <c r="O50" s="162"/>
-      <c r="P50" s="158"/>
+      <c r="C50" s="190"/>
+      <c r="D50" s="191"/>
+      <c r="E50" s="191"/>
+      <c r="F50" s="191"/>
+      <c r="G50" s="192"/>
+      <c r="H50" s="190"/>
+      <c r="I50" s="191"/>
+      <c r="J50" s="191"/>
+      <c r="K50" s="191"/>
+      <c r="L50" s="192"/>
+      <c r="M50" s="98"/>
+      <c r="N50" s="98"/>
+      <c r="O50" s="98"/>
+      <c r="P50" s="97"/>
     </row>
     <row r="51" spans="1:16" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="126"/>
+      <c r="A51" s="185"/>
       <c r="B51" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="163"/>
-      <c r="D51" s="164"/>
-      <c r="E51" s="164"/>
-      <c r="F51" s="164"/>
-      <c r="G51" s="165"/>
-      <c r="H51" s="166"/>
-      <c r="I51" s="167"/>
-      <c r="J51" s="167"/>
-      <c r="K51" s="167"/>
-      <c r="L51" s="168"/>
-      <c r="M51" s="169"/>
-      <c r="N51" s="169"/>
-      <c r="O51" s="169"/>
-      <c r="P51" s="158"/>
+      <c r="C51" s="193"/>
+      <c r="D51" s="194"/>
+      <c r="E51" s="194"/>
+      <c r="F51" s="194"/>
+      <c r="G51" s="195"/>
+      <c r="H51" s="196"/>
+      <c r="I51" s="197"/>
+      <c r="J51" s="197"/>
+      <c r="K51" s="197"/>
+      <c r="L51" s="198"/>
+      <c r="M51" s="99"/>
+      <c r="N51" s="99"/>
+      <c r="O51" s="99"/>
+      <c r="P51" s="97"/>
     </row>
     <row r="52" spans="1:16" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="126"/>
+      <c r="A52" s="185"/>
       <c r="B52" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="133"/>
-      <c r="D52" s="140"/>
-      <c r="E52" s="140"/>
-      <c r="F52" s="140"/>
-      <c r="G52" s="134"/>
-      <c r="H52" s="133"/>
-      <c r="I52" s="140"/>
-      <c r="J52" s="140"/>
-      <c r="K52" s="140"/>
-      <c r="L52" s="134"/>
-      <c r="M52" s="170"/>
-      <c r="N52" s="170"/>
-      <c r="O52" s="170"/>
-      <c r="P52" s="158"/>
+      <c r="C52" s="187"/>
+      <c r="D52" s="188"/>
+      <c r="E52" s="188"/>
+      <c r="F52" s="188"/>
+      <c r="G52" s="189"/>
+      <c r="H52" s="187"/>
+      <c r="I52" s="188"/>
+      <c r="J52" s="188"/>
+      <c r="K52" s="188"/>
+      <c r="L52" s="189"/>
+      <c r="M52" s="100"/>
+      <c r="N52" s="100"/>
+      <c r="O52" s="100"/>
+      <c r="P52" s="97"/>
     </row>
     <row r="53" spans="1:16" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="127"/>
+      <c r="A53" s="186"/>
       <c r="B53" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="C53" s="157"/>
-      <c r="D53" s="157"/>
-      <c r="E53" s="157"/>
-      <c r="F53" s="157"/>
-      <c r="G53" s="155"/>
-      <c r="H53" s="155"/>
-      <c r="I53" s="155"/>
-      <c r="J53" s="155"/>
-      <c r="K53" s="155"/>
-      <c r="L53" s="155"/>
-      <c r="M53" s="155"/>
-      <c r="N53" s="155"/>
-      <c r="O53" s="156"/>
-      <c r="P53" s="171"/>
+      <c r="C53" s="96"/>
+      <c r="D53" s="96"/>
+      <c r="E53" s="96"/>
+      <c r="F53" s="96"/>
+      <c r="G53" s="94"/>
+      <c r="H53" s="94"/>
+      <c r="I53" s="94"/>
+      <c r="J53" s="94"/>
+      <c r="K53" s="94"/>
+      <c r="L53" s="94"/>
+      <c r="M53" s="94"/>
+      <c r="N53" s="94"/>
+      <c r="O53" s="95"/>
+      <c r="P53" s="101"/>
     </row>
     <row r="54" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="126" t="s">
+      <c r="A54" s="185" t="s">
         <v>127</v>
       </c>
       <c r="B54" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="172"/>
-      <c r="D54" s="173"/>
-      <c r="E54" s="173"/>
-      <c r="F54" s="173"/>
-      <c r="G54" s="173"/>
-      <c r="H54" s="162"/>
-      <c r="I54" s="162"/>
-      <c r="J54" s="162"/>
-      <c r="K54" s="162"/>
-      <c r="L54" s="174"/>
-      <c r="M54" s="162"/>
-      <c r="N54" s="162"/>
-      <c r="O54" s="162"/>
-      <c r="P54" s="175"/>
+      <c r="C54" s="102"/>
+      <c r="D54" s="103"/>
+      <c r="E54" s="103"/>
+      <c r="F54" s="103"/>
+      <c r="G54" s="103"/>
+      <c r="H54" s="98"/>
+      <c r="I54" s="98"/>
+      <c r="J54" s="98"/>
+      <c r="K54" s="98"/>
+      <c r="L54" s="104"/>
+      <c r="M54" s="98"/>
+      <c r="N54" s="98"/>
+      <c r="O54" s="98"/>
+      <c r="P54" s="105"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="126"/>
+      <c r="A55" s="185"/>
       <c r="B55" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="C55" s="133"/>
-      <c r="D55" s="140"/>
-      <c r="E55" s="140"/>
-      <c r="F55" s="140"/>
-      <c r="G55" s="134"/>
-      <c r="H55" s="133"/>
-      <c r="I55" s="140"/>
-      <c r="J55" s="140"/>
-      <c r="K55" s="140"/>
-      <c r="L55" s="134"/>
-      <c r="M55" s="170"/>
-      <c r="N55" s="170"/>
-      <c r="O55" s="170"/>
-      <c r="P55" s="158"/>
+      <c r="C55" s="187"/>
+      <c r="D55" s="188"/>
+      <c r="E55" s="188"/>
+      <c r="F55" s="188"/>
+      <c r="G55" s="189"/>
+      <c r="H55" s="187"/>
+      <c r="I55" s="188"/>
+      <c r="J55" s="188"/>
+      <c r="K55" s="188"/>
+      <c r="L55" s="189"/>
+      <c r="M55" s="100"/>
+      <c r="N55" s="100"/>
+      <c r="O55" s="100"/>
+      <c r="P55" s="97"/>
     </row>
     <row r="56" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="127"/>
+      <c r="A56" s="186"/>
       <c r="B56" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="157">
+      <c r="C56" s="96">
         <v>0.59230000000000005</v>
       </c>
-      <c r="D56" s="157">
+      <c r="D56" s="96">
         <v>0.63819999999999999</v>
       </c>
-      <c r="E56" s="157">
+      <c r="E56" s="96">
         <v>0.56159999999999999</v>
       </c>
-      <c r="F56" s="157">
+      <c r="F56" s="96">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G56" s="155">
+      <c r="G56" s="94">
         <v>0.6139</v>
       </c>
-      <c r="H56" s="155">
+      <c r="H56" s="94">
         <v>0.61470000000000002</v>
       </c>
-      <c r="I56" s="155">
+      <c r="I56" s="94">
         <v>0.77180000000000004</v>
       </c>
-      <c r="J56" s="155">
+      <c r="J56" s="94">
         <v>0.45760000000000001</v>
       </c>
-      <c r="K56" s="155" t="s">
+      <c r="K56" s="94" t="s">
         <v>162</v>
       </c>
-      <c r="L56" s="155" t="s">
+      <c r="L56" s="94" t="s">
         <v>163</v>
       </c>
-      <c r="M56" s="155">
+      <c r="M56" s="94">
         <v>-1.5750000000000007E-2</v>
       </c>
-      <c r="N56" s="155">
+      <c r="N56" s="94">
         <v>-2.0799999999999999E-2</v>
       </c>
-      <c r="O56" s="156">
+      <c r="O56" s="95">
         <v>-3.5574999999999996E-2</v>
       </c>
-      <c r="P56" s="176" t="s">
+      <c r="P56" s="106" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="126" t="s">
+      <c r="A57" s="185" t="s">
         <v>126</v>
       </c>
       <c r="B57" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="C57" s="133"/>
-      <c r="D57" s="140"/>
-      <c r="E57" s="140"/>
-      <c r="F57" s="140"/>
-      <c r="G57" s="134"/>
-      <c r="H57" s="133"/>
-      <c r="I57" s="140"/>
-      <c r="J57" s="140"/>
-      <c r="K57" s="140"/>
-      <c r="L57" s="134"/>
-      <c r="M57" s="170"/>
-      <c r="N57" s="170"/>
-      <c r="O57" s="170"/>
-      <c r="P57" s="177"/>
+      <c r="C57" s="187"/>
+      <c r="D57" s="188"/>
+      <c r="E57" s="188"/>
+      <c r="F57" s="188"/>
+      <c r="G57" s="189"/>
+      <c r="H57" s="187"/>
+      <c r="I57" s="188"/>
+      <c r="J57" s="188"/>
+      <c r="K57" s="188"/>
+      <c r="L57" s="189"/>
+      <c r="M57" s="100"/>
+      <c r="N57" s="100"/>
+      <c r="O57" s="100"/>
+      <c r="P57" s="107"/>
     </row>
     <row r="58" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="127"/>
+      <c r="A58" s="186"/>
       <c r="B58" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="C58" s="157">
+      <c r="C58" s="96">
         <v>0.59730000000000005</v>
       </c>
-      <c r="D58" s="157">
+      <c r="D58" s="96">
         <v>0.66469999999999996</v>
       </c>
-      <c r="E58" s="157">
+      <c r="E58" s="96">
         <v>0.56159999999999999</v>
       </c>
-      <c r="F58" s="157">
+      <c r="F58" s="96">
         <v>0.59289999999999998</v>
       </c>
-      <c r="G58" s="155">
+      <c r="G58" s="94">
         <v>0.58860000000000001</v>
       </c>
-      <c r="H58" s="155">
+      <c r="H58" s="94">
         <v>0.49525000000000002</v>
       </c>
-      <c r="I58" s="155" t="s">
+      <c r="I58" s="94" t="s">
         <v>172</v>
       </c>
-      <c r="J58" s="155">
+      <c r="J58" s="94">
         <v>0.25580000000000003</v>
       </c>
-      <c r="K58" s="155" t="s">
+      <c r="K58" s="94" t="s">
         <v>173</v>
       </c>
-      <c r="L58" s="155">
+      <c r="L58" s="94">
         <v>0.73470000000000002</v>
       </c>
-      <c r="M58" s="155">
+      <c r="M58" s="94">
         <v>-2.4874999999999998E-2</v>
       </c>
-      <c r="N58" s="155">
+      <c r="N58" s="94">
         <v>-5.8224999999999999E-2</v>
       </c>
-      <c r="O58" s="156">
+      <c r="O58" s="95">
         <v>-3.9925000000000002E-2</v>
       </c>
-      <c r="P58" s="176" t="s">
+      <c r="P58" s="106" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="P59" s="146"/>
+      <c r="P59" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="89">
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:L48"/>
     <mergeCell ref="P2:P4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -10464,79 +11165,6 @@
     <mergeCell ref="C51:G51"/>
     <mergeCell ref="H51:L51"/>
     <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/experiments/all_results.xlsx
+++ b/experiments/all_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ancarey\PycharmProjects\adaptive-hypernets\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5405C7C-83FF-414D-AA22-7B8B4AD30040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B866B1A-5F91-4038-AE14-1C35A73858EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="707" firstSheet="2" activeTab="3" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="707" firstSheet="2" activeTab="6" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
   </bookViews>
   <sheets>
     <sheet name="compas-cfl" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="186">
   <si>
     <t>Model</t>
   </si>
@@ -434,12 +434,6 @@
     <t>ReLU (also Batchnorm)</t>
   </si>
   <si>
-    <t>h: 1e-4, c: 5e-3</t>
-  </si>
-  <si>
-    <t>h,c: 1e-5</t>
-  </si>
-  <si>
     <t>h: 1000, c: 50</t>
   </si>
   <si>
@@ -473,9 +467,6 @@
     <t>h:1000, c:50</t>
   </si>
   <si>
-    <t>h:5e-4, c:3e-3</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
@@ -485,9 +476,6 @@
     <t>5 min 13 sec</t>
   </si>
   <si>
-    <t>h: 1e-3, c: 1e-3</t>
-  </si>
-  <si>
     <t>.7665</t>
   </si>
   <si>
@@ -500,9 +488,6 @@
     <t>10 min 4 sec</t>
   </si>
   <si>
-    <t>h: 1e-4, c: 5e-4</t>
-  </si>
-  <si>
     <t>.7368</t>
   </si>
   <si>
@@ -606,6 +591,15 @@
   </si>
   <si>
     <t>h: 5e-4, c: 1e-3</t>
+  </si>
+  <si>
+    <t>h: 5e-4, c: 3e-4</t>
+  </si>
+  <si>
+    <t>h: 1e-5, c: 1e-6</t>
+  </si>
+  <si>
+    <t>4 min 13 sec</t>
   </si>
 </sst>
 </file>
@@ -651,7 +645,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -661,12 +655,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1269,7 +1257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1641,29 +1629,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1671,15 +1653,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1704,21 +1677,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1738,6 +1711,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1746,80 +1752,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1840,12 +1810,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1857,52 +1845,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2253,72 +2220,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="138"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="141" t="s">
+      <c r="C1" s="131"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="141" t="s">
+      <c r="F1" s="136" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="140" t="s">
+      <c r="G1" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="140" t="s">
+      <c r="H1" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="140" t="s">
+      <c r="I1" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="145" t="s">
+      <c r="J1" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="146"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="137" t="s">
+      <c r="K1" s="141"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="138"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="137" t="s">
+      <c r="N1" s="131"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="138"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="137" t="s">
+      <c r="Q1" s="131"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="138"/>
-      <c r="U1" s="139"/>
-      <c r="V1" s="137" t="s">
+      <c r="T1" s="131"/>
+      <c r="U1" s="132"/>
+      <c r="V1" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="138"/>
-      <c r="X1" s="139"/>
-      <c r="Y1" s="140" t="s">
+      <c r="W1" s="131"/>
+      <c r="X1" s="132"/>
+      <c r="Y1" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="143" t="s">
+      <c r="Z1" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="143" t="s">
+      <c r="AA1" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="143" t="s">
+      <c r="AB1" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="AC1" s="140" t="s">
+      <c r="AC1" s="135" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="136"/>
+      <c r="A2" s="134"/>
       <c r="B2" s="12" t="s">
         <v>17</v>
       </c>
@@ -2328,11 +2295,11 @@
       <c r="D2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
       <c r="J2" s="12" t="s">
         <v>17</v>
       </c>
@@ -2378,11 +2345,11 @@
       <c r="X2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="140"/>
-      <c r="Z2" s="144"/>
-      <c r="AA2" s="144"/>
-      <c r="AB2" s="144"/>
-      <c r="AC2" s="140"/>
+      <c r="Y2" s="135"/>
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="139"/>
+      <c r="AB2" s="139"/>
+      <c r="AC2" s="135"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -2931,11 +2898,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
     <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
@@ -2948,6 +2910,11 @@
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -3004,114 +2971,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="138"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="137" t="s">
+      <c r="C1" s="131"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="138"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="141" t="s">
+      <c r="F1" s="131"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="140" t="s">
+      <c r="I1" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="140" t="s">
+      <c r="J1" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="140" t="s">
+      <c r="K1" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="145" t="s">
+      <c r="L1" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="146"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="145" t="s">
+      <c r="M1" s="141"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="137" t="s">
+      <c r="P1" s="141"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="138"/>
-      <c r="T1" s="139"/>
-      <c r="U1" s="137" t="s">
+      <c r="S1" s="131"/>
+      <c r="T1" s="132"/>
+      <c r="U1" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="138"/>
-      <c r="W1" s="139"/>
-      <c r="X1" s="137" t="s">
+      <c r="V1" s="131"/>
+      <c r="W1" s="132"/>
+      <c r="X1" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="138"/>
-      <c r="Z1" s="139"/>
-      <c r="AA1" s="137" t="s">
+      <c r="Y1" s="131"/>
+      <c r="Z1" s="132"/>
+      <c r="AA1" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="138"/>
-      <c r="AC1" s="139"/>
-      <c r="AD1" s="137" t="s">
+      <c r="AB1" s="131"/>
+      <c r="AC1" s="132"/>
+      <c r="AD1" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="138"/>
-      <c r="AF1" s="139"/>
-      <c r="AG1" s="137" t="s">
+      <c r="AE1" s="131"/>
+      <c r="AF1" s="132"/>
+      <c r="AG1" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="138"/>
-      <c r="AI1" s="139"/>
-      <c r="AJ1" s="137" t="s">
+      <c r="AH1" s="131"/>
+      <c r="AI1" s="132"/>
+      <c r="AJ1" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="138"/>
-      <c r="AL1" s="139"/>
-      <c r="AM1" s="137" t="s">
+      <c r="AK1" s="131"/>
+      <c r="AL1" s="132"/>
+      <c r="AM1" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="AN1" s="138"/>
-      <c r="AO1" s="139"/>
-      <c r="AP1" s="140" t="s">
+      <c r="AN1" s="131"/>
+      <c r="AO1" s="132"/>
+      <c r="AP1" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="AQ1" s="140" t="s">
+      <c r="AQ1" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="AR1" s="143" t="s">
+      <c r="AR1" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="AS1" s="143" t="s">
+      <c r="AS1" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="AT1" s="143" t="s">
+      <c r="AT1" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="AU1" s="143" t="s">
+      <c r="AU1" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="AV1" s="143" t="s">
+      <c r="AV1" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="AW1" s="143" t="s">
+      <c r="AW1" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="AX1" s="140" t="s">
+      <c r="AX1" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="AY1" s="140" t="s">
+      <c r="AY1" s="135" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A2" s="136"/>
+      <c r="A2" s="134"/>
       <c r="B2" s="12" t="s">
         <v>17</v>
       </c>
@@ -3130,10 +3097,10 @@
       <c r="G2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="142"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
       <c r="L2" s="12" t="s">
         <v>17</v>
       </c>
@@ -3224,16 +3191,16 @@
       <c r="AO2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AP2" s="140"/>
-      <c r="AQ2" s="140"/>
-      <c r="AR2" s="144"/>
-      <c r="AS2" s="144"/>
-      <c r="AT2" s="144"/>
-      <c r="AU2" s="144"/>
-      <c r="AV2" s="144"/>
-      <c r="AW2" s="144"/>
-      <c r="AX2" s="140"/>
-      <c r="AY2" s="140"/>
+      <c r="AP2" s="135"/>
+      <c r="AQ2" s="135"/>
+      <c r="AR2" s="139"/>
+      <c r="AS2" s="139"/>
+      <c r="AT2" s="139"/>
+      <c r="AU2" s="139"/>
+      <c r="AV2" s="139"/>
+      <c r="AW2" s="139"/>
+      <c r="AX2" s="135"/>
+      <c r="AY2" s="135"/>
     </row>
     <row r="3" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
@@ -3966,159 +3933,159 @@
       <c r="AY8" s="19"/>
     </row>
     <row r="11" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A11" s="135" t="s">
+      <c r="A11" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="138"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="137" t="s">
+      <c r="C11" s="131"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="138"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="137" t="s">
+      <c r="F11" s="131"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="138"/>
-      <c r="J11" s="139"/>
-      <c r="K11" s="141" t="s">
+      <c r="I11" s="131"/>
+      <c r="J11" s="132"/>
+      <c r="K11" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="140" t="s">
+      <c r="L11" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="M11" s="140" t="s">
+      <c r="M11" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="140" t="s">
+      <c r="N11" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="O11" s="145" t="s">
+      <c r="O11" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="P11" s="146"/>
-      <c r="Q11" s="147"/>
-      <c r="R11" s="145" t="s">
+      <c r="P11" s="141"/>
+      <c r="Q11" s="142"/>
+      <c r="R11" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="S11" s="146"/>
-      <c r="T11" s="147"/>
-      <c r="U11" s="145" t="s">
+      <c r="S11" s="141"/>
+      <c r="T11" s="142"/>
+      <c r="U11" s="140" t="s">
         <v>56</v>
       </c>
-      <c r="V11" s="146"/>
-      <c r="W11" s="147"/>
-      <c r="X11" s="137" t="s">
+      <c r="V11" s="141"/>
+      <c r="W11" s="142"/>
+      <c r="X11" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="Y11" s="138"/>
-      <c r="Z11" s="139"/>
-      <c r="AA11" s="137" t="s">
+      <c r="Y11" s="131"/>
+      <c r="Z11" s="132"/>
+      <c r="AA11" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="AB11" s="138"/>
-      <c r="AC11" s="139"/>
-      <c r="AD11" s="137" t="s">
+      <c r="AB11" s="131"/>
+      <c r="AC11" s="132"/>
+      <c r="AD11" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="AE11" s="138"/>
-      <c r="AF11" s="139"/>
-      <c r="AG11" s="137" t="s">
+      <c r="AE11" s="131"/>
+      <c r="AF11" s="132"/>
+      <c r="AG11" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="AH11" s="138"/>
-      <c r="AI11" s="139"/>
-      <c r="AJ11" s="137" t="s">
+      <c r="AH11" s="131"/>
+      <c r="AI11" s="132"/>
+      <c r="AJ11" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="AK11" s="138"/>
-      <c r="AL11" s="139"/>
-      <c r="AM11" s="137" t="s">
+      <c r="AK11" s="131"/>
+      <c r="AL11" s="132"/>
+      <c r="AM11" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="AN11" s="138"/>
-      <c r="AO11" s="139"/>
-      <c r="AP11" s="137" t="s">
+      <c r="AN11" s="131"/>
+      <c r="AO11" s="132"/>
+      <c r="AP11" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="AQ11" s="138"/>
-      <c r="AR11" s="139"/>
-      <c r="AS11" s="137" t="s">
+      <c r="AQ11" s="131"/>
+      <c r="AR11" s="132"/>
+      <c r="AS11" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="AT11" s="138"/>
-      <c r="AU11" s="139"/>
-      <c r="AV11" s="137" t="s">
+      <c r="AT11" s="131"/>
+      <c r="AU11" s="132"/>
+      <c r="AV11" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="AW11" s="138"/>
-      <c r="AX11" s="139"/>
-      <c r="AY11" s="137" t="s">
+      <c r="AW11" s="131"/>
+      <c r="AX11" s="132"/>
+      <c r="AY11" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="AZ11" s="138"/>
-      <c r="BA11" s="139"/>
-      <c r="BB11" s="137" t="s">
+      <c r="AZ11" s="131"/>
+      <c r="BA11" s="132"/>
+      <c r="BB11" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="BC11" s="138"/>
-      <c r="BD11" s="139"/>
-      <c r="BE11" s="137" t="s">
+      <c r="BC11" s="131"/>
+      <c r="BD11" s="132"/>
+      <c r="BE11" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="BF11" s="138"/>
-      <c r="BG11" s="139"/>
-      <c r="BH11" s="140" t="s">
+      <c r="BF11" s="131"/>
+      <c r="BG11" s="132"/>
+      <c r="BH11" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="BI11" s="140" t="s">
+      <c r="BI11" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="BJ11" s="141" t="s">
+      <c r="BJ11" s="136" t="s">
         <v>61</v>
       </c>
-      <c r="BK11" s="143" t="s">
+      <c r="BK11" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="BL11" s="143" t="s">
+      <c r="BL11" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="BM11" s="143" t="s">
+      <c r="BM11" s="138" t="s">
         <v>62</v>
       </c>
-      <c r="BN11" s="143" t="s">
+      <c r="BN11" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="BO11" s="143" t="s">
+      <c r="BO11" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="BP11" s="143" t="s">
+      <c r="BP11" s="138" t="s">
         <v>63</v>
       </c>
-      <c r="BQ11" s="143" t="s">
+      <c r="BQ11" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="BR11" s="143" t="s">
+      <c r="BR11" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="BS11" s="143" t="s">
+      <c r="BS11" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="BT11" s="140" t="s">
+      <c r="BT11" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="BU11" s="140" t="s">
+      <c r="BU11" s="135" t="s">
         <v>45</v>
       </c>
-      <c r="BV11" s="140" t="s">
+      <c r="BV11" s="135" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A12" s="136"/>
+      <c r="A12" s="134"/>
       <c r="B12" s="12" t="s">
         <v>17</v>
       </c>
@@ -4146,10 +4113,10 @@
       <c r="J12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="142"/>
-      <c r="L12" s="140"/>
-      <c r="M12" s="140"/>
-      <c r="N12" s="140"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="135"/>
+      <c r="M12" s="135"/>
+      <c r="N12" s="135"/>
       <c r="O12" s="12" t="s">
         <v>17</v>
       </c>
@@ -4285,21 +4252,21 @@
       <c r="BG12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="BH12" s="140"/>
-      <c r="BI12" s="140"/>
-      <c r="BJ12" s="142"/>
-      <c r="BK12" s="144"/>
-      <c r="BL12" s="144"/>
-      <c r="BM12" s="144"/>
-      <c r="BN12" s="144"/>
-      <c r="BO12" s="144"/>
-      <c r="BP12" s="144"/>
-      <c r="BQ12" s="144"/>
-      <c r="BR12" s="144"/>
-      <c r="BS12" s="144"/>
-      <c r="BT12" s="140"/>
-      <c r="BU12" s="140"/>
-      <c r="BV12" s="140"/>
+      <c r="BH12" s="135"/>
+      <c r="BI12" s="135"/>
+      <c r="BJ12" s="137"/>
+      <c r="BK12" s="139"/>
+      <c r="BL12" s="139"/>
+      <c r="BM12" s="139"/>
+      <c r="BN12" s="139"/>
+      <c r="BO12" s="139"/>
+      <c r="BP12" s="139"/>
+      <c r="BQ12" s="139"/>
+      <c r="BR12" s="139"/>
+      <c r="BS12" s="139"/>
+      <c r="BT12" s="135"/>
+      <c r="BU12" s="135"/>
+      <c r="BV12" s="135"/>
     </row>
     <row r="13" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
@@ -5399,6 +5366,55 @@
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="BV11:BV12"/>
+    <mergeCell ref="BK11:BK12"/>
+    <mergeCell ref="BL11:BL12"/>
+    <mergeCell ref="BM11:BM12"/>
+    <mergeCell ref="BN11:BN12"/>
+    <mergeCell ref="BO11:BO12"/>
+    <mergeCell ref="BP11:BP12"/>
+    <mergeCell ref="BQ11:BQ12"/>
+    <mergeCell ref="BR11:BR12"/>
+    <mergeCell ref="BS11:BS12"/>
+    <mergeCell ref="BT11:BT12"/>
+    <mergeCell ref="BU11:BU12"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="BJ11:BJ12"/>
+    <mergeCell ref="AG11:AI11"/>
+    <mergeCell ref="AJ11:AL11"/>
+    <mergeCell ref="AM11:AO11"/>
+    <mergeCell ref="AP11:AR11"/>
+    <mergeCell ref="AS11:AU11"/>
+    <mergeCell ref="AV11:AX11"/>
+    <mergeCell ref="AY11:BA11"/>
+    <mergeCell ref="BB11:BD11"/>
+    <mergeCell ref="BE11:BG11"/>
+    <mergeCell ref="BH11:BH12"/>
+    <mergeCell ref="BI11:BI12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="AV1:AV2"/>
+    <mergeCell ref="AW1:AW2"/>
+    <mergeCell ref="AX1:AX2"/>
+    <mergeCell ref="AY1:AY2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="AP1:AP2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AS1:AS2"/>
+    <mergeCell ref="AT1:AT2"/>
+    <mergeCell ref="AU1:AU2"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:G11"/>
@@ -5415,55 +5431,6 @@
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="AD11:AF11"/>
-    <mergeCell ref="AV1:AV2"/>
-    <mergeCell ref="AW1:AW2"/>
-    <mergeCell ref="AX1:AX2"/>
-    <mergeCell ref="AY1:AY2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="AP1:AP2"/>
-    <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="AS1:AS2"/>
-    <mergeCell ref="AT1:AT2"/>
-    <mergeCell ref="AU1:AU2"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="BJ11:BJ12"/>
-    <mergeCell ref="AG11:AI11"/>
-    <mergeCell ref="AJ11:AL11"/>
-    <mergeCell ref="AM11:AO11"/>
-    <mergeCell ref="AP11:AR11"/>
-    <mergeCell ref="AS11:AU11"/>
-    <mergeCell ref="AV11:AX11"/>
-    <mergeCell ref="AY11:BA11"/>
-    <mergeCell ref="BB11:BD11"/>
-    <mergeCell ref="BE11:BG11"/>
-    <mergeCell ref="BH11:BH12"/>
-    <mergeCell ref="BI11:BI12"/>
-    <mergeCell ref="BV11:BV12"/>
-    <mergeCell ref="BK11:BK12"/>
-    <mergeCell ref="BL11:BL12"/>
-    <mergeCell ref="BM11:BM12"/>
-    <mergeCell ref="BN11:BN12"/>
-    <mergeCell ref="BO11:BO12"/>
-    <mergeCell ref="BP11:BP12"/>
-    <mergeCell ref="BQ11:BQ12"/>
-    <mergeCell ref="BR11:BR12"/>
-    <mergeCell ref="BS11:BS12"/>
-    <mergeCell ref="BT11:BT12"/>
-    <mergeCell ref="BU11:BU12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -5495,40 +5462,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="138"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="140" t="s">
+      <c r="C1" s="131"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="137" t="s">
+      <c r="F1" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="138"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="143" t="s">
+      <c r="G1" s="131"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="138" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="143" t="s">
+      <c r="J1" s="138" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="143" t="s">
+      <c r="K1" s="138" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="140" t="s">
-        <v>177</v>
-      </c>
-      <c r="M1" s="140" t="s">
+      <c r="L1" s="135" t="s">
+        <v>172</v>
+      </c>
+      <c r="M1" s="135" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="136"/>
+      <c r="A2" s="134"/>
       <c r="B2" s="13" t="s">
         <v>17</v>
       </c>
@@ -5538,7 +5505,7 @@
       <c r="D2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="140"/>
+      <c r="E2" s="135"/>
       <c r="F2" s="13" t="s">
         <v>17</v>
       </c>
@@ -5548,11 +5515,11 @@
       <c r="H2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
@@ -5589,7 +5556,7 @@
         <v>-0.32519999999999999</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="M3" s="5">
         <v>0</v>
@@ -5630,7 +5597,7 @@
         <v>-0.27879999999999999</v>
       </c>
       <c r="L4" s="39" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M4" s="6">
         <v>0</v>
@@ -5671,7 +5638,7 @@
         <v>1.24E-2</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M5" s="18">
         <v>0</v>
@@ -5884,8 +5851,8 @@
   </sheetPr>
   <dimension ref="A1:BR50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF29" sqref="AF29"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF4" sqref="AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5909,143 +5876,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148" t="s">
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="148"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="148" t="s">
+      <c r="P1" s="147"/>
+      <c r="Q1" s="147"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="147"/>
+      <c r="T1" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="148"/>
-      <c r="V1" s="148"/>
-      <c r="W1" s="148"/>
-      <c r="X1" s="148"/>
-      <c r="Y1" s="148" t="s">
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
+      <c r="W1" s="147"/>
+      <c r="X1" s="147"/>
+      <c r="Y1" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="148"/>
-      <c r="AA1" s="148"/>
-      <c r="AB1" s="148"/>
-      <c r="AC1" s="148"/>
-      <c r="AD1" s="148" t="s">
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="147"/>
+      <c r="AB1" s="147"/>
+      <c r="AC1" s="147"/>
+      <c r="AD1" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="AE1" s="148"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="148"/>
-      <c r="AH1" s="148"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="147"/>
+      <c r="AG1" s="147"/>
+      <c r="AH1" s="147"/>
       <c r="AI1" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A2" s="156"/>
-      <c r="B2" s="149" t="s">
+      <c r="A2" s="151"/>
+      <c r="B2" s="143" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="148" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="149"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="148" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="153" t="s">
+      <c r="G2" s="149"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="154"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="153" t="s">
+      <c r="J2" s="149"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="148" t="s">
         <v>135</v>
       </c>
-      <c r="G2" s="154"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="153" t="s">
-        <v>136</v>
-      </c>
-      <c r="J2" s="154"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="153" t="s">
-        <v>137</v>
-      </c>
-      <c r="M2" s="154"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="149" t="s">
+      <c r="M2" s="149"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="143" t="s">
+        <v>131</v>
+      </c>
+      <c r="P2" s="143" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q2" s="143" t="s">
         <v>133</v>
       </c>
-      <c r="P2" s="149" t="s">
+      <c r="R2" s="143" t="s">
         <v>134</v>
       </c>
-      <c r="Q2" s="149" t="s">
+      <c r="S2" s="145" t="s">
         <v>135</v>
       </c>
-      <c r="R2" s="149" t="s">
-        <v>136</v>
-      </c>
-      <c r="S2" s="151" t="s">
-        <v>137</v>
-      </c>
-      <c r="T2" s="149" t="s">
+      <c r="T2" s="143" t="s">
+        <v>131</v>
+      </c>
+      <c r="U2" s="143" t="s">
+        <v>132</v>
+      </c>
+      <c r="V2" s="143" t="s">
         <v>133</v>
       </c>
-      <c r="U2" s="149" t="s">
+      <c r="W2" s="143" t="s">
         <v>134</v>
       </c>
-      <c r="V2" s="149" t="s">
+      <c r="X2" s="145" t="s">
         <v>135</v>
       </c>
-      <c r="W2" s="149" t="s">
-        <v>136</v>
-      </c>
-      <c r="X2" s="151" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y2" s="149" t="s">
+      <c r="Y2" s="143" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z2" s="143" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA2" s="143" t="s">
         <v>133</v>
       </c>
-      <c r="Z2" s="149" t="s">
+      <c r="AB2" s="143" t="s">
         <v>134</v>
       </c>
-      <c r="AA2" s="149" t="s">
+      <c r="AC2" s="145" t="s">
         <v>135</v>
       </c>
-      <c r="AB2" s="149" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC2" s="151" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD2" s="149" t="s">
+      <c r="AD2" s="143" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE2" s="143" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF2" s="143" t="s">
         <v>133</v>
       </c>
-      <c r="AE2" s="149" t="s">
+      <c r="AG2" s="143" t="s">
         <v>134</v>
       </c>
-      <c r="AF2" s="149" t="s">
+      <c r="AH2" s="145" t="s">
         <v>135</v>
       </c>
-      <c r="AG2" s="149" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH2" s="151" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI2" s="149" t="s">
-        <v>133</v>
+      <c r="AI2" s="143" t="s">
+        <v>131</v>
       </c>
       <c r="AY2" s="56"/>
       <c r="AZ2" s="56"/>
@@ -6056,10 +6023,10 @@
       <c r="BH2" s="72"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A3" s="150"/>
-      <c r="B3" s="150"/>
+      <c r="A3" s="144"/>
+      <c r="B3" s="144"/>
       <c r="C3" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>15</v>
@@ -6068,7 +6035,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>15</v>
@@ -6077,7 +6044,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>15</v>
@@ -6086,7 +6053,7 @@
         <v>16</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>15</v>
@@ -6094,27 +6061,27 @@
       <c r="N3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="150"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="150"/>
-      <c r="S3" s="152"/>
-      <c r="T3" s="150"/>
-      <c r="U3" s="150"/>
-      <c r="V3" s="150"/>
-      <c r="W3" s="150"/>
-      <c r="X3" s="152"/>
-      <c r="Y3" s="150"/>
-      <c r="Z3" s="150"/>
-      <c r="AA3" s="150"/>
-      <c r="AB3" s="150"/>
-      <c r="AC3" s="152"/>
-      <c r="AD3" s="150"/>
-      <c r="AE3" s="150"/>
-      <c r="AF3" s="150"/>
-      <c r="AG3" s="150"/>
-      <c r="AH3" s="152"/>
-      <c r="AI3" s="150"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="144"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="146"/>
+      <c r="T3" s="144"/>
+      <c r="U3" s="144"/>
+      <c r="V3" s="144"/>
+      <c r="W3" s="144"/>
+      <c r="X3" s="146"/>
+      <c r="Y3" s="144"/>
+      <c r="Z3" s="144"/>
+      <c r="AA3" s="144"/>
+      <c r="AB3" s="144"/>
+      <c r="AC3" s="146"/>
+      <c r="AD3" s="144"/>
+      <c r="AE3" s="144"/>
+      <c r="AF3" s="144"/>
+      <c r="AG3" s="144"/>
+      <c r="AH3" s="146"/>
+      <c r="AI3" s="144"/>
       <c r="AY3" s="56"/>
       <c r="AZ3" s="56"/>
       <c r="BA3" s="56"/>
@@ -6128,25 +6095,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>0.66949999999999998</v>
+        <v>0.67789999999999995</v>
       </c>
       <c r="C4" s="7">
-        <v>0.73029999999999995</v>
+        <v>0.70389999999999997</v>
       </c>
       <c r="D4" s="7">
         <v>0.7097</v>
       </c>
       <c r="E4" s="7">
-        <v>0.73550000000000004</v>
+        <v>0.70250000000000001</v>
       </c>
       <c r="F4" s="7">
-        <v>0.63700000000000001</v>
+        <v>0.64380000000000004</v>
       </c>
       <c r="G4" s="7">
         <v>0.76190000000000002</v>
       </c>
       <c r="H4" s="7">
-        <v>0.61599999999999999</v>
+        <v>0.624</v>
       </c>
       <c r="I4" s="7">
         <v>0.64290000000000003</v>
@@ -6158,80 +6125,80 @@
         <v>0.63790000000000002</v>
       </c>
       <c r="L4" s="7">
-        <v>0.66459999999999997</v>
+        <v>0.71519999999999995</v>
       </c>
       <c r="M4" s="7">
-        <v>0.62960000000000005</v>
+        <v>0.74070000000000003</v>
       </c>
       <c r="N4" s="7">
-        <v>0.67179999999999995</v>
+        <v>0.70989999999999998</v>
       </c>
       <c r="O4" s="7">
         <f>AVERAGE(P4:S4)</f>
-        <v>0.70352500000000007</v>
+        <v>0.70974999999999999</v>
       </c>
       <c r="P4" s="7">
-        <v>0.80189999999999995</v>
+        <v>0.77390000000000003</v>
       </c>
       <c r="Q4" s="7">
-        <v>0.59540000000000004</v>
+        <v>0.63380000000000003</v>
       </c>
       <c r="R4" s="7">
         <v>0.69140000000000001</v>
       </c>
       <c r="S4" s="7">
-        <v>0.72540000000000004</v>
+        <v>0.7399</v>
       </c>
       <c r="T4" s="7">
         <f>AVERAGE(U4:X4)</f>
-        <v>-0.38785000000000003</v>
+        <v>-0.42425000000000002</v>
       </c>
       <c r="U4" s="7">
-        <v>-0.34050000000000002</v>
+        <v>-0.36220000000000002</v>
       </c>
       <c r="V4" s="7">
-        <v>-0.2959</v>
+        <v>-0.38400000000000001</v>
       </c>
       <c r="W4" s="7">
         <v>-0.5887</v>
       </c>
       <c r="X4" s="7">
-        <v>-0.32629999999999998</v>
+        <v>-0.36209999999999998</v>
       </c>
       <c r="Y4" s="7">
         <f>AVERAGE(Z4:AC4)</f>
-        <v>-0.39932500000000004</v>
+        <v>-0.43567499999999998</v>
       </c>
       <c r="Z4" s="7">
-        <v>-0.28210000000000002</v>
+        <v>-0.29110000000000003</v>
       </c>
       <c r="AA4" s="7">
-        <v>-0.35070000000000001</v>
+        <v>-0.43769999999999998</v>
       </c>
       <c r="AB4" s="7">
         <v>-0.59409999999999996</v>
       </c>
       <c r="AC4" s="7">
-        <v>-0.37040000000000001</v>
+        <v>-0.41980000000000001</v>
       </c>
       <c r="AD4" s="7">
         <f>AVERAGE(AE4:AH4)</f>
-        <v>-0.43992500000000001</v>
+        <v>-0.48332500000000006</v>
       </c>
       <c r="AE4" s="7">
-        <v>-0.40710000000000002</v>
+        <v>-0.42199999999999999</v>
       </c>
       <c r="AF4" s="7">
-        <v>-0.3448</v>
+        <v>-0.43280000000000002</v>
       </c>
       <c r="AG4" s="7">
         <v>-0.62360000000000004</v>
       </c>
       <c r="AH4" s="7">
-        <v>-0.38419999999999999</v>
+        <v>-0.45490000000000003</v>
       </c>
       <c r="AI4" s="7" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="AY4" s="56"/>
       <c r="AZ4" s="56"/>
@@ -6241,116 +6208,56 @@
       <c r="BD4" s="56"/>
       <c r="BH4" s="72"/>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="7">
-        <v>0.67449999999999999</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.73680000000000001</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.80649999999999999</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0.71899999999999997</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0.63009999999999999</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.76190000000000002</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0.60799999999999998</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0.64290000000000003</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0.625</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0.64659999999999995</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0.6835</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0.70369999999999999</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0.6794</v>
-      </c>
-      <c r="O5" s="7">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7" t="e">
         <f t="shared" ref="O5:O11" si="0">AVERAGE(P5:S5)</f>
-        <v>0.71909999999999996</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="S5" s="7">
-        <v>0.71909999999999996</v>
-      </c>
-      <c r="T5" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7" t="e">
         <f t="shared" ref="T5:T11" si="1">AVERAGE(U5:X5)</f>
-        <v>-0.43069999999999997</v>
-      </c>
-      <c r="U5" s="7">
-        <v>-0.41620000000000001</v>
-      </c>
-      <c r="V5" s="7">
-        <v>-0.41810000000000003</v>
-      </c>
-      <c r="W5" s="7">
-        <v>-0.61370000000000002</v>
-      </c>
-      <c r="X5" s="7">
-        <v>-0.27479999999999999</v>
-      </c>
-      <c r="Y5" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7" t="e">
         <f t="shared" ref="Y5:Y11" si="2">AVERAGE(Z5:AC5)</f>
-        <v>-0.41462500000000002</v>
-      </c>
-      <c r="Z5" s="7">
-        <v>-0.2571</v>
-      </c>
-      <c r="AA5" s="7">
-        <v>-0.45219999999999999</v>
-      </c>
-      <c r="AB5" s="7">
-        <v>-0.65290000000000004</v>
-      </c>
-      <c r="AC5" s="7">
-        <v>-0.29630000000000001</v>
-      </c>
-      <c r="AD5" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7" t="e">
         <f t="shared" ref="AD5:AD11" si="3">AVERAGE(AE5:AH5)</f>
-        <v>-0.48835000000000001</v>
-      </c>
-      <c r="AE5" s="7">
-        <v>-0.48730000000000001</v>
-      </c>
-      <c r="AF5" s="7">
-        <v>-0.46479999999999999</v>
-      </c>
-      <c r="AG5" s="7">
-        <v>-0.64219999999999999</v>
-      </c>
-      <c r="AH5" s="7">
-        <v>-0.35909999999999997</v>
-      </c>
-      <c r="AI5" s="7" t="s">
-        <v>146</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
       <c r="AY5" s="71"/>
       <c r="AZ5" s="56"/>
       <c r="BA5" s="56"/>
@@ -6363,113 +6270,52 @@
       <c r="A6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="7">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.60529999999999995</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.4194</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0.65290000000000004</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0.58899999999999997</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.61899999999999999</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0.61429999999999996</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0.58330000000000004</v>
-      </c>
-      <c r="K6" s="7">
-        <v>0.62070000000000003</v>
-      </c>
-      <c r="L6" s="7">
-        <v>0.60760000000000003</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0.40739999999999998</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0.64890000000000003</v>
-      </c>
-      <c r="O6" s="7">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>0.71819999999999995</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="R6" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="S6" s="8">
-        <v>0.71819999999999995</v>
-      </c>
-      <c r="T6" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="7" t="e">
         <f t="shared" si="1"/>
-        <v>1.1824999999999994E-2</v>
-      </c>
-      <c r="U6" s="8">
-        <v>-4.9000000000000002E-2</v>
-      </c>
-      <c r="V6" s="8">
-        <f>--0.1893</f>
-        <v>0.1893</v>
-      </c>
-      <c r="W6" s="8">
-        <v>-5.6300000000000003E-2</v>
-      </c>
-      <c r="X6" s="8">
-        <v>-3.6700000000000003E-2</v>
-      </c>
-      <c r="Y6" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="7" t="e">
         <f t="shared" si="2"/>
-        <v>-0.14877499999999999</v>
-      </c>
-      <c r="Z6" s="8">
-        <v>-0.1268</v>
-      </c>
-      <c r="AA6" s="8">
-        <v>-0.30719999999999997</v>
-      </c>
-      <c r="AB6" s="8">
-        <v>-0.05</v>
-      </c>
-      <c r="AC6" s="8">
-        <v>-0.1111</v>
-      </c>
-      <c r="AD6" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="7" t="e">
         <f t="shared" si="3"/>
-        <v>-9.580000000000001E-2</v>
-      </c>
-      <c r="AE6" s="8">
-        <v>-5.3900000000000003E-2</v>
-      </c>
-      <c r="AF6" s="8">
-        <v>-0.18590000000000001</v>
-      </c>
-      <c r="AG6" s="8">
-        <v>-8.9099999999999999E-2</v>
-      </c>
-      <c r="AH6" s="8">
-        <v>-5.4300000000000001E-2</v>
-      </c>
-      <c r="AI6" s="8" t="s">
-        <v>156</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
       <c r="AJ6" s="15"/>
       <c r="AK6" s="15"/>
       <c r="AL6" s="15"/>
@@ -6495,253 +6341,133 @@
       <c r="BF6" s="15"/>
       <c r="BH6" s="72"/>
     </row>
-    <row r="7" spans="1:62" s="133" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="127">
-        <v>0.61580000000000001</v>
-      </c>
-      <c r="C7" s="127">
-        <v>0.65129999999999999</v>
-      </c>
-      <c r="D7" s="127">
-        <v>0.5161</v>
-      </c>
-      <c r="E7" s="127">
-        <v>0.68600000000000005</v>
-      </c>
-      <c r="F7" s="127">
-        <v>0.60960000000000003</v>
-      </c>
-      <c r="G7" s="127">
-        <v>0.76190000000000002</v>
-      </c>
-      <c r="H7" s="127">
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="I7" s="127">
-        <v>0.5857</v>
-      </c>
-      <c r="J7" s="127">
-        <v>0.625</v>
-      </c>
-      <c r="K7" s="127">
-        <v>0.5776</v>
-      </c>
-      <c r="L7" s="127">
-        <v>0.6139</v>
-      </c>
-      <c r="M7" s="127">
-        <v>0.55559999999999998</v>
-      </c>
-      <c r="N7" s="127">
-        <v>0.626</v>
-      </c>
-      <c r="O7" s="127">
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
+      <c r="M7" s="127"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="127" t="e">
         <f t="shared" si="0"/>
-        <v>0.42420000000000002</v>
-      </c>
-      <c r="P7" s="128" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q7" s="127">
-        <v>0.42420000000000002</v>
-      </c>
-      <c r="R7" s="128" t="s">
-        <v>149</v>
-      </c>
-      <c r="S7" s="128" t="s">
-        <v>150</v>
-      </c>
-      <c r="T7" s="127">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="127"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="127" t="e">
         <f t="shared" si="1"/>
-        <v>-2.2849999999999999E-2</v>
-      </c>
-      <c r="U7" s="129">
-        <v>2.3300000000000001E-2</v>
-      </c>
-      <c r="V7" s="129">
-        <v>-4.0399999999999998E-2</v>
-      </c>
-      <c r="W7" s="129">
-        <v>-5.8299999999999998E-2</v>
-      </c>
-      <c r="X7" s="129">
-        <v>-1.6E-2</v>
-      </c>
-      <c r="Y7" s="130">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="78" t="e">
         <f t="shared" si="2"/>
-        <v>-5.9999999999999967E-3</v>
-      </c>
-      <c r="Z7" s="129">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="AA7" s="129">
-        <v>-8.9899999999999994E-2</v>
-      </c>
-      <c r="AB7" s="129">
-        <v>0.05</v>
-      </c>
-      <c r="AC7" s="129">
-        <v>1.23E-2</v>
-      </c>
-      <c r="AD7" s="127">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="127" t="e">
         <f t="shared" si="3"/>
-        <v>-6.4375000000000002E-2</v>
-      </c>
-      <c r="AE7" s="129">
-        <v>-5.1000000000000004E-3</v>
-      </c>
-      <c r="AF7" s="129">
-        <v>-8.8800000000000004E-2</v>
-      </c>
-      <c r="AG7" s="129">
-        <v>-9.0899999999999995E-2</v>
-      </c>
-      <c r="AH7" s="129">
-        <v>-7.2700000000000001E-2</v>
-      </c>
-      <c r="AI7" s="129" t="s">
-        <v>151</v>
-      </c>
-      <c r="AJ7" s="131"/>
-      <c r="AK7" s="131"/>
-      <c r="AL7" s="131"/>
-      <c r="AM7" s="131"/>
-      <c r="AN7" s="131"/>
-      <c r="AO7" s="131"/>
-      <c r="AP7" s="131"/>
-      <c r="AQ7" s="131"/>
-      <c r="AR7" s="131"/>
-      <c r="AS7" s="131"/>
-      <c r="AT7" s="131"/>
-      <c r="AU7" s="131"/>
-      <c r="AV7" s="131"/>
-      <c r="AW7" s="131"/>
-      <c r="AX7" s="131"/>
-      <c r="AY7" s="131"/>
-      <c r="AZ7" s="131"/>
-      <c r="BA7" s="132"/>
-      <c r="BB7" s="132"/>
-      <c r="BC7" s="132"/>
-      <c r="BD7" s="132"/>
-      <c r="BE7" s="132"/>
-      <c r="BF7" s="132"/>
-      <c r="BG7" s="131"/>
-      <c r="BH7" s="131"/>
-      <c r="BJ7" s="134"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="15"/>
+      <c r="AM7" s="15"/>
+      <c r="AN7" s="15"/>
+      <c r="AO7" s="15"/>
+      <c r="AP7" s="15"/>
+      <c r="AQ7" s="15"/>
+      <c r="AR7" s="15"/>
+      <c r="AS7" s="15"/>
+      <c r="AT7" s="15"/>
+      <c r="AU7" s="15"/>
+      <c r="AV7" s="15"/>
+      <c r="AW7" s="15"/>
+      <c r="AX7" s="15"/>
+      <c r="AY7" s="15"/>
+      <c r="AZ7" s="15"/>
+      <c r="BA7" s="56"/>
+      <c r="BB7" s="56"/>
+      <c r="BC7" s="56"/>
+      <c r="BD7" s="56"/>
+      <c r="BE7" s="56"/>
+      <c r="BF7" s="56"/>
+      <c r="BG7" s="15"/>
+      <c r="BH7" s="15"/>
+      <c r="BJ7" s="72"/>
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="7">
-        <v>0.59730000000000005</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.61839999999999995</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.4516</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0.66120000000000001</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0.58220000000000005</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="H8" s="7">
-        <v>5680</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0.5857</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0.54169999999999996</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0.5948</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0.60129999999999995</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0.40739999999999998</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0.64119999999999999</v>
-      </c>
-      <c r="O8" s="7">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>0.50409999999999999</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>0.50409999999999999</v>
-      </c>
-      <c r="R8" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="S8" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="T8" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="7" t="e">
         <f t="shared" si="1"/>
-        <v>-3.5249999999999997E-2</v>
-      </c>
-      <c r="U8" s="8">
-        <v>0</v>
-      </c>
-      <c r="V8" s="8">
-        <v>-0.15759999999999999</v>
-      </c>
-      <c r="W8" s="8">
-        <v>-2.2499999999999999E-2</v>
-      </c>
-      <c r="X8" s="8">
-        <v>3.9100000000000003E-2</v>
-      </c>
-      <c r="Y8" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="7" t="e">
         <f t="shared" si="2"/>
-        <v>-3.8250000000000006E-2</v>
-      </c>
-      <c r="Z8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="8">
-        <v>-0.23480000000000001</v>
-      </c>
-      <c r="AB8" s="8">
-        <v>3.2399999999999998E-2</v>
-      </c>
-      <c r="AC8" s="8">
-        <v>4.9399999999999999E-2</v>
-      </c>
-      <c r="AD8" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="7" t="e">
         <f t="shared" si="3"/>
-        <v>-5.1025000000000008E-2</v>
-      </c>
-      <c r="AE8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="8">
-        <v>-0.16950000000000001</v>
-      </c>
-      <c r="AG8" s="8">
-        <v>-4.4499999999999998E-2</v>
-      </c>
-      <c r="AH8" s="8">
-        <v>9.9000000000000008E-3</v>
-      </c>
-      <c r="AI8" s="8" t="s">
-        <v>168</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
       <c r="AJ8" s="15"/>
       <c r="AK8" s="15"/>
       <c r="AL8" s="15"/>
@@ -6769,116 +6495,56 @@
       <c r="BH8" s="15"/>
       <c r="BJ8" s="72"/>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="7">
-        <v>0.59230000000000005</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.63819999999999999</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.4839</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0.67769999999999997</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0.56159999999999999</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0.76190000000000002</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0.41670000000000001</v>
-      </c>
-      <c r="K9" s="7">
-        <v>0.5776</v>
-      </c>
-      <c r="L9" s="7">
-        <v>0.6139</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0.37040000000000001</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0.66410000000000002</v>
-      </c>
-      <c r="O9" s="7">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>0.61470000000000002</v>
-      </c>
-      <c r="P9" s="7">
-        <v>0.77180000000000004</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>0.45760000000000001</v>
-      </c>
-      <c r="R9" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="S9" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="T9" s="78">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="78" t="e">
         <f t="shared" si="1"/>
-        <v>-1.5750000000000007E-2</v>
-      </c>
-      <c r="U9" s="8">
-        <v>1.34E-2</v>
-      </c>
-      <c r="V9" s="8">
-        <v>-0.2</v>
-      </c>
-      <c r="W9" s="8">
-        <v>4.2900000000000001E-2</v>
-      </c>
-      <c r="X9" s="8">
-        <v>8.0699999999999994E-2</v>
-      </c>
-      <c r="Y9" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="7" t="e">
         <f t="shared" si="2"/>
-        <v>-2.0799999999999999E-2</v>
-      </c>
-      <c r="Z9" s="8">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="AA9" s="8">
-        <v>-0.17680000000000001</v>
-      </c>
-      <c r="AB9" s="8">
-        <v>4.41E-2</v>
-      </c>
-      <c r="AC9" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="AD9" s="78">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="78" t="e">
         <f t="shared" si="3"/>
-        <v>-3.5574999999999996E-2</v>
-      </c>
-      <c r="AE9" s="8">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="AF9" s="8">
-        <v>-0.24079999999999999</v>
-      </c>
-      <c r="AG9" s="8">
-        <v>4.3099999999999999E-2</v>
-      </c>
-      <c r="AH9" s="8">
-        <v>5.4600000000000003E-2</v>
-      </c>
-      <c r="AI9" s="8" t="s">
-        <v>164</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
       <c r="AJ9" s="15"/>
       <c r="AK9" s="15"/>
       <c r="AL9" s="15"/>
@@ -6910,112 +6576,52 @@
       <c r="A10" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="70">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="C10" s="70">
-        <v>0.60529999999999995</v>
-      </c>
-      <c r="D10" s="70">
-        <v>0.4194</v>
-      </c>
-      <c r="E10" s="70">
-        <v>0.65290000000000004</v>
-      </c>
-      <c r="F10" s="70">
-        <v>0.56850000000000001</v>
-      </c>
-      <c r="G10" s="70">
-        <v>0.71430000000000005</v>
-      </c>
-      <c r="H10" s="70">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="I10" s="70">
-        <v>0.62860000000000005</v>
-      </c>
-      <c r="J10" s="70">
-        <v>0.58330000000000004</v>
-      </c>
-      <c r="K10" s="70">
-        <v>0.63790000000000002</v>
-      </c>
-      <c r="L10" s="70">
-        <v>0.6139</v>
-      </c>
-      <c r="M10" s="70">
-        <v>0.44440000000000002</v>
-      </c>
-      <c r="N10" s="70">
-        <v>0.64890000000000003</v>
-      </c>
-      <c r="O10" s="70">
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70" t="e">
         <f t="shared" si="0"/>
-        <v>0.60030000000000006</v>
-      </c>
-      <c r="P10" s="70">
-        <v>0.73909999999999998</v>
-      </c>
-      <c r="Q10" s="70">
-        <v>0.46150000000000002</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="S10" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="T10" s="70">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="70" t="e">
         <f t="shared" si="1"/>
-        <v>-6.2550000000000008E-2</v>
-      </c>
-      <c r="U10" s="8">
-        <v>-6.7500000000000004E-2</v>
-      </c>
-      <c r="V10" s="8">
-        <v>-0.15090000000000001</v>
-      </c>
-      <c r="W10" s="8">
-        <v>-5.3199999999999997E-2</v>
-      </c>
-      <c r="X10" s="8">
-        <v>2.1399999999999999E-2</v>
-      </c>
-      <c r="Y10" s="70">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="70" t="e">
         <f t="shared" si="2"/>
-        <v>-8.2850000000000007E-2</v>
-      </c>
-      <c r="Z10" s="8">
-        <v>-0.13930000000000001</v>
-      </c>
-      <c r="AA10" s="8">
-        <v>-0.17680000000000001</v>
-      </c>
-      <c r="AB10" s="8">
-        <v>-6.4699999999999994E-2</v>
-      </c>
-      <c r="AC10" s="8">
-        <v>4.9399999999999999E-2</v>
-      </c>
-      <c r="AD10" s="70">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="70" t="e">
         <f t="shared" si="3"/>
-        <v>-8.9025000000000007E-2</v>
-      </c>
-      <c r="AE10" s="8">
-        <v>-7.0400000000000004E-2</v>
-      </c>
-      <c r="AF10" s="8">
-        <v>-0.17710000000000001</v>
-      </c>
-      <c r="AG10" s="8">
-        <v>-8.9099999999999999E-2</v>
-      </c>
-      <c r="AH10" s="8">
-        <v>-1.95E-2</v>
-      </c>
-      <c r="AI10" s="8" t="s">
-        <v>171</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
       <c r="AJ10" s="15"/>
       <c r="AK10" s="15"/>
       <c r="AL10" s="15"/>
@@ -7043,116 +6649,56 @@
       <c r="BH10" s="15"/>
       <c r="BJ10" s="72"/>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="70">
-        <v>0.59730000000000005</v>
-      </c>
-      <c r="C11" s="70">
-        <v>0.66469999999999996</v>
-      </c>
-      <c r="D11" s="70">
-        <v>0.4839</v>
-      </c>
-      <c r="E11" s="70">
-        <v>0.68600000000000005</v>
-      </c>
-      <c r="F11" s="70">
-        <v>0.56159999999999999</v>
-      </c>
-      <c r="G11" s="70">
-        <v>0.7319</v>
-      </c>
-      <c r="H11" s="70">
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="I11" s="70">
-        <v>0.59289999999999998</v>
-      </c>
-      <c r="J11" s="70">
-        <v>0.5</v>
-      </c>
-      <c r="K11" s="70">
-        <v>0.61209999999999998</v>
-      </c>
-      <c r="L11" s="70">
-        <v>0.58860000000000001</v>
-      </c>
-      <c r="M11" s="70">
-        <v>0.37040000000000001</v>
-      </c>
-      <c r="N11" s="70">
-        <v>0.63360000000000005</v>
-      </c>
-      <c r="O11" s="70">
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70" t="e">
         <f t="shared" si="0"/>
-        <v>0.49525000000000002</v>
-      </c>
-      <c r="P11" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q11" s="70">
-        <v>0.25580000000000003</v>
-      </c>
-      <c r="R11" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="S11" s="70">
-        <v>0.73470000000000002</v>
-      </c>
-      <c r="T11" s="70">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70" t="e">
         <f t="shared" si="1"/>
-        <v>-2.4874999999999998E-2</v>
-      </c>
-      <c r="U11" s="70">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="V11" s="70">
-        <v>-8.8599999999999998E-2</v>
-      </c>
-      <c r="W11" s="70">
-        <v>-8.4099999999999994E-2</v>
-      </c>
-      <c r="X11" s="70">
-        <v>-7.7999999999999996E-3</v>
-      </c>
-      <c r="Y11" s="70">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="70"/>
+      <c r="X11" s="70"/>
+      <c r="Y11" s="70" t="e">
         <f t="shared" si="2"/>
-        <v>-5.8224999999999999E-2</v>
-      </c>
-      <c r="Z11" s="70">
-        <v>0.05</v>
-      </c>
-      <c r="AA11" s="70">
-        <v>-0.15939999999999999</v>
-      </c>
-      <c r="AB11" s="70">
-        <v>-0.1235</v>
-      </c>
-      <c r="AC11" s="70">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="70">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="70"/>
+      <c r="AD11" s="70" t="e">
         <f t="shared" si="3"/>
-        <v>-3.9925000000000002E-2</v>
-      </c>
-      <c r="AE11" s="70">
-        <v>5.8700000000000002E-2</v>
-      </c>
-      <c r="AF11" s="70">
-        <v>-9.6000000000000002E-2</v>
-      </c>
-      <c r="AG11" s="70">
-        <v>-0.10059999999999999</v>
-      </c>
-      <c r="AH11" s="70">
-        <v>-2.18E-2</v>
-      </c>
-      <c r="AI11" s="70" t="s">
-        <v>174</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE11" s="70"/>
+      <c r="AF11" s="70"/>
+      <c r="AG11" s="70"/>
+      <c r="AH11" s="70"/>
+      <c r="AI11" s="70"/>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.25">
       <c r="P12" s="61"/>
@@ -7168,7 +6714,7 @@
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.25">
       <c r="C16" s="28" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H16" s="56"/>
       <c r="I16" s="56"/>
@@ -7186,7 +6732,7 @@
     </row>
     <row r="17" spans="1:66" x14ac:dyDescent="0.25">
       <c r="C17" s="28" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:66" x14ac:dyDescent="0.25">
@@ -7305,54 +6851,54 @@
       <c r="BF21" s="15"/>
     </row>
     <row r="22" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A22" s="149" t="s">
+      <c r="A22" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="148" t="s">
+      <c r="B22" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="148"/>
-      <c r="D22" s="148"/>
-      <c r="E22" s="148"/>
-      <c r="F22" s="148"/>
-      <c r="G22" s="148"/>
-      <c r="H22" s="148"/>
-      <c r="I22" s="148"/>
-      <c r="J22" s="148"/>
-      <c r="K22" s="148"/>
-      <c r="L22" s="148"/>
-      <c r="M22" s="148"/>
-      <c r="N22" s="148"/>
-      <c r="O22" s="148" t="s">
+      <c r="C22" s="147"/>
+      <c r="D22" s="147"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="147"/>
+      <c r="J22" s="147"/>
+      <c r="K22" s="147"/>
+      <c r="L22" s="147"/>
+      <c r="M22" s="147"/>
+      <c r="N22" s="147"/>
+      <c r="O22" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="P22" s="148"/>
-      <c r="Q22" s="148"/>
-      <c r="R22" s="148"/>
-      <c r="S22" s="148"/>
-      <c r="T22" s="148" t="s">
+      <c r="P22" s="147"/>
+      <c r="Q22" s="147"/>
+      <c r="R22" s="147"/>
+      <c r="S22" s="147"/>
+      <c r="T22" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="U22" s="148"/>
-      <c r="V22" s="148"/>
-      <c r="W22" s="148"/>
-      <c r="X22" s="148"/>
-      <c r="Y22" s="148" t="s">
+      <c r="U22" s="147"/>
+      <c r="V22" s="147"/>
+      <c r="W22" s="147"/>
+      <c r="X22" s="147"/>
+      <c r="Y22" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="Z22" s="148"/>
-      <c r="AA22" s="148"/>
-      <c r="AB22" s="148"/>
-      <c r="AC22" s="148"/>
-      <c r="AD22" s="148" t="s">
+      <c r="Z22" s="147"/>
+      <c r="AA22" s="147"/>
+      <c r="AB22" s="147"/>
+      <c r="AC22" s="147"/>
+      <c r="AD22" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="AE22" s="148"/>
-      <c r="AF22" s="148"/>
-      <c r="AG22" s="148"/>
-      <c r="AH22" s="148"/>
+      <c r="AE22" s="147"/>
+      <c r="AF22" s="147"/>
+      <c r="AG22" s="147"/>
+      <c r="AH22" s="147"/>
       <c r="AI22" s="85" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AJ22" s="15"/>
       <c r="AK22" s="15"/>
@@ -7379,92 +6925,92 @@
       <c r="BF22" s="56"/>
     </row>
     <row r="23" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A23" s="156"/>
-      <c r="B23" s="149" t="s">
+      <c r="A23" s="151"/>
+      <c r="B23" s="143" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="148" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="149"/>
+      <c r="E23" s="150"/>
+      <c r="F23" s="148" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="153" t="s">
+      <c r="G23" s="149"/>
+      <c r="H23" s="150"/>
+      <c r="I23" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="D23" s="154"/>
-      <c r="E23" s="155"/>
-      <c r="F23" s="153" t="s">
+      <c r="J23" s="149"/>
+      <c r="K23" s="150"/>
+      <c r="L23" s="148" t="s">
         <v>135</v>
       </c>
-      <c r="G23" s="154"/>
-      <c r="H23" s="155"/>
-      <c r="I23" s="153" t="s">
-        <v>136</v>
-      </c>
-      <c r="J23" s="154"/>
-      <c r="K23" s="155"/>
-      <c r="L23" s="153" t="s">
-        <v>137</v>
-      </c>
-      <c r="M23" s="154"/>
-      <c r="N23" s="155"/>
-      <c r="O23" s="149" t="s">
+      <c r="M23" s="149"/>
+      <c r="N23" s="150"/>
+      <c r="O23" s="143" t="s">
+        <v>131</v>
+      </c>
+      <c r="P23" s="143" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q23" s="143" t="s">
         <v>133</v>
       </c>
-      <c r="P23" s="149" t="s">
+      <c r="R23" s="143" t="s">
         <v>134</v>
       </c>
-      <c r="Q23" s="149" t="s">
+      <c r="S23" s="145" t="s">
         <v>135</v>
       </c>
-      <c r="R23" s="149" t="s">
-        <v>136</v>
-      </c>
-      <c r="S23" s="151" t="s">
-        <v>137</v>
-      </c>
-      <c r="T23" s="149" t="s">
+      <c r="T23" s="143" t="s">
+        <v>131</v>
+      </c>
+      <c r="U23" s="143" t="s">
+        <v>132</v>
+      </c>
+      <c r="V23" s="143" t="s">
         <v>133</v>
       </c>
-      <c r="U23" s="149" t="s">
+      <c r="W23" s="143" t="s">
         <v>134</v>
       </c>
-      <c r="V23" s="149" t="s">
+      <c r="X23" s="145" t="s">
         <v>135</v>
       </c>
-      <c r="W23" s="149" t="s">
-        <v>136</v>
-      </c>
-      <c r="X23" s="151" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y23" s="149" t="s">
+      <c r="Y23" s="143" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z23" s="143" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA23" s="143" t="s">
         <v>133</v>
       </c>
-      <c r="Z23" s="149" t="s">
+      <c r="AB23" s="143" t="s">
         <v>134</v>
       </c>
-      <c r="AA23" s="149" t="s">
+      <c r="AC23" s="145" t="s">
         <v>135</v>
       </c>
-      <c r="AB23" s="149" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC23" s="151" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD23" s="149" t="s">
+      <c r="AD23" s="143" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE23" s="143" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF23" s="143" t="s">
         <v>133</v>
       </c>
-      <c r="AE23" s="149" t="s">
+      <c r="AG23" s="143" t="s">
         <v>134</v>
       </c>
-      <c r="AF23" s="149" t="s">
+      <c r="AH23" s="145" t="s">
         <v>135</v>
       </c>
-      <c r="AG23" s="149" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH23" s="151" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI23" s="149" t="s">
-        <v>133</v>
+      <c r="AI23" s="143" t="s">
+        <v>131</v>
       </c>
       <c r="AJ23" s="15"/>
       <c r="AK23" s="15"/>
@@ -7491,10 +7037,10 @@
       <c r="BF23" s="15"/>
     </row>
     <row r="24" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A24" s="150"/>
-      <c r="B24" s="150"/>
+      <c r="A24" s="144"/>
+      <c r="B24" s="144"/>
       <c r="C24" s="85" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D24" s="85" t="s">
         <v>15</v>
@@ -7503,7 +7049,7 @@
         <v>16</v>
       </c>
       <c r="F24" s="85" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G24" s="85" t="s">
         <v>15</v>
@@ -7512,7 +7058,7 @@
         <v>16</v>
       </c>
       <c r="I24" s="85" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J24" s="85" t="s">
         <v>15</v>
@@ -7521,7 +7067,7 @@
         <v>16</v>
       </c>
       <c r="L24" s="85" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M24" s="85" t="s">
         <v>15</v>
@@ -7529,27 +7075,27 @@
       <c r="N24" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="O24" s="150"/>
-      <c r="P24" s="150"/>
-      <c r="Q24" s="150"/>
-      <c r="R24" s="150"/>
-      <c r="S24" s="152"/>
-      <c r="T24" s="150"/>
-      <c r="U24" s="150"/>
-      <c r="V24" s="150"/>
-      <c r="W24" s="150"/>
-      <c r="X24" s="152"/>
-      <c r="Y24" s="150"/>
-      <c r="Z24" s="150"/>
-      <c r="AA24" s="150"/>
-      <c r="AB24" s="150"/>
-      <c r="AC24" s="152"/>
-      <c r="AD24" s="150"/>
-      <c r="AE24" s="150"/>
-      <c r="AF24" s="150"/>
-      <c r="AG24" s="150"/>
-      <c r="AH24" s="152"/>
-      <c r="AI24" s="150"/>
+      <c r="O24" s="144"/>
+      <c r="P24" s="144"/>
+      <c r="Q24" s="144"/>
+      <c r="R24" s="144"/>
+      <c r="S24" s="146"/>
+      <c r="T24" s="144"/>
+      <c r="U24" s="144"/>
+      <c r="V24" s="144"/>
+      <c r="W24" s="144"/>
+      <c r="X24" s="146"/>
+      <c r="Y24" s="144"/>
+      <c r="Z24" s="144"/>
+      <c r="AA24" s="144"/>
+      <c r="AB24" s="144"/>
+      <c r="AC24" s="146"/>
+      <c r="AD24" s="144"/>
+      <c r="AE24" s="144"/>
+      <c r="AF24" s="144"/>
+      <c r="AG24" s="144"/>
+      <c r="AH24" s="146"/>
+      <c r="AI24" s="144"/>
       <c r="BH24" s="56"/>
     </row>
     <row r="25" spans="1:66" x14ac:dyDescent="0.25">
@@ -7712,7 +7258,7 @@
         <v>-0.4874</v>
       </c>
       <c r="AI26" s="85" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="AJ26" s="15"/>
       <c r="AK26" s="15"/>
@@ -8442,12 +7988,48 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="AI23:AI24"/>
-    <mergeCell ref="AD23:AD24"/>
-    <mergeCell ref="AE23:AE24"/>
-    <mergeCell ref="AF23:AF24"/>
-    <mergeCell ref="AG23:AG24"/>
-    <mergeCell ref="AH23:AH24"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y1:AC1"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:N22"/>
+    <mergeCell ref="O22:S22"/>
+    <mergeCell ref="T22:X22"/>
+    <mergeCell ref="Y22:AC22"/>
+    <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="Z23:Z24"/>
+    <mergeCell ref="AA23:AA24"/>
+    <mergeCell ref="AB23:AB24"/>
+    <mergeCell ref="AC23:AC24"/>
     <mergeCell ref="AD22:AH22"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:E23"/>
@@ -8464,48 +8046,12 @@
     <mergeCell ref="V23:V24"/>
     <mergeCell ref="W23:W24"/>
     <mergeCell ref="X23:X24"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:N22"/>
-    <mergeCell ref="O22:S22"/>
-    <mergeCell ref="T22:X22"/>
-    <mergeCell ref="Y22:AC22"/>
-    <mergeCell ref="Y23:Y24"/>
-    <mergeCell ref="Z23:Z24"/>
-    <mergeCell ref="AA23:AA24"/>
-    <mergeCell ref="AB23:AB24"/>
-    <mergeCell ref="AC23:AC24"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="Y1:AC1"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="AI23:AI24"/>
+    <mergeCell ref="AD23:AD24"/>
+    <mergeCell ref="AE23:AE24"/>
+    <mergeCell ref="AF23:AF24"/>
+    <mergeCell ref="AG23:AG24"/>
+    <mergeCell ref="AH23:AH24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -8553,8 +8099,8 @@
   </sheetPr>
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8566,7 +8112,7 @@
     <col min="5" max="5" width="17" style="24" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="24"/>
     <col min="7" max="7" width="23.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="24" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" style="24" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" style="24" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" style="24" bestFit="1" customWidth="1"/>
@@ -8588,31 +8134,31 @@
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="49"/>
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="159" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="171" t="s">
+      <c r="C2" s="161" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="171" t="s">
+      <c r="D2" s="161" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="171" t="s">
+      <c r="E2" s="161" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="171" t="s">
+      <c r="F2" s="161" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="165" t="s">
+      <c r="G2" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="172" t="s">
+      <c r="H2" s="162" t="s">
         <v>104</v>
       </c>
-      <c r="I2" s="165" t="s">
+      <c r="I2" s="155" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="173" t="s">
+      <c r="J2" s="164" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="31"/>
@@ -8621,21 +8167,21 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="49"/>
-      <c r="B3" s="170"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="174"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="165"/>
       <c r="K3" s="31"/>
       <c r="L3" s="31"/>
       <c r="O3" s="54"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="157" t="s">
+      <c r="A4" s="152" t="s">
         <v>93</v>
       </c>
       <c r="B4" s="69" t="s">
@@ -8654,23 +8200,23 @@
         <v>101</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="I4" s="37">
         <v>256</v>
       </c>
       <c r="J4" s="68" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
       <c r="O4" s="54"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="158"/>
+      <c r="A5" s="153"/>
       <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
@@ -8686,24 +8232,20 @@
       <c r="F5" s="23">
         <v>0.5</v>
       </c>
-      <c r="G5" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>131</v>
-      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="36"/>
       <c r="I5" s="27">
         <v>256</v>
       </c>
       <c r="J5" s="67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
       <c r="O5" s="54"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="158"/>
+      <c r="A6" s="153"/>
       <c r="B6" s="6" t="s">
         <v>97</v>
       </c>
@@ -8736,7 +8278,7 @@
       <c r="O6" s="54"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="158"/>
+      <c r="A7" s="153"/>
       <c r="B7" s="38" t="s">
         <v>96</v>
       </c>
@@ -8769,7 +8311,7 @@
       <c r="O7" s="54"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="159"/>
+      <c r="A8" s="154"/>
       <c r="B8" s="53" t="s">
         <v>98</v>
       </c>
@@ -8802,7 +8344,7 @@
       <c r="O8" s="54"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="160" t="s">
+      <c r="A9" s="166" t="s">
         <v>95</v>
       </c>
       <c r="B9" s="37" t="s">
@@ -8821,23 +8363,23 @@
         <v>101</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="H9" s="213">
+        <v>182</v>
+      </c>
+      <c r="H9" s="128">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="I9" s="37">
         <v>256</v>
       </c>
       <c r="J9" s="52" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
       <c r="O9" s="54"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="158"/>
+      <c r="A10" s="153"/>
       <c r="B10" s="23" t="s">
         <v>14</v>
       </c>
@@ -8854,16 +8396,16 @@
         <v>0.5</v>
       </c>
       <c r="G10" s="84" t="s">
-        <v>187</v>
-      </c>
-      <c r="H10" s="214">
+        <v>182</v>
+      </c>
+      <c r="H10" s="129">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="I10" s="23">
         <v>256</v>
       </c>
       <c r="J10" s="67" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
@@ -8871,7 +8413,7 @@
       <c r="O10" s="54"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="158"/>
+      <c r="A11" s="153"/>
       <c r="B11" s="23" t="s">
         <v>97</v>
       </c>
@@ -8905,7 +8447,7 @@
       <c r="O11" s="54"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="158"/>
+      <c r="A12" s="153"/>
       <c r="B12" s="23" t="s">
         <v>96</v>
       </c>
@@ -8939,7 +8481,7 @@
       <c r="O12" s="54"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="159"/>
+      <c r="A13" s="154"/>
       <c r="B13" s="44" t="s">
         <v>98</v>
       </c>
@@ -9001,34 +8543,34 @@
     </row>
     <row r="17" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49"/>
-      <c r="B17" s="163" t="s">
+      <c r="B17" s="168" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="165" t="s">
+      <c r="C17" s="155" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="165" t="s">
+      <c r="D17" s="155" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="165" t="s">
+      <c r="E17" s="155" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="165" t="s">
+      <c r="F17" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="165" t="s">
+      <c r="G17" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="161" t="s">
+      <c r="H17" s="167" t="s">
         <v>104</v>
       </c>
-      <c r="I17" s="165" t="s">
+      <c r="I17" s="155" t="s">
         <v>100</v>
       </c>
-      <c r="J17" s="165" t="s">
+      <c r="J17" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="167" t="s">
+      <c r="K17" s="157" t="s">
         <v>66</v>
       </c>
       <c r="L17" s="63"/>
@@ -9036,24 +8578,24 @@
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="50"/>
-      <c r="B18" s="164"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="166"/>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="162"/>
-      <c r="I18" s="166"/>
-      <c r="J18" s="166"/>
-      <c r="K18" s="168"/>
+      <c r="B18" s="169"/>
+      <c r="C18" s="156"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="156"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="156"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="156"/>
+      <c r="K18" s="158"/>
       <c r="L18" s="63"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="157" t="s">
+      <c r="A19" s="152" t="s">
         <v>93</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C19" s="37">
         <v>1</v>
@@ -9067,9 +8609,7 @@
       <c r="F19" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="G19" s="65" t="s">
-        <v>152</v>
-      </c>
+      <c r="G19" s="65"/>
       <c r="H19" s="75">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -9077,16 +8617,16 @@
         <v>256</v>
       </c>
       <c r="J19" s="62" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K19" s="76" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="158"/>
+      <c r="A20" s="153"/>
       <c r="B20" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C20" s="23">
         <v>3</v>
@@ -9100,9 +8640,7 @@
       <c r="F20" s="64">
         <v>0.5</v>
       </c>
-      <c r="G20" s="65" t="s">
-        <v>147</v>
-      </c>
+      <c r="G20" s="65"/>
       <c r="H20" s="75">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -9110,15 +8648,15 @@
         <v>256</v>
       </c>
       <c r="J20" s="64" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K20" s="77" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L20" s="32"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="158"/>
+      <c r="A21" s="153"/>
       <c r="B21" s="7" t="s">
         <v>97</v>
       </c>
@@ -9152,9 +8690,9 @@
       <c r="L21" s="32"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="158"/>
+      <c r="A22" s="153"/>
       <c r="B22" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C22" s="23">
         <v>4</v>
@@ -9185,9 +8723,9 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="159"/>
+      <c r="A23" s="154"/>
       <c r="B23" s="47" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C23" s="44">
         <v>4</v>
@@ -9218,7 +8756,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="157" t="s">
+      <c r="A24" s="152" t="s">
         <v>95</v>
       </c>
       <c r="B24" s="37" t="s">
@@ -9235,7 +8773,7 @@
       <c r="K24" s="52"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="158"/>
+      <c r="A25" s="153"/>
       <c r="B25" s="23" t="s">
         <v>14</v>
       </c>
@@ -9250,7 +8788,7 @@
       <c r="K25" s="67"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="158"/>
+      <c r="A26" s="153"/>
       <c r="B26" s="23" t="s">
         <v>97</v>
       </c>
@@ -9277,7 +8815,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="158"/>
+      <c r="A27" s="153"/>
       <c r="B27" s="23" t="s">
         <v>96</v>
       </c>
@@ -9302,7 +8840,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="159"/>
+      <c r="A28" s="154"/>
       <c r="B28" s="44" t="s">
         <v>98</v>
       </c>
@@ -9341,11 +8879,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -9358,12 +8897,11 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="J17:J18"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="I17:I18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -9391,10 +8929,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="174" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="208"/>
+      <c r="B1" s="174"/>
       <c r="C1" s="48"/>
       <c r="D1" s="81"/>
       <c r="E1" s="81"/>
@@ -9411,66 +8949,66 @@
       <c r="P1" s="32"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="155" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="199" t="s">
+      <c r="C2" s="193" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="199" t="s">
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="193" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="201"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="195"/>
       <c r="M2" s="178" t="s">
         <v>18</v>
       </c>
       <c r="N2" s="178" t="s">
         <v>116</v>
       </c>
-      <c r="O2" s="181" t="s">
+      <c r="O2" s="205" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="175" t="s">
-        <v>144</v>
+      <c r="P2" s="202" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="210"/>
-      <c r="B3" s="171"/>
-      <c r="C3" s="140" t="s">
+      <c r="A3" s="176"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="135" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140" t="s">
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
       <c r="M3" s="179"/>
       <c r="N3" s="179"/>
-      <c r="O3" s="182"/>
-      <c r="P3" s="176"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="203"/>
     </row>
     <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="211"/>
-      <c r="B4" s="166"/>
+      <c r="A4" s="177"/>
+      <c r="B4" s="156"/>
       <c r="C4" s="44" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D4" s="44" t="s">
         <v>119</v>
@@ -9479,13 +9017,13 @@
         <v>120</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G4" s="44" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H4" s="44" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I4" s="44" t="s">
         <v>119</v>
@@ -9494,18 +9032,18 @@
         <v>120</v>
       </c>
       <c r="K4" s="44" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="L4" s="44" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M4" s="180"/>
       <c r="N4" s="180"/>
-      <c r="O4" s="183"/>
-      <c r="P4" s="177"/>
+      <c r="O4" s="207"/>
+      <c r="P4" s="204"/>
     </row>
     <row r="5" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="184" t="s">
+      <c r="A5" s="170" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="55" t="s">
@@ -9527,24 +9065,24 @@
       <c r="P5" s="89"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
+      <c r="A6" s="173"/>
       <c r="B6" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="187">
+      <c r="C6" s="181">
         <v>0.65300000000000002</v>
       </c>
-      <c r="D6" s="188"/>
-      <c r="E6" s="188"/>
-      <c r="F6" s="188"/>
-      <c r="G6" s="189"/>
-      <c r="H6" s="187">
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="183"/>
+      <c r="H6" s="181">
         <v>0.66700000000000004</v>
       </c>
-      <c r="I6" s="188"/>
-      <c r="J6" s="188"/>
-      <c r="K6" s="188"/>
-      <c r="L6" s="189"/>
+      <c r="I6" s="182"/>
+      <c r="J6" s="182"/>
+      <c r="K6" s="182"/>
+      <c r="L6" s="183"/>
       <c r="M6" s="80">
         <v>-0.36249999999999999</v>
       </c>
@@ -9555,11 +9093,11 @@
         <v>-0.32519999999999999</v>
       </c>
       <c r="P6" s="77" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="186"/>
+      <c r="A7" s="172"/>
       <c r="B7" s="42" t="s">
         <v>108</v>
       </c>
@@ -9603,41 +9141,41 @@
         <v>-0.43992500000000001</v>
       </c>
       <c r="P7" s="97" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="184" t="s">
+      <c r="A8" s="170" t="s">
         <v>112</v>
       </c>
       <c r="B8" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="190"/>
-      <c r="D8" s="191"/>
-      <c r="E8" s="191"/>
-      <c r="F8" s="191"/>
-      <c r="G8" s="192"/>
-      <c r="H8" s="190"/>
-      <c r="I8" s="191"/>
-      <c r="J8" s="191"/>
-      <c r="K8" s="191"/>
-      <c r="L8" s="192"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="185"/>
+      <c r="E8" s="185"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="186"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="185"/>
+      <c r="J8" s="185"/>
+      <c r="K8" s="185"/>
+      <c r="L8" s="186"/>
       <c r="M8" s="98"/>
       <c r="N8" s="98"/>
       <c r="O8" s="98"/>
       <c r="P8" s="97"/>
     </row>
     <row r="9" spans="1:22" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="185"/>
+      <c r="A9" s="173"/>
       <c r="B9" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="193"/>
-      <c r="D9" s="194"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="194"/>
-      <c r="G9" s="195"/>
+      <c r="C9" s="199"/>
+      <c r="D9" s="200"/>
+      <c r="E9" s="200"/>
+      <c r="F9" s="200"/>
+      <c r="G9" s="201"/>
       <c r="H9" s="196"/>
       <c r="I9" s="197"/>
       <c r="J9" s="197"/>
@@ -9649,27 +9187,27 @@
       <c r="P9" s="97"/>
     </row>
     <row r="10" spans="1:22" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="185"/>
+      <c r="A10" s="173"/>
       <c r="B10" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="187"/>
-      <c r="D10" s="188"/>
-      <c r="E10" s="188"/>
-      <c r="F10" s="188"/>
-      <c r="G10" s="189"/>
-      <c r="H10" s="187"/>
-      <c r="I10" s="188"/>
-      <c r="J10" s="188"/>
-      <c r="K10" s="188"/>
-      <c r="L10" s="189"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="182"/>
+      <c r="E10" s="182"/>
+      <c r="F10" s="182"/>
+      <c r="G10" s="183"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="182"/>
+      <c r="J10" s="182"/>
+      <c r="K10" s="182"/>
+      <c r="L10" s="183"/>
       <c r="M10" s="100"/>
       <c r="N10" s="100"/>
       <c r="O10" s="100"/>
       <c r="P10" s="97"/>
     </row>
     <row r="11" spans="1:22" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="186"/>
+      <c r="A11" s="172"/>
       <c r="B11" s="42" t="s">
         <v>108</v>
       </c>
@@ -9689,37 +9227,37 @@
       <c r="P11" s="97"/>
     </row>
     <row r="12" spans="1:22" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="184" t="s">
+      <c r="A12" s="170" t="s">
         <v>113</v>
       </c>
       <c r="B12" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="190"/>
-      <c r="D12" s="191"/>
-      <c r="E12" s="191"/>
-      <c r="F12" s="191"/>
-      <c r="G12" s="192"/>
-      <c r="H12" s="190"/>
-      <c r="I12" s="191"/>
-      <c r="J12" s="191"/>
-      <c r="K12" s="191"/>
-      <c r="L12" s="192"/>
+      <c r="C12" s="184"/>
+      <c r="D12" s="185"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="185"/>
+      <c r="G12" s="186"/>
+      <c r="H12" s="184"/>
+      <c r="I12" s="185"/>
+      <c r="J12" s="185"/>
+      <c r="K12" s="185"/>
+      <c r="L12" s="186"/>
       <c r="M12" s="98"/>
       <c r="N12" s="98"/>
       <c r="O12" s="98"/>
       <c r="P12" s="97"/>
     </row>
     <row r="13" spans="1:22" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="185"/>
+      <c r="A13" s="173"/>
       <c r="B13" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="193"/>
-      <c r="D13" s="194"/>
-      <c r="E13" s="194"/>
-      <c r="F13" s="194"/>
-      <c r="G13" s="195"/>
+      <c r="C13" s="199"/>
+      <c r="D13" s="200"/>
+      <c r="E13" s="200"/>
+      <c r="F13" s="200"/>
+      <c r="G13" s="201"/>
       <c r="H13" s="196"/>
       <c r="I13" s="197"/>
       <c r="J13" s="197"/>
@@ -9731,27 +9269,27 @@
       <c r="P13" s="97"/>
     </row>
     <row r="14" spans="1:22" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="185"/>
+      <c r="A14" s="173"/>
       <c r="B14" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="187"/>
-      <c r="D14" s="188"/>
-      <c r="E14" s="188"/>
-      <c r="F14" s="188"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="187"/>
-      <c r="I14" s="188"/>
-      <c r="J14" s="188"/>
-      <c r="K14" s="188"/>
-      <c r="L14" s="189"/>
+      <c r="C14" s="181"/>
+      <c r="D14" s="182"/>
+      <c r="E14" s="182"/>
+      <c r="F14" s="182"/>
+      <c r="G14" s="183"/>
+      <c r="H14" s="181"/>
+      <c r="I14" s="182"/>
+      <c r="J14" s="182"/>
+      <c r="K14" s="182"/>
+      <c r="L14" s="183"/>
       <c r="M14" s="100"/>
       <c r="N14" s="100"/>
       <c r="O14" s="100"/>
       <c r="P14" s="97"/>
     </row>
     <row r="15" spans="1:22" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="186"/>
+      <c r="A15" s="172"/>
       <c r="B15" s="42" t="s">
         <v>108</v>
       </c>
@@ -9771,7 +9309,7 @@
       <c r="P15" s="101"/>
     </row>
     <row r="16" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="185" t="s">
+      <c r="A16" s="173" t="s">
         <v>53</v>
       </c>
       <c r="B16" s="55" t="s">
@@ -9797,7 +9335,7 @@
       <c r="V16" s="35"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="185"/>
+      <c r="A17" s="173"/>
       <c r="B17" s="90" t="s">
         <v>107</v>
       </c>
@@ -9824,7 +9362,7 @@
       <c r="Y17" s="35"/>
     </row>
     <row r="18" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="186"/>
+      <c r="A18" s="172"/>
       <c r="B18" s="43" t="s">
         <v>108</v>
       </c>
@@ -9847,13 +9385,13 @@
         <v>0.71819999999999995</v>
       </c>
       <c r="I18" s="124" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="J18" s="124" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K18" s="124" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L18" s="124">
         <v>0.71819999999999995</v>
@@ -9868,7 +9406,7 @@
         <v>-9.580000000000001E-2</v>
       </c>
       <c r="P18" s="126" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="S18" s="35"/>
       <c r="T18" s="35"/>
@@ -9879,22 +9417,22 @@
       <c r="Y18" s="35"/>
     </row>
     <row r="19" spans="1:25" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="184" t="s">
+      <c r="A19" s="170" t="s">
         <v>121</v>
       </c>
       <c r="B19" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="190"/>
-      <c r="D19" s="191"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="191"/>
-      <c r="G19" s="192"/>
-      <c r="H19" s="190"/>
-      <c r="I19" s="191"/>
-      <c r="J19" s="191"/>
-      <c r="K19" s="191"/>
-      <c r="L19" s="192"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="185"/>
+      <c r="E19" s="185"/>
+      <c r="F19" s="185"/>
+      <c r="G19" s="186"/>
+      <c r="H19" s="184"/>
+      <c r="I19" s="185"/>
+      <c r="J19" s="185"/>
+      <c r="K19" s="185"/>
+      <c r="L19" s="186"/>
       <c r="M19" s="98"/>
       <c r="N19" s="98"/>
       <c r="O19" s="98"/>
@@ -9908,15 +9446,15 @@
       <c r="Y19" s="35"/>
     </row>
     <row r="20" spans="1:25" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="185"/>
+      <c r="A20" s="173"/>
       <c r="B20" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="193"/>
-      <c r="D20" s="194"/>
-      <c r="E20" s="194"/>
-      <c r="F20" s="194"/>
-      <c r="G20" s="195"/>
+      <c r="C20" s="199"/>
+      <c r="D20" s="200"/>
+      <c r="E20" s="200"/>
+      <c r="F20" s="200"/>
+      <c r="G20" s="201"/>
       <c r="H20" s="196"/>
       <c r="I20" s="197"/>
       <c r="J20" s="197"/>
@@ -9935,20 +9473,20 @@
       <c r="Y20" s="35"/>
     </row>
     <row r="21" spans="1:25" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="185"/>
+      <c r="A21" s="173"/>
       <c r="B21" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="187"/>
-      <c r="D21" s="188"/>
-      <c r="E21" s="188"/>
-      <c r="F21" s="188"/>
-      <c r="G21" s="189"/>
-      <c r="H21" s="187"/>
-      <c r="I21" s="188"/>
-      <c r="J21" s="188"/>
-      <c r="K21" s="188"/>
-      <c r="L21" s="189"/>
+      <c r="C21" s="181"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="182"/>
+      <c r="F21" s="182"/>
+      <c r="G21" s="183"/>
+      <c r="H21" s="181"/>
+      <c r="I21" s="182"/>
+      <c r="J21" s="182"/>
+      <c r="K21" s="182"/>
+      <c r="L21" s="183"/>
       <c r="M21" s="100"/>
       <c r="N21" s="100"/>
       <c r="O21" s="100"/>
@@ -9962,7 +9500,7 @@
       <c r="Y21" s="35"/>
     </row>
     <row r="22" spans="1:25" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="186"/>
+      <c r="A22" s="172"/>
       <c r="B22" s="42" t="s">
         <v>108</v>
       </c>
@@ -9989,22 +9527,22 @@
       <c r="Y22" s="35"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="184" t="s">
+      <c r="A23" s="170" t="s">
         <v>122</v>
       </c>
       <c r="B23" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="190"/>
-      <c r="D23" s="191"/>
-      <c r="E23" s="191"/>
-      <c r="F23" s="191"/>
-      <c r="G23" s="192"/>
-      <c r="H23" s="190"/>
-      <c r="I23" s="191"/>
-      <c r="J23" s="191"/>
-      <c r="K23" s="191"/>
-      <c r="L23" s="192"/>
+      <c r="C23" s="184"/>
+      <c r="D23" s="185"/>
+      <c r="E23" s="185"/>
+      <c r="F23" s="185"/>
+      <c r="G23" s="186"/>
+      <c r="H23" s="184"/>
+      <c r="I23" s="185"/>
+      <c r="J23" s="185"/>
+      <c r="K23" s="185"/>
+      <c r="L23" s="186"/>
       <c r="M23" s="98"/>
       <c r="N23" s="98"/>
       <c r="O23" s="98"/>
@@ -10018,15 +9556,15 @@
       <c r="Y23" s="35"/>
     </row>
     <row r="24" spans="1:25" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="185"/>
+      <c r="A24" s="173"/>
       <c r="B24" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="193"/>
-      <c r="D24" s="194"/>
-      <c r="E24" s="194"/>
-      <c r="F24" s="194"/>
-      <c r="G24" s="195"/>
+      <c r="C24" s="199"/>
+      <c r="D24" s="200"/>
+      <c r="E24" s="200"/>
+      <c r="F24" s="200"/>
+      <c r="G24" s="201"/>
       <c r="H24" s="196"/>
       <c r="I24" s="197"/>
       <c r="J24" s="197"/>
@@ -10045,20 +9583,20 @@
       <c r="Y24" s="35"/>
     </row>
     <row r="25" spans="1:25" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="185"/>
+      <c r="A25" s="173"/>
       <c r="B25" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="187"/>
-      <c r="D25" s="188"/>
-      <c r="E25" s="188"/>
-      <c r="F25" s="188"/>
-      <c r="G25" s="189"/>
-      <c r="H25" s="187"/>
-      <c r="I25" s="188"/>
-      <c r="J25" s="188"/>
-      <c r="K25" s="188"/>
-      <c r="L25" s="189"/>
+      <c r="C25" s="181"/>
+      <c r="D25" s="182"/>
+      <c r="E25" s="182"/>
+      <c r="F25" s="182"/>
+      <c r="G25" s="183"/>
+      <c r="H25" s="181"/>
+      <c r="I25" s="182"/>
+      <c r="J25" s="182"/>
+      <c r="K25" s="182"/>
+      <c r="L25" s="183"/>
       <c r="M25" s="100"/>
       <c r="N25" s="100"/>
       <c r="O25" s="100"/>
@@ -10072,7 +9610,7 @@
       <c r="Y25" s="35"/>
     </row>
     <row r="26" spans="1:25" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="186"/>
+      <c r="A26" s="172"/>
       <c r="B26" s="42" t="s">
         <v>108</v>
       </c>
@@ -10099,7 +9637,7 @@
       <c r="Y26" s="35"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="185" t="s">
+      <c r="A27" s="173" t="s">
         <v>67</v>
       </c>
       <c r="B27" s="55" t="s">
@@ -10128,20 +9666,20 @@
       <c r="Y27" s="35"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="185"/>
+      <c r="A28" s="173"/>
       <c r="B28" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="187"/>
-      <c r="D28" s="188"/>
-      <c r="E28" s="188"/>
-      <c r="F28" s="188"/>
-      <c r="G28" s="189"/>
-      <c r="H28" s="187"/>
-      <c r="I28" s="188"/>
-      <c r="J28" s="188"/>
-      <c r="K28" s="188"/>
-      <c r="L28" s="189"/>
+      <c r="C28" s="181"/>
+      <c r="D28" s="182"/>
+      <c r="E28" s="182"/>
+      <c r="F28" s="182"/>
+      <c r="G28" s="183"/>
+      <c r="H28" s="181"/>
+      <c r="I28" s="182"/>
+      <c r="J28" s="182"/>
+      <c r="K28" s="182"/>
+      <c r="L28" s="183"/>
       <c r="M28" s="100"/>
       <c r="N28" s="100"/>
       <c r="O28" s="100"/>
@@ -10153,7 +9691,7 @@
       <c r="Y28" s="35"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="186"/>
+      <c r="A29" s="172"/>
       <c r="B29" s="43" t="s">
         <v>108</v>
       </c>
@@ -10176,16 +9714,16 @@
         <v>0.50409999999999999</v>
       </c>
       <c r="I29" s="94" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="J29" s="94">
         <v>0.50409999999999999</v>
       </c>
       <c r="K29" s="94" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="L29" s="94" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M29" s="95">
         <v>-3.5249999999999997E-2</v>
@@ -10197,7 +9735,7 @@
         <v>-5.1025000000000008E-2</v>
       </c>
       <c r="P29" s="101" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="U29" s="35"/>
       <c r="V29" s="35"/>
@@ -10206,22 +9744,22 @@
       <c r="Y29" s="35"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="185" t="s">
+      <c r="A30" s="173" t="s">
         <v>123</v>
       </c>
       <c r="B30" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="187"/>
-      <c r="D30" s="188"/>
-      <c r="E30" s="188"/>
-      <c r="F30" s="188"/>
-      <c r="G30" s="189"/>
-      <c r="H30" s="187"/>
-      <c r="I30" s="188"/>
-      <c r="J30" s="188"/>
-      <c r="K30" s="188"/>
-      <c r="L30" s="189"/>
+      <c r="C30" s="181"/>
+      <c r="D30" s="182"/>
+      <c r="E30" s="182"/>
+      <c r="F30" s="182"/>
+      <c r="G30" s="183"/>
+      <c r="H30" s="181"/>
+      <c r="I30" s="182"/>
+      <c r="J30" s="182"/>
+      <c r="K30" s="182"/>
+      <c r="L30" s="183"/>
       <c r="M30" s="100"/>
       <c r="N30" s="100"/>
       <c r="O30" s="100"/>
@@ -10233,7 +9771,7 @@
       <c r="Y30" s="35"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="186"/>
+      <c r="A31" s="172"/>
       <c r="B31" s="43" t="s">
         <v>108</v>
       </c>
@@ -10262,10 +9800,10 @@
         <v>0.46150000000000002</v>
       </c>
       <c r="K31" s="94" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="L31" s="94" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="M31" s="95">
         <v>-6.2550000000000008E-2</v>
@@ -10277,7 +9815,7 @@
         <v>-8.9025000000000007E-2</v>
       </c>
       <c r="P31" s="101" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="U31" s="35"/>
       <c r="V31" s="35"/>
@@ -10286,7 +9824,7 @@
       <c r="Y31" s="35"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="184" t="s">
+      <c r="A32" s="170" t="s">
         <v>14</v>
       </c>
       <c r="B32" s="55" t="s">
@@ -10313,24 +9851,24 @@
       <c r="Y32" s="35"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A33" s="185"/>
+      <c r="A33" s="173"/>
       <c r="B33" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="187">
+      <c r="C33" s="181">
         <v>0.63200000000000001</v>
       </c>
-      <c r="D33" s="188"/>
-      <c r="E33" s="188"/>
-      <c r="F33" s="188"/>
-      <c r="G33" s="189"/>
-      <c r="H33" s="187">
+      <c r="D33" s="182"/>
+      <c r="E33" s="182"/>
+      <c r="F33" s="182"/>
+      <c r="G33" s="183"/>
+      <c r="H33" s="181">
         <v>0.627</v>
       </c>
-      <c r="I33" s="188"/>
-      <c r="J33" s="188"/>
-      <c r="K33" s="188"/>
-      <c r="L33" s="189"/>
+      <c r="I33" s="182"/>
+      <c r="J33" s="182"/>
+      <c r="K33" s="182"/>
+      <c r="L33" s="183"/>
       <c r="M33" s="100">
         <v>-0.28299999999999997</v>
       </c>
@@ -10341,7 +9879,7 @@
         <v>-0.27879999999999999</v>
       </c>
       <c r="P33" s="97" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="T33" s="32"/>
       <c r="U33" s="35"/>
@@ -10353,7 +9891,7 @@
       <c r="AA33" s="32"/>
     </row>
     <row r="34" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="186"/>
+      <c r="A34" s="172"/>
       <c r="B34" s="43" t="s">
         <v>108</v>
       </c>
@@ -10376,13 +9914,13 @@
         <v>0.71909999999999996</v>
       </c>
       <c r="I34" s="94" t="s">
+        <v>137</v>
+      </c>
+      <c r="J34" s="94" t="s">
+        <v>138</v>
+      </c>
+      <c r="K34" s="94" t="s">
         <v>139</v>
-      </c>
-      <c r="J34" s="94" t="s">
-        <v>140</v>
-      </c>
-      <c r="K34" s="94" t="s">
-        <v>141</v>
       </c>
       <c r="L34" s="94">
         <v>0.71909999999999996</v>
@@ -10397,7 +9935,7 @@
         <v>-0.48835000000000001</v>
       </c>
       <c r="P34" s="101" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="T34" s="32"/>
       <c r="U34" s="35"/>
@@ -10409,22 +9947,22 @@
       <c r="AA34" s="32"/>
     </row>
     <row r="35" spans="1:27" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="184" t="s">
+      <c r="A35" s="170" t="s">
         <v>114</v>
       </c>
       <c r="B35" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="205"/>
-      <c r="D35" s="206"/>
-      <c r="E35" s="206"/>
-      <c r="F35" s="206"/>
-      <c r="G35" s="207"/>
-      <c r="H35" s="205"/>
-      <c r="I35" s="206"/>
-      <c r="J35" s="206"/>
-      <c r="K35" s="206"/>
-      <c r="L35" s="207"/>
+      <c r="C35" s="190"/>
+      <c r="D35" s="191"/>
+      <c r="E35" s="191"/>
+      <c r="F35" s="191"/>
+      <c r="G35" s="192"/>
+      <c r="H35" s="190"/>
+      <c r="I35" s="191"/>
+      <c r="J35" s="191"/>
+      <c r="K35" s="191"/>
+      <c r="L35" s="192"/>
       <c r="M35" s="114"/>
       <c r="N35" s="98"/>
       <c r="O35" s="114"/>
@@ -10439,20 +9977,20 @@
       <c r="AA35" s="32"/>
     </row>
     <row r="36" spans="1:27" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="212"/>
+      <c r="A36" s="171"/>
       <c r="B36" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="193"/>
-      <c r="D36" s="194"/>
-      <c r="E36" s="194"/>
-      <c r="F36" s="194"/>
-      <c r="G36" s="195"/>
-      <c r="H36" s="202"/>
-      <c r="I36" s="203"/>
-      <c r="J36" s="203"/>
-      <c r="K36" s="203"/>
-      <c r="L36" s="204"/>
+      <c r="C36" s="199"/>
+      <c r="D36" s="200"/>
+      <c r="E36" s="200"/>
+      <c r="F36" s="200"/>
+      <c r="G36" s="201"/>
+      <c r="H36" s="187"/>
+      <c r="I36" s="188"/>
+      <c r="J36" s="188"/>
+      <c r="K36" s="188"/>
+      <c r="L36" s="189"/>
       <c r="M36" s="115"/>
       <c r="N36" s="115"/>
       <c r="O36" s="99"/>
@@ -10467,20 +10005,20 @@
       <c r="AA36" s="32"/>
     </row>
     <row r="37" spans="1:27" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="212"/>
+      <c r="A37" s="171"/>
       <c r="B37" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="187"/>
-      <c r="D37" s="188"/>
-      <c r="E37" s="188"/>
-      <c r="F37" s="188"/>
-      <c r="G37" s="189"/>
-      <c r="H37" s="187"/>
-      <c r="I37" s="188"/>
-      <c r="J37" s="188"/>
-      <c r="K37" s="188"/>
-      <c r="L37" s="189"/>
+      <c r="C37" s="181"/>
+      <c r="D37" s="182"/>
+      <c r="E37" s="182"/>
+      <c r="F37" s="182"/>
+      <c r="G37" s="183"/>
+      <c r="H37" s="181"/>
+      <c r="I37" s="182"/>
+      <c r="J37" s="182"/>
+      <c r="K37" s="182"/>
+      <c r="L37" s="183"/>
       <c r="M37" s="100"/>
       <c r="N37" s="100"/>
       <c r="O37" s="100"/>
@@ -10495,7 +10033,7 @@
       <c r="AA37" s="32"/>
     </row>
     <row r="38" spans="1:27" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="186"/>
+      <c r="A38" s="172"/>
       <c r="B38" s="45" t="s">
         <v>108</v>
       </c>
@@ -10523,22 +10061,22 @@
       <c r="AA38" s="32"/>
     </row>
     <row r="39" spans="1:27" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="184" t="s">
+      <c r="A39" s="170" t="s">
         <v>115</v>
       </c>
       <c r="B39" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="205"/>
-      <c r="D39" s="206"/>
-      <c r="E39" s="206"/>
-      <c r="F39" s="206"/>
-      <c r="G39" s="207"/>
-      <c r="H39" s="205"/>
-      <c r="I39" s="206"/>
-      <c r="J39" s="206"/>
-      <c r="K39" s="206"/>
-      <c r="L39" s="207"/>
+      <c r="C39" s="190"/>
+      <c r="D39" s="191"/>
+      <c r="E39" s="191"/>
+      <c r="F39" s="191"/>
+      <c r="G39" s="192"/>
+      <c r="H39" s="190"/>
+      <c r="I39" s="191"/>
+      <c r="J39" s="191"/>
+      <c r="K39" s="191"/>
+      <c r="L39" s="192"/>
       <c r="M39" s="114"/>
       <c r="N39" s="98"/>
       <c r="O39" s="114"/>
@@ -10553,20 +10091,20 @@
       <c r="AA39" s="32"/>
     </row>
     <row r="40" spans="1:27" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="212"/>
+      <c r="A40" s="171"/>
       <c r="B40" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="193"/>
-      <c r="D40" s="194"/>
-      <c r="E40" s="194"/>
-      <c r="F40" s="194"/>
-      <c r="G40" s="195"/>
-      <c r="H40" s="202"/>
-      <c r="I40" s="203"/>
-      <c r="J40" s="203"/>
-      <c r="K40" s="203"/>
-      <c r="L40" s="204"/>
+      <c r="C40" s="199"/>
+      <c r="D40" s="200"/>
+      <c r="E40" s="200"/>
+      <c r="F40" s="200"/>
+      <c r="G40" s="201"/>
+      <c r="H40" s="187"/>
+      <c r="I40" s="188"/>
+      <c r="J40" s="188"/>
+      <c r="K40" s="188"/>
+      <c r="L40" s="189"/>
       <c r="M40" s="115"/>
       <c r="N40" s="115"/>
       <c r="O40" s="99"/>
@@ -10581,20 +10119,20 @@
       <c r="AA40" s="32"/>
     </row>
     <row r="41" spans="1:27" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="212"/>
+      <c r="A41" s="171"/>
       <c r="B41" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="187"/>
-      <c r="D41" s="188"/>
-      <c r="E41" s="188"/>
-      <c r="F41" s="188"/>
-      <c r="G41" s="189"/>
-      <c r="H41" s="187"/>
-      <c r="I41" s="188"/>
-      <c r="J41" s="188"/>
-      <c r="K41" s="188"/>
-      <c r="L41" s="189"/>
+      <c r="C41" s="181"/>
+      <c r="D41" s="182"/>
+      <c r="E41" s="182"/>
+      <c r="F41" s="182"/>
+      <c r="G41" s="183"/>
+      <c r="H41" s="181"/>
+      <c r="I41" s="182"/>
+      <c r="J41" s="182"/>
+      <c r="K41" s="182"/>
+      <c r="L41" s="183"/>
       <c r="M41" s="100"/>
       <c r="N41" s="100"/>
       <c r="O41" s="100"/>
@@ -10609,7 +10147,7 @@
       <c r="AA41" s="32"/>
     </row>
     <row r="42" spans="1:27" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="186"/>
+      <c r="A42" s="172"/>
       <c r="B42" s="45" t="s">
         <v>108</v>
       </c>
@@ -10637,7 +10175,7 @@
       <c r="AA42" s="32"/>
     </row>
     <row r="43" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="185" t="s">
+      <c r="A43" s="173" t="s">
         <v>54</v>
       </c>
       <c r="B43" s="55" t="s">
@@ -10667,20 +10205,20 @@
       <c r="AA43" s="32"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A44" s="185"/>
+      <c r="A44" s="173"/>
       <c r="B44" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C44" s="187"/>
-      <c r="D44" s="188"/>
-      <c r="E44" s="188"/>
-      <c r="F44" s="188"/>
-      <c r="G44" s="189"/>
-      <c r="H44" s="187"/>
-      <c r="I44" s="188"/>
-      <c r="J44" s="188"/>
-      <c r="K44" s="188"/>
-      <c r="L44" s="189"/>
+      <c r="C44" s="181"/>
+      <c r="D44" s="182"/>
+      <c r="E44" s="182"/>
+      <c r="F44" s="182"/>
+      <c r="G44" s="183"/>
+      <c r="H44" s="181"/>
+      <c r="I44" s="182"/>
+      <c r="J44" s="182"/>
+      <c r="K44" s="182"/>
+      <c r="L44" s="183"/>
       <c r="M44" s="100"/>
       <c r="N44" s="100"/>
       <c r="O44" s="100"/>
@@ -10695,7 +10233,7 @@
       <c r="AA44" s="32"/>
     </row>
     <row r="45" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="186"/>
+      <c r="A45" s="172"/>
       <c r="B45" s="43" t="s">
         <v>108</v>
       </c>
@@ -10718,16 +10256,16 @@
         <v>0.42420000000000002</v>
       </c>
       <c r="I45" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J45" s="94">
         <v>0.42420000000000002</v>
       </c>
       <c r="K45" s="94" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L45" s="94" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M45" s="94">
         <v>-2.2849999999999999E-2</v>
@@ -10739,41 +10277,41 @@
         <v>-6.4375000000000002E-2</v>
       </c>
       <c r="P45" s="97" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:27" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="184" t="s">
+      <c r="A46" s="170" t="s">
         <v>124</v>
       </c>
       <c r="B46" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="190"/>
-      <c r="D46" s="191"/>
-      <c r="E46" s="191"/>
-      <c r="F46" s="191"/>
-      <c r="G46" s="192"/>
-      <c r="H46" s="190"/>
-      <c r="I46" s="191"/>
-      <c r="J46" s="191"/>
-      <c r="K46" s="191"/>
-      <c r="L46" s="192"/>
+      <c r="C46" s="184"/>
+      <c r="D46" s="185"/>
+      <c r="E46" s="185"/>
+      <c r="F46" s="185"/>
+      <c r="G46" s="186"/>
+      <c r="H46" s="184"/>
+      <c r="I46" s="185"/>
+      <c r="J46" s="185"/>
+      <c r="K46" s="185"/>
+      <c r="L46" s="186"/>
       <c r="M46" s="98"/>
       <c r="N46" s="98"/>
       <c r="O46" s="98"/>
       <c r="P46" s="97"/>
     </row>
     <row r="47" spans="1:27" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="185"/>
+      <c r="A47" s="173"/>
       <c r="B47" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C47" s="193"/>
-      <c r="D47" s="194"/>
-      <c r="E47" s="194"/>
-      <c r="F47" s="194"/>
-      <c r="G47" s="195"/>
+      <c r="C47" s="199"/>
+      <c r="D47" s="200"/>
+      <c r="E47" s="200"/>
+      <c r="F47" s="200"/>
+      <c r="G47" s="201"/>
       <c r="H47" s="196"/>
       <c r="I47" s="197"/>
       <c r="J47" s="197"/>
@@ -10789,20 +10327,20 @@
       <c r="Z47" s="19"/>
     </row>
     <row r="48" spans="1:27" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="185"/>
+      <c r="A48" s="173"/>
       <c r="B48" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="187"/>
-      <c r="D48" s="188"/>
-      <c r="E48" s="188"/>
-      <c r="F48" s="188"/>
-      <c r="G48" s="189"/>
-      <c r="H48" s="187"/>
-      <c r="I48" s="188"/>
-      <c r="J48" s="188"/>
-      <c r="K48" s="188"/>
-      <c r="L48" s="189"/>
+      <c r="C48" s="181"/>
+      <c r="D48" s="182"/>
+      <c r="E48" s="182"/>
+      <c r="F48" s="182"/>
+      <c r="G48" s="183"/>
+      <c r="H48" s="181"/>
+      <c r="I48" s="182"/>
+      <c r="J48" s="182"/>
+      <c r="K48" s="182"/>
+      <c r="L48" s="183"/>
       <c r="M48" s="100"/>
       <c r="N48" s="100"/>
       <c r="O48" s="100"/>
@@ -10810,7 +10348,7 @@
       <c r="U48" s="19"/>
     </row>
     <row r="49" spans="1:16" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="186"/>
+      <c r="A49" s="172"/>
       <c r="B49" s="42" t="s">
         <v>108</v>
       </c>
@@ -10830,37 +10368,37 @@
       <c r="P49" s="97"/>
     </row>
     <row r="50" spans="1:16" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="184" t="s">
+      <c r="A50" s="170" t="s">
         <v>125</v>
       </c>
       <c r="B50" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="190"/>
-      <c r="D50" s="191"/>
-      <c r="E50" s="191"/>
-      <c r="F50" s="191"/>
-      <c r="G50" s="192"/>
-      <c r="H50" s="190"/>
-      <c r="I50" s="191"/>
-      <c r="J50" s="191"/>
-      <c r="K50" s="191"/>
-      <c r="L50" s="192"/>
+      <c r="C50" s="184"/>
+      <c r="D50" s="185"/>
+      <c r="E50" s="185"/>
+      <c r="F50" s="185"/>
+      <c r="G50" s="186"/>
+      <c r="H50" s="184"/>
+      <c r="I50" s="185"/>
+      <c r="J50" s="185"/>
+      <c r="K50" s="185"/>
+      <c r="L50" s="186"/>
       <c r="M50" s="98"/>
       <c r="N50" s="98"/>
       <c r="O50" s="98"/>
       <c r="P50" s="97"/>
     </row>
     <row r="51" spans="1:16" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="185"/>
+      <c r="A51" s="173"/>
       <c r="B51" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="193"/>
-      <c r="D51" s="194"/>
-      <c r="E51" s="194"/>
-      <c r="F51" s="194"/>
-      <c r="G51" s="195"/>
+      <c r="C51" s="199"/>
+      <c r="D51" s="200"/>
+      <c r="E51" s="200"/>
+      <c r="F51" s="200"/>
+      <c r="G51" s="201"/>
       <c r="H51" s="196"/>
       <c r="I51" s="197"/>
       <c r="J51" s="197"/>
@@ -10872,27 +10410,27 @@
       <c r="P51" s="97"/>
     </row>
     <row r="52" spans="1:16" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="185"/>
+      <c r="A52" s="173"/>
       <c r="B52" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="187"/>
-      <c r="D52" s="188"/>
-      <c r="E52" s="188"/>
-      <c r="F52" s="188"/>
-      <c r="G52" s="189"/>
-      <c r="H52" s="187"/>
-      <c r="I52" s="188"/>
-      <c r="J52" s="188"/>
-      <c r="K52" s="188"/>
-      <c r="L52" s="189"/>
+      <c r="C52" s="181"/>
+      <c r="D52" s="182"/>
+      <c r="E52" s="182"/>
+      <c r="F52" s="182"/>
+      <c r="G52" s="183"/>
+      <c r="H52" s="181"/>
+      <c r="I52" s="182"/>
+      <c r="J52" s="182"/>
+      <c r="K52" s="182"/>
+      <c r="L52" s="183"/>
       <c r="M52" s="100"/>
       <c r="N52" s="100"/>
       <c r="O52" s="100"/>
       <c r="P52" s="97"/>
     </row>
     <row r="53" spans="1:16" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="186"/>
+      <c r="A53" s="172"/>
       <c r="B53" s="42" t="s">
         <v>108</v>
       </c>
@@ -10912,7 +10450,7 @@
       <c r="P53" s="101"/>
     </row>
     <row r="54" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="185" t="s">
+      <c r="A54" s="173" t="s">
         <v>127</v>
       </c>
       <c r="B54" s="55" t="s">
@@ -10934,27 +10472,27 @@
       <c r="P54" s="105"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="185"/>
+      <c r="A55" s="173"/>
       <c r="B55" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="C55" s="187"/>
-      <c r="D55" s="188"/>
-      <c r="E55" s="188"/>
-      <c r="F55" s="188"/>
-      <c r="G55" s="189"/>
-      <c r="H55" s="187"/>
-      <c r="I55" s="188"/>
-      <c r="J55" s="188"/>
-      <c r="K55" s="188"/>
-      <c r="L55" s="189"/>
+      <c r="C55" s="181"/>
+      <c r="D55" s="182"/>
+      <c r="E55" s="182"/>
+      <c r="F55" s="182"/>
+      <c r="G55" s="183"/>
+      <c r="H55" s="181"/>
+      <c r="I55" s="182"/>
+      <c r="J55" s="182"/>
+      <c r="K55" s="182"/>
+      <c r="L55" s="183"/>
       <c r="M55" s="100"/>
       <c r="N55" s="100"/>
       <c r="O55" s="100"/>
       <c r="P55" s="97"/>
     </row>
     <row r="56" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="186"/>
+      <c r="A56" s="172"/>
       <c r="B56" s="43" t="s">
         <v>108</v>
       </c>
@@ -10983,10 +10521,10 @@
         <v>0.45760000000000001</v>
       </c>
       <c r="K56" s="94" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="L56" s="94" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="M56" s="94">
         <v>-1.5750000000000007E-2</v>
@@ -10998,33 +10536,33 @@
         <v>-3.5574999999999996E-2</v>
       </c>
       <c r="P56" s="106" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="185" t="s">
+      <c r="A57" s="173" t="s">
         <v>126</v>
       </c>
       <c r="B57" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="C57" s="187"/>
-      <c r="D57" s="188"/>
-      <c r="E57" s="188"/>
-      <c r="F57" s="188"/>
-      <c r="G57" s="189"/>
-      <c r="H57" s="187"/>
-      <c r="I57" s="188"/>
-      <c r="J57" s="188"/>
-      <c r="K57" s="188"/>
-      <c r="L57" s="189"/>
+      <c r="C57" s="181"/>
+      <c r="D57" s="182"/>
+      <c r="E57" s="182"/>
+      <c r="F57" s="182"/>
+      <c r="G57" s="183"/>
+      <c r="H57" s="181"/>
+      <c r="I57" s="182"/>
+      <c r="J57" s="182"/>
+      <c r="K57" s="182"/>
+      <c r="L57" s="183"/>
       <c r="M57" s="100"/>
       <c r="N57" s="100"/>
       <c r="O57" s="100"/>
       <c r="P57" s="107"/>
     </row>
     <row r="58" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="186"/>
+      <c r="A58" s="172"/>
       <c r="B58" s="43" t="s">
         <v>108</v>
       </c>
@@ -11047,13 +10585,13 @@
         <v>0.49525000000000002</v>
       </c>
       <c r="I58" s="94" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="J58" s="94">
         <v>0.25580000000000003</v>
       </c>
       <c r="K58" s="94" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="L58" s="94">
         <v>0.73470000000000002</v>
@@ -11068,7 +10606,7 @@
         <v>-3.9925000000000002E-2</v>
       </c>
       <c r="P58" s="106" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -11076,18 +10614,67 @@
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:L57"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:L10"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="C6:G6"/>
@@ -11104,67 +10691,18 @@
     <mergeCell ref="H44:L44"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="H57:L57"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/experiments/all_results.xlsx
+++ b/experiments/all_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ancarey\PycharmProjects\adaptive-hypernets\experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alycia\Documents\adaptive-hypernets\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FA9157-DF58-43D5-A0BD-DA85FACB8D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A222B0C-9297-4B94-864B-FBBC5516D6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30735" yWindow="1500" windowWidth="24960" windowHeight="14055" tabRatio="665" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
+    <workbookView xWindow="936" yWindow="1056" windowWidth="17280" windowHeight="9060" tabRatio="665" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
   </bookViews>
   <sheets>
     <sheet name="compas-comparison table" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="53">
   <si>
     <t>Model</t>
   </si>
@@ -185,13 +185,16 @@
     <t>11.3 sec</t>
   </si>
   <si>
-    <t>h: 1e-4, c: 3e-4</t>
-  </si>
-  <si>
-    <t>h: 2500, c: 50</t>
-  </si>
-  <si>
     <t>13 min 59 sec</t>
+  </si>
+  <si>
+    <t>h: 1e-3, c: 1e-3</t>
+  </si>
+  <si>
+    <t>1e-5, 1e-6</t>
+  </si>
+  <si>
+    <t>h: 1500, c: 50</t>
   </si>
 </sst>
 </file>
@@ -1052,70 +1055,142 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1124,82 +1199,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1518,8 +1521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FA34C5-480C-4D1A-AC66-54DFEF26762F}">
   <dimension ref="A1:S109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,10 +1538,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="118"/>
+      <c r="C1" s="106"/>
       <c r="D1" s="50"/>
       <c r="E1" s="50"/>
       <c r="F1" s="50"/>
@@ -1555,7 +1558,7 @@
       <c r="Q1" s="41"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="119"/>
+      <c r="B2" s="80"/>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
       <c r="E2" s="50"/>
@@ -1573,30 +1576,30 @@
       <c r="Q2" s="41"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80" t="s">
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="84" t="s">
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="101" t="s">
         <v>30</v>
       </c>
       <c r="O3" s="50"/>
@@ -1605,9 +1608,9 @@
       <c r="R3" s="41"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="86"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
+      <c r="A4" s="94"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
       <c r="D4" s="45" t="s">
         <v>35</v>
       </c>
@@ -1638,7 +1641,7 @@
       <c r="M4" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="85"/>
+      <c r="N4" s="102"/>
       <c r="O4" s="50"/>
       <c r="P4" s="50"/>
       <c r="Q4" s="41"/>
@@ -1648,7 +1651,7 @@
       <c r="A5" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="104" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="48" t="s">
@@ -1697,8 +1700,8 @@
       <c r="R5" s="41"/>
     </row>
     <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="82"/>
-      <c r="B6" s="80"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="49" t="s">
         <v>41</v>
       </c>
@@ -1722,8 +1725,8 @@
       <c r="R6" s="41"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="82"/>
-      <c r="B7" s="80"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="98"/>
       <c r="C7" s="49" t="s">
         <v>40</v>
       </c>
@@ -1744,12 +1747,12 @@
       <c r="R7" s="41"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
-      <c r="B8" s="80"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="115">
+      <c r="D8" s="77">
         <v>0.67049999999999998</v>
       </c>
       <c r="E8" s="60">
@@ -1764,7 +1767,7 @@
       <c r="H8" s="58">
         <v>0.69330000000000003</v>
       </c>
-      <c r="I8" s="116">
+      <c r="I8" s="78">
         <f>AVERAGE(J8:M8)</f>
         <v>0.58897500000000003</v>
       </c>
@@ -1781,7 +1784,7 @@
         <v>0.53059999999999996</v>
       </c>
       <c r="N8" s="58" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O8" s="50"/>
       <c r="P8" s="50"/>
@@ -1789,8 +1792,8 @@
       <c r="R8" s="41"/>
     </row>
     <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
-      <c r="B9" s="81" t="s">
+      <c r="A9" s="88"/>
+      <c r="B9" s="105" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="49" t="s">
@@ -1801,7 +1804,7 @@
       <c r="F9" s="62"/>
       <c r="G9" s="62"/>
       <c r="H9" s="57"/>
-      <c r="I9" s="116" t="e">
+      <c r="I9" s="78" t="e">
         <f t="shared" ref="I9:I36" si="3">AVERAGE(J9:M9)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1816,8 +1819,8 @@
       <c r="R9" s="41"/>
     </row>
     <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
-      <c r="B10" s="81"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="49" t="s">
         <v>41</v>
       </c>
@@ -1826,7 +1829,7 @@
       <c r="F10" s="50"/>
       <c r="G10" s="50"/>
       <c r="H10" s="46"/>
-      <c r="I10" s="116" t="e">
+      <c r="I10" s="78" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -1841,8 +1844,8 @@
       <c r="R10" s="41"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="82"/>
-      <c r="B11" s="81"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="49" t="s">
         <v>40</v>
       </c>
@@ -1851,7 +1854,7 @@
       <c r="F11" s="50"/>
       <c r="G11" s="50"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="122" t="e">
+      <c r="I11" s="82" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -1866,8 +1869,8 @@
       <c r="R11" s="41"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
-      <c r="B12" s="81"/>
+      <c r="A12" s="88"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="49" t="s">
         <v>23</v>
       </c>
@@ -1876,7 +1879,7 @@
       <c r="F12" s="63"/>
       <c r="G12" s="63"/>
       <c r="H12" s="47"/>
-      <c r="I12" s="116" t="e">
+      <c r="I12" s="78" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -1891,8 +1894,8 @@
       <c r="R12" s="41"/>
     </row>
     <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="82"/>
-      <c r="B13" s="81" t="s">
+      <c r="A13" s="88"/>
+      <c r="B13" s="105" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="49" t="s">
@@ -1903,7 +1906,7 @@
       <c r="F13" s="62"/>
       <c r="G13" s="62"/>
       <c r="H13" s="57"/>
-      <c r="I13" s="116" t="e">
+      <c r="I13" s="78" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -1918,8 +1921,8 @@
       <c r="R13" s="41"/>
     </row>
     <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
-      <c r="B14" s="81"/>
+      <c r="A14" s="88"/>
+      <c r="B14" s="105"/>
       <c r="C14" s="49" t="s">
         <v>41</v>
       </c>
@@ -1928,7 +1931,7 @@
       <c r="F14" s="50"/>
       <c r="G14" s="50"/>
       <c r="H14" s="46"/>
-      <c r="I14" s="116" t="e">
+      <c r="I14" s="78" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -1943,8 +1946,8 @@
       <c r="R14" s="41"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
-      <c r="B15" s="81"/>
+      <c r="A15" s="88"/>
+      <c r="B15" s="105"/>
       <c r="C15" s="49" t="s">
         <v>40</v>
       </c>
@@ -1953,7 +1956,7 @@
       <c r="F15" s="50"/>
       <c r="G15" s="50"/>
       <c r="H15" s="46"/>
-      <c r="I15" s="123" t="e">
+      <c r="I15" s="83" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -1968,8 +1971,8 @@
       <c r="R15" s="41"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
-      <c r="B16" s="81"/>
+      <c r="A16" s="88"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="49" t="s">
         <v>23</v>
       </c>
@@ -1978,7 +1981,7 @@
       <c r="F16" s="63"/>
       <c r="G16" s="63"/>
       <c r="H16" s="47"/>
-      <c r="I16" s="116" t="e">
+      <c r="I16" s="78" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -1993,8 +1996,8 @@
       <c r="R16" s="41"/>
     </row>
     <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="82"/>
-      <c r="B17" s="81" t="s">
+      <c r="A17" s="88"/>
+      <c r="B17" s="105" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="49" t="s">
@@ -2005,7 +2008,7 @@
       <c r="F17" s="62"/>
       <c r="G17" s="62"/>
       <c r="H17" s="57"/>
-      <c r="I17" s="116" t="e">
+      <c r="I17" s="78" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -2020,8 +2023,8 @@
       <c r="R17" s="41"/>
     </row>
     <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="82"/>
-      <c r="B18" s="81"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="105"/>
       <c r="C18" s="49" t="s">
         <v>41</v>
       </c>
@@ -2030,7 +2033,7 @@
       <c r="F18" s="50"/>
       <c r="G18" s="50"/>
       <c r="H18" s="46"/>
-      <c r="I18" s="116" t="e">
+      <c r="I18" s="78" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -2045,8 +2048,8 @@
       <c r="R18" s="41"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="82"/>
-      <c r="B19" s="81"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="105"/>
       <c r="C19" s="49" t="s">
         <v>40</v>
       </c>
@@ -2055,7 +2058,7 @@
       <c r="F19" s="50"/>
       <c r="G19" s="50"/>
       <c r="H19" s="46"/>
-      <c r="I19" s="122" t="e">
+      <c r="I19" s="82" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -2070,17 +2073,17 @@
       <c r="R19" s="41"/>
     </row>
     <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="86"/>
-      <c r="B20" s="120"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="107"/>
       <c r="C20" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="117"/>
+      <c r="D20" s="79"/>
       <c r="E20" s="65"/>
       <c r="F20" s="65"/>
       <c r="G20" s="65"/>
       <c r="H20" s="64"/>
-      <c r="I20" s="116" t="e">
+      <c r="I20" s="78" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -2098,7 +2101,7 @@
       <c r="A21" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="104" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="48" t="s">
@@ -2109,7 +2112,7 @@
       <c r="F21" s="59"/>
       <c r="G21" s="59"/>
       <c r="H21" s="55"/>
-      <c r="I21" s="116" t="e">
+      <c r="I21" s="78" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -2122,8 +2125,8 @@
       <c r="P21" s="53"/>
     </row>
     <row r="22" spans="1:18" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="82"/>
-      <c r="B22" s="80"/>
+      <c r="A22" s="88"/>
+      <c r="B22" s="98"/>
       <c r="C22" s="49" t="s">
         <v>41</v>
       </c>
@@ -2132,7 +2135,7 @@
       <c r="F22" s="50"/>
       <c r="G22" s="50"/>
       <c r="H22" s="46"/>
-      <c r="I22" s="123" t="e">
+      <c r="I22" s="83" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -2145,8 +2148,8 @@
       <c r="P22" s="53"/>
     </row>
     <row r="23" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="82"/>
-      <c r="B23" s="80"/>
+      <c r="A23" s="88"/>
+      <c r="B23" s="98"/>
       <c r="C23" s="49" t="s">
         <v>40</v>
       </c>
@@ -2155,7 +2158,7 @@
       <c r="F23" s="50"/>
       <c r="G23" s="50"/>
       <c r="H23" s="46"/>
-      <c r="I23" s="124" t="e">
+      <c r="I23" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -2169,8 +2172,8 @@
       <c r="Q23" s="44"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="82"/>
-      <c r="B24" s="80"/>
+      <c r="A24" s="88"/>
+      <c r="B24" s="98"/>
       <c r="C24" s="49" t="s">
         <v>23</v>
       </c>
@@ -2179,7 +2182,7 @@
       <c r="F24" s="63"/>
       <c r="G24" s="63"/>
       <c r="H24" s="47"/>
-      <c r="I24" s="116" t="e">
+      <c r="I24" s="78" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -2192,8 +2195,8 @@
       <c r="P24" s="53"/>
     </row>
     <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="82"/>
-      <c r="B25" s="81" t="s">
+      <c r="A25" s="88"/>
+      <c r="B25" s="105" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="49" t="s">
@@ -2204,7 +2207,7 @@
       <c r="F25" s="62"/>
       <c r="G25" s="62"/>
       <c r="H25" s="57"/>
-      <c r="I25" s="116" t="e">
+      <c r="I25" s="78" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -2217,8 +2220,8 @@
       <c r="P25" s="53"/>
     </row>
     <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="82"/>
-      <c r="B26" s="81"/>
+      <c r="A26" s="88"/>
+      <c r="B26" s="105"/>
       <c r="C26" s="49" t="s">
         <v>41</v>
       </c>
@@ -2227,7 +2230,7 @@
       <c r="F26" s="50"/>
       <c r="G26" s="50"/>
       <c r="H26" s="46"/>
-      <c r="I26" s="116" t="e">
+      <c r="I26" s="78" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -2240,8 +2243,8 @@
       <c r="P26" s="53"/>
     </row>
     <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="82"/>
-      <c r="B27" s="81"/>
+      <c r="A27" s="88"/>
+      <c r="B27" s="105"/>
       <c r="C27" s="49" t="s">
         <v>40</v>
       </c>
@@ -2250,7 +2253,7 @@
       <c r="F27" s="50"/>
       <c r="G27" s="50"/>
       <c r="H27" s="46"/>
-      <c r="I27" s="123" t="e">
+      <c r="I27" s="83" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -2263,8 +2266,8 @@
       <c r="P27" s="53"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="82"/>
-      <c r="B28" s="81"/>
+      <c r="A28" s="88"/>
+      <c r="B28" s="105"/>
       <c r="C28" s="49" t="s">
         <v>23</v>
       </c>
@@ -2273,7 +2276,7 @@
       <c r="F28" s="63"/>
       <c r="G28" s="63"/>
       <c r="H28" s="47"/>
-      <c r="I28" s="116" t="e">
+      <c r="I28" s="78" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -2286,8 +2289,8 @@
       <c r="P28" s="53"/>
     </row>
     <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="82"/>
-      <c r="B29" s="81" t="s">
+      <c r="A29" s="88"/>
+      <c r="B29" s="105" t="s">
         <v>43</v>
       </c>
       <c r="C29" s="49" t="s">
@@ -2298,7 +2301,7 @@
       <c r="F29" s="62"/>
       <c r="G29" s="62"/>
       <c r="H29" s="57"/>
-      <c r="I29" s="116" t="e">
+      <c r="I29" s="78" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -2311,8 +2314,8 @@
       <c r="P29" s="53"/>
     </row>
     <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="82"/>
-      <c r="B30" s="81"/>
+      <c r="A30" s="88"/>
+      <c r="B30" s="105"/>
       <c r="C30" s="49" t="s">
         <v>41</v>
       </c>
@@ -2321,7 +2324,7 @@
       <c r="F30" s="50"/>
       <c r="G30" s="50"/>
       <c r="H30" s="46"/>
-      <c r="I30" s="116" t="e">
+      <c r="I30" s="78" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -2334,8 +2337,8 @@
       <c r="P30" s="53"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="82"/>
-      <c r="B31" s="81"/>
+      <c r="A31" s="88"/>
+      <c r="B31" s="105"/>
       <c r="C31" s="52" t="s">
         <v>40</v>
       </c>
@@ -2344,7 +2347,7 @@
       <c r="F31" s="50"/>
       <c r="G31" s="50"/>
       <c r="H31" s="46"/>
-      <c r="I31" s="123" t="e">
+      <c r="I31" s="83" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -2357,8 +2360,8 @@
       <c r="P31" s="53"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="82"/>
-      <c r="B32" s="81"/>
+      <c r="A32" s="88"/>
+      <c r="B32" s="105"/>
       <c r="C32" s="49" t="s">
         <v>23</v>
       </c>
@@ -2367,7 +2370,7 @@
       <c r="F32" s="63"/>
       <c r="G32" s="63"/>
       <c r="H32" s="47"/>
-      <c r="I32" s="116" t="e">
+      <c r="I32" s="78" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -2380,8 +2383,8 @@
       <c r="P32" s="53"/>
     </row>
     <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="82"/>
-      <c r="B33" s="81" t="s">
+      <c r="A33" s="88"/>
+      <c r="B33" s="105" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="49" t="s">
@@ -2392,7 +2395,7 @@
       <c r="F33" s="62"/>
       <c r="G33" s="62"/>
       <c r="H33" s="57"/>
-      <c r="I33" s="116" t="e">
+      <c r="I33" s="78" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -2405,8 +2408,8 @@
       <c r="P33" s="53"/>
     </row>
     <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="82"/>
-      <c r="B34" s="81"/>
+      <c r="A34" s="88"/>
+      <c r="B34" s="105"/>
       <c r="C34" s="49" t="s">
         <v>41</v>
       </c>
@@ -2415,7 +2418,7 @@
       <c r="F34" s="50"/>
       <c r="G34" s="50"/>
       <c r="H34" s="46"/>
-      <c r="I34" s="116" t="e">
+      <c r="I34" s="78" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -2428,8 +2431,8 @@
       <c r="P34" s="53"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="82"/>
-      <c r="B35" s="81"/>
+      <c r="A35" s="88"/>
+      <c r="B35" s="105"/>
       <c r="C35" s="52" t="s">
         <v>40</v>
       </c>
@@ -2438,7 +2441,7 @@
       <c r="F35" s="50"/>
       <c r="G35" s="50"/>
       <c r="H35" s="46"/>
-      <c r="I35" s="123" t="e">
+      <c r="I35" s="83" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -2451,8 +2454,8 @@
       <c r="P35" s="53"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="82"/>
-      <c r="B36" s="81"/>
+      <c r="A36" s="88"/>
+      <c r="B36" s="105"/>
       <c r="C36" s="49" t="s">
         <v>23</v>
       </c>
@@ -2461,7 +2464,7 @@
       <c r="F36" s="63"/>
       <c r="G36" s="63"/>
       <c r="H36" s="47"/>
-      <c r="I36" s="116" t="e">
+      <c r="I36" s="78" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -2474,7 +2477,7 @@
       <c r="P36" s="53"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B37" s="121"/>
+      <c r="B37" s="81"/>
       <c r="C37" s="53"/>
       <c r="D37" s="53"/>
       <c r="E37" s="53"/>
@@ -2564,42 +2567,42 @@
       <c r="S41" s="53"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="82" t="s">
+      <c r="A42" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="77" t="s">
+      <c r="B42" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="80" t="s">
+      <c r="C42" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="80" t="s">
+      <c r="D42" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="80"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="80"/>
-      <c r="H42" s="80"/>
-      <c r="I42" s="80" t="s">
+      <c r="E42" s="98"/>
+      <c r="F42" s="98"/>
+      <c r="G42" s="98"/>
+      <c r="H42" s="98"/>
+      <c r="I42" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="J42" s="80"/>
-      <c r="K42" s="80"/>
-      <c r="L42" s="80"/>
-      <c r="M42" s="80"/>
-      <c r="N42" s="80" t="s">
+      <c r="J42" s="98"/>
+      <c r="K42" s="98"/>
+      <c r="L42" s="98"/>
+      <c r="M42" s="98"/>
+      <c r="N42" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="80"/>
-      <c r="P42" s="80"/>
-      <c r="Q42" s="80"/>
-      <c r="R42" s="80"/>
+      <c r="O42" s="98"/>
+      <c r="P42" s="98"/>
+      <c r="Q42" s="98"/>
+      <c r="R42" s="98"/>
       <c r="S42" s="53"/>
     </row>
     <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="86"/>
-      <c r="B43" s="78"/>
-      <c r="C43" s="114"/>
+      <c r="A43" s="94"/>
+      <c r="B43" s="108"/>
+      <c r="C43" s="103"/>
       <c r="D43" s="45" t="s">
         <v>35</v>
       </c>
@@ -2651,7 +2654,7 @@
       <c r="A44" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="83" t="s">
+      <c r="B44" s="99" t="s">
         <v>39</v>
       </c>
       <c r="C44" s="48" t="s">
@@ -2708,8 +2711,8 @@
       <c r="S44" s="53"/>
     </row>
     <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="82"/>
-      <c r="B45" s="77"/>
+      <c r="A45" s="88"/>
+      <c r="B45" s="100"/>
       <c r="C45" s="49" t="s">
         <v>41</v>
       </c>
@@ -2740,12 +2743,12 @@
       <c r="S45" s="53"/>
     </row>
     <row r="46" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="82"/>
-      <c r="B46" s="77"/>
+      <c r="A46" s="88"/>
+      <c r="B46" s="100"/>
       <c r="C46" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="123" t="e">
+      <c r="D46" s="83" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -2753,7 +2756,7 @@
       <c r="F46" s="50"/>
       <c r="G46" s="50"/>
       <c r="H46" s="46"/>
-      <c r="I46" s="123" t="e">
+      <c r="I46" s="83" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -2761,7 +2764,7 @@
       <c r="K46" s="50"/>
       <c r="L46" s="50"/>
       <c r="M46" s="46"/>
-      <c r="N46" s="123" t="e">
+      <c r="N46" s="83" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -2772,12 +2775,12 @@
       <c r="S46" s="53"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="82"/>
-      <c r="B47" s="77"/>
+      <c r="A47" s="88"/>
+      <c r="B47" s="100"/>
       <c r="C47" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="116">
+      <c r="D47" s="78">
         <f t="shared" si="4"/>
         <v>-0.17925000000000002</v>
       </c>
@@ -2793,7 +2796,7 @@
       <c r="H47" s="47">
         <v>0.12859999999999999</v>
       </c>
-      <c r="I47" s="116">
+      <c r="I47" s="78">
         <f t="shared" si="5"/>
         <v>-0.20397499999999999</v>
       </c>
@@ -2809,7 +2812,7 @@
       <c r="M47" s="47">
         <v>6.5199999999999994E-2</v>
       </c>
-      <c r="N47" s="116">
+      <c r="N47" s="78">
         <f t="shared" si="6"/>
         <v>-0.218</v>
       </c>
@@ -2828,14 +2831,14 @@
       <c r="S47" s="53"/>
     </row>
     <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="82"/>
-      <c r="B48" s="93" t="s">
+      <c r="A48" s="88"/>
+      <c r="B48" s="95" t="s">
         <v>42</v>
       </c>
       <c r="C48" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="116" t="e">
+      <c r="D48" s="78" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -2843,7 +2846,7 @@
       <c r="F48" s="69"/>
       <c r="G48" s="69"/>
       <c r="H48" s="70"/>
-      <c r="I48" s="116" t="e">
+      <c r="I48" s="78" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -2851,7 +2854,7 @@
       <c r="K48" s="69"/>
       <c r="L48" s="69"/>
       <c r="M48" s="70"/>
-      <c r="N48" s="116" t="e">
+      <c r="N48" s="78" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -2862,12 +2865,12 @@
       <c r="S48" s="53"/>
     </row>
     <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="82"/>
-      <c r="B49" s="93"/>
+      <c r="A49" s="88"/>
+      <c r="B49" s="95"/>
       <c r="C49" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="116" t="e">
+      <c r="D49" s="78" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -2875,7 +2878,7 @@
       <c r="F49" s="72"/>
       <c r="G49" s="72"/>
       <c r="H49" s="73"/>
-      <c r="I49" s="116" t="e">
+      <c r="I49" s="78" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -2883,7 +2886,7 @@
       <c r="K49" s="72"/>
       <c r="L49" s="72"/>
       <c r="M49" s="73"/>
-      <c r="N49" s="116" t="e">
+      <c r="N49" s="78" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -2894,8 +2897,8 @@
       <c r="S49" s="53"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="82"/>
-      <c r="B50" s="93"/>
+      <c r="A50" s="88"/>
+      <c r="B50" s="95"/>
       <c r="C50" s="49" t="s">
         <v>40</v>
       </c>
@@ -2915,7 +2918,7 @@
       <c r="K50" s="72"/>
       <c r="L50" s="72"/>
       <c r="M50" s="73"/>
-      <c r="N50" s="123" t="e">
+      <c r="N50" s="83" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -2926,8 +2929,8 @@
       <c r="S50" s="53"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="82"/>
-      <c r="B51" s="93"/>
+      <c r="A51" s="88"/>
+      <c r="B51" s="95"/>
       <c r="C51" s="49" t="s">
         <v>23</v>
       </c>
@@ -2947,7 +2950,7 @@
       <c r="K51" s="67"/>
       <c r="L51" s="67"/>
       <c r="M51" s="68"/>
-      <c r="N51" s="116" t="e">
+      <c r="N51" s="78" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -2958,14 +2961,14 @@
       <c r="S51" s="53"/>
     </row>
     <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="82"/>
-      <c r="B52" s="93" t="s">
+      <c r="A52" s="88"/>
+      <c r="B52" s="95" t="s">
         <v>43</v>
       </c>
       <c r="C52" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="116" t="e">
+      <c r="D52" s="78" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -2973,7 +2976,7 @@
       <c r="F52" s="62"/>
       <c r="G52" s="62"/>
       <c r="H52" s="57"/>
-      <c r="I52" s="116" t="e">
+      <c r="I52" s="78" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -2981,7 +2984,7 @@
       <c r="K52" s="62"/>
       <c r="L52" s="62"/>
       <c r="M52" s="57"/>
-      <c r="N52" s="116" t="e">
+      <c r="N52" s="78" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -2992,12 +2995,12 @@
       <c r="S52" s="53"/>
     </row>
     <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="82"/>
-      <c r="B53" s="93"/>
+      <c r="A53" s="88"/>
+      <c r="B53" s="95"/>
       <c r="C53" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D53" s="116" t="e">
+      <c r="D53" s="78" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3005,7 +3008,7 @@
       <c r="F53" s="50"/>
       <c r="G53" s="50"/>
       <c r="H53" s="46"/>
-      <c r="I53" s="116" t="e">
+      <c r="I53" s="78" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -3013,7 +3016,7 @@
       <c r="K53" s="50"/>
       <c r="L53" s="50"/>
       <c r="M53" s="46"/>
-      <c r="N53" s="116" t="e">
+      <c r="N53" s="78" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -3024,12 +3027,12 @@
       <c r="S53" s="53"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="82"/>
-      <c r="B54" s="93"/>
+      <c r="A54" s="88"/>
+      <c r="B54" s="95"/>
       <c r="C54" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="D54" s="123" t="e">
+      <c r="D54" s="83" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3037,7 +3040,7 @@
       <c r="F54" s="50"/>
       <c r="G54" s="50"/>
       <c r="H54" s="46"/>
-      <c r="I54" s="123" t="e">
+      <c r="I54" s="83" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -3045,7 +3048,7 @@
       <c r="K54" s="50"/>
       <c r="L54" s="50"/>
       <c r="M54" s="46"/>
-      <c r="N54" s="123" t="e">
+      <c r="N54" s="83" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -3056,12 +3059,12 @@
       <c r="S54" s="53"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="82"/>
-      <c r="B55" s="93"/>
+      <c r="A55" s="88"/>
+      <c r="B55" s="95"/>
       <c r="C55" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D55" s="116" t="e">
+      <c r="D55" s="78" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3069,7 +3072,7 @@
       <c r="F55" s="63"/>
       <c r="G55" s="63"/>
       <c r="H55" s="47"/>
-      <c r="I55" s="116" t="e">
+      <c r="I55" s="78" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -3077,7 +3080,7 @@
       <c r="K55" s="63"/>
       <c r="L55" s="63"/>
       <c r="M55" s="47"/>
-      <c r="N55" s="116" t="e">
+      <c r="N55" s="78" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -3088,14 +3091,14 @@
       <c r="S55" s="53"/>
     </row>
     <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="82"/>
-      <c r="B56" s="93" t="s">
+      <c r="A56" s="88"/>
+      <c r="B56" s="95" t="s">
         <v>44</v>
       </c>
       <c r="C56" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D56" s="116" t="e">
+      <c r="D56" s="78" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3103,7 +3106,7 @@
       <c r="F56" s="62"/>
       <c r="G56" s="69"/>
       <c r="H56" s="57"/>
-      <c r="I56" s="116" t="e">
+      <c r="I56" s="78" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -3111,7 +3114,7 @@
       <c r="K56" s="62"/>
       <c r="L56" s="69"/>
       <c r="M56" s="57"/>
-      <c r="N56" s="116" t="e">
+      <c r="N56" s="78" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -3122,12 +3125,12 @@
       <c r="S56" s="53"/>
     </row>
     <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="82"/>
-      <c r="B57" s="93"/>
+      <c r="A57" s="88"/>
+      <c r="B57" s="95"/>
       <c r="C57" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D57" s="116" t="e">
+      <c r="D57" s="78" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3135,7 +3138,7 @@
       <c r="F57" s="50"/>
       <c r="G57" s="72"/>
       <c r="H57" s="46"/>
-      <c r="I57" s="116" t="e">
+      <c r="I57" s="78" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -3143,7 +3146,7 @@
       <c r="K57" s="50"/>
       <c r="L57" s="72"/>
       <c r="M57" s="46"/>
-      <c r="N57" s="116" t="e">
+      <c r="N57" s="78" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -3154,8 +3157,8 @@
       <c r="S57" s="53"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="82"/>
-      <c r="B58" s="93"/>
+      <c r="A58" s="88"/>
+      <c r="B58" s="95"/>
       <c r="C58" s="49" t="s">
         <v>40</v>
       </c>
@@ -3186,8 +3189,8 @@
       <c r="S58" s="53"/>
     </row>
     <row r="59" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="86"/>
-      <c r="B59" s="94"/>
+      <c r="A59" s="94"/>
+      <c r="B59" s="96"/>
       <c r="C59" s="45" t="s">
         <v>23</v>
       </c>
@@ -3221,13 +3224,13 @@
       <c r="A60" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B60" s="88" t="s">
+      <c r="B60" s="89" t="s">
         <v>39</v>
       </c>
       <c r="C60" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D60" s="116" t="e">
+      <c r="D60" s="78" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3235,7 +3238,7 @@
       <c r="F60" s="59"/>
       <c r="G60" s="59"/>
       <c r="H60" s="55"/>
-      <c r="I60" s="116" t="e">
+      <c r="I60" s="78" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -3243,7 +3246,7 @@
       <c r="K60" s="59"/>
       <c r="L60" s="59"/>
       <c r="M60" s="55"/>
-      <c r="N60" s="126" t="e">
+      <c r="N60" s="86" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -3254,12 +3257,12 @@
       <c r="S60" s="53"/>
     </row>
     <row r="61" spans="1:19" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="82"/>
-      <c r="B61" s="88"/>
+      <c r="A61" s="88"/>
+      <c r="B61" s="89"/>
       <c r="C61" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D61" s="116" t="e">
+      <c r="D61" s="78" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3267,7 +3270,7 @@
       <c r="F61" s="50"/>
       <c r="G61" s="50"/>
       <c r="H61" s="46"/>
-      <c r="I61" s="123" t="e">
+      <c r="I61" s="83" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -3275,7 +3278,7 @@
       <c r="K61" s="50"/>
       <c r="L61" s="50"/>
       <c r="M61" s="46"/>
-      <c r="N61" s="116" t="e">
+      <c r="N61" s="78" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -3286,12 +3289,12 @@
       <c r="S61" s="53"/>
     </row>
     <row r="62" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="82"/>
-      <c r="B62" s="88"/>
+      <c r="A62" s="88"/>
+      <c r="B62" s="89"/>
       <c r="C62" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="D62" s="123" t="e">
+      <c r="D62" s="83" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3299,7 +3302,7 @@
       <c r="F62" s="50"/>
       <c r="G62" s="50"/>
       <c r="H62" s="46"/>
-      <c r="I62" s="124" t="e">
+      <c r="I62" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -3307,7 +3310,7 @@
       <c r="K62" s="50"/>
       <c r="L62" s="50"/>
       <c r="M62" s="46"/>
-      <c r="N62" s="123" t="e">
+      <c r="N62" s="83" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -3318,12 +3321,12 @@
       <c r="S62" s="53"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="82"/>
-      <c r="B63" s="89"/>
+      <c r="A63" s="88"/>
+      <c r="B63" s="90"/>
       <c r="C63" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D63" s="116" t="e">
+      <c r="D63" s="78" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3331,7 +3334,7 @@
       <c r="F63" s="63"/>
       <c r="G63" s="63"/>
       <c r="H63" s="47"/>
-      <c r="I63" s="116" t="e">
+      <c r="I63" s="78" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -3339,7 +3342,7 @@
       <c r="K63" s="63"/>
       <c r="L63" s="63"/>
       <c r="M63" s="47"/>
-      <c r="N63" s="116" t="e">
+      <c r="N63" s="78" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -3350,14 +3353,14 @@
       <c r="S63" s="53"/>
     </row>
     <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="82"/>
-      <c r="B64" s="90" t="s">
+      <c r="A64" s="88"/>
+      <c r="B64" s="91" t="s">
         <v>42</v>
       </c>
       <c r="C64" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D64" s="116" t="e">
+      <c r="D64" s="78" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3365,7 +3368,7 @@
       <c r="F64" s="69"/>
       <c r="G64" s="69"/>
       <c r="H64" s="70"/>
-      <c r="I64" s="116" t="e">
+      <c r="I64" s="78" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -3373,7 +3376,7 @@
       <c r="K64" s="69"/>
       <c r="L64" s="69"/>
       <c r="M64" s="70"/>
-      <c r="N64" s="116" t="e">
+      <c r="N64" s="78" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -3384,12 +3387,12 @@
       <c r="S64" s="53"/>
     </row>
     <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="82"/>
-      <c r="B65" s="91"/>
+      <c r="A65" s="88"/>
+      <c r="B65" s="92"/>
       <c r="C65" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D65" s="116" t="e">
+      <c r="D65" s="78" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3397,7 +3400,7 @@
       <c r="F65" s="72"/>
       <c r="G65" s="72"/>
       <c r="H65" s="73"/>
-      <c r="I65" s="116" t="e">
+      <c r="I65" s="78" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -3405,7 +3408,7 @@
       <c r="K65" s="72"/>
       <c r="L65" s="72"/>
       <c r="M65" s="73"/>
-      <c r="N65" s="116" t="e">
+      <c r="N65" s="78" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -3416,8 +3419,8 @@
       <c r="S65" s="53"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="82"/>
-      <c r="B66" s="91"/>
+      <c r="A66" s="88"/>
+      <c r="B66" s="92"/>
       <c r="C66" s="49" t="s">
         <v>40</v>
       </c>
@@ -3429,7 +3432,7 @@
       <c r="F66" s="72"/>
       <c r="G66" s="72"/>
       <c r="H66" s="73"/>
-      <c r="I66" s="125" t="e">
+      <c r="I66" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -3437,7 +3440,7 @@
       <c r="K66" s="72"/>
       <c r="L66" s="72"/>
       <c r="M66" s="73"/>
-      <c r="N66" s="123" t="e">
+      <c r="N66" s="83" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -3448,8 +3451,8 @@
       <c r="S66" s="53"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="82"/>
-      <c r="B67" s="92"/>
+      <c r="A67" s="88"/>
+      <c r="B67" s="93"/>
       <c r="C67" s="49" t="s">
         <v>23</v>
       </c>
@@ -3469,7 +3472,7 @@
       <c r="K67" s="67"/>
       <c r="L67" s="67"/>
       <c r="M67" s="68"/>
-      <c r="N67" s="116" t="e">
+      <c r="N67" s="78" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -3480,14 +3483,14 @@
       <c r="S67" s="53"/>
     </row>
     <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="82"/>
-      <c r="B68" s="90" t="s">
+      <c r="A68" s="88"/>
+      <c r="B68" s="91" t="s">
         <v>43</v>
       </c>
       <c r="C68" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="116" t="e">
+      <c r="D68" s="78" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3495,7 +3498,7 @@
       <c r="F68" s="62"/>
       <c r="G68" s="62"/>
       <c r="H68" s="57"/>
-      <c r="I68" s="116" t="e">
+      <c r="I68" s="78" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -3503,7 +3506,7 @@
       <c r="K68" s="62"/>
       <c r="L68" s="62"/>
       <c r="M68" s="57"/>
-      <c r="N68" s="116" t="e">
+      <c r="N68" s="78" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -3514,12 +3517,12 @@
       <c r="S68" s="53"/>
     </row>
     <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="82"/>
-      <c r="B69" s="91"/>
+      <c r="A69" s="88"/>
+      <c r="B69" s="92"/>
       <c r="C69" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D69" s="116" t="e">
+      <c r="D69" s="78" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3527,7 +3530,7 @@
       <c r="F69" s="50"/>
       <c r="G69" s="50"/>
       <c r="H69" s="46"/>
-      <c r="I69" s="116" t="e">
+      <c r="I69" s="78" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -3535,7 +3538,7 @@
       <c r="K69" s="50"/>
       <c r="L69" s="50"/>
       <c r="M69" s="46"/>
-      <c r="N69" s="116" t="e">
+      <c r="N69" s="78" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -3546,12 +3549,12 @@
       <c r="S69" s="53"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="82"/>
-      <c r="B70" s="91"/>
+      <c r="A70" s="88"/>
+      <c r="B70" s="92"/>
       <c r="C70" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="D70" s="123" t="e">
+      <c r="D70" s="83" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3559,7 +3562,7 @@
       <c r="F70" s="50"/>
       <c r="G70" s="50"/>
       <c r="H70" s="46"/>
-      <c r="I70" s="122" t="e">
+      <c r="I70" s="82" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -3567,7 +3570,7 @@
       <c r="K70" s="50"/>
       <c r="L70" s="50"/>
       <c r="M70" s="46"/>
-      <c r="N70" s="123" t="e">
+      <c r="N70" s="83" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -3578,12 +3581,12 @@
       <c r="S70" s="53"/>
     </row>
     <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="82"/>
-      <c r="B71" s="92"/>
+      <c r="A71" s="88"/>
+      <c r="B71" s="93"/>
       <c r="C71" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D71" s="116" t="e">
+      <c r="D71" s="78" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3591,7 +3594,7 @@
       <c r="F71" s="63"/>
       <c r="G71" s="63"/>
       <c r="H71" s="47"/>
-      <c r="I71" s="116" t="e">
+      <c r="I71" s="78" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -3599,7 +3602,7 @@
       <c r="K71" s="63"/>
       <c r="L71" s="63"/>
       <c r="M71" s="47"/>
-      <c r="N71" s="116" t="e">
+      <c r="N71" s="78" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -3610,14 +3613,14 @@
       <c r="S71" s="53"/>
     </row>
     <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="82"/>
-      <c r="B72" s="95" t="s">
+      <c r="A72" s="88"/>
+      <c r="B72" s="97" t="s">
         <v>44</v>
       </c>
       <c r="C72" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D72" s="116" t="e">
+      <c r="D72" s="78" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3625,7 +3628,7 @@
       <c r="F72" s="62"/>
       <c r="G72" s="69"/>
       <c r="H72" s="57"/>
-      <c r="I72" s="116" t="e">
+      <c r="I72" s="78" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -3633,7 +3636,7 @@
       <c r="K72" s="62"/>
       <c r="L72" s="69"/>
       <c r="M72" s="57"/>
-      <c r="N72" s="116" t="e">
+      <c r="N72" s="78" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -3644,12 +3647,12 @@
       <c r="S72" s="53"/>
     </row>
     <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="82"/>
-      <c r="B73" s="95"/>
+      <c r="A73" s="88"/>
+      <c r="B73" s="97"/>
       <c r="C73" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D73" s="116" t="e">
+      <c r="D73" s="78" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3657,7 +3660,7 @@
       <c r="F73" s="50"/>
       <c r="G73" s="72"/>
       <c r="H73" s="46"/>
-      <c r="I73" s="116" t="e">
+      <c r="I73" s="78" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -3665,7 +3668,7 @@
       <c r="K73" s="50"/>
       <c r="L73" s="72"/>
       <c r="M73" s="46"/>
-      <c r="N73" s="116" t="e">
+      <c r="N73" s="78" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -3676,8 +3679,8 @@
       <c r="S73" s="53"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="82"/>
-      <c r="B74" s="95"/>
+      <c r="A74" s="88"/>
+      <c r="B74" s="97"/>
       <c r="C74" s="52" t="s">
         <v>40</v>
       </c>
@@ -3708,8 +3711,8 @@
       <c r="S74" s="53"/>
     </row>
     <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="82"/>
-      <c r="B75" s="95"/>
+      <c r="A75" s="88"/>
+      <c r="B75" s="97"/>
       <c r="C75" s="49" t="s">
         <v>23</v>
       </c>
@@ -3891,6 +3894,26 @@
     <row r="109" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="I42:M42"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="C42:C43"/>
     <mergeCell ref="A60:A75"/>
     <mergeCell ref="B60:B63"/>
     <mergeCell ref="B64:B67"/>
@@ -3904,26 +3927,6 @@
     <mergeCell ref="B52:B55"/>
     <mergeCell ref="B56:B59"/>
     <mergeCell ref="B72:B75"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="I42:M42"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B33:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -3935,7 +3938,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3969,31 +3972,31 @@
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="110" t="s">
+      <c r="E2" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="110" t="s">
+      <c r="F2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="104" t="s">
+      <c r="G2" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="111" t="s">
+      <c r="H2" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="104" t="s">
+      <c r="I2" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="112" t="s">
+      <c r="J2" s="121" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="6"/>
@@ -4002,21 +4005,21 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="113"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="122"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="O3" s="20"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="36" t="s">
@@ -4035,23 +4038,23 @@
         <v>19</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="30">
-        <v>1E-8</v>
+        <v>50</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="I4" s="11">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="O4" s="20"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="110"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -4076,7 +4079,7 @@
       <c r="O5" s="20"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="97"/>
+      <c r="A6" s="110"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -4109,7 +4112,7 @@
       <c r="O6" s="20"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="97"/>
+      <c r="A7" s="110"/>
       <c r="B7" s="12" t="s">
         <v>14</v>
       </c>
@@ -4142,7 +4145,7 @@
       <c r="O7" s="20"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="19" t="s">
         <v>16</v>
       </c>
@@ -4175,7 +4178,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="123" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -4202,7 +4205,7 @@
       <c r="O9" s="20"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="97"/>
+      <c r="A10" s="110"/>
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
@@ -4228,7 +4231,7 @@
       <c r="O10" s="20"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="97"/>
+      <c r="A11" s="110"/>
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
@@ -4262,7 +4265,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="97"/>
+      <c r="A12" s="110"/>
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
@@ -4296,7 +4299,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="98"/>
+      <c r="A13" s="111"/>
       <c r="B13" s="13" t="s">
         <v>16</v>
       </c>
@@ -4358,34 +4361,34 @@
     </row>
     <row r="17" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="104" t="s">
+      <c r="C17" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="104" t="s">
+      <c r="D17" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="104" t="s">
+      <c r="E17" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="104" t="s">
+      <c r="F17" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="104" t="s">
+      <c r="G17" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="100" t="s">
+      <c r="H17" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="104" t="s">
+      <c r="I17" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="104" t="s">
+      <c r="J17" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="106" t="s">
+      <c r="K17" s="114" t="s">
         <v>10</v>
       </c>
       <c r="L17" s="22"/>
@@ -4393,20 +4396,20 @@
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
-      <c r="B18" s="103"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="107"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="115"/>
       <c r="L18" s="22"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="96" t="s">
+      <c r="A19" s="109" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="37" t="s">
@@ -4431,7 +4434,7 @@
       <c r="K19" s="43"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="97"/>
+      <c r="A20" s="110"/>
       <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
@@ -4455,7 +4458,7 @@
       <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="97"/>
+      <c r="A21" s="110"/>
       <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
@@ -4489,7 +4492,7 @@
       <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="97"/>
+      <c r="A22" s="110"/>
       <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
@@ -4522,7 +4525,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="98"/>
+      <c r="A23" s="111"/>
       <c r="B23" s="14" t="s">
         <v>34</v>
       </c>
@@ -4555,7 +4558,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="96" t="s">
+      <c r="A24" s="109" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="37" t="s">
@@ -4580,7 +4583,7 @@
       <c r="K24" s="43"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="97"/>
+      <c r="A25" s="110"/>
       <c r="B25" s="2" t="s">
         <v>32</v>
       </c>
@@ -4603,7 +4606,7 @@
       <c r="K25" s="42"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="97"/>
+      <c r="A26" s="110"/>
       <c r="B26" s="2" t="s">
         <v>15</v>
       </c>
@@ -4636,7 +4639,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="97"/>
+      <c r="A27" s="110"/>
       <c r="B27" s="2" t="s">
         <v>33</v>
       </c>
@@ -4669,7 +4672,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="98"/>
+      <c r="A28" s="111"/>
       <c r="B28" s="14" t="s">
         <v>34</v>
       </c>
@@ -4716,11 +4719,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -4733,12 +4737,11 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="J17:J18"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="I17:I18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/experiments/all_results.xlsx
+++ b/experiments/all_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ancarey\PycharmProjects\adaptive-hypernets\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA06DD0-2220-450F-B08D-E17D6214CF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F9CA8F-1DCA-4FDD-A605-D975A3143033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="665" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="59">
   <si>
     <t>Model</t>
   </si>
@@ -155,21 +155,12 @@
     <t>Architecture</t>
   </si>
   <si>
-    <t>Log Reg</t>
-  </si>
-  <si>
     <t>pFedHN</t>
   </si>
   <si>
     <t>FFL via FedAvg</t>
   </si>
   <si>
-    <t>Log Reg &amp; Demographic Parity</t>
-  </si>
-  <si>
-    <t>Log Reg &amp; Equalized Odds</t>
-  </si>
-  <si>
     <t>Dataset</t>
   </si>
   <si>
@@ -191,36 +182,12 @@
     <t>h: 1500, c: 50</t>
   </si>
   <si>
-    <t>6 min 45 sec</t>
-  </si>
-  <si>
     <t>h: 1e-5, c: 1e-6</t>
   </si>
   <si>
     <t>h:1e-3, c:1e-3</t>
   </si>
   <si>
-    <t>5 min 56 sec</t>
-  </si>
-  <si>
-    <t>Log Reg &amp; Demographic Parity and Equalized Odds</t>
-  </si>
-  <si>
-    <t>2 min 46 sec</t>
-  </si>
-  <si>
-    <t>4 min 28 sec</t>
-  </si>
-  <si>
-    <t>2 min 16 sec</t>
-  </si>
-  <si>
-    <t>4 min 12 sec</t>
-  </si>
-  <si>
-    <t>4 min 40 sec</t>
-  </si>
-  <si>
     <t>No fairness</t>
   </si>
   <si>
@@ -236,10 +203,16 @@
     <t>Fairness</t>
   </si>
   <si>
-    <t>5 min 55 sec</t>
-  </si>
-  <si>
-    <t>need to run 10 times. Don’t think it is persistent</t>
+    <t>3 min 20 sec</t>
+  </si>
+  <si>
+    <t>2 min 32 sec</t>
+  </si>
+  <si>
+    <t>6 min 15 sec</t>
+  </si>
+  <si>
+    <t>4 min 36 sec</t>
   </si>
 </sst>
 </file>
@@ -867,7 +840,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1098,9 +1071,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1122,21 +1092,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1146,13 +1146,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1162,6 +1156,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1170,65 +1194,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1546,8 +1543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FA34C5-480C-4D1A-AC66-54DFEF26762F}">
   <dimension ref="A1:T109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="U40" sqref="U40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="T43" sqref="T43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1563,10 +1560,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="86"/>
+      <c r="D1" s="103"/>
       <c r="E1" s="48"/>
       <c r="F1" s="48"/>
       <c r="G1" s="48"/>
@@ -1601,33 +1598,33 @@
       <c r="R2" s="39"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="117" t="s">
+      <c r="A3" s="94" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="90" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="90" t="s">
+      <c r="C3" s="96" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="90" t="s">
+      <c r="E3" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90" t="s">
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="91" t="s">
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="100" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="48"/>
@@ -1636,10 +1633,10 @@
       <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="96"/>
-      <c r="B4" s="118"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
       <c r="E4" s="43" t="s">
         <v>35</v>
       </c>
@@ -1670,19 +1667,19 @@
       <c r="N4" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="92"/>
+      <c r="O4" s="101"/>
       <c r="P4" s="48"/>
       <c r="Q4" s="48"/>
       <c r="R4" s="39"/>
       <c r="S4" s="39"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="89" t="s">
-        <v>61</v>
+      <c r="A5" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="83"/>
+      <c r="C5" s="95" t="s">
+        <v>50</v>
       </c>
       <c r="D5" s="46" t="s">
         <v>25</v>
@@ -1720,21 +1717,21 @@
         <v>0.5</v>
       </c>
       <c r="O5" s="53" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P5" s="48"/>
       <c r="Q5" s="48" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R5" s="39"/>
       <c r="S5" s="39"/>
     </row>
     <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="95"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="90"/>
+      <c r="A6" s="94"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="96"/>
       <c r="D6" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="59"/>
       <c r="F6" s="48"/>
@@ -1756,104 +1753,64 @@
       <c r="S6" s="39"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95"/>
-      <c r="B7" s="117" t="s">
+      <c r="A7" s="94"/>
+      <c r="B7" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="90"/>
+      <c r="C7" s="96"/>
       <c r="D7" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="52">
-        <v>0.61970000000000003</v>
-      </c>
-      <c r="F7" s="48">
-        <v>0.47220000000000001</v>
-      </c>
-      <c r="G7" s="48">
-        <v>0.62780000000000002</v>
-      </c>
-      <c r="H7" s="48">
-        <v>0.71089999999999998</v>
-      </c>
-      <c r="I7" s="44">
-        <v>0.72309999999999997</v>
-      </c>
-      <c r="J7" s="80">
+        <v>39</v>
+      </c>
+      <c r="E7" s="52"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="79" t="e">
         <f>AVERAGE(K7:N7)</f>
-        <v>0.54342500000000005</v>
-      </c>
-      <c r="K7" s="48">
-        <v>0.62150000000000005</v>
-      </c>
-      <c r="L7" s="48">
-        <v>0.60819999999999996</v>
-      </c>
-      <c r="M7" s="48">
-        <v>0.56469999999999998</v>
-      </c>
-      <c r="N7" s="48">
-        <v>0.37930000000000003</v>
-      </c>
-      <c r="O7" s="44" t="s">
-        <v>58</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="44"/>
       <c r="P7" s="48"/>
       <c r="Q7" s="48"/>
       <c r="R7" s="39"/>
       <c r="S7" s="39"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="111"/>
-      <c r="C8" s="90"/>
+      <c r="A8" s="94"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="96"/>
       <c r="D8" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="119">
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="F8" s="58">
-        <v>0.59440000000000004</v>
-      </c>
-      <c r="G8" s="58">
-        <v>0.63329999999999997</v>
-      </c>
-      <c r="H8" s="58">
-        <v>0.69530000000000003</v>
-      </c>
-      <c r="I8" s="56">
-        <v>0.73850000000000005</v>
-      </c>
-      <c r="J8" s="116">
+      <c r="E8" s="87"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="86" t="e">
         <f>AVERAGE(K8:N8)</f>
-        <v>0.57782500000000003</v>
-      </c>
-      <c r="K8" s="58">
-        <v>0.69710000000000005</v>
-      </c>
-      <c r="L8" s="58">
-        <v>0.62919999999999998</v>
-      </c>
-      <c r="M8" s="58">
-        <v>0.55169999999999997</v>
-      </c>
-      <c r="N8" s="58">
-        <v>0.43330000000000002</v>
-      </c>
-      <c r="O8" s="56" t="s">
-        <v>60</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="56"/>
       <c r="P8" s="48"/>
       <c r="Q8" s="48"/>
       <c r="R8" s="39"/>
       <c r="S8" s="39"/>
     </row>
     <row r="9" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="95"/>
-      <c r="B9" s="111"/>
-      <c r="C9" s="87" t="s">
-        <v>62</v>
+      <c r="A9" s="94"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="97" t="s">
+        <v>51</v>
       </c>
       <c r="D9" s="47" t="s">
         <v>25</v>
@@ -1878,11 +1835,11 @@
       <c r="S9" s="39"/>
     </row>
     <row r="10" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="95"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="87"/>
+      <c r="A10" s="94"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="97"/>
       <c r="D10" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="59"/>
       <c r="F10" s="48"/>
@@ -1904,102 +1861,62 @@
       <c r="S10" s="39"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="87"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="97"/>
       <c r="D11" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="121">
-        <v>0.66339999999999999</v>
-      </c>
-      <c r="F11" s="48">
-        <v>0.61670000000000003</v>
-      </c>
-      <c r="G11" s="48">
-        <v>0.62219999999999998</v>
-      </c>
-      <c r="H11" s="48">
-        <v>0.71089999999999998</v>
-      </c>
-      <c r="I11" s="44">
-        <v>0.73850000000000005</v>
-      </c>
-      <c r="J11" s="79">
+        <v>39</v>
+      </c>
+      <c r="E11" s="89"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="78" t="e">
         <f t="shared" si="3"/>
-        <v>0.56855</v>
-      </c>
-      <c r="K11" s="48">
-        <v>0.63870000000000005</v>
-      </c>
-      <c r="L11" s="48">
-        <v>0.6</v>
-      </c>
-      <c r="M11" s="48">
-        <v>0.60219999999999996</v>
-      </c>
-      <c r="N11" s="48">
-        <v>0.43330000000000002</v>
-      </c>
-      <c r="O11" s="44" t="s">
-        <v>59</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="44"/>
       <c r="P11" s="48"/>
       <c r="Q11" s="48"/>
       <c r="R11" s="39"/>
       <c r="S11" s="39"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="87"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="97"/>
       <c r="D12" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="54">
-        <v>0.65859999999999996</v>
-      </c>
-      <c r="F12" s="61">
-        <v>0.57220000000000004</v>
-      </c>
-      <c r="G12" s="61">
-        <v>0.62780000000000002</v>
-      </c>
-      <c r="H12" s="61">
-        <v>0.74219999999999997</v>
-      </c>
-      <c r="I12" s="45">
-        <v>0.73850000000000005</v>
-      </c>
-      <c r="J12" s="116">
+      <c r="E12" s="54"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="86" t="e">
         <f t="shared" si="3"/>
-        <v>0.57367500000000005</v>
-      </c>
-      <c r="K12" s="61">
-        <v>0.6452</v>
-      </c>
-      <c r="L12" s="61">
-        <v>0.63390000000000002</v>
-      </c>
-      <c r="M12" s="61">
-        <v>0.58230000000000004</v>
-      </c>
-      <c r="N12" s="61">
-        <v>0.43330000000000002</v>
-      </c>
-      <c r="O12" s="45" t="s">
-        <v>66</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="45"/>
       <c r="P12" s="48"/>
       <c r="Q12" s="48"/>
       <c r="R12" s="39"/>
       <c r="S12" s="39"/>
     </row>
     <row r="13" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="87" t="s">
-        <v>63</v>
+      <c r="A13" s="94"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="97" t="s">
+        <v>52</v>
       </c>
       <c r="D13" s="47" t="s">
         <v>25</v>
@@ -2024,11 +1941,11 @@
       <c r="S13" s="39"/>
     </row>
     <row r="14" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="95"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="87"/>
+      <c r="A14" s="94"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="97"/>
       <c r="D14" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="59"/>
       <c r="F14" s="48"/>
@@ -2050,18 +1967,18 @@
       <c r="S14" s="39"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="95"/>
-      <c r="B15" s="111"/>
-      <c r="C15" s="87"/>
+      <c r="A15" s="94"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="97"/>
       <c r="D15" s="47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="52"/>
       <c r="F15" s="48"/>
       <c r="G15" s="48"/>
       <c r="H15" s="48"/>
       <c r="I15" s="44"/>
-      <c r="J15" s="80" t="e">
+      <c r="J15" s="79" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -2076,9 +1993,9 @@
       <c r="S15" s="39"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="95"/>
-      <c r="B16" s="111"/>
-      <c r="C16" s="87"/>
+      <c r="A16" s="94"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="97"/>
       <c r="D16" s="47" t="s">
         <v>23</v>
       </c>
@@ -2102,10 +2019,10 @@
       <c r="S16" s="39"/>
     </row>
     <row r="17" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="95"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="87" t="s">
-        <v>64</v>
+      <c r="A17" s="94"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="97" t="s">
+        <v>53</v>
       </c>
       <c r="D17" s="47" t="s">
         <v>25</v>
@@ -2130,11 +2047,11 @@
       <c r="S17" s="39"/>
     </row>
     <row r="18" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="95"/>
-      <c r="B18" s="111"/>
-      <c r="C18" s="87"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="97"/>
       <c r="D18" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="59"/>
       <c r="F18" s="48"/>
@@ -2156,18 +2073,18 @@
       <c r="S18" s="39"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="95"/>
-      <c r="B19" s="111"/>
-      <c r="C19" s="87"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="97"/>
       <c r="D19" s="47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" s="48"/>
       <c r="F19" s="48"/>
       <c r="G19" s="48"/>
       <c r="H19" s="48"/>
       <c r="I19" s="44"/>
-      <c r="J19" s="79" t="e">
+      <c r="J19" s="78" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -2182,9 +2099,9 @@
       <c r="S19" s="39"/>
     </row>
     <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="96"/>
-      <c r="B20" s="118"/>
-      <c r="C20" s="88"/>
+      <c r="A20" s="98"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="99"/>
       <c r="D20" s="43" t="s">
         <v>23</v>
       </c>
@@ -2207,13 +2124,13 @@
       <c r="R20" s="39"/>
       <c r="S20" s="39"/>
     </row>
-    <row r="21" spans="1:19" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="94" t="s">
+    <row r="21" spans="1:19" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="84"/>
-      <c r="C21" s="89" t="s">
-        <v>39</v>
+      <c r="B21" s="83"/>
+      <c r="C21" s="95" t="s">
+        <v>50</v>
       </c>
       <c r="D21" s="46" t="s">
         <v>25</v>
@@ -2235,19 +2152,19 @@
       <c r="P21" s="51"/>
       <c r="Q21" s="51"/>
     </row>
-    <row r="22" spans="1:19" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="95"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="90"/>
+    <row r="22" spans="1:19" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="94"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="96"/>
       <c r="D22" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" s="59"/>
       <c r="F22" s="48"/>
       <c r="G22" s="48"/>
       <c r="H22" s="48"/>
       <c r="I22" s="44"/>
-      <c r="J22" s="80" t="e">
+      <c r="J22" s="79" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -2260,13 +2177,13 @@
       <c r="Q22" s="51"/>
     </row>
     <row r="23" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="95"/>
-      <c r="B23" s="117" t="s">
+      <c r="A23" s="94"/>
+      <c r="B23" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="90"/>
+      <c r="C23" s="96"/>
       <c r="D23" s="47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E23" s="52">
         <v>0.77729999999999999</v>
@@ -2283,7 +2200,7 @@
       <c r="I23" s="44">
         <v>0.77880000000000005</v>
       </c>
-      <c r="J23" s="81">
+      <c r="J23" s="80">
         <f t="shared" si="3"/>
         <v>0.39980000000000004</v>
       </c>
@@ -2307,54 +2224,54 @@
       <c r="R23" s="42"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="95"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="90"/>
+      <c r="A24" s="94"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="96"/>
       <c r="D24" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="115">
-        <v>0.77939999999999998</v>
+      <c r="E24" s="85">
+        <v>0.77859999999999996</v>
       </c>
       <c r="F24" s="61">
-        <v>0.75160000000000005</v>
+        <v>0.746</v>
       </c>
       <c r="G24" s="61">
-        <v>0.76290000000000002</v>
+        <v>0.75349999999999995</v>
       </c>
       <c r="H24" s="61">
-        <v>0.78290000000000004</v>
+        <v>0.7833</v>
       </c>
       <c r="I24" s="45">
-        <v>0.78369999999999995</v>
-      </c>
-      <c r="J24" s="116">
+        <v>0.78439999999999999</v>
+      </c>
+      <c r="J24" s="86">
         <f t="shared" si="3"/>
-        <v>0.42259999999999998</v>
+        <v>0.40587499999999999</v>
       </c>
       <c r="K24" s="61">
-        <v>0.47110000000000002</v>
+        <v>0.4758</v>
       </c>
       <c r="L24" s="61">
-        <v>0.495</v>
+        <v>0.49519999999999997</v>
       </c>
       <c r="M24" s="61">
-        <v>0.36209999999999998</v>
+        <v>0.3342</v>
       </c>
       <c r="N24" s="61">
-        <v>0.36220000000000002</v>
+        <v>0.31830000000000003</v>
       </c>
       <c r="O24" s="45" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P24" s="51"/>
       <c r="Q24" s="51"/>
     </row>
     <row r="25" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="95"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="87" t="s">
-        <v>42</v>
+      <c r="A25" s="94"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="97" t="s">
+        <v>51</v>
       </c>
       <c r="D25" s="47" t="s">
         <v>25</v>
@@ -2377,11 +2294,11 @@
       <c r="Q25" s="51"/>
     </row>
     <row r="26" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="95"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="87"/>
+      <c r="A26" s="94"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="97"/>
       <c r="D26" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E26" s="59"/>
       <c r="F26" s="48"/>
@@ -2401,98 +2318,98 @@
       <c r="Q26" s="51"/>
     </row>
     <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="95"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="87"/>
+      <c r="A27" s="94"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="97"/>
       <c r="D27" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="52">
-        <v>0.53369999999999995</v>
+        <v>39</v>
+      </c>
+      <c r="E27" s="89">
+        <v>0.76839999999999997</v>
       </c>
       <c r="F27" s="48">
-        <v>0.60970000000000002</v>
+        <v>0.73009999999999997</v>
       </c>
       <c r="G27" s="48">
-        <v>0.69630000000000003</v>
+        <v>0.74319999999999997</v>
       </c>
       <c r="H27" s="48">
-        <v>0.23749999999999999</v>
+        <v>0.77459999999999996</v>
       </c>
       <c r="I27" s="44">
-        <v>0.77259999999999995</v>
-      </c>
-      <c r="J27" s="120">
+        <v>0.77359999999999995</v>
+      </c>
+      <c r="J27" s="88">
         <f t="shared" si="3"/>
-        <v>0.200375</v>
+        <v>0.46192499999999997</v>
       </c>
       <c r="K27" s="48">
-        <v>0.1406</v>
+        <v>0.51519999999999999</v>
       </c>
       <c r="L27" s="48">
-        <v>0.12429999999999999</v>
+        <v>0.4219</v>
       </c>
       <c r="M27" s="48">
-        <v>0.35630000000000001</v>
+        <v>0.48249999999999998</v>
       </c>
       <c r="N27" s="48">
-        <v>0.18029999999999999</v>
+        <v>0.42809999999999998</v>
       </c>
       <c r="O27" s="44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P27" s="51"/>
       <c r="Q27" s="51"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="95"/>
-      <c r="B28" s="111"/>
-      <c r="C28" s="87"/>
+      <c r="A28" s="94"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="97"/>
       <c r="D28" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="115">
-        <v>0.75639999999999996</v>
+      <c r="E28" s="54">
+        <v>0.75629999999999997</v>
       </c>
       <c r="F28" s="61">
         <v>0.69069999999999998</v>
       </c>
       <c r="G28" s="61">
-        <v>0.69730000000000003</v>
+        <v>0.69630000000000003</v>
       </c>
       <c r="H28" s="61">
-        <v>0.76229999999999998</v>
+        <v>0.76249999999999996</v>
       </c>
       <c r="I28" s="45">
-        <v>0.77290000000000003</v>
+        <v>0.77259999999999995</v>
       </c>
       <c r="J28" s="75">
         <f t="shared" si="3"/>
-        <v>0.15920000000000001</v>
+        <v>0.15717500000000001</v>
       </c>
       <c r="K28" s="61">
         <v>0.1406</v>
       </c>
       <c r="L28" s="61">
-        <v>0.12939999999999999</v>
+        <v>0.12429999999999999</v>
       </c>
       <c r="M28" s="61">
-        <v>0.18429999999999999</v>
+        <v>0.1835</v>
       </c>
       <c r="N28" s="61">
-        <v>0.1825</v>
+        <v>0.18029999999999999</v>
       </c>
       <c r="O28" s="45" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P28" s="51"/>
       <c r="Q28" s="51"/>
     </row>
     <row r="29" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="95"/>
-      <c r="B29" s="111"/>
-      <c r="C29" s="87" t="s">
-        <v>43</v>
+      <c r="A29" s="94"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="97" t="s">
+        <v>52</v>
       </c>
       <c r="D29" s="47" t="s">
         <v>25</v>
@@ -2515,11 +2432,11 @@
       <c r="Q29" s="51"/>
     </row>
     <row r="30" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="95"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="87"/>
+      <c r="A30" s="94"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="97"/>
       <c r="D30" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E30" s="59"/>
       <c r="F30" s="48"/>
@@ -2539,18 +2456,18 @@
       <c r="Q30" s="51"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="95"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="87"/>
+      <c r="A31" s="94"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="97"/>
       <c r="D31" s="50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E31" s="52"/>
       <c r="F31" s="48"/>
       <c r="G31" s="48"/>
       <c r="H31" s="48"/>
       <c r="I31" s="44"/>
-      <c r="J31" s="80" t="e">
+      <c r="J31" s="79" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -2560,14 +2477,12 @@
       <c r="N31" s="48"/>
       <c r="O31" s="44"/>
       <c r="P31" s="51"/>
-      <c r="Q31" s="51" t="s">
-        <v>67</v>
-      </c>
+      <c r="Q31" s="51"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="95"/>
-      <c r="B32" s="111"/>
-      <c r="C32" s="87"/>
+      <c r="A32" s="94"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="97"/>
       <c r="D32" s="47" t="s">
         <v>23</v>
       </c>
@@ -2589,10 +2504,10 @@
       <c r="Q32" s="51"/>
     </row>
     <row r="33" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="95"/>
-      <c r="B33" s="111"/>
-      <c r="C33" s="87" t="s">
-        <v>55</v>
+      <c r="A33" s="94"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="97" t="s">
+        <v>53</v>
       </c>
       <c r="D33" s="47" t="s">
         <v>25</v>
@@ -2615,11 +2530,11 @@
       <c r="Q33" s="51"/>
     </row>
     <row r="34" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="95"/>
-      <c r="B34" s="111"/>
-      <c r="C34" s="87"/>
+      <c r="A34" s="94"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="97"/>
       <c r="D34" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E34" s="59"/>
       <c r="F34" s="48"/>
@@ -2639,18 +2554,18 @@
       <c r="Q34" s="51"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="95"/>
-      <c r="B35" s="111"/>
-      <c r="C35" s="87"/>
+      <c r="A35" s="94"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="97"/>
       <c r="D35" s="50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E35" s="52"/>
       <c r="F35" s="48"/>
       <c r="G35" s="48"/>
       <c r="H35" s="48"/>
       <c r="I35" s="44"/>
-      <c r="J35" s="80" t="e">
+      <c r="J35" s="79" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -2663,9 +2578,9 @@
       <c r="Q35" s="51"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="95"/>
-      <c r="B36" s="94"/>
-      <c r="C36" s="87"/>
+      <c r="A36" s="94"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="127"/>
       <c r="D36" s="47" t="s">
         <v>23</v>
       </c>
@@ -2687,7 +2602,7 @@
       <c r="Q36" s="51"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C37" s="78"/>
+      <c r="C37" s="128"/>
       <c r="D37" s="51"/>
       <c r="E37" s="51"/>
       <c r="F37" s="51"/>
@@ -2777,46 +2692,46 @@
       <c r="T41" s="51"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="117" t="s">
+      <c r="A42" s="94" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="90" t="s">
-        <v>65</v>
-      </c>
-      <c r="D42" s="90" t="s">
+      <c r="C42" s="96" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="90" t="s">
+      <c r="E42" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="90"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="90" t="s">
+      <c r="F42" s="96"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="96"/>
+      <c r="J42" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="K42" s="90"/>
-      <c r="L42" s="90"/>
-      <c r="M42" s="90"/>
-      <c r="N42" s="90"/>
-      <c r="O42" s="90" t="s">
+      <c r="K42" s="96"/>
+      <c r="L42" s="96"/>
+      <c r="M42" s="96"/>
+      <c r="N42" s="96"/>
+      <c r="O42" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="P42" s="90"/>
-      <c r="Q42" s="90"/>
-      <c r="R42" s="90"/>
-      <c r="S42" s="90"/>
+      <c r="P42" s="96"/>
+      <c r="Q42" s="96"/>
+      <c r="R42" s="96"/>
+      <c r="S42" s="96"/>
       <c r="T42" s="51"/>
     </row>
     <row r="43" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="96"/>
-      <c r="B43" s="118"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="93"/>
+      <c r="A43" s="98"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="102"/>
+      <c r="D43" s="102"/>
       <c r="E43" s="43" t="s">
         <v>35</v>
       </c>
@@ -2865,12 +2780,12 @@
       <c r="T43" s="51"/>
     </row>
     <row r="44" spans="1:20" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="84"/>
-      <c r="C44" s="89" t="s">
-        <v>61</v>
+      <c r="A44" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="83"/>
+      <c r="C44" s="95" t="s">
+        <v>50</v>
       </c>
       <c r="D44" s="46" t="s">
         <v>25</v>
@@ -2926,11 +2841,11 @@
       <c r="T44" s="51"/>
     </row>
     <row r="45" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="95"/>
-      <c r="B45" s="85"/>
-      <c r="C45" s="90"/>
+      <c r="A45" s="94"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="96"/>
       <c r="D45" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E45" s="59" t="e">
         <f t="shared" si="4"/>
@@ -2959,126 +2874,78 @@
       <c r="T45" s="51"/>
     </row>
     <row r="46" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="95"/>
-      <c r="B46" s="117" t="s">
+      <c r="A46" s="94"/>
+      <c r="B46" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="90"/>
+      <c r="C46" s="96"/>
       <c r="D46" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="E46" s="80">
+        <v>39</v>
+      </c>
+      <c r="E46" s="79" t="e">
         <f t="shared" si="4"/>
-        <v>-0.15585000000000002</v>
-      </c>
-      <c r="F46" s="48">
-        <v>-0.11269999999999999</v>
-      </c>
-      <c r="G46" s="48">
-        <v>-9.0499999999999997E-2</v>
-      </c>
-      <c r="H46" s="48">
-        <v>-0.24610000000000001</v>
-      </c>
-      <c r="I46" s="44">
-        <v>-0.1741</v>
-      </c>
-      <c r="J46" s="80">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="79" t="e">
         <f t="shared" si="5"/>
-        <v>-0.234375</v>
-      </c>
-      <c r="K46" s="48">
-        <v>-6.1800000000000001E-2</v>
-      </c>
-      <c r="L46" s="48">
-        <v>-0.23980000000000001</v>
-      </c>
-      <c r="M46" s="48">
-        <v>-0.30259999999999998</v>
-      </c>
-      <c r="N46" s="44">
-        <v>-0.33329999999999999</v>
-      </c>
-      <c r="O46" s="80">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K46" s="48"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="44"/>
+      <c r="O46" s="79" t="e">
         <f t="shared" si="6"/>
-        <v>-0.14005000000000001</v>
-      </c>
-      <c r="P46" s="48">
-        <v>-9.8299999999999998E-2</v>
-      </c>
-      <c r="Q46" s="48">
-        <v>-0.1069</v>
-      </c>
-      <c r="R46" s="48">
-        <v>-0.23960000000000001</v>
-      </c>
-      <c r="S46" s="44">
-        <v>-0.1154</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P46" s="48"/>
+      <c r="Q46" s="48"/>
+      <c r="R46" s="48"/>
+      <c r="S46" s="44"/>
       <c r="T46" s="51"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="95"/>
-      <c r="B47" s="111"/>
-      <c r="C47" s="90"/>
+      <c r="A47" s="94"/>
+      <c r="B47" s="92"/>
+      <c r="C47" s="96"/>
       <c r="D47" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="75">
+      <c r="E47" s="75" t="e">
         <f t="shared" si="4"/>
-        <v>-0.28839999999999999</v>
-      </c>
-      <c r="F47" s="61">
-        <v>-0.58860000000000001</v>
-      </c>
-      <c r="G47" s="61">
-        <v>-9.7199999999999995E-2</v>
-      </c>
-      <c r="H47" s="61">
-        <v>-0.26340000000000002</v>
-      </c>
-      <c r="I47" s="45">
-        <v>-0.2044</v>
-      </c>
-      <c r="J47" s="75">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="75" t="e">
         <f t="shared" si="5"/>
-        <v>-0.33502500000000002</v>
-      </c>
-      <c r="K47" s="61">
-        <v>-0.51270000000000004</v>
-      </c>
-      <c r="L47" s="61">
-        <v>-0.13089999999999999</v>
-      </c>
-      <c r="M47" s="61">
-        <v>-0.30259999999999998</v>
-      </c>
-      <c r="N47" s="45">
-        <v>-0.39389999999999997</v>
-      </c>
-      <c r="O47" s="75">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K47" s="61"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="75" t="e">
         <f t="shared" si="6"/>
-        <v>-0.28142500000000004</v>
-      </c>
-      <c r="P47" s="61">
-        <v>-0.61570000000000003</v>
-      </c>
-      <c r="Q47" s="61">
-        <v>-0.115</v>
-      </c>
-      <c r="R47" s="61">
-        <v>-0.26040000000000002</v>
-      </c>
-      <c r="S47" s="45">
-        <v>-0.1346</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P47" s="61"/>
+      <c r="Q47" s="61"/>
+      <c r="R47" s="61"/>
+      <c r="S47" s="45"/>
       <c r="T47" s="51"/>
     </row>
     <row r="48" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="95"/>
-      <c r="B48" s="111"/>
-      <c r="C48" s="87" t="s">
-        <v>62</v>
+      <c r="A48" s="94"/>
+      <c r="B48" s="92"/>
+      <c r="C48" s="97" t="s">
+        <v>51</v>
       </c>
       <c r="D48" s="47" t="s">
         <v>25</v>
@@ -3110,11 +2977,11 @@
       <c r="T48" s="51"/>
     </row>
     <row r="49" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="95"/>
-      <c r="B49" s="111"/>
-      <c r="C49" s="87"/>
+      <c r="A49" s="94"/>
+      <c r="B49" s="92"/>
+      <c r="C49" s="97"/>
       <c r="D49" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E49" s="75" t="e">
         <f t="shared" si="4"/>
@@ -3143,124 +3010,76 @@
       <c r="T49" s="51"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="95"/>
-      <c r="B50" s="111"/>
-      <c r="C50" s="87"/>
+      <c r="A50" s="94"/>
+      <c r="B50" s="92"/>
+      <c r="C50" s="97"/>
       <c r="D50" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="E50" s="69">
+        <v>39</v>
+      </c>
+      <c r="E50" s="69" t="e">
         <f t="shared" si="4"/>
-        <v>-5.4249999999999923E-3</v>
-      </c>
-      <c r="F50" s="70">
-        <v>0.1123</v>
-      </c>
-      <c r="G50" s="70">
-        <v>0.1507</v>
-      </c>
-      <c r="H50" s="70">
-        <v>-8.0299999999999996E-2</v>
-      </c>
-      <c r="I50" s="71">
-        <v>-0.2044</v>
-      </c>
-      <c r="J50" s="69">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F50" s="70"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="71"/>
+      <c r="J50" s="69" t="e">
         <f t="shared" si="5"/>
-        <v>-0.105625</v>
-      </c>
-      <c r="K50" s="70">
-        <v>-0.14710000000000001</v>
-      </c>
-      <c r="L50" s="70">
-        <v>8.7800000000000003E-2</v>
-      </c>
-      <c r="M50" s="70">
-        <v>3.0700000000000002E-2</v>
-      </c>
-      <c r="N50" s="71">
-        <v>-0.39389999999999997</v>
-      </c>
-      <c r="O50" s="120">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K50" s="70"/>
+      <c r="L50" s="70"/>
+      <c r="M50" s="70"/>
+      <c r="N50" s="71"/>
+      <c r="O50" s="88" t="e">
         <f t="shared" si="6"/>
-        <v>-1.5249999999999986E-3</v>
-      </c>
-      <c r="P50" s="48">
-        <v>0.1095</v>
-      </c>
-      <c r="Q50" s="48">
-        <v>0.1336</v>
-      </c>
-      <c r="R50" s="48">
-        <v>-0.11459999999999999</v>
-      </c>
-      <c r="S50" s="44">
-        <v>-0.1346</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P50" s="48"/>
+      <c r="Q50" s="48"/>
+      <c r="R50" s="48"/>
+      <c r="S50" s="44"/>
       <c r="T50" s="51"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="95"/>
-      <c r="B51" s="111"/>
-      <c r="C51" s="87"/>
+      <c r="A51" s="94"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="97"/>
       <c r="D51" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E51" s="64">
+      <c r="E51" s="64" t="e">
         <f t="shared" si="4"/>
-        <v>-3.8700000000000005E-2</v>
-      </c>
-      <c r="F51" s="65">
-        <v>0.13750000000000001</v>
-      </c>
-      <c r="G51" s="65">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="H51" s="65">
-        <v>-0.18990000000000001</v>
-      </c>
-      <c r="I51" s="66">
-        <v>-0.2044</v>
-      </c>
-      <c r="J51" s="64">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="66"/>
+      <c r="J51" s="64" t="e">
         <f t="shared" si="5"/>
-        <v>-0.15884999999999999</v>
-      </c>
-      <c r="K51" s="65">
-        <v>3.2399999999999998E-2</v>
-      </c>
-      <c r="L51" s="65">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="M51" s="65">
-        <v>-0.27629999999999999</v>
-      </c>
-      <c r="N51" s="66">
-        <v>-0.39389999999999997</v>
-      </c>
-      <c r="O51" s="75">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K51" s="65"/>
+      <c r="L51" s="65"/>
+      <c r="M51" s="65"/>
+      <c r="N51" s="66"/>
+      <c r="O51" s="75" t="e">
         <f t="shared" si="6"/>
-        <v>-2.4125000000000001E-2</v>
-      </c>
-      <c r="P51" s="61">
-        <v>0.12989999999999999</v>
-      </c>
-      <c r="Q51" s="61">
-        <v>8.5300000000000001E-2</v>
-      </c>
-      <c r="R51" s="61">
-        <v>-0.17710000000000001</v>
-      </c>
-      <c r="S51" s="45">
-        <v>-0.1346</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P51" s="61"/>
+      <c r="Q51" s="61"/>
+      <c r="R51" s="61"/>
+      <c r="S51" s="45"/>
       <c r="T51" s="51"/>
     </row>
     <row r="52" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="95"/>
-      <c r="B52" s="111"/>
-      <c r="C52" s="87" t="s">
-        <v>63</v>
+      <c r="A52" s="94"/>
+      <c r="B52" s="92"/>
+      <c r="C52" s="97" t="s">
+        <v>52</v>
       </c>
       <c r="D52" s="47" t="s">
         <v>25</v>
@@ -3292,11 +3111,11 @@
       <c r="T52" s="51"/>
     </row>
     <row r="53" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="95"/>
-      <c r="B53" s="111"/>
-      <c r="C53" s="87"/>
+      <c r="A53" s="94"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="97"/>
       <c r="D53" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E53" s="75" t="e">
         <f t="shared" si="4"/>
@@ -3325,13 +3144,13 @@
       <c r="T53" s="51"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="95"/>
-      <c r="B54" s="111"/>
-      <c r="C54" s="87"/>
+      <c r="A54" s="94"/>
+      <c r="B54" s="92"/>
+      <c r="C54" s="97"/>
       <c r="D54" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="E54" s="80" t="e">
+        <v>39</v>
+      </c>
+      <c r="E54" s="79" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3339,7 +3158,7 @@
       <c r="G54" s="48"/>
       <c r="H54" s="48"/>
       <c r="I54" s="44"/>
-      <c r="J54" s="80" t="e">
+      <c r="J54" s="79" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -3347,7 +3166,7 @@
       <c r="L54" s="48"/>
       <c r="M54" s="48"/>
       <c r="N54" s="44"/>
-      <c r="O54" s="80" t="e">
+      <c r="O54" s="79" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -3358,9 +3177,9 @@
       <c r="T54" s="51"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="95"/>
-      <c r="B55" s="111"/>
-      <c r="C55" s="87"/>
+      <c r="A55" s="94"/>
+      <c r="B55" s="92"/>
+      <c r="C55" s="97"/>
       <c r="D55" s="47" t="s">
         <v>23</v>
       </c>
@@ -3391,10 +3210,10 @@
       <c r="T55" s="51"/>
     </row>
     <row r="56" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="95"/>
-      <c r="B56" s="111"/>
-      <c r="C56" s="87" t="s">
-        <v>64</v>
+      <c r="A56" s="94"/>
+      <c r="B56" s="92"/>
+      <c r="C56" s="97" t="s">
+        <v>53</v>
       </c>
       <c r="D56" s="47" t="s">
         <v>25</v>
@@ -3426,11 +3245,11 @@
       <c r="T56" s="51"/>
     </row>
     <row r="57" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="95"/>
-      <c r="B57" s="111"/>
-      <c r="C57" s="87"/>
+      <c r="A57" s="94"/>
+      <c r="B57" s="92"/>
+      <c r="C57" s="97"/>
       <c r="D57" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E57" s="75" t="e">
         <f t="shared" si="4"/>
@@ -3459,11 +3278,11 @@
       <c r="T57" s="51"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="95"/>
-      <c r="B58" s="111"/>
-      <c r="C58" s="87"/>
+      <c r="A58" s="94"/>
+      <c r="B58" s="92"/>
+      <c r="C58" s="97"/>
       <c r="D58" s="47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E58" s="69" t="e">
         <f t="shared" si="4"/>
@@ -3492,9 +3311,9 @@
       <c r="T58" s="51"/>
     </row>
     <row r="59" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="96"/>
-      <c r="B59" s="118"/>
-      <c r="C59" s="88"/>
+      <c r="A59" s="98"/>
+      <c r="B59" s="91"/>
+      <c r="C59" s="99"/>
       <c r="D59" s="43" t="s">
         <v>23</v>
       </c>
@@ -3525,12 +3344,12 @@
       <c r="T59" s="51"/>
     </row>
     <row r="60" spans="1:20" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="94" t="s">
+      <c r="A60" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="B60" s="84"/>
-      <c r="C60" s="89" t="s">
-        <v>39</v>
+      <c r="B60" s="83"/>
+      <c r="C60" s="95" t="s">
+        <v>50</v>
       </c>
       <c r="D60" s="46" t="s">
         <v>25</v>
@@ -3551,7 +3370,7 @@
       <c r="L60" s="57"/>
       <c r="M60" s="57"/>
       <c r="N60" s="53"/>
-      <c r="O60" s="83" t="e">
+      <c r="O60" s="82" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -3562,11 +3381,11 @@
       <c r="T60" s="51"/>
     </row>
     <row r="61" spans="1:20" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="95"/>
-      <c r="B61" s="85"/>
-      <c r="C61" s="90"/>
+      <c r="A61" s="94"/>
+      <c r="B61" s="84"/>
+      <c r="C61" s="96"/>
       <c r="D61" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E61" s="75" t="e">
         <f t="shared" si="4"/>
@@ -3576,7 +3395,7 @@
       <c r="G61" s="48"/>
       <c r="H61" s="48"/>
       <c r="I61" s="44"/>
-      <c r="J61" s="80" t="e">
+      <c r="J61" s="79" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -3595,126 +3414,126 @@
       <c r="T61" s="51"/>
     </row>
     <row r="62" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="95"/>
-      <c r="B62" s="117" t="s">
+      <c r="A62" s="94"/>
+      <c r="B62" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="90"/>
+      <c r="C62" s="96"/>
       <c r="D62" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="E62" s="80">
+        <v>39</v>
+      </c>
+      <c r="E62" s="79">
         <f t="shared" si="4"/>
-        <v>-0.1154</v>
+        <v>-8.0100000000000005E-2</v>
       </c>
       <c r="F62" s="48">
-        <v>-0.15770000000000001</v>
+        <v>-5.11E-2</v>
       </c>
       <c r="G62" s="48">
-        <v>-3.95E-2</v>
+        <v>-0.11890000000000001</v>
       </c>
       <c r="H62" s="48">
-        <v>-0.1056</v>
+        <v>-5.3699999999999998E-2</v>
       </c>
       <c r="I62" s="44">
-        <v>-0.1588</v>
-      </c>
-      <c r="J62" s="81">
+        <v>-9.6699999999999994E-2</v>
+      </c>
+      <c r="J62" s="80">
         <f t="shared" si="5"/>
-        <v>-0.148475</v>
+        <v>-0.11579999999999999</v>
       </c>
       <c r="K62" s="48">
-        <v>-0.23100000000000001</v>
+        <v>-6.5799999999999997E-2</v>
       </c>
       <c r="L62" s="48">
-        <v>-2.5600000000000001E-2</v>
+        <v>-0.19389999999999999</v>
       </c>
       <c r="M62" s="48">
-        <v>-0.14480000000000001</v>
+        <v>-7.4700000000000003E-2</v>
       </c>
       <c r="N62" s="44">
-        <v>-0.1925</v>
-      </c>
-      <c r="O62" s="80">
+        <v>-0.1288</v>
+      </c>
+      <c r="O62" s="79">
         <f t="shared" si="6"/>
-        <v>-0.13905000000000001</v>
-      </c>
-      <c r="P62" s="48">
-        <v>-0.17150000000000001</v>
-      </c>
-      <c r="Q62" s="48">
-        <v>-9.7100000000000006E-2</v>
-      </c>
-      <c r="R62" s="48">
-        <v>-0.1124</v>
-      </c>
-      <c r="S62" s="44">
-        <v>-0.17519999999999999</v>
+        <v>-8.4425E-2</v>
+      </c>
+      <c r="P62" s="121">
+        <v>-6.7599999999999993E-2</v>
+      </c>
+      <c r="Q62" s="121">
+        <v>-0.1047</v>
+      </c>
+      <c r="R62" s="121">
+        <v>-6.4699999999999994E-2</v>
+      </c>
+      <c r="S62" s="122">
+        <v>-0.1007</v>
       </c>
       <c r="T62" s="51"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="95"/>
-      <c r="B63" s="111"/>
-      <c r="C63" s="90"/>
+      <c r="A63" s="94"/>
+      <c r="B63" s="92"/>
+      <c r="C63" s="96"/>
       <c r="D63" s="47" t="s">
         <v>23</v>
       </c>
       <c r="E63" s="75">
         <f t="shared" si="4"/>
-        <v>-0.10504999999999999</v>
+        <v>-3.3375000000000002E-2</v>
       </c>
       <c r="F63" s="61">
-        <v>-0.17849999999999999</v>
+        <v>4.5900000000000003E-2</v>
       </c>
       <c r="G63" s="61">
-        <v>-2.92E-2</v>
+        <v>-0.1084</v>
       </c>
       <c r="H63" s="61">
-        <v>-0.11409999999999999</v>
+        <v>-2.8500000000000001E-2</v>
       </c>
       <c r="I63" s="45">
-        <v>-9.8400000000000001E-2</v>
+        <v>-4.2500000000000003E-2</v>
       </c>
       <c r="J63" s="75">
         <f t="shared" si="5"/>
-        <v>-0.12695000000000001</v>
+        <v>-3.4174999999999997E-2</v>
       </c>
       <c r="K63" s="61">
-        <v>-0.2482</v>
+        <v>0.11219999999999999</v>
       </c>
       <c r="L63" s="61">
-        <v>1.54E-2</v>
+        <v>-0.16259999999999999</v>
       </c>
       <c r="M63" s="61">
-        <v>-0.1542</v>
+        <v>-2.76E-2</v>
       </c>
       <c r="N63" s="45">
-        <v>-0.1208</v>
+        <v>-5.8700000000000002E-2</v>
       </c>
       <c r="O63" s="75">
         <f t="shared" si="6"/>
-        <v>-0.14044999999999999</v>
-      </c>
-      <c r="P63" s="61">
-        <v>-0.20369999999999999</v>
-      </c>
-      <c r="Q63" s="61">
-        <v>-0.121</v>
-      </c>
-      <c r="R63" s="61">
-        <v>-0.1206</v>
-      </c>
-      <c r="S63" s="45">
-        <v>-0.11650000000000001</v>
+        <v>-5.8649999999999994E-2</v>
+      </c>
+      <c r="P63" s="58">
+        <v>-1.6799999999999999E-2</v>
+      </c>
+      <c r="Q63" s="58">
+        <v>-0.11459999999999999</v>
+      </c>
+      <c r="R63" s="58">
+        <v>-5.3699999999999998E-2</v>
+      </c>
+      <c r="S63" s="56">
+        <v>-4.9500000000000002E-2</v>
       </c>
       <c r="T63" s="51"/>
     </row>
     <row r="64" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="95"/>
-      <c r="B64" s="111"/>
-      <c r="C64" s="87" t="s">
-        <v>42</v>
+      <c r="A64" s="94"/>
+      <c r="B64" s="92"/>
+      <c r="C64" s="97" t="s">
+        <v>51</v>
       </c>
       <c r="D64" s="47" t="s">
         <v>25</v>
@@ -3739,18 +3558,18 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P64" s="60"/>
-      <c r="Q64" s="60"/>
-      <c r="R64" s="60"/>
-      <c r="S64" s="55"/>
+      <c r="P64" s="123"/>
+      <c r="Q64" s="123"/>
+      <c r="R64" s="123"/>
+      <c r="S64" s="124"/>
       <c r="T64" s="51"/>
     </row>
     <row r="65" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="95"/>
-      <c r="B65" s="111"/>
-      <c r="C65" s="87"/>
+      <c r="A65" s="94"/>
+      <c r="B65" s="92"/>
+      <c r="C65" s="97"/>
       <c r="D65" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E65" s="75" t="e">
         <f t="shared" si="4"/>
@@ -3772,131 +3591,131 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P65" s="48"/>
-      <c r="Q65" s="48"/>
-      <c r="R65" s="48"/>
-      <c r="S65" s="44"/>
+      <c r="P65" s="121"/>
+      <c r="Q65" s="121"/>
+      <c r="R65" s="121"/>
+      <c r="S65" s="122"/>
       <c r="T65" s="51"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66" s="95"/>
-      <c r="B66" s="111"/>
-      <c r="C66" s="87"/>
+      <c r="A66" s="94"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="97"/>
       <c r="D66" s="47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E66" s="69">
         <f t="shared" si="4"/>
-        <v>6.9499999999999996E-3</v>
+        <v>5.6017499999999998E-2</v>
       </c>
       <c r="F66" s="70">
-        <v>1.1000000000000001E-3</v>
+        <v>9.0770000000000003E-2</v>
       </c>
       <c r="G66" s="70">
-        <v>4.7000000000000002E-3</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="H66" s="70">
-        <v>1.84E-2</v>
+        <v>9.9199999999999997E-2</v>
       </c>
       <c r="I66" s="71">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="J66" s="82">
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="J66" s="81">
         <f t="shared" si="5"/>
-        <v>2.3175000000000001E-2</v>
+        <v>0.11729999999999999</v>
       </c>
       <c r="K66" s="70">
-        <v>7.7999999999999996E-3</v>
+        <v>0.19689999999999999</v>
       </c>
       <c r="L66" s="70">
-        <v>3.4599999999999999E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="M66" s="70">
-        <v>3.1699999999999999E-2</v>
+        <v>0.20369999999999999</v>
       </c>
       <c r="N66" s="71">
-        <v>1.8599999999999998E-2</v>
-      </c>
-      <c r="O66" s="80">
+        <v>4.4600000000000001E-2</v>
+      </c>
+      <c r="O66" s="79">
         <f t="shared" si="6"/>
-        <v>-1.9599999999999999E-2</v>
-      </c>
-      <c r="P66" s="48">
-        <v>-1.3899999999999999E-2</v>
-      </c>
-      <c r="Q66" s="48">
-        <v>-1.9800000000000002E-2</v>
-      </c>
-      <c r="R66" s="48">
-        <v>-2.3199999999999998E-2</v>
-      </c>
-      <c r="S66" s="44">
-        <v>-2.1499999999999998E-2</v>
+        <v>-1.37E-2</v>
+      </c>
+      <c r="P66" s="121">
+        <v>1.52E-2</v>
+      </c>
+      <c r="Q66" s="121">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="R66" s="121">
+        <v>-2.2200000000000001E-2</v>
+      </c>
+      <c r="S66" s="122">
+        <v>-2.98E-2</v>
       </c>
       <c r="T66" s="51"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="95"/>
-      <c r="B67" s="111"/>
-      <c r="C67" s="87"/>
+      <c r="A67" s="94"/>
+      <c r="B67" s="92"/>
+      <c r="C67" s="97"/>
       <c r="D67" s="47" t="s">
         <v>23</v>
       </c>
       <c r="E67" s="64">
         <f t="shared" si="4"/>
-        <v>1.8250000000000002E-3</v>
+        <v>-3.8500000000000001E-3</v>
       </c>
       <c r="F67" s="65">
-        <v>1.1000000000000001E-3</v>
+        <v>-5.3E-3</v>
       </c>
       <c r="G67" s="65">
-        <v>1.3100000000000001E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="H67" s="65">
-        <v>-1.55E-2</v>
+        <v>-4.1200000000000001E-2</v>
       </c>
       <c r="I67" s="66">
-        <v>8.6E-3</v>
+        <v>-5.8999999999999999E-3</v>
       </c>
       <c r="J67" s="64">
         <f t="shared" si="5"/>
-        <v>1.5175000000000001E-2</v>
+        <v>-3.0750000000000005E-3</v>
       </c>
       <c r="K67" s="65">
-        <v>7.7999999999999996E-3</v>
+        <v>-5.0000000000000001E-4</v>
       </c>
       <c r="L67" s="65">
-        <v>5.1299999999999998E-2</v>
+        <v>8.1699999999999995E-2</v>
       </c>
       <c r="M67" s="65">
-        <v>-2.7E-2</v>
+        <v>-0.09</v>
       </c>
       <c r="N67" s="66">
-        <v>2.86E-2</v>
-      </c>
-      <c r="O67" s="116">
+        <v>-3.5000000000000001E-3</v>
+      </c>
+      <c r="O67" s="86">
         <f t="shared" si="6"/>
-        <v>-1.8275E-2</v>
-      </c>
-      <c r="P67" s="61">
-        <v>-1.3899999999999999E-2</v>
-      </c>
-      <c r="Q67" s="61">
-        <v>-1.72E-2</v>
-      </c>
-      <c r="R67" s="61">
-        <v>-2.1600000000000001E-2</v>
-      </c>
-      <c r="S67" s="45">
-        <v>-2.0400000000000001E-2</v>
+        <v>-8.9750000000000003E-3</v>
+      </c>
+      <c r="P67" s="125">
+        <v>-1.21E-2</v>
+      </c>
+      <c r="Q67" s="125">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="R67" s="125">
+        <v>-1.5100000000000001E-2</v>
+      </c>
+      <c r="S67" s="126">
+        <v>-1.6199999999999999E-2</v>
       </c>
       <c r="T67" s="51"/>
     </row>
     <row r="68" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="95"/>
-      <c r="B68" s="111"/>
-      <c r="C68" s="87" t="s">
-        <v>43</v>
+      <c r="A68" s="94"/>
+      <c r="B68" s="92"/>
+      <c r="C68" s="97" t="s">
+        <v>52</v>
       </c>
       <c r="D68" s="47" t="s">
         <v>25</v>
@@ -3928,11 +3747,11 @@
       <c r="T68" s="51"/>
     </row>
     <row r="69" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="95"/>
-      <c r="B69" s="111"/>
-      <c r="C69" s="87"/>
+      <c r="A69" s="94"/>
+      <c r="B69" s="92"/>
+      <c r="C69" s="97"/>
       <c r="D69" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E69" s="75" t="e">
         <f t="shared" si="4"/>
@@ -3961,13 +3780,13 @@
       <c r="T69" s="51"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70" s="95"/>
-      <c r="B70" s="111"/>
-      <c r="C70" s="87"/>
+      <c r="A70" s="94"/>
+      <c r="B70" s="92"/>
+      <c r="C70" s="97"/>
       <c r="D70" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="E70" s="80" t="e">
+        <v>39</v>
+      </c>
+      <c r="E70" s="79" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3975,7 +3794,7 @@
       <c r="G70" s="48"/>
       <c r="H70" s="48"/>
       <c r="I70" s="44"/>
-      <c r="J70" s="79" t="e">
+      <c r="J70" s="78" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -3983,7 +3802,7 @@
       <c r="L70" s="48"/>
       <c r="M70" s="48"/>
       <c r="N70" s="44"/>
-      <c r="O70" s="80" t="e">
+      <c r="O70" s="79" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -3994,9 +3813,9 @@
       <c r="T70" s="51"/>
     </row>
     <row r="71" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="95"/>
-      <c r="B71" s="111"/>
-      <c r="C71" s="87"/>
+      <c r="A71" s="94"/>
+      <c r="B71" s="92"/>
+      <c r="C71" s="97"/>
       <c r="D71" s="47" t="s">
         <v>23</v>
       </c>
@@ -4027,10 +3846,10 @@
       <c r="T71" s="51"/>
     </row>
     <row r="72" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="95"/>
-      <c r="B72" s="111"/>
-      <c r="C72" s="87" t="s">
-        <v>55</v>
+      <c r="A72" s="94"/>
+      <c r="B72" s="92"/>
+      <c r="C72" s="97" t="s">
+        <v>53</v>
       </c>
       <c r="D72" s="47" t="s">
         <v>25</v>
@@ -4062,11 +3881,11 @@
       <c r="T72" s="51"/>
     </row>
     <row r="73" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="95"/>
-      <c r="B73" s="111"/>
-      <c r="C73" s="87"/>
+      <c r="A73" s="94"/>
+      <c r="B73" s="92"/>
+      <c r="C73" s="97"/>
       <c r="D73" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E73" s="75" t="e">
         <f t="shared" si="4"/>
@@ -4095,11 +3914,11 @@
       <c r="T73" s="51"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" s="95"/>
-      <c r="B74" s="111"/>
-      <c r="C74" s="87"/>
+      <c r="A74" s="94"/>
+      <c r="B74" s="92"/>
+      <c r="C74" s="97"/>
       <c r="D74" s="50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E74" s="69" t="e">
         <f t="shared" si="4"/>
@@ -4128,9 +3947,9 @@
       <c r="T74" s="51"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A75" s="95"/>
-      <c r="B75" s="94"/>
-      <c r="C75" s="87"/>
+      <c r="A75" s="94"/>
+      <c r="B75" s="93"/>
+      <c r="C75" s="127"/>
       <c r="D75" s="47" t="s">
         <v>23</v>
       </c>
@@ -4161,6 +3980,7 @@
       <c r="T75" s="51"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C76" s="129"/>
       <c r="D76" s="51"/>
       <c r="E76" s="51"/>
       <c r="F76" s="51"/>
@@ -4354,22 +4174,14 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B46:B59"/>
-    <mergeCell ref="B62:B75"/>
-    <mergeCell ref="A60:A75"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A20"/>
-    <mergeCell ref="A21:A36"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A59"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="C33:C36"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B7:B20"/>
     <mergeCell ref="B23:B36"/>
@@ -4385,14 +4197,22 @@
     <mergeCell ref="J3:N3"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="D42:D43"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A20"/>
+    <mergeCell ref="A21:A36"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A59"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B46:B59"/>
+    <mergeCell ref="B62:B75"/>
+    <mergeCell ref="A60:A75"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C72:C75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -4438,31 +4258,31 @@
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="111" t="s">
+      <c r="E2" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="111" t="s">
+      <c r="F2" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="105" t="s">
+      <c r="G2" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="112" t="s">
+      <c r="H2" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="105" t="s">
+      <c r="I2" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="113" t="s">
+      <c r="J2" s="115" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="5"/>
@@ -4471,21 +4291,21 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="114"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="116"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="O3" s="19"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="104" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="35" t="s">
@@ -4504,23 +4324,23 @@
         <v>19</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I4" s="10">
         <v>64</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="O4" s="19"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="98"/>
+      <c r="A5" s="105"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -4536,24 +4356,24 @@
       <c r="F5" s="3">
         <v>0.5</v>
       </c>
-      <c r="G5" s="84" t="s">
-        <v>48</v>
+      <c r="G5" s="83" t="s">
+        <v>45</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="84">
+        <v>46</v>
+      </c>
+      <c r="I5" s="83">
         <v>64</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="O5" s="19"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="98"/>
+      <c r="A6" s="105"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -4586,7 +4406,7 @@
       <c r="O6" s="19"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="98"/>
+      <c r="A7" s="105"/>
       <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
@@ -4619,7 +4439,7 @@
       <c r="O7" s="19"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="99"/>
+      <c r="A8" s="106"/>
       <c r="B8" s="18" t="s">
         <v>16</v>
       </c>
@@ -4652,7 +4472,7 @@
       <c r="O8" s="19"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="117" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -4679,7 +4499,7 @@
       <c r="O9" s="19"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="98"/>
+      <c r="A10" s="105"/>
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
@@ -4705,7 +4525,7 @@
       <c r="O10" s="19"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="98"/>
+      <c r="A11" s="105"/>
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
@@ -4739,7 +4559,7 @@
       <c r="O11" s="19"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="98"/>
+      <c r="A12" s="105"/>
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
@@ -4773,7 +4593,7 @@
       <c r="O12" s="19"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="99"/>
+      <c r="A13" s="106"/>
       <c r="B13" s="12" t="s">
         <v>16</v>
       </c>
@@ -4835,34 +4655,34 @@
     </row>
     <row r="17" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
-      <c r="B17" s="103" t="s">
+      <c r="B17" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="105" t="s">
+      <c r="C17" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="105" t="s">
+      <c r="D17" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="105" t="s">
+      <c r="E17" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="105" t="s">
+      <c r="F17" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="105" t="s">
+      <c r="G17" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="101" t="s">
+      <c r="H17" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="105" t="s">
+      <c r="I17" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="105" t="s">
+      <c r="J17" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="107" t="s">
+      <c r="K17" s="109" t="s">
         <v>10</v>
       </c>
       <c r="L17" s="21"/>
@@ -4870,20 +4690,20 @@
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
-      <c r="B18" s="104"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="108"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="110"/>
       <c r="L18" s="21"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="97" t="s">
+      <c r="A19" s="104" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="36" t="s">
@@ -4902,23 +4722,23 @@
         <v>19</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H19" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="I19" s="84">
+        <v>48</v>
+      </c>
+      <c r="I19" s="83">
         <v>64</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K19" s="41">
         <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="98"/>
+      <c r="A20" s="105"/>
       <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
@@ -4942,7 +4762,7 @@
       <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="98"/>
+      <c r="A21" s="105"/>
       <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
@@ -4976,7 +4796,7 @@
       <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="98"/>
+      <c r="A22" s="105"/>
       <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
@@ -5009,7 +4829,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="99"/>
+      <c r="A23" s="106"/>
       <c r="B23" s="13" t="s">
         <v>34</v>
       </c>
@@ -5042,7 +4862,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="97" t="s">
+      <c r="A24" s="104" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="36" t="s">
@@ -5061,23 +4881,23 @@
         <v>19</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H24" s="32" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I24" s="34">
         <v>64</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K24" s="41">
         <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="98"/>
+      <c r="A25" s="105"/>
       <c r="B25" s="2" t="s">
         <v>32</v>
       </c>
@@ -5100,7 +4920,7 @@
       <c r="K25" s="40"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="98"/>
+      <c r="A26" s="105"/>
       <c r="B26" s="2" t="s">
         <v>15</v>
       </c>
@@ -5133,7 +4953,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="98"/>
+      <c r="A27" s="105"/>
       <c r="B27" s="2" t="s">
         <v>33</v>
       </c>
@@ -5166,7 +4986,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="99"/>
+      <c r="A28" s="106"/>
       <c r="B28" s="13" t="s">
         <v>34</v>
       </c>
@@ -5213,11 +5033,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -5230,12 +5051,11 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="J17:J18"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="I17:I18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/experiments/all_results.xlsx
+++ b/experiments/all_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ancarey\PycharmProjects\adaptive-hypernets\experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alycia\Documents\adaptive-hypernets\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F9CA8F-1DCA-4FDD-A605-D975A3143033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41564878-4B87-4FBC-965E-ADCC30F4B8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="665" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
+    <workbookView xWindow="5628" yWindow="5376" windowWidth="17280" windowHeight="8964" tabRatio="665" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
   </bookViews>
   <sheets>
     <sheet name="compas-comparison table" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="64">
   <si>
     <t>Model</t>
   </si>
@@ -213,6 +213,21 @@
   </si>
   <si>
     <t>4 min 36 sec</t>
+  </si>
+  <si>
+    <t>4 min 50 sec</t>
+  </si>
+  <si>
+    <t>6 min 23 seec</t>
+  </si>
+  <si>
+    <t>h: 1e-3, c: 1e-2</t>
+  </si>
+  <si>
+    <t>1e-6, 1e-7</t>
+  </si>
+  <si>
+    <t>2 min 45 sec</t>
   </si>
 </sst>
 </file>
@@ -840,7 +855,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1107,46 +1122,76 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1156,6 +1201,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1179,53 +1239,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1543,27 +1570,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FA34C5-480C-4D1A-AC66-54DFEF26762F}">
   <dimension ref="A1:T109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="T43" sqref="T43"/>
+    <sheetView tabSelected="1" topLeftCell="K38" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="P74" sqref="P74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="38"/>
+    <col min="1" max="2" width="9.109375" style="38"/>
     <col min="3" max="3" width="25" style="37" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="14" width="8.7109375" style="38" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.7109375" style="38" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" style="38" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="38"/>
+    <col min="4" max="4" width="14.5546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="8.6640625" style="38" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.6640625" style="38" customWidth="1"/>
+    <col min="18" max="18" width="10.5546875" style="38" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C1" s="103" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C1" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="103"/>
+      <c r="D1" s="99"/>
       <c r="E1" s="48"/>
       <c r="F1" s="48"/>
       <c r="G1" s="48"/>
@@ -1579,7 +1606,7 @@
       <c r="Q1" s="48"/>
       <c r="R1" s="39"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C2" s="77"/>
       <c r="D2" s="48"/>
       <c r="E2" s="48"/>
@@ -1597,34 +1624,34 @@
       <c r="Q2" s="49"/>
       <c r="R2" s="39"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="94" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="96" t="s">
+      <c r="D3" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="96" t="s">
+      <c r="E3" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96" t="s">
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="100" t="s">
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="110" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="48"/>
@@ -1632,11 +1659,11 @@
       <c r="R3" s="39"/>
       <c r="S3" s="39"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="98"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="113"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
       <c r="E4" s="43" t="s">
         <v>35</v>
       </c>
@@ -1667,18 +1694,18 @@
       <c r="N4" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="101"/>
+      <c r="O4" s="111"/>
       <c r="P4" s="48"/>
       <c r="Q4" s="48"/>
       <c r="R4" s="39"/>
       <c r="S4" s="39"/>
     </row>
-    <row r="5" spans="1:19" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93" t="s">
+    <row r="5" spans="1:19" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="109" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="83"/>
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="104" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="46" t="s">
@@ -1726,10 +1753,10 @@
       <c r="R5" s="39"/>
       <c r="S5" s="39"/>
     </row>
-    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="94"/>
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="112"/>
       <c r="B6" s="84"/>
-      <c r="C6" s="96"/>
+      <c r="C6" s="102"/>
       <c r="D6" s="47" t="s">
         <v>40</v>
       </c>
@@ -1752,64 +1779,104 @@
       <c r="R6" s="39"/>
       <c r="S6" s="39"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="94"/>
-      <c r="B7" s="90" t="s">
+    <row r="7" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="112"/>
+      <c r="B7" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="96"/>
+      <c r="C7" s="102"/>
       <c r="D7" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="79" t="e">
+      <c r="E7" s="52">
+        <v>0.66339999999999999</v>
+      </c>
+      <c r="F7" s="48">
+        <v>0.63329999999999997</v>
+      </c>
+      <c r="G7" s="48">
+        <v>0.62219999999999998</v>
+      </c>
+      <c r="H7" s="48">
+        <v>0.70309999999999995</v>
+      </c>
+      <c r="I7" s="44">
+        <v>0.72309999999999997</v>
+      </c>
+      <c r="J7" s="79">
         <f>AVERAGE(K7:N7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="44"/>
+        <v>0.57522499999999999</v>
+      </c>
+      <c r="K7" s="48">
+        <v>0.70540000000000003</v>
+      </c>
+      <c r="L7" s="48">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="M7" s="48">
+        <v>0.55810000000000004</v>
+      </c>
+      <c r="N7" s="48">
+        <v>0.4194</v>
+      </c>
+      <c r="O7" s="44" t="s">
+        <v>63</v>
+      </c>
       <c r="P7" s="48"/>
       <c r="Q7" s="48"/>
       <c r="R7" s="39"/>
       <c r="S7" s="39"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="94"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="96"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="112"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="102"/>
       <c r="D8" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="87"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="86" t="e">
+      <c r="E8" s="87">
+        <v>0.6764</v>
+      </c>
+      <c r="F8" s="58">
+        <v>0.64439999999999997</v>
+      </c>
+      <c r="G8" s="58">
+        <v>0.63890000000000002</v>
+      </c>
+      <c r="H8" s="58">
+        <v>0.71089999999999998</v>
+      </c>
+      <c r="I8" s="56">
+        <v>0.73850000000000005</v>
+      </c>
+      <c r="J8" s="86">
         <f>AVERAGE(K8:N8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="56"/>
+        <v>0.57867500000000005</v>
+      </c>
+      <c r="K8" s="58">
+        <v>0.68630000000000002</v>
+      </c>
+      <c r="L8" s="58">
+        <v>0.64090000000000003</v>
+      </c>
+      <c r="M8" s="58">
+        <v>0.55420000000000003</v>
+      </c>
+      <c r="N8" s="58">
+        <v>0.43330000000000002</v>
+      </c>
+      <c r="O8" s="56" t="s">
+        <v>59</v>
+      </c>
       <c r="P8" s="48"/>
       <c r="Q8" s="48"/>
       <c r="R8" s="39"/>
       <c r="S8" s="39"/>
     </row>
-    <row r="9" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="94"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="97" t="s">
+    <row r="9" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="112"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="100" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="47" t="s">
@@ -1834,10 +1901,10 @@
       <c r="R9" s="39"/>
       <c r="S9" s="39"/>
     </row>
-    <row r="10" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="94"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="97"/>
+    <row r="10" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="112"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="100"/>
       <c r="D10" s="47" t="s">
         <v>40</v>
       </c>
@@ -1860,62 +1927,102 @@
       <c r="R10" s="39"/>
       <c r="S10" s="39"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="94"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="97"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="112"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="100"/>
       <c r="D11" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="89"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="78" t="e">
+      <c r="E11" s="89">
+        <v>0.64559999999999995</v>
+      </c>
+      <c r="F11" s="48">
+        <v>0.58330000000000004</v>
+      </c>
+      <c r="G11" s="48">
+        <v>0.62780000000000002</v>
+      </c>
+      <c r="H11" s="48">
+        <v>0.67969999999999997</v>
+      </c>
+      <c r="I11" s="44">
+        <v>0.72309999999999997</v>
+      </c>
+      <c r="J11" s="78">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="44"/>
+        <v>0.57777500000000004</v>
+      </c>
+      <c r="K11" s="48">
+        <v>0.61140000000000005</v>
+      </c>
+      <c r="L11" s="48">
+        <v>0.65639999999999998</v>
+      </c>
+      <c r="M11" s="48">
+        <v>0.62390000000000001</v>
+      </c>
+      <c r="N11" s="48">
+        <v>0.4194</v>
+      </c>
+      <c r="O11" s="44" t="s">
+        <v>59</v>
+      </c>
       <c r="P11" s="48"/>
       <c r="Q11" s="48"/>
       <c r="R11" s="39"/>
       <c r="S11" s="39"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="94"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="97"/>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="112"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="100"/>
       <c r="D12" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="86" t="e">
+      <c r="E12" s="54">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="F12" s="61">
+        <v>0.60560000000000003</v>
+      </c>
+      <c r="G12" s="61">
+        <v>0.63329999999999997</v>
+      </c>
+      <c r="H12" s="61">
+        <v>0.69530000000000003</v>
+      </c>
+      <c r="I12" s="45">
+        <v>0.66149999999999998</v>
+      </c>
+      <c r="J12" s="86">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="45"/>
+        <v>0.60365000000000002</v>
+      </c>
+      <c r="K12" s="61">
+        <v>0.66979999999999995</v>
+      </c>
+      <c r="L12" s="61">
+        <v>0.65259999999999996</v>
+      </c>
+      <c r="M12" s="61">
+        <v>0.64219999999999999</v>
+      </c>
+      <c r="N12" s="61">
+        <v>0.45</v>
+      </c>
+      <c r="O12" s="45" t="s">
+        <v>60</v>
+      </c>
       <c r="P12" s="48"/>
       <c r="Q12" s="48"/>
       <c r="R12" s="39"/>
       <c r="S12" s="39"/>
     </row>
-    <row r="13" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="94"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="97" t="s">
+    <row r="13" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="112"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="100" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="47" t="s">
@@ -1940,10 +2047,10 @@
       <c r="R13" s="39"/>
       <c r="S13" s="39"/>
     </row>
-    <row r="14" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="94"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="97"/>
+    <row r="14" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="112"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="100"/>
       <c r="D14" s="47" t="s">
         <v>40</v>
       </c>
@@ -1966,10 +2073,10 @@
       <c r="R14" s="39"/>
       <c r="S14" s="39"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="94"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="97"/>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="112"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="100"/>
       <c r="D15" s="47" t="s">
         <v>39</v>
       </c>
@@ -1992,10 +2099,10 @@
       <c r="R15" s="39"/>
       <c r="S15" s="39"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="94"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="97"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="112"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="100"/>
       <c r="D16" s="47" t="s">
         <v>23</v>
       </c>
@@ -2018,10 +2125,10 @@
       <c r="R16" s="39"/>
       <c r="S16" s="39"/>
     </row>
-    <row r="17" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="94"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="97" t="s">
+    <row r="17" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="112"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="100" t="s">
         <v>53</v>
       </c>
       <c r="D17" s="47" t="s">
@@ -2046,10 +2153,10 @@
       <c r="R17" s="39"/>
       <c r="S17" s="39"/>
     </row>
-    <row r="18" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="94"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="97"/>
+    <row r="18" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="112"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="100"/>
       <c r="D18" s="47" t="s">
         <v>40</v>
       </c>
@@ -2072,10 +2179,10 @@
       <c r="R18" s="39"/>
       <c r="S18" s="39"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="94"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="97"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="112"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="100"/>
       <c r="D19" s="47" t="s">
         <v>39</v>
       </c>
@@ -2098,10 +2205,10 @@
       <c r="R19" s="39"/>
       <c r="S19" s="39"/>
     </row>
-    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="98"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="99"/>
+    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="113"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="101"/>
       <c r="D20" s="43" t="s">
         <v>23</v>
       </c>
@@ -2125,11 +2232,11 @@
       <c r="S20" s="39"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="109" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="83"/>
-      <c r="C21" s="95" t="s">
+      <c r="C21" s="104" t="s">
         <v>50</v>
       </c>
       <c r="D21" s="46" t="s">
@@ -2153,9 +2260,9 @@
       <c r="Q21" s="51"/>
     </row>
     <row r="22" spans="1:19" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="94"/>
+      <c r="A22" s="112"/>
       <c r="B22" s="84"/>
-      <c r="C22" s="96"/>
+      <c r="C22" s="102"/>
       <c r="D22" s="47" t="s">
         <v>40</v>
       </c>
@@ -2176,12 +2283,12 @@
       <c r="P22" s="51"/>
       <c r="Q22" s="51"/>
     </row>
-    <row r="23" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="94"/>
-      <c r="B23" s="90" t="s">
+    <row r="23" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="112"/>
+      <c r="B23" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="96"/>
+      <c r="C23" s="102"/>
       <c r="D23" s="47" t="s">
         <v>39</v>
       </c>
@@ -2223,10 +2330,10 @@
       <c r="Q23" s="51"/>
       <c r="R23" s="42"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="94"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="96"/>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="112"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="102"/>
       <c r="D24" s="47" t="s">
         <v>23</v>
       </c>
@@ -2267,10 +2374,10 @@
       <c r="P24" s="51"/>
       <c r="Q24" s="51"/>
     </row>
-    <row r="25" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="94"/>
-      <c r="B25" s="92"/>
-      <c r="C25" s="97" t="s">
+    <row r="25" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="112"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="100" t="s">
         <v>51</v>
       </c>
       <c r="D25" s="47" t="s">
@@ -2293,10 +2400,10 @@
       <c r="P25" s="51"/>
       <c r="Q25" s="51"/>
     </row>
-    <row r="26" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="94"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="97"/>
+    <row r="26" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="112"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="100"/>
       <c r="D26" s="47" t="s">
         <v>40</v>
       </c>
@@ -2317,10 +2424,10 @@
       <c r="P26" s="51"/>
       <c r="Q26" s="51"/>
     </row>
-    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="94"/>
-      <c r="B27" s="92"/>
-      <c r="C27" s="97"/>
+    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="112"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="100"/>
       <c r="D27" s="47" t="s">
         <v>39</v>
       </c>
@@ -2361,10 +2468,10 @@
       <c r="P27" s="51"/>
       <c r="Q27" s="51"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="94"/>
-      <c r="B28" s="92"/>
-      <c r="C28" s="97"/>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="112"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="100"/>
       <c r="D28" s="47" t="s">
         <v>23</v>
       </c>
@@ -2405,10 +2512,10 @@
       <c r="P28" s="51"/>
       <c r="Q28" s="51"/>
     </row>
-    <row r="29" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="94"/>
-      <c r="B29" s="92"/>
-      <c r="C29" s="97" t="s">
+    <row r="29" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="112"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="100" t="s">
         <v>52</v>
       </c>
       <c r="D29" s="47" t="s">
@@ -2431,10 +2538,10 @@
       <c r="P29" s="51"/>
       <c r="Q29" s="51"/>
     </row>
-    <row r="30" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="94"/>
-      <c r="B30" s="92"/>
-      <c r="C30" s="97"/>
+    <row r="30" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="112"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="100"/>
       <c r="D30" s="47" t="s">
         <v>40</v>
       </c>
@@ -2455,10 +2562,10 @@
       <c r="P30" s="51"/>
       <c r="Q30" s="51"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="94"/>
-      <c r="B31" s="92"/>
-      <c r="C31" s="97"/>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="112"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="100"/>
       <c r="D31" s="50" t="s">
         <v>39</v>
       </c>
@@ -2479,10 +2586,10 @@
       <c r="P31" s="51"/>
       <c r="Q31" s="51"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="94"/>
-      <c r="B32" s="92"/>
-      <c r="C32" s="97"/>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="112"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="100"/>
       <c r="D32" s="47" t="s">
         <v>23</v>
       </c>
@@ -2503,10 +2610,10 @@
       <c r="P32" s="51"/>
       <c r="Q32" s="51"/>
     </row>
-    <row r="33" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="94"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="97" t="s">
+    <row r="33" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="112"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="100" t="s">
         <v>53</v>
       </c>
       <c r="D33" s="47" t="s">
@@ -2529,10 +2636,10 @@
       <c r="P33" s="51"/>
       <c r="Q33" s="51"/>
     </row>
-    <row r="34" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="94"/>
-      <c r="B34" s="92"/>
-      <c r="C34" s="97"/>
+    <row r="34" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="112"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="100"/>
       <c r="D34" s="47" t="s">
         <v>40</v>
       </c>
@@ -2553,10 +2660,10 @@
       <c r="P34" s="51"/>
       <c r="Q34" s="51"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="94"/>
-      <c r="B35" s="92"/>
-      <c r="C35" s="97"/>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35" s="112"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="100"/>
       <c r="D35" s="50" t="s">
         <v>39</v>
       </c>
@@ -2577,10 +2684,10 @@
       <c r="P35" s="51"/>
       <c r="Q35" s="51"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="94"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="127"/>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36" s="112"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="105"/>
       <c r="D36" s="47" t="s">
         <v>23</v>
       </c>
@@ -2601,8 +2708,8 @@
       <c r="P36" s="51"/>
       <c r="Q36" s="51"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C37" s="128"/>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C37" s="97"/>
       <c r="D37" s="51"/>
       <c r="E37" s="51"/>
       <c r="F37" s="51"/>
@@ -2618,7 +2725,7 @@
       <c r="P37" s="51"/>
       <c r="Q37" s="51"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E38" s="51"/>
       <c r="F38" s="51"/>
       <c r="G38" s="51"/>
@@ -2636,7 +2743,7 @@
       <c r="S38" s="51"/>
       <c r="T38" s="51"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E39" s="51"/>
       <c r="F39" s="51"/>
       <c r="G39" s="51"/>
@@ -2654,7 +2761,7 @@
       <c r="S39" s="51"/>
       <c r="T39" s="51"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E40" s="51"/>
       <c r="F40" s="51"/>
       <c r="G40" s="51"/>
@@ -2672,7 +2779,7 @@
       <c r="S40" s="51"/>
       <c r="T40" s="51"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D41" s="51"/>
       <c r="E41" s="51"/>
       <c r="F41" s="51"/>
@@ -2691,47 +2798,47 @@
       <c r="S41" s="51"/>
       <c r="T41" s="51"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="94" t="s">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A42" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="90" t="s">
+      <c r="B42" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="96" t="s">
+      <c r="C42" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="96" t="s">
+      <c r="D42" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="96" t="s">
+      <c r="E42" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="96"/>
-      <c r="G42" s="96"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="96"/>
-      <c r="J42" s="96" t="s">
+      <c r="F42" s="102"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="102"/>
+      <c r="I42" s="102"/>
+      <c r="J42" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="K42" s="96"/>
-      <c r="L42" s="96"/>
-      <c r="M42" s="96"/>
-      <c r="N42" s="96"/>
-      <c r="O42" s="96" t="s">
+      <c r="K42" s="102"/>
+      <c r="L42" s="102"/>
+      <c r="M42" s="102"/>
+      <c r="N42" s="102"/>
+      <c r="O42" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="P42" s="96"/>
-      <c r="Q42" s="96"/>
-      <c r="R42" s="96"/>
-      <c r="S42" s="96"/>
+      <c r="P42" s="102"/>
+      <c r="Q42" s="102"/>
+      <c r="R42" s="102"/>
+      <c r="S42" s="102"/>
       <c r="T42" s="51"/>
     </row>
-    <row r="43" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="98"/>
-      <c r="B43" s="91"/>
-      <c r="C43" s="102"/>
-      <c r="D43" s="102"/>
+    <row r="43" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="113"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
       <c r="E43" s="43" t="s">
         <v>35</v>
       </c>
@@ -2779,12 +2886,12 @@
       </c>
       <c r="T43" s="51"/>
     </row>
-    <row r="44" spans="1:20" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="93" t="s">
+    <row r="44" spans="1:20" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="109" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="83"/>
-      <c r="C44" s="95" t="s">
+      <c r="C44" s="104" t="s">
         <v>50</v>
       </c>
       <c r="D44" s="46" t="s">
@@ -2840,10 +2947,10 @@
       </c>
       <c r="T44" s="51"/>
     </row>
-    <row r="45" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="94"/>
+    <row r="45" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="112"/>
       <c r="B45" s="84"/>
-      <c r="C45" s="96"/>
+      <c r="C45" s="102"/>
       <c r="D45" s="47" t="s">
         <v>40</v>
       </c>
@@ -2873,78 +2980,126 @@
       <c r="S45" s="44"/>
       <c r="T45" s="51"/>
     </row>
-    <row r="46" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="94"/>
-      <c r="B46" s="90" t="s">
+    <row r="46" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="112"/>
+      <c r="B46" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="96"/>
+      <c r="C46" s="102"/>
       <c r="D46" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="E46" s="79" t="e">
+      <c r="E46" s="79">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="79" t="e">
+        <v>-0.253</v>
+      </c>
+      <c r="F46" s="48">
+        <v>-0.47889999999999999</v>
+      </c>
+      <c r="G46" s="48">
+        <v>-5.9799999999999999E-2</v>
+      </c>
+      <c r="H46" s="48">
+        <v>-0.25480000000000003</v>
+      </c>
+      <c r="I46" s="44">
+        <v>-0.2185</v>
+      </c>
+      <c r="J46" s="79">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K46" s="48"/>
-      <c r="L46" s="48"/>
-      <c r="M46" s="48"/>
-      <c r="N46" s="44"/>
-      <c r="O46" s="79" t="e">
+        <v>-0.34105000000000002</v>
+      </c>
+      <c r="K46" s="48">
+        <v>-0.54900000000000004</v>
+      </c>
+      <c r="L46" s="48">
+        <v>-0.1187</v>
+      </c>
+      <c r="M46" s="48">
+        <v>-0.30259999999999998</v>
+      </c>
+      <c r="N46" s="44">
+        <v>-0.39389999999999997</v>
+      </c>
+      <c r="O46" s="79">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P46" s="48"/>
-      <c r="Q46" s="48"/>
-      <c r="R46" s="48"/>
-      <c r="S46" s="44"/>
+        <v>-0.24535000000000001</v>
+      </c>
+      <c r="P46" s="48">
+        <v>-0.50160000000000005</v>
+      </c>
+      <c r="Q46" s="48">
+        <v>-7.5999999999999998E-2</v>
+      </c>
+      <c r="R46" s="48">
+        <v>-0.25</v>
+      </c>
+      <c r="S46" s="44">
+        <v>-0.15379999999999999</v>
+      </c>
       <c r="T46" s="51"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="94"/>
-      <c r="B47" s="92"/>
-      <c r="C47" s="96"/>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A47" s="112"/>
+      <c r="B47" s="108"/>
+      <c r="C47" s="102"/>
       <c r="D47" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="75" t="e">
+      <c r="E47" s="75">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="75" t="e">
+        <v>-0.27814999999999995</v>
+      </c>
+      <c r="F47" s="61">
+        <v>-0.60570000000000002</v>
+      </c>
+      <c r="G47" s="61">
+        <v>-7.8100000000000003E-2</v>
+      </c>
+      <c r="H47" s="61">
+        <v>-0.22439999999999999</v>
+      </c>
+      <c r="I47" s="45">
+        <v>-0.2044</v>
+      </c>
+      <c r="J47" s="75">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K47" s="61"/>
-      <c r="L47" s="61"/>
-      <c r="M47" s="61"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="75" t="e">
+        <v>-0.36469999999999997</v>
+      </c>
+      <c r="K47" s="61">
+        <v>-0.63329999999999997</v>
+      </c>
+      <c r="L47" s="61">
+        <v>-0.15529999999999999</v>
+      </c>
+      <c r="M47" s="61">
+        <v>-0.27629999999999999</v>
+      </c>
+      <c r="N47" s="45">
+        <v>-0.39389999999999997</v>
+      </c>
+      <c r="O47" s="75">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P47" s="61"/>
-      <c r="Q47" s="61"/>
-      <c r="R47" s="61"/>
-      <c r="S47" s="45"/>
+        <v>-0.27242499999999997</v>
+      </c>
+      <c r="P47" s="61">
+        <v>-0.64019999999999999</v>
+      </c>
+      <c r="Q47" s="61">
+        <v>-9.6100000000000005E-2</v>
+      </c>
+      <c r="R47" s="61">
+        <v>-0.21879999999999999</v>
+      </c>
+      <c r="S47" s="45">
+        <v>-0.1346</v>
+      </c>
       <c r="T47" s="51"/>
     </row>
-    <row r="48" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="94"/>
-      <c r="B48" s="92"/>
-      <c r="C48" s="97" t="s">
+    <row r="48" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="112"/>
+      <c r="B48" s="108"/>
+      <c r="C48" s="100" t="s">
         <v>51</v>
       </c>
       <c r="D48" s="47" t="s">
@@ -2976,10 +3131,10 @@
       <c r="S48" s="55"/>
       <c r="T48" s="51"/>
     </row>
-    <row r="49" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="94"/>
-      <c r="B49" s="92"/>
-      <c r="C49" s="97"/>
+    <row r="49" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="112"/>
+      <c r="B49" s="108"/>
+      <c r="C49" s="100"/>
       <c r="D49" s="47" t="s">
         <v>40</v>
       </c>
@@ -3009,76 +3164,124 @@
       <c r="S49" s="44"/>
       <c r="T49" s="51"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="94"/>
-      <c r="B50" s="92"/>
-      <c r="C50" s="97"/>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A50" s="112"/>
+      <c r="B50" s="108"/>
+      <c r="C50" s="100"/>
       <c r="D50" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="E50" s="69" t="e">
+      <c r="E50" s="69">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F50" s="70"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="70"/>
-      <c r="I50" s="71"/>
-      <c r="J50" s="69" t="e">
+        <v>-0.12390000000000001</v>
+      </c>
+      <c r="F50" s="70">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="G50" s="70">
+        <v>0.13819999999999999</v>
+      </c>
+      <c r="H50" s="70">
+        <v>-0.47399999999999998</v>
+      </c>
+      <c r="I50" s="71">
+        <v>-0.2185</v>
+      </c>
+      <c r="J50" s="69">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K50" s="70"/>
-      <c r="L50" s="70"/>
-      <c r="M50" s="70"/>
-      <c r="N50" s="71"/>
-      <c r="O50" s="88" t="e">
+        <v>-5.7149999999999992E-2</v>
+      </c>
+      <c r="K50" s="70">
+        <v>-0.1235</v>
+      </c>
+      <c r="L50" s="70">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="M50" s="70">
+        <v>0.20180000000000001</v>
+      </c>
+      <c r="N50" s="71">
+        <v>-0.39389999999999997</v>
+      </c>
+      <c r="O50" s="79">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P50" s="48"/>
-      <c r="Q50" s="48"/>
-      <c r="R50" s="48"/>
-      <c r="S50" s="44"/>
+        <v>-2.2374999999999996E-2</v>
+      </c>
+      <c r="P50" s="131">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="Q50" s="48">
+        <v>0.1217</v>
+      </c>
+      <c r="R50" s="131">
+        <v>-0.11459999999999999</v>
+      </c>
+      <c r="S50" s="44">
+        <v>-0.15379999999999999</v>
+      </c>
       <c r="T50" s="51"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="94"/>
-      <c r="B51" s="92"/>
-      <c r="C51" s="97"/>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A51" s="112"/>
+      <c r="B51" s="108"/>
+      <c r="C51" s="100"/>
       <c r="D51" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E51" s="64" t="e">
+      <c r="E51" s="64">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="66"/>
-      <c r="J51" s="64" t="e">
+        <v>-1.0450000000000001E-2</v>
+      </c>
+      <c r="F51" s="65">
+        <v>0.157</v>
+      </c>
+      <c r="G51" s="65">
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="H51" s="65">
+        <v>-0.128</v>
+      </c>
+      <c r="I51" s="66">
+        <v>-0.126</v>
+      </c>
+      <c r="J51" s="64">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K51" s="65"/>
-      <c r="L51" s="65"/>
-      <c r="M51" s="65"/>
-      <c r="N51" s="66"/>
-      <c r="O51" s="75" t="e">
+        <v>-7.9050000000000009E-2</v>
+      </c>
+      <c r="K51" s="65">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="L51" s="65">
+        <v>-4.6300000000000001E-2</v>
+      </c>
+      <c r="M51" s="65">
+        <v>-4.3900000000000002E-2</v>
+      </c>
+      <c r="N51" s="66">
+        <v>-0.23480000000000001</v>
+      </c>
+      <c r="O51" s="86">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P51" s="61"/>
-      <c r="Q51" s="61"/>
-      <c r="R51" s="61"/>
-      <c r="S51" s="45"/>
+        <v>-1.5274999999999997E-2</v>
+      </c>
+      <c r="P51" s="61">
+        <v>0.14330000000000001</v>
+      </c>
+      <c r="Q51" s="132">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="R51" s="61">
+        <v>-0.15620000000000001</v>
+      </c>
+      <c r="S51" s="133">
+        <v>-8.6499999999999994E-2</v>
+      </c>
       <c r="T51" s="51"/>
     </row>
-    <row r="52" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="94"/>
-      <c r="B52" s="92"/>
-      <c r="C52" s="97" t="s">
+    <row r="52" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="112"/>
+      <c r="B52" s="108"/>
+      <c r="C52" s="100" t="s">
         <v>52</v>
       </c>
       <c r="D52" s="47" t="s">
@@ -3110,10 +3313,10 @@
       <c r="S52" s="68"/>
       <c r="T52" s="51"/>
     </row>
-    <row r="53" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="94"/>
-      <c r="B53" s="92"/>
-      <c r="C53" s="97"/>
+    <row r="53" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="112"/>
+      <c r="B53" s="108"/>
+      <c r="C53" s="100"/>
       <c r="D53" s="47" t="s">
         <v>40</v>
       </c>
@@ -3143,10 +3346,10 @@
       <c r="S53" s="71"/>
       <c r="T53" s="51"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="94"/>
-      <c r="B54" s="92"/>
-      <c r="C54" s="97"/>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A54" s="112"/>
+      <c r="B54" s="108"/>
+      <c r="C54" s="100"/>
       <c r="D54" s="47" t="s">
         <v>39</v>
       </c>
@@ -3176,10 +3379,10 @@
       <c r="S54" s="71"/>
       <c r="T54" s="51"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="94"/>
-      <c r="B55" s="92"/>
-      <c r="C55" s="97"/>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A55" s="112"/>
+      <c r="B55" s="108"/>
+      <c r="C55" s="100"/>
       <c r="D55" s="47" t="s">
         <v>23</v>
       </c>
@@ -3209,10 +3412,10 @@
       <c r="S55" s="66"/>
       <c r="T55" s="51"/>
     </row>
-    <row r="56" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="94"/>
-      <c r="B56" s="92"/>
-      <c r="C56" s="97" t="s">
+    <row r="56" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="112"/>
+      <c r="B56" s="108"/>
+      <c r="C56" s="100" t="s">
         <v>53</v>
       </c>
       <c r="D56" s="47" t="s">
@@ -3244,10 +3447,10 @@
       <c r="S56" s="68"/>
       <c r="T56" s="51"/>
     </row>
-    <row r="57" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="94"/>
-      <c r="B57" s="92"/>
-      <c r="C57" s="97"/>
+    <row r="57" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="112"/>
+      <c r="B57" s="108"/>
+      <c r="C57" s="100"/>
       <c r="D57" s="47" t="s">
         <v>40</v>
       </c>
@@ -3277,10 +3480,10 @@
       <c r="S57" s="71"/>
       <c r="T57" s="51"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="94"/>
-      <c r="B58" s="92"/>
-      <c r="C58" s="97"/>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A58" s="112"/>
+      <c r="B58" s="108"/>
+      <c r="C58" s="100"/>
       <c r="D58" s="47" t="s">
         <v>39</v>
       </c>
@@ -3310,10 +3513,10 @@
       <c r="S58" s="71"/>
       <c r="T58" s="51"/>
     </row>
-    <row r="59" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="98"/>
-      <c r="B59" s="91"/>
-      <c r="C59" s="99"/>
+    <row r="59" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="113"/>
+      <c r="B59" s="107"/>
+      <c r="C59" s="101"/>
       <c r="D59" s="43" t="s">
         <v>23</v>
       </c>
@@ -3343,12 +3546,12 @@
       <c r="S59" s="73"/>
       <c r="T59" s="51"/>
     </row>
-    <row r="60" spans="1:20" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="93" t="s">
+    <row r="60" spans="1:20" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="109" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="83"/>
-      <c r="C60" s="95" t="s">
+      <c r="C60" s="104" t="s">
         <v>50</v>
       </c>
       <c r="D60" s="46" t="s">
@@ -3381,9 +3584,9 @@
       <c r="T60" s="51"/>
     </row>
     <row r="61" spans="1:20" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="94"/>
+      <c r="A61" s="112"/>
       <c r="B61" s="84"/>
-      <c r="C61" s="96"/>
+      <c r="C61" s="102"/>
       <c r="D61" s="47" t="s">
         <v>40</v>
       </c>
@@ -3413,12 +3616,12 @@
       <c r="S61" s="44"/>
       <c r="T61" s="51"/>
     </row>
-    <row r="62" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="94"/>
-      <c r="B62" s="90" t="s">
+    <row r="62" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="112"/>
+      <c r="B62" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="96"/>
+      <c r="C62" s="102"/>
       <c r="D62" s="47" t="s">
         <v>39</v>
       </c>
@@ -3458,24 +3661,24 @@
         <f t="shared" si="6"/>
         <v>-8.4425E-2</v>
       </c>
-      <c r="P62" s="121">
+      <c r="P62" s="91">
         <v>-6.7599999999999993E-2</v>
       </c>
-      <c r="Q62" s="121">
+      <c r="Q62" s="91">
         <v>-0.1047</v>
       </c>
-      <c r="R62" s="121">
+      <c r="R62" s="91">
         <v>-6.4699999999999994E-2</v>
       </c>
-      <c r="S62" s="122">
+      <c r="S62" s="92">
         <v>-0.1007</v>
       </c>
       <c r="T62" s="51"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="94"/>
-      <c r="B63" s="92"/>
-      <c r="C63" s="96"/>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A63" s="112"/>
+      <c r="B63" s="108"/>
+      <c r="C63" s="102"/>
       <c r="D63" s="47" t="s">
         <v>23</v>
       </c>
@@ -3529,10 +3732,10 @@
       </c>
       <c r="T63" s="51"/>
     </row>
-    <row r="64" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="94"/>
-      <c r="B64" s="92"/>
-      <c r="C64" s="97" t="s">
+    <row r="64" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="112"/>
+      <c r="B64" s="108"/>
+      <c r="C64" s="100" t="s">
         <v>51</v>
       </c>
       <c r="D64" s="47" t="s">
@@ -3558,16 +3761,16 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P64" s="123"/>
-      <c r="Q64" s="123"/>
-      <c r="R64" s="123"/>
-      <c r="S64" s="124"/>
+      <c r="P64" s="93"/>
+      <c r="Q64" s="93"/>
+      <c r="R64" s="93"/>
+      <c r="S64" s="94"/>
       <c r="T64" s="51"/>
     </row>
-    <row r="65" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="94"/>
-      <c r="B65" s="92"/>
-      <c r="C65" s="97"/>
+    <row r="65" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="112"/>
+      <c r="B65" s="108"/>
+      <c r="C65" s="100"/>
       <c r="D65" s="47" t="s">
         <v>40</v>
       </c>
@@ -3591,16 +3794,16 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P65" s="121"/>
-      <c r="Q65" s="121"/>
-      <c r="R65" s="121"/>
-      <c r="S65" s="122"/>
+      <c r="P65" s="91"/>
+      <c r="Q65" s="91"/>
+      <c r="R65" s="91"/>
+      <c r="S65" s="92"/>
       <c r="T65" s="51"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66" s="94"/>
-      <c r="B66" s="92"/>
-      <c r="C66" s="97"/>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A66" s="112"/>
+      <c r="B66" s="108"/>
+      <c r="C66" s="100"/>
       <c r="D66" s="47" t="s">
         <v>39</v>
       </c>
@@ -3640,24 +3843,24 @@
         <f t="shared" si="6"/>
         <v>-1.37E-2</v>
       </c>
-      <c r="P66" s="121">
+      <c r="P66" s="91">
         <v>1.52E-2</v>
       </c>
-      <c r="Q66" s="121">
+      <c r="Q66" s="91">
         <v>-1.7999999999999999E-2</v>
       </c>
-      <c r="R66" s="121">
+      <c r="R66" s="91">
         <v>-2.2200000000000001E-2</v>
       </c>
-      <c r="S66" s="122">
+      <c r="S66" s="92">
         <v>-2.98E-2</v>
       </c>
       <c r="T66" s="51"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="94"/>
-      <c r="B67" s="92"/>
-      <c r="C67" s="97"/>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A67" s="112"/>
+      <c r="B67" s="108"/>
+      <c r="C67" s="100"/>
       <c r="D67" s="47" t="s">
         <v>23</v>
       </c>
@@ -3697,24 +3900,24 @@
         <f t="shared" si="6"/>
         <v>-8.9750000000000003E-3</v>
       </c>
-      <c r="P67" s="125">
+      <c r="P67" s="95">
         <v>-1.21E-2</v>
       </c>
-      <c r="Q67" s="125">
+      <c r="Q67" s="95">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="R67" s="125">
+      <c r="R67" s="95">
         <v>-1.5100000000000001E-2</v>
       </c>
-      <c r="S67" s="126">
+      <c r="S67" s="96">
         <v>-1.6199999999999999E-2</v>
       </c>
       <c r="T67" s="51"/>
     </row>
-    <row r="68" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="94"/>
-      <c r="B68" s="92"/>
-      <c r="C68" s="97" t="s">
+    <row r="68" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="112"/>
+      <c r="B68" s="108"/>
+      <c r="C68" s="100" t="s">
         <v>52</v>
       </c>
       <c r="D68" s="47" t="s">
@@ -3746,10 +3949,10 @@
       <c r="S68" s="68"/>
       <c r="T68" s="51"/>
     </row>
-    <row r="69" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="94"/>
-      <c r="B69" s="92"/>
-      <c r="C69" s="97"/>
+    <row r="69" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="112"/>
+      <c r="B69" s="108"/>
+      <c r="C69" s="100"/>
       <c r="D69" s="47" t="s">
         <v>40</v>
       </c>
@@ -3779,10 +3982,10 @@
       <c r="S69" s="71"/>
       <c r="T69" s="51"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70" s="94"/>
-      <c r="B70" s="92"/>
-      <c r="C70" s="97"/>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A70" s="112"/>
+      <c r="B70" s="108"/>
+      <c r="C70" s="100"/>
       <c r="D70" s="50" t="s">
         <v>39</v>
       </c>
@@ -3812,10 +4015,10 @@
       <c r="S70" s="71"/>
       <c r="T70" s="51"/>
     </row>
-    <row r="71" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="94"/>
-      <c r="B71" s="92"/>
-      <c r="C71" s="97"/>
+    <row r="71" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="112"/>
+      <c r="B71" s="108"/>
+      <c r="C71" s="100"/>
       <c r="D71" s="47" t="s">
         <v>23</v>
       </c>
@@ -3835,20 +4038,28 @@
       <c r="L71" s="61"/>
       <c r="M71" s="61"/>
       <c r="N71" s="45"/>
-      <c r="O71" s="75" t="e">
+      <c r="O71" s="75">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P71" s="65"/>
-      <c r="Q71" s="65"/>
-      <c r="R71" s="65"/>
-      <c r="S71" s="66"/>
+        <v>-2.3749999999999995E-3</v>
+      </c>
+      <c r="P71" s="65">
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="Q71" s="65">
+        <v>-2.4799999999999999E-2</v>
+      </c>
+      <c r="R71" s="65">
+        <v>-8.8000000000000005E-3</v>
+      </c>
+      <c r="S71" s="66">
+        <v>-3.3E-3</v>
+      </c>
       <c r="T71" s="51"/>
     </row>
-    <row r="72" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="94"/>
-      <c r="B72" s="92"/>
-      <c r="C72" s="97" t="s">
+    <row r="72" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="112"/>
+      <c r="B72" s="108"/>
+      <c r="C72" s="100" t="s">
         <v>53</v>
       </c>
       <c r="D72" s="47" t="s">
@@ -3880,10 +4091,10 @@
       <c r="S72" s="68"/>
       <c r="T72" s="51"/>
     </row>
-    <row r="73" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="94"/>
-      <c r="B73" s="92"/>
-      <c r="C73" s="97"/>
+    <row r="73" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="112"/>
+      <c r="B73" s="108"/>
+      <c r="C73" s="100"/>
       <c r="D73" s="47" t="s">
         <v>40</v>
       </c>
@@ -3913,10 +4124,10 @@
       <c r="S73" s="71"/>
       <c r="T73" s="51"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" s="94"/>
-      <c r="B74" s="92"/>
-      <c r="C74" s="97"/>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A74" s="112"/>
+      <c r="B74" s="108"/>
+      <c r="C74" s="100"/>
       <c r="D74" s="50" t="s">
         <v>39</v>
       </c>
@@ -3946,10 +4157,10 @@
       <c r="S74" s="71"/>
       <c r="T74" s="51"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A75" s="94"/>
-      <c r="B75" s="93"/>
-      <c r="C75" s="127"/>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A75" s="112"/>
+      <c r="B75" s="109"/>
+      <c r="C75" s="105"/>
       <c r="D75" s="47" t="s">
         <v>23</v>
       </c>
@@ -3979,8 +4190,8 @@
       <c r="S75" s="66"/>
       <c r="T75" s="51"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C76" s="129"/>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C76" s="98"/>
       <c r="D76" s="51"/>
       <c r="E76" s="51"/>
       <c r="F76" s="51"/>
@@ -3999,7 +4210,7 @@
       <c r="S76" s="51"/>
       <c r="T76" s="51"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D77" s="51"/>
       <c r="E77" s="51"/>
       <c r="F77" s="51"/>
@@ -4018,7 +4229,7 @@
       <c r="S77" s="51"/>
       <c r="T77" s="51"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D78" s="51"/>
       <c r="E78" s="51"/>
       <c r="F78" s="51"/>
@@ -4037,7 +4248,7 @@
       <c r="S78" s="51"/>
       <c r="T78" s="51"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D79" s="51"/>
       <c r="E79" s="51"/>
       <c r="F79" s="51"/>
@@ -4055,7 +4266,7 @@
       <c r="R79" s="51"/>
       <c r="S79" s="51"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D80" s="51"/>
       <c r="E80" s="51"/>
       <c r="F80" s="51"/>
@@ -4073,7 +4284,7 @@
       <c r="R80" s="51"/>
       <c r="S80" s="51"/>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D81" s="51"/>
       <c r="E81" s="51"/>
       <c r="F81" s="51"/>
@@ -4091,7 +4302,7 @@
       <c r="R81" s="51"/>
       <c r="S81" s="51"/>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D82" s="51"/>
       <c r="E82" s="51"/>
       <c r="F82" s="51"/>
@@ -4109,79 +4320,86 @@
       <c r="R82" s="51"/>
       <c r="S82" s="51"/>
     </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C89" s="38"/>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C90" s="38"/>
     </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C91" s="38"/>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C92" s="38"/>
     </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C93" s="38"/>
     </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C94" s="38"/>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C95" s="38"/>
     </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C96" s="38"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C97" s="38"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C98" s="38"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C99" s="38"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C100" s="38"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C101" s="38"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C102" s="38"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C103" s="38"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C104" s="38"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C105" s="38"/>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C106" s="38"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C107" s="38"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C108" s="38"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C109" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="B46:B59"/>
+    <mergeCell ref="B62:B75"/>
+    <mergeCell ref="A60:A75"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A20"/>
+    <mergeCell ref="A21:A36"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A59"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B7:B20"/>
     <mergeCell ref="B23:B36"/>
@@ -4197,22 +4415,15 @@
     <mergeCell ref="J3:N3"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="D42:D43"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A20"/>
-    <mergeCell ref="A21:A36"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A59"/>
     <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B46:B59"/>
-    <mergeCell ref="B62:B75"/>
-    <mergeCell ref="A60:A75"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="C33:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -4223,29 +4434,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D43789-1003-47D8-B7A4-FDE215F69927}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="4"/>
-    <col min="4" max="4" width="21.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="4"/>
+    <col min="2" max="2" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="4"/>
+    <col min="4" max="4" width="21.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="28.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="4"/>
+    <col min="7" max="7" width="28.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="4"/>
+    <col min="14" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -4256,56 +4467,56 @@
       <c r="I1" s="14"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="92" t="s">
+      <c r="E2" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="92" t="s">
+      <c r="F2" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="107" t="s">
+      <c r="G2" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="107" t="s">
+      <c r="I2" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="115" t="s">
+      <c r="J2" s="129" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="O2" s="19"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="116"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="130"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="O3" s="19"/>
     </row>
-    <row r="4" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="104" t="s">
+    <row r="4" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="114" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="35" t="s">
@@ -4324,13 +4535,13 @@
         <v>19</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="I4" s="10">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="J4" s="26" t="s">
         <v>47</v>
@@ -4339,8 +4550,8 @@
       <c r="L4" s="6"/>
       <c r="O4" s="19"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="105"/>
+    <row r="5" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="115"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -4372,8 +4583,8 @@
       <c r="L5" s="6"/>
       <c r="O5" s="19"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="105"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="115"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -4405,8 +4616,8 @@
       <c r="L6" s="6"/>
       <c r="O6" s="19"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="105"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="115"/>
       <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
@@ -4438,8 +4649,8 @@
       <c r="L7" s="6"/>
       <c r="O7" s="19"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="106"/>
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="116"/>
       <c r="B8" s="18" t="s">
         <v>16</v>
       </c>
@@ -4471,7 +4682,7 @@
       <c r="L8" s="6"/>
       <c r="O8" s="19"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A9" s="117" t="s">
         <v>13</v>
       </c>
@@ -4498,8 +4709,8 @@
       <c r="L9" s="6"/>
       <c r="O9" s="19"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="105"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="115"/>
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
@@ -4524,8 +4735,8 @@
       <c r="M10" s="6"/>
       <c r="O10" s="19"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="105"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="115"/>
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
@@ -4558,8 +4769,8 @@
       <c r="M11" s="6"/>
       <c r="O11" s="19"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="105"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="115"/>
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
@@ -4592,8 +4803,8 @@
       <c r="M12" s="6"/>
       <c r="O12" s="19"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="106"/>
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="116"/>
       <c r="B13" s="12" t="s">
         <v>16</v>
       </c>
@@ -4625,8 +4836,8 @@
       <c r="L13" s="6"/>
       <c r="O13" s="19"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -4639,7 +4850,7 @@
       <c r="J15" s="7"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -4653,57 +4864,57 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
-      <c r="B17" s="119" t="s">
+      <c r="B17" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="107" t="s">
+      <c r="C17" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="107" t="s">
+      <c r="D17" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="107" t="s">
+      <c r="E17" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="107" t="s">
+      <c r="F17" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="107" t="s">
+      <c r="G17" s="122" t="s">
         <v>2</v>
       </c>
       <c r="H17" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="107" t="s">
+      <c r="I17" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="107" t="s">
+      <c r="J17" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="109" t="s">
+      <c r="K17" s="124" t="s">
         <v>10</v>
       </c>
       <c r="L17" s="21"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
-      <c r="B18" s="120"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="108"/>
-      <c r="K18" s="110"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="125"/>
       <c r="L18" s="21"/>
     </row>
-    <row r="19" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="104" t="s">
+    <row r="19" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="114" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="36" t="s">
@@ -4721,24 +4932,24 @@
       <c r="F19" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" s="83">
-        <v>64</v>
-      </c>
-      <c r="J19" s="20" t="s">
+      <c r="G19" s="90" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="90">
+        <v>128</v>
+      </c>
+      <c r="J19" s="26" t="s">
         <v>47</v>
       </c>
       <c r="K19" s="41">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="105"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="115"/>
       <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
@@ -4761,8 +4972,8 @@
       <c r="K20" s="40"/>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="105"/>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="115"/>
       <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
@@ -4795,8 +5006,8 @@
       </c>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="105"/>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="115"/>
       <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
@@ -4828,8 +5039,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="106"/>
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="116"/>
       <c r="B23" s="13" t="s">
         <v>34</v>
       </c>
@@ -4861,8 +5072,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="104" t="s">
+    <row r="24" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="114" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="36" t="s">
@@ -4896,8 +5107,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="105"/>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="115"/>
       <c r="B25" s="2" t="s">
         <v>32</v>
       </c>
@@ -4919,8 +5130,8 @@
       <c r="J25" s="34"/>
       <c r="K25" s="40"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="105"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="115"/>
       <c r="B26" s="2" t="s">
         <v>15</v>
       </c>
@@ -4952,8 +5163,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="105"/>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="115"/>
       <c r="B27" s="2" t="s">
         <v>33</v>
       </c>
@@ -4985,8 +5196,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="106"/>
+    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="116"/>
       <c r="B28" s="13" t="s">
         <v>34</v>
       </c>
@@ -5018,8 +5229,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -5033,12 +5244,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="I17:I18"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -5051,11 +5261,12 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="J17:J18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/experiments/all_results.xlsx
+++ b/experiments/all_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ancarey\PycharmProjects\adaptive-hypernets\experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alycia\Documents\adaptive-hypernets\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEAA2FC-9CC1-43BB-9483-0E5EA639A4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28946F4-2534-4745-8D8B-007EF649BC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="665" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="665" activeTab="1" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
   </bookViews>
   <sheets>
     <sheet name="compas-comparison table" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="53">
   <si>
     <t>Model</t>
   </si>
@@ -195,12 +195,6 @@
   </si>
   <si>
     <t>h:1e-8, c:1e-8</t>
-  </si>
-  <si>
-    <t>7 min 40 sec</t>
-  </si>
-  <si>
-    <t>4 min 25 sec</t>
   </si>
 </sst>
 </file>
@@ -867,7 +861,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1170,7 +1164,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1179,49 +1209,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1230,61 +1272,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1603,27 +1594,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FA34C5-480C-4D1A-AC66-54DFEF26762F}">
   <dimension ref="A1:T109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="37"/>
+    <col min="1" max="2" width="9.109375" style="37"/>
     <col min="3" max="3" width="25" style="36" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="14" width="8.7109375" style="37" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" style="37" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.7109375" style="37" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" style="37" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="37"/>
+    <col min="4" max="4" width="14.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="8.6640625" style="37" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.6640625" style="37" customWidth="1"/>
+    <col min="18" max="18" width="10.5546875" style="37" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C1" s="102" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C1" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="102"/>
+      <c r="D1" s="122"/>
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
       <c r="G1" s="46"/>
@@ -1639,7 +1630,7 @@
       <c r="Q1" s="46"/>
       <c r="R1" s="38"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C2" s="75"/>
       <c r="D2" s="46"/>
       <c r="E2" s="46"/>
@@ -1657,34 +1648,34 @@
       <c r="Q2" s="47"/>
       <c r="R2" s="38"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="115" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="105" t="s">
+      <c r="D3" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="105" t="s">
+      <c r="E3" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105" t="s">
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="113" t="s">
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="119" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="46"/>
@@ -1692,11 +1683,11 @@
       <c r="R3" s="38"/>
       <c r="S3" s="38"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="116"/>
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="118"/>
       <c r="B4" s="110"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
       <c r="E4" s="41" t="s">
         <v>35</v>
       </c>
@@ -1727,18 +1718,18 @@
       <c r="N4" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="114"/>
+      <c r="O4" s="120"/>
       <c r="P4" s="46"/>
       <c r="Q4" s="46"/>
       <c r="R4" s="38"/>
       <c r="S4" s="38"/>
     </row>
-    <row r="5" spans="1:19" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="112" t="s">
+    <row r="5" spans="1:19" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="111" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="81"/>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="113" t="s">
         <v>45</v>
       </c>
       <c r="D5" s="44" t="s">
@@ -1786,10 +1777,10 @@
       <c r="R5" s="38"/>
       <c r="S5" s="38"/>
     </row>
-    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="115"/>
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="112"/>
       <c r="B6" s="82"/>
-      <c r="C6" s="105"/>
+      <c r="C6" s="114"/>
       <c r="D6" s="45" t="s">
         <v>40</v>
       </c>
@@ -1812,12 +1803,12 @@
       <c r="R6" s="38"/>
       <c r="S6" s="38"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="115"/>
-      <c r="B7" s="109" t="s">
+    <row r="7" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="112"/>
+      <c r="B7" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="105"/>
+      <c r="C7" s="114"/>
       <c r="D7" s="45" t="s">
         <v>39</v>
       </c>
@@ -1840,10 +1831,10 @@
       <c r="R7" s="38"/>
       <c r="S7" s="38"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="115"/>
-      <c r="B8" s="111"/>
-      <c r="C8" s="105"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="112"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="114"/>
       <c r="D8" s="45" t="s">
         <v>23</v>
       </c>
@@ -1866,10 +1857,10 @@
       <c r="R8" s="38"/>
       <c r="S8" s="38"/>
     </row>
-    <row r="9" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="115"/>
-      <c r="B9" s="111"/>
-      <c r="C9" s="103" t="s">
+    <row r="9" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="112"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="115" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="45" t="s">
@@ -1894,10 +1885,10 @@
       <c r="R9" s="38"/>
       <c r="S9" s="38"/>
     </row>
-    <row r="10" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="115"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="103"/>
+    <row r="10" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="112"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="115"/>
       <c r="D10" s="45" t="s">
         <v>40</v>
       </c>
@@ -1920,10 +1911,10 @@
       <c r="R10" s="38"/>
       <c r="S10" s="38"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="115"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="103"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="112"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="115"/>
       <c r="D11" s="45" t="s">
         <v>39</v>
       </c>
@@ -1946,10 +1937,10 @@
       <c r="R11" s="38"/>
       <c r="S11" s="38"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="115"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="103"/>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="112"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="115"/>
       <c r="D12" s="45" t="s">
         <v>23</v>
       </c>
@@ -1972,10 +1963,10 @@
       <c r="R12" s="38"/>
       <c r="S12" s="38"/>
     </row>
-    <row r="13" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="115"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="103" t="s">
+    <row r="13" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="112"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="115" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="45" t="s">
@@ -2000,10 +1991,10 @@
       <c r="R13" s="38"/>
       <c r="S13" s="38"/>
     </row>
-    <row r="14" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="115"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="103"/>
+    <row r="14" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="112"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="115"/>
       <c r="D14" s="45" t="s">
         <v>40</v>
       </c>
@@ -2026,10 +2017,10 @@
       <c r="R14" s="38"/>
       <c r="S14" s="38"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="115"/>
-      <c r="B15" s="111"/>
-      <c r="C15" s="103"/>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="112"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="115"/>
       <c r="D15" s="45" t="s">
         <v>39</v>
       </c>
@@ -2052,10 +2043,10 @@
       <c r="R15" s="38"/>
       <c r="S15" s="38"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="115"/>
-      <c r="B16" s="111"/>
-      <c r="C16" s="103"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="112"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="115"/>
       <c r="D16" s="45" t="s">
         <v>23</v>
       </c>
@@ -2078,10 +2069,10 @@
       <c r="R16" s="38"/>
       <c r="S16" s="38"/>
     </row>
-    <row r="17" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="115"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="103" t="s">
+    <row r="17" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="112"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="115" t="s">
         <v>48</v>
       </c>
       <c r="D17" s="45" t="s">
@@ -2106,10 +2097,10 @@
       <c r="R17" s="38"/>
       <c r="S17" s="38"/>
     </row>
-    <row r="18" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="115"/>
-      <c r="B18" s="111"/>
-      <c r="C18" s="103"/>
+    <row r="18" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="112"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="115"/>
       <c r="D18" s="45" t="s">
         <v>40</v>
       </c>
@@ -2132,10 +2123,10 @@
       <c r="R18" s="38"/>
       <c r="S18" s="38"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="115"/>
-      <c r="B19" s="111"/>
-      <c r="C19" s="103"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="112"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="115"/>
       <c r="D19" s="45" t="s">
         <v>39</v>
       </c>
@@ -2158,10 +2149,10 @@
       <c r="R19" s="38"/>
       <c r="S19" s="38"/>
     </row>
-    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="116"/>
+    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="118"/>
       <c r="B20" s="110"/>
-      <c r="C20" s="104"/>
+      <c r="C20" s="116"/>
       <c r="D20" s="41" t="s">
         <v>23</v>
       </c>
@@ -2184,12 +2175,12 @@
       <c r="R20" s="38"/>
       <c r="S20" s="38"/>
     </row>
-    <row r="21" spans="1:19" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="112" t="s">
+    <row r="21" spans="1:19" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="111" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="81"/>
-      <c r="C21" s="107" t="s">
+      <c r="C21" s="113" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="44" t="s">
@@ -2212,10 +2203,10 @@
       <c r="P21" s="49"/>
       <c r="Q21" s="49"/>
     </row>
-    <row r="22" spans="1:19" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="115"/>
+    <row r="22" spans="1:19" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="112"/>
       <c r="B22" s="82"/>
-      <c r="C22" s="105"/>
+      <c r="C22" s="114"/>
       <c r="D22" s="45" t="s">
         <v>40</v>
       </c>
@@ -2236,101 +2227,61 @@
       <c r="P22" s="49"/>
       <c r="Q22" s="49"/>
     </row>
-    <row r="23" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="115"/>
-      <c r="B23" s="109" t="s">
+    <row r="23" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="112"/>
+      <c r="B23" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="105"/>
-      <c r="D23" s="140" t="s">
+      <c r="C23" s="114"/>
+      <c r="D23" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="50">
-        <v>0.79110000000000003</v>
-      </c>
-      <c r="F23" s="46">
-        <v>0.75070000000000003</v>
-      </c>
-      <c r="G23" s="46">
-        <v>0.7873</v>
-      </c>
-      <c r="H23" s="46">
-        <v>0.79400000000000004</v>
-      </c>
-      <c r="I23" s="42">
-        <v>0.79610000000000003</v>
-      </c>
-      <c r="J23" s="78">
+      <c r="E23" s="50"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="78" t="e">
         <f t="shared" si="3"/>
-        <v>0.52429999999999999</v>
-      </c>
-      <c r="K23" s="46">
-        <v>0.54139999999999999</v>
-      </c>
-      <c r="L23" s="46">
-        <v>0.64480000000000004</v>
-      </c>
-      <c r="M23" s="46">
-        <v>0.47849999999999998</v>
-      </c>
-      <c r="N23" s="46">
-        <v>0.4325</v>
-      </c>
-      <c r="O23" s="42" t="s">
-        <v>54</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="42"/>
       <c r="P23" s="49"/>
       <c r="Q23" s="49"/>
       <c r="R23" s="40"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="115"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="140" t="s">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="112"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="83">
-        <v>0.80449999999999999</v>
-      </c>
-      <c r="F24" s="59">
-        <v>0.75160000000000005</v>
-      </c>
-      <c r="G24" s="59">
-        <v>0.7863</v>
-      </c>
-      <c r="H24" s="59">
-        <v>0.82069999999999999</v>
-      </c>
-      <c r="I24" s="43">
-        <v>0.80100000000000005</v>
-      </c>
-      <c r="J24" s="84">
+      <c r="E24" s="83"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="84" t="e">
         <f t="shared" si="3"/>
-        <v>0.51602499999999996</v>
-      </c>
-      <c r="K24" s="59">
-        <v>0.47320000000000001</v>
-      </c>
-      <c r="L24" s="59">
-        <v>0.61619999999999997</v>
-      </c>
-      <c r="M24" s="59">
-        <v>0.55720000000000003</v>
-      </c>
-      <c r="N24" s="59">
-        <v>0.41749999999999998</v>
-      </c>
-      <c r="O24" s="43" t="s">
-        <v>53</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="43"/>
       <c r="P24" s="49"/>
       <c r="Q24" s="49"/>
     </row>
-    <row r="25" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="115"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="103" t="s">
+    <row r="25" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="112"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="115" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="45" t="s">
@@ -2353,10 +2304,10 @@
       <c r="P25" s="49"/>
       <c r="Q25" s="49"/>
     </row>
-    <row r="26" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="115"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="103"/>
+    <row r="26" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="112"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="115"/>
       <c r="D26" s="45" t="s">
         <v>40</v>
       </c>
@@ -2377,10 +2328,10 @@
       <c r="P26" s="49"/>
       <c r="Q26" s="49"/>
     </row>
-    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="115"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="103"/>
+    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="112"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="115"/>
       <c r="D27" s="45" t="s">
         <v>39</v>
       </c>
@@ -2401,10 +2352,10 @@
       <c r="P27" s="49"/>
       <c r="Q27" s="49"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="115"/>
-      <c r="B28" s="111"/>
-      <c r="C28" s="103"/>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="112"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="115"/>
       <c r="D28" s="45" t="s">
         <v>23</v>
       </c>
@@ -2425,10 +2376,10 @@
       <c r="P28" s="49"/>
       <c r="Q28" s="49"/>
     </row>
-    <row r="29" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="115"/>
-      <c r="B29" s="111"/>
-      <c r="C29" s="103" t="s">
+    <row r="29" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="112"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="115" t="s">
         <v>47</v>
       </c>
       <c r="D29" s="45" t="s">
@@ -2451,10 +2402,10 @@
       <c r="P29" s="49"/>
       <c r="Q29" s="49"/>
     </row>
-    <row r="30" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="115"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="103"/>
+    <row r="30" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="112"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="115"/>
       <c r="D30" s="45" t="s">
         <v>40</v>
       </c>
@@ -2475,10 +2426,10 @@
       <c r="P30" s="49"/>
       <c r="Q30" s="49"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="115"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="103"/>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="112"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="115"/>
       <c r="D31" s="48" t="s">
         <v>39</v>
       </c>
@@ -2499,10 +2450,10 @@
       <c r="P31" s="49"/>
       <c r="Q31" s="49"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="115"/>
-      <c r="B32" s="111"/>
-      <c r="C32" s="103"/>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="112"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="115"/>
       <c r="D32" s="45" t="s">
         <v>23</v>
       </c>
@@ -2523,10 +2474,10 @@
       <c r="P32" s="49"/>
       <c r="Q32" s="49"/>
     </row>
-    <row r="33" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="115"/>
-      <c r="B33" s="111"/>
-      <c r="C33" s="103" t="s">
+    <row r="33" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="112"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="115" t="s">
         <v>48</v>
       </c>
       <c r="D33" s="45" t="s">
@@ -2549,10 +2500,10 @@
       <c r="P33" s="49"/>
       <c r="Q33" s="49"/>
     </row>
-    <row r="34" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="115"/>
-      <c r="B34" s="111"/>
-      <c r="C34" s="103"/>
+    <row r="34" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="112"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="115"/>
       <c r="D34" s="45" t="s">
         <v>40</v>
       </c>
@@ -2573,10 +2524,10 @@
       <c r="P34" s="49"/>
       <c r="Q34" s="49"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="115"/>
-      <c r="B35" s="111"/>
-      <c r="C35" s="103"/>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35" s="112"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="115"/>
       <c r="D35" s="48" t="s">
         <v>39</v>
       </c>
@@ -2597,10 +2548,10 @@
       <c r="P35" s="49"/>
       <c r="Q35" s="49"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="115"/>
-      <c r="B36" s="112"/>
-      <c r="C36" s="108"/>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36" s="112"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="117"/>
       <c r="D36" s="45" t="s">
         <v>23</v>
       </c>
@@ -2621,7 +2572,7 @@
       <c r="P36" s="49"/>
       <c r="Q36" s="49"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C37" s="95"/>
       <c r="D37" s="49"/>
       <c r="E37" s="49"/>
@@ -2638,7 +2589,7 @@
       <c r="P37" s="49"/>
       <c r="Q37" s="49"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E38" s="49"/>
       <c r="F38" s="49"/>
       <c r="G38" s="49"/>
@@ -2656,7 +2607,7 @@
       <c r="S38" s="49"/>
       <c r="T38" s="49"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E39" s="49"/>
       <c r="F39" s="49"/>
       <c r="G39" s="49"/>
@@ -2674,7 +2625,7 @@
       <c r="S39" s="49"/>
       <c r="T39" s="49"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E40" s="49"/>
       <c r="F40" s="49"/>
       <c r="G40" s="49"/>
@@ -2692,7 +2643,7 @@
       <c r="S40" s="49"/>
       <c r="T40" s="49"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D41" s="49"/>
       <c r="E41" s="49"/>
       <c r="F41" s="49"/>
@@ -2711,47 +2662,47 @@
       <c r="S41" s="49"/>
       <c r="T41" s="49"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="115" t="s">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A42" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="109" t="s">
+      <c r="B42" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="105" t="s">
+      <c r="C42" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="105" t="s">
+      <c r="D42" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="105" t="s">
+      <c r="E42" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="105"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="105"/>
-      <c r="I42" s="105"/>
-      <c r="J42" s="105" t="s">
+      <c r="F42" s="114"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="114"/>
+      <c r="J42" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="K42" s="105"/>
-      <c r="L42" s="105"/>
-      <c r="M42" s="105"/>
-      <c r="N42" s="105"/>
-      <c r="O42" s="105" t="s">
+      <c r="K42" s="114"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="114"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="P42" s="105"/>
-      <c r="Q42" s="105"/>
-      <c r="R42" s="105"/>
-      <c r="S42" s="105"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="114"/>
       <c r="T42" s="49"/>
     </row>
-    <row r="43" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="116"/>
+    <row r="43" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="118"/>
       <c r="B43" s="110"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="106"/>
+      <c r="C43" s="121"/>
+      <c r="D43" s="121"/>
       <c r="E43" s="41" t="s">
         <v>35</v>
       </c>
@@ -2799,12 +2750,12 @@
       </c>
       <c r="T43" s="49"/>
     </row>
-    <row r="44" spans="1:20" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="112" t="s">
+    <row r="44" spans="1:20" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="111" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="81"/>
-      <c r="C44" s="107" t="s">
+      <c r="C44" s="113" t="s">
         <v>45</v>
       </c>
       <c r="D44" s="44" t="s">
@@ -2860,10 +2811,10 @@
       </c>
       <c r="T44" s="49"/>
     </row>
-    <row r="45" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="115"/>
+    <row r="45" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="112"/>
       <c r="B45" s="82"/>
-      <c r="C45" s="105"/>
+      <c r="C45" s="114"/>
       <c r="D45" s="45" t="s">
         <v>40</v>
       </c>
@@ -2893,12 +2844,12 @@
       <c r="S45" s="42"/>
       <c r="T45" s="49"/>
     </row>
-    <row r="46" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="115"/>
-      <c r="B46" s="109" t="s">
+    <row r="46" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="112"/>
+      <c r="B46" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="105"/>
+      <c r="C46" s="114"/>
       <c r="D46" s="45" t="s">
         <v>39</v>
       </c>
@@ -2928,10 +2879,10 @@
       <c r="S46" s="42"/>
       <c r="T46" s="49"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="115"/>
-      <c r="B47" s="111"/>
-      <c r="C47" s="105"/>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A47" s="112"/>
+      <c r="B47" s="109"/>
+      <c r="C47" s="114"/>
       <c r="D47" s="45" t="s">
         <v>23</v>
       </c>
@@ -2961,10 +2912,10 @@
       <c r="S47" s="43"/>
       <c r="T47" s="49"/>
     </row>
-    <row r="48" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="115"/>
-      <c r="B48" s="111"/>
-      <c r="C48" s="103" t="s">
+    <row r="48" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="112"/>
+      <c r="B48" s="109"/>
+      <c r="C48" s="115" t="s">
         <v>46</v>
       </c>
       <c r="D48" s="45" t="s">
@@ -2996,10 +2947,10 @@
       <c r="S48" s="53"/>
       <c r="T48" s="49"/>
     </row>
-    <row r="49" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="115"/>
-      <c r="B49" s="111"/>
-      <c r="C49" s="103"/>
+    <row r="49" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="112"/>
+      <c r="B49" s="109"/>
+      <c r="C49" s="115"/>
       <c r="D49" s="45" t="s">
         <v>40</v>
       </c>
@@ -3029,10 +2980,10 @@
       <c r="S49" s="42"/>
       <c r="T49" s="49"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="115"/>
-      <c r="B50" s="111"/>
-      <c r="C50" s="103"/>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A50" s="112"/>
+      <c r="B50" s="109"/>
+      <c r="C50" s="115"/>
       <c r="D50" s="45" t="s">
         <v>39</v>
       </c>
@@ -3062,10 +3013,10 @@
       <c r="S50" s="42"/>
       <c r="T50" s="49"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="115"/>
-      <c r="B51" s="111"/>
-      <c r="C51" s="103"/>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A51" s="112"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="115"/>
       <c r="D51" s="45" t="s">
         <v>23</v>
       </c>
@@ -3095,10 +3046,10 @@
       <c r="S51" s="99"/>
       <c r="T51" s="49"/>
     </row>
-    <row r="52" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="115"/>
-      <c r="B52" s="111"/>
-      <c r="C52" s="103" t="s">
+    <row r="52" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="112"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="115" t="s">
         <v>47</v>
       </c>
       <c r="D52" s="45" t="s">
@@ -3130,10 +3081,10 @@
       <c r="S52" s="66"/>
       <c r="T52" s="49"/>
     </row>
-    <row r="53" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="115"/>
-      <c r="B53" s="111"/>
-      <c r="C53" s="103"/>
+    <row r="53" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="112"/>
+      <c r="B53" s="109"/>
+      <c r="C53" s="115"/>
       <c r="D53" s="45" t="s">
         <v>40</v>
       </c>
@@ -3163,10 +3114,10 @@
       <c r="S53" s="69"/>
       <c r="T53" s="49"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="115"/>
-      <c r="B54" s="111"/>
-      <c r="C54" s="103"/>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A54" s="112"/>
+      <c r="B54" s="109"/>
+      <c r="C54" s="115"/>
       <c r="D54" s="45" t="s">
         <v>39</v>
       </c>
@@ -3196,10 +3147,10 @@
       <c r="S54" s="69"/>
       <c r="T54" s="49"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="115"/>
-      <c r="B55" s="111"/>
-      <c r="C55" s="103"/>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A55" s="112"/>
+      <c r="B55" s="109"/>
+      <c r="C55" s="115"/>
       <c r="D55" s="45" t="s">
         <v>23</v>
       </c>
@@ -3229,10 +3180,10 @@
       <c r="S55" s="64"/>
       <c r="T55" s="49"/>
     </row>
-    <row r="56" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="115"/>
-      <c r="B56" s="111"/>
-      <c r="C56" s="103" t="s">
+    <row r="56" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="112"/>
+      <c r="B56" s="109"/>
+      <c r="C56" s="115" t="s">
         <v>48</v>
       </c>
       <c r="D56" s="45" t="s">
@@ -3264,10 +3215,10 @@
       <c r="S56" s="66"/>
       <c r="T56" s="49"/>
     </row>
-    <row r="57" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="115"/>
-      <c r="B57" s="111"/>
-      <c r="C57" s="103"/>
+    <row r="57" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="112"/>
+      <c r="B57" s="109"/>
+      <c r="C57" s="115"/>
       <c r="D57" s="45" t="s">
         <v>40</v>
       </c>
@@ -3297,10 +3248,10 @@
       <c r="S57" s="69"/>
       <c r="T57" s="49"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="115"/>
-      <c r="B58" s="111"/>
-      <c r="C58" s="103"/>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A58" s="112"/>
+      <c r="B58" s="109"/>
+      <c r="C58" s="115"/>
       <c r="D58" s="45" t="s">
         <v>39</v>
       </c>
@@ -3330,10 +3281,10 @@
       <c r="S58" s="69"/>
       <c r="T58" s="49"/>
     </row>
-    <row r="59" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="116"/>
+    <row r="59" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="118"/>
       <c r="B59" s="110"/>
-      <c r="C59" s="104"/>
+      <c r="C59" s="116"/>
       <c r="D59" s="41" t="s">
         <v>23</v>
       </c>
@@ -3363,12 +3314,12 @@
       <c r="S59" s="71"/>
       <c r="T59" s="49"/>
     </row>
-    <row r="60" spans="1:20" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="112" t="s">
+    <row r="60" spans="1:20" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="111" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="81"/>
-      <c r="C60" s="107" t="s">
+      <c r="C60" s="113" t="s">
         <v>45</v>
       </c>
       <c r="D60" s="44" t="s">
@@ -3400,10 +3351,10 @@
       <c r="S60" s="51"/>
       <c r="T60" s="49"/>
     </row>
-    <row r="61" spans="1:20" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="115"/>
+    <row r="61" spans="1:20" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="112"/>
       <c r="B61" s="82"/>
-      <c r="C61" s="105"/>
+      <c r="C61" s="114"/>
       <c r="D61" s="45" t="s">
         <v>40</v>
       </c>
@@ -3433,126 +3384,78 @@
       <c r="S61" s="42"/>
       <c r="T61" s="49"/>
     </row>
-    <row r="62" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="115"/>
-      <c r="B62" s="109" t="s">
+    <row r="62" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="112"/>
+      <c r="B62" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="105"/>
-      <c r="D62" s="140" t="s">
+      <c r="C62" s="114"/>
+      <c r="D62" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="77">
+      <c r="E62" s="77" t="e">
         <f t="shared" si="4"/>
-        <v>-0.13829999999999998</v>
-      </c>
-      <c r="F62" s="46">
-        <v>-0.21940000000000001</v>
-      </c>
-      <c r="G62" s="46">
-        <v>-5.7799999999999997E-2</v>
-      </c>
-      <c r="H62" s="46">
-        <v>-0.11609999999999999</v>
-      </c>
-      <c r="I62" s="42">
-        <v>-0.15989999999999999</v>
-      </c>
-      <c r="J62" s="78">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="78" t="e">
         <f t="shared" si="5"/>
-        <v>-0.16505</v>
-      </c>
-      <c r="K62" s="46">
-        <v>-0.28639999999999999</v>
-      </c>
-      <c r="L62" s="46">
-        <v>-7.7000000000000002E-3</v>
-      </c>
-      <c r="M62" s="46">
-        <v>-0.1386</v>
-      </c>
-      <c r="N62" s="42">
-        <v>-0.22750000000000001</v>
-      </c>
-      <c r="O62" s="77">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K62" s="46"/>
+      <c r="L62" s="46"/>
+      <c r="M62" s="46"/>
+      <c r="N62" s="42"/>
+      <c r="O62" s="77" t="e">
         <f t="shared" si="6"/>
-        <v>-0.19267500000000001</v>
-      </c>
-      <c r="P62" s="89">
-        <v>-0.2596</v>
-      </c>
-      <c r="Q62" s="89">
-        <v>-0.19969999999999999</v>
-      </c>
-      <c r="R62" s="89">
-        <v>-0.1552</v>
-      </c>
-      <c r="S62" s="90">
-        <v>-0.15620000000000001</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P62" s="89"/>
+      <c r="Q62" s="89"/>
+      <c r="R62" s="89"/>
+      <c r="S62" s="90"/>
       <c r="T62" s="49"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="115"/>
-      <c r="B63" s="111"/>
-      <c r="C63" s="105"/>
-      <c r="D63" s="140" t="s">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A63" s="112"/>
+      <c r="B63" s="109"/>
+      <c r="C63" s="114"/>
+      <c r="D63" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="E63" s="73">
+      <c r="E63" s="73" t="e">
         <f t="shared" si="4"/>
-        <v>-0.13974999999999999</v>
-      </c>
-      <c r="F63" s="59">
-        <v>-0.19489999999999999</v>
-      </c>
-      <c r="G63" s="59">
-        <v>-8.9599999999999999E-2</v>
-      </c>
-      <c r="H63" s="59">
-        <v>-0.15260000000000001</v>
-      </c>
-      <c r="I63" s="43">
-        <v>-0.12189999999999999</v>
-      </c>
-      <c r="J63" s="73">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F63" s="59"/>
+      <c r="G63" s="59"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="73" t="e">
         <f t="shared" si="5"/>
-        <v>-0.17862500000000001</v>
-      </c>
-      <c r="K63" s="59">
-        <v>-0.28910000000000002</v>
-      </c>
-      <c r="L63" s="59">
-        <v>-4.7399999999999998E-2</v>
-      </c>
-      <c r="M63" s="59">
-        <v>-0.21240000000000001</v>
-      </c>
-      <c r="N63" s="43">
-        <v>-0.1656</v>
-      </c>
-      <c r="O63" s="73">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K63" s="59"/>
+      <c r="L63" s="59"/>
+      <c r="M63" s="59"/>
+      <c r="N63" s="43"/>
+      <c r="O63" s="73" t="e">
         <f t="shared" si="6"/>
-        <v>-0.18245</v>
-      </c>
-      <c r="P63" s="56">
-        <v>-0.2069</v>
-      </c>
-      <c r="Q63" s="56">
-        <v>-0.20749999999999999</v>
-      </c>
-      <c r="R63" s="56">
-        <v>-0.18140000000000001</v>
-      </c>
-      <c r="S63" s="54">
-        <v>-0.13400000000000001</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P63" s="56"/>
+      <c r="Q63" s="56"/>
+      <c r="R63" s="56"/>
+      <c r="S63" s="54"/>
       <c r="T63" s="49"/>
     </row>
-    <row r="64" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="115"/>
-      <c r="B64" s="111"/>
-      <c r="C64" s="103" t="s">
+    <row r="64" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="112"/>
+      <c r="B64" s="109"/>
+      <c r="C64" s="115" t="s">
         <v>46</v>
       </c>
       <c r="D64" s="45" t="s">
@@ -3584,10 +3487,10 @@
       <c r="S64" s="92"/>
       <c r="T64" s="49"/>
     </row>
-    <row r="65" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="115"/>
-      <c r="B65" s="111"/>
-      <c r="C65" s="103"/>
+    <row r="65" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="112"/>
+      <c r="B65" s="109"/>
+      <c r="C65" s="115"/>
       <c r="D65" s="45" t="s">
         <v>40</v>
       </c>
@@ -3617,10 +3520,10 @@
       <c r="S65" s="90"/>
       <c r="T65" s="49"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66" s="115"/>
-      <c r="B66" s="111"/>
-      <c r="C66" s="103"/>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A66" s="112"/>
+      <c r="B66" s="109"/>
+      <c r="C66" s="115"/>
       <c r="D66" s="45" t="s">
         <v>39</v>
       </c>
@@ -3650,10 +3553,10 @@
       <c r="S66" s="90"/>
       <c r="T66" s="49"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="115"/>
-      <c r="B67" s="111"/>
-      <c r="C67" s="103"/>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A67" s="112"/>
+      <c r="B67" s="109"/>
+      <c r="C67" s="115"/>
       <c r="D67" s="45" t="s">
         <v>23</v>
       </c>
@@ -3683,10 +3586,10 @@
       <c r="S67" s="94"/>
       <c r="T67" s="49"/>
     </row>
-    <row r="68" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="115"/>
-      <c r="B68" s="111"/>
-      <c r="C68" s="103" t="s">
+    <row r="68" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="112"/>
+      <c r="B68" s="109"/>
+      <c r="C68" s="115" t="s">
         <v>47</v>
       </c>
       <c r="D68" s="45" t="s">
@@ -3718,10 +3621,10 @@
       <c r="S68" s="66"/>
       <c r="T68" s="49"/>
     </row>
-    <row r="69" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="115"/>
-      <c r="B69" s="111"/>
-      <c r="C69" s="103"/>
+    <row r="69" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="112"/>
+      <c r="B69" s="109"/>
+      <c r="C69" s="115"/>
       <c r="D69" s="45" t="s">
         <v>40</v>
       </c>
@@ -3751,10 +3654,10 @@
       <c r="S69" s="69"/>
       <c r="T69" s="49"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70" s="115"/>
-      <c r="B70" s="111"/>
-      <c r="C70" s="103"/>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A70" s="112"/>
+      <c r="B70" s="109"/>
+      <c r="C70" s="115"/>
       <c r="D70" s="48" t="s">
         <v>39</v>
       </c>
@@ -3784,10 +3687,10 @@
       <c r="S70" s="69"/>
       <c r="T70" s="49"/>
     </row>
-    <row r="71" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="115"/>
-      <c r="B71" s="111"/>
-      <c r="C71" s="103"/>
+    <row r="71" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="112"/>
+      <c r="B71" s="109"/>
+      <c r="C71" s="115"/>
       <c r="D71" s="45" t="s">
         <v>23</v>
       </c>
@@ -3817,10 +3720,10 @@
       <c r="S71" s="64"/>
       <c r="T71" s="49"/>
     </row>
-    <row r="72" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="115"/>
-      <c r="B72" s="111"/>
-      <c r="C72" s="103" t="s">
+    <row r="72" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="112"/>
+      <c r="B72" s="109"/>
+      <c r="C72" s="115" t="s">
         <v>48</v>
       </c>
       <c r="D72" s="45" t="s">
@@ -3852,10 +3755,10 @@
       <c r="S72" s="66"/>
       <c r="T72" s="49"/>
     </row>
-    <row r="73" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="115"/>
-      <c r="B73" s="111"/>
-      <c r="C73" s="103"/>
+    <row r="73" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="112"/>
+      <c r="B73" s="109"/>
+      <c r="C73" s="115"/>
       <c r="D73" s="45" t="s">
         <v>40</v>
       </c>
@@ -3885,10 +3788,10 @@
       <c r="S73" s="69"/>
       <c r="T73" s="49"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" s="115"/>
-      <c r="B74" s="111"/>
-      <c r="C74" s="103"/>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A74" s="112"/>
+      <c r="B74" s="109"/>
+      <c r="C74" s="115"/>
       <c r="D74" s="48" t="s">
         <v>39</v>
       </c>
@@ -3918,10 +3821,10 @@
       <c r="S74" s="69"/>
       <c r="T74" s="49"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A75" s="115"/>
-      <c r="B75" s="112"/>
-      <c r="C75" s="108"/>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A75" s="112"/>
+      <c r="B75" s="111"/>
+      <c r="C75" s="117"/>
       <c r="D75" s="45" t="s">
         <v>23</v>
       </c>
@@ -3951,7 +3854,7 @@
       <c r="S75" s="64"/>
       <c r="T75" s="49"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C76" s="96"/>
       <c r="D76" s="49"/>
       <c r="E76" s="49"/>
@@ -3971,7 +3874,7 @@
       <c r="S76" s="49"/>
       <c r="T76" s="49"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D77" s="49"/>
       <c r="E77" s="49"/>
       <c r="F77" s="49"/>
@@ -3990,7 +3893,7 @@
       <c r="S77" s="49"/>
       <c r="T77" s="49"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D78" s="49"/>
       <c r="E78" s="49"/>
       <c r="F78" s="49"/>
@@ -4009,7 +3912,7 @@
       <c r="S78" s="49"/>
       <c r="T78" s="49"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D79" s="49"/>
       <c r="E79" s="49"/>
       <c r="F79" s="49"/>
@@ -4027,7 +3930,7 @@
       <c r="R79" s="49"/>
       <c r="S79" s="49"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D80" s="49"/>
       <c r="E80" s="49"/>
       <c r="F80" s="49"/>
@@ -4045,7 +3948,7 @@
       <c r="R80" s="49"/>
       <c r="S80" s="49"/>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D81" s="49"/>
       <c r="E81" s="49"/>
       <c r="F81" s="49"/>
@@ -4063,7 +3966,7 @@
       <c r="R81" s="49"/>
       <c r="S81" s="49"/>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D82" s="49"/>
       <c r="E82" s="49"/>
       <c r="F82" s="49"/>
@@ -4081,86 +3984,79 @@
       <c r="R82" s="49"/>
       <c r="S82" s="49"/>
     </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C89" s="37"/>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C90" s="37"/>
     </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C91" s="37"/>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C92" s="37"/>
     </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C93" s="37"/>
     </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C94" s="37"/>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C95" s="37"/>
     </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C96" s="37"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C97" s="37"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C98" s="37"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C99" s="37"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C100" s="37"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C101" s="37"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C102" s="37"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C103" s="37"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C104" s="37"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C105" s="37"/>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C106" s="37"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C107" s="37"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C108" s="37"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C109" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B46:B59"/>
-    <mergeCell ref="B62:B75"/>
-    <mergeCell ref="A60:A75"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A20"/>
-    <mergeCell ref="A21:A36"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A59"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="C33:C36"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B7:B20"/>
     <mergeCell ref="B23:B36"/>
@@ -4177,14 +4073,21 @@
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="D42:D43"/>
     <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A20"/>
+    <mergeCell ref="A21:A36"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A59"/>
+    <mergeCell ref="B46:B59"/>
+    <mergeCell ref="B62:B75"/>
+    <mergeCell ref="A60:A75"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C72:C75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -4195,29 +4098,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D43789-1003-47D8-B7A4-FDE215F69927}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="4"/>
-    <col min="4" max="4" width="21.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="4"/>
+    <col min="2" max="2" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="4"/>
+    <col min="4" max="4" width="21.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="28.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="4"/>
+    <col min="7" max="7" width="28.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="4"/>
+    <col min="14" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -4228,59 +4131,59 @@
       <c r="I1" s="14"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="111" t="s">
+      <c r="E2" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="111" t="s">
+      <c r="F2" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="125" t="s">
+      <c r="G2" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="131" t="s">
+      <c r="H2" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="125" t="s">
+      <c r="I2" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="132" t="s">
+      <c r="J2" s="134" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="O2" s="19"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="133"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="135"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="O3" s="19"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="117" t="s">
+    <row r="4" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="103" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="10">
@@ -4303,8 +4206,8 @@
       <c r="L4" s="6"/>
       <c r="O4" s="19"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="118"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="124"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -4328,8 +4231,8 @@
       <c r="L5" s="6"/>
       <c r="O5" s="19"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="118"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="124"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -4361,8 +4264,8 @@
       <c r="L6" s="6"/>
       <c r="O6" s="19"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="118"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="124"/>
       <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
@@ -4394,8 +4297,8 @@
       <c r="L7" s="6"/>
       <c r="O7" s="19"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="119"/>
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="125"/>
       <c r="B8" s="18" t="s">
         <v>16</v>
       </c>
@@ -4427,8 +4330,8 @@
       <c r="L8" s="6"/>
       <c r="O8" s="19"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="120" t="s">
+    <row r="9" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="136" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="35" t="s">
@@ -4446,24 +4349,24 @@
       <c r="F9" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="136" t="s">
+      <c r="G9" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="136" t="s">
+      <c r="H9" s="104" t="s">
         <v>52</v>
       </c>
       <c r="I9" s="35">
         <v>256</v>
       </c>
-      <c r="J9" s="137" t="s">
+      <c r="J9" s="105" t="s">
         <v>50</v>
       </c>
       <c r="K9" s="21"/>
       <c r="L9" s="6"/>
       <c r="O9" s="19"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="118"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="124"/>
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
@@ -4488,8 +4391,8 @@
       <c r="M10" s="6"/>
       <c r="O10" s="19"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="118"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="124"/>
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
@@ -4522,8 +4425,8 @@
       <c r="M11" s="6"/>
       <c r="O11" s="19"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="118"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="124"/>
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
@@ -4556,8 +4459,8 @@
       <c r="M12" s="6"/>
       <c r="O12" s="19"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="119"/>
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="125"/>
       <c r="B13" s="12" t="s">
         <v>16</v>
       </c>
@@ -4589,8 +4492,8 @@
       <c r="L13" s="6"/>
       <c r="O13" s="19"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -4603,7 +4506,7 @@
       <c r="J15" s="7"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -4617,60 +4520,60 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="125" t="s">
+      <c r="C17" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="125" t="s">
+      <c r="D17" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="125" t="s">
+      <c r="E17" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="125" t="s">
+      <c r="F17" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="125" t="s">
+      <c r="G17" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="121" t="s">
+      <c r="H17" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="125" t="s">
+      <c r="I17" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="125" t="s">
+      <c r="J17" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="127" t="s">
+      <c r="K17" s="128" t="s">
         <v>10</v>
       </c>
       <c r="L17" s="21"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="126"/>
-      <c r="J18" s="126"/>
-      <c r="K18" s="128"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="129"/>
       <c r="L18" s="21"/>
     </row>
-    <row r="19" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="117" t="s">
+    <row r="19" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="134" t="s">
+      <c r="B19" s="102" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="10">
@@ -4691,8 +4594,8 @@
       <c r="J19" s="20"/>
       <c r="K19" s="101"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="118"/>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="124"/>
       <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
@@ -4715,8 +4618,8 @@
       <c r="K20" s="39"/>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="118"/>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="124"/>
       <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
@@ -4749,8 +4652,8 @@
       </c>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="118"/>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="124"/>
       <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
@@ -4782,8 +4685,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="119"/>
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="125"/>
       <c r="B23" s="13" t="s">
         <v>34</v>
       </c>
@@ -4815,8 +4718,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="117" t="s">
+    <row r="24" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="123" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="35" t="s">
@@ -4834,22 +4737,22 @@
       <c r="F24" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="136" t="s">
+      <c r="G24" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="H24" s="136" t="s">
+      <c r="H24" s="104" t="s">
         <v>52</v>
       </c>
       <c r="I24" s="35">
         <v>256</v>
       </c>
-      <c r="J24" s="138" t="s">
+      <c r="J24" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="K24" s="139"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="118"/>
+      <c r="K24" s="107"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="124"/>
       <c r="B25" s="2" t="s">
         <v>32</v>
       </c>
@@ -4871,8 +4774,8 @@
       <c r="J25" s="34"/>
       <c r="K25" s="39"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="118"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="124"/>
       <c r="B26" s="2" t="s">
         <v>15</v>
       </c>
@@ -4904,8 +4807,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="118"/>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="124"/>
       <c r="B27" s="2" t="s">
         <v>33</v>
       </c>
@@ -4937,8 +4840,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="119"/>
+    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="125"/>
       <c r="B28" s="13" t="s">
         <v>34</v>
       </c>
@@ -4970,8 +4873,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -4985,11 +4888,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -5002,12 +4906,11 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="J17:J18"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="I17:I18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/experiments/all_results.xlsx
+++ b/experiments/all_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alycia\Documents\adaptive-hypernets\experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ancarey\PycharmProjects\adaptive-hypernets\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28946F4-2534-4745-8D8B-007EF649BC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2169996-EB7E-4A33-B621-701798C97C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="665" activeTab="1" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="665" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
   </bookViews>
   <sheets>
     <sheet name="compas-comparison table" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="53">
   <si>
     <t>Model</t>
   </si>
@@ -188,13 +188,13 @@
     <t>Fairness</t>
   </si>
   <si>
-    <t>h: 2000, c: 50</t>
-  </si>
-  <si>
-    <t>h: 1e-5, c: 1e-4</t>
-  </si>
-  <si>
-    <t>h:1e-8, c:1e-8</t>
+    <t>h: .0001, c: .01</t>
+  </si>
+  <si>
+    <t>h:2000, c:50</t>
+  </si>
+  <si>
+    <t>6 min</t>
   </si>
 </sst>
 </file>
@@ -221,18 +221,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -861,7 +855,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -963,9 +957,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1044,37 +1035,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1095,7 +1086,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1170,37 +1161,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1209,24 +1173,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1234,6 +1216,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1257,25 +1254,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1594,2469 +1585,2520 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FA34C5-480C-4D1A-AC66-54DFEF26762F}">
   <dimension ref="A1:T109"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:D24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="37"/>
-    <col min="3" max="3" width="25" style="36" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="14" width="8.6640625" style="37" customWidth="1"/>
-    <col min="15" max="15" width="13.109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.6640625" style="37" customWidth="1"/>
-    <col min="18" max="18" width="10.5546875" style="37" customWidth="1"/>
-    <col min="19" max="16384" width="9.109375" style="37"/>
+    <col min="1" max="2" width="9.140625" style="36"/>
+    <col min="3" max="3" width="25" style="35" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="8.7109375" style="36" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.7109375" style="36" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" style="36" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C1" s="122" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C1" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="122"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="38"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C2" s="75"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="38"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="112" t="s">
+      <c r="D1" s="104"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="37"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C2" s="74"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="37"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="114" t="s">
+      <c r="C3" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="114" t="s">
+      <c r="E3" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114" t="s">
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="119" t="s">
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-    </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="118"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="41" t="s">
+      <c r="B4" s="112"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="J4" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="41" t="s">
+      <c r="K4" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="41" t="s">
+      <c r="L4" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="41" t="s">
+      <c r="M4" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="41" t="s">
+      <c r="N4" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="120"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-    </row>
-    <row r="5" spans="1:19" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="111" t="s">
+      <c r="O4" s="116"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="113" t="s">
+      <c r="B5" s="80"/>
+      <c r="C5" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="56">
         <f t="shared" ref="E5" si="0">AVERAGE(F5:I5)</f>
         <v>0.67667500000000003</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="54">
         <v>0.64670000000000005</v>
       </c>
-      <c r="G5" s="55">
+      <c r="G5" s="54">
         <v>0.65329999999999999</v>
       </c>
-      <c r="H5" s="55">
+      <c r="H5" s="54">
         <v>0.72670000000000001</v>
       </c>
-      <c r="I5" s="51">
+      <c r="I5" s="50">
         <v>0.68</v>
       </c>
-      <c r="J5" s="57">
+      <c r="J5" s="56">
         <f t="shared" ref="J5" si="1">AVERAGE(K5:N5)</f>
         <v>0.57992500000000002</v>
       </c>
-      <c r="K5" s="55">
+      <c r="K5" s="54">
         <v>0.67479999999999996</v>
       </c>
-      <c r="L5" s="55">
+      <c r="L5" s="54">
         <v>0.63890000000000002</v>
       </c>
-      <c r="M5" s="55">
+      <c r="M5" s="54">
         <v>0.50600000000000001</v>
       </c>
-      <c r="N5" s="55">
+      <c r="N5" s="54">
         <v>0.5</v>
       </c>
-      <c r="O5" s="51" t="s">
+      <c r="O5" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46" t="s">
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-    </row>
-    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="112"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="45" t="s">
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+    </row>
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="117"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="47" t="e">
+      <c r="E6" s="56"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="46" t="e">
         <f t="shared" ref="J6" si="2">AVERAGE(K6:N6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-    </row>
-    <row r="7" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="112"/>
-      <c r="B7" s="108" t="s">
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="117"/>
+      <c r="B7" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="45" t="s">
+      <c r="C7" s="107"/>
+      <c r="D7" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="77" t="e">
+      <c r="E7" s="49"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="76" t="e">
         <f>AVERAGE(K7:N7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="112"/>
-      <c r="B8" s="109"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="45" t="s">
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="117"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="85"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="84" t="e">
+      <c r="E8" s="84">
+        <v>0.6845</v>
+      </c>
+      <c r="F8" s="55">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="G8" s="55">
+        <v>0.64439999999999997</v>
+      </c>
+      <c r="H8" s="55">
+        <v>0.71089999999999998</v>
+      </c>
+      <c r="I8" s="53">
+        <v>0.73850000000000005</v>
+      </c>
+      <c r="J8" s="83">
         <f>AVERAGE(K8:N8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-    </row>
-    <row r="9" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="112"/>
-      <c r="B9" s="109"/>
-      <c r="C9" s="115" t="s">
+        <v>0.58784999999999998</v>
+      </c>
+      <c r="K8" s="55">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="L8" s="55">
+        <v>0.63639999999999997</v>
+      </c>
+      <c r="M8" s="55">
+        <v>0.56469999999999998</v>
+      </c>
+      <c r="N8" s="55">
+        <v>0.43330000000000002</v>
+      </c>
+      <c r="O8" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="117"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="73" t="e">
+      <c r="E9" s="56"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="72" t="e">
         <f t="shared" ref="J9:J36" si="3">AVERAGE(K9:N9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-    </row>
-    <row r="10" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="112"/>
-      <c r="B10" s="109"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="45" t="s">
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="117"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="73" t="e">
+      <c r="E10" s="56"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="72" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="112"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="45" t="s">
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="117"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="87"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="76" t="e">
+      <c r="E11" s="86"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="75" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="112"/>
-      <c r="B12" s="109"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="45" t="s">
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="117"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="84" t="e">
+      <c r="E12" s="51"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="83" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-    </row>
-    <row r="13" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="112"/>
-      <c r="B13" s="109"/>
-      <c r="C13" s="115" t="s">
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="117"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="57"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="73" t="e">
+      <c r="E13" s="56"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="72" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-    </row>
-    <row r="14" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="112"/>
-      <c r="B14" s="109"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="45" t="s">
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="117"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="57"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="73" t="e">
+      <c r="E14" s="56"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="72" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="112"/>
-      <c r="B15" s="109"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="45" t="s">
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="117"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="77" t="e">
+      <c r="E15" s="49"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="112"/>
-      <c r="B16" s="109"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="45" t="s">
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="117"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="73" t="e">
+      <c r="E16" s="51"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="72" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-    </row>
-    <row r="17" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="112"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="115" t="s">
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="117"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="73" t="e">
+      <c r="E17" s="56"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="72" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-    </row>
-    <row r="18" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="112"/>
-      <c r="B18" s="109"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="45" t="s">
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="117"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="57"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="73" t="e">
+      <c r="E18" s="56"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="72" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="112"/>
-      <c r="B19" s="109"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="45" t="s">
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="117"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="76" t="e">
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="75" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-    </row>
-    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="118"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="41" t="s">
+      <c r="B20" s="112"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="74"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="73" t="e">
+      <c r="E20" s="73"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="72" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-    </row>
-    <row r="21" spans="1:19" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="111" t="s">
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="113" t="s">
+      <c r="B21" s="80"/>
+      <c r="C21" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="73" t="e">
+      <c r="E21" s="56"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="72" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-    </row>
-    <row r="22" spans="1:19" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="112"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="45" t="s">
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="117"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="57"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="77" t="e">
+      <c r="E22" s="56"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-    </row>
-    <row r="23" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="112"/>
-      <c r="B23" s="108" t="s">
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="117"/>
+      <c r="B23" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="114"/>
-      <c r="D23" s="48" t="s">
+      <c r="C23" s="107"/>
+      <c r="D23" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="50"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="78" t="e">
+      <c r="E23" s="49"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="40"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="112"/>
-      <c r="B24" s="109"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="48" t="s">
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="39"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="117"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="83"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="84" t="e">
+      <c r="E24" s="82"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="83" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-    </row>
-    <row r="25" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="112"/>
-      <c r="B25" s="109"/>
-      <c r="C25" s="115" t="s">
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+    </row>
+    <row r="25" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="117"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="45" t="s">
+      <c r="D25" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="57"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="73" t="e">
+      <c r="E25" s="56"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="72" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-    </row>
-    <row r="26" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="112"/>
-      <c r="B26" s="109"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="45" t="s">
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+    </row>
+    <row r="26" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="117"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="57"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="73" t="e">
+      <c r="E26" s="56"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="72" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-    </row>
-    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="112"/>
-      <c r="B27" s="109"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="45" t="s">
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="117"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="87"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="86" t="e">
+      <c r="E27" s="86"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="85" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="112"/>
-      <c r="B28" s="109"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="45" t="s">
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="117"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="52"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="73" t="e">
+      <c r="E28" s="51"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="72" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-    </row>
-    <row r="29" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="112"/>
-      <c r="B29" s="109"/>
-      <c r="C29" s="115" t="s">
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+    </row>
+    <row r="29" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="117"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="45" t="s">
+      <c r="D29" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="57"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="73" t="e">
+      <c r="E29" s="56"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="72" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="49"/>
-    </row>
-    <row r="30" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="112"/>
-      <c r="B30" s="109"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="45" t="s">
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+    </row>
+    <row r="30" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="117"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="57"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="73" t="e">
+      <c r="E30" s="56"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="72" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="49"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="112"/>
-      <c r="B31" s="109"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="48" t="s">
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="117"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="50"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="77" t="e">
+      <c r="E31" s="49"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="112"/>
-      <c r="B32" s="109"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="45" t="s">
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="117"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="52"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="73" t="e">
+      <c r="E32" s="51"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="72" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="49"/>
-    </row>
-    <row r="33" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="112"/>
-      <c r="B33" s="109"/>
-      <c r="C33" s="115" t="s">
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+    </row>
+    <row r="33" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="117"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="45" t="s">
+      <c r="D33" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="57"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="73" t="e">
+      <c r="E33" s="56"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="72" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="49"/>
-    </row>
-    <row r="34" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="112"/>
-      <c r="B34" s="109"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="45" t="s">
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
+    </row>
+    <row r="34" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="117"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="57"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="73" t="e">
+      <c r="E34" s="56"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="72" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="49"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="112"/>
-      <c r="B35" s="109"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="48" t="s">
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="117"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="50"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="77" t="e">
+      <c r="E35" s="49"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="46"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="49"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="112"/>
-      <c r="B36" s="111"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="45" t="s">
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="117"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="52"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="73" t="e">
+      <c r="E36" s="51"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="72" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K36" s="59"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="59"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="49"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C37" s="95"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="49"/>
-      <c r="O37" s="49"/>
-      <c r="P37" s="49"/>
-      <c r="Q37" s="49"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="49"/>
-      <c r="O38" s="49"/>
-      <c r="P38" s="49"/>
-      <c r="Q38" s="49"/>
-      <c r="R38" s="49"/>
-      <c r="S38" s="49"/>
-      <c r="T38" s="49"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="49"/>
-      <c r="P39" s="49"/>
-      <c r="Q39" s="49"/>
-      <c r="R39" s="49"/>
-      <c r="S39" s="49"/>
-      <c r="T39" s="49"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="49"/>
-      <c r="P40" s="49"/>
-      <c r="Q40" s="49"/>
-      <c r="R40" s="49"/>
-      <c r="S40" s="49"/>
-      <c r="T40" s="49"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="49"/>
-      <c r="O41" s="49"/>
-      <c r="P41" s="49"/>
-      <c r="Q41" s="49"/>
-      <c r="R41" s="49"/>
-      <c r="S41" s="49"/>
-      <c r="T41" s="49"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A42" s="112" t="s">
+      <c r="K36" s="58"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="58"/>
+      <c r="N36" s="58"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="48"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C37" s="94"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="48"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="48"/>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="48"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="48"/>
+      <c r="Q40" s="48"/>
+      <c r="R40" s="48"/>
+      <c r="S40" s="48"/>
+      <c r="T40" s="48"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="48"/>
+      <c r="P41" s="48"/>
+      <c r="Q41" s="48"/>
+      <c r="R41" s="48"/>
+      <c r="S41" s="48"/>
+      <c r="T41" s="48"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="108" t="s">
+      <c r="B42" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="114" t="s">
+      <c r="C42" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="114" t="s">
+      <c r="D42" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="114" t="s">
+      <c r="E42" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="114"/>
-      <c r="G42" s="114"/>
-      <c r="H42" s="114"/>
-      <c r="I42" s="114"/>
-      <c r="J42" s="114" t="s">
+      <c r="F42" s="107"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="107"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="K42" s="114"/>
-      <c r="L42" s="114"/>
-      <c r="M42" s="114"/>
-      <c r="N42" s="114"/>
-      <c r="O42" s="114" t="s">
+      <c r="K42" s="107"/>
+      <c r="L42" s="107"/>
+      <c r="M42" s="107"/>
+      <c r="N42" s="107"/>
+      <c r="O42" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="P42" s="114"/>
-      <c r="Q42" s="114"/>
-      <c r="R42" s="114"/>
-      <c r="S42" s="114"/>
-      <c r="T42" s="49"/>
-    </row>
-    <row r="43" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P42" s="107"/>
+      <c r="Q42" s="107"/>
+      <c r="R42" s="107"/>
+      <c r="S42" s="107"/>
+      <c r="T42" s="48"/>
+    </row>
+    <row r="43" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="118"/>
-      <c r="B43" s="110"/>
-      <c r="C43" s="121"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="41" t="s">
+      <c r="B43" s="112"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="F43" s="41" t="s">
+      <c r="F43" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="G43" s="41" t="s">
+      <c r="G43" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="H43" s="41" t="s">
+      <c r="H43" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="I43" s="41" t="s">
+      <c r="I43" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="J43" s="41" t="s">
+      <c r="J43" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="K43" s="41" t="s">
+      <c r="K43" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="L43" s="41" t="s">
+      <c r="L43" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="M43" s="41" t="s">
+      <c r="M43" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="N43" s="41" t="s">
+      <c r="N43" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="O43" s="41" t="s">
+      <c r="O43" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="P43" s="41" t="s">
+      <c r="P43" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="Q43" s="41" t="s">
+      <c r="Q43" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="R43" s="41" t="s">
+      <c r="R43" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="S43" s="41" t="s">
+      <c r="S43" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="T43" s="49"/>
-    </row>
-    <row r="44" spans="1:20" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="111" t="s">
+      <c r="T43" s="48"/>
+    </row>
+    <row r="44" spans="1:20" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="81"/>
-      <c r="C44" s="113" t="s">
+      <c r="B44" s="80"/>
+      <c r="C44" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="44" t="s">
+      <c r="D44" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="57">
+      <c r="E44" s="56">
         <f t="shared" ref="E44:E75" si="4">AVERAGE(F44:I44)</f>
         <v>-5.6325E-2</v>
       </c>
-      <c r="F44" s="55">
+      <c r="F44" s="54">
         <v>0.1641</v>
       </c>
-      <c r="G44" s="55">
+      <c r="G44" s="54">
         <v>-0.23760000000000001</v>
       </c>
-      <c r="H44" s="55">
+      <c r="H44" s="54">
         <v>-0.15959999999999999</v>
       </c>
-      <c r="I44" s="51">
+      <c r="I44" s="50">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="J44" s="57">
+      <c r="J44" s="56">
         <f t="shared" ref="J44:J75" si="5">AVERAGE(K44:N44)</f>
         <v>-0.126025</v>
       </c>
-      <c r="K44" s="55">
+      <c r="K44" s="54">
         <v>4.6699999999999998E-2</v>
       </c>
-      <c r="L44" s="55">
+      <c r="L44" s="54">
         <v>-0.31780000000000003</v>
       </c>
-      <c r="M44" s="55">
+      <c r="M44" s="54">
         <v>-0.3417</v>
       </c>
-      <c r="N44" s="51">
+      <c r="N44" s="50">
         <v>0.1087</v>
       </c>
-      <c r="O44" s="57">
+      <c r="O44" s="56">
         <f t="shared" ref="O44:O75" si="6">AVERAGE(P44:S44)</f>
         <v>-5.3449999999999998E-2</v>
       </c>
-      <c r="P44" s="55">
+      <c r="P44" s="54">
         <v>0.17080000000000001</v>
       </c>
-      <c r="Q44" s="55">
+      <c r="Q44" s="54">
         <v>-0.2394</v>
       </c>
-      <c r="R44" s="55">
+      <c r="R44" s="54">
         <v>-0.1043</v>
       </c>
-      <c r="S44" s="51">
+      <c r="S44" s="50">
         <v>-4.0899999999999999E-2</v>
       </c>
-      <c r="T44" s="49"/>
-    </row>
-    <row r="45" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="112"/>
-      <c r="B45" s="82"/>
-      <c r="C45" s="114"/>
-      <c r="D45" s="45" t="s">
+      <c r="T44" s="48"/>
+    </row>
+    <row r="45" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="117"/>
+      <c r="B45" s="81"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="57" t="e">
+      <c r="E45" s="56" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="57" t="e">
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="56" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K45" s="46"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="42"/>
-      <c r="O45" s="57" t="e">
+      <c r="K45" s="45"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="56" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P45" s="46"/>
-      <c r="Q45" s="46"/>
-      <c r="R45" s="46"/>
-      <c r="S45" s="42"/>
-      <c r="T45" s="49"/>
-    </row>
-    <row r="46" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="112"/>
-      <c r="B46" s="108" t="s">
+      <c r="P45" s="45"/>
+      <c r="Q45" s="45"/>
+      <c r="R45" s="45"/>
+      <c r="S45" s="41"/>
+      <c r="T45" s="48"/>
+    </row>
+    <row r="46" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="117"/>
+      <c r="B46" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="114"/>
-      <c r="D46" s="45" t="s">
+      <c r="C46" s="107"/>
+      <c r="D46" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="E46" s="77" t="e">
+      <c r="E46" s="76" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="77" t="e">
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="76" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K46" s="46"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="46"/>
-      <c r="N46" s="42"/>
-      <c r="O46" s="77" t="e">
+      <c r="K46" s="45"/>
+      <c r="L46" s="45"/>
+      <c r="M46" s="45"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="76" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P46" s="46"/>
-      <c r="Q46" s="46"/>
-      <c r="R46" s="46"/>
-      <c r="S46" s="42"/>
-      <c r="T46" s="49"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A47" s="112"/>
-      <c r="B47" s="109"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="45" t="s">
+      <c r="P46" s="45"/>
+      <c r="Q46" s="45"/>
+      <c r="R46" s="45"/>
+      <c r="S46" s="41"/>
+      <c r="T46" s="48"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="117"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="107"/>
+      <c r="D47" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="73" t="e">
+      <c r="E47" s="72">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="73" t="e">
+        <v>-0.25984999999999997</v>
+      </c>
+      <c r="F47" s="58">
+        <v>-0.50670000000000004</v>
+      </c>
+      <c r="G47" s="58">
+        <v>-8.2199999999999995E-2</v>
+      </c>
+      <c r="H47" s="58">
+        <v>-0.24610000000000001</v>
+      </c>
+      <c r="I47" s="42">
+        <v>-0.2044</v>
+      </c>
+      <c r="J47" s="72">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K47" s="59"/>
-      <c r="L47" s="59"/>
-      <c r="M47" s="59"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="73" t="e">
+        <v>-0.35904999999999998</v>
+      </c>
+      <c r="K47" s="58">
+        <v>-0.60880000000000001</v>
+      </c>
+      <c r="L47" s="58">
+        <v>-0.13089999999999999</v>
+      </c>
+      <c r="M47" s="58">
+        <v>-0.30259999999999998</v>
+      </c>
+      <c r="N47" s="42">
+        <v>-0.39389999999999997</v>
+      </c>
+      <c r="O47" s="72">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P47" s="59"/>
-      <c r="Q47" s="59"/>
-      <c r="R47" s="59"/>
-      <c r="S47" s="43"/>
-      <c r="T47" s="49"/>
-    </row>
-    <row r="48" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="112"/>
-      <c r="B48" s="109"/>
-      <c r="C48" s="115" t="s">
+        <v>-0.25342500000000001</v>
+      </c>
+      <c r="P47" s="58">
+        <v>-0.53800000000000003</v>
+      </c>
+      <c r="Q47" s="58">
+        <v>-0.10150000000000001</v>
+      </c>
+      <c r="R47" s="58">
+        <v>-0.23960000000000001</v>
+      </c>
+      <c r="S47" s="42">
+        <v>-0.1346</v>
+      </c>
+      <c r="T47" s="48"/>
+    </row>
+    <row r="48" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="117"/>
+      <c r="B48" s="113"/>
+      <c r="C48" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="E48" s="73" t="e">
+      <c r="E48" s="72" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="66"/>
-      <c r="J48" s="73" t="e">
+      <c r="F48" s="64"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="72" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K48" s="65"/>
-      <c r="L48" s="65"/>
-      <c r="M48" s="65"/>
-      <c r="N48" s="66"/>
-      <c r="O48" s="73" t="e">
+      <c r="K48" s="64"/>
+      <c r="L48" s="64"/>
+      <c r="M48" s="64"/>
+      <c r="N48" s="65"/>
+      <c r="O48" s="72" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P48" s="58"/>
-      <c r="Q48" s="58"/>
-      <c r="R48" s="58"/>
-      <c r="S48" s="53"/>
-      <c r="T48" s="49"/>
-    </row>
-    <row r="49" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="112"/>
-      <c r="B49" s="109"/>
-      <c r="C49" s="115"/>
-      <c r="D49" s="45" t="s">
+      <c r="P48" s="57"/>
+      <c r="Q48" s="57"/>
+      <c r="R48" s="57"/>
+      <c r="S48" s="52"/>
+      <c r="T48" s="48"/>
+    </row>
+    <row r="49" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="117"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E49" s="73" t="e">
+      <c r="E49" s="72" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="69"/>
-      <c r="J49" s="73" t="e">
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="72" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K49" s="68"/>
-      <c r="L49" s="68"/>
-      <c r="M49" s="68"/>
-      <c r="N49" s="69"/>
-      <c r="O49" s="73" t="e">
+      <c r="K49" s="67"/>
+      <c r="L49" s="67"/>
+      <c r="M49" s="67"/>
+      <c r="N49" s="68"/>
+      <c r="O49" s="72" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P49" s="46"/>
-      <c r="Q49" s="46"/>
-      <c r="R49" s="46"/>
-      <c r="S49" s="42"/>
-      <c r="T49" s="49"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A50" s="112"/>
-      <c r="B50" s="109"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="45" t="s">
+      <c r="P49" s="45"/>
+      <c r="Q49" s="45"/>
+      <c r="R49" s="45"/>
+      <c r="S49" s="41"/>
+      <c r="T49" s="48"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="117"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="105"/>
+      <c r="D50" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="E50" s="67" t="e">
+      <c r="E50" s="66" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F50" s="68"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="69"/>
-      <c r="J50" s="67" t="e">
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="66" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K50" s="68"/>
-      <c r="L50" s="68"/>
-      <c r="M50" s="68"/>
-      <c r="N50" s="69"/>
-      <c r="O50" s="77" t="e">
+      <c r="K50" s="67"/>
+      <c r="L50" s="67"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="68"/>
+      <c r="O50" s="76" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P50" s="97"/>
-      <c r="Q50" s="46"/>
-      <c r="R50" s="97"/>
-      <c r="S50" s="42"/>
-      <c r="T50" s="49"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A51" s="112"/>
-      <c r="B51" s="109"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="45" t="s">
+      <c r="P50" s="96"/>
+      <c r="Q50" s="45"/>
+      <c r="R50" s="96"/>
+      <c r="S50" s="41"/>
+      <c r="T50" s="48"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="117"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E51" s="62" t="e">
+      <c r="E51" s="61" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F51" s="63"/>
-      <c r="G51" s="63"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="62" t="e">
+      <c r="F51" s="62"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="61" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K51" s="63"/>
-      <c r="L51" s="63"/>
-      <c r="M51" s="63"/>
-      <c r="N51" s="64"/>
-      <c r="O51" s="84" t="e">
+      <c r="K51" s="62"/>
+      <c r="L51" s="62"/>
+      <c r="M51" s="62"/>
+      <c r="N51" s="63"/>
+      <c r="O51" s="83" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P51" s="59"/>
-      <c r="Q51" s="98"/>
-      <c r="R51" s="59"/>
-      <c r="S51" s="99"/>
-      <c r="T51" s="49"/>
-    </row>
-    <row r="52" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="112"/>
-      <c r="B52" s="109"/>
-      <c r="C52" s="115" t="s">
+      <c r="P51" s="58"/>
+      <c r="Q51" s="97"/>
+      <c r="R51" s="58"/>
+      <c r="S51" s="98"/>
+      <c r="T51" s="48"/>
+    </row>
+    <row r="52" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="117"/>
+      <c r="B52" s="113"/>
+      <c r="C52" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="45" t="s">
+      <c r="D52" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="E52" s="73" t="e">
+      <c r="E52" s="72" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F52" s="58"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="58"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="73" t="e">
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="72" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K52" s="58"/>
-      <c r="L52" s="58"/>
-      <c r="M52" s="58"/>
-      <c r="N52" s="53"/>
-      <c r="O52" s="73" t="e">
+      <c r="K52" s="57"/>
+      <c r="L52" s="57"/>
+      <c r="M52" s="57"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="72" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P52" s="65"/>
-      <c r="Q52" s="65"/>
-      <c r="R52" s="65"/>
-      <c r="S52" s="66"/>
-      <c r="T52" s="49"/>
-    </row>
-    <row r="53" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="112"/>
-      <c r="B53" s="109"/>
-      <c r="C53" s="115"/>
-      <c r="D53" s="45" t="s">
+      <c r="P52" s="64"/>
+      <c r="Q52" s="64"/>
+      <c r="R52" s="64"/>
+      <c r="S52" s="65"/>
+      <c r="T52" s="48"/>
+    </row>
+    <row r="53" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="117"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="73" t="e">
+      <c r="E53" s="72" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="73" t="e">
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="72" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K53" s="46"/>
-      <c r="L53" s="46"/>
-      <c r="M53" s="46"/>
-      <c r="N53" s="42"/>
-      <c r="O53" s="73" t="e">
+      <c r="K53" s="45"/>
+      <c r="L53" s="45"/>
+      <c r="M53" s="45"/>
+      <c r="N53" s="41"/>
+      <c r="O53" s="72" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P53" s="68"/>
-      <c r="Q53" s="68"/>
-      <c r="R53" s="68"/>
-      <c r="S53" s="69"/>
-      <c r="T53" s="49"/>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A54" s="112"/>
-      <c r="B54" s="109"/>
-      <c r="C54" s="115"/>
-      <c r="D54" s="45" t="s">
+      <c r="P53" s="67"/>
+      <c r="Q53" s="67"/>
+      <c r="R53" s="67"/>
+      <c r="S53" s="68"/>
+      <c r="T53" s="48"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="117"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="105"/>
+      <c r="D54" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="E54" s="77" t="e">
+      <c r="E54" s="76" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="77" t="e">
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="76" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K54" s="46"/>
-      <c r="L54" s="46"/>
-      <c r="M54" s="46"/>
-      <c r="N54" s="42"/>
-      <c r="O54" s="77" t="e">
+      <c r="K54" s="45"/>
+      <c r="L54" s="45"/>
+      <c r="M54" s="45"/>
+      <c r="N54" s="41"/>
+      <c r="O54" s="76" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P54" s="68"/>
-      <c r="Q54" s="68"/>
-      <c r="R54" s="68"/>
-      <c r="S54" s="69"/>
-      <c r="T54" s="49"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A55" s="112"/>
-      <c r="B55" s="109"/>
-      <c r="C55" s="115"/>
-      <c r="D55" s="45" t="s">
+      <c r="P54" s="67"/>
+      <c r="Q54" s="67"/>
+      <c r="R54" s="67"/>
+      <c r="S54" s="68"/>
+      <c r="T54" s="48"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="117"/>
+      <c r="B55" s="113"/>
+      <c r="C55" s="105"/>
+      <c r="D55" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E55" s="73" t="e">
+      <c r="E55" s="72" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="73" t="e">
+      <c r="F55" s="58"/>
+      <c r="G55" s="58"/>
+      <c r="H55" s="58"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="72" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K55" s="59"/>
-      <c r="L55" s="59"/>
-      <c r="M55" s="59"/>
-      <c r="N55" s="43"/>
-      <c r="O55" s="73" t="e">
+      <c r="K55" s="58"/>
+      <c r="L55" s="58"/>
+      <c r="M55" s="58"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="72" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P55" s="63"/>
-      <c r="Q55" s="63"/>
-      <c r="R55" s="63"/>
-      <c r="S55" s="64"/>
-      <c r="T55" s="49"/>
-    </row>
-    <row r="56" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="112"/>
-      <c r="B56" s="109"/>
-      <c r="C56" s="115" t="s">
+      <c r="P55" s="62"/>
+      <c r="Q55" s="62"/>
+      <c r="R55" s="62"/>
+      <c r="S55" s="63"/>
+      <c r="T55" s="48"/>
+    </row>
+    <row r="56" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="117"/>
+      <c r="B56" s="113"/>
+      <c r="C56" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="D56" s="45" t="s">
+      <c r="D56" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="E56" s="73" t="e">
+      <c r="E56" s="72" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F56" s="65"/>
-      <c r="G56" s="58"/>
-      <c r="H56" s="65"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="73" t="e">
+      <c r="F56" s="64"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="72" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K56" s="65"/>
-      <c r="L56" s="58"/>
-      <c r="M56" s="65"/>
-      <c r="N56" s="53"/>
-      <c r="O56" s="73" t="e">
+      <c r="K56" s="64"/>
+      <c r="L56" s="57"/>
+      <c r="M56" s="64"/>
+      <c r="N56" s="52"/>
+      <c r="O56" s="72" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P56" s="58"/>
-      <c r="Q56" s="65"/>
-      <c r="R56" s="58"/>
-      <c r="S56" s="66"/>
-      <c r="T56" s="49"/>
-    </row>
-    <row r="57" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="112"/>
-      <c r="B57" s="109"/>
-      <c r="C57" s="115"/>
-      <c r="D57" s="45" t="s">
+      <c r="P56" s="57"/>
+      <c r="Q56" s="64"/>
+      <c r="R56" s="57"/>
+      <c r="S56" s="65"/>
+      <c r="T56" s="48"/>
+    </row>
+    <row r="57" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="117"/>
+      <c r="B57" s="113"/>
+      <c r="C57" s="105"/>
+      <c r="D57" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E57" s="73" t="e">
+      <c r="E57" s="72" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F57" s="68"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="73" t="e">
+      <c r="F57" s="67"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="72" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K57" s="68"/>
-      <c r="L57" s="46"/>
-      <c r="M57" s="68"/>
-      <c r="N57" s="42"/>
-      <c r="O57" s="73" t="e">
+      <c r="K57" s="67"/>
+      <c r="L57" s="45"/>
+      <c r="M57" s="67"/>
+      <c r="N57" s="41"/>
+      <c r="O57" s="72" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P57" s="46"/>
-      <c r="Q57" s="68"/>
-      <c r="R57" s="46"/>
-      <c r="S57" s="69"/>
-      <c r="T57" s="49"/>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A58" s="112"/>
-      <c r="B58" s="109"/>
-      <c r="C58" s="115"/>
-      <c r="D58" s="45" t="s">
+      <c r="P57" s="45"/>
+      <c r="Q57" s="67"/>
+      <c r="R57" s="45"/>
+      <c r="S57" s="68"/>
+      <c r="T57" s="48"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="117"/>
+      <c r="B58" s="113"/>
+      <c r="C58" s="105"/>
+      <c r="D58" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="67" t="e">
+      <c r="E58" s="66" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F58" s="68"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="68"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="67" t="e">
+      <c r="F58" s="67"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="66" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K58" s="68"/>
-      <c r="L58" s="46"/>
-      <c r="M58" s="68"/>
-      <c r="N58" s="42"/>
-      <c r="O58" s="67" t="e">
+      <c r="K58" s="67"/>
+      <c r="L58" s="45"/>
+      <c r="M58" s="67"/>
+      <c r="N58" s="41"/>
+      <c r="O58" s="66" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P58" s="46"/>
-      <c r="Q58" s="68"/>
-      <c r="R58" s="46"/>
-      <c r="S58" s="69"/>
-      <c r="T58" s="49"/>
-    </row>
-    <row r="59" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P58" s="45"/>
+      <c r="Q58" s="67"/>
+      <c r="R58" s="45"/>
+      <c r="S58" s="68"/>
+      <c r="T58" s="48"/>
+    </row>
+    <row r="59" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="118"/>
-      <c r="B59" s="110"/>
-      <c r="C59" s="116"/>
-      <c r="D59" s="41" t="s">
+      <c r="B59" s="112"/>
+      <c r="C59" s="106"/>
+      <c r="D59" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E59" s="72" t="e">
+      <c r="E59" s="71" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F59" s="70"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="70"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="62" t="e">
+      <c r="F59" s="69"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="61" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K59" s="70"/>
-      <c r="L59" s="61"/>
-      <c r="M59" s="70"/>
-      <c r="N59" s="60"/>
-      <c r="O59" s="72" t="e">
+      <c r="K59" s="69"/>
+      <c r="L59" s="60"/>
+      <c r="M59" s="69"/>
+      <c r="N59" s="59"/>
+      <c r="O59" s="71" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P59" s="61"/>
-      <c r="Q59" s="70"/>
-      <c r="R59" s="61"/>
-      <c r="S59" s="71"/>
-      <c r="T59" s="49"/>
-    </row>
-    <row r="60" spans="1:20" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="111" t="s">
+      <c r="P59" s="60"/>
+      <c r="Q59" s="69"/>
+      <c r="R59" s="60"/>
+      <c r="S59" s="70"/>
+      <c r="T59" s="48"/>
+    </row>
+    <row r="60" spans="1:20" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="B60" s="81"/>
-      <c r="C60" s="113" t="s">
+      <c r="B60" s="80"/>
+      <c r="C60" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="D60" s="44" t="s">
+      <c r="D60" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E60" s="73" t="e">
+      <c r="E60" s="72" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F60" s="55"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="51"/>
-      <c r="J60" s="73" t="e">
+      <c r="F60" s="54"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="72" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K60" s="55"/>
-      <c r="L60" s="55"/>
-      <c r="M60" s="55"/>
-      <c r="N60" s="51"/>
-      <c r="O60" s="80" t="e">
+      <c r="K60" s="54"/>
+      <c r="L60" s="54"/>
+      <c r="M60" s="54"/>
+      <c r="N60" s="50"/>
+      <c r="O60" s="79" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P60" s="55"/>
-      <c r="Q60" s="55"/>
-      <c r="R60" s="55"/>
-      <c r="S60" s="51"/>
-      <c r="T60" s="49"/>
-    </row>
-    <row r="61" spans="1:20" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="112"/>
-      <c r="B61" s="82"/>
-      <c r="C61" s="114"/>
-      <c r="D61" s="45" t="s">
+      <c r="P60" s="54"/>
+      <c r="Q60" s="54"/>
+      <c r="R60" s="54"/>
+      <c r="S60" s="50"/>
+      <c r="T60" s="48"/>
+    </row>
+    <row r="61" spans="1:20" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="117"/>
+      <c r="B61" s="81"/>
+      <c r="C61" s="107"/>
+      <c r="D61" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E61" s="73" t="e">
+      <c r="E61" s="72" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F61" s="46"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="46"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="77" t="e">
+      <c r="F61" s="45"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="76" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K61" s="46"/>
-      <c r="L61" s="46"/>
-      <c r="M61" s="46"/>
-      <c r="N61" s="42"/>
-      <c r="O61" s="73" t="e">
+      <c r="K61" s="45"/>
+      <c r="L61" s="45"/>
+      <c r="M61" s="45"/>
+      <c r="N61" s="41"/>
+      <c r="O61" s="72" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P61" s="46"/>
-      <c r="Q61" s="46"/>
-      <c r="R61" s="46"/>
-      <c r="S61" s="42"/>
-      <c r="T61" s="49"/>
-    </row>
-    <row r="62" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="112"/>
-      <c r="B62" s="108" t="s">
+      <c r="P61" s="45"/>
+      <c r="Q61" s="45"/>
+      <c r="R61" s="45"/>
+      <c r="S61" s="41"/>
+      <c r="T61" s="48"/>
+    </row>
+    <row r="62" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="117"/>
+      <c r="B62" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="114"/>
-      <c r="D62" s="48" t="s">
+      <c r="C62" s="107"/>
+      <c r="D62" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="77" t="e">
+      <c r="E62" s="76" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F62" s="46"/>
-      <c r="G62" s="46"/>
-      <c r="H62" s="46"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="78" t="e">
+      <c r="F62" s="45"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="77" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K62" s="46"/>
-      <c r="L62" s="46"/>
-      <c r="M62" s="46"/>
-      <c r="N62" s="42"/>
-      <c r="O62" s="77" t="e">
+      <c r="K62" s="45"/>
+      <c r="L62" s="45"/>
+      <c r="M62" s="45"/>
+      <c r="N62" s="41"/>
+      <c r="O62" s="76" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P62" s="89"/>
-      <c r="Q62" s="89"/>
-      <c r="R62" s="89"/>
-      <c r="S62" s="90"/>
-      <c r="T62" s="49"/>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A63" s="112"/>
-      <c r="B63" s="109"/>
-      <c r="C63" s="114"/>
-      <c r="D63" s="48" t="s">
+      <c r="P62" s="88"/>
+      <c r="Q62" s="88"/>
+      <c r="R62" s="88"/>
+      <c r="S62" s="89"/>
+      <c r="T62" s="48"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="117"/>
+      <c r="B63" s="113"/>
+      <c r="C63" s="107"/>
+      <c r="D63" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E63" s="73" t="e">
+      <c r="E63" s="72" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F63" s="59"/>
-      <c r="G63" s="59"/>
-      <c r="H63" s="59"/>
-      <c r="I63" s="43"/>
-      <c r="J63" s="73" t="e">
+      <c r="F63" s="58"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="72" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K63" s="59"/>
-      <c r="L63" s="59"/>
-      <c r="M63" s="59"/>
-      <c r="N63" s="43"/>
-      <c r="O63" s="73" t="e">
+      <c r="K63" s="58"/>
+      <c r="L63" s="58"/>
+      <c r="M63" s="58"/>
+      <c r="N63" s="42"/>
+      <c r="O63" s="72" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P63" s="56"/>
-      <c r="Q63" s="56"/>
-      <c r="R63" s="56"/>
-      <c r="S63" s="54"/>
-      <c r="T63" s="49"/>
-    </row>
-    <row r="64" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="112"/>
-      <c r="B64" s="109"/>
-      <c r="C64" s="115" t="s">
+      <c r="P63" s="55"/>
+      <c r="Q63" s="55"/>
+      <c r="R63" s="55"/>
+      <c r="S63" s="53"/>
+      <c r="T63" s="48"/>
+    </row>
+    <row r="64" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="117"/>
+      <c r="B64" s="113"/>
+      <c r="C64" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="D64" s="45" t="s">
+      <c r="D64" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="E64" s="73" t="e">
+      <c r="E64" s="72" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F64" s="65"/>
-      <c r="G64" s="65"/>
-      <c r="H64" s="65"/>
-      <c r="I64" s="66"/>
-      <c r="J64" s="73" t="e">
+      <c r="F64" s="64"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="64"/>
+      <c r="I64" s="65"/>
+      <c r="J64" s="72" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K64" s="65"/>
-      <c r="L64" s="65"/>
-      <c r="M64" s="65"/>
-      <c r="N64" s="66"/>
-      <c r="O64" s="73" t="e">
+      <c r="K64" s="64"/>
+      <c r="L64" s="64"/>
+      <c r="M64" s="64"/>
+      <c r="N64" s="65"/>
+      <c r="O64" s="72" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P64" s="91"/>
-      <c r="Q64" s="91"/>
-      <c r="R64" s="91"/>
-      <c r="S64" s="92"/>
-      <c r="T64" s="49"/>
-    </row>
-    <row r="65" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="112"/>
-      <c r="B65" s="109"/>
-      <c r="C65" s="115"/>
-      <c r="D65" s="45" t="s">
+      <c r="P64" s="90"/>
+      <c r="Q64" s="90"/>
+      <c r="R64" s="90"/>
+      <c r="S64" s="91"/>
+      <c r="T64" s="48"/>
+    </row>
+    <row r="65" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="117"/>
+      <c r="B65" s="113"/>
+      <c r="C65" s="105"/>
+      <c r="D65" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E65" s="73" t="e">
+      <c r="E65" s="72" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F65" s="68"/>
-      <c r="G65" s="68"/>
-      <c r="H65" s="68"/>
-      <c r="I65" s="69"/>
-      <c r="J65" s="73" t="e">
+      <c r="F65" s="67"/>
+      <c r="G65" s="67"/>
+      <c r="H65" s="67"/>
+      <c r="I65" s="68"/>
+      <c r="J65" s="72" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K65" s="68"/>
-      <c r="L65" s="68"/>
-      <c r="M65" s="68"/>
-      <c r="N65" s="69"/>
-      <c r="O65" s="73" t="e">
+      <c r="K65" s="67"/>
+      <c r="L65" s="67"/>
+      <c r="M65" s="67"/>
+      <c r="N65" s="68"/>
+      <c r="O65" s="72" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P65" s="89"/>
-      <c r="Q65" s="89"/>
-      <c r="R65" s="89"/>
-      <c r="S65" s="90"/>
-      <c r="T65" s="49"/>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A66" s="112"/>
-      <c r="B66" s="109"/>
-      <c r="C66" s="115"/>
-      <c r="D66" s="45" t="s">
+      <c r="P65" s="88"/>
+      <c r="Q65" s="88"/>
+      <c r="R65" s="88"/>
+      <c r="S65" s="89"/>
+      <c r="T65" s="48"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" s="117"/>
+      <c r="B66" s="113"/>
+      <c r="C66" s="105"/>
+      <c r="D66" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="E66" s="67" t="e">
+      <c r="E66" s="66" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F66" s="68"/>
-      <c r="G66" s="68"/>
-      <c r="H66" s="68"/>
-      <c r="I66" s="69"/>
-      <c r="J66" s="79" t="e">
+      <c r="F66" s="67"/>
+      <c r="G66" s="67"/>
+      <c r="H66" s="67"/>
+      <c r="I66" s="68"/>
+      <c r="J66" s="78" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K66" s="68"/>
-      <c r="L66" s="68"/>
-      <c r="M66" s="68"/>
-      <c r="N66" s="69"/>
-      <c r="O66" s="77" t="e">
+      <c r="K66" s="67"/>
+      <c r="L66" s="67"/>
+      <c r="M66" s="67"/>
+      <c r="N66" s="68"/>
+      <c r="O66" s="76" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P66" s="89"/>
-      <c r="Q66" s="89"/>
-      <c r="R66" s="89"/>
-      <c r="S66" s="90"/>
-      <c r="T66" s="49"/>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A67" s="112"/>
-      <c r="B67" s="109"/>
-      <c r="C67" s="115"/>
-      <c r="D67" s="45" t="s">
+      <c r="P66" s="88"/>
+      <c r="Q66" s="88"/>
+      <c r="R66" s="88"/>
+      <c r="S66" s="89"/>
+      <c r="T66" s="48"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" s="117"/>
+      <c r="B67" s="113"/>
+      <c r="C67" s="105"/>
+      <c r="D67" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E67" s="62" t="e">
+      <c r="E67" s="61" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F67" s="63"/>
-      <c r="G67" s="63"/>
-      <c r="H67" s="63"/>
-      <c r="I67" s="64"/>
-      <c r="J67" s="62" t="e">
+      <c r="F67" s="62"/>
+      <c r="G67" s="62"/>
+      <c r="H67" s="62"/>
+      <c r="I67" s="63"/>
+      <c r="J67" s="61" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K67" s="63"/>
-      <c r="L67" s="63"/>
-      <c r="M67" s="63"/>
-      <c r="N67" s="64"/>
-      <c r="O67" s="84" t="e">
+      <c r="K67" s="62"/>
+      <c r="L67" s="62"/>
+      <c r="M67" s="62"/>
+      <c r="N67" s="63"/>
+      <c r="O67" s="83" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P67" s="93"/>
-      <c r="Q67" s="93"/>
-      <c r="R67" s="93"/>
-      <c r="S67" s="94"/>
-      <c r="T67" s="49"/>
-    </row>
-    <row r="68" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="112"/>
-      <c r="B68" s="109"/>
-      <c r="C68" s="115" t="s">
+      <c r="P67" s="92"/>
+      <c r="Q67" s="92"/>
+      <c r="R67" s="92"/>
+      <c r="S67" s="93"/>
+      <c r="T67" s="48"/>
+    </row>
+    <row r="68" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="117"/>
+      <c r="B68" s="113"/>
+      <c r="C68" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="D68" s="45" t="s">
+      <c r="D68" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="E68" s="73" t="e">
+      <c r="E68" s="72" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F68" s="58"/>
-      <c r="G68" s="58"/>
-      <c r="H68" s="58"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="73" t="e">
+      <c r="F68" s="57"/>
+      <c r="G68" s="57"/>
+      <c r="H68" s="57"/>
+      <c r="I68" s="52"/>
+      <c r="J68" s="72" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K68" s="58"/>
-      <c r="L68" s="58"/>
-      <c r="M68" s="58"/>
-      <c r="N68" s="53"/>
-      <c r="O68" s="73" t="e">
+      <c r="K68" s="57"/>
+      <c r="L68" s="57"/>
+      <c r="M68" s="57"/>
+      <c r="N68" s="52"/>
+      <c r="O68" s="72" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P68" s="65"/>
-      <c r="Q68" s="65"/>
-      <c r="R68" s="65"/>
-      <c r="S68" s="66"/>
-      <c r="T68" s="49"/>
-    </row>
-    <row r="69" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="112"/>
-      <c r="B69" s="109"/>
-      <c r="C69" s="115"/>
-      <c r="D69" s="45" t="s">
+      <c r="P68" s="64"/>
+      <c r="Q68" s="64"/>
+      <c r="R68" s="64"/>
+      <c r="S68" s="65"/>
+      <c r="T68" s="48"/>
+    </row>
+    <row r="69" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="117"/>
+      <c r="B69" s="113"/>
+      <c r="C69" s="105"/>
+      <c r="D69" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E69" s="73" t="e">
+      <c r="E69" s="72" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F69" s="46"/>
-      <c r="G69" s="46"/>
-      <c r="H69" s="46"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="73" t="e">
+      <c r="F69" s="45"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="45"/>
+      <c r="I69" s="41"/>
+      <c r="J69" s="72" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K69" s="46"/>
-      <c r="L69" s="46"/>
-      <c r="M69" s="46"/>
-      <c r="N69" s="42"/>
-      <c r="O69" s="73" t="e">
+      <c r="K69" s="45"/>
+      <c r="L69" s="45"/>
+      <c r="M69" s="45"/>
+      <c r="N69" s="41"/>
+      <c r="O69" s="72" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P69" s="68"/>
-      <c r="Q69" s="68"/>
-      <c r="R69" s="68"/>
-      <c r="S69" s="69"/>
-      <c r="T69" s="49"/>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A70" s="112"/>
-      <c r="B70" s="109"/>
-      <c r="C70" s="115"/>
-      <c r="D70" s="48" t="s">
+      <c r="P69" s="67"/>
+      <c r="Q69" s="67"/>
+      <c r="R69" s="67"/>
+      <c r="S69" s="68"/>
+      <c r="T69" s="48"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" s="117"/>
+      <c r="B70" s="113"/>
+      <c r="C70" s="105"/>
+      <c r="D70" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="E70" s="77" t="e">
+      <c r="E70" s="76" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F70" s="46"/>
-      <c r="G70" s="46"/>
-      <c r="H70" s="46"/>
-      <c r="I70" s="42"/>
-      <c r="J70" s="76" t="e">
+      <c r="F70" s="45"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="75" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K70" s="46"/>
-      <c r="L70" s="46"/>
-      <c r="M70" s="46"/>
-      <c r="N70" s="42"/>
-      <c r="O70" s="77" t="e">
+      <c r="K70" s="45"/>
+      <c r="L70" s="45"/>
+      <c r="M70" s="45"/>
+      <c r="N70" s="41"/>
+      <c r="O70" s="76" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P70" s="68"/>
-      <c r="Q70" s="68"/>
-      <c r="R70" s="68"/>
-      <c r="S70" s="69"/>
-      <c r="T70" s="49"/>
-    </row>
-    <row r="71" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="112"/>
-      <c r="B71" s="109"/>
-      <c r="C71" s="115"/>
-      <c r="D71" s="45" t="s">
+      <c r="P70" s="67"/>
+      <c r="Q70" s="67"/>
+      <c r="R70" s="67"/>
+      <c r="S70" s="68"/>
+      <c r="T70" s="48"/>
+    </row>
+    <row r="71" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="117"/>
+      <c r="B71" s="113"/>
+      <c r="C71" s="105"/>
+      <c r="D71" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E71" s="73" t="e">
+      <c r="E71" s="72" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F71" s="59"/>
-      <c r="G71" s="59"/>
-      <c r="H71" s="59"/>
-      <c r="I71" s="43"/>
-      <c r="J71" s="73" t="e">
+      <c r="F71" s="58"/>
+      <c r="G71" s="58"/>
+      <c r="H71" s="58"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="72" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K71" s="59"/>
-      <c r="L71" s="59"/>
-      <c r="M71" s="59"/>
-      <c r="N71" s="43"/>
-      <c r="O71" s="73" t="e">
+      <c r="K71" s="58"/>
+      <c r="L71" s="58"/>
+      <c r="M71" s="58"/>
+      <c r="N71" s="42"/>
+      <c r="O71" s="72" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P71" s="63"/>
-      <c r="Q71" s="63"/>
-      <c r="R71" s="63"/>
-      <c r="S71" s="64"/>
-      <c r="T71" s="49"/>
-    </row>
-    <row r="72" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="112"/>
-      <c r="B72" s="109"/>
-      <c r="C72" s="115" t="s">
+      <c r="P71" s="62"/>
+      <c r="Q71" s="62"/>
+      <c r="R71" s="62"/>
+      <c r="S71" s="63"/>
+      <c r="T71" s="48"/>
+    </row>
+    <row r="72" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="117"/>
+      <c r="B72" s="113"/>
+      <c r="C72" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="D72" s="45" t="s">
+      <c r="D72" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="E72" s="73" t="e">
+      <c r="E72" s="72" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F72" s="65"/>
-      <c r="G72" s="58"/>
-      <c r="H72" s="65"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="73" t="e">
+      <c r="F72" s="64"/>
+      <c r="G72" s="57"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="52"/>
+      <c r="J72" s="72" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K72" s="65"/>
-      <c r="L72" s="58"/>
-      <c r="M72" s="65"/>
-      <c r="N72" s="53"/>
-      <c r="O72" s="73" t="e">
+      <c r="K72" s="64"/>
+      <c r="L72" s="57"/>
+      <c r="M72" s="64"/>
+      <c r="N72" s="52"/>
+      <c r="O72" s="72" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P72" s="58"/>
-      <c r="Q72" s="65"/>
-      <c r="R72" s="58"/>
-      <c r="S72" s="66"/>
-      <c r="T72" s="49"/>
-    </row>
-    <row r="73" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="112"/>
-      <c r="B73" s="109"/>
-      <c r="C73" s="115"/>
-      <c r="D73" s="45" t="s">
+      <c r="P72" s="57"/>
+      <c r="Q72" s="64"/>
+      <c r="R72" s="57"/>
+      <c r="S72" s="65"/>
+      <c r="T72" s="48"/>
+    </row>
+    <row r="73" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="117"/>
+      <c r="B73" s="113"/>
+      <c r="C73" s="105"/>
+      <c r="D73" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E73" s="73" t="e">
+      <c r="E73" s="72" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F73" s="68"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="68"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="73" t="e">
+      <c r="F73" s="67"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="41"/>
+      <c r="J73" s="72" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K73" s="68"/>
-      <c r="L73" s="46"/>
-      <c r="M73" s="68"/>
-      <c r="N73" s="42"/>
-      <c r="O73" s="73" t="e">
+      <c r="K73" s="67"/>
+      <c r="L73" s="45"/>
+      <c r="M73" s="67"/>
+      <c r="N73" s="41"/>
+      <c r="O73" s="72" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P73" s="46"/>
-      <c r="Q73" s="68"/>
-      <c r="R73" s="46"/>
-      <c r="S73" s="69"/>
-      <c r="T73" s="49"/>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A74" s="112"/>
-      <c r="B74" s="109"/>
-      <c r="C74" s="115"/>
-      <c r="D74" s="48" t="s">
+      <c r="P73" s="45"/>
+      <c r="Q73" s="67"/>
+      <c r="R73" s="45"/>
+      <c r="S73" s="68"/>
+      <c r="T73" s="48"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" s="117"/>
+      <c r="B74" s="113"/>
+      <c r="C74" s="105"/>
+      <c r="D74" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="E74" s="67" t="e">
+      <c r="E74" s="66" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F74" s="68"/>
-      <c r="G74" s="46"/>
-      <c r="H74" s="68"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="67" t="e">
+      <c r="F74" s="67"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="67"/>
+      <c r="I74" s="41"/>
+      <c r="J74" s="66" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K74" s="68"/>
-      <c r="L74" s="46"/>
-      <c r="M74" s="68"/>
-      <c r="N74" s="42"/>
-      <c r="O74" s="67" t="e">
+      <c r="K74" s="67"/>
+      <c r="L74" s="45"/>
+      <c r="M74" s="67"/>
+      <c r="N74" s="41"/>
+      <c r="O74" s="66" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P74" s="46"/>
-      <c r="Q74" s="68"/>
-      <c r="R74" s="46"/>
-      <c r="S74" s="69"/>
-      <c r="T74" s="49"/>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A75" s="112"/>
-      <c r="B75" s="111"/>
-      <c r="C75" s="117"/>
-      <c r="D75" s="45" t="s">
+      <c r="P74" s="45"/>
+      <c r="Q74" s="67"/>
+      <c r="R74" s="45"/>
+      <c r="S74" s="68"/>
+      <c r="T74" s="48"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" s="117"/>
+      <c r="B75" s="114"/>
+      <c r="C75" s="110"/>
+      <c r="D75" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E75" s="62" t="e">
+      <c r="E75" s="61" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F75" s="63"/>
-      <c r="G75" s="59"/>
-      <c r="H75" s="63"/>
-      <c r="I75" s="43"/>
-      <c r="J75" s="62" t="e">
+      <c r="F75" s="62"/>
+      <c r="G75" s="58"/>
+      <c r="H75" s="62"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="61" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K75" s="63"/>
-      <c r="L75" s="59"/>
-      <c r="M75" s="63"/>
-      <c r="N75" s="43"/>
-      <c r="O75" s="62" t="e">
+      <c r="K75" s="62"/>
+      <c r="L75" s="58"/>
+      <c r="M75" s="62"/>
+      <c r="N75" s="42"/>
+      <c r="O75" s="61" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P75" s="59"/>
-      <c r="Q75" s="63"/>
-      <c r="R75" s="59"/>
-      <c r="S75" s="64"/>
-      <c r="T75" s="49"/>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C76" s="96"/>
-      <c r="D76" s="49"/>
-      <c r="E76" s="49"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="49"/>
-      <c r="H76" s="49"/>
-      <c r="I76" s="49"/>
-      <c r="J76" s="49"/>
-      <c r="K76" s="49"/>
-      <c r="L76" s="49"/>
-      <c r="M76" s="49"/>
-      <c r="N76" s="49"/>
-      <c r="O76" s="49"/>
-      <c r="P76" s="49"/>
-      <c r="Q76" s="49"/>
-      <c r="R76" s="49"/>
-      <c r="S76" s="49"/>
-      <c r="T76" s="49"/>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D77" s="49"/>
-      <c r="E77" s="49"/>
-      <c r="F77" s="49"/>
-      <c r="G77" s="49"/>
-      <c r="H77" s="49"/>
-      <c r="I77" s="49"/>
-      <c r="J77" s="49"/>
-      <c r="K77" s="49"/>
-      <c r="L77" s="49"/>
-      <c r="M77" s="49"/>
-      <c r="N77" s="49"/>
-      <c r="O77" s="49"/>
-      <c r="P77" s="49"/>
-      <c r="Q77" s="49"/>
-      <c r="R77" s="49"/>
-      <c r="S77" s="49"/>
-      <c r="T77" s="49"/>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D78" s="49"/>
-      <c r="E78" s="49"/>
-      <c r="F78" s="49"/>
-      <c r="G78" s="46"/>
-      <c r="H78" s="49"/>
-      <c r="I78" s="49"/>
-      <c r="J78" s="49"/>
-      <c r="K78" s="49"/>
-      <c r="L78" s="49"/>
-      <c r="M78" s="49"/>
-      <c r="N78" s="49"/>
-      <c r="O78" s="49"/>
-      <c r="P78" s="49"/>
-      <c r="Q78" s="49"/>
-      <c r="R78" s="49"/>
-      <c r="S78" s="49"/>
-      <c r="T78" s="49"/>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D79" s="49"/>
-      <c r="E79" s="49"/>
-      <c r="F79" s="49"/>
-      <c r="G79" s="46"/>
-      <c r="H79" s="49"/>
-      <c r="I79" s="49"/>
-      <c r="J79" s="49"/>
-      <c r="K79" s="49"/>
-      <c r="L79" s="49"/>
-      <c r="M79" s="49"/>
-      <c r="N79" s="49"/>
-      <c r="O79" s="49"/>
-      <c r="P79" s="49"/>
-      <c r="Q79" s="49"/>
-      <c r="R79" s="49"/>
-      <c r="S79" s="49"/>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D80" s="49"/>
-      <c r="E80" s="49"/>
-      <c r="F80" s="49"/>
-      <c r="G80" s="49"/>
-      <c r="H80" s="49"/>
-      <c r="I80" s="49"/>
-      <c r="J80" s="49"/>
-      <c r="K80" s="49"/>
-      <c r="L80" s="49"/>
-      <c r="M80" s="49"/>
-      <c r="N80" s="49"/>
-      <c r="O80" s="49"/>
-      <c r="P80" s="49"/>
-      <c r="Q80" s="49"/>
-      <c r="R80" s="49"/>
-      <c r="S80" s="49"/>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="D81" s="49"/>
-      <c r="E81" s="49"/>
-      <c r="F81" s="49"/>
-      <c r="G81" s="49"/>
-      <c r="H81" s="49"/>
-      <c r="I81" s="49"/>
-      <c r="J81" s="49"/>
-      <c r="K81" s="49"/>
-      <c r="L81" s="49"/>
-      <c r="M81" s="49"/>
-      <c r="N81" s="49"/>
-      <c r="O81" s="49"/>
-      <c r="P81" s="49"/>
-      <c r="Q81" s="49"/>
-      <c r="R81" s="49"/>
-      <c r="S81" s="49"/>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="D82" s="49"/>
-      <c r="E82" s="49"/>
-      <c r="F82" s="49"/>
-      <c r="G82" s="49"/>
-      <c r="H82" s="49"/>
-      <c r="I82" s="49"/>
-      <c r="J82" s="49"/>
-      <c r="K82" s="49"/>
-      <c r="L82" s="49"/>
-      <c r="M82" s="49"/>
-      <c r="N82" s="49"/>
-      <c r="O82" s="49"/>
-      <c r="P82" s="49"/>
-      <c r="Q82" s="49"/>
-      <c r="R82" s="49"/>
-      <c r="S82" s="49"/>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C89" s="37"/>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C90" s="37"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C91" s="37"/>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C92" s="37"/>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C93" s="37"/>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C94" s="37"/>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C95" s="37"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C96" s="37"/>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C97" s="37"/>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C98" s="37"/>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C99" s="37"/>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C100" s="37"/>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C101" s="37"/>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C102" s="37"/>
-    </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C103" s="37"/>
-    </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C104" s="37"/>
-    </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C105" s="37"/>
-    </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C106" s="37"/>
-    </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C107" s="37"/>
-    </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C108" s="37"/>
-    </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C109" s="37"/>
+      <c r="P75" s="58"/>
+      <c r="Q75" s="62"/>
+      <c r="R75" s="58"/>
+      <c r="S75" s="63"/>
+      <c r="T75" s="48"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C76" s="95"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="48"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="48"/>
+      <c r="H76" s="48"/>
+      <c r="I76" s="48"/>
+      <c r="J76" s="48"/>
+      <c r="K76" s="48"/>
+      <c r="L76" s="48"/>
+      <c r="M76" s="48"/>
+      <c r="N76" s="48"/>
+      <c r="O76" s="48"/>
+      <c r="P76" s="48"/>
+      <c r="Q76" s="48"/>
+      <c r="R76" s="48"/>
+      <c r="S76" s="48"/>
+      <c r="T76" s="48"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D77" s="48"/>
+      <c r="E77" s="48"/>
+      <c r="F77" s="48"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="48"/>
+      <c r="I77" s="48"/>
+      <c r="J77" s="48"/>
+      <c r="K77" s="48"/>
+      <c r="L77" s="48"/>
+      <c r="M77" s="48"/>
+      <c r="N77" s="48"/>
+      <c r="O77" s="48"/>
+      <c r="P77" s="48"/>
+      <c r="Q77" s="48"/>
+      <c r="R77" s="48"/>
+      <c r="S77" s="48"/>
+      <c r="T77" s="48"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D78" s="48"/>
+      <c r="E78" s="48"/>
+      <c r="F78" s="48"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="48"/>
+      <c r="I78" s="48"/>
+      <c r="J78" s="48"/>
+      <c r="K78" s="48"/>
+      <c r="L78" s="48"/>
+      <c r="M78" s="48"/>
+      <c r="N78" s="48"/>
+      <c r="O78" s="48"/>
+      <c r="P78" s="48"/>
+      <c r="Q78" s="48"/>
+      <c r="R78" s="48"/>
+      <c r="S78" s="48"/>
+      <c r="T78" s="48"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D79" s="48"/>
+      <c r="E79" s="48"/>
+      <c r="F79" s="48"/>
+      <c r="G79" s="45"/>
+      <c r="H79" s="48"/>
+      <c r="I79" s="48"/>
+      <c r="J79" s="48"/>
+      <c r="K79" s="48"/>
+      <c r="L79" s="48"/>
+      <c r="M79" s="48"/>
+      <c r="N79" s="48"/>
+      <c r="O79" s="48"/>
+      <c r="P79" s="48"/>
+      <c r="Q79" s="48"/>
+      <c r="R79" s="48"/>
+      <c r="S79" s="48"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D80" s="48"/>
+      <c r="E80" s="48"/>
+      <c r="F80" s="48"/>
+      <c r="G80" s="48"/>
+      <c r="H80" s="48"/>
+      <c r="I80" s="48"/>
+      <c r="J80" s="48"/>
+      <c r="K80" s="48"/>
+      <c r="L80" s="48"/>
+      <c r="M80" s="48"/>
+      <c r="N80" s="48"/>
+      <c r="O80" s="48"/>
+      <c r="P80" s="48"/>
+      <c r="Q80" s="48"/>
+      <c r="R80" s="48"/>
+      <c r="S80" s="48"/>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D81" s="48"/>
+      <c r="E81" s="48"/>
+      <c r="F81" s="48"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="48"/>
+      <c r="I81" s="48"/>
+      <c r="J81" s="48"/>
+      <c r="K81" s="48"/>
+      <c r="L81" s="48"/>
+      <c r="M81" s="48"/>
+      <c r="N81" s="48"/>
+      <c r="O81" s="48"/>
+      <c r="P81" s="48"/>
+      <c r="Q81" s="48"/>
+      <c r="R81" s="48"/>
+      <c r="S81" s="48"/>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D82" s="48"/>
+      <c r="E82" s="48"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="48"/>
+      <c r="J82" s="48"/>
+      <c r="K82" s="48"/>
+      <c r="L82" s="48"/>
+      <c r="M82" s="48"/>
+      <c r="N82" s="48"/>
+      <c r="O82" s="48"/>
+      <c r="P82" s="48"/>
+      <c r="Q82" s="48"/>
+      <c r="R82" s="48"/>
+      <c r="S82" s="48"/>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C89" s="36"/>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C90" s="36"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C91" s="36"/>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C92" s="36"/>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C93" s="36"/>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C94" s="36"/>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C95" s="36"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C96" s="36"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="36"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="36"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" s="36"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" s="36"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="36"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C102" s="36"/>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103" s="36"/>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C104" s="36"/>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C105" s="36"/>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C106" s="36"/>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C107" s="36"/>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C108" s="36"/>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C109" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="B46:B59"/>
+    <mergeCell ref="B62:B75"/>
+    <mergeCell ref="A60:A75"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A20"/>
+    <mergeCell ref="A21:A36"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A59"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B7:B20"/>
     <mergeCell ref="B23:B36"/>
@@ -4073,21 +4115,14 @@
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="D42:D43"/>
     <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A20"/>
-    <mergeCell ref="A21:A36"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A59"/>
-    <mergeCell ref="B46:B59"/>
-    <mergeCell ref="B62:B75"/>
-    <mergeCell ref="A60:A75"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="C33:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -4098,29 +4133,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D43789-1003-47D8-B7A4-FDE215F69927}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="4"/>
-    <col min="2" max="2" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="4"/>
-    <col min="4" max="4" width="21.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="21.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="4"/>
-    <col min="7" max="7" width="28.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="4"/>
+    <col min="7" max="7" width="28.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="4"/>
+    <col min="14" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -4131,30 +4166,30 @@
       <c r="I1" s="14"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="109" t="s">
+      <c r="D2" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="109" t="s">
+      <c r="E2" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="109" t="s">
+      <c r="F2" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="126" t="s">
+      <c r="G2" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="132" t="s">
+      <c r="H2" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="126" t="s">
+      <c r="I2" s="127" t="s">
         <v>18</v>
       </c>
       <c r="J2" s="134" t="s">
@@ -4164,26 +4199,26 @@
       <c r="L2" s="5"/>
       <c r="O2" s="19"/>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="127"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="128"/>
       <c r="J3" s="135"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="O3" s="19"/>
     </row>
-    <row r="4" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="123" t="s">
+    <row r="4" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="10">
@@ -4198,16 +4233,24 @@
       <c r="F4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="26"/>
+      <c r="G4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="29">
+        <v>1E-10</v>
+      </c>
+      <c r="I4" s="10">
+        <v>64</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>51</v>
+      </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="O4" s="19"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="124"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="120"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -4223,16 +4266,16 @@
       <c r="F5" s="3">
         <v>0.5</v>
       </c>
-      <c r="G5" s="81"/>
+      <c r="G5" s="80"/>
       <c r="H5" s="29"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="100"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="99"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="O5" s="19"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="124"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="120"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -4243,7 +4286,7 @@
         <v>29</v>
       </c>
       <c r="E6" s="3">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>19</v>
@@ -4264,8 +4307,8 @@
       <c r="L6" s="6"/>
       <c r="O6" s="19"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="124"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="120"/>
       <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
@@ -4297,8 +4340,8 @@
       <c r="L7" s="6"/>
       <c r="O7" s="19"/>
     </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="125"/>
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="121"/>
       <c r="B8" s="18" t="s">
         <v>16</v>
       </c>
@@ -4330,43 +4373,35 @@
       <c r="L8" s="6"/>
       <c r="O8" s="19"/>
     </row>
-    <row r="9" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="136" t="s">
+    <row r="9" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="101">
         <v>1</v>
       </c>
-      <c r="D9" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="104" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="104" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="35">
-        <v>256</v>
-      </c>
-      <c r="J9" s="105" t="s">
-        <v>50</v>
-      </c>
+      <c r="D9" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="138"/>
       <c r="K9" s="21"/>
       <c r="L9" s="6"/>
       <c r="O9" s="19"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="124"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="120"/>
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
@@ -4391,8 +4426,8 @@
       <c r="M10" s="6"/>
       <c r="O10" s="19"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="124"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="120"/>
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
@@ -4425,8 +4460,8 @@
       <c r="M11" s="6"/>
       <c r="O11" s="19"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="124"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="120"/>
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
@@ -4459,8 +4494,8 @@
       <c r="M12" s="6"/>
       <c r="O12" s="19"/>
     </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="125"/>
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="121"/>
       <c r="B13" s="12" t="s">
         <v>16</v>
       </c>
@@ -4492,8 +4527,8 @@
       <c r="L13" s="6"/>
       <c r="O13" s="19"/>
     </row>
-    <row r="14" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -4506,7 +4541,7 @@
       <c r="J15" s="7"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -4520,60 +4555,60 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="126" t="s">
+      <c r="C17" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="126" t="s">
+      <c r="D17" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="126" t="s">
+      <c r="E17" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="126" t="s">
+      <c r="F17" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="126" t="s">
+      <c r="G17" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="137" t="s">
+      <c r="H17" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="126" t="s">
+      <c r="I17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="126" t="s">
+      <c r="J17" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="128" t="s">
+      <c r="K17" s="129" t="s">
         <v>10</v>
       </c>
       <c r="L17" s="21"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
-      <c r="B18" s="139"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="129"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="128"/>
+      <c r="K18" s="130"/>
       <c r="L18" s="21"/>
     </row>
-    <row r="19" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="123" t="s">
+    <row r="19" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="101" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="10">
@@ -4588,14 +4623,14 @@
       <c r="F19" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="88"/>
+      <c r="G19" s="87"/>
       <c r="H19" s="29"/>
-      <c r="I19" s="88"/>
+      <c r="I19" s="87"/>
       <c r="J19" s="20"/>
-      <c r="K19" s="101"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="124"/>
+      <c r="K19" s="100"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="120"/>
       <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
@@ -4615,11 +4650,11 @@
       <c r="H20" s="29"/>
       <c r="I20" s="34"/>
       <c r="J20" s="34"/>
-      <c r="K20" s="39"/>
+      <c r="K20" s="38"/>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="124"/>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="120"/>
       <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
@@ -4652,8 +4687,8 @@
       </c>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="124"/>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="120"/>
       <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
@@ -4685,8 +4720,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="125"/>
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="121"/>
       <c r="B23" s="13" t="s">
         <v>34</v>
       </c>
@@ -4718,41 +4753,33 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="123" t="s">
+    <row r="24" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="101">
         <v>1</v>
       </c>
-      <c r="D24" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="104" t="s">
-        <v>51</v>
-      </c>
-      <c r="H24" s="104" t="s">
-        <v>52</v>
-      </c>
-      <c r="I24" s="35">
-        <v>256</v>
-      </c>
-      <c r="J24" s="106" t="s">
-        <v>50</v>
-      </c>
-      <c r="K24" s="107"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="124"/>
+      <c r="D24" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="136"/>
+      <c r="H24" s="136"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="137"/>
+      <c r="K24" s="103"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="120"/>
       <c r="B25" s="2" t="s">
         <v>32</v>
       </c>
@@ -4772,10 +4799,10 @@
       <c r="H25" s="29"/>
       <c r="I25" s="34"/>
       <c r="J25" s="34"/>
-      <c r="K25" s="39"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="124"/>
+      <c r="K25" s="38"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="120"/>
       <c r="B26" s="2" t="s">
         <v>15</v>
       </c>
@@ -4807,8 +4834,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="124"/>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="120"/>
       <c r="B27" s="2" t="s">
         <v>33</v>
       </c>
@@ -4840,8 +4867,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="125"/>
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="121"/>
       <c r="B28" s="13" t="s">
         <v>34</v>
       </c>
@@ -4873,8 +4900,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -4888,12 +4915,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="I17:I18"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -4906,11 +4932,12 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="J17:J18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/experiments/all_results.xlsx
+++ b/experiments/all_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ancarey\PycharmProjects\adaptive-hypernets\experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alycia\Documents\adaptive-hypernets\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2169996-EB7E-4A33-B621-701798C97C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99617B7-3807-40F4-97D4-83F353B7641C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="665" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
+    <workbookView xWindow="-10476" yWindow="5136" windowWidth="17280" windowHeight="8964" tabRatio="665" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
   </bookViews>
   <sheets>
     <sheet name="compas-comparison table" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="59">
   <si>
     <t>Model</t>
   </si>
@@ -195,6 +195,24 @@
   </si>
   <si>
     <t>6 min</t>
+  </si>
+  <si>
+    <t>h: .00001, c: .0001</t>
+  </si>
+  <si>
+    <t>h: 2000, c: 50</t>
+  </si>
+  <si>
+    <t>7 min 37 sec</t>
+  </si>
+  <si>
+    <t>10 min 30 sec</t>
+  </si>
+  <si>
+    <t>dp:80, eo: 10</t>
+  </si>
+  <si>
+    <t>13 min 40 sec</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1182,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1173,49 +1218,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1224,49 +1281,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1585,27 +1603,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FA34C5-480C-4D1A-AC66-54DFEF26762F}">
   <dimension ref="A1:T109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="F43" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="P78" sqref="P78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="36"/>
+    <col min="1" max="2" width="9.109375" style="36"/>
     <col min="3" max="3" width="25" style="35" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="14" width="8.7109375" style="36" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.7109375" style="36" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" style="36" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="36"/>
+    <col min="4" max="4" width="14.5546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="8.6640625" style="36" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.6640625" style="36" customWidth="1"/>
+    <col min="18" max="18" width="10.5546875" style="36" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C1" s="104" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C1" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="104"/>
+      <c r="D1" s="121"/>
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
@@ -1621,7 +1639,7 @@
       <c r="Q1" s="45"/>
       <c r="R1" s="37"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C2" s="74"/>
       <c r="D2" s="45"/>
       <c r="E2" s="45"/>
@@ -1639,34 +1657,34 @@
       <c r="Q2" s="46"/>
       <c r="R2" s="37"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="117" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="107" t="s">
+      <c r="D3" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="107" t="s">
+      <c r="E3" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107" t="s">
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="115" t="s">
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="118" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="45"/>
@@ -1674,11 +1692,11 @@
       <c r="R3" s="37"/>
       <c r="S3" s="37"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="118"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="117"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
       <c r="E4" s="40" t="s">
         <v>35</v>
       </c>
@@ -1709,18 +1727,18 @@
       <c r="N4" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="116"/>
+      <c r="O4" s="119"/>
       <c r="P4" s="45"/>
       <c r="Q4" s="45"/>
       <c r="R4" s="37"/>
       <c r="S4" s="37"/>
     </row>
-    <row r="5" spans="1:19" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+    <row r="5" spans="1:19" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="110" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="80"/>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="112" t="s">
         <v>45</v>
       </c>
       <c r="D5" s="43" t="s">
@@ -1768,10 +1786,10 @@
       <c r="R5" s="37"/>
       <c r="S5" s="37"/>
     </row>
-    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="117"/>
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="111"/>
       <c r="B6" s="81"/>
-      <c r="C6" s="107"/>
+      <c r="C6" s="113"/>
       <c r="D6" s="44" t="s">
         <v>40</v>
       </c>
@@ -1794,12 +1812,12 @@
       <c r="R6" s="37"/>
       <c r="S6" s="37"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="117"/>
-      <c r="B7" s="111" t="s">
+    <row r="7" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="111"/>
+      <c r="B7" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="107"/>
+      <c r="C7" s="113"/>
       <c r="D7" s="44" t="s">
         <v>39</v>
       </c>
@@ -1822,10 +1840,10 @@
       <c r="R7" s="37"/>
       <c r="S7" s="37"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="117"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="107"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="111"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="113"/>
       <c r="D8" s="44" t="s">
         <v>23</v>
       </c>
@@ -1868,10 +1886,10 @@
       <c r="R8" s="37"/>
       <c r="S8" s="37"/>
     </row>
-    <row r="9" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="117"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="105" t="s">
+    <row r="9" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="111"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="114" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="44" t="s">
@@ -1896,10 +1914,10 @@
       <c r="R9" s="37"/>
       <c r="S9" s="37"/>
     </row>
-    <row r="10" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="117"/>
-      <c r="B10" s="113"/>
-      <c r="C10" s="105"/>
+    <row r="10" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="111"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="114"/>
       <c r="D10" s="44" t="s">
         <v>40</v>
       </c>
@@ -1922,10 +1940,10 @@
       <c r="R10" s="37"/>
       <c r="S10" s="37"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="117"/>
-      <c r="B11" s="113"/>
-      <c r="C11" s="105"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="111"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="114"/>
       <c r="D11" s="44" t="s">
         <v>39</v>
       </c>
@@ -1948,10 +1966,10 @@
       <c r="R11" s="37"/>
       <c r="S11" s="37"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="117"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="105"/>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="111"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="114"/>
       <c r="D12" s="44" t="s">
         <v>23</v>
       </c>
@@ -1974,10 +1992,10 @@
       <c r="R12" s="37"/>
       <c r="S12" s="37"/>
     </row>
-    <row r="13" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="117"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="105" t="s">
+    <row r="13" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="111"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="114" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="44" t="s">
@@ -2002,10 +2020,10 @@
       <c r="R13" s="37"/>
       <c r="S13" s="37"/>
     </row>
-    <row r="14" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="117"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="105"/>
+    <row r="14" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="111"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="114"/>
       <c r="D14" s="44" t="s">
         <v>40</v>
       </c>
@@ -2028,10 +2046,10 @@
       <c r="R14" s="37"/>
       <c r="S14" s="37"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="117"/>
-      <c r="B15" s="113"/>
-      <c r="C15" s="105"/>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="111"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="114"/>
       <c r="D15" s="44" t="s">
         <v>39</v>
       </c>
@@ -2054,10 +2072,10 @@
       <c r="R15" s="37"/>
       <c r="S15" s="37"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="117"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="105"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="111"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="114"/>
       <c r="D16" s="44" t="s">
         <v>23</v>
       </c>
@@ -2080,10 +2098,10 @@
       <c r="R16" s="37"/>
       <c r="S16" s="37"/>
     </row>
-    <row r="17" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="117"/>
-      <c r="B17" s="113"/>
-      <c r="C17" s="105" t="s">
+    <row r="17" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="111"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="114" t="s">
         <v>48</v>
       </c>
       <c r="D17" s="44" t="s">
@@ -2108,10 +2126,10 @@
       <c r="R17" s="37"/>
       <c r="S17" s="37"/>
     </row>
-    <row r="18" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="117"/>
-      <c r="B18" s="113"/>
-      <c r="C18" s="105"/>
+    <row r="18" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="111"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="114"/>
       <c r="D18" s="44" t="s">
         <v>40</v>
       </c>
@@ -2134,10 +2152,10 @@
       <c r="R18" s="37"/>
       <c r="S18" s="37"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="117"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="105"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="111"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="114"/>
       <c r="D19" s="44" t="s">
         <v>39</v>
       </c>
@@ -2160,10 +2178,10 @@
       <c r="R19" s="37"/>
       <c r="S19" s="37"/>
     </row>
-    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="118"/>
-      <c r="B20" s="112"/>
-      <c r="C20" s="106"/>
+    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="117"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="115"/>
       <c r="D20" s="40" t="s">
         <v>23</v>
       </c>
@@ -2186,12 +2204,12 @@
       <c r="R20" s="37"/>
       <c r="S20" s="37"/>
     </row>
-    <row r="21" spans="1:19" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="114" t="s">
+    <row r="21" spans="1:19" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="110" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="80"/>
-      <c r="C21" s="109" t="s">
+      <c r="C21" s="112" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="43" t="s">
@@ -2214,10 +2232,10 @@
       <c r="P21" s="48"/>
       <c r="Q21" s="48"/>
     </row>
-    <row r="22" spans="1:19" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="117"/>
+    <row r="22" spans="1:19" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="111"/>
       <c r="B22" s="81"/>
-      <c r="C22" s="107"/>
+      <c r="C22" s="113"/>
       <c r="D22" s="44" t="s">
         <v>40</v>
       </c>
@@ -2238,12 +2256,12 @@
       <c r="P22" s="48"/>
       <c r="Q22" s="48"/>
     </row>
-    <row r="23" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="117"/>
-      <c r="B23" s="111" t="s">
+    <row r="23" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="111"/>
+      <c r="B23" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="107"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="47" t="s">
         <v>39</v>
       </c>
@@ -2265,34 +2283,54 @@
       <c r="Q23" s="48"/>
       <c r="R23" s="39"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="117"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="107"/>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="111"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="113"/>
       <c r="D24" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="82"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="83" t="e">
+      <c r="E24" s="82">
+        <v>0.82040000000000002</v>
+      </c>
+      <c r="F24" s="58">
+        <v>0.75449999999999995</v>
+      </c>
+      <c r="G24" s="58">
+        <v>0.78910000000000002</v>
+      </c>
+      <c r="H24" s="58">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="I24" s="42">
+        <v>0.82210000000000005</v>
+      </c>
+      <c r="J24" s="83">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="42"/>
+        <v>0.547875</v>
+      </c>
+      <c r="K24" s="58">
+        <v>0.47389999999999999</v>
+      </c>
+      <c r="L24" s="58">
+        <v>0.60319999999999996</v>
+      </c>
+      <c r="M24" s="58">
+        <v>0.61209999999999998</v>
+      </c>
+      <c r="N24" s="58">
+        <v>0.50229999999999997</v>
+      </c>
+      <c r="O24" s="42" t="s">
+        <v>55</v>
+      </c>
       <c r="P24" s="48"/>
       <c r="Q24" s="48"/>
     </row>
-    <row r="25" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="117"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="105" t="s">
+    <row r="25" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="111"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="114" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="44" t="s">
@@ -2315,10 +2353,10 @@
       <c r="P25" s="48"/>
       <c r="Q25" s="48"/>
     </row>
-    <row r="26" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="117"/>
-      <c r="B26" s="113"/>
-      <c r="C26" s="105"/>
+    <row r="26" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="111"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="114"/>
       <c r="D26" s="44" t="s">
         <v>40</v>
       </c>
@@ -2339,10 +2377,10 @@
       <c r="P26" s="48"/>
       <c r="Q26" s="48"/>
     </row>
-    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="117"/>
-      <c r="B27" s="113"/>
-      <c r="C27" s="105"/>
+    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="111"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="114"/>
       <c r="D27" s="44" t="s">
         <v>39</v>
       </c>
@@ -2363,34 +2401,54 @@
       <c r="P27" s="48"/>
       <c r="Q27" s="48"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="117"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="105"/>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="111"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="114"/>
       <c r="D28" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="72" t="e">
+      <c r="E28" s="51">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="F28" s="58">
+        <v>0.72540000000000004</v>
+      </c>
+      <c r="G28" s="58">
+        <v>0.72350000000000003</v>
+      </c>
+      <c r="H28" s="58">
+        <v>0.79069999999999996</v>
+      </c>
+      <c r="I28" s="42">
+        <v>0.78449999999999998</v>
+      </c>
+      <c r="J28" s="72">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="42"/>
+        <v>0.40510000000000002</v>
+      </c>
+      <c r="K28" s="58">
+        <v>0.32640000000000002</v>
+      </c>
+      <c r="L28" s="58">
+        <v>0.45269999999999999</v>
+      </c>
+      <c r="M28" s="58">
+        <v>0.39140000000000003</v>
+      </c>
+      <c r="N28" s="58">
+        <v>0.44990000000000002</v>
+      </c>
+      <c r="O28" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="P28" s="48"/>
       <c r="Q28" s="48"/>
     </row>
-    <row r="29" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="117"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="105" t="s">
+    <row r="29" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="111"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="114" t="s">
         <v>47</v>
       </c>
       <c r="D29" s="44" t="s">
@@ -2413,10 +2471,10 @@
       <c r="P29" s="48"/>
       <c r="Q29" s="48"/>
     </row>
-    <row r="30" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="117"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="105"/>
+    <row r="30" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="111"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="114"/>
       <c r="D30" s="44" t="s">
         <v>40</v>
       </c>
@@ -2437,10 +2495,10 @@
       <c r="P30" s="48"/>
       <c r="Q30" s="48"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="117"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="105"/>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="111"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="114"/>
       <c r="D31" s="47" t="s">
         <v>39</v>
       </c>
@@ -2461,34 +2519,54 @@
       <c r="P31" s="48"/>
       <c r="Q31" s="48"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="117"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="105"/>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="111"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="114"/>
       <c r="D32" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="51"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="72" t="e">
+      <c r="E32" s="51">
+        <v>0.75629999999999997</v>
+      </c>
+      <c r="F32" s="58">
+        <v>0.69920000000000004</v>
+      </c>
+      <c r="G32" s="58">
+        <v>0.69259999999999999</v>
+      </c>
+      <c r="H32" s="58">
+        <v>0.76349999999999996</v>
+      </c>
+      <c r="I32" s="42">
+        <v>0.77080000000000004</v>
+      </c>
+      <c r="J32" s="72">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="42"/>
+        <v>0.312475</v>
+      </c>
+      <c r="K32" s="58">
+        <v>0.4088</v>
+      </c>
+      <c r="L32" s="58">
+        <v>0.308</v>
+      </c>
+      <c r="M32" s="58">
+        <v>6.13E-2</v>
+      </c>
+      <c r="N32" s="58">
+        <v>0.4718</v>
+      </c>
+      <c r="O32" s="42" t="s">
+        <v>58</v>
+      </c>
       <c r="P32" s="48"/>
       <c r="Q32" s="48"/>
     </row>
-    <row r="33" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="117"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="105" t="s">
+    <row r="33" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="111"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="114" t="s">
         <v>48</v>
       </c>
       <c r="D33" s="44" t="s">
@@ -2511,10 +2589,10 @@
       <c r="P33" s="48"/>
       <c r="Q33" s="48"/>
     </row>
-    <row r="34" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="117"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="105"/>
+    <row r="34" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="111"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="114"/>
       <c r="D34" s="44" t="s">
         <v>40</v>
       </c>
@@ -2535,10 +2613,10 @@
       <c r="P34" s="48"/>
       <c r="Q34" s="48"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="117"/>
-      <c r="B35" s="113"/>
-      <c r="C35" s="105"/>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35" s="111"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="114"/>
       <c r="D35" s="47" t="s">
         <v>39</v>
       </c>
@@ -2559,10 +2637,10 @@
       <c r="P35" s="48"/>
       <c r="Q35" s="48"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="117"/>
-      <c r="B36" s="114"/>
-      <c r="C36" s="110"/>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36" s="111"/>
+      <c r="B36" s="110"/>
+      <c r="C36" s="116"/>
       <c r="D36" s="44" t="s">
         <v>23</v>
       </c>
@@ -2583,7 +2661,7 @@
       <c r="P36" s="48"/>
       <c r="Q36" s="48"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C37" s="94"/>
       <c r="D37" s="48"/>
       <c r="E37" s="48"/>
@@ -2600,7 +2678,7 @@
       <c r="P37" s="48"/>
       <c r="Q37" s="48"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E38" s="48"/>
       <c r="F38" s="48"/>
       <c r="G38" s="48"/>
@@ -2618,7 +2696,7 @@
       <c r="S38" s="48"/>
       <c r="T38" s="48"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E39" s="48"/>
       <c r="F39" s="48"/>
       <c r="G39" s="48"/>
@@ -2636,7 +2714,7 @@
       <c r="S39" s="48"/>
       <c r="T39" s="48"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E40" s="48"/>
       <c r="F40" s="48"/>
       <c r="G40" s="48"/>
@@ -2654,7 +2732,7 @@
       <c r="S40" s="48"/>
       <c r="T40" s="48"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D41" s="48"/>
       <c r="E41" s="48"/>
       <c r="F41" s="48"/>
@@ -2673,47 +2751,47 @@
       <c r="S41" s="48"/>
       <c r="T41" s="48"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="117" t="s">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A42" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="111" t="s">
+      <c r="B42" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="107" t="s">
+      <c r="C42" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="107" t="s">
+      <c r="D42" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="107" t="s">
+      <c r="E42" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="107"/>
-      <c r="G42" s="107"/>
-      <c r="H42" s="107"/>
-      <c r="I42" s="107"/>
-      <c r="J42" s="107" t="s">
+      <c r="F42" s="113"/>
+      <c r="G42" s="113"/>
+      <c r="H42" s="113"/>
+      <c r="I42" s="113"/>
+      <c r="J42" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="K42" s="107"/>
-      <c r="L42" s="107"/>
-      <c r="M42" s="107"/>
-      <c r="N42" s="107"/>
-      <c r="O42" s="107" t="s">
+      <c r="K42" s="113"/>
+      <c r="L42" s="113"/>
+      <c r="M42" s="113"/>
+      <c r="N42" s="113"/>
+      <c r="O42" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="P42" s="107"/>
-      <c r="Q42" s="107"/>
-      <c r="R42" s="107"/>
-      <c r="S42" s="107"/>
+      <c r="P42" s="113"/>
+      <c r="Q42" s="113"/>
+      <c r="R42" s="113"/>
+      <c r="S42" s="113"/>
       <c r="T42" s="48"/>
     </row>
-    <row r="43" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="118"/>
-      <c r="B43" s="112"/>
-      <c r="C43" s="108"/>
-      <c r="D43" s="108"/>
+    <row r="43" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="117"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="120"/>
+      <c r="D43" s="120"/>
       <c r="E43" s="40" t="s">
         <v>35</v>
       </c>
@@ -2761,12 +2839,12 @@
       </c>
       <c r="T43" s="48"/>
     </row>
-    <row r="44" spans="1:20" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="114" t="s">
+    <row r="44" spans="1:20" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="110" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="80"/>
-      <c r="C44" s="109" t="s">
+      <c r="C44" s="112" t="s">
         <v>45</v>
       </c>
       <c r="D44" s="43" t="s">
@@ -2822,10 +2900,10 @@
       </c>
       <c r="T44" s="48"/>
     </row>
-    <row r="45" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="117"/>
+    <row r="45" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="111"/>
       <c r="B45" s="81"/>
-      <c r="C45" s="107"/>
+      <c r="C45" s="113"/>
       <c r="D45" s="44" t="s">
         <v>40</v>
       </c>
@@ -2855,12 +2933,12 @@
       <c r="S45" s="41"/>
       <c r="T45" s="48"/>
     </row>
-    <row r="46" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="117"/>
-      <c r="B46" s="111" t="s">
+    <row r="46" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="111"/>
+      <c r="B46" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="107"/>
+      <c r="C46" s="113"/>
       <c r="D46" s="44" t="s">
         <v>39</v>
       </c>
@@ -2890,10 +2968,10 @@
       <c r="S46" s="41"/>
       <c r="T46" s="48"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="117"/>
-      <c r="B47" s="113"/>
-      <c r="C47" s="107"/>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A47" s="111"/>
+      <c r="B47" s="108"/>
+      <c r="C47" s="113"/>
       <c r="D47" s="44" t="s">
         <v>23</v>
       </c>
@@ -2947,10 +3025,10 @@
       </c>
       <c r="T47" s="48"/>
     </row>
-    <row r="48" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="117"/>
-      <c r="B48" s="113"/>
-      <c r="C48" s="105" t="s">
+    <row r="48" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="111"/>
+      <c r="B48" s="108"/>
+      <c r="C48" s="114" t="s">
         <v>46</v>
       </c>
       <c r="D48" s="44" t="s">
@@ -2982,10 +3060,10 @@
       <c r="S48" s="52"/>
       <c r="T48" s="48"/>
     </row>
-    <row r="49" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="117"/>
-      <c r="B49" s="113"/>
-      <c r="C49" s="105"/>
+    <row r="49" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="111"/>
+      <c r="B49" s="108"/>
+      <c r="C49" s="114"/>
       <c r="D49" s="44" t="s">
         <v>40</v>
       </c>
@@ -3015,10 +3093,10 @@
       <c r="S49" s="41"/>
       <c r="T49" s="48"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="117"/>
-      <c r="B50" s="113"/>
-      <c r="C50" s="105"/>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A50" s="111"/>
+      <c r="B50" s="108"/>
+      <c r="C50" s="114"/>
       <c r="D50" s="44" t="s">
         <v>39</v>
       </c>
@@ -3048,10 +3126,10 @@
       <c r="S50" s="41"/>
       <c r="T50" s="48"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="117"/>
-      <c r="B51" s="113"/>
-      <c r="C51" s="105"/>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A51" s="111"/>
+      <c r="B51" s="108"/>
+      <c r="C51" s="114"/>
       <c r="D51" s="44" t="s">
         <v>23</v>
       </c>
@@ -3081,10 +3159,10 @@
       <c r="S51" s="98"/>
       <c r="T51" s="48"/>
     </row>
-    <row r="52" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="117"/>
-      <c r="B52" s="113"/>
-      <c r="C52" s="105" t="s">
+    <row r="52" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="111"/>
+      <c r="B52" s="108"/>
+      <c r="C52" s="114" t="s">
         <v>47</v>
       </c>
       <c r="D52" s="44" t="s">
@@ -3116,10 +3194,10 @@
       <c r="S52" s="65"/>
       <c r="T52" s="48"/>
     </row>
-    <row r="53" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="117"/>
-      <c r="B53" s="113"/>
-      <c r="C53" s="105"/>
+    <row r="53" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="111"/>
+      <c r="B53" s="108"/>
+      <c r="C53" s="114"/>
       <c r="D53" s="44" t="s">
         <v>40</v>
       </c>
@@ -3149,10 +3227,10 @@
       <c r="S53" s="68"/>
       <c r="T53" s="48"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="117"/>
-      <c r="B54" s="113"/>
-      <c r="C54" s="105"/>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A54" s="111"/>
+      <c r="B54" s="108"/>
+      <c r="C54" s="114"/>
       <c r="D54" s="44" t="s">
         <v>39</v>
       </c>
@@ -3182,10 +3260,10 @@
       <c r="S54" s="68"/>
       <c r="T54" s="48"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="117"/>
-      <c r="B55" s="113"/>
-      <c r="C55" s="105"/>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A55" s="111"/>
+      <c r="B55" s="108"/>
+      <c r="C55" s="114"/>
       <c r="D55" s="44" t="s">
         <v>23</v>
       </c>
@@ -3215,10 +3293,10 @@
       <c r="S55" s="63"/>
       <c r="T55" s="48"/>
     </row>
-    <row r="56" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="117"/>
-      <c r="B56" s="113"/>
-      <c r="C56" s="105" t="s">
+    <row r="56" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="111"/>
+      <c r="B56" s="108"/>
+      <c r="C56" s="114" t="s">
         <v>48</v>
       </c>
       <c r="D56" s="44" t="s">
@@ -3250,10 +3328,10 @@
       <c r="S56" s="65"/>
       <c r="T56" s="48"/>
     </row>
-    <row r="57" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="117"/>
-      <c r="B57" s="113"/>
-      <c r="C57" s="105"/>
+    <row r="57" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="111"/>
+      <c r="B57" s="108"/>
+      <c r="C57" s="114"/>
       <c r="D57" s="44" t="s">
         <v>40</v>
       </c>
@@ -3283,10 +3361,10 @@
       <c r="S57" s="68"/>
       <c r="T57" s="48"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="117"/>
-      <c r="B58" s="113"/>
-      <c r="C58" s="105"/>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A58" s="111"/>
+      <c r="B58" s="108"/>
+      <c r="C58" s="114"/>
       <c r="D58" s="44" t="s">
         <v>39</v>
       </c>
@@ -3316,10 +3394,10 @@
       <c r="S58" s="68"/>
       <c r="T58" s="48"/>
     </row>
-    <row r="59" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="118"/>
-      <c r="B59" s="112"/>
-      <c r="C59" s="106"/>
+    <row r="59" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="117"/>
+      <c r="B59" s="109"/>
+      <c r="C59" s="115"/>
       <c r="D59" s="40" t="s">
         <v>23</v>
       </c>
@@ -3349,12 +3427,12 @@
       <c r="S59" s="70"/>
       <c r="T59" s="48"/>
     </row>
-    <row r="60" spans="1:20" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="114" t="s">
+    <row r="60" spans="1:20" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="110" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="80"/>
-      <c r="C60" s="109" t="s">
+      <c r="C60" s="112" t="s">
         <v>45</v>
       </c>
       <c r="D60" s="43" t="s">
@@ -3386,10 +3464,10 @@
       <c r="S60" s="50"/>
       <c r="T60" s="48"/>
     </row>
-    <row r="61" spans="1:20" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="117"/>
+    <row r="61" spans="1:20" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="111"/>
       <c r="B61" s="81"/>
-      <c r="C61" s="107"/>
+      <c r="C61" s="113"/>
       <c r="D61" s="44" t="s">
         <v>40</v>
       </c>
@@ -3419,12 +3497,12 @@
       <c r="S61" s="41"/>
       <c r="T61" s="48"/>
     </row>
-    <row r="62" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="117"/>
-      <c r="B62" s="111" t="s">
+    <row r="62" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="111"/>
+      <c r="B62" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="107"/>
+      <c r="C62" s="113"/>
       <c r="D62" s="47" t="s">
         <v>39</v>
       </c>
@@ -3454,43 +3532,67 @@
       <c r="S62" s="89"/>
       <c r="T62" s="48"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="117"/>
-      <c r="B63" s="113"/>
-      <c r="C63" s="107"/>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A63" s="111"/>
+      <c r="B63" s="108"/>
+      <c r="C63" s="113"/>
       <c r="D63" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E63" s="72" t="e">
+      <c r="E63" s="72">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F63" s="58"/>
-      <c r="G63" s="58"/>
-      <c r="H63" s="58"/>
-      <c r="I63" s="42"/>
-      <c r="J63" s="72" t="e">
+        <v>-0.12592500000000001</v>
+      </c>
+      <c r="F63" s="58">
+        <v>-0.21149999999999999</v>
+      </c>
+      <c r="G63" s="58">
+        <v>-3.1099999999999999E-2</v>
+      </c>
+      <c r="H63" s="58">
+        <v>-0.1371</v>
+      </c>
+      <c r="I63" s="42">
+        <v>-0.124</v>
+      </c>
+      <c r="J63" s="72">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K63" s="58"/>
-      <c r="L63" s="58"/>
-      <c r="M63" s="58"/>
-      <c r="N63" s="42"/>
-      <c r="O63" s="72" t="e">
+        <v>-0.16094999999999998</v>
+      </c>
+      <c r="K63" s="58">
+        <v>-0.32229999999999998</v>
+      </c>
+      <c r="L63" s="58">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="M63" s="58">
+        <v>-0.1832</v>
+      </c>
+      <c r="N63" s="42">
+        <v>-0.17799999999999999</v>
+      </c>
+      <c r="O63" s="72">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P63" s="55"/>
-      <c r="Q63" s="55"/>
-      <c r="R63" s="55"/>
-      <c r="S63" s="53"/>
+        <v>-0.17787500000000001</v>
+      </c>
+      <c r="P63" s="55">
+        <v>-0.2145</v>
+      </c>
+      <c r="Q63" s="55">
+        <v>-0.1641</v>
+      </c>
+      <c r="R63" s="55">
+        <v>-0.18870000000000001</v>
+      </c>
+      <c r="S63" s="53">
+        <v>-0.14419999999999999</v>
+      </c>
       <c r="T63" s="48"/>
     </row>
-    <row r="64" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="117"/>
-      <c r="B64" s="113"/>
-      <c r="C64" s="105" t="s">
+    <row r="64" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="111"/>
+      <c r="B64" s="108"/>
+      <c r="C64" s="114" t="s">
         <v>46</v>
       </c>
       <c r="D64" s="44" t="s">
@@ -3522,10 +3624,10 @@
       <c r="S64" s="91"/>
       <c r="T64" s="48"/>
     </row>
-    <row r="65" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="117"/>
-      <c r="B65" s="113"/>
-      <c r="C65" s="105"/>
+    <row r="65" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="111"/>
+      <c r="B65" s="108"/>
+      <c r="C65" s="114"/>
       <c r="D65" s="44" t="s">
         <v>40</v>
       </c>
@@ -3555,10 +3657,10 @@
       <c r="S65" s="89"/>
       <c r="T65" s="48"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66" s="117"/>
-      <c r="B66" s="113"/>
-      <c r="C66" s="105"/>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A66" s="111"/>
+      <c r="B66" s="108"/>
+      <c r="C66" s="114"/>
       <c r="D66" s="44" t="s">
         <v>39</v>
       </c>
@@ -3588,43 +3690,67 @@
       <c r="S66" s="89"/>
       <c r="T66" s="48"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="117"/>
-      <c r="B67" s="113"/>
-      <c r="C67" s="105"/>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A67" s="111"/>
+      <c r="B67" s="108"/>
+      <c r="C67" s="114"/>
       <c r="D67" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E67" s="61" t="e">
+      <c r="E67" s="61">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F67" s="62"/>
-      <c r="G67" s="62"/>
-      <c r="H67" s="62"/>
-      <c r="I67" s="63"/>
-      <c r="J67" s="61" t="e">
+        <v>8.2600000000000007E-2</v>
+      </c>
+      <c r="F67" s="62">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="G67" s="62">
+        <v>0.1396</v>
+      </c>
+      <c r="H67" s="62">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="I67" s="63">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="J67" s="61">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K67" s="62"/>
-      <c r="L67" s="62"/>
-      <c r="M67" s="62"/>
-      <c r="N67" s="63"/>
-      <c r="O67" s="83" t="e">
+        <v>0.14530000000000001</v>
+      </c>
+      <c r="K67" s="62">
+        <v>6.1600000000000002E-2</v>
+      </c>
+      <c r="L67" s="62">
+        <v>0.22819999999999999</v>
+      </c>
+      <c r="M67" s="62">
+        <v>0.17960000000000001</v>
+      </c>
+      <c r="N67" s="63">
+        <v>0.1118</v>
+      </c>
+      <c r="O67" s="83">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P67" s="92"/>
-      <c r="Q67" s="92"/>
-      <c r="R67" s="92"/>
-      <c r="S67" s="93"/>
+        <v>-9.4750000000000008E-3</v>
+      </c>
+      <c r="P67" s="92">
+        <v>-2.52E-2</v>
+      </c>
+      <c r="Q67" s="92">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="R67" s="92">
+        <v>-1.46E-2</v>
+      </c>
+      <c r="S67" s="93">
+        <v>-2.5899999999999999E-2</v>
+      </c>
       <c r="T67" s="48"/>
     </row>
-    <row r="68" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="117"/>
-      <c r="B68" s="113"/>
-      <c r="C68" s="105" t="s">
+    <row r="68" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="111"/>
+      <c r="B68" s="108"/>
+      <c r="C68" s="114" t="s">
         <v>47</v>
       </c>
       <c r="D68" s="44" t="s">
@@ -3656,10 +3782,10 @@
       <c r="S68" s="65"/>
       <c r="T68" s="48"/>
     </row>
-    <row r="69" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="117"/>
-      <c r="B69" s="113"/>
-      <c r="C69" s="105"/>
+    <row r="69" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="111"/>
+      <c r="B69" s="108"/>
+      <c r="C69" s="114"/>
       <c r="D69" s="44" t="s">
         <v>40</v>
       </c>
@@ -3689,10 +3815,10 @@
       <c r="S69" s="68"/>
       <c r="T69" s="48"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70" s="117"/>
-      <c r="B70" s="113"/>
-      <c r="C70" s="105"/>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A70" s="111"/>
+      <c r="B70" s="108"/>
+      <c r="C70" s="114"/>
       <c r="D70" s="47" t="s">
         <v>39</v>
       </c>
@@ -3722,43 +3848,67 @@
       <c r="S70" s="68"/>
       <c r="T70" s="48"/>
     </row>
-    <row r="71" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="117"/>
-      <c r="B71" s="113"/>
-      <c r="C71" s="105"/>
+    <row r="71" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="111"/>
+      <c r="B71" s="108"/>
+      <c r="C71" s="114"/>
       <c r="D71" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E71" s="72" t="e">
+      <c r="E71" s="72">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F71" s="58"/>
-      <c r="G71" s="58"/>
-      <c r="H71" s="58"/>
-      <c r="I71" s="42"/>
-      <c r="J71" s="72" t="e">
+        <v>-4.45E-3</v>
+      </c>
+      <c r="F71" s="58">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="G71" s="58">
+        <v>-4.4999999999999997E-3</v>
+      </c>
+      <c r="H71" s="58">
+        <v>-2.7000000000000001E-3</v>
+      </c>
+      <c r="I71" s="42">
+        <v>1.14E-2</v>
+      </c>
+      <c r="J71" s="72">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K71" s="58"/>
-      <c r="L71" s="58"/>
-      <c r="M71" s="58"/>
-      <c r="N71" s="42"/>
-      <c r="O71" s="72" t="e">
+        <v>-8.1749999999999982E-3</v>
+      </c>
+      <c r="K71" s="58">
+        <v>-7.3099999999999998E-2</v>
+      </c>
+      <c r="L71" s="58">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="M71" s="58">
+        <v>-4.7999999999999996E-3</v>
+      </c>
+      <c r="N71" s="42">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="O71" s="72">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P71" s="62"/>
-      <c r="Q71" s="62"/>
-      <c r="R71" s="62"/>
-      <c r="S71" s="63"/>
+        <v>-3.8574999999999998E-2</v>
+      </c>
+      <c r="P71" s="62">
+        <v>-4.5900000000000003E-2</v>
+      </c>
+      <c r="Q71" s="62">
+        <v>-3.6700000000000003E-2</v>
+      </c>
+      <c r="R71" s="62">
+        <v>-5.7000000000000002E-3</v>
+      </c>
+      <c r="S71" s="63">
+        <v>-6.6000000000000003E-2</v>
+      </c>
       <c r="T71" s="48"/>
     </row>
-    <row r="72" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="117"/>
-      <c r="B72" s="113"/>
-      <c r="C72" s="105" t="s">
+    <row r="72" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="111"/>
+      <c r="B72" s="108"/>
+      <c r="C72" s="114" t="s">
         <v>48</v>
       </c>
       <c r="D72" s="44" t="s">
@@ -3790,10 +3940,10 @@
       <c r="S72" s="65"/>
       <c r="T72" s="48"/>
     </row>
-    <row r="73" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="117"/>
-      <c r="B73" s="113"/>
-      <c r="C73" s="105"/>
+    <row r="73" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="111"/>
+      <c r="B73" s="108"/>
+      <c r="C73" s="114"/>
       <c r="D73" s="44" t="s">
         <v>40</v>
       </c>
@@ -3823,10 +3973,10 @@
       <c r="S73" s="68"/>
       <c r="T73" s="48"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" s="117"/>
-      <c r="B74" s="113"/>
-      <c r="C74" s="105"/>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A74" s="111"/>
+      <c r="B74" s="108"/>
+      <c r="C74" s="114"/>
       <c r="D74" s="47" t="s">
         <v>39</v>
       </c>
@@ -3856,10 +4006,10 @@
       <c r="S74" s="68"/>
       <c r="T74" s="48"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A75" s="117"/>
-      <c r="B75" s="114"/>
-      <c r="C75" s="110"/>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A75" s="111"/>
+      <c r="B75" s="110"/>
+      <c r="C75" s="116"/>
       <c r="D75" s="44" t="s">
         <v>23</v>
       </c>
@@ -3889,7 +4039,7 @@
       <c r="S75" s="63"/>
       <c r="T75" s="48"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C76" s="95"/>
       <c r="D76" s="48"/>
       <c r="E76" s="48"/>
@@ -3909,7 +4059,7 @@
       <c r="S76" s="48"/>
       <c r="T76" s="48"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D77" s="48"/>
       <c r="E77" s="48"/>
       <c r="F77" s="48"/>
@@ -3928,7 +4078,7 @@
       <c r="S77" s="48"/>
       <c r="T77" s="48"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D78" s="48"/>
       <c r="E78" s="48"/>
       <c r="F78" s="48"/>
@@ -3947,7 +4097,7 @@
       <c r="S78" s="48"/>
       <c r="T78" s="48"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D79" s="48"/>
       <c r="E79" s="48"/>
       <c r="F79" s="48"/>
@@ -3965,7 +4115,7 @@
       <c r="R79" s="48"/>
       <c r="S79" s="48"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D80" s="48"/>
       <c r="E80" s="48"/>
       <c r="F80" s="48"/>
@@ -3983,7 +4133,7 @@
       <c r="R80" s="48"/>
       <c r="S80" s="48"/>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D81" s="48"/>
       <c r="E81" s="48"/>
       <c r="F81" s="48"/>
@@ -4001,7 +4151,7 @@
       <c r="R81" s="48"/>
       <c r="S81" s="48"/>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D82" s="48"/>
       <c r="E82" s="48"/>
       <c r="F82" s="48"/>
@@ -4019,86 +4169,79 @@
       <c r="R82" s="48"/>
       <c r="S82" s="48"/>
     </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C89" s="36"/>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C90" s="36"/>
     </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C91" s="36"/>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C92" s="36"/>
     </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C93" s="36"/>
     </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C94" s="36"/>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C95" s="36"/>
     </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C96" s="36"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C97" s="36"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C98" s="36"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C99" s="36"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C100" s="36"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C101" s="36"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C102" s="36"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C103" s="36"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C104" s="36"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C105" s="36"/>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C106" s="36"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C107" s="36"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C108" s="36"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C109" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B46:B59"/>
-    <mergeCell ref="B62:B75"/>
-    <mergeCell ref="A60:A75"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A20"/>
-    <mergeCell ref="A21:A36"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A59"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="C33:C36"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B7:B20"/>
     <mergeCell ref="B23:B36"/>
@@ -4115,14 +4258,21 @@
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="D42:D43"/>
     <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A20"/>
+    <mergeCell ref="A21:A36"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A59"/>
+    <mergeCell ref="B46:B59"/>
+    <mergeCell ref="B62:B75"/>
+    <mergeCell ref="A60:A75"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C72:C75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -4133,29 +4283,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D43789-1003-47D8-B7A4-FDE215F69927}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="4"/>
-    <col min="4" max="4" width="21.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="4"/>
+    <col min="2" max="2" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="4"/>
+    <col min="4" max="4" width="21.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="28.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="4"/>
+    <col min="7" max="7" width="28.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="4"/>
+    <col min="14" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -4166,56 +4316,56 @@
       <c r="I1" s="14"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="113" t="s">
+      <c r="C2" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="113" t="s">
+      <c r="E2" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="113" t="s">
+      <c r="F2" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="127" t="s">
+      <c r="G2" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="133" t="s">
+      <c r="H2" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="127" t="s">
+      <c r="I2" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="134" t="s">
+      <c r="J2" s="133" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="O2" s="19"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
-      <c r="B3" s="132"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="135"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="134"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="O3" s="19"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+    <row r="4" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="122" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="102" t="s">
@@ -4249,8 +4399,8 @@
       <c r="L4" s="6"/>
       <c r="O4" s="19"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="120"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="123"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -4274,8 +4424,8 @@
       <c r="L5" s="6"/>
       <c r="O5" s="19"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="120"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="123"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -4307,8 +4457,8 @@
       <c r="L6" s="6"/>
       <c r="O6" s="19"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="120"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="123"/>
       <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
@@ -4340,8 +4490,8 @@
       <c r="L7" s="6"/>
       <c r="O7" s="19"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="121"/>
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="124"/>
       <c r="B8" s="18" t="s">
         <v>16</v>
       </c>
@@ -4373,8 +4523,8 @@
       <c r="L8" s="6"/>
       <c r="O8" s="19"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="122" t="s">
+    <row r="9" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="135" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="101" t="s">
@@ -4392,16 +4542,24 @@
       <c r="F9" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="138"/>
+      <c r="G9" s="104" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="104">
+        <v>1E-10</v>
+      </c>
+      <c r="I9" s="101">
+        <v>256</v>
+      </c>
+      <c r="J9" s="106" t="s">
+        <v>54</v>
+      </c>
       <c r="K9" s="21"/>
       <c r="L9" s="6"/>
       <c r="O9" s="19"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="120"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="123"/>
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
@@ -4426,8 +4584,8 @@
       <c r="M10" s="6"/>
       <c r="O10" s="19"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="120"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="123"/>
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
@@ -4460,8 +4618,8 @@
       <c r="M11" s="6"/>
       <c r="O11" s="19"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="120"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="123"/>
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
@@ -4494,8 +4652,8 @@
       <c r="M12" s="6"/>
       <c r="O12" s="19"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="121"/>
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="124"/>
       <c r="B13" s="12" t="s">
         <v>16</v>
       </c>
@@ -4527,8 +4685,8 @@
       <c r="L13" s="6"/>
       <c r="O13" s="19"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -4541,7 +4699,7 @@
       <c r="J15" s="7"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -4555,57 +4713,57 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
-      <c r="B17" s="125" t="s">
+      <c r="B17" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="127" t="s">
+      <c r="C17" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="127" t="s">
+      <c r="D17" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="127" t="s">
+      <c r="E17" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="127" t="s">
+      <c r="F17" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="127" t="s">
+      <c r="G17" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="123" t="s">
+      <c r="H17" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="127" t="s">
+      <c r="I17" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="127" t="s">
+      <c r="J17" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="129" t="s">
+      <c r="K17" s="127" t="s">
         <v>10</v>
       </c>
       <c r="L17" s="21"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
-      <c r="B18" s="126"/>
-      <c r="C18" s="128"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="128"/>
-      <c r="K18" s="130"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="126"/>
+      <c r="K18" s="128"/>
       <c r="L18" s="21"/>
     </row>
-    <row r="19" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="119" t="s">
+    <row r="19" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="122" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="101" t="s">
@@ -4629,8 +4787,8 @@
       <c r="J19" s="20"/>
       <c r="K19" s="100"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="120"/>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="123"/>
       <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
@@ -4653,8 +4811,8 @@
       <c r="K20" s="38"/>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="120"/>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="123"/>
       <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
@@ -4687,8 +4845,8 @@
       </c>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="120"/>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="123"/>
       <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
@@ -4720,8 +4878,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="121"/>
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="124"/>
       <c r="B23" s="13" t="s">
         <v>34</v>
       </c>
@@ -4753,8 +4911,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="119" t="s">
+    <row r="24" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="122" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="101" t="s">
@@ -4772,14 +4930,16 @@
       <c r="F24" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="136"/>
-      <c r="H24" s="136"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="104"/>
       <c r="I24" s="101"/>
-      <c r="J24" s="137"/>
-      <c r="K24" s="103"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="120"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="103" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="123"/>
       <c r="B25" s="2" t="s">
         <v>32</v>
       </c>
@@ -4801,8 +4961,8 @@
       <c r="J25" s="34"/>
       <c r="K25" s="38"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="120"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="123"/>
       <c r="B26" s="2" t="s">
         <v>15</v>
       </c>
@@ -4834,8 +4994,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="120"/>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="123"/>
       <c r="B27" s="2" t="s">
         <v>33</v>
       </c>
@@ -4867,8 +5027,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="121"/>
+    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="124"/>
       <c r="B28" s="13" t="s">
         <v>34</v>
       </c>
@@ -4900,8 +5060,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -4915,11 +5075,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -4932,12 +5093,11 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="J17:J18"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="I17:I18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/experiments/all_results.xlsx
+++ b/experiments/all_results.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alycia\Documents\adaptive-hypernets\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99617B7-3807-40F4-97D4-83F353B7641C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEC8715-14FB-4493-B338-E4A7AC953986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10476" yWindow="5136" windowWidth="17280" windowHeight="8964" tabRatio="665" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
+    <workbookView xWindow="2556" yWindow="2124" windowWidth="17280" windowHeight="8964" tabRatio="665" firstSheet="2" activeTab="2" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
   </bookViews>
   <sheets>
-    <sheet name="compas-comparison table" sheetId="11" r:id="rId1"/>
-    <sheet name="compas-Param and Arch" sheetId="8" r:id="rId2"/>
+    <sheet name="Chart2" sheetId="13" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="12" r:id="rId2"/>
+    <sheet name="compas-comparison table" sheetId="11" r:id="rId3"/>
+    <sheet name="compas-Param and Arch" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="67">
   <si>
     <t>Model</t>
   </si>
@@ -194,9 +196,6 @@
     <t>h:2000, c:50</t>
   </si>
   <si>
-    <t>6 min</t>
-  </si>
-  <si>
     <t>h: .00001, c: .0001</t>
   </si>
   <si>
@@ -206,13 +205,40 @@
     <t>7 min 37 sec</t>
   </si>
   <si>
-    <t>10 min 30 sec</t>
+    <t>11 min 20 sec</t>
   </si>
   <si>
-    <t>dp:80, eo: 10</t>
+    <t>eod</t>
   </si>
   <si>
-    <t>13 min 40 sec</t>
+    <t>dp:100, eo: 50</t>
+  </si>
+  <si>
+    <t>12 min 23 sec</t>
+  </si>
+  <si>
+    <t>11 min 36 sec</t>
+  </si>
+  <si>
+    <t>4 min 8 sec</t>
+  </si>
+  <si>
+    <t>7 min 12 sec</t>
+  </si>
+  <si>
+    <t>9 min 47 sec</t>
+  </si>
+  <si>
+    <t>8 min 15 sec</t>
+  </si>
+  <si>
+    <t>spd</t>
+  </si>
+  <si>
+    <t>6 min 34 sec</t>
+  </si>
+  <si>
+    <t>dp:750, eo:</t>
   </si>
 </sst>
 </file>
@@ -873,7 +899,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1125,13 +1151,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1185,31 +1205,13 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1218,24 +1220,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1243,6 +1263,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1266,25 +1301,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1302,6 +1325,2476 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compas-comparison table'!$M$81:$N$81</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6472</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'compas-comparison table'!$O$80:$X$80</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>spd</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>eod</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compas-comparison table'!$O$81:$X$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1074</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1137</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.21879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.1154</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.8275000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2750-43FD-9B87-0DCB42340CEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compas-comparison table'!$M$82:$N$82</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6537</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'compas-comparison table'!$O$80:$X$80</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>spd</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>eod</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compas-comparison table'!$O$82:$X$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1368</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4700000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.22919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.14419999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.047499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2750-43FD-9B87-0DCB42340CEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compas-comparison table'!$M$83:$N$83</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6521</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'compas-comparison table'!$O$80:$X$80</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>spd</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>eod</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compas-comparison table'!$O$83:$X$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.16109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17150000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.19789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.15379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.7749999999999945E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2750-43FD-9B87-0DCB42340CEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compas-comparison table'!$M$84:$N$84</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'compas-comparison table'!$O$80:$X$80</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>spd</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>eod</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compas-comparison table'!$O$84:$X$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2750-43FD-9B87-0DCB42340CEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compas-comparison table'!$M$85:$N$85</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'compas-comparison table'!$O$80:$X$80</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>spd</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>eod</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compas-comparison table'!$O$85:$X$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2750-43FD-9B87-0DCB42340CEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compas-comparison table'!$M$86:$N$86</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'compas-comparison table'!$O$80:$X$80</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>spd</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>eod</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compas-comparison table'!$O$86:$X$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2750-43FD-9B87-0DCB42340CEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1269908159"/>
+        <c:axId val="1269906495"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1269908159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1269906495"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1269906495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1269908159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compas-comparison table'!$M$81:$N$81</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6472</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'compas-comparison table'!$O$80:$X$80</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>spd</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>eod</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compas-comparison table'!$O$81:$X$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1074</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1137</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.21879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.1154</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.8275000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B08-43C5-81CE-EBB4E226ACB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compas-comparison table'!$M$82:$N$82</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6537</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'compas-comparison table'!$O$80:$X$80</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>spd</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>eod</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compas-comparison table'!$O$82:$X$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1368</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4700000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.22919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.14419999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.047499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7B08-43C5-81CE-EBB4E226ACB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compas-comparison table'!$M$83:$N$83</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6521</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'compas-comparison table'!$O$80:$X$80</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>spd</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>eod</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compas-comparison table'!$O$83:$X$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.16109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17150000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.19789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.15379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.7749999999999945E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7B08-43C5-81CE-EBB4E226ACB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compas-comparison table'!$M$84:$N$84</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'compas-comparison table'!$O$80:$X$80</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>spd</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>eod</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compas-comparison table'!$O$84:$X$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7B08-43C5-81CE-EBB4E226ACB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compas-comparison table'!$M$85:$N$85</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'compas-comparison table'!$O$80:$X$80</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>spd</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>eod</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compas-comparison table'!$O$85:$X$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7B08-43C5-81CE-EBB4E226ACB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compas-comparison table'!$M$86:$N$86</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'compas-comparison table'!$O$80:$X$80</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>spd</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>eod</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compas-comparison table'!$O$86:$X$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7B08-43C5-81CE-EBB4E226ACB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1722651903"/>
+        <c:axId val="1722654815"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1722651903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1722654815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1722654815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1722651903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F1269D42-3644-43E2-AE00-240B517DC135}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="81" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{BEEF6853-9724-4C06-9E4D-CB166167C331}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="81" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8654815" cy="6274741"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEA6CEBC-B69D-FE1B-FD3F-990D4FA7F1D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8654815" cy="6274741"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B0240D-E7A4-656A-886B-E0CA8A40E12C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1601,10 +4094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FA34C5-480C-4D1A-AC66-54DFEF26762F}">
-  <dimension ref="A1:T109"/>
+  <dimension ref="A1:X109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F43" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P78" sqref="P78"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1620,10 +4113,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C1" s="121" t="s">
+      <c r="C1" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="121"/>
+      <c r="D1" s="105"/>
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
@@ -1658,33 +4151,33 @@
       <c r="R2" s="37"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="113" t="s">
+      <c r="D3" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="113" t="s">
+      <c r="E3" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113" t="s">
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="118" t="s">
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="116" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="45"/>
@@ -1693,10 +4186,10 @@
       <c r="S3" s="37"/>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="117"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
+      <c r="A4" s="119"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="40" t="s">
         <v>35</v>
       </c>
@@ -1727,18 +4220,18 @@
       <c r="N4" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="119"/>
+      <c r="O4" s="117"/>
       <c r="P4" s="45"/>
       <c r="Q4" s="45"/>
       <c r="R4" s="37"/>
       <c r="S4" s="37"/>
     </row>
     <row r="5" spans="1:19" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="115" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="80"/>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="110" t="s">
         <v>45</v>
       </c>
       <c r="D5" s="43" t="s">
@@ -1787,9 +4280,9 @@
       <c r="S5" s="37"/>
     </row>
     <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="111"/>
+      <c r="A6" s="118"/>
       <c r="B6" s="81"/>
-      <c r="C6" s="113"/>
+      <c r="C6" s="108"/>
       <c r="D6" s="44" t="s">
         <v>40</v>
       </c>
@@ -1813,11 +4306,11 @@
       <c r="S6" s="37"/>
     </row>
     <row r="7" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="111"/>
-      <c r="B7" s="107" t="s">
+      <c r="A7" s="118"/>
+      <c r="B7" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="113"/>
+      <c r="C7" s="108"/>
       <c r="D7" s="44" t="s">
         <v>39</v>
       </c>
@@ -1841,45 +4334,45 @@
       <c r="S7" s="37"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="111"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="113"/>
+      <c r="A8" s="118"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="108"/>
       <c r="D8" s="44" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="84">
-        <v>0.6845</v>
+        <v>0.68120000000000003</v>
       </c>
       <c r="F8" s="55">
         <v>0.66669999999999996</v>
       </c>
       <c r="G8" s="55">
-        <v>0.64439999999999997</v>
+        <v>0.63980000000000004</v>
       </c>
       <c r="H8" s="55">
-        <v>0.71089999999999998</v>
+        <v>0.70309999999999995</v>
       </c>
       <c r="I8" s="53">
         <v>0.73850000000000005</v>
       </c>
       <c r="J8" s="83">
         <f>AVERAGE(K8:N8)</f>
-        <v>0.58784999999999998</v>
+        <v>0.56917499999999999</v>
       </c>
       <c r="K8" s="55">
-        <v>0.71699999999999997</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="L8" s="55">
-        <v>0.63639999999999997</v>
+        <v>0.61539999999999995</v>
       </c>
       <c r="M8" s="55">
-        <v>0.56469999999999998</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="N8" s="55">
         <v>0.43330000000000002</v>
       </c>
       <c r="O8" s="53" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="P8" s="45"/>
       <c r="Q8" s="45"/>
@@ -1887,9 +4380,9 @@
       <c r="S8" s="37"/>
     </row>
     <row r="9" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="111"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="114" t="s">
+      <c r="A9" s="118"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="106" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="44" t="s">
@@ -1915,9 +4408,9 @@
       <c r="S9" s="37"/>
     </row>
     <row r="10" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="111"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="114"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="106"/>
       <c r="D10" s="44" t="s">
         <v>40</v>
       </c>
@@ -1941,13 +4434,13 @@
       <c r="S10" s="37"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="111"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="114"/>
+      <c r="A11" s="118"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="106"/>
       <c r="D11" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="86"/>
+      <c r="E11" s="85"/>
       <c r="F11" s="45"/>
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
@@ -1967,9 +4460,9 @@
       <c r="S11" s="37"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="114"/>
+      <c r="A12" s="118"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="106"/>
       <c r="D12" s="44" t="s">
         <v>23</v>
       </c>
@@ -1993,9 +4486,9 @@
       <c r="S12" s="37"/>
     </row>
     <row r="13" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="111"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="114" t="s">
+      <c r="A13" s="118"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="106" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="44" t="s">
@@ -2021,9 +4514,9 @@
       <c r="S13" s="37"/>
     </row>
     <row r="14" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="111"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="114"/>
+      <c r="A14" s="118"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="106"/>
       <c r="D14" s="44" t="s">
         <v>40</v>
       </c>
@@ -2047,9 +4540,9 @@
       <c r="S14" s="37"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="111"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="114"/>
+      <c r="A15" s="118"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="106"/>
       <c r="D15" s="44" t="s">
         <v>39</v>
       </c>
@@ -2073,9 +4566,9 @@
       <c r="S15" s="37"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="111"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="114"/>
+      <c r="A16" s="118"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="106"/>
       <c r="D16" s="44" t="s">
         <v>23</v>
       </c>
@@ -2099,9 +4592,9 @@
       <c r="S16" s="37"/>
     </row>
     <row r="17" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="111"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="114" t="s">
+      <c r="A17" s="118"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="106" t="s">
         <v>48</v>
       </c>
       <c r="D17" s="44" t="s">
@@ -2127,9 +4620,9 @@
       <c r="S17" s="37"/>
     </row>
     <row r="18" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="111"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="114"/>
+      <c r="A18" s="118"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="106"/>
       <c r="D18" s="44" t="s">
         <v>40</v>
       </c>
@@ -2153,9 +4646,9 @@
       <c r="S18" s="37"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="111"/>
-      <c r="B19" s="108"/>
-      <c r="C19" s="114"/>
+      <c r="A19" s="118"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="106"/>
       <c r="D19" s="44" t="s">
         <v>39</v>
       </c>
@@ -2179,9 +4672,9 @@
       <c r="S19" s="37"/>
     </row>
     <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="117"/>
-      <c r="B20" s="109"/>
-      <c r="C20" s="115"/>
+      <c r="A20" s="119"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="107"/>
       <c r="D20" s="40" t="s">
         <v>23</v>
       </c>
@@ -2205,11 +4698,11 @@
       <c r="S20" s="37"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="110" t="s">
+      <c r="A21" s="115" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="80"/>
-      <c r="C21" s="112" t="s">
+      <c r="C21" s="110" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="43" t="s">
@@ -2233,9 +4726,9 @@
       <c r="Q21" s="48"/>
     </row>
     <row r="22" spans="1:19" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="111"/>
+      <c r="A22" s="118"/>
       <c r="B22" s="81"/>
-      <c r="C22" s="113"/>
+      <c r="C22" s="108"/>
       <c r="D22" s="44" t="s">
         <v>40</v>
       </c>
@@ -2257,36 +4750,56 @@
       <c r="Q22" s="48"/>
     </row>
     <row r="23" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="111"/>
-      <c r="B23" s="107" t="s">
+      <c r="A23" s="118"/>
+      <c r="B23" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="113"/>
+      <c r="C23" s="108"/>
       <c r="D23" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="49"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="77" t="e">
+      <c r="E23" s="49">
+        <v>0.7944</v>
+      </c>
+      <c r="F23" s="45">
+        <v>0.75729999999999997</v>
+      </c>
+      <c r="G23" s="45">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="H23" s="45">
+        <v>0.80120000000000002</v>
+      </c>
+      <c r="I23" s="41">
+        <v>0.79490000000000005</v>
+      </c>
+      <c r="J23" s="77">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="41"/>
+        <v>0.47794999999999999</v>
+      </c>
+      <c r="K23" s="45">
+        <v>0.51949999999999996</v>
+      </c>
+      <c r="L23" s="45">
+        <v>0.65639999999999998</v>
+      </c>
+      <c r="M23" s="45">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="N23" s="45">
+        <v>0.31290000000000001</v>
+      </c>
+      <c r="O23" s="41" t="s">
+        <v>60</v>
+      </c>
       <c r="P23" s="48"/>
       <c r="Q23" s="48"/>
       <c r="R23" s="39"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="111"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="113"/>
+      <c r="A24" s="118"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="108"/>
       <c r="D24" s="47" t="s">
         <v>23</v>
       </c>
@@ -2322,15 +4835,15 @@
         <v>0.50229999999999997</v>
       </c>
       <c r="O24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P24" s="48"/>
       <c r="Q24" s="48"/>
     </row>
     <row r="25" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="111"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="114" t="s">
+      <c r="A25" s="118"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="106" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="44" t="s">
@@ -2354,9 +4867,9 @@
       <c r="Q25" s="48"/>
     </row>
     <row r="26" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="111"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="114"/>
+      <c r="A26" s="118"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="106"/>
       <c r="D26" s="44" t="s">
         <v>40</v>
       </c>
@@ -2378,77 +4891,97 @@
       <c r="Q26" s="48"/>
     </row>
     <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="111"/>
-      <c r="B27" s="108"/>
-      <c r="C27" s="114"/>
+      <c r="A27" s="118"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="106"/>
       <c r="D27" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="86"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="85" t="e">
+      <c r="E27" s="85">
+        <v>0.77059999999999995</v>
+      </c>
+      <c r="F27" s="45">
+        <v>0.71040000000000003</v>
+      </c>
+      <c r="G27" s="45">
+        <v>0.70950000000000002</v>
+      </c>
+      <c r="H27" s="45">
+        <v>0.79269999999999996</v>
+      </c>
+      <c r="I27" s="41">
+        <v>0.77029999999999998</v>
+      </c>
+      <c r="J27" s="76">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="41"/>
+        <v>0.28039999999999998</v>
+      </c>
+      <c r="K27" s="45">
+        <v>0.30249999999999999</v>
+      </c>
+      <c r="L27" s="45">
+        <v>0.26540000000000002</v>
+      </c>
+      <c r="M27" s="45">
+        <v>0.34549999999999997</v>
+      </c>
+      <c r="N27" s="45">
+        <v>0.2082</v>
+      </c>
+      <c r="O27" s="41" t="s">
+        <v>61</v>
+      </c>
       <c r="P27" s="48"/>
       <c r="Q27" s="48"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="111"/>
-      <c r="B28" s="108"/>
-      <c r="C28" s="114"/>
+      <c r="A28" s="118"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="106"/>
       <c r="D28" s="44" t="s">
         <v>23</v>
       </c>
       <c r="E28" s="51">
-        <v>0.77800000000000002</v>
+        <v>0.75839999999999996</v>
       </c>
       <c r="F28" s="58">
-        <v>0.72540000000000004</v>
+        <v>0.70289999999999997</v>
       </c>
       <c r="G28" s="58">
-        <v>0.72350000000000003</v>
+        <v>0.70289999999999997</v>
       </c>
       <c r="H28" s="58">
-        <v>0.79069999999999996</v>
+        <v>0.76680000000000004</v>
       </c>
       <c r="I28" s="42">
-        <v>0.78449999999999998</v>
-      </c>
-      <c r="J28" s="72">
+        <v>0.76990000000000003</v>
+      </c>
+      <c r="J28" s="83">
         <f t="shared" si="3"/>
-        <v>0.40510000000000002</v>
+        <v>0.28472500000000001</v>
       </c>
       <c r="K28" s="58">
-        <v>0.32640000000000002</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="L28" s="58">
-        <v>0.45269999999999999</v>
+        <v>0.3821</v>
       </c>
       <c r="M28" s="58">
-        <v>0.39140000000000003</v>
+        <v>0.22620000000000001</v>
       </c>
       <c r="N28" s="58">
-        <v>0.44990000000000002</v>
+        <v>0.36259999999999998</v>
       </c>
       <c r="O28" s="42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P28" s="48"/>
       <c r="Q28" s="48"/>
     </row>
     <row r="29" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="111"/>
-      <c r="B29" s="108"/>
-      <c r="C29" s="114" t="s">
+      <c r="A29" s="118"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="106" t="s">
         <v>47</v>
       </c>
       <c r="D29" s="44" t="s">
@@ -2472,9 +5005,9 @@
       <c r="Q29" s="48"/>
     </row>
     <row r="30" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="111"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="114"/>
+      <c r="A30" s="118"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="106"/>
       <c r="D30" s="44" t="s">
         <v>40</v>
       </c>
@@ -2496,66 +5029,86 @@
       <c r="Q30" s="48"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="111"/>
-      <c r="B31" s="108"/>
-      <c r="C31" s="114"/>
+      <c r="A31" s="118"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="106"/>
       <c r="D31" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="49"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="76" t="e">
+      <c r="E31" s="49">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="F31" s="45">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="G31" s="45">
+        <v>0.58479999999999999</v>
+      </c>
+      <c r="H31" s="45">
+        <v>0.75190000000000001</v>
+      </c>
+      <c r="I31" s="41">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="J31" s="76">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="41"/>
+        <v>0.24012499999999998</v>
+      </c>
+      <c r="K31" s="45">
+        <v>0.1971</v>
+      </c>
+      <c r="L31" s="45">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="M31" s="45">
+        <v>0.1807</v>
+      </c>
+      <c r="N31" s="45">
+        <v>9.3700000000000006E-2</v>
+      </c>
+      <c r="O31" s="41" t="s">
+        <v>62</v>
+      </c>
       <c r="P31" s="48"/>
       <c r="Q31" s="48"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="111"/>
-      <c r="B32" s="108"/>
-      <c r="C32" s="114"/>
+      <c r="A32" s="118"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="106"/>
       <c r="D32" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="51">
-        <v>0.75629999999999997</v>
+      <c r="E32" s="82">
+        <v>0.75760000000000005</v>
       </c>
       <c r="F32" s="58">
-        <v>0.69920000000000004</v>
+        <v>0.6129</v>
       </c>
       <c r="G32" s="58">
-        <v>0.69259999999999999</v>
+        <v>0.71319999999999995</v>
       </c>
       <c r="H32" s="58">
-        <v>0.76349999999999996</v>
+        <v>0.76970000000000005</v>
       </c>
       <c r="I32" s="42">
-        <v>0.77080000000000004</v>
-      </c>
-      <c r="J32" s="72">
+        <v>0.77929999999999999</v>
+      </c>
+      <c r="J32" s="83">
         <f t="shared" si="3"/>
-        <v>0.312475</v>
+        <v>0.39727500000000004</v>
       </c>
       <c r="K32" s="58">
-        <v>0.4088</v>
+        <v>0.4698</v>
       </c>
       <c r="L32" s="58">
-        <v>0.308</v>
+        <v>0.35439999999999999</v>
       </c>
       <c r="M32" s="58">
-        <v>6.13E-2</v>
+        <v>0.40860000000000002</v>
       </c>
       <c r="N32" s="58">
-        <v>0.4718</v>
+        <v>0.35630000000000001</v>
       </c>
       <c r="O32" s="42" t="s">
         <v>58</v>
@@ -2564,9 +5117,9 @@
       <c r="Q32" s="48"/>
     </row>
     <row r="33" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="111"/>
-      <c r="B33" s="108"/>
-      <c r="C33" s="114" t="s">
+      <c r="A33" s="118"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="106" t="s">
         <v>48</v>
       </c>
       <c r="D33" s="44" t="s">
@@ -2590,9 +5143,9 @@
       <c r="Q33" s="48"/>
     </row>
     <row r="34" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="111"/>
-      <c r="B34" s="108"/>
-      <c r="C34" s="114"/>
+      <c r="A34" s="118"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="106"/>
       <c r="D34" s="44" t="s">
         <v>40</v>
       </c>
@@ -2614,55 +5167,95 @@
       <c r="Q34" s="48"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="111"/>
-      <c r="B35" s="108"/>
-      <c r="C35" s="114"/>
+      <c r="A35" s="118"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="106"/>
       <c r="D35" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="49"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="76" t="e">
+      <c r="E35" s="85">
+        <v>0.75209999999999999</v>
+      </c>
+      <c r="F35" s="45">
+        <v>0.70379999999999998</v>
+      </c>
+      <c r="G35" s="45">
+        <v>0.70379999999999998</v>
+      </c>
+      <c r="H35" s="45">
+        <v>0.75160000000000005</v>
+      </c>
+      <c r="I35" s="41">
+        <v>0.76990000000000003</v>
+      </c>
+      <c r="J35" s="76">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="41"/>
+        <v>0.19142500000000001</v>
+      </c>
+      <c r="K35" s="45">
+        <v>0.18970000000000001</v>
+      </c>
+      <c r="L35" s="45">
+        <v>0.3705</v>
+      </c>
+      <c r="M35" s="45">
+        <v>7.2700000000000001E-2</v>
+      </c>
+      <c r="N35" s="45">
+        <v>0.1328</v>
+      </c>
+      <c r="O35" s="41" t="s">
+        <v>63</v>
+      </c>
       <c r="P35" s="48"/>
       <c r="Q35" s="48"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="111"/>
-      <c r="B36" s="110"/>
-      <c r="C36" s="116"/>
+      <c r="A36" s="118"/>
+      <c r="B36" s="115"/>
+      <c r="C36" s="111"/>
       <c r="D36" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="51"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="72" t="e">
+      <c r="E36" s="51">
+        <v>0.74929999999999997</v>
+      </c>
+      <c r="F36" s="58">
+        <v>0.74039999999999995</v>
+      </c>
+      <c r="G36" s="58">
+        <v>0.72160000000000002</v>
+      </c>
+      <c r="H36" s="58">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="I36" s="42">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="J36" s="83">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K36" s="58"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="58"/>
-      <c r="N36" s="58"/>
-      <c r="O36" s="42"/>
+        <v>0.380575</v>
+      </c>
+      <c r="K36" s="58">
+        <v>0.40689999999999998</v>
+      </c>
+      <c r="L36" s="58">
+        <v>0.40720000000000001</v>
+      </c>
+      <c r="M36" s="58">
+        <v>0.3831</v>
+      </c>
+      <c r="N36" s="58">
+        <v>0.3251</v>
+      </c>
+      <c r="O36" s="42" t="s">
+        <v>59</v>
+      </c>
       <c r="P36" s="48"/>
       <c r="Q36" s="48"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C37" s="94"/>
+      <c r="C37" s="92"/>
       <c r="D37" s="48"/>
       <c r="E37" s="48"/>
       <c r="F37" s="48"/>
@@ -2752,46 +5345,46 @@
       <c r="T41" s="48"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A42" s="111" t="s">
+      <c r="A42" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="107" t="s">
+      <c r="B42" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="113" t="s">
+      <c r="C42" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="113" t="s">
+      <c r="D42" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="113" t="s">
+      <c r="E42" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="113"/>
-      <c r="G42" s="113"/>
-      <c r="H42" s="113"/>
-      <c r="I42" s="113"/>
-      <c r="J42" s="113" t="s">
+      <c r="F42" s="108"/>
+      <c r="G42" s="108"/>
+      <c r="H42" s="108"/>
+      <c r="I42" s="108"/>
+      <c r="J42" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="K42" s="113"/>
-      <c r="L42" s="113"/>
-      <c r="M42" s="113"/>
-      <c r="N42" s="113"/>
-      <c r="O42" s="113" t="s">
+      <c r="K42" s="108"/>
+      <c r="L42" s="108"/>
+      <c r="M42" s="108"/>
+      <c r="N42" s="108"/>
+      <c r="O42" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="P42" s="113"/>
-      <c r="Q42" s="113"/>
-      <c r="R42" s="113"/>
-      <c r="S42" s="113"/>
+      <c r="P42" s="108"/>
+      <c r="Q42" s="108"/>
+      <c r="R42" s="108"/>
+      <c r="S42" s="108"/>
       <c r="T42" s="48"/>
     </row>
     <row r="43" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="117"/>
-      <c r="B43" s="109"/>
-      <c r="C43" s="120"/>
-      <c r="D43" s="120"/>
+      <c r="A43" s="119"/>
+      <c r="B43" s="113"/>
+      <c r="C43" s="109"/>
+      <c r="D43" s="109"/>
       <c r="E43" s="40" t="s">
         <v>35</v>
       </c>
@@ -2840,11 +5433,11 @@
       <c r="T43" s="48"/>
     </row>
     <row r="44" spans="1:20" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="110" t="s">
+      <c r="A44" s="115" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="80"/>
-      <c r="C44" s="112" t="s">
+      <c r="C44" s="110" t="s">
         <v>45</v>
       </c>
       <c r="D44" s="43" t="s">
@@ -2901,9 +5494,9 @@
       <c r="T44" s="48"/>
     </row>
     <row r="45" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="111"/>
+      <c r="A45" s="118"/>
       <c r="B45" s="81"/>
-      <c r="C45" s="113"/>
+      <c r="C45" s="108"/>
       <c r="D45" s="44" t="s">
         <v>40</v>
       </c>
@@ -2934,11 +5527,11 @@
       <c r="T45" s="48"/>
     </row>
     <row r="46" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="111"/>
-      <c r="B46" s="107" t="s">
+      <c r="A46" s="118"/>
+      <c r="B46" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="113"/>
+      <c r="C46" s="108"/>
       <c r="D46" s="44" t="s">
         <v>39</v>
       </c>
@@ -2969,56 +5562,56 @@
       <c r="T46" s="48"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A47" s="111"/>
-      <c r="B47" s="108"/>
-      <c r="C47" s="113"/>
+      <c r="A47" s="118"/>
+      <c r="B47" s="114"/>
+      <c r="C47" s="108"/>
       <c r="D47" s="44" t="s">
         <v>23</v>
       </c>
       <c r="E47" s="72">
         <f t="shared" si="4"/>
-        <v>-0.25984999999999997</v>
+        <v>-0.30830000000000002</v>
       </c>
       <c r="F47" s="58">
-        <v>-0.50670000000000004</v>
+        <v>-0.55400000000000005</v>
       </c>
       <c r="G47" s="58">
-        <v>-8.2199999999999995E-2</v>
+        <v>-0.23050000000000001</v>
       </c>
       <c r="H47" s="58">
-        <v>-0.24610000000000001</v>
+        <v>-0.24429999999999999</v>
       </c>
       <c r="I47" s="42">
         <v>-0.2044</v>
       </c>
       <c r="J47" s="72">
         <f t="shared" si="5"/>
-        <v>-0.35904999999999998</v>
+        <v>-0.40302499999999997</v>
       </c>
       <c r="K47" s="58">
-        <v>-0.60880000000000001</v>
+        <v>-0.64510000000000001</v>
       </c>
       <c r="L47" s="58">
-        <v>-0.13089999999999999</v>
+        <v>-0.23980000000000001</v>
       </c>
       <c r="M47" s="58">
-        <v>-0.30259999999999998</v>
+        <v>-0.33329999999999999</v>
       </c>
       <c r="N47" s="42">
         <v>-0.39389999999999997</v>
       </c>
       <c r="O47" s="72">
         <f t="shared" si="6"/>
-        <v>-0.25342500000000001</v>
+        <v>-0.30025000000000002</v>
       </c>
       <c r="P47" s="58">
-        <v>-0.53800000000000003</v>
+        <v>-0.58779999999999999</v>
       </c>
       <c r="Q47" s="58">
-        <v>-0.10150000000000001</v>
+        <v>-0.24940000000000001</v>
       </c>
       <c r="R47" s="58">
-        <v>-0.23960000000000001</v>
+        <v>-0.22919999999999999</v>
       </c>
       <c r="S47" s="42">
         <v>-0.1346</v>
@@ -3026,9 +5619,9 @@
       <c r="T47" s="48"/>
     </row>
     <row r="48" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="111"/>
-      <c r="B48" s="108"/>
-      <c r="C48" s="114" t="s">
+      <c r="A48" s="118"/>
+      <c r="B48" s="114"/>
+      <c r="C48" s="106" t="s">
         <v>46</v>
       </c>
       <c r="D48" s="44" t="s">
@@ -3061,9 +5654,9 @@
       <c r="T48" s="48"/>
     </row>
     <row r="49" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="111"/>
-      <c r="B49" s="108"/>
-      <c r="C49" s="114"/>
+      <c r="A49" s="118"/>
+      <c r="B49" s="114"/>
+      <c r="C49" s="106"/>
       <c r="D49" s="44" t="s">
         <v>40</v>
       </c>
@@ -3094,9 +5687,9 @@
       <c r="T49" s="48"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A50" s="111"/>
-      <c r="B50" s="108"/>
-      <c r="C50" s="114"/>
+      <c r="A50" s="118"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="106"/>
       <c r="D50" s="44" t="s">
         <v>39</v>
       </c>
@@ -3120,16 +5713,16 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P50" s="96"/>
+      <c r="P50" s="94"/>
       <c r="Q50" s="45"/>
-      <c r="R50" s="96"/>
+      <c r="R50" s="94"/>
       <c r="S50" s="41"/>
       <c r="T50" s="48"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A51" s="111"/>
-      <c r="B51" s="108"/>
-      <c r="C51" s="114"/>
+      <c r="A51" s="118"/>
+      <c r="B51" s="114"/>
+      <c r="C51" s="106"/>
       <c r="D51" s="44" t="s">
         <v>23</v>
       </c>
@@ -3154,15 +5747,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="P51" s="58"/>
-      <c r="Q51" s="97"/>
+      <c r="Q51" s="95"/>
       <c r="R51" s="58"/>
-      <c r="S51" s="98"/>
+      <c r="S51" s="96"/>
       <c r="T51" s="48"/>
     </row>
     <row r="52" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="111"/>
-      <c r="B52" s="108"/>
-      <c r="C52" s="114" t="s">
+      <c r="A52" s="118"/>
+      <c r="B52" s="114"/>
+      <c r="C52" s="106" t="s">
         <v>47</v>
       </c>
       <c r="D52" s="44" t="s">
@@ -3195,9 +5788,9 @@
       <c r="T52" s="48"/>
     </row>
     <row r="53" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="111"/>
-      <c r="B53" s="108"/>
-      <c r="C53" s="114"/>
+      <c r="A53" s="118"/>
+      <c r="B53" s="114"/>
+      <c r="C53" s="106"/>
       <c r="D53" s="44" t="s">
         <v>40</v>
       </c>
@@ -3228,9 +5821,9 @@
       <c r="T53" s="48"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A54" s="111"/>
-      <c r="B54" s="108"/>
-      <c r="C54" s="114"/>
+      <c r="A54" s="118"/>
+      <c r="B54" s="114"/>
+      <c r="C54" s="106"/>
       <c r="D54" s="44" t="s">
         <v>39</v>
       </c>
@@ -3250,7 +5843,7 @@
       <c r="L54" s="45"/>
       <c r="M54" s="45"/>
       <c r="N54" s="41"/>
-      <c r="O54" s="76" t="e">
+      <c r="O54" s="66" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -3261,9 +5854,9 @@
       <c r="T54" s="48"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A55" s="111"/>
-      <c r="B55" s="108"/>
-      <c r="C55" s="114"/>
+      <c r="A55" s="118"/>
+      <c r="B55" s="114"/>
+      <c r="C55" s="106"/>
       <c r="D55" s="44" t="s">
         <v>23</v>
       </c>
@@ -3283,7 +5876,7 @@
       <c r="L55" s="58"/>
       <c r="M55" s="58"/>
       <c r="N55" s="42"/>
-      <c r="O55" s="72" t="e">
+      <c r="O55" s="61" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -3294,9 +5887,9 @@
       <c r="T55" s="48"/>
     </row>
     <row r="56" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="111"/>
-      <c r="B56" s="108"/>
-      <c r="C56" s="114" t="s">
+      <c r="A56" s="118"/>
+      <c r="B56" s="114"/>
+      <c r="C56" s="106" t="s">
         <v>48</v>
       </c>
       <c r="D56" s="44" t="s">
@@ -3329,9 +5922,9 @@
       <c r="T56" s="48"/>
     </row>
     <row r="57" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="111"/>
-      <c r="B57" s="108"/>
-      <c r="C57" s="114"/>
+      <c r="A57" s="118"/>
+      <c r="B57" s="114"/>
+      <c r="C57" s="106"/>
       <c r="D57" s="44" t="s">
         <v>40</v>
       </c>
@@ -3362,9 +5955,9 @@
       <c r="T57" s="48"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A58" s="111"/>
-      <c r="B58" s="108"/>
-      <c r="C58" s="114"/>
+      <c r="A58" s="118"/>
+      <c r="B58" s="114"/>
+      <c r="C58" s="106"/>
       <c r="D58" s="44" t="s">
         <v>39</v>
       </c>
@@ -3384,7 +5977,7 @@
       <c r="L58" s="45"/>
       <c r="M58" s="67"/>
       <c r="N58" s="41"/>
-      <c r="O58" s="66" t="e">
+      <c r="O58" s="76" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -3395,9 +5988,9 @@
       <c r="T58" s="48"/>
     </row>
     <row r="59" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="117"/>
-      <c r="B59" s="109"/>
-      <c r="C59" s="115"/>
+      <c r="A59" s="119"/>
+      <c r="B59" s="113"/>
+      <c r="C59" s="107"/>
       <c r="D59" s="40" t="s">
         <v>23</v>
       </c>
@@ -3417,7 +6010,7 @@
       <c r="L59" s="60"/>
       <c r="M59" s="69"/>
       <c r="N59" s="59"/>
-      <c r="O59" s="71" t="e">
+      <c r="O59" s="137" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -3428,11 +6021,11 @@
       <c r="T59" s="48"/>
     </row>
     <row r="60" spans="1:20" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="110" t="s">
+      <c r="A60" s="115" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="80"/>
-      <c r="C60" s="112" t="s">
+      <c r="C60" s="110" t="s">
         <v>45</v>
       </c>
       <c r="D60" s="43" t="s">
@@ -3465,9 +6058,9 @@
       <c r="T60" s="48"/>
     </row>
     <row r="61" spans="1:20" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="111"/>
+      <c r="A61" s="118"/>
       <c r="B61" s="81"/>
-      <c r="C61" s="113"/>
+      <c r="C61" s="108"/>
       <c r="D61" s="44" t="s">
         <v>40</v>
       </c>
@@ -3498,44 +6091,68 @@
       <c r="T61" s="48"/>
     </row>
     <row r="62" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="111"/>
-      <c r="B62" s="107" t="s">
+      <c r="A62" s="118"/>
+      <c r="B62" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="113"/>
+      <c r="C62" s="108"/>
       <c r="D62" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="76" t="e">
+      <c r="E62" s="76">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F62" s="45"/>
-      <c r="G62" s="45"/>
-      <c r="H62" s="45"/>
-      <c r="I62" s="41"/>
-      <c r="J62" s="77" t="e">
+        <v>-0.11935</v>
+      </c>
+      <c r="F62" s="45">
+        <v>-0.2064</v>
+      </c>
+      <c r="G62" s="45">
+        <v>-6.93E-2</v>
+      </c>
+      <c r="H62" s="45">
+        <v>-9.5899999999999999E-2</v>
+      </c>
+      <c r="I62" s="41">
+        <v>-0.10580000000000001</v>
+      </c>
+      <c r="J62" s="77">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K62" s="45"/>
-      <c r="L62" s="45"/>
-      <c r="M62" s="45"/>
-      <c r="N62" s="41"/>
-      <c r="O62" s="76" t="e">
+        <v>-0.1487</v>
+      </c>
+      <c r="K62" s="45">
+        <v>-0.27689999999999998</v>
+      </c>
+      <c r="L62" s="45">
+        <v>-1.9199999999999998E-2</v>
+      </c>
+      <c r="M62" s="45">
+        <v>-0.1318</v>
+      </c>
+      <c r="N62" s="41">
+        <v>-0.16689999999999999</v>
+      </c>
+      <c r="O62" s="76">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P62" s="88"/>
-      <c r="Q62" s="88"/>
-      <c r="R62" s="88"/>
-      <c r="S62" s="89"/>
+        <v>-0.16399999999999998</v>
+      </c>
+      <c r="P62" s="86">
+        <v>-0.2409</v>
+      </c>
+      <c r="Q62" s="86">
+        <v>-0.20610000000000001</v>
+      </c>
+      <c r="R62" s="86">
+        <v>-0.1168</v>
+      </c>
+      <c r="S62" s="87">
+        <v>-9.2200000000000004E-2</v>
+      </c>
       <c r="T62" s="48"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A63" s="111"/>
-      <c r="B63" s="108"/>
-      <c r="C63" s="113"/>
+      <c r="A63" s="118"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="108"/>
       <c r="D63" s="47" t="s">
         <v>23</v>
       </c>
@@ -3590,9 +6207,9 @@
       <c r="T63" s="48"/>
     </row>
     <row r="64" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="111"/>
-      <c r="B64" s="108"/>
-      <c r="C64" s="114" t="s">
+      <c r="A64" s="118"/>
+      <c r="B64" s="114"/>
+      <c r="C64" s="106" t="s">
         <v>46</v>
       </c>
       <c r="D64" s="44" t="s">
@@ -3618,16 +6235,16 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P64" s="90"/>
-      <c r="Q64" s="90"/>
-      <c r="R64" s="90"/>
-      <c r="S64" s="91"/>
+      <c r="P64" s="88"/>
+      <c r="Q64" s="88"/>
+      <c r="R64" s="88"/>
+      <c r="S64" s="89"/>
       <c r="T64" s="48"/>
     </row>
     <row r="65" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="111"/>
-      <c r="B65" s="108"/>
-      <c r="C65" s="114"/>
+      <c r="A65" s="118"/>
+      <c r="B65" s="114"/>
+      <c r="C65" s="106"/>
       <c r="D65" s="44" t="s">
         <v>40</v>
       </c>
@@ -3651,106 +6268,130 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P65" s="88"/>
-      <c r="Q65" s="88"/>
-      <c r="R65" s="88"/>
-      <c r="S65" s="89"/>
+      <c r="P65" s="86"/>
+      <c r="Q65" s="86"/>
+      <c r="R65" s="86"/>
+      <c r="S65" s="87"/>
       <c r="T65" s="48"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A66" s="111"/>
-      <c r="B66" s="108"/>
-      <c r="C66" s="114"/>
+      <c r="A66" s="118"/>
+      <c r="B66" s="114"/>
+      <c r="C66" s="106"/>
       <c r="D66" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="E66" s="66" t="e">
+      <c r="E66" s="66">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F66" s="67"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="67"/>
-      <c r="I66" s="68"/>
-      <c r="J66" s="78" t="e">
+        <v>0.10262499999999999</v>
+      </c>
+      <c r="F66" s="67">
+        <v>7.4499999999999997E-2</v>
+      </c>
+      <c r="G66" s="67">
+        <v>0.15690000000000001</v>
+      </c>
+      <c r="H66" s="67">
+        <v>0.15179999999999999</v>
+      </c>
+      <c r="I66" s="68">
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="J66" s="78">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K66" s="67"/>
-      <c r="L66" s="67"/>
-      <c r="M66" s="67"/>
-      <c r="N66" s="68"/>
-      <c r="O66" s="76" t="e">
+        <v>0.195075</v>
+      </c>
+      <c r="K66" s="67">
+        <v>0.114</v>
+      </c>
+      <c r="L66" s="67">
+        <v>0.31790000000000002</v>
+      </c>
+      <c r="M66" s="67">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="N66" s="68">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="O66" s="76">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P66" s="88"/>
-      <c r="Q66" s="88"/>
-      <c r="R66" s="88"/>
-      <c r="S66" s="89"/>
+        <v>1.2175000000000002E-2</v>
+      </c>
+      <c r="P66" s="86">
+        <v>1.24E-2</v>
+      </c>
+      <c r="Q66" s="86">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="R66" s="86">
+        <v>1.24E-2</v>
+      </c>
+      <c r="S66" s="87">
+        <v>-1.11E-2</v>
+      </c>
       <c r="T66" s="48"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A67" s="111"/>
-      <c r="B67" s="108"/>
-      <c r="C67" s="114"/>
+      <c r="A67" s="118"/>
+      <c r="B67" s="114"/>
+      <c r="C67" s="106"/>
       <c r="D67" s="44" t="s">
         <v>23</v>
       </c>
       <c r="E67" s="61">
         <f t="shared" si="4"/>
-        <v>8.2600000000000007E-2</v>
+        <v>8.7925000000000003E-2</v>
       </c>
       <c r="F67" s="62">
-        <v>3.4799999999999998E-2</v>
+        <v>2.75E-2</v>
       </c>
       <c r="G67" s="62">
-        <v>0.1396</v>
+        <v>0.1258</v>
       </c>
       <c r="H67" s="62">
-        <v>9.2499999999999999E-2</v>
+        <v>0.10929999999999999</v>
       </c>
       <c r="I67" s="63">
-        <v>6.3500000000000001E-2</v>
+        <v>8.9099999999999999E-2</v>
       </c>
       <c r="J67" s="61">
         <f t="shared" si="5"/>
-        <v>0.14530000000000001</v>
+        <v>0.15762500000000002</v>
       </c>
       <c r="K67" s="62">
-        <v>6.1600000000000002E-2</v>
+        <v>4.4200000000000003E-2</v>
       </c>
       <c r="L67" s="62">
-        <v>0.22819999999999999</v>
+        <v>0.21790000000000001</v>
       </c>
       <c r="M67" s="62">
-        <v>0.17960000000000001</v>
+        <v>0.19350000000000001</v>
       </c>
       <c r="N67" s="63">
-        <v>0.1118</v>
+        <v>0.1749</v>
       </c>
       <c r="O67" s="83">
         <f t="shared" si="6"/>
-        <v>-9.4750000000000008E-3</v>
-      </c>
-      <c r="P67" s="92">
-        <v>-2.52E-2</v>
-      </c>
-      <c r="Q67" s="92">
-        <v>2.7799999999999998E-2</v>
-      </c>
-      <c r="R67" s="92">
-        <v>-1.46E-2</v>
-      </c>
-      <c r="S67" s="93">
-        <v>-2.5899999999999999E-2</v>
+        <v>1.0974999999999999E-2</v>
+      </c>
+      <c r="P67" s="90">
+        <v>-1.2999999999999999E-3</v>
+      </c>
+      <c r="Q67" s="90">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="R67" s="90">
+        <v>2.75E-2</v>
+      </c>
+      <c r="S67" s="91">
+        <v>-1.12E-2</v>
       </c>
       <c r="T67" s="48"/>
     </row>
     <row r="68" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="111"/>
-      <c r="B68" s="108"/>
-      <c r="C68" s="114" t="s">
+      <c r="A68" s="118"/>
+      <c r="B68" s="114"/>
+      <c r="C68" s="106" t="s">
         <v>47</v>
       </c>
       <c r="D68" s="44" t="s">
@@ -3783,9 +6424,9 @@
       <c r="T68" s="48"/>
     </row>
     <row r="69" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="111"/>
-      <c r="B69" s="108"/>
-      <c r="C69" s="114"/>
+      <c r="A69" s="118"/>
+      <c r="B69" s="114"/>
+      <c r="C69" s="106"/>
       <c r="D69" s="44" t="s">
         <v>40</v>
       </c>
@@ -3816,99 +6457,123 @@
       <c r="T69" s="48"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A70" s="111"/>
-      <c r="B70" s="108"/>
-      <c r="C70" s="114"/>
+      <c r="A70" s="118"/>
+      <c r="B70" s="114"/>
+      <c r="C70" s="106"/>
       <c r="D70" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="E70" s="76" t="e">
+      <c r="E70" s="76">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F70" s="45"/>
-      <c r="G70" s="45"/>
-      <c r="H70" s="45"/>
-      <c r="I70" s="41"/>
-      <c r="J70" s="75" t="e">
+        <v>8.4749999999999999E-3</v>
+      </c>
+      <c r="F70" s="45">
+        <v>-1.38E-2</v>
+      </c>
+      <c r="G70" s="45">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="H70" s="45">
+        <v>-1.14E-2</v>
+      </c>
+      <c r="I70" s="41">
+        <v>1.47E-2</v>
+      </c>
+      <c r="J70" s="75">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K70" s="45"/>
-      <c r="L70" s="45"/>
-      <c r="M70" s="45"/>
-      <c r="N70" s="41"/>
-      <c r="O70" s="76" t="e">
+        <v>1.5899999999999997E-2</v>
+      </c>
+      <c r="K70" s="45">
+        <v>-2.7300000000000001E-2</v>
+      </c>
+      <c r="L70" s="45">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="M70" s="45">
+        <v>-1.2699999999999999E-2</v>
+      </c>
+      <c r="N70" s="41">
+        <v>3.6900000000000002E-2</v>
+      </c>
+      <c r="O70" s="66">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P70" s="67"/>
-      <c r="Q70" s="67"/>
-      <c r="R70" s="67"/>
-      <c r="S70" s="68"/>
+        <v>-1.7100000000000001E-2</v>
+      </c>
+      <c r="P70" s="67">
+        <v>-2.2100000000000002E-2</v>
+      </c>
+      <c r="Q70" s="67">
+        <v>-1.7600000000000001E-2</v>
+      </c>
+      <c r="R70" s="67">
+        <v>-2.23E-2</v>
+      </c>
+      <c r="S70" s="68">
+        <v>-6.4000000000000003E-3</v>
+      </c>
       <c r="T70" s="48"/>
     </row>
     <row r="71" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="111"/>
-      <c r="B71" s="108"/>
-      <c r="C71" s="114"/>
+      <c r="A71" s="118"/>
+      <c r="B71" s="114"/>
+      <c r="C71" s="106"/>
       <c r="D71" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E71" s="72">
+      <c r="E71" s="83">
         <f t="shared" si="4"/>
-        <v>-4.45E-3</v>
+        <v>3.375E-3</v>
       </c>
       <c r="F71" s="58">
-        <v>-2.1999999999999999E-2</v>
+        <v>-4.5999999999999999E-3</v>
       </c>
       <c r="G71" s="58">
-        <v>-4.4999999999999997E-3</v>
+        <v>1.95E-2</v>
       </c>
       <c r="H71" s="58">
-        <v>-2.7000000000000001E-3</v>
+        <v>-1.6000000000000001E-3</v>
       </c>
       <c r="I71" s="42">
-        <v>1.14E-2</v>
-      </c>
-      <c r="J71" s="72">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="J71" s="83">
         <f t="shared" si="5"/>
-        <v>-8.1749999999999982E-3</v>
+        <v>1.1574999999999998E-2</v>
       </c>
       <c r="K71" s="58">
-        <v>-7.3099999999999998E-2</v>
+        <v>-1.52E-2</v>
       </c>
       <c r="L71" s="58">
-        <v>6.4000000000000003E-3</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="M71" s="58">
-        <v>-4.7999999999999996E-3</v>
+        <v>-9.1000000000000004E-3</v>
       </c>
       <c r="N71" s="42">
-        <v>3.8800000000000001E-2</v>
-      </c>
-      <c r="O71" s="72">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="O71" s="61">
         <f t="shared" si="6"/>
-        <v>-3.8574999999999998E-2</v>
+        <v>-4.3750000000000004E-2</v>
       </c>
       <c r="P71" s="62">
-        <v>-4.5900000000000003E-2</v>
+        <v>-4.9299999999999997E-2</v>
       </c>
       <c r="Q71" s="62">
-        <v>-3.6700000000000003E-2</v>
+        <v>-4.4900000000000002E-2</v>
       </c>
       <c r="R71" s="62">
-        <v>-5.7000000000000002E-3</v>
+        <v>-4.1799999999999997E-2</v>
       </c>
       <c r="S71" s="63">
-        <v>-6.6000000000000003E-2</v>
+        <v>-3.9E-2</v>
       </c>
       <c r="T71" s="48"/>
     </row>
     <row r="72" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="111"/>
-      <c r="B72" s="108"/>
-      <c r="C72" s="114" t="s">
+      <c r="A72" s="118"/>
+      <c r="B72" s="114"/>
+      <c r="C72" s="106" t="s">
         <v>48</v>
       </c>
       <c r="D72" s="44" t="s">
@@ -3941,9 +6606,9 @@
       <c r="T72" s="48"/>
     </row>
     <row r="73" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="111"/>
-      <c r="B73" s="108"/>
-      <c r="C73" s="114"/>
+      <c r="A73" s="118"/>
+      <c r="B73" s="114"/>
+      <c r="C73" s="106"/>
       <c r="D73" s="44" t="s">
         <v>40</v>
       </c>
@@ -3974,73 +6639,121 @@
       <c r="T73" s="48"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A74" s="111"/>
-      <c r="B74" s="108"/>
-      <c r="C74" s="114"/>
+      <c r="A74" s="118"/>
+      <c r="B74" s="114"/>
+      <c r="C74" s="106"/>
       <c r="D74" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="E74" s="66" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F74" s="67"/>
-      <c r="G74" s="45"/>
-      <c r="H74" s="67"/>
-      <c r="I74" s="41"/>
-      <c r="J74" s="66" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K74" s="67"/>
-      <c r="L74" s="45"/>
-      <c r="M74" s="67"/>
-      <c r="N74" s="41"/>
-      <c r="O74" s="66" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P74" s="45"/>
-      <c r="Q74" s="67"/>
-      <c r="R74" s="45"/>
-      <c r="S74" s="68"/>
+      <c r="E74" s="75">
+        <f>(G74+I74)/2</f>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F74" s="67">
+        <v>-3.3999999999999998E-3</v>
+      </c>
+      <c r="G74" s="45">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="H74" s="67">
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="I74" s="41">
+        <v>-1.6999999999999999E-3</v>
+      </c>
+      <c r="J74" s="76">
+        <f>(L74+N74)/2</f>
+        <v>5.885E-2</v>
+      </c>
+      <c r="K74" s="67">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="L74" s="45">
+        <v>0.11409999999999999</v>
+      </c>
+      <c r="M74" s="67">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="N74" s="41">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="O74" s="75">
+        <f>(P74+R74)/2</f>
+        <v>-8.2000000000000007E-3</v>
+      </c>
+      <c r="P74" s="45">
+        <v>-1.95E-2</v>
+      </c>
+      <c r="Q74" s="67">
+        <v>-2.0400000000000001E-2</v>
+      </c>
+      <c r="R74" s="45">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="S74" s="68">
+        <v>-1.5100000000000001E-2</v>
+      </c>
       <c r="T74" s="48"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A75" s="111"/>
-      <c r="B75" s="110"/>
-      <c r="C75" s="116"/>
+      <c r="A75" s="118"/>
+      <c r="B75" s="115"/>
+      <c r="C75" s="111"/>
       <c r="D75" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E75" s="61" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F75" s="62"/>
-      <c r="G75" s="58"/>
-      <c r="H75" s="62"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="61" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K75" s="62"/>
-      <c r="L75" s="58"/>
-      <c r="M75" s="62"/>
-      <c r="N75" s="42"/>
-      <c r="O75" s="61" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P75" s="58"/>
-      <c r="Q75" s="62"/>
-      <c r="R75" s="58"/>
-      <c r="S75" s="63"/>
+      <c r="E75" s="83">
+        <f>(G75+I75)/2</f>
+        <v>-4.8499999999999993E-3</v>
+      </c>
+      <c r="F75" s="62">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="G75" s="58">
+        <v>1.12E-2</v>
+      </c>
+      <c r="H75" s="62">
+        <v>0.14430000000000001</v>
+      </c>
+      <c r="I75" s="42">
+        <v>-2.0899999999999998E-2</v>
+      </c>
+      <c r="J75" s="83">
+        <f>(L75+N75)/2</f>
+        <v>6.3E-3</v>
+      </c>
+      <c r="K75" s="62">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="L75" s="58">
+        <v>3.85E-2</v>
+      </c>
+      <c r="M75" s="62">
+        <v>0.20669999999999999</v>
+      </c>
+      <c r="N75" s="42">
+        <v>-2.5899999999999999E-2</v>
+      </c>
+      <c r="O75" s="83">
+        <f>(P75+R75)/2</f>
+        <v>-6.8499999999999985E-3</v>
+      </c>
+      <c r="P75" s="58">
+        <v>-7.22E-2</v>
+      </c>
+      <c r="Q75" s="62">
+        <v>-5.16E-2</v>
+      </c>
+      <c r="R75" s="58">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="S75" s="63">
+        <v>-4.9099999999999998E-2</v>
+      </c>
       <c r="T75" s="48"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C76" s="95"/>
+      <c r="C76" s="93"/>
       <c r="D76" s="48"/>
       <c r="E76" s="48"/>
       <c r="F76" s="48"/>
@@ -4127,13 +6840,18 @@
       <c r="L80" s="48"/>
       <c r="M80" s="48"/>
       <c r="N80" s="48"/>
-      <c r="O80" s="48"/>
+      <c r="O80" s="48" t="s">
+        <v>64</v>
+      </c>
       <c r="P80" s="48"/>
       <c r="Q80" s="48"/>
       <c r="R80" s="48"/>
       <c r="S80" s="48"/>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="T80" s="48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.3">
       <c r="D81" s="48"/>
       <c r="E81" s="48"/>
       <c r="F81" s="48"/>
@@ -4143,15 +6861,35 @@
       <c r="J81" s="48"/>
       <c r="K81" s="48"/>
       <c r="L81" s="48"/>
-      <c r="M81" s="48"/>
-      <c r="N81" s="48"/>
-      <c r="O81" s="48"/>
-      <c r="P81" s="48"/>
-      <c r="Q81" s="48"/>
-      <c r="R81" s="48"/>
-      <c r="S81" s="48"/>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="M81" s="48">
+        <v>100</v>
+      </c>
+      <c r="N81" s="48">
+        <v>0.6472</v>
+      </c>
+      <c r="O81" s="48">
+        <v>0.1074</v>
+      </c>
+      <c r="P81" s="48">
+        <v>0.1137</v>
+      </c>
+      <c r="Q81" s="48">
+        <v>-0.21879999999999999</v>
+      </c>
+      <c r="R81" s="48">
+        <v>-0.1154</v>
+      </c>
+      <c r="S81" s="48">
+        <f>AVERAGE(O81:R81)</f>
+        <v>-2.8275000000000002E-2</v>
+      </c>
+      <c r="T81" s="48"/>
+      <c r="X81" s="36" t="e">
+        <f>AVERAGE(T81:W81)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.3">
       <c r="D82" s="48"/>
       <c r="E82" s="48"/>
       <c r="F82" s="48"/>
@@ -4161,36 +6899,122 @@
       <c r="J82" s="48"/>
       <c r="K82" s="48"/>
       <c r="L82" s="48"/>
-      <c r="M82" s="48"/>
-      <c r="N82" s="48"/>
-      <c r="O82" s="48"/>
-      <c r="P82" s="48"/>
-      <c r="Q82" s="48"/>
-      <c r="R82" s="48"/>
-      <c r="S82" s="48"/>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="M82" s="48">
+        <v>75</v>
+      </c>
+      <c r="N82" s="48">
+        <v>0.65369999999999995</v>
+      </c>
+      <c r="O82" s="48">
+        <v>0.1368</v>
+      </c>
+      <c r="P82" s="48">
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="Q82" s="48">
+        <v>-0.22919999999999999</v>
+      </c>
+      <c r="R82" s="48">
+        <v>-0.14419999999999999</v>
+      </c>
+      <c r="S82" s="48">
+        <f t="shared" ref="S82:S86" si="7">AVERAGE(O82:R82)</f>
+        <v>-4.047499999999999E-2</v>
+      </c>
+      <c r="X82" s="36" t="e">
+        <f t="shared" ref="X82:X86" si="8">AVERAGE(T82:W82)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="M83" s="36">
+        <v>50</v>
+      </c>
+      <c r="N83" s="36">
+        <v>0.65210000000000001</v>
+      </c>
+      <c r="O83" s="36">
+        <v>0.16109999999999999</v>
+      </c>
+      <c r="P83" s="36">
+        <v>0.17150000000000001</v>
+      </c>
+      <c r="Q83" s="36">
+        <v>-0.19789999999999999</v>
+      </c>
+      <c r="R83" s="36">
+        <v>-0.15379999999999999</v>
+      </c>
+      <c r="S83" s="48">
+        <f t="shared" si="7"/>
+        <v>-4.7749999999999945E-3</v>
+      </c>
+      <c r="X83" s="36" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="M84" s="36">
+        <v>25</v>
+      </c>
+      <c r="S84" s="48" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X84" s="36" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="M85" s="36">
+        <v>10</v>
+      </c>
+      <c r="S85" s="48" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X85" s="36" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="M86" s="36">
+        <v>1</v>
+      </c>
+      <c r="S86" s="48" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X86" s="36" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C89" s="36"/>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C90" s="36"/>
     </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C91" s="36"/>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C92" s="36"/>
     </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C93" s="36"/>
     </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C94" s="36"/>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C95" s="36"/>
     </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C96" s="36"/>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.3">
@@ -4234,14 +7058,21 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="B46:B59"/>
+    <mergeCell ref="B62:B75"/>
+    <mergeCell ref="A60:A75"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A20"/>
+    <mergeCell ref="A21:A36"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A59"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B7:B20"/>
     <mergeCell ref="B23:B36"/>
@@ -4258,21 +7089,14 @@
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="D42:D43"/>
     <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A20"/>
-    <mergeCell ref="A21:A36"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A59"/>
-    <mergeCell ref="B46:B59"/>
-    <mergeCell ref="B62:B75"/>
-    <mergeCell ref="A60:A75"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="C33:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -4283,8 +7107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D43789-1003-47D8-B7A4-FDE215F69927}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4318,31 +7142,31 @@
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="108" t="s">
+      <c r="F2" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="125" t="s">
+      <c r="G2" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="131" t="s">
+      <c r="H2" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="125" t="s">
+      <c r="I2" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="133" t="s">
+      <c r="J2" s="135" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="5"/>
@@ -4351,24 +7175,24 @@
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="134"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="136"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="O3" s="19"/>
     </row>
     <row r="4" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="100" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="10">
@@ -4400,7 +7224,7 @@
       <c r="O4" s="19"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="123"/>
+      <c r="A5" s="121"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -4419,13 +7243,13 @@
       <c r="G5" s="80"/>
       <c r="H5" s="29"/>
       <c r="I5" s="80"/>
-      <c r="J5" s="99"/>
+      <c r="J5" s="97"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="O5" s="19"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="123"/>
+      <c r="A6" s="121"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -4458,7 +7282,7 @@
       <c r="O6" s="19"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="123"/>
+      <c r="A7" s="121"/>
       <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
@@ -4491,7 +7315,7 @@
       <c r="O7" s="19"/>
     </row>
     <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="124"/>
+      <c r="A8" s="122"/>
       <c r="B8" s="18" t="s">
         <v>16</v>
       </c>
@@ -4524,42 +7348,42 @@
       <c r="O8" s="19"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="135" t="s">
+      <c r="A9" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="101">
+      <c r="C9" s="99">
         <v>1</v>
       </c>
-      <c r="D9" s="101" t="s">
+      <c r="D9" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="101" t="s">
+      <c r="E9" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="101" t="s">
+      <c r="F9" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="104" t="s">
+      <c r="G9" s="102" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="102">
+        <v>1E-10</v>
+      </c>
+      <c r="I9" s="99">
+        <v>256</v>
+      </c>
+      <c r="J9" s="103" t="s">
         <v>53</v>
-      </c>
-      <c r="H9" s="104">
-        <v>1E-10</v>
-      </c>
-      <c r="I9" s="101">
-        <v>256</v>
-      </c>
-      <c r="J9" s="106" t="s">
-        <v>54</v>
       </c>
       <c r="K9" s="21"/>
       <c r="L9" s="6"/>
       <c r="O9" s="19"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="123"/>
+      <c r="A10" s="121"/>
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
@@ -4585,7 +7409,7 @@
       <c r="O10" s="19"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="123"/>
+      <c r="A11" s="121"/>
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
@@ -4619,7 +7443,7 @@
       <c r="O11" s="19"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="123"/>
+      <c r="A12" s="121"/>
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
@@ -4653,7 +7477,7 @@
       <c r="O12" s="19"/>
     </row>
     <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="124"/>
+      <c r="A13" s="122"/>
       <c r="B13" s="12" t="s">
         <v>16</v>
       </c>
@@ -4715,34 +7539,34 @@
     </row>
     <row r="17" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
-      <c r="B17" s="137" t="s">
+      <c r="B17" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="125" t="s">
+      <c r="C17" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="125" t="s">
+      <c r="D17" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="125" t="s">
+      <c r="E17" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="125" t="s">
+      <c r="F17" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="125" t="s">
+      <c r="G17" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="136" t="s">
+      <c r="H17" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="125" t="s">
+      <c r="I17" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="125" t="s">
+      <c r="J17" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="127" t="s">
+      <c r="K17" s="130" t="s">
         <v>10</v>
       </c>
       <c r="L17" s="21"/>
@@ -4750,23 +7574,23 @@
     </row>
     <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
-      <c r="B18" s="138"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="126"/>
-      <c r="J18" s="126"/>
-      <c r="K18" s="128"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="129"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="129"/>
+      <c r="J18" s="129"/>
+      <c r="K18" s="131"/>
       <c r="L18" s="21"/>
     </row>
     <row r="19" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="122" t="s">
+      <c r="A19" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="101" t="s">
+      <c r="B19" s="99" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="10">
@@ -4781,14 +7605,24 @@
       <c r="F19" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="100"/>
+      <c r="G19" s="104" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="29">
+        <v>1E-10</v>
+      </c>
+      <c r="I19" s="104">
+        <v>64</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19" s="98" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="123"/>
+      <c r="A20" s="121"/>
       <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
@@ -4812,7 +7646,7 @@
       <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="123"/>
+      <c r="A21" s="121"/>
       <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
@@ -4846,7 +7680,7 @@
       <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="123"/>
+      <c r="A22" s="121"/>
       <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
@@ -4879,7 +7713,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="124"/>
+      <c r="A23" s="122"/>
       <c r="B23" s="13" t="s">
         <v>34</v>
       </c>
@@ -4912,34 +7746,42 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="122" t="s">
+      <c r="A24" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="101" t="s">
+      <c r="B24" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="101">
+      <c r="C24" s="99">
         <v>1</v>
       </c>
-      <c r="D24" s="101" t="s">
+      <c r="D24" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="101" t="s">
+      <c r="E24" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="101" t="s">
+      <c r="F24" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="104"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="105"/>
-      <c r="K24" s="103" t="s">
+      <c r="G24" s="102" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="102">
+        <v>1E-10</v>
+      </c>
+      <c r="I24" s="99">
+        <v>256</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" s="101" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="123"/>
+      <c r="A25" s="121"/>
       <c r="B25" s="2" t="s">
         <v>32</v>
       </c>
@@ -4962,7 +7804,7 @@
       <c r="K25" s="38"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="123"/>
+      <c r="A26" s="121"/>
       <c r="B26" s="2" t="s">
         <v>15</v>
       </c>
@@ -4995,7 +7837,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="123"/>
+      <c r="A27" s="121"/>
       <c r="B27" s="2" t="s">
         <v>33</v>
       </c>
@@ -5028,7 +7870,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="124"/>
+      <c r="A28" s="122"/>
       <c r="B28" s="13" t="s">
         <v>34</v>
       </c>
@@ -5075,12 +7917,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="I17:I18"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -5093,11 +7934,12 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="J17:J18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/experiments/all_results.xlsx
+++ b/experiments/all_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alycia\Documents\adaptive-hypernets\experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ancarey\PycharmProjects\adaptive-hypernets\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEC8715-14FB-4493-B338-E4A7AC953986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2079B34A-25EA-4484-A552-6E6D9DAA4D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2556" yWindow="2124" windowWidth="17280" windowHeight="8964" tabRatio="665" firstSheet="2" activeTab="2" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="665" firstSheet="2" activeTab="2" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart2" sheetId="13" r:id="rId1"/>
@@ -279,7 +279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -895,11 +895,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1214,55 +1227,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1271,43 +1320,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4096,27 +4121,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FA34C5-480C-4D1A-AC66-54DFEF26762F}">
   <dimension ref="A1:X109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="R54" sqref="R54"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="36"/>
+    <col min="1" max="2" width="9.140625" style="36"/>
     <col min="3" max="3" width="25" style="35" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="14" width="8.6640625" style="36" customWidth="1"/>
-    <col min="15" max="15" width="13.109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.6640625" style="36" customWidth="1"/>
-    <col min="18" max="18" width="10.5546875" style="36" customWidth="1"/>
-    <col min="19" max="16384" width="9.109375" style="36"/>
+    <col min="4" max="4" width="14.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="8.7109375" style="36" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.7109375" style="36" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" style="36" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C1" s="105" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C1" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="105"/>
+      <c r="D1" s="121"/>
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
@@ -4132,7 +4157,7 @@
       <c r="Q1" s="45"/>
       <c r="R1" s="37"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C2" s="74"/>
       <c r="D2" s="45"/>
       <c r="E2" s="45"/>
@@ -4150,34 +4175,34 @@
       <c r="Q2" s="46"/>
       <c r="R2" s="37"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="118" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="108" t="s">
+      <c r="D3" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="108" t="s">
+      <c r="E3" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108" t="s">
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="116" t="s">
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="118" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="45"/>
@@ -4185,11 +4210,11 @@
       <c r="R3" s="37"/>
       <c r="S3" s="37"/>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="119"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="117"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
       <c r="E4" s="40" t="s">
         <v>35</v>
       </c>
@@ -4220,18 +4245,18 @@
       <c r="N4" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="117"/>
+      <c r="O4" s="119"/>
       <c r="P4" s="45"/>
       <c r="Q4" s="45"/>
       <c r="R4" s="37"/>
       <c r="S4" s="37"/>
     </row>
-    <row r="5" spans="1:19" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="115" t="s">
+    <row r="5" spans="1:19" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="110" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="80"/>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="112" t="s">
         <v>45</v>
       </c>
       <c r="D5" s="43" t="s">
@@ -4279,10 +4304,10 @@
       <c r="R5" s="37"/>
       <c r="S5" s="37"/>
     </row>
-    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="118"/>
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="111"/>
       <c r="B6" s="81"/>
-      <c r="C6" s="108"/>
+      <c r="C6" s="113"/>
       <c r="D6" s="44" t="s">
         <v>40</v>
       </c>
@@ -4305,12 +4330,12 @@
       <c r="R6" s="37"/>
       <c r="S6" s="37"/>
     </row>
-    <row r="7" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="118"/>
-      <c r="B7" s="112" t="s">
+    <row r="7" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="111"/>
+      <c r="B7" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="108"/>
+      <c r="C7" s="113"/>
       <c r="D7" s="44" t="s">
         <v>39</v>
       </c>
@@ -4333,10 +4358,10 @@
       <c r="R7" s="37"/>
       <c r="S7" s="37"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="118"/>
-      <c r="B8" s="114"/>
-      <c r="C8" s="108"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="111"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="113"/>
       <c r="D8" s="44" t="s">
         <v>23</v>
       </c>
@@ -4379,10 +4404,10 @@
       <c r="R8" s="37"/>
       <c r="S8" s="37"/>
     </row>
-    <row r="9" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="118"/>
-      <c r="B9" s="114"/>
-      <c r="C9" s="106" t="s">
+    <row r="9" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="111"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="114" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="44" t="s">
@@ -4407,10 +4432,10 @@
       <c r="R9" s="37"/>
       <c r="S9" s="37"/>
     </row>
-    <row r="10" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="118"/>
-      <c r="B10" s="114"/>
-      <c r="C10" s="106"/>
+    <row r="10" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="111"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="114"/>
       <c r="D10" s="44" t="s">
         <v>40</v>
       </c>
@@ -4433,10 +4458,10 @@
       <c r="R10" s="37"/>
       <c r="S10" s="37"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="118"/>
-      <c r="B11" s="114"/>
-      <c r="C11" s="106"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="111"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="114"/>
       <c r="D11" s="44" t="s">
         <v>39</v>
       </c>
@@ -4459,10 +4484,10 @@
       <c r="R11" s="37"/>
       <c r="S11" s="37"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="118"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="106"/>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="111"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="114"/>
       <c r="D12" s="44" t="s">
         <v>23</v>
       </c>
@@ -4485,10 +4510,10 @@
       <c r="R12" s="37"/>
       <c r="S12" s="37"/>
     </row>
-    <row r="13" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="118"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="106" t="s">
+    <row r="13" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="111"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="114" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="44" t="s">
@@ -4513,10 +4538,10 @@
       <c r="R13" s="37"/>
       <c r="S13" s="37"/>
     </row>
-    <row r="14" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="118"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="106"/>
+    <row r="14" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="111"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="114"/>
       <c r="D14" s="44" t="s">
         <v>40</v>
       </c>
@@ -4539,10 +4564,10 @@
       <c r="R14" s="37"/>
       <c r="S14" s="37"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="118"/>
-      <c r="B15" s="114"/>
-      <c r="C15" s="106"/>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="111"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="114"/>
       <c r="D15" s="44" t="s">
         <v>39</v>
       </c>
@@ -4565,10 +4590,10 @@
       <c r="R15" s="37"/>
       <c r="S15" s="37"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="118"/>
-      <c r="B16" s="114"/>
-      <c r="C16" s="106"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="111"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="114"/>
       <c r="D16" s="44" t="s">
         <v>23</v>
       </c>
@@ -4591,10 +4616,10 @@
       <c r="R16" s="37"/>
       <c r="S16" s="37"/>
     </row>
-    <row r="17" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="118"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="106" t="s">
+    <row r="17" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="111"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="114" t="s">
         <v>48</v>
       </c>
       <c r="D17" s="44" t="s">
@@ -4619,10 +4644,10 @@
       <c r="R17" s="37"/>
       <c r="S17" s="37"/>
     </row>
-    <row r="18" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="118"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="106"/>
+    <row r="18" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="111"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="114"/>
       <c r="D18" s="44" t="s">
         <v>40</v>
       </c>
@@ -4645,10 +4670,10 @@
       <c r="R18" s="37"/>
       <c r="S18" s="37"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="118"/>
-      <c r="B19" s="114"/>
-      <c r="C19" s="106"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="111"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="114"/>
       <c r="D19" s="44" t="s">
         <v>39</v>
       </c>
@@ -4671,10 +4696,10 @@
       <c r="R19" s="37"/>
       <c r="S19" s="37"/>
     </row>
-    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="119"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="107"/>
+    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="117"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="115"/>
       <c r="D20" s="40" t="s">
         <v>23</v>
       </c>
@@ -4697,12 +4722,14 @@
       <c r="R20" s="37"/>
       <c r="S20" s="37"/>
     </row>
-    <row r="21" spans="1:19" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="115" t="s">
+    <row r="21" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="110" t="s">
+      <c r="B21" s="139" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="112" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="43" t="s">
@@ -4725,10 +4752,10 @@
       <c r="P21" s="48"/>
       <c r="Q21" s="48"/>
     </row>
-    <row r="22" spans="1:19" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="118"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="108"/>
+    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="111"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="113"/>
       <c r="D22" s="44" t="s">
         <v>40</v>
       </c>
@@ -4749,12 +4776,10 @@
       <c r="P22" s="48"/>
       <c r="Q22" s="48"/>
     </row>
-    <row r="23" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="118"/>
-      <c r="B23" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="108"/>
+    <row r="23" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="111"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="47" t="s">
         <v>39</v>
       </c>
@@ -4796,10 +4821,10 @@
       <c r="Q23" s="48"/>
       <c r="R23" s="39"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="118"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="108"/>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="111"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="113"/>
       <c r="D24" s="47" t="s">
         <v>23</v>
       </c>
@@ -4840,10 +4865,10 @@
       <c r="P24" s="48"/>
       <c r="Q24" s="48"/>
     </row>
-    <row r="25" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="118"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="106" t="s">
+    <row r="25" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="111"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="114" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="44" t="s">
@@ -4866,10 +4891,10 @@
       <c r="P25" s="48"/>
       <c r="Q25" s="48"/>
     </row>
-    <row r="26" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="118"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="106"/>
+    <row r="26" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="111"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="114"/>
       <c r="D26" s="44" t="s">
         <v>40</v>
       </c>
@@ -4890,10 +4915,10 @@
       <c r="P26" s="48"/>
       <c r="Q26" s="48"/>
     </row>
-    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="118"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="106"/>
+    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="111"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="114"/>
       <c r="D27" s="44" t="s">
         <v>39</v>
       </c>
@@ -4934,10 +4959,10 @@
       <c r="P27" s="48"/>
       <c r="Q27" s="48"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="118"/>
-      <c r="B28" s="114"/>
-      <c r="C28" s="106"/>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="111"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="114"/>
       <c r="D28" s="44" t="s">
         <v>23</v>
       </c>
@@ -4978,10 +5003,10 @@
       <c r="P28" s="48"/>
       <c r="Q28" s="48"/>
     </row>
-    <row r="29" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="118"/>
-      <c r="B29" s="114"/>
-      <c r="C29" s="106" t="s">
+    <row r="29" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="111"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="114" t="s">
         <v>47</v>
       </c>
       <c r="D29" s="44" t="s">
@@ -5004,10 +5029,10 @@
       <c r="P29" s="48"/>
       <c r="Q29" s="48"/>
     </row>
-    <row r="30" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="118"/>
-      <c r="B30" s="114"/>
-      <c r="C30" s="106"/>
+    <row r="30" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="111"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="114"/>
       <c r="D30" s="44" t="s">
         <v>40</v>
       </c>
@@ -5028,10 +5053,10 @@
       <c r="P30" s="48"/>
       <c r="Q30" s="48"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="118"/>
-      <c r="B31" s="114"/>
-      <c r="C31" s="106"/>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="111"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="114"/>
       <c r="D31" s="47" t="s">
         <v>39</v>
       </c>
@@ -5072,10 +5097,10 @@
       <c r="P31" s="48"/>
       <c r="Q31" s="48"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="118"/>
-      <c r="B32" s="114"/>
-      <c r="C32" s="106"/>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="111"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="114"/>
       <c r="D32" s="44" t="s">
         <v>23</v>
       </c>
@@ -5116,10 +5141,10 @@
       <c r="P32" s="48"/>
       <c r="Q32" s="48"/>
     </row>
-    <row r="33" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="118"/>
-      <c r="B33" s="114"/>
-      <c r="C33" s="106" t="s">
+    <row r="33" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="111"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="114" t="s">
         <v>48</v>
       </c>
       <c r="D33" s="44" t="s">
@@ -5142,10 +5167,10 @@
       <c r="P33" s="48"/>
       <c r="Q33" s="48"/>
     </row>
-    <row r="34" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="118"/>
-      <c r="B34" s="114"/>
-      <c r="C34" s="106"/>
+    <row r="34" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="111"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="114"/>
       <c r="D34" s="44" t="s">
         <v>40</v>
       </c>
@@ -5166,10 +5191,10 @@
       <c r="P34" s="48"/>
       <c r="Q34" s="48"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="118"/>
-      <c r="B35" s="114"/>
-      <c r="C35" s="106"/>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="111"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="114"/>
       <c r="D35" s="47" t="s">
         <v>39</v>
       </c>
@@ -5210,10 +5235,10 @@
       <c r="P35" s="48"/>
       <c r="Q35" s="48"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="118"/>
-      <c r="B36" s="115"/>
-      <c r="C36" s="111"/>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="111"/>
+      <c r="B36" s="110"/>
+      <c r="C36" s="116"/>
       <c r="D36" s="44" t="s">
         <v>23</v>
       </c>
@@ -5254,7 +5279,7 @@
       <c r="P36" s="48"/>
       <c r="Q36" s="48"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C37" s="92"/>
       <c r="D37" s="48"/>
       <c r="E37" s="48"/>
@@ -5271,7 +5296,7 @@
       <c r="P37" s="48"/>
       <c r="Q37" s="48"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E38" s="48"/>
       <c r="F38" s="48"/>
       <c r="G38" s="48"/>
@@ -5289,7 +5314,7 @@
       <c r="S38" s="48"/>
       <c r="T38" s="48"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E39" s="48"/>
       <c r="F39" s="48"/>
       <c r="G39" s="48"/>
@@ -5307,7 +5332,7 @@
       <c r="S39" s="48"/>
       <c r="T39" s="48"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E40" s="48"/>
       <c r="F40" s="48"/>
       <c r="G40" s="48"/>
@@ -5325,7 +5350,7 @@
       <c r="S40" s="48"/>
       <c r="T40" s="48"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D41" s="48"/>
       <c r="E41" s="48"/>
       <c r="F41" s="48"/>
@@ -5344,47 +5369,47 @@
       <c r="S41" s="48"/>
       <c r="T41" s="48"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A42" s="118" t="s">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="112" t="s">
+      <c r="B42" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="108" t="s">
+      <c r="C42" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="108" t="s">
+      <c r="D42" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="108" t="s">
+      <c r="E42" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="108"/>
-      <c r="G42" s="108"/>
-      <c r="H42" s="108"/>
-      <c r="I42" s="108"/>
-      <c r="J42" s="108" t="s">
+      <c r="F42" s="113"/>
+      <c r="G42" s="113"/>
+      <c r="H42" s="113"/>
+      <c r="I42" s="113"/>
+      <c r="J42" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="K42" s="108"/>
-      <c r="L42" s="108"/>
-      <c r="M42" s="108"/>
-      <c r="N42" s="108"/>
-      <c r="O42" s="108" t="s">
+      <c r="K42" s="113"/>
+      <c r="L42" s="113"/>
+      <c r="M42" s="113"/>
+      <c r="N42" s="113"/>
+      <c r="O42" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="P42" s="108"/>
-      <c r="Q42" s="108"/>
-      <c r="R42" s="108"/>
-      <c r="S42" s="108"/>
+      <c r="P42" s="113"/>
+      <c r="Q42" s="113"/>
+      <c r="R42" s="113"/>
+      <c r="S42" s="113"/>
       <c r="T42" s="48"/>
     </row>
-    <row r="43" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="119"/>
-      <c r="B43" s="113"/>
-      <c r="C43" s="109"/>
-      <c r="D43" s="109"/>
+    <row r="43" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="117"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="120"/>
+      <c r="D43" s="120"/>
       <c r="E43" s="40" t="s">
         <v>35</v>
       </c>
@@ -5432,19 +5457,19 @@
       </c>
       <c r="T43" s="48"/>
     </row>
-    <row r="44" spans="1:20" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="115" t="s">
+    <row r="44" spans="1:20" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="110" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="80"/>
-      <c r="C44" s="110" t="s">
+      <c r="C44" s="112" t="s">
         <v>45</v>
       </c>
       <c r="D44" s="43" t="s">
         <v>25</v>
       </c>
       <c r="E44" s="56">
-        <f t="shared" ref="E44:E75" si="4">AVERAGE(F44:I44)</f>
+        <f t="shared" ref="E44:E73" si="4">AVERAGE(F44:I44)</f>
         <v>-5.6325E-2</v>
       </c>
       <c r="F44" s="54">
@@ -5460,7 +5485,7 @@
         <v>7.7999999999999996E-3</v>
       </c>
       <c r="J44" s="56">
-        <f t="shared" ref="J44:J75" si="5">AVERAGE(K44:N44)</f>
+        <f t="shared" ref="J44:J73" si="5">AVERAGE(K44:N44)</f>
         <v>-0.126025</v>
       </c>
       <c r="K44" s="54">
@@ -5476,7 +5501,7 @@
         <v>0.1087</v>
       </c>
       <c r="O44" s="56">
-        <f t="shared" ref="O44:O75" si="6">AVERAGE(P44:S44)</f>
+        <f t="shared" ref="O44:O73" si="6">AVERAGE(P44:S44)</f>
         <v>-5.3449999999999998E-2</v>
       </c>
       <c r="P44" s="54">
@@ -5493,10 +5518,10 @@
       </c>
       <c r="T44" s="48"/>
     </row>
-    <row r="45" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="118"/>
+    <row r="45" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="111"/>
       <c r="B45" s="81"/>
-      <c r="C45" s="108"/>
+      <c r="C45" s="113"/>
       <c r="D45" s="44" t="s">
         <v>40</v>
       </c>
@@ -5526,12 +5551,12 @@
       <c r="S45" s="41"/>
       <c r="T45" s="48"/>
     </row>
-    <row r="46" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="118"/>
-      <c r="B46" s="112" t="s">
+    <row r="46" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="111"/>
+      <c r="B46" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="108"/>
+      <c r="C46" s="113"/>
       <c r="D46" s="44" t="s">
         <v>39</v>
       </c>
@@ -5561,10 +5586,10 @@
       <c r="S46" s="41"/>
       <c r="T46" s="48"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A47" s="118"/>
-      <c r="B47" s="114"/>
-      <c r="C47" s="108"/>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="111"/>
+      <c r="B47" s="108"/>
+      <c r="C47" s="113"/>
       <c r="D47" s="44" t="s">
         <v>23</v>
       </c>
@@ -5618,10 +5643,10 @@
       </c>
       <c r="T47" s="48"/>
     </row>
-    <row r="48" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="118"/>
-      <c r="B48" s="114"/>
-      <c r="C48" s="106" t="s">
+    <row r="48" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="111"/>
+      <c r="B48" s="108"/>
+      <c r="C48" s="114" t="s">
         <v>46</v>
       </c>
       <c r="D48" s="44" t="s">
@@ -5653,10 +5678,10 @@
       <c r="S48" s="52"/>
       <c r="T48" s="48"/>
     </row>
-    <row r="49" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="118"/>
-      <c r="B49" s="114"/>
-      <c r="C49" s="106"/>
+    <row r="49" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="111"/>
+      <c r="B49" s="108"/>
+      <c r="C49" s="114"/>
       <c r="D49" s="44" t="s">
         <v>40</v>
       </c>
@@ -5686,10 +5711,10 @@
       <c r="S49" s="41"/>
       <c r="T49" s="48"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A50" s="118"/>
-      <c r="B50" s="114"/>
-      <c r="C50" s="106"/>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="111"/>
+      <c r="B50" s="108"/>
+      <c r="C50" s="114"/>
       <c r="D50" s="44" t="s">
         <v>39</v>
       </c>
@@ -5719,10 +5744,10 @@
       <c r="S50" s="41"/>
       <c r="T50" s="48"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A51" s="118"/>
-      <c r="B51" s="114"/>
-      <c r="C51" s="106"/>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="111"/>
+      <c r="B51" s="108"/>
+      <c r="C51" s="114"/>
       <c r="D51" s="44" t="s">
         <v>23</v>
       </c>
@@ -5752,10 +5777,10 @@
       <c r="S51" s="96"/>
       <c r="T51" s="48"/>
     </row>
-    <row r="52" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="118"/>
-      <c r="B52" s="114"/>
-      <c r="C52" s="106" t="s">
+    <row r="52" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="111"/>
+      <c r="B52" s="108"/>
+      <c r="C52" s="114" t="s">
         <v>47</v>
       </c>
       <c r="D52" s="44" t="s">
@@ -5787,10 +5812,10 @@
       <c r="S52" s="65"/>
       <c r="T52" s="48"/>
     </row>
-    <row r="53" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="118"/>
-      <c r="B53" s="114"/>
-      <c r="C53" s="106"/>
+    <row r="53" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="111"/>
+      <c r="B53" s="108"/>
+      <c r="C53" s="114"/>
       <c r="D53" s="44" t="s">
         <v>40</v>
       </c>
@@ -5820,10 +5845,10 @@
       <c r="S53" s="68"/>
       <c r="T53" s="48"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A54" s="118"/>
-      <c r="B54" s="114"/>
-      <c r="C54" s="106"/>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="111"/>
+      <c r="B54" s="108"/>
+      <c r="C54" s="114"/>
       <c r="D54" s="44" t="s">
         <v>39</v>
       </c>
@@ -5853,10 +5878,10 @@
       <c r="S54" s="68"/>
       <c r="T54" s="48"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A55" s="118"/>
-      <c r="B55" s="114"/>
-      <c r="C55" s="106"/>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="111"/>
+      <c r="B55" s="108"/>
+      <c r="C55" s="114"/>
       <c r="D55" s="44" t="s">
         <v>23</v>
       </c>
@@ -5886,10 +5911,10 @@
       <c r="S55" s="63"/>
       <c r="T55" s="48"/>
     </row>
-    <row r="56" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="118"/>
-      <c r="B56" s="114"/>
-      <c r="C56" s="106" t="s">
+    <row r="56" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="111"/>
+      <c r="B56" s="108"/>
+      <c r="C56" s="114" t="s">
         <v>48</v>
       </c>
       <c r="D56" s="44" t="s">
@@ -5921,10 +5946,10 @@
       <c r="S56" s="65"/>
       <c r="T56" s="48"/>
     </row>
-    <row r="57" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="118"/>
-      <c r="B57" s="114"/>
-      <c r="C57" s="106"/>
+    <row r="57" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="111"/>
+      <c r="B57" s="108"/>
+      <c r="C57" s="114"/>
       <c r="D57" s="44" t="s">
         <v>40</v>
       </c>
@@ -5954,10 +5979,10 @@
       <c r="S57" s="68"/>
       <c r="T57" s="48"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A58" s="118"/>
-      <c r="B58" s="114"/>
-      <c r="C58" s="106"/>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="111"/>
+      <c r="B58" s="108"/>
+      <c r="C58" s="114"/>
       <c r="D58" s="44" t="s">
         <v>39</v>
       </c>
@@ -5987,10 +6012,10 @@
       <c r="S58" s="68"/>
       <c r="T58" s="48"/>
     </row>
-    <row r="59" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="119"/>
-      <c r="B59" s="113"/>
-      <c r="C59" s="107"/>
+    <row r="59" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="117"/>
+      <c r="B59" s="109"/>
+      <c r="C59" s="115"/>
       <c r="D59" s="40" t="s">
         <v>23</v>
       </c>
@@ -6010,7 +6035,7 @@
       <c r="L59" s="60"/>
       <c r="M59" s="69"/>
       <c r="N59" s="59"/>
-      <c r="O59" s="137" t="e">
+      <c r="O59" s="106" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -6020,12 +6045,12 @@
       <c r="S59" s="70"/>
       <c r="T59" s="48"/>
     </row>
-    <row r="60" spans="1:20" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="115" t="s">
+    <row r="60" spans="1:20" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="110" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="80"/>
-      <c r="C60" s="110" t="s">
+      <c r="C60" s="112" t="s">
         <v>45</v>
       </c>
       <c r="D60" s="43" t="s">
@@ -6057,10 +6082,10 @@
       <c r="S60" s="50"/>
       <c r="T60" s="48"/>
     </row>
-    <row r="61" spans="1:20" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="118"/>
+    <row r="61" spans="1:20" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="111"/>
       <c r="B61" s="81"/>
-      <c r="C61" s="108"/>
+      <c r="C61" s="113"/>
       <c r="D61" s="44" t="s">
         <v>40</v>
       </c>
@@ -6090,12 +6115,12 @@
       <c r="S61" s="41"/>
       <c r="T61" s="48"/>
     </row>
-    <row r="62" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="118"/>
-      <c r="B62" s="112" t="s">
+    <row r="62" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="111"/>
+      <c r="B62" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="108"/>
+      <c r="C62" s="113"/>
       <c r="D62" s="47" t="s">
         <v>39</v>
       </c>
@@ -6149,10 +6174,10 @@
       </c>
       <c r="T62" s="48"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A63" s="118"/>
-      <c r="B63" s="114"/>
-      <c r="C63" s="108"/>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="111"/>
+      <c r="B63" s="108"/>
+      <c r="C63" s="113"/>
       <c r="D63" s="47" t="s">
         <v>23</v>
       </c>
@@ -6206,10 +6231,10 @@
       </c>
       <c r="T63" s="48"/>
     </row>
-    <row r="64" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="118"/>
-      <c r="B64" s="114"/>
-      <c r="C64" s="106" t="s">
+    <row r="64" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="111"/>
+      <c r="B64" s="108"/>
+      <c r="C64" s="114" t="s">
         <v>46</v>
       </c>
       <c r="D64" s="44" t="s">
@@ -6241,10 +6266,10 @@
       <c r="S64" s="89"/>
       <c r="T64" s="48"/>
     </row>
-    <row r="65" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="118"/>
-      <c r="B65" s="114"/>
-      <c r="C65" s="106"/>
+    <row r="65" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="111"/>
+      <c r="B65" s="108"/>
+      <c r="C65" s="114"/>
       <c r="D65" s="44" t="s">
         <v>40</v>
       </c>
@@ -6274,10 +6299,10 @@
       <c r="S65" s="87"/>
       <c r="T65" s="48"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A66" s="118"/>
-      <c r="B66" s="114"/>
-      <c r="C66" s="106"/>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A66" s="111"/>
+      <c r="B66" s="108"/>
+      <c r="C66" s="114"/>
       <c r="D66" s="44" t="s">
         <v>39</v>
       </c>
@@ -6331,10 +6356,10 @@
       </c>
       <c r="T66" s="48"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A67" s="118"/>
-      <c r="B67" s="114"/>
-      <c r="C67" s="106"/>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A67" s="111"/>
+      <c r="B67" s="108"/>
+      <c r="C67" s="114"/>
       <c r="D67" s="44" t="s">
         <v>23</v>
       </c>
@@ -6388,10 +6413,10 @@
       </c>
       <c r="T67" s="48"/>
     </row>
-    <row r="68" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="118"/>
-      <c r="B68" s="114"/>
-      <c r="C68" s="106" t="s">
+    <row r="68" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="111"/>
+      <c r="B68" s="108"/>
+      <c r="C68" s="114" t="s">
         <v>47</v>
       </c>
       <c r="D68" s="44" t="s">
@@ -6423,10 +6448,10 @@
       <c r="S68" s="65"/>
       <c r="T68" s="48"/>
     </row>
-    <row r="69" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="118"/>
-      <c r="B69" s="114"/>
-      <c r="C69" s="106"/>
+    <row r="69" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="111"/>
+      <c r="B69" s="108"/>
+      <c r="C69" s="114"/>
       <c r="D69" s="44" t="s">
         <v>40</v>
       </c>
@@ -6456,10 +6481,10 @@
       <c r="S69" s="68"/>
       <c r="T69" s="48"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A70" s="118"/>
-      <c r="B70" s="114"/>
-      <c r="C70" s="106"/>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A70" s="111"/>
+      <c r="B70" s="108"/>
+      <c r="C70" s="114"/>
       <c r="D70" s="47" t="s">
         <v>39</v>
       </c>
@@ -6513,10 +6538,10 @@
       </c>
       <c r="T70" s="48"/>
     </row>
-    <row r="71" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="118"/>
-      <c r="B71" s="114"/>
-      <c r="C71" s="106"/>
+    <row r="71" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="111"/>
+      <c r="B71" s="108"/>
+      <c r="C71" s="114"/>
       <c r="D71" s="44" t="s">
         <v>23</v>
       </c>
@@ -6524,32 +6549,32 @@
         <f t="shared" si="4"/>
         <v>3.375E-3</v>
       </c>
-      <c r="F71" s="58">
+      <c r="F71" s="95">
         <v>-4.5999999999999999E-3</v>
       </c>
-      <c r="G71" s="58">
+      <c r="G71" s="95">
         <v>1.95E-2</v>
       </c>
-      <c r="H71" s="58">
+      <c r="H71" s="95">
         <v>-1.6000000000000001E-3</v>
       </c>
-      <c r="I71" s="42">
+      <c r="I71" s="96">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="J71" s="83">
         <f t="shared" si="5"/>
         <v>1.1574999999999998E-2</v>
       </c>
-      <c r="K71" s="58">
+      <c r="K71" s="95">
         <v>-1.52E-2</v>
       </c>
-      <c r="L71" s="58">
+      <c r="L71" s="95">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="M71" s="58">
+      <c r="M71" s="95">
         <v>-9.1000000000000004E-3</v>
       </c>
-      <c r="N71" s="42">
+      <c r="N71" s="96">
         <v>3.8999999999999998E-3</v>
       </c>
       <c r="O71" s="61">
@@ -6570,10 +6595,10 @@
       </c>
       <c r="T71" s="48"/>
     </row>
-    <row r="72" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="118"/>
-      <c r="B72" s="114"/>
-      <c r="C72" s="106" t="s">
+    <row r="72" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="111"/>
+      <c r="B72" s="108"/>
+      <c r="C72" s="114" t="s">
         <v>48</v>
       </c>
       <c r="D72" s="44" t="s">
@@ -6605,10 +6630,10 @@
       <c r="S72" s="65"/>
       <c r="T72" s="48"/>
     </row>
-    <row r="73" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="118"/>
-      <c r="B73" s="114"/>
-      <c r="C73" s="106"/>
+    <row r="73" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="111"/>
+      <c r="B73" s="108"/>
+      <c r="C73" s="114"/>
       <c r="D73" s="44" t="s">
         <v>40</v>
       </c>
@@ -6638,10 +6663,10 @@
       <c r="S73" s="68"/>
       <c r="T73" s="48"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A74" s="118"/>
-      <c r="B74" s="114"/>
-      <c r="C74" s="106"/>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A74" s="111"/>
+      <c r="B74" s="108"/>
+      <c r="C74" s="114"/>
       <c r="D74" s="47" t="s">
         <v>39</v>
       </c>
@@ -6658,7 +6683,7 @@
       <c r="H74" s="67">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="I74" s="41">
+      <c r="I74" s="140">
         <v>-1.6999999999999999E-3</v>
       </c>
       <c r="J74" s="76">
@@ -6674,20 +6699,20 @@
       <c r="M74" s="67">
         <v>3.5400000000000001E-2</v>
       </c>
-      <c r="N74" s="41">
+      <c r="N74" s="140">
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="O74" s="75">
         <f>(P74+R74)/2</f>
         <v>-8.2000000000000007E-3</v>
       </c>
-      <c r="P74" s="45">
+      <c r="P74" s="94">
         <v>-1.95E-2</v>
       </c>
       <c r="Q74" s="67">
         <v>-2.0400000000000001E-2</v>
       </c>
-      <c r="R74" s="45">
+      <c r="R74" s="94">
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="S74" s="68">
@@ -6695,10 +6720,10 @@
       </c>
       <c r="T74" s="48"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A75" s="118"/>
-      <c r="B75" s="115"/>
-      <c r="C75" s="111"/>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A75" s="111"/>
+      <c r="B75" s="110"/>
+      <c r="C75" s="116"/>
       <c r="D75" s="44" t="s">
         <v>23</v>
       </c>
@@ -6709,7 +6734,7 @@
       <c r="F75" s="62">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="G75" s="58">
+      <c r="G75" s="95">
         <v>1.12E-2</v>
       </c>
       <c r="H75" s="62">
@@ -6725,7 +6750,7 @@
       <c r="K75" s="62">
         <v>4.3799999999999999E-2</v>
       </c>
-      <c r="L75" s="58">
+      <c r="L75" s="95">
         <v>3.85E-2</v>
       </c>
       <c r="M75" s="62">
@@ -6752,65 +6777,138 @@
       </c>
       <c r="T75" s="48"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C76" s="93"/>
       <c r="D76" s="48"/>
-      <c r="E76" s="48"/>
+      <c r="E76" s="83"/>
       <c r="F76" s="48"/>
       <c r="G76" s="48"/>
       <c r="H76" s="48"/>
-      <c r="I76" s="48"/>
-      <c r="J76" s="48"/>
+      <c r="I76" s="57"/>
+      <c r="J76" s="83"/>
       <c r="K76" s="48"/>
       <c r="L76" s="48"/>
       <c r="M76" s="48"/>
       <c r="N76" s="48"/>
-      <c r="O76" s="48"/>
+      <c r="O76" s="83"/>
       <c r="P76" s="48"/>
       <c r="Q76" s="48"/>
       <c r="R76" s="48"/>
       <c r="S76" s="48"/>
       <c r="T76" s="48"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D77" s="48"/>
-      <c r="E77" s="48"/>
-      <c r="F77" s="48"/>
-      <c r="G77" s="48"/>
-      <c r="H77" s="48"/>
-      <c r="I77" s="48"/>
-      <c r="J77" s="48"/>
-      <c r="K77" s="48"/>
-      <c r="L77" s="48"/>
-      <c r="M77" s="48"/>
-      <c r="N77" s="48"/>
-      <c r="O77" s="48"/>
-      <c r="P77" s="48"/>
-      <c r="Q77" s="48"/>
-      <c r="R77" s="48"/>
-      <c r="S77" s="48"/>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D77" s="48">
+        <v>0.77549999999999997</v>
+      </c>
+      <c r="E77" s="83">
+        <f t="shared" ref="E76:E78" si="7">(G77+I77)/2</f>
+        <v>-6.1000000000000004E-3</v>
+      </c>
+      <c r="F77" s="105">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G77" s="141">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="H77" s="48">
+        <v>4.8599999999999997E-2</v>
+      </c>
+      <c r="I77" s="36">
+        <v>-2.0400000000000001E-2</v>
+      </c>
+      <c r="J77" s="83">
+        <f t="shared" ref="J76:J78" si="8">(L77+N77)/2</f>
+        <v>8.5500000000000003E-3</v>
+      </c>
+      <c r="K77" s="48">
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="L77" s="141">
+        <v>4.36E-2</v>
+      </c>
+      <c r="M77" s="105">
+        <v>8.6300000000000002E-2</v>
+      </c>
+      <c r="N77" s="48">
+        <v>-2.6499999999999999E-2</v>
+      </c>
+      <c r="O77" s="72">
+        <f t="shared" ref="O76:O78" si="9">(P77+R77)/2</f>
+        <v>-1.915E-2</v>
+      </c>
+      <c r="P77" s="141">
+        <v>-1.04E-2</v>
+      </c>
+      <c r="Q77" s="48">
+        <v>-5.5300000000000002E-2</v>
+      </c>
+      <c r="R77" s="105">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="S77" s="48">
+        <v>-4.6699999999999998E-2</v>
+      </c>
       <c r="T77" s="48"/>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D78" s="48"/>
-      <c r="E78" s="48"/>
-      <c r="F78" s="48"/>
-      <c r="G78" s="45"/>
-      <c r="H78" s="48"/>
-      <c r="I78" s="48"/>
-      <c r="J78" s="48"/>
-      <c r="K78" s="48"/>
-      <c r="L78" s="48"/>
-      <c r="M78" s="48"/>
-      <c r="N78" s="48"/>
-      <c r="O78" s="48"/>
-      <c r="P78" s="48"/>
-      <c r="Q78" s="48"/>
-      <c r="R78" s="48"/>
-      <c r="S78" s="48"/>
+      <c r="U77" s="48"/>
+      <c r="V77" s="48"/>
+      <c r="W77" s="48"/>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D78" s="48">
+        <v>0.75470000000000004</v>
+      </c>
+      <c r="E78" s="72">
+        <f t="shared" si="7"/>
+        <v>1.2849999999999999E-2</v>
+      </c>
+      <c r="F78" s="48">
+        <v>-1.2500000000000001E-2</v>
+      </c>
+      <c r="G78" s="45">
+        <v>3.8199999999999998E-2</v>
+      </c>
+      <c r="H78" s="48">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="I78" s="141">
+        <v>-1.2500000000000001E-2</v>
+      </c>
+      <c r="J78" s="72">
+        <f t="shared" si="8"/>
+        <v>4.0899999999999999E-2</v>
+      </c>
+      <c r="K78" s="48">
+        <v>-2.7300000000000001E-2</v>
+      </c>
+      <c r="L78" s="48">
+        <v>0.1026</v>
+      </c>
+      <c r="M78" s="48">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="N78" s="141">
+        <v>-2.0799999999999999E-2</v>
+      </c>
+      <c r="O78" s="83">
+        <f t="shared" si="9"/>
+        <v>-7.3000000000000001E-3</v>
+      </c>
+      <c r="P78" s="48">
+        <v>-2.12E-2</v>
+      </c>
+      <c r="Q78" s="48">
+        <v>-3.0599999999999999E-2</v>
+      </c>
+      <c r="R78" s="141">
+        <v>6.6E-3</v>
+      </c>
+      <c r="S78" s="48">
+        <v>-3.9100000000000003E-2</v>
+      </c>
       <c r="T78" s="48"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D79" s="48"/>
       <c r="E79" s="48"/>
       <c r="F79" s="48"/>
@@ -6828,7 +6926,7 @@
       <c r="R79" s="48"/>
       <c r="S79" s="48"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D80" s="48"/>
       <c r="E80" s="48"/>
       <c r="F80" s="48"/>
@@ -6851,7 +6949,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D81" s="48"/>
       <c r="E81" s="48"/>
       <c r="F81" s="48"/>
@@ -6889,7 +6987,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D82" s="48"/>
       <c r="E82" s="48"/>
       <c r="F82" s="48"/>
@@ -6918,15 +7016,15 @@
         <v>-0.14419999999999999</v>
       </c>
       <c r="S82" s="48">
-        <f t="shared" ref="S82:S86" si="7">AVERAGE(O82:R82)</f>
+        <f t="shared" ref="S82:S86" si="10">AVERAGE(O82:R82)</f>
         <v>-4.047499999999999E-2</v>
       </c>
       <c r="X82" s="36" t="e">
-        <f t="shared" ref="X82:X86" si="8">AVERAGE(T82:W82)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.3">
+        <f t="shared" ref="X82:X86" si="11">AVERAGE(T82:W82)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.25">
       <c r="M83" s="36">
         <v>50</v>
       </c>
@@ -6946,136 +7044,129 @@
         <v>-0.15379999999999999</v>
       </c>
       <c r="S83" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-4.7749999999999945E-3</v>
       </c>
       <c r="X83" s="36" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.25">
       <c r="M84" s="36">
         <v>25</v>
       </c>
       <c r="S84" s="48" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X84" s="36" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.25">
       <c r="M85" s="36">
         <v>10</v>
       </c>
       <c r="S85" s="48" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X85" s="36" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.25">
       <c r="M86" s="36">
         <v>1</v>
       </c>
       <c r="S86" s="48" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X86" s="36" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C89" s="36"/>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C90" s="36"/>
     </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C91" s="36"/>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C92" s="36"/>
     </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C93" s="36"/>
     </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C94" s="36"/>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C95" s="36"/>
     </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C96" s="36"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="36"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="36"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="36"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="36"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="36"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="36"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" s="36"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C104" s="36"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C105" s="36"/>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C106" s="36"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C107" s="36"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C108" s="36"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C109" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B46:B59"/>
-    <mergeCell ref="B62:B75"/>
-    <mergeCell ref="A60:A75"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A20"/>
-    <mergeCell ref="A21:A36"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A59"/>
+    <mergeCell ref="B21:B36"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="C33:C36"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B7:B20"/>
-    <mergeCell ref="B23:B36"/>
     <mergeCell ref="O42:S42"/>
     <mergeCell ref="C44:C47"/>
     <mergeCell ref="E42:I42"/>
@@ -7089,14 +7180,21 @@
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="D42:D43"/>
     <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A20"/>
+    <mergeCell ref="A21:A36"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A59"/>
+    <mergeCell ref="B46:B59"/>
+    <mergeCell ref="B62:B75"/>
+    <mergeCell ref="A60:A75"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C72:C75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -7111,25 +7209,25 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="4"/>
-    <col min="2" max="2" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="4"/>
-    <col min="4" max="4" width="21.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="21.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="4"/>
-    <col min="7" max="7" width="28.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="4"/>
+    <col min="7" max="7" width="28.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="4"/>
+    <col min="14" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -7140,56 +7238,56 @@
       <c r="I1" s="14"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="114" t="s">
+      <c r="C2" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="114" t="s">
+      <c r="D2" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="114" t="s">
+      <c r="E2" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="114" t="s">
+      <c r="F2" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="128" t="s">
+      <c r="G2" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="134" t="s">
+      <c r="H2" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="128" t="s">
+      <c r="I2" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="135" t="s">
+      <c r="J2" s="133" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="O2" s="19"/>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="136"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="134"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="O3" s="19"/>
     </row>
-    <row r="4" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="120" t="s">
+    <row r="4" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="122" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="100" t="s">
@@ -7223,8 +7321,8 @@
       <c r="L4" s="6"/>
       <c r="O4" s="19"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="121"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="123"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -7248,8 +7346,8 @@
       <c r="L5" s="6"/>
       <c r="O5" s="19"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="121"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="123"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -7281,8 +7379,8 @@
       <c r="L6" s="6"/>
       <c r="O6" s="19"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="121"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="123"/>
       <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
@@ -7314,8 +7412,8 @@
       <c r="L7" s="6"/>
       <c r="O7" s="19"/>
     </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="122"/>
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="124"/>
       <c r="B8" s="18" t="s">
         <v>16</v>
       </c>
@@ -7347,8 +7445,8 @@
       <c r="L8" s="6"/>
       <c r="O8" s="19"/>
     </row>
-    <row r="9" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="123" t="s">
+    <row r="9" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="135" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="99" t="s">
@@ -7382,8 +7480,8 @@
       <c r="L9" s="6"/>
       <c r="O9" s="19"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="121"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="123"/>
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
@@ -7408,8 +7506,8 @@
       <c r="M10" s="6"/>
       <c r="O10" s="19"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="121"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="123"/>
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
@@ -7442,8 +7540,8 @@
       <c r="M11" s="6"/>
       <c r="O11" s="19"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="121"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="123"/>
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
@@ -7476,8 +7574,8 @@
       <c r="M12" s="6"/>
       <c r="O12" s="19"/>
     </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="122"/>
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="124"/>
       <c r="B13" s="12" t="s">
         <v>16</v>
       </c>
@@ -7509,8 +7607,8 @@
       <c r="L13" s="6"/>
       <c r="O13" s="19"/>
     </row>
-    <row r="14" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -7523,7 +7621,7 @@
       <c r="J15" s="7"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -7537,57 +7635,57 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
-      <c r="B17" s="126" t="s">
+      <c r="B17" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="128" t="s">
+      <c r="C17" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="128" t="s">
+      <c r="D17" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="128" t="s">
+      <c r="E17" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="128" t="s">
+      <c r="F17" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="128" t="s">
+      <c r="G17" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="124" t="s">
+      <c r="H17" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="128" t="s">
+      <c r="I17" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="128" t="s">
+      <c r="J17" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="130" t="s">
+      <c r="K17" s="127" t="s">
         <v>10</v>
       </c>
       <c r="L17" s="21"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
-      <c r="B18" s="127"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="129"/>
-      <c r="K18" s="131"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="126"/>
+      <c r="K18" s="128"/>
       <c r="L18" s="21"/>
     </row>
-    <row r="19" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="120" t="s">
+    <row r="19" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="122" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="99" t="s">
@@ -7621,8 +7719,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="121"/>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="123"/>
       <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
@@ -7645,8 +7743,8 @@
       <c r="K20" s="38"/>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="121"/>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="123"/>
       <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
@@ -7679,8 +7777,8 @@
       </c>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="121"/>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="123"/>
       <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
@@ -7712,8 +7810,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="122"/>
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="124"/>
       <c r="B23" s="13" t="s">
         <v>34</v>
       </c>
@@ -7745,8 +7843,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="120" t="s">
+    <row r="24" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="122" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="99" t="s">
@@ -7780,8 +7878,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="121"/>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="123"/>
       <c r="B25" s="2" t="s">
         <v>32</v>
       </c>
@@ -7803,8 +7901,8 @@
       <c r="J25" s="34"/>
       <c r="K25" s="38"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="121"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="123"/>
       <c r="B26" s="2" t="s">
         <v>15</v>
       </c>
@@ -7836,8 +7934,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="121"/>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="123"/>
       <c r="B27" s="2" t="s">
         <v>33</v>
       </c>
@@ -7869,8 +7967,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="122"/>
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="124"/>
       <c r="B28" s="13" t="s">
         <v>34</v>
       </c>
@@ -7902,8 +8000,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -7917,11 +8015,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -7934,12 +8033,11 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="J17:J18"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="I17:I18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/experiments/all_results.xlsx
+++ b/experiments/all_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ancarey\PycharmProjects\adaptive-hypernets\experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alycia\Documents\adaptive-hypernets\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2079B34A-25EA-4484-A552-6E6D9DAA4D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7B76B2-0A51-4713-863F-3DE37AE329E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="665" firstSheet="2" activeTab="2" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
+    <workbookView xWindow="2904" yWindow="2472" windowWidth="17280" windowHeight="8964" tabRatio="665" firstSheet="2" activeTab="2" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart2" sheetId="13" r:id="rId1"/>
@@ -37,8 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="67">
   <si>
     <t>Model</t>
   </si>
@@ -202,43 +224,43 @@
     <t>h: 2000, c: 50</t>
   </si>
   <si>
-    <t>7 min 37 sec</t>
-  </si>
-  <si>
-    <t>11 min 20 sec</t>
-  </si>
-  <si>
     <t>eod</t>
   </si>
   <si>
     <t>dp:100, eo: 50</t>
   </si>
   <si>
-    <t>12 min 23 sec</t>
-  </si>
-  <si>
-    <t>11 min 36 sec</t>
-  </si>
-  <si>
-    <t>4 min 8 sec</t>
-  </si>
-  <si>
-    <t>7 min 12 sec</t>
-  </si>
-  <si>
-    <t>9 min 47 sec</t>
-  </si>
-  <si>
-    <t>8 min 15 sec</t>
-  </si>
-  <si>
     <t>spd</t>
   </si>
   <si>
-    <t>6 min 34 sec</t>
+    <t>dp:750, eo:</t>
   </si>
   <si>
-    <t>dp:750, eo:</t>
+    <t>8 min 17 sec</t>
+  </si>
+  <si>
+    <t>5 min 35 sec</t>
+  </si>
+  <si>
+    <t>Abs Avg</t>
+  </si>
+  <si>
+    <t>11 min 22 sec</t>
+  </si>
+  <si>
+    <t>9 min 41 sec</t>
+  </si>
+  <si>
+    <t>6 min 40 sec</t>
+  </si>
+  <si>
+    <t>7 min 35 sec</t>
+  </si>
+  <si>
+    <t>5 min 8 sec</t>
+  </si>
+  <si>
+    <t>2 min 17 sec</t>
   </si>
 </sst>
 </file>
@@ -279,7 +301,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -847,19 +869,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thick">
         <color indexed="64"/>
       </right>
@@ -912,7 +921,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1014,39 +1023,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1122,13 +1107,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1146,13 +1125,7 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1188,9 +1161,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1200,10 +1170,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1218,37 +1188,31 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1257,24 +1221,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1282,6 +1246,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1305,34 +1284,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1414,9 +1399,6 @@
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.6472</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1450,20 +1432,8 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.1074</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1137</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.21879999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.1154</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.8275000000000002E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1487,9 +1457,6 @@
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.6537</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1524,20 +1491,8 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.1368</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.4700000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.22919999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.14419999999999999</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.047499999999999E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1561,9 +1516,6 @@
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.6521</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1598,20 +1550,8 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.16109999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.17150000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.19789999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.15379999999999999</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.7749999999999945E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -2062,9 +2002,6 @@
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.6472</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2098,20 +2035,8 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.1074</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1137</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.21879999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.1154</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.8275000000000002E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -2135,9 +2060,6 @@
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.6537</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2172,20 +2094,8 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.1368</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.4700000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.22919999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.14419999999999999</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.047499999999999E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -2209,9 +2119,6 @@
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.6521</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2246,20 +2153,8 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.16109999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.17150000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.19789999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.15379999999999999</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.7749999999999945E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -4121,3052 +4016,2637 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FA34C5-480C-4D1A-AC66-54DFEF26762F}">
   <dimension ref="A1:X109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O59" sqref="O59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="36"/>
-    <col min="3" max="3" width="25" style="35" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="14" width="8.7109375" style="36" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.7109375" style="36" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" style="36" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="36"/>
+    <col min="1" max="2" width="9.109375" style="40"/>
+    <col min="3" max="3" width="25" style="131" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="8.6640625" style="40" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.6640625" style="40" customWidth="1"/>
+    <col min="18" max="18" width="10.5546875" style="40" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C1" s="121" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C1" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="121"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="37"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C2" s="74"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="37"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="D1" s="98"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C2" s="64"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="95"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="113" t="s">
+      <c r="D3" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="113" t="s">
+      <c r="E3" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113" t="s">
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="118" t="s">
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="117"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="40" t="s">
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="102"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="40" t="s">
+      <c r="K4" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="40" t="s">
+      <c r="L4" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="40" t="s">
+      <c r="M4" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="40" t="s">
+      <c r="N4" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="119"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-    </row>
-    <row r="5" spans="1:19" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="110" t="s">
+      <c r="O4" s="106"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+    </row>
+    <row r="5" spans="1:19" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="112" t="s">
+      <c r="B5" s="92"/>
+      <c r="C5" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E5" s="48">
         <f t="shared" ref="E5" si="0">AVERAGE(F5:I5)</f>
         <v>0.67667500000000003</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="46">
         <v>0.64670000000000005</v>
       </c>
-      <c r="G5" s="54">
+      <c r="G5" s="46">
         <v>0.65329999999999999</v>
       </c>
-      <c r="H5" s="54">
+      <c r="H5" s="46">
         <v>0.72670000000000001</v>
       </c>
-      <c r="I5" s="50">
+      <c r="I5" s="42">
         <v>0.68</v>
       </c>
-      <c r="J5" s="56">
+      <c r="J5" s="48">
         <f t="shared" ref="J5" si="1">AVERAGE(K5:N5)</f>
         <v>0.57992500000000002</v>
       </c>
-      <c r="K5" s="54">
+      <c r="K5" s="46">
         <v>0.67479999999999996</v>
       </c>
-      <c r="L5" s="54">
+      <c r="L5" s="46">
         <v>0.63890000000000002</v>
       </c>
-      <c r="M5" s="54">
+      <c r="M5" s="46">
         <v>0.50600000000000001</v>
       </c>
-      <c r="N5" s="54">
+      <c r="N5" s="46">
         <v>0.5</v>
       </c>
-      <c r="O5" s="50" t="s">
+      <c r="O5" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45" t="s">
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-    </row>
-    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="111"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="44" t="s">
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+    </row>
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="101"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="46" t="e">
+      <c r="E6" s="48"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="38" t="e">
         <f t="shared" ref="J6" si="2">AVERAGE(K6:N6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="111"/>
-      <c r="B7" s="107" t="s">
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
+    </row>
+    <row r="7" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="101"/>
+      <c r="B7" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="44" t="s">
+      <c r="C7" s="101"/>
+      <c r="D7" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="76" t="e">
+      <c r="E7" s="41">
+        <v>0.68120000000000003</v>
+      </c>
+      <c r="F7" s="81">
+        <v>0.67220000000000002</v>
+      </c>
+      <c r="G7" s="95">
+        <v>0.63890000000000002</v>
+      </c>
+      <c r="H7" s="95">
+        <v>0.69530000000000003</v>
+      </c>
+      <c r="I7" s="96">
+        <v>0.73850000000000005</v>
+      </c>
+      <c r="J7" s="66">
         <f>AVERAGE(K7:N7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="111"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="44" t="s">
+        <v>0.57247499999999996</v>
+      </c>
+      <c r="K7" s="95">
+        <v>0.69110000000000005</v>
+      </c>
+      <c r="L7" s="95">
+        <v>0.62429999999999997</v>
+      </c>
+      <c r="M7" s="95">
+        <v>0.54120000000000001</v>
+      </c>
+      <c r="N7" s="96">
+        <v>0.43330000000000002</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="95"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="95"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="101"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="84">
-        <v>0.68120000000000003</v>
-      </c>
-      <c r="F8" s="55">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="G8" s="55">
-        <v>0.63980000000000004</v>
-      </c>
-      <c r="H8" s="55">
-        <v>0.70309999999999995</v>
-      </c>
-      <c r="I8" s="53">
+      <c r="E8" s="72">
+        <v>0.69089999999999996</v>
+      </c>
+      <c r="F8" s="78">
+        <v>0.67220000000000002</v>
+      </c>
+      <c r="G8" s="78">
+        <v>0.65559999999999996</v>
+      </c>
+      <c r="H8" s="78">
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="I8" s="79">
         <v>0.73850000000000005</v>
       </c>
-      <c r="J8" s="83">
+      <c r="J8" s="71">
         <f>AVERAGE(K8:N8)</f>
-        <v>0.56917499999999999</v>
-      </c>
-      <c r="K8" s="55">
-        <v>0.70299999999999996</v>
-      </c>
-      <c r="L8" s="55">
-        <v>0.61539999999999995</v>
-      </c>
-      <c r="M8" s="55">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="N8" s="55">
+        <v>0.58287500000000003</v>
+      </c>
+      <c r="K8" s="78">
+        <v>0.70050000000000001</v>
+      </c>
+      <c r="L8" s="78">
+        <v>0.64770000000000005</v>
+      </c>
+      <c r="M8" s="78">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N8" s="79">
         <v>0.43330000000000002</v>
       </c>
-      <c r="O8" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-    </row>
-    <row r="9" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="111"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="114" t="s">
+      <c r="O8" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="95"/>
+      <c r="S8" s="95"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="101"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="72" t="e">
+      <c r="E9" s="48"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="63" t="e">
         <f t="shared" ref="J9:J36" si="3">AVERAGE(K9:N9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-    </row>
-    <row r="10" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="111"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="44" t="s">
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="95"/>
+      <c r="Q9" s="95"/>
+      <c r="R9" s="95"/>
+      <c r="S9" s="95"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="101"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="72" t="e">
+      <c r="E10" s="48"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="63" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="111"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="44" t="s">
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="95"/>
+      <c r="R10" s="95"/>
+      <c r="S10" s="95"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="101"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="85"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="75" t="e">
+      <c r="E11" s="73">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="F11" s="95">
+        <v>0.59440000000000004</v>
+      </c>
+      <c r="G11" s="81">
+        <v>0.63329999999999997</v>
+      </c>
+      <c r="H11" s="81">
+        <v>0.73440000000000005</v>
+      </c>
+      <c r="I11" s="96">
+        <v>0.73850000000000005</v>
+      </c>
+      <c r="J11" s="125">
+        <f t="shared" si="3"/>
+        <v>0.57979999999999998</v>
+      </c>
+      <c r="K11" s="95">
+        <v>0.64729999999999999</v>
+      </c>
+      <c r="L11" s="81">
+        <v>0.625</v>
+      </c>
+      <c r="M11" s="81">
+        <v>0.61360000000000003</v>
+      </c>
+      <c r="N11" s="96">
+        <v>0.43330000000000002</v>
+      </c>
+      <c r="O11" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="95"/>
+      <c r="R11" s="95"/>
+      <c r="S11" s="95"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="101"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="70">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="F12" s="82">
+        <v>0.61109999999999998</v>
+      </c>
+      <c r="G12" s="82">
+        <v>0.62780000000000002</v>
+      </c>
+      <c r="H12" s="50">
+        <v>0.72660000000000002</v>
+      </c>
+      <c r="I12" s="37">
+        <v>0.73080000000000001</v>
+      </c>
+      <c r="J12" s="63">
+        <f t="shared" si="3"/>
+        <v>0.56640000000000001</v>
+      </c>
+      <c r="K12" s="82">
+        <v>0.65349999999999997</v>
+      </c>
+      <c r="L12" s="50">
+        <v>0.61709999999999998</v>
+      </c>
+      <c r="M12" s="50">
+        <v>0.58819999999999995</v>
+      </c>
+      <c r="N12" s="37">
+        <v>0.40679999999999999</v>
+      </c>
+      <c r="O12" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="95"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="95"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="101"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="99" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="48"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="63" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="111"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="83" t="e">
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="95"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="101"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="93" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="48"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="63" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-    </row>
-    <row r="13" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="111"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="114" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="44" t="s">
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="95"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="101"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="41">
+        <v>0.65210000000000001</v>
+      </c>
+      <c r="F15" s="95">
+        <v>0.57779999999999998</v>
+      </c>
+      <c r="G15" s="81">
+        <v>0.63890000000000002</v>
+      </c>
+      <c r="H15" s="81">
+        <v>0.74219999999999997</v>
+      </c>
+      <c r="I15" s="36">
+        <v>0.68479999999999996</v>
+      </c>
+      <c r="J15" s="66">
+        <f t="shared" si="3"/>
+        <v>0.49672499999999997</v>
+      </c>
+      <c r="K15" s="81">
+        <v>0.68310000000000004</v>
+      </c>
+      <c r="L15" s="95">
+        <v>0.61990000000000001</v>
+      </c>
+      <c r="M15" s="81">
+        <v>0.63739999999999997</v>
+      </c>
+      <c r="N15" s="36">
+        <v>4.65E-2</v>
+      </c>
+      <c r="O15" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="95"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="95"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="101"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="70">
+        <v>0.65369999999999995</v>
+      </c>
+      <c r="F16" s="82">
+        <v>0.62219999999999998</v>
+      </c>
+      <c r="G16" s="50">
+        <v>0.61670000000000003</v>
+      </c>
+      <c r="H16" s="50">
+        <v>0.70309999999999995</v>
+      </c>
+      <c r="I16" s="83">
+        <v>0.7</v>
+      </c>
+      <c r="J16" s="71">
+        <f t="shared" si="3"/>
+        <v>0.51339999999999997</v>
+      </c>
+      <c r="K16" s="50">
+        <v>0.66339999999999999</v>
+      </c>
+      <c r="L16" s="82">
+        <v>0.66990000000000005</v>
+      </c>
+      <c r="M16" s="50">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="N16" s="83">
+        <v>0.1333</v>
+      </c>
+      <c r="O16" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="95"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="101"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="99" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="72" t="e">
+      <c r="E17" s="48"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="63" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-    </row>
-    <row r="14" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="111"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="44" t="s">
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="95"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="101"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="56"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="72" t="e">
+      <c r="E18" s="48"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="63" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="111"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="44" t="s">
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="95"/>
+      <c r="R18" s="95"/>
+      <c r="S18" s="95"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="101"/>
+      <c r="B19" s="129"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="76" t="e">
+      <c r="E19" s="95">
+        <v>0.64239999999999997</v>
+      </c>
+      <c r="F19" s="95">
+        <v>0.58330000000000004</v>
+      </c>
+      <c r="G19" s="95">
+        <v>0.62780000000000002</v>
+      </c>
+      <c r="H19" s="95">
+        <v>0.72660000000000002</v>
+      </c>
+      <c r="I19" s="36">
+        <v>0.66149999999999998</v>
+      </c>
+      <c r="J19" s="65">
+        <f t="shared" si="3"/>
+        <v>0.46055000000000001</v>
+      </c>
+      <c r="K19" s="95">
+        <v>0.62309999999999999</v>
+      </c>
+      <c r="L19" s="81">
+        <v>0.5786</v>
+      </c>
+      <c r="M19" s="95">
+        <v>0.52049999999999996</v>
+      </c>
+      <c r="N19" s="96">
+        <v>0.12</v>
+      </c>
+      <c r="O19" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="95"/>
+    </row>
+    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="102"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="126">
+        <v>0.66180000000000005</v>
+      </c>
+      <c r="F20" s="127">
+        <v>0.60560000000000003</v>
+      </c>
+      <c r="G20" s="127">
+        <v>0.65</v>
+      </c>
+      <c r="H20" s="127">
+        <v>0.73440000000000005</v>
+      </c>
+      <c r="I20" s="128">
+        <v>0.68459999999999999</v>
+      </c>
+      <c r="J20" s="71">
+        <f t="shared" si="3"/>
+        <v>0.45215</v>
+      </c>
+      <c r="K20" s="127">
+        <v>0.6502</v>
+      </c>
+      <c r="L20" s="52">
+        <v>0.57140000000000002</v>
+      </c>
+      <c r="M20" s="127">
+        <v>0.54049999999999998</v>
+      </c>
+      <c r="N20" s="51">
+        <v>4.65E-2</v>
+      </c>
+      <c r="O20" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="95"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="130" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="92" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="48"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="63" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="111"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="72" t="e">
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+    </row>
+    <row r="22" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="101"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="93" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="48"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="66" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-    </row>
-    <row r="17" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="111"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="114" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="56"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="72" t="e">
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+    </row>
+    <row r="23" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="101"/>
+      <c r="B23" s="129"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="41"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="67" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-    </row>
-    <row r="18" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="111"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="56"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="72" t="e">
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="R23" s="95"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="101"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="43"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="63" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="111"/>
-      <c r="B19" s="108"/>
-      <c r="C19" s="114"/>
-      <c r="D19" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="75" t="e">
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+    </row>
+    <row r="25" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="101"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="48"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="63" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-    </row>
-    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="117"/>
-      <c r="B20" s="109"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="73"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="72" t="e">
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+    </row>
+    <row r="26" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="101"/>
+      <c r="B26" s="129"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="93" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="48"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="63" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-    </row>
-    <row r="21" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="110" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="139" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="112" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="56"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="72" t="e">
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="101"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="66" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-    </row>
-    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="111"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="56"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="76" t="e">
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="101"/>
+      <c r="B28" s="129"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="43"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="63" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-    </row>
-    <row r="23" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="111"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="49">
-        <v>0.7944</v>
-      </c>
-      <c r="F23" s="45">
-        <v>0.75729999999999997</v>
-      </c>
-      <c r="G23" s="45">
-        <v>0.79100000000000004</v>
-      </c>
-      <c r="H23" s="45">
-        <v>0.80120000000000002</v>
-      </c>
-      <c r="I23" s="41">
-        <v>0.79490000000000005</v>
-      </c>
-      <c r="J23" s="77">
-        <f t="shared" si="3"/>
-        <v>0.47794999999999999</v>
-      </c>
-      <c r="K23" s="45">
-        <v>0.51949999999999996</v>
-      </c>
-      <c r="L23" s="45">
-        <v>0.65639999999999998</v>
-      </c>
-      <c r="M23" s="45">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="N23" s="45">
-        <v>0.31290000000000001</v>
-      </c>
-      <c r="O23" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="39"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="111"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="82">
-        <v>0.82040000000000002</v>
-      </c>
-      <c r="F24" s="58">
-        <v>0.75449999999999995</v>
-      </c>
-      <c r="G24" s="58">
-        <v>0.78910000000000002</v>
-      </c>
-      <c r="H24" s="58">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="I24" s="42">
-        <v>0.82210000000000005</v>
-      </c>
-      <c r="J24" s="83">
-        <f t="shared" si="3"/>
-        <v>0.547875</v>
-      </c>
-      <c r="K24" s="58">
-        <v>0.47389999999999999</v>
-      </c>
-      <c r="L24" s="58">
-        <v>0.60319999999999996</v>
-      </c>
-      <c r="M24" s="58">
-        <v>0.61209999999999998</v>
-      </c>
-      <c r="N24" s="58">
-        <v>0.50229999999999997</v>
-      </c>
-      <c r="O24" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-    </row>
-    <row r="25" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="111"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="114" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="44" t="s">
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+    </row>
+    <row r="29" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="101"/>
+      <c r="B29" s="129"/>
+      <c r="C29" s="99" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="56"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="72" t="e">
+      <c r="E29" s="48"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="63" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-    </row>
-    <row r="26" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="111"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="114"/>
-      <c r="D26" s="44" t="s">
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+    </row>
+    <row r="30" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="101"/>
+      <c r="B30" s="129"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="56"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="72" t="e">
+      <c r="E30" s="48"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="63" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="48"/>
-    </row>
-    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="111"/>
-      <c r="B27" s="108"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="44" t="s">
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="101"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="85">
-        <v>0.77059999999999995</v>
-      </c>
-      <c r="F27" s="45">
-        <v>0.71040000000000003</v>
-      </c>
-      <c r="G27" s="45">
-        <v>0.70950000000000002</v>
-      </c>
-      <c r="H27" s="45">
-        <v>0.79269999999999996</v>
-      </c>
-      <c r="I27" s="41">
-        <v>0.77029999999999998</v>
-      </c>
-      <c r="J27" s="76">
-        <f t="shared" si="3"/>
-        <v>0.28039999999999998</v>
-      </c>
-      <c r="K27" s="45">
-        <v>0.30249999999999999</v>
-      </c>
-      <c r="L27" s="45">
-        <v>0.26540000000000002</v>
-      </c>
-      <c r="M27" s="45">
-        <v>0.34549999999999997</v>
-      </c>
-      <c r="N27" s="45">
-        <v>0.2082</v>
-      </c>
-      <c r="O27" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="111"/>
-      <c r="B28" s="108"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="51">
-        <v>0.75839999999999996</v>
-      </c>
-      <c r="F28" s="58">
-        <v>0.70289999999999997</v>
-      </c>
-      <c r="G28" s="58">
-        <v>0.70289999999999997</v>
-      </c>
-      <c r="H28" s="58">
-        <v>0.76680000000000004</v>
-      </c>
-      <c r="I28" s="42">
-        <v>0.76990000000000003</v>
-      </c>
-      <c r="J28" s="83">
-        <f t="shared" si="3"/>
-        <v>0.28472500000000001</v>
-      </c>
-      <c r="K28" s="58">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="L28" s="58">
-        <v>0.3821</v>
-      </c>
-      <c r="M28" s="58">
-        <v>0.22620000000000001</v>
-      </c>
-      <c r="N28" s="58">
-        <v>0.36259999999999998</v>
-      </c>
-      <c r="O28" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="48"/>
-    </row>
-    <row r="29" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="111"/>
-      <c r="B29" s="108"/>
-      <c r="C29" s="114" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="56"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="72" t="e">
+      <c r="E31" s="41"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="66" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="48"/>
-    </row>
-    <row r="30" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="111"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="56"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="72" t="e">
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="101"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="43"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="63" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="48"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="111"/>
-      <c r="B31" s="108"/>
-      <c r="C31" s="114"/>
-      <c r="D31" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="49">
-        <v>0.73899999999999999</v>
-      </c>
-      <c r="F31" s="45">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="G31" s="45">
-        <v>0.58479999999999999</v>
-      </c>
-      <c r="H31" s="45">
-        <v>0.75190000000000001</v>
-      </c>
-      <c r="I31" s="41">
-        <v>0.76300000000000001</v>
-      </c>
-      <c r="J31" s="76">
-        <f t="shared" si="3"/>
-        <v>0.24012499999999998</v>
-      </c>
-      <c r="K31" s="45">
-        <v>0.1971</v>
-      </c>
-      <c r="L31" s="45">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="M31" s="45">
-        <v>0.1807</v>
-      </c>
-      <c r="N31" s="45">
-        <v>9.3700000000000006E-2</v>
-      </c>
-      <c r="O31" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="48"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="111"/>
-      <c r="B32" s="108"/>
-      <c r="C32" s="114"/>
-      <c r="D32" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="82">
-        <v>0.75760000000000005</v>
-      </c>
-      <c r="F32" s="58">
-        <v>0.6129</v>
-      </c>
-      <c r="G32" s="58">
-        <v>0.71319999999999995</v>
-      </c>
-      <c r="H32" s="58">
-        <v>0.76970000000000005</v>
-      </c>
-      <c r="I32" s="42">
-        <v>0.77929999999999999</v>
-      </c>
-      <c r="J32" s="83">
-        <f t="shared" si="3"/>
-        <v>0.39727500000000004</v>
-      </c>
-      <c r="K32" s="58">
-        <v>0.4698</v>
-      </c>
-      <c r="L32" s="58">
-        <v>0.35439999999999999</v>
-      </c>
-      <c r="M32" s="58">
-        <v>0.40860000000000002</v>
-      </c>
-      <c r="N32" s="58">
-        <v>0.35630000000000001</v>
-      </c>
-      <c r="O32" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="48"/>
-    </row>
-    <row r="33" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="111"/>
-      <c r="B33" s="108"/>
-      <c r="C33" s="114" t="s">
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+    </row>
+    <row r="33" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="101"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="44" t="s">
+      <c r="D33" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="56"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="72" t="e">
+      <c r="E33" s="48"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="63" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="48"/>
-      <c r="Q33" s="48"/>
-    </row>
-    <row r="34" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="111"/>
-      <c r="B34" s="108"/>
-      <c r="C34" s="114"/>
-      <c r="D34" s="44" t="s">
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+    </row>
+    <row r="34" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="101"/>
+      <c r="B34" s="129"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="56"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="72" t="e">
+      <c r="E34" s="48"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="63" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="48"/>
-      <c r="Q34" s="48"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="111"/>
-      <c r="B35" s="108"/>
-      <c r="C35" s="114"/>
-      <c r="D35" s="47" t="s">
+      <c r="K34" s="95"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" s="101"/>
+      <c r="B35" s="129"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="85">
-        <v>0.75209999999999999</v>
-      </c>
-      <c r="F35" s="45">
-        <v>0.70379999999999998</v>
-      </c>
-      <c r="G35" s="45">
-        <v>0.70379999999999998</v>
-      </c>
-      <c r="H35" s="45">
-        <v>0.75160000000000005</v>
-      </c>
-      <c r="I35" s="41">
-        <v>0.76990000000000003</v>
-      </c>
-      <c r="J35" s="76">
+      <c r="E35" s="41"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="66" t="e">
         <f t="shared" si="3"/>
-        <v>0.19142500000000001</v>
-      </c>
-      <c r="K35" s="45">
-        <v>0.18970000000000001</v>
-      </c>
-      <c r="L35" s="45">
-        <v>0.3705</v>
-      </c>
-      <c r="M35" s="45">
-        <v>7.2700000000000001E-2</v>
-      </c>
-      <c r="N35" s="45">
-        <v>0.1328</v>
-      </c>
-      <c r="O35" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="P35" s="48"/>
-      <c r="Q35" s="48"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="111"/>
-      <c r="B36" s="110"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="44" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K35" s="95"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="95"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36" s="101"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="51">
-        <v>0.74929999999999997</v>
-      </c>
-      <c r="F36" s="58">
-        <v>0.74039999999999995</v>
-      </c>
-      <c r="G36" s="58">
-        <v>0.72160000000000002</v>
-      </c>
-      <c r="H36" s="58">
-        <v>0.72099999999999997</v>
-      </c>
-      <c r="I36" s="42">
-        <v>0.78400000000000003</v>
-      </c>
-      <c r="J36" s="83">
+      <c r="E36" s="43"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="63" t="e">
         <f t="shared" si="3"/>
-        <v>0.380575</v>
-      </c>
-      <c r="K36" s="58">
-        <v>0.40689999999999998</v>
-      </c>
-      <c r="L36" s="58">
-        <v>0.40720000000000001</v>
-      </c>
-      <c r="M36" s="58">
-        <v>0.3831</v>
-      </c>
-      <c r="N36" s="58">
-        <v>0.3251</v>
-      </c>
-      <c r="O36" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="P36" s="48"/>
-      <c r="Q36" s="48"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C37" s="92"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="48"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="48"/>
-      <c r="Q38" s="48"/>
-      <c r="R38" s="48"/>
-      <c r="S38" s="48"/>
-      <c r="T38" s="48"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="48"/>
-      <c r="Q39" s="48"/>
-      <c r="R39" s="48"/>
-      <c r="S39" s="48"/>
-      <c r="T39" s="48"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="48"/>
-      <c r="Q40" s="48"/>
-      <c r="R40" s="48"/>
-      <c r="S40" s="48"/>
-      <c r="T40" s="48"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="48"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="48"/>
-      <c r="Q41" s="48"/>
-      <c r="R41" s="48"/>
-      <c r="S41" s="48"/>
-      <c r="T41" s="48"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="111" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C37" s="80"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="107" t="s">
+      <c r="B42" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="113" t="s">
+      <c r="C42" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="113" t="s">
+      <c r="D42" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="113" t="s">
+      <c r="E42" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="113"/>
-      <c r="G42" s="113"/>
-      <c r="H42" s="113"/>
-      <c r="I42" s="113"/>
-      <c r="J42" s="113" t="s">
+      <c r="F42" s="101"/>
+      <c r="G42" s="101"/>
+      <c r="H42" s="101"/>
+      <c r="I42" s="101"/>
+      <c r="J42" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="K42" s="113"/>
-      <c r="L42" s="113"/>
-      <c r="M42" s="113"/>
-      <c r="N42" s="113"/>
-      <c r="O42" s="113" t="s">
+      <c r="K42" s="101"/>
+      <c r="L42" s="101"/>
+      <c r="M42" s="101"/>
+      <c r="N42" s="101"/>
+      <c r="O42" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="P42" s="113"/>
-      <c r="Q42" s="113"/>
-      <c r="R42" s="113"/>
-      <c r="S42" s="113"/>
-      <c r="T42" s="48"/>
-    </row>
-    <row r="43" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="117"/>
-      <c r="B43" s="109"/>
-      <c r="C43" s="120"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="F43" s="40" t="s">
+      <c r="P42" s="101"/>
+      <c r="Q42" s="101"/>
+      <c r="R42" s="101"/>
+      <c r="S42" s="101"/>
+    </row>
+    <row r="43" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="102"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="102"/>
+      <c r="D43" s="102"/>
+      <c r="E43" s="94" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="G43" s="40" t="s">
+      <c r="G43" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="H43" s="40" t="s">
+      <c r="H43" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="I43" s="40" t="s">
+      <c r="I43" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="J43" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="K43" s="40" t="s">
+      <c r="J43" s="94" t="s">
+        <v>60</v>
+      </c>
+      <c r="K43" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="L43" s="40" t="s">
+      <c r="L43" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="M43" s="40" t="s">
+      <c r="M43" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="N43" s="40" t="s">
+      <c r="N43" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="O43" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="P43" s="40" t="s">
+      <c r="O43" s="94" t="s">
+        <v>60</v>
+      </c>
+      <c r="P43" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="Q43" s="40" t="s">
+      <c r="Q43" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="R43" s="40" t="s">
+      <c r="R43" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="S43" s="40" t="s">
+      <c r="S43" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="T43" s="48"/>
-    </row>
-    <row r="44" spans="1:20" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="110" t="s">
+    </row>
+    <row r="44" spans="1:19" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="80"/>
-      <c r="C44" s="112" t="s">
+      <c r="B44" s="92"/>
+      <c r="C44" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="43" t="s">
+      <c r="D44" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="56">
+      <c r="E44" s="48">
         <f t="shared" ref="E44:E73" si="4">AVERAGE(F44:I44)</f>
         <v>-5.6325E-2</v>
       </c>
-      <c r="F44" s="54">
+      <c r="F44" s="46">
         <v>0.1641</v>
       </c>
-      <c r="G44" s="54">
+      <c r="G44" s="46">
         <v>-0.23760000000000001</v>
       </c>
-      <c r="H44" s="54">
+      <c r="H44" s="46">
         <v>-0.15959999999999999</v>
       </c>
-      <c r="I44" s="50">
+      <c r="I44" s="42">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="J44" s="56">
+      <c r="J44" s="48">
         <f t="shared" ref="J44:J73" si="5">AVERAGE(K44:N44)</f>
         <v>-0.126025</v>
       </c>
-      <c r="K44" s="54">
+      <c r="K44" s="46">
         <v>4.6699999999999998E-2</v>
       </c>
-      <c r="L44" s="54">
+      <c r="L44" s="46">
         <v>-0.31780000000000003</v>
       </c>
-      <c r="M44" s="54">
+      <c r="M44" s="46">
         <v>-0.3417</v>
       </c>
-      <c r="N44" s="50">
+      <c r="N44" s="42">
         <v>0.1087</v>
       </c>
-      <c r="O44" s="56">
+      <c r="O44" s="48">
         <f t="shared" ref="O44:O73" si="6">AVERAGE(P44:S44)</f>
         <v>-5.3449999999999998E-2</v>
       </c>
-      <c r="P44" s="54">
+      <c r="P44" s="46">
         <v>0.17080000000000001</v>
       </c>
-      <c r="Q44" s="54">
+      <c r="Q44" s="46">
         <v>-0.2394</v>
       </c>
-      <c r="R44" s="54">
+      <c r="R44" s="46">
         <v>-0.1043</v>
       </c>
-      <c r="S44" s="50">
+      <c r="S44" s="42">
         <v>-4.0899999999999999E-2</v>
       </c>
-      <c r="T44" s="48"/>
-    </row>
-    <row r="45" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="111"/>
-      <c r="B45" s="81"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="44" t="s">
+    </row>
+    <row r="45" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="101"/>
+      <c r="B45" s="93"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="56" t="e">
+      <c r="E45" s="48" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="56" t="e">
+      <c r="F45" s="95"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="48" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K45" s="45"/>
-      <c r="L45" s="45"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="41"/>
-      <c r="O45" s="56" t="e">
+      <c r="K45" s="95"/>
+      <c r="L45" s="95"/>
+      <c r="M45" s="95"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="48" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P45" s="45"/>
-      <c r="Q45" s="45"/>
-      <c r="R45" s="45"/>
-      <c r="S45" s="41"/>
-      <c r="T45" s="48"/>
-    </row>
-    <row r="46" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="111"/>
-      <c r="B46" s="107" t="s">
+      <c r="P45" s="95"/>
+      <c r="Q45" s="95"/>
+      <c r="R45" s="95"/>
+      <c r="S45" s="36"/>
+    </row>
+    <row r="46" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="101"/>
+      <c r="B46" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="113"/>
-      <c r="D46" s="44" t="s">
+      <c r="C46" s="101"/>
+      <c r="D46" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="E46" s="76" t="e">
-        <f t="shared" si="4"/>
+      <c r="E46" s="66" cm="1">
+        <f t="array" ref="E46">AVERAGE(ABS(F46:I46))</f>
+        <v>0.28432499999999999</v>
+      </c>
+      <c r="F46" s="95">
+        <v>-0.51190000000000002</v>
+      </c>
+      <c r="G46" s="95">
+        <v>-0.1794</v>
+      </c>
+      <c r="H46" s="95">
+        <v>-0.24160000000000001</v>
+      </c>
+      <c r="I46" s="36">
+        <v>-0.2044</v>
+      </c>
+      <c r="J46" s="66" cm="1">
+        <f t="array" ref="J46">AVERAGE(ABS(K46:N46))</f>
+        <v>0.36047499999999999</v>
+      </c>
+      <c r="K46" s="95">
+        <v>-0.58630000000000004</v>
+      </c>
+      <c r="L46" s="95">
+        <v>-0.18540000000000001</v>
+      </c>
+      <c r="M46" s="95">
+        <v>-0.27629999999999999</v>
+      </c>
+      <c r="N46" s="36">
+        <v>-0.39389999999999997</v>
+      </c>
+      <c r="O46" s="66" cm="1">
+        <f t="array" ref="O46">AVERAGE(ABS(P46:S46))</f>
+        <v>0.28134999999999999</v>
+      </c>
+      <c r="P46" s="95">
+        <v>-0.55289999999999995</v>
+      </c>
+      <c r="Q46" s="95">
+        <v>-0.1983</v>
+      </c>
+      <c r="R46" s="95">
+        <v>-0.23960000000000001</v>
+      </c>
+      <c r="S46" s="36">
+        <v>-0.1346</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A47" s="101"/>
+      <c r="B47" s="129"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="66" cm="1">
+        <f t="array" ref="E47">AVERAGE(ABS(F47:I47))</f>
+        <v>0.287275</v>
+      </c>
+      <c r="F47" s="50">
+        <v>-0.55300000000000005</v>
+      </c>
+      <c r="G47" s="50">
+        <v>-0.19769999999999999</v>
+      </c>
+      <c r="H47" s="50">
+        <v>-0.19400000000000001</v>
+      </c>
+      <c r="I47" s="37">
+        <v>-0.2044</v>
+      </c>
+      <c r="J47" s="63" cm="1">
+        <f t="array" ref="J47">AVERAGE(ABS(K47:N47))</f>
+        <v>0.37187499999999996</v>
+      </c>
+      <c r="K47" s="50">
+        <v>-0.62160000000000004</v>
+      </c>
+      <c r="L47" s="50">
+        <v>-0.222</v>
+      </c>
+      <c r="M47" s="50">
+        <v>-0.25</v>
+      </c>
+      <c r="N47" s="37">
+        <v>-0.39389999999999997</v>
+      </c>
+      <c r="O47" s="63" cm="1">
+        <f t="array" ref="O47">AVERAGE(ABS(P47:S47))</f>
+        <v>0.28342499999999998</v>
+      </c>
+      <c r="P47" s="50">
+        <v>-0.59319999999999995</v>
+      </c>
+      <c r="Q47" s="50">
+        <v>-0.21840000000000001</v>
+      </c>
+      <c r="R47" s="50">
+        <v>-0.1875</v>
+      </c>
+      <c r="S47" s="37">
+        <v>-0.1346</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="101"/>
+      <c r="B48" s="129"/>
+      <c r="C48" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="66" cm="1">
+        <f t="array" ref="E48">AVERAGE(ABS(F48:I48))</f>
+        <v>0</v>
+      </c>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="66" cm="1">
+        <f t="array" ref="J48">AVERAGE(ABS(K48:N48))</f>
+        <v>0</v>
+      </c>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="57"/>
+      <c r="O48" s="66" cm="1">
+        <f t="array" ref="O48">AVERAGE(ABS(P48:S48))</f>
+        <v>0</v>
+      </c>
+      <c r="P48" s="49"/>
+      <c r="Q48" s="49"/>
+      <c r="R48" s="49"/>
+      <c r="S48" s="44"/>
+    </row>
+    <row r="49" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="101"/>
+      <c r="B49" s="129"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="93" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="66" cm="1">
+        <f t="array" ref="E49">AVERAGE(ABS(F49:I49))</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="66" cm="1">
+        <f t="array" ref="J49">AVERAGE(ABS(K49:N49))</f>
+        <v>0</v>
+      </c>
+      <c r="K49" s="59"/>
+      <c r="L49" s="59"/>
+      <c r="M49" s="59"/>
+      <c r="N49" s="60"/>
+      <c r="O49" s="66" cm="1">
+        <f t="array" ref="O49">AVERAGE(ABS(P49:S49))</f>
+        <v>0</v>
+      </c>
+      <c r="P49" s="95"/>
+      <c r="Q49" s="95"/>
+      <c r="R49" s="95"/>
+      <c r="S49" s="36"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A50" s="101"/>
+      <c r="B50" s="129"/>
+      <c r="C50" s="99"/>
+      <c r="D50" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="68" cm="1">
+        <f t="array" ref="E50">AVERAGE(ABS(F50:I50))</f>
+        <v>9.7725000000000006E-2</v>
+      </c>
+      <c r="F50" s="59">
+        <v>0.1147</v>
+      </c>
+      <c r="G50" s="59">
+        <v>-5.4999999999999997E-3</v>
+      </c>
+      <c r="H50" s="59">
+        <v>-6.6299999999999998E-2</v>
+      </c>
+      <c r="I50" s="60">
+        <v>-0.2044</v>
+      </c>
+      <c r="J50" s="58" cm="1">
+        <f t="array" ref="J50">AVERAGE(ABS(K50:N50))</f>
+        <v>0.15329999999999999</v>
+      </c>
+      <c r="K50" s="59">
+        <v>-0.1225</v>
+      </c>
+      <c r="L50" s="59">
+        <v>-3.9800000000000002E-2</v>
+      </c>
+      <c r="M50" s="59">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="N50" s="60">
+        <v>-0.39389999999999997</v>
+      </c>
+      <c r="O50" s="66" cm="1">
+        <f t="array" ref="O50">AVERAGE(ABS(P50:S50))</f>
+        <v>9.5375000000000001E-2</v>
+      </c>
+      <c r="P50" s="95">
+        <v>0.1191</v>
+      </c>
+      <c r="Q50" s="81">
+        <v>-2.3599999999999999E-2</v>
+      </c>
+      <c r="R50" s="95">
+        <v>-0.1042</v>
+      </c>
+      <c r="S50" s="36">
+        <v>-0.1346</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A51" s="101"/>
+      <c r="B51" s="129"/>
+      <c r="C51" s="99"/>
+      <c r="D51" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="58" cm="1">
+        <f t="array" ref="E51">AVERAGE(ABS(F51:I51))</f>
+        <v>9.5599999999999991E-2</v>
+      </c>
+      <c r="F51" s="54">
+        <v>8.3599999999999994E-2</v>
+      </c>
+      <c r="G51" s="54">
+        <v>7.8100000000000003E-2</v>
+      </c>
+      <c r="H51" s="54">
+        <v>-3.1399999999999997E-2</v>
+      </c>
+      <c r="I51" s="55">
+        <v>-0.1893</v>
+      </c>
+      <c r="J51" s="53" cm="1">
+        <f t="array" ref="J51">AVERAGE(ABS(K51:N51))</f>
+        <v>0.15289999999999998</v>
+      </c>
+      <c r="K51" s="54">
+        <v>-0.1108</v>
+      </c>
+      <c r="L51" s="54">
+        <v>-2.76E-2</v>
+      </c>
+      <c r="M51" s="54">
+        <v>0.1096</v>
+      </c>
+      <c r="N51" s="55">
+        <v>-0.36359999999999998</v>
+      </c>
+      <c r="O51" s="66" cm="1">
+        <f t="array" ref="O51">AVERAGE(ABS(P51:S51))</f>
+        <v>8.3424999999999999E-2</v>
+      </c>
+      <c r="P51" s="82">
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="Q51" s="50">
+        <v>6.1100000000000002E-2</v>
+      </c>
+      <c r="R51" s="82">
+        <v>-7.2900000000000006E-2</v>
+      </c>
+      <c r="S51" s="83">
+        <v>-0.125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="101"/>
+      <c r="B52" s="129"/>
+      <c r="C52" s="99" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="66" cm="1">
+        <f t="array" ref="E52">AVERAGE(ABS(F52:I52))</f>
+        <v>0</v>
+      </c>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="66" cm="1">
+        <f t="array" ref="J52">AVERAGE(ABS(K52:N52))</f>
+        <v>0</v>
+      </c>
+      <c r="K52" s="49"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="49"/>
+      <c r="N52" s="44"/>
+      <c r="O52" s="66" cm="1">
+        <f t="array" ref="O52">AVERAGE(ABS(P52:S52))</f>
+        <v>0</v>
+      </c>
+      <c r="P52" s="56"/>
+      <c r="Q52" s="56"/>
+      <c r="R52" s="56"/>
+      <c r="S52" s="57"/>
+    </row>
+    <row r="53" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="101"/>
+      <c r="B53" s="129"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="93" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53" s="66" cm="1">
+        <f t="array" ref="E53">AVERAGE(ABS(F53:I53))</f>
+        <v>0</v>
+      </c>
+      <c r="F53" s="95"/>
+      <c r="G53" s="95"/>
+      <c r="H53" s="95"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="66" cm="1">
+        <f t="array" ref="J53">AVERAGE(ABS(K53:N53))</f>
+        <v>0</v>
+      </c>
+      <c r="K53" s="95"/>
+      <c r="L53" s="95"/>
+      <c r="M53" s="95"/>
+      <c r="N53" s="36"/>
+      <c r="O53" s="66" cm="1">
+        <f t="array" ref="O53">AVERAGE(ABS(P53:S53))</f>
+        <v>0</v>
+      </c>
+      <c r="P53" s="59"/>
+      <c r="Q53" s="59"/>
+      <c r="R53" s="59"/>
+      <c r="S53" s="60"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A54" s="101"/>
+      <c r="B54" s="129"/>
+      <c r="C54" s="99"/>
+      <c r="D54" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" s="125" cm="1">
+        <f t="array" ref="E54">AVERAGE(ABS(F54:I54))</f>
+        <v>4.4874999999999998E-2</v>
+      </c>
+      <c r="F54" s="81">
+        <v>-2.4500000000000001E-2</v>
+      </c>
+      <c r="G54" s="81">
+        <v>-1.03E-2</v>
+      </c>
+      <c r="H54" s="95">
+        <v>-0.1225</v>
+      </c>
+      <c r="I54" s="36">
+        <v>-2.2200000000000001E-2</v>
+      </c>
+      <c r="J54" s="66" cm="1">
+        <f t="array" ref="J54">AVERAGE(ABS(K54:N54))</f>
+        <v>0.11187499999999999</v>
+      </c>
+      <c r="K54" s="95">
+        <v>-0.21759999999999999</v>
+      </c>
+      <c r="L54" s="95">
+        <v>-9.4299999999999995E-2</v>
+      </c>
+      <c r="M54" s="95">
+        <v>-0.1053</v>
+      </c>
+      <c r="N54" s="96">
+        <v>-3.0300000000000001E-2</v>
+      </c>
+      <c r="O54" s="68" cm="1">
+        <f t="array" ref="O54">AVERAGE(ABS(P54:S54))</f>
+        <v>5.04E-2</v>
+      </c>
+      <c r="P54" s="59">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="Q54" s="59">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+      <c r="R54" s="59">
+        <v>0.13539999999999999</v>
+      </c>
+      <c r="S54" s="60">
+        <v>-1.9199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A55" s="101"/>
+      <c r="B55" s="129"/>
+      <c r="C55" s="99"/>
+      <c r="D55" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" s="66" cm="1">
+        <f t="array" ref="E55">AVERAGE(ABS(F55:I55))</f>
+        <v>7.0124999999999993E-2</v>
+      </c>
+      <c r="F55" s="50">
+        <v>6.4799999999999996E-2</v>
+      </c>
+      <c r="G55" s="50">
+        <v>4.1200000000000001E-2</v>
+      </c>
+      <c r="H55" s="82">
+        <v>-0.122</v>
+      </c>
+      <c r="I55" s="83">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J55" s="124" cm="1">
+        <f t="array" ref="J55">AVERAGE(ABS(K55:N55))</f>
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K55" s="82">
+        <v>-2.75E-2</v>
+      </c>
+      <c r="L55" s="82">
+        <v>-6.5000000000000002E-2</v>
+      </c>
+      <c r="M55" s="82">
+        <v>-5.2600000000000001E-2</v>
+      </c>
+      <c r="N55" s="37">
+        <v>-9.0899999999999995E-2</v>
+      </c>
+      <c r="O55" s="58" cm="1">
+        <f t="array" ref="O55">AVERAGE(ABS(P55:S55))</f>
+        <v>6.1925000000000001E-2</v>
+      </c>
+      <c r="P55" s="54">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="Q55" s="54">
+        <v>2.7699999999999999E-2</v>
+      </c>
+      <c r="R55" s="54">
+        <v>-0.14580000000000001</v>
+      </c>
+      <c r="S55" s="55">
+        <v>-3.85E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="101"/>
+      <c r="B56" s="129"/>
+      <c r="C56" s="99" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="66" cm="1">
+        <f t="array" ref="E56">AVERAGE(ABS(F56:I56))</f>
+        <v>0</v>
+      </c>
+      <c r="F56" s="56"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="66" cm="1">
+        <f t="array" ref="J56">AVERAGE(ABS(K56:N56))</f>
+        <v>0</v>
+      </c>
+      <c r="K56" s="56"/>
+      <c r="L56" s="49"/>
+      <c r="M56" s="56"/>
+      <c r="N56" s="44"/>
+      <c r="O56" s="66" cm="1">
+        <f t="array" ref="O56">AVERAGE(ABS(P56:S56))</f>
+        <v>0</v>
+      </c>
+      <c r="P56" s="49"/>
+      <c r="Q56" s="56"/>
+      <c r="R56" s="49"/>
+      <c r="S56" s="57"/>
+    </row>
+    <row r="57" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="101"/>
+      <c r="B57" s="129"/>
+      <c r="C57" s="99"/>
+      <c r="D57" s="93" t="s">
+        <v>40</v>
+      </c>
+      <c r="E57" s="66" cm="1">
+        <f t="array" ref="E57">AVERAGE(ABS(F57:I57))</f>
+        <v>0</v>
+      </c>
+      <c r="F57" s="59"/>
+      <c r="G57" s="95"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="66" cm="1">
+        <f t="array" ref="J57">AVERAGE(ABS(K57:N57))</f>
+        <v>0</v>
+      </c>
+      <c r="K57" s="59"/>
+      <c r="L57" s="95"/>
+      <c r="M57" s="59"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="66" cm="1">
+        <f t="array" ref="O57">AVERAGE(ABS(P57:S57))</f>
+        <v>0</v>
+      </c>
+      <c r="P57" s="95"/>
+      <c r="Q57" s="59"/>
+      <c r="R57" s="95"/>
+      <c r="S57" s="60"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A58" s="101"/>
+      <c r="B58" s="129"/>
+      <c r="C58" s="99"/>
+      <c r="D58" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" s="65">
+        <f>AVERAGE(ABS(G58),ABS(I58))</f>
+        <v>9.0499999999999997E-2</v>
+      </c>
+      <c r="F58" s="59">
+        <v>5.1799999999999999E-2</v>
+      </c>
+      <c r="G58" s="81">
+        <v>8.6599999999999996E-2</v>
+      </c>
+      <c r="H58" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="I58" s="36">
+        <v>9.4399999999999998E-2</v>
+      </c>
+      <c r="J58" s="65">
+        <f>AVERAGE(ABS(L58),ABS(N58))</f>
+        <v>0.11554999999999999</v>
+      </c>
+      <c r="K58" s="59">
+        <v>-0.1588</v>
+      </c>
+      <c r="L58" s="81">
+        <v>-0.16669999999999999</v>
+      </c>
+      <c r="M58" s="59">
+        <v>-0.1711</v>
+      </c>
+      <c r="N58" s="36">
+        <v>-6.4399999999999999E-2</v>
+      </c>
+      <c r="O58" s="65">
+        <f>AVERAGE(ABS(Q58),ABS(S58))</f>
+        <v>0.1051</v>
+      </c>
+      <c r="P58" s="81">
+        <v>5.5899999999999998E-2</v>
+      </c>
+      <c r="Q58" s="59">
+        <v>-0.10440000000000001</v>
+      </c>
+      <c r="R58" s="95">
+        <v>-0.11459999999999999</v>
+      </c>
+      <c r="S58" s="60">
+        <v>0.10580000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="102"/>
+      <c r="B59" s="106"/>
+      <c r="C59" s="100"/>
+      <c r="D59" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="124">
+        <f>AVERAGE(ABS(G59),ABS(I59))</f>
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="F59" s="61">
+        <v>0.1099</v>
+      </c>
+      <c r="G59" s="52">
+        <v>-0.11940000000000001</v>
+      </c>
+      <c r="H59" s="61">
+        <v>-7.8299999999999995E-2</v>
+      </c>
+      <c r="I59" s="128">
+        <v>-2.2200000000000001E-2</v>
+      </c>
+      <c r="J59" s="124">
+        <f>AVERAGE(ABS(L59),ABS(N59))</f>
+        <v>0.1135</v>
+      </c>
+      <c r="K59" s="61">
+        <v>-0.1108</v>
+      </c>
+      <c r="L59" s="52">
+        <v>-0.19670000000000001</v>
+      </c>
+      <c r="M59" s="61">
+        <v>-8.77E-2</v>
+      </c>
+      <c r="N59" s="128">
+        <v>-3.0300000000000001E-2</v>
+      </c>
+      <c r="O59" s="124">
+        <f>AVERAGE(ABS(Q59),ABS(S59))</f>
+        <v>7.9949999999999993E-2</v>
+      </c>
+      <c r="P59" s="52">
+        <v>0.1069</v>
+      </c>
+      <c r="Q59" s="61">
+        <v>-0.14069999999999999</v>
+      </c>
+      <c r="R59" s="127">
+        <v>-8.3299999999999999E-2</v>
+      </c>
+      <c r="S59" s="62">
+        <v>-1.9199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="92"/>
+      <c r="C60" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" s="92" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="66" cm="1">
+        <f t="array" ref="E60">AVERAGE(ABS(F60:I60))</f>
+        <v>0</v>
+      </c>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="66" cm="1">
+        <f t="array" ref="J60">AVERAGE(ABS(K60:N60))</f>
+        <v>0</v>
+      </c>
+      <c r="K60" s="46"/>
+      <c r="L60" s="46"/>
+      <c r="M60" s="46"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="66" cm="1">
+        <f t="array" ref="O60">AVERAGE(ABS(P60:S60))</f>
+        <v>0</v>
+      </c>
+      <c r="P60" s="46"/>
+      <c r="Q60" s="46"/>
+      <c r="R60" s="46"/>
+      <c r="S60" s="42"/>
+    </row>
+    <row r="61" spans="1:19" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="101"/>
+      <c r="B61" s="93"/>
+      <c r="C61" s="101"/>
+      <c r="D61" s="93" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61" s="66" cm="1">
+        <f t="array" ref="E61">AVERAGE(ABS(F61:I61))</f>
+        <v>0</v>
+      </c>
+      <c r="F61" s="95"/>
+      <c r="G61" s="95"/>
+      <c r="H61" s="95"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="66" cm="1">
+        <f t="array" ref="J61">AVERAGE(ABS(K61:N61))</f>
+        <v>0</v>
+      </c>
+      <c r="K61" s="95"/>
+      <c r="L61" s="95"/>
+      <c r="M61" s="95"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="66" cm="1">
+        <f t="array" ref="O61">AVERAGE(ABS(P61:S61))</f>
+        <v>0</v>
+      </c>
+      <c r="P61" s="95"/>
+      <c r="Q61" s="95"/>
+      <c r="R61" s="95"/>
+      <c r="S61" s="36"/>
+    </row>
+    <row r="62" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="101"/>
+      <c r="B62" s="105" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="101"/>
+      <c r="D62" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="67" cm="1">
+        <f t="array" ref="E62">AVERAGE(ABS(F62:I62))</f>
+        <v>0</v>
+      </c>
+      <c r="F62" s="95"/>
+      <c r="G62" s="95"/>
+      <c r="H62" s="95"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="67" cm="1">
+        <f t="array" ref="J62">AVERAGE(ABS(K62:N62))</f>
+        <v>0</v>
+      </c>
+      <c r="K62" s="95"/>
+      <c r="L62" s="95"/>
+      <c r="M62" s="95"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="67" cm="1">
+        <f t="array" ref="O62">AVERAGE(ABS(P62:S62))</f>
+        <v>0</v>
+      </c>
+      <c r="P62" s="74"/>
+      <c r="Q62" s="74"/>
+      <c r="R62" s="74"/>
+      <c r="S62" s="75"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A63" s="101"/>
+      <c r="B63" s="129"/>
+      <c r="C63" s="101"/>
+      <c r="D63" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="66" cm="1">
+        <f t="array" ref="E63">AVERAGE(ABS(F63:I63))</f>
+        <v>0</v>
+      </c>
+      <c r="F63" s="50"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="63" cm="1">
+        <f t="array" ref="J63">AVERAGE(ABS(K63:N63))</f>
+        <v>0</v>
+      </c>
+      <c r="K63" s="50"/>
+      <c r="L63" s="50"/>
+      <c r="M63" s="50"/>
+      <c r="N63" s="37"/>
+      <c r="O63" s="63" cm="1">
+        <f t="array" ref="O63">AVERAGE(ABS(P63:S63))</f>
+        <v>0</v>
+      </c>
+      <c r="P63" s="47"/>
+      <c r="Q63" s="47"/>
+      <c r="R63" s="47"/>
+      <c r="S63" s="45"/>
+    </row>
+    <row r="64" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="101"/>
+      <c r="B64" s="129"/>
+      <c r="C64" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" s="66" cm="1">
+        <f t="array" ref="E64">AVERAGE(ABS(F64:I64))</f>
+        <v>0</v>
+      </c>
+      <c r="F64" s="56"/>
+      <c r="G64" s="56"/>
+      <c r="H64" s="56"/>
+      <c r="I64" s="57"/>
+      <c r="J64" s="66" cm="1">
+        <f t="array" ref="J64">AVERAGE(ABS(K64:N64))</f>
+        <v>0</v>
+      </c>
+      <c r="K64" s="56"/>
+      <c r="L64" s="56"/>
+      <c r="M64" s="56"/>
+      <c r="N64" s="57"/>
+      <c r="O64" s="66" cm="1">
+        <f t="array" ref="O64">AVERAGE(ABS(P64:S64))</f>
+        <v>0</v>
+      </c>
+      <c r="P64" s="76"/>
+      <c r="Q64" s="76"/>
+      <c r="R64" s="76"/>
+      <c r="S64" s="77"/>
+    </row>
+    <row r="65" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="101"/>
+      <c r="B65" s="129"/>
+      <c r="C65" s="99"/>
+      <c r="D65" s="93" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65" s="66" cm="1">
+        <f t="array" ref="E65">AVERAGE(ABS(F65:I65))</f>
+        <v>0</v>
+      </c>
+      <c r="F65" s="59"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="66" cm="1">
+        <f t="array" ref="J65">AVERAGE(ABS(K65:N65))</f>
+        <v>0</v>
+      </c>
+      <c r="K65" s="59"/>
+      <c r="L65" s="59"/>
+      <c r="M65" s="59"/>
+      <c r="N65" s="60"/>
+      <c r="O65" s="66" cm="1">
+        <f t="array" ref="O65">AVERAGE(ABS(P65:S65))</f>
+        <v>0</v>
+      </c>
+      <c r="P65" s="74"/>
+      <c r="Q65" s="74"/>
+      <c r="R65" s="74"/>
+      <c r="S65" s="75"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A66" s="101"/>
+      <c r="B66" s="129"/>
+      <c r="C66" s="99"/>
+      <c r="D66" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" s="68" cm="1">
+        <f t="array" ref="E66">AVERAGE(ABS(F66:I66))</f>
+        <v>0</v>
+      </c>
+      <c r="F66" s="59"/>
+      <c r="G66" s="59"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="60"/>
+      <c r="J66" s="58" cm="1">
+        <f t="array" ref="J66">AVERAGE(ABS(K66:N66))</f>
+        <v>0</v>
+      </c>
+      <c r="K66" s="59"/>
+      <c r="L66" s="59"/>
+      <c r="M66" s="59"/>
+      <c r="N66" s="60"/>
+      <c r="O66" s="66" cm="1">
+        <f t="array" ref="O66">AVERAGE(ABS(P66:S66))</f>
+        <v>0</v>
+      </c>
+      <c r="P66" s="74"/>
+      <c r="Q66" s="74"/>
+      <c r="R66" s="74"/>
+      <c r="S66" s="75"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A67" s="101"/>
+      <c r="B67" s="129"/>
+      <c r="C67" s="99"/>
+      <c r="D67" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="53" cm="1">
+        <f t="array" ref="E67">AVERAGE(ABS(F67:I67))</f>
+        <v>0</v>
+      </c>
+      <c r="F67" s="54"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="55"/>
+      <c r="J67" s="53" cm="1">
+        <f t="array" ref="J67">AVERAGE(ABS(K67:N67))</f>
+        <v>0</v>
+      </c>
+      <c r="K67" s="54"/>
+      <c r="L67" s="54"/>
+      <c r="M67" s="54"/>
+      <c r="N67" s="55"/>
+      <c r="O67" s="66" cm="1">
+        <f t="array" ref="O67">AVERAGE(ABS(P67:S67))</f>
+        <v>0</v>
+      </c>
+      <c r="P67" s="47"/>
+      <c r="Q67" s="47"/>
+      <c r="R67" s="47"/>
+      <c r="S67" s="45"/>
+    </row>
+    <row r="68" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="101"/>
+      <c r="B68" s="129"/>
+      <c r="C68" s="99" t="s">
+        <v>47</v>
+      </c>
+      <c r="D68" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" s="66" cm="1">
+        <f t="array" ref="E68">AVERAGE(ABS(F68:I68))</f>
+        <v>0</v>
+      </c>
+      <c r="F68" s="49"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="49"/>
+      <c r="I68" s="44"/>
+      <c r="J68" s="66" cm="1">
+        <f t="array" ref="J68">AVERAGE(ABS(K68:N68))</f>
+        <v>0</v>
+      </c>
+      <c r="K68" s="49"/>
+      <c r="L68" s="49"/>
+      <c r="M68" s="49"/>
+      <c r="N68" s="44"/>
+      <c r="O68" s="66" cm="1">
+        <f t="array" ref="O68">AVERAGE(ABS(P68:S68))</f>
+        <v>0</v>
+      </c>
+      <c r="P68" s="56"/>
+      <c r="Q68" s="56"/>
+      <c r="R68" s="56"/>
+      <c r="S68" s="57"/>
+    </row>
+    <row r="69" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="101"/>
+      <c r="B69" s="129"/>
+      <c r="C69" s="99"/>
+      <c r="D69" s="93" t="s">
+        <v>40</v>
+      </c>
+      <c r="E69" s="66" cm="1">
+        <f t="array" ref="E69">AVERAGE(ABS(F69:I69))</f>
+        <v>0</v>
+      </c>
+      <c r="F69" s="95"/>
+      <c r="G69" s="95"/>
+      <c r="H69" s="95"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="66" cm="1">
+        <f t="array" ref="J69">AVERAGE(ABS(K69:N69))</f>
+        <v>0</v>
+      </c>
+      <c r="K69" s="95"/>
+      <c r="L69" s="95"/>
+      <c r="M69" s="95"/>
+      <c r="N69" s="36"/>
+      <c r="O69" s="66" cm="1">
+        <f t="array" ref="O69">AVERAGE(ABS(P69:S69))</f>
+        <v>0</v>
+      </c>
+      <c r="P69" s="59"/>
+      <c r="Q69" s="59"/>
+      <c r="R69" s="59"/>
+      <c r="S69" s="60"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A70" s="101"/>
+      <c r="B70" s="129"/>
+      <c r="C70" s="99"/>
+      <c r="D70" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E70" s="66" cm="1">
+        <f t="array" ref="E70">AVERAGE(ABS(F70:I70))</f>
+        <v>0</v>
+      </c>
+      <c r="F70" s="95"/>
+      <c r="G70" s="95"/>
+      <c r="H70" s="95"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="66" cm="1">
+        <f t="array" ref="J70">AVERAGE(ABS(K70:N70))</f>
+        <v>0</v>
+      </c>
+      <c r="K70" s="95"/>
+      <c r="L70" s="95"/>
+      <c r="M70" s="95"/>
+      <c r="N70" s="36"/>
+      <c r="O70" s="68" cm="1">
+        <f t="array" ref="O70">AVERAGE(ABS(P70:S70))</f>
+        <v>0</v>
+      </c>
+      <c r="P70" s="59"/>
+      <c r="Q70" s="59"/>
+      <c r="R70" s="59"/>
+      <c r="S70" s="60"/>
+    </row>
+    <row r="71" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="101"/>
+      <c r="B71" s="129"/>
+      <c r="C71" s="99"/>
+      <c r="D71" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" s="66" cm="1">
+        <f t="array" ref="E71">AVERAGE(ABS(F71:I71))</f>
+        <v>0</v>
+      </c>
+      <c r="F71" s="50"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="63" cm="1">
+        <f t="array" ref="J71">AVERAGE(ABS(K71:N71))</f>
+        <v>0</v>
+      </c>
+      <c r="K71" s="50"/>
+      <c r="L71" s="50"/>
+      <c r="M71" s="50"/>
+      <c r="N71" s="37"/>
+      <c r="O71" s="53" cm="1">
+        <f t="array" ref="O71">AVERAGE(ABS(P71:S71))</f>
+        <v>0</v>
+      </c>
+      <c r="P71" s="54"/>
+      <c r="Q71" s="54"/>
+      <c r="R71" s="54"/>
+      <c r="S71" s="55"/>
+    </row>
+    <row r="72" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="101"/>
+      <c r="B72" s="129"/>
+      <c r="C72" s="99" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="66" cm="1">
+        <f t="array" ref="E72">AVERAGE(ABS(F72:I72))</f>
+        <v>0</v>
+      </c>
+      <c r="F72" s="56"/>
+      <c r="G72" s="49"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="66" cm="1">
+        <f t="array" ref="J72">AVERAGE(ABS(K72:N72))</f>
+        <v>0</v>
+      </c>
+      <c r="K72" s="56"/>
+      <c r="L72" s="49"/>
+      <c r="M72" s="56"/>
+      <c r="N72" s="44"/>
+      <c r="O72" s="66" cm="1">
+        <f t="array" ref="O72">AVERAGE(ABS(P72:S72))</f>
+        <v>0</v>
+      </c>
+      <c r="P72" s="49"/>
+      <c r="Q72" s="56"/>
+      <c r="R72" s="49"/>
+      <c r="S72" s="57"/>
+    </row>
+    <row r="73" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="101"/>
+      <c r="B73" s="129"/>
+      <c r="C73" s="99"/>
+      <c r="D73" s="93" t="s">
+        <v>40</v>
+      </c>
+      <c r="E73" s="66" cm="1">
+        <f t="array" ref="E73">AVERAGE(ABS(F73:I73))</f>
+        <v>0</v>
+      </c>
+      <c r="F73" s="59"/>
+      <c r="G73" s="95"/>
+      <c r="H73" s="59"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="66" cm="1">
+        <f t="array" ref="J73">AVERAGE(ABS(K73:N73))</f>
+        <v>0</v>
+      </c>
+      <c r="K73" s="59"/>
+      <c r="L73" s="95"/>
+      <c r="M73" s="59"/>
+      <c r="N73" s="36"/>
+      <c r="O73" s="66" cm="1">
+        <f t="array" ref="O73">AVERAGE(ABS(P73:S73))</f>
+        <v>0</v>
+      </c>
+      <c r="P73" s="95"/>
+      <c r="Q73" s="59"/>
+      <c r="R73" s="95"/>
+      <c r="S73" s="60"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A74" s="101"/>
+      <c r="B74" s="129"/>
+      <c r="C74" s="99"/>
+      <c r="D74" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E74" s="65">
+        <f>AVERAGE(ABS(G74),ABS(I74))</f>
+        <v>0</v>
+      </c>
+      <c r="F74" s="59"/>
+      <c r="G74" s="95"/>
+      <c r="H74" s="59"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="65">
+        <f>AVERAGE(ABS(L74),ABS(N74))</f>
+        <v>0</v>
+      </c>
+      <c r="K74" s="59"/>
+      <c r="L74" s="95"/>
+      <c r="M74" s="59"/>
+      <c r="N74" s="36"/>
+      <c r="O74" s="65">
+        <f>AVERAGE(ABS(Q74),ABS(S74))</f>
+        <v>0</v>
+      </c>
+      <c r="P74" s="95"/>
+      <c r="Q74" s="59"/>
+      <c r="R74" s="95"/>
+      <c r="S74" s="60"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A75" s="101"/>
+      <c r="B75" s="103"/>
+      <c r="C75" s="104"/>
+      <c r="D75" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75" s="66">
+        <f>AVERAGE(ABS(G75),ABS(I75))</f>
+        <v>0</v>
+      </c>
+      <c r="F75" s="54"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="54"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="63">
+        <f>AVERAGE(ABS(L75),ABS(N75))</f>
+        <v>0</v>
+      </c>
+      <c r="K75" s="54"/>
+      <c r="L75" s="50"/>
+      <c r="M75" s="54"/>
+      <c r="N75" s="37"/>
+      <c r="O75" s="63">
+        <f>AVERAGE(ABS(Q75),ABS(S75))</f>
+        <v>0</v>
+      </c>
+      <c r="P75" s="50"/>
+      <c r="Q75" s="54"/>
+      <c r="R75" s="50"/>
+      <c r="S75" s="55"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C76" s="80"/>
+      <c r="E76" s="133"/>
+      <c r="I76" s="49"/>
+      <c r="J76" s="133"/>
+      <c r="N76" s="49"/>
+      <c r="O76" s="133"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D77" s="95"/>
+      <c r="E77" s="132"/>
+      <c r="F77" s="95"/>
+      <c r="I77" s="95"/>
+      <c r="J77" s="132"/>
+      <c r="M77" s="95"/>
+      <c r="N77" s="95"/>
+      <c r="O77" s="132"/>
+      <c r="R77" s="95"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D78" s="95"/>
+      <c r="E78" s="132"/>
+      <c r="G78" s="95"/>
+      <c r="J78" s="132"/>
+      <c r="O78" s="132"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D79" s="95"/>
+      <c r="E79" s="95"/>
+      <c r="G79" s="95"/>
+      <c r="O79" s="95"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O80" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="T80" s="40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="M81" s="40">
+        <v>100</v>
+      </c>
+      <c r="S81" s="40" t="e">
+        <f>AVERAGE(O81:R81)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="76" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K46" s="45"/>
-      <c r="L46" s="45"/>
-      <c r="M46" s="45"/>
-      <c r="N46" s="41"/>
-      <c r="O46" s="76" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P46" s="45"/>
-      <c r="Q46" s="45"/>
-      <c r="R46" s="45"/>
-      <c r="S46" s="41"/>
-      <c r="T46" s="48"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="111"/>
-      <c r="B47" s="108"/>
-      <c r="C47" s="113"/>
-      <c r="D47" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="72">
-        <f t="shared" si="4"/>
-        <v>-0.30830000000000002</v>
-      </c>
-      <c r="F47" s="58">
-        <v>-0.55400000000000005</v>
-      </c>
-      <c r="G47" s="58">
-        <v>-0.23050000000000001</v>
-      </c>
-      <c r="H47" s="58">
-        <v>-0.24429999999999999</v>
-      </c>
-      <c r="I47" s="42">
-        <v>-0.2044</v>
-      </c>
-      <c r="J47" s="72">
-        <f t="shared" si="5"/>
-        <v>-0.40302499999999997</v>
-      </c>
-      <c r="K47" s="58">
-        <v>-0.64510000000000001</v>
-      </c>
-      <c r="L47" s="58">
-        <v>-0.23980000000000001</v>
-      </c>
-      <c r="M47" s="58">
-        <v>-0.33329999999999999</v>
-      </c>
-      <c r="N47" s="42">
-        <v>-0.39389999999999997</v>
-      </c>
-      <c r="O47" s="72">
-        <f t="shared" si="6"/>
-        <v>-0.30025000000000002</v>
-      </c>
-      <c r="P47" s="58">
-        <v>-0.58779999999999999</v>
-      </c>
-      <c r="Q47" s="58">
-        <v>-0.24940000000000001</v>
-      </c>
-      <c r="R47" s="58">
-        <v>-0.22919999999999999</v>
-      </c>
-      <c r="S47" s="42">
-        <v>-0.1346</v>
-      </c>
-      <c r="T47" s="48"/>
-    </row>
-    <row r="48" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="111"/>
-      <c r="B48" s="108"/>
-      <c r="C48" s="114" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="E48" s="72" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F48" s="64"/>
-      <c r="G48" s="64"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="72" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K48" s="64"/>
-      <c r="L48" s="64"/>
-      <c r="M48" s="64"/>
-      <c r="N48" s="65"/>
-      <c r="O48" s="72" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P48" s="57"/>
-      <c r="Q48" s="57"/>
-      <c r="R48" s="57"/>
-      <c r="S48" s="52"/>
-      <c r="T48" s="48"/>
-    </row>
-    <row r="49" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="111"/>
-      <c r="B49" s="108"/>
-      <c r="C49" s="114"/>
-      <c r="D49" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="E49" s="72" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="72" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K49" s="67"/>
-      <c r="L49" s="67"/>
-      <c r="M49" s="67"/>
-      <c r="N49" s="68"/>
-      <c r="O49" s="72" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P49" s="45"/>
-      <c r="Q49" s="45"/>
-      <c r="R49" s="45"/>
-      <c r="S49" s="41"/>
-      <c r="T49" s="48"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="111"/>
-      <c r="B50" s="108"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="E50" s="66" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F50" s="67"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="66" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K50" s="67"/>
-      <c r="L50" s="67"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="68"/>
-      <c r="O50" s="76" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P50" s="94"/>
-      <c r="Q50" s="45"/>
-      <c r="R50" s="94"/>
-      <c r="S50" s="41"/>
-      <c r="T50" s="48"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="111"/>
-      <c r="B51" s="108"/>
-      <c r="C51" s="114"/>
-      <c r="D51" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="E51" s="61" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F51" s="62"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="62"/>
-      <c r="I51" s="63"/>
-      <c r="J51" s="61" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K51" s="62"/>
-      <c r="L51" s="62"/>
-      <c r="M51" s="62"/>
-      <c r="N51" s="63"/>
-      <c r="O51" s="83" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P51" s="58"/>
-      <c r="Q51" s="95"/>
-      <c r="R51" s="58"/>
-      <c r="S51" s="96"/>
-      <c r="T51" s="48"/>
-    </row>
-    <row r="52" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="111"/>
-      <c r="B52" s="108"/>
-      <c r="C52" s="114" t="s">
-        <v>47</v>
-      </c>
-      <c r="D52" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="E52" s="72" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="52"/>
-      <c r="J52" s="72" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K52" s="57"/>
-      <c r="L52" s="57"/>
-      <c r="M52" s="57"/>
-      <c r="N52" s="52"/>
-      <c r="O52" s="72" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P52" s="64"/>
-      <c r="Q52" s="64"/>
-      <c r="R52" s="64"/>
-      <c r="S52" s="65"/>
-      <c r="T52" s="48"/>
-    </row>
-    <row r="53" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="111"/>
-      <c r="B53" s="108"/>
-      <c r="C53" s="114"/>
-      <c r="D53" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="E53" s="72" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="72" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K53" s="45"/>
-      <c r="L53" s="45"/>
-      <c r="M53" s="45"/>
-      <c r="N53" s="41"/>
-      <c r="O53" s="72" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P53" s="67"/>
-      <c r="Q53" s="67"/>
-      <c r="R53" s="67"/>
-      <c r="S53" s="68"/>
-      <c r="T53" s="48"/>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="111"/>
-      <c r="B54" s="108"/>
-      <c r="C54" s="114"/>
-      <c r="D54" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="E54" s="76" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="76" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K54" s="45"/>
-      <c r="L54" s="45"/>
-      <c r="M54" s="45"/>
-      <c r="N54" s="41"/>
-      <c r="O54" s="66" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P54" s="67"/>
-      <c r="Q54" s="67"/>
-      <c r="R54" s="67"/>
-      <c r="S54" s="68"/>
-      <c r="T54" s="48"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="111"/>
-      <c r="B55" s="108"/>
-      <c r="C55" s="114"/>
-      <c r="D55" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="E55" s="72" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F55" s="58"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="58"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="72" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K55" s="58"/>
-      <c r="L55" s="58"/>
-      <c r="M55" s="58"/>
-      <c r="N55" s="42"/>
-      <c r="O55" s="61" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P55" s="62"/>
-      <c r="Q55" s="62"/>
-      <c r="R55" s="62"/>
-      <c r="S55" s="63"/>
-      <c r="T55" s="48"/>
-    </row>
-    <row r="56" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="111"/>
-      <c r="B56" s="108"/>
-      <c r="C56" s="114" t="s">
-        <v>48</v>
-      </c>
-      <c r="D56" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="E56" s="72" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F56" s="64"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="72" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K56" s="64"/>
-      <c r="L56" s="57"/>
-      <c r="M56" s="64"/>
-      <c r="N56" s="52"/>
-      <c r="O56" s="72" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P56" s="57"/>
-      <c r="Q56" s="64"/>
-      <c r="R56" s="57"/>
-      <c r="S56" s="65"/>
-      <c r="T56" s="48"/>
-    </row>
-    <row r="57" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="111"/>
-      <c r="B57" s="108"/>
-      <c r="C57" s="114"/>
-      <c r="D57" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="E57" s="72" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F57" s="67"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="72" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K57" s="67"/>
-      <c r="L57" s="45"/>
-      <c r="M57" s="67"/>
-      <c r="N57" s="41"/>
-      <c r="O57" s="72" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P57" s="45"/>
-      <c r="Q57" s="67"/>
-      <c r="R57" s="45"/>
-      <c r="S57" s="68"/>
-      <c r="T57" s="48"/>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="111"/>
-      <c r="B58" s="108"/>
-      <c r="C58" s="114"/>
-      <c r="D58" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="E58" s="66" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F58" s="67"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="66" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K58" s="67"/>
-      <c r="L58" s="45"/>
-      <c r="M58" s="67"/>
-      <c r="N58" s="41"/>
-      <c r="O58" s="76" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P58" s="45"/>
-      <c r="Q58" s="67"/>
-      <c r="R58" s="45"/>
-      <c r="S58" s="68"/>
-      <c r="T58" s="48"/>
-    </row>
-    <row r="59" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="117"/>
-      <c r="B59" s="109"/>
-      <c r="C59" s="115"/>
-      <c r="D59" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="E59" s="71" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F59" s="69"/>
-      <c r="G59" s="60"/>
-      <c r="H59" s="69"/>
-      <c r="I59" s="59"/>
-      <c r="J59" s="61" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K59" s="69"/>
-      <c r="L59" s="60"/>
-      <c r="M59" s="69"/>
-      <c r="N59" s="59"/>
-      <c r="O59" s="106" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P59" s="60"/>
-      <c r="Q59" s="69"/>
-      <c r="R59" s="60"/>
-      <c r="S59" s="70"/>
-      <c r="T59" s="48"/>
-    </row>
-    <row r="60" spans="1:20" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="110" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" s="80"/>
-      <c r="C60" s="112" t="s">
-        <v>45</v>
-      </c>
-      <c r="D60" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="E60" s="72" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F60" s="54"/>
-      <c r="G60" s="54"/>
-      <c r="H60" s="54"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="72" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K60" s="54"/>
-      <c r="L60" s="54"/>
-      <c r="M60" s="54"/>
-      <c r="N60" s="50"/>
-      <c r="O60" s="79" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P60" s="54"/>
-      <c r="Q60" s="54"/>
-      <c r="R60" s="54"/>
-      <c r="S60" s="50"/>
-      <c r="T60" s="48"/>
-    </row>
-    <row r="61" spans="1:20" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="111"/>
-      <c r="B61" s="81"/>
-      <c r="C61" s="113"/>
-      <c r="D61" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="E61" s="72" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F61" s="45"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="41"/>
-      <c r="J61" s="76" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K61" s="45"/>
-      <c r="L61" s="45"/>
-      <c r="M61" s="45"/>
-      <c r="N61" s="41"/>
-      <c r="O61" s="72" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P61" s="45"/>
-      <c r="Q61" s="45"/>
-      <c r="R61" s="45"/>
-      <c r="S61" s="41"/>
-      <c r="T61" s="48"/>
-    </row>
-    <row r="62" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="111"/>
-      <c r="B62" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" s="113"/>
-      <c r="D62" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="E62" s="76">
-        <f t="shared" si="4"/>
-        <v>-0.11935</v>
-      </c>
-      <c r="F62" s="45">
-        <v>-0.2064</v>
-      </c>
-      <c r="G62" s="45">
-        <v>-6.93E-2</v>
-      </c>
-      <c r="H62" s="45">
-        <v>-9.5899999999999999E-2</v>
-      </c>
-      <c r="I62" s="41">
-        <v>-0.10580000000000001</v>
-      </c>
-      <c r="J62" s="77">
-        <f t="shared" si="5"/>
-        <v>-0.1487</v>
-      </c>
-      <c r="K62" s="45">
-        <v>-0.27689999999999998</v>
-      </c>
-      <c r="L62" s="45">
-        <v>-1.9199999999999998E-2</v>
-      </c>
-      <c r="M62" s="45">
-        <v>-0.1318</v>
-      </c>
-      <c r="N62" s="41">
-        <v>-0.16689999999999999</v>
-      </c>
-      <c r="O62" s="76">
-        <f t="shared" si="6"/>
-        <v>-0.16399999999999998</v>
-      </c>
-      <c r="P62" s="86">
-        <v>-0.2409</v>
-      </c>
-      <c r="Q62" s="86">
-        <v>-0.20610000000000001</v>
-      </c>
-      <c r="R62" s="86">
-        <v>-0.1168</v>
-      </c>
-      <c r="S62" s="87">
-        <v>-9.2200000000000004E-2</v>
-      </c>
-      <c r="T62" s="48"/>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="111"/>
-      <c r="B63" s="108"/>
-      <c r="C63" s="113"/>
-      <c r="D63" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="E63" s="72">
-        <f t="shared" si="4"/>
-        <v>-0.12592500000000001</v>
-      </c>
-      <c r="F63" s="58">
-        <v>-0.21149999999999999</v>
-      </c>
-      <c r="G63" s="58">
-        <v>-3.1099999999999999E-2</v>
-      </c>
-      <c r="H63" s="58">
-        <v>-0.1371</v>
-      </c>
-      <c r="I63" s="42">
-        <v>-0.124</v>
-      </c>
-      <c r="J63" s="72">
-        <f t="shared" si="5"/>
-        <v>-0.16094999999999998</v>
-      </c>
-      <c r="K63" s="58">
-        <v>-0.32229999999999998</v>
-      </c>
-      <c r="L63" s="58">
-        <v>3.9699999999999999E-2</v>
-      </c>
-      <c r="M63" s="58">
-        <v>-0.1832</v>
-      </c>
-      <c r="N63" s="42">
-        <v>-0.17799999999999999</v>
-      </c>
-      <c r="O63" s="72">
-        <f t="shared" si="6"/>
-        <v>-0.17787500000000001</v>
-      </c>
-      <c r="P63" s="55">
-        <v>-0.2145</v>
-      </c>
-      <c r="Q63" s="55">
-        <v>-0.1641</v>
-      </c>
-      <c r="R63" s="55">
-        <v>-0.18870000000000001</v>
-      </c>
-      <c r="S63" s="53">
-        <v>-0.14419999999999999</v>
-      </c>
-      <c r="T63" s="48"/>
-    </row>
-    <row r="64" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="111"/>
-      <c r="B64" s="108"/>
-      <c r="C64" s="114" t="s">
-        <v>46</v>
-      </c>
-      <c r="D64" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="E64" s="72" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F64" s="64"/>
-      <c r="G64" s="64"/>
-      <c r="H64" s="64"/>
-      <c r="I64" s="65"/>
-      <c r="J64" s="72" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K64" s="64"/>
-      <c r="L64" s="64"/>
-      <c r="M64" s="64"/>
-      <c r="N64" s="65"/>
-      <c r="O64" s="72" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P64" s="88"/>
-      <c r="Q64" s="88"/>
-      <c r="R64" s="88"/>
-      <c r="S64" s="89"/>
-      <c r="T64" s="48"/>
-    </row>
-    <row r="65" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="111"/>
-      <c r="B65" s="108"/>
-      <c r="C65" s="114"/>
-      <c r="D65" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="E65" s="72" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F65" s="67"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="67"/>
-      <c r="I65" s="68"/>
-      <c r="J65" s="72" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K65" s="67"/>
-      <c r="L65" s="67"/>
-      <c r="M65" s="67"/>
-      <c r="N65" s="68"/>
-      <c r="O65" s="72" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P65" s="86"/>
-      <c r="Q65" s="86"/>
-      <c r="R65" s="86"/>
-      <c r="S65" s="87"/>
-      <c r="T65" s="48"/>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A66" s="111"/>
-      <c r="B66" s="108"/>
-      <c r="C66" s="114"/>
-      <c r="D66" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="E66" s="66">
-        <f t="shared" si="4"/>
-        <v>0.10262499999999999</v>
-      </c>
-      <c r="F66" s="67">
-        <v>7.4499999999999997E-2</v>
-      </c>
-      <c r="G66" s="67">
-        <v>0.15690000000000001</v>
-      </c>
-      <c r="H66" s="67">
-        <v>0.15179999999999999</v>
-      </c>
-      <c r="I66" s="68">
-        <v>2.7300000000000001E-2</v>
-      </c>
-      <c r="J66" s="78">
-        <f t="shared" si="5"/>
-        <v>0.195075</v>
-      </c>
-      <c r="K66" s="67">
-        <v>0.114</v>
-      </c>
-      <c r="L66" s="67">
-        <v>0.31790000000000002</v>
-      </c>
-      <c r="M66" s="67">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="N66" s="68">
-        <v>5.6399999999999999E-2</v>
-      </c>
-      <c r="O66" s="76">
-        <f t="shared" si="6"/>
-        <v>1.2175000000000002E-2</v>
-      </c>
-      <c r="P66" s="86">
-        <v>1.24E-2</v>
-      </c>
-      <c r="Q66" s="86">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="R66" s="86">
-        <v>1.24E-2</v>
-      </c>
-      <c r="S66" s="87">
-        <v>-1.11E-2</v>
-      </c>
-      <c r="T66" s="48"/>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A67" s="111"/>
-      <c r="B67" s="108"/>
-      <c r="C67" s="114"/>
-      <c r="D67" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="E67" s="61">
-        <f t="shared" si="4"/>
-        <v>8.7925000000000003E-2</v>
-      </c>
-      <c r="F67" s="62">
-        <v>2.75E-2</v>
-      </c>
-      <c r="G67" s="62">
-        <v>0.1258</v>
-      </c>
-      <c r="H67" s="62">
-        <v>0.10929999999999999</v>
-      </c>
-      <c r="I67" s="63">
-        <v>8.9099999999999999E-2</v>
-      </c>
-      <c r="J67" s="61">
-        <f t="shared" si="5"/>
-        <v>0.15762500000000002</v>
-      </c>
-      <c r="K67" s="62">
-        <v>4.4200000000000003E-2</v>
-      </c>
-      <c r="L67" s="62">
-        <v>0.21790000000000001</v>
-      </c>
-      <c r="M67" s="62">
-        <v>0.19350000000000001</v>
-      </c>
-      <c r="N67" s="63">
-        <v>0.1749</v>
-      </c>
-      <c r="O67" s="83">
-        <f t="shared" si="6"/>
-        <v>1.0974999999999999E-2</v>
-      </c>
-      <c r="P67" s="90">
-        <v>-1.2999999999999999E-3</v>
-      </c>
-      <c r="Q67" s="90">
-        <v>2.8899999999999999E-2</v>
-      </c>
-      <c r="R67" s="90">
-        <v>2.75E-2</v>
-      </c>
-      <c r="S67" s="91">
-        <v>-1.12E-2</v>
-      </c>
-      <c r="T67" s="48"/>
-    </row>
-    <row r="68" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="111"/>
-      <c r="B68" s="108"/>
-      <c r="C68" s="114" t="s">
-        <v>47</v>
-      </c>
-      <c r="D68" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="E68" s="72" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F68" s="57"/>
-      <c r="G68" s="57"/>
-      <c r="H68" s="57"/>
-      <c r="I68" s="52"/>
-      <c r="J68" s="72" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K68" s="57"/>
-      <c r="L68" s="57"/>
-      <c r="M68" s="57"/>
-      <c r="N68" s="52"/>
-      <c r="O68" s="72" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P68" s="64"/>
-      <c r="Q68" s="64"/>
-      <c r="R68" s="64"/>
-      <c r="S68" s="65"/>
-      <c r="T68" s="48"/>
-    </row>
-    <row r="69" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="111"/>
-      <c r="B69" s="108"/>
-      <c r="C69" s="114"/>
-      <c r="D69" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="E69" s="72" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F69" s="45"/>
-      <c r="G69" s="45"/>
-      <c r="H69" s="45"/>
-      <c r="I69" s="41"/>
-      <c r="J69" s="72" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K69" s="45"/>
-      <c r="L69" s="45"/>
-      <c r="M69" s="45"/>
-      <c r="N69" s="41"/>
-      <c r="O69" s="72" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P69" s="67"/>
-      <c r="Q69" s="67"/>
-      <c r="R69" s="67"/>
-      <c r="S69" s="68"/>
-      <c r="T69" s="48"/>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A70" s="111"/>
-      <c r="B70" s="108"/>
-      <c r="C70" s="114"/>
-      <c r="D70" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="E70" s="76">
-        <f t="shared" si="4"/>
-        <v>8.4749999999999999E-3</v>
-      </c>
-      <c r="F70" s="45">
-        <v>-1.38E-2</v>
-      </c>
-      <c r="G70" s="45">
-        <v>4.4400000000000002E-2</v>
-      </c>
-      <c r="H70" s="45">
-        <v>-1.14E-2</v>
-      </c>
-      <c r="I70" s="41">
-        <v>1.47E-2</v>
-      </c>
-      <c r="J70" s="75">
-        <f t="shared" si="5"/>
-        <v>1.5899999999999997E-2</v>
-      </c>
-      <c r="K70" s="45">
-        <v>-2.7300000000000001E-2</v>
-      </c>
-      <c r="L70" s="45">
-        <v>6.6699999999999995E-2</v>
-      </c>
-      <c r="M70" s="45">
-        <v>-1.2699999999999999E-2</v>
-      </c>
-      <c r="N70" s="41">
-        <v>3.6900000000000002E-2</v>
-      </c>
-      <c r="O70" s="66">
-        <f t="shared" si="6"/>
-        <v>-1.7100000000000001E-2</v>
-      </c>
-      <c r="P70" s="67">
-        <v>-2.2100000000000002E-2</v>
-      </c>
-      <c r="Q70" s="67">
-        <v>-1.7600000000000001E-2</v>
-      </c>
-      <c r="R70" s="67">
-        <v>-2.23E-2</v>
-      </c>
-      <c r="S70" s="68">
-        <v>-6.4000000000000003E-3</v>
-      </c>
-      <c r="T70" s="48"/>
-    </row>
-    <row r="71" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="111"/>
-      <c r="B71" s="108"/>
-      <c r="C71" s="114"/>
-      <c r="D71" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="E71" s="83">
-        <f t="shared" si="4"/>
-        <v>3.375E-3</v>
-      </c>
-      <c r="F71" s="95">
-        <v>-4.5999999999999999E-3</v>
-      </c>
-      <c r="G71" s="95">
-        <v>1.95E-2</v>
-      </c>
-      <c r="H71" s="95">
-        <v>-1.6000000000000001E-3</v>
-      </c>
-      <c r="I71" s="96">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="J71" s="83">
-        <f t="shared" si="5"/>
-        <v>1.1574999999999998E-2</v>
-      </c>
-      <c r="K71" s="95">
-        <v>-1.52E-2</v>
-      </c>
-      <c r="L71" s="95">
-        <v>6.6699999999999995E-2</v>
-      </c>
-      <c r="M71" s="95">
-        <v>-9.1000000000000004E-3</v>
-      </c>
-      <c r="N71" s="96">
-        <v>3.8999999999999998E-3</v>
-      </c>
-      <c r="O71" s="61">
-        <f t="shared" si="6"/>
-        <v>-4.3750000000000004E-2</v>
-      </c>
-      <c r="P71" s="62">
-        <v>-4.9299999999999997E-2</v>
-      </c>
-      <c r="Q71" s="62">
-        <v>-4.4900000000000002E-2</v>
-      </c>
-      <c r="R71" s="62">
-        <v>-4.1799999999999997E-2</v>
-      </c>
-      <c r="S71" s="63">
-        <v>-3.9E-2</v>
-      </c>
-      <c r="T71" s="48"/>
-    </row>
-    <row r="72" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="111"/>
-      <c r="B72" s="108"/>
-      <c r="C72" s="114" t="s">
-        <v>48</v>
-      </c>
-      <c r="D72" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="E72" s="72" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F72" s="64"/>
-      <c r="G72" s="57"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="52"/>
-      <c r="J72" s="72" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K72" s="64"/>
-      <c r="L72" s="57"/>
-      <c r="M72" s="64"/>
-      <c r="N72" s="52"/>
-      <c r="O72" s="72" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P72" s="57"/>
-      <c r="Q72" s="64"/>
-      <c r="R72" s="57"/>
-      <c r="S72" s="65"/>
-      <c r="T72" s="48"/>
-    </row>
-    <row r="73" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="111"/>
-      <c r="B73" s="108"/>
-      <c r="C73" s="114"/>
-      <c r="D73" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="E73" s="72" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F73" s="67"/>
-      <c r="G73" s="45"/>
-      <c r="H73" s="67"/>
-      <c r="I73" s="41"/>
-      <c r="J73" s="72" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K73" s="67"/>
-      <c r="L73" s="45"/>
-      <c r="M73" s="67"/>
-      <c r="N73" s="41"/>
-      <c r="O73" s="72" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P73" s="45"/>
-      <c r="Q73" s="67"/>
-      <c r="R73" s="45"/>
-      <c r="S73" s="68"/>
-      <c r="T73" s="48"/>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A74" s="111"/>
-      <c r="B74" s="108"/>
-      <c r="C74" s="114"/>
-      <c r="D74" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="E74" s="75">
-        <f>(G74+I74)/2</f>
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="F74" s="67">
-        <v>-3.3999999999999998E-3</v>
-      </c>
-      <c r="G74" s="45">
-        <v>5.3699999999999998E-2</v>
-      </c>
-      <c r="H74" s="67">
-        <v>1.8200000000000001E-2</v>
-      </c>
-      <c r="I74" s="140">
-        <v>-1.6999999999999999E-3</v>
-      </c>
-      <c r="J74" s="76">
-        <f>(L74+N74)/2</f>
-        <v>5.885E-2</v>
-      </c>
-      <c r="K74" s="67">
-        <v>-1.2E-2</v>
-      </c>
-      <c r="L74" s="45">
-        <v>0.11409999999999999</v>
-      </c>
-      <c r="M74" s="67">
-        <v>3.5400000000000001E-2</v>
-      </c>
-      <c r="N74" s="140">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="O74" s="75">
-        <f>(P74+R74)/2</f>
-        <v>-8.2000000000000007E-3</v>
-      </c>
-      <c r="P74" s="94">
-        <v>-1.95E-2</v>
-      </c>
-      <c r="Q74" s="67">
-        <v>-2.0400000000000001E-2</v>
-      </c>
-      <c r="R74" s="94">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="S74" s="68">
-        <v>-1.5100000000000001E-2</v>
-      </c>
-      <c r="T74" s="48"/>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A75" s="111"/>
-      <c r="B75" s="110"/>
-      <c r="C75" s="116"/>
-      <c r="D75" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="E75" s="83">
-        <f>(G75+I75)/2</f>
-        <v>-4.8499999999999993E-3</v>
-      </c>
-      <c r="F75" s="62">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="G75" s="95">
-        <v>1.12E-2</v>
-      </c>
-      <c r="H75" s="62">
-        <v>0.14430000000000001</v>
-      </c>
-      <c r="I75" s="42">
-        <v>-2.0899999999999998E-2</v>
-      </c>
-      <c r="J75" s="83">
-        <f>(L75+N75)/2</f>
-        <v>6.3E-3</v>
-      </c>
-      <c r="K75" s="62">
-        <v>4.3799999999999999E-2</v>
-      </c>
-      <c r="L75" s="95">
-        <v>3.85E-2</v>
-      </c>
-      <c r="M75" s="62">
-        <v>0.20669999999999999</v>
-      </c>
-      <c r="N75" s="42">
-        <v>-2.5899999999999999E-2</v>
-      </c>
-      <c r="O75" s="83">
-        <f>(P75+R75)/2</f>
-        <v>-6.8499999999999985E-3</v>
-      </c>
-      <c r="P75" s="58">
-        <v>-7.22E-2</v>
-      </c>
-      <c r="Q75" s="62">
-        <v>-5.16E-2</v>
-      </c>
-      <c r="R75" s="58">
-        <v>5.8500000000000003E-2</v>
-      </c>
-      <c r="S75" s="63">
-        <v>-4.9099999999999998E-2</v>
-      </c>
-      <c r="T75" s="48"/>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C76" s="93"/>
-      <c r="D76" s="48"/>
-      <c r="E76" s="83"/>
-      <c r="F76" s="48"/>
-      <c r="G76" s="48"/>
-      <c r="H76" s="48"/>
-      <c r="I76" s="57"/>
-      <c r="J76" s="83"/>
-      <c r="K76" s="48"/>
-      <c r="L76" s="48"/>
-      <c r="M76" s="48"/>
-      <c r="N76" s="48"/>
-      <c r="O76" s="83"/>
-      <c r="P76" s="48"/>
-      <c r="Q76" s="48"/>
-      <c r="R76" s="48"/>
-      <c r="S76" s="48"/>
-      <c r="T76" s="48"/>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D77" s="48">
-        <v>0.77549999999999997</v>
-      </c>
-      <c r="E77" s="83">
-        <f t="shared" ref="E76:E78" si="7">(G77+I77)/2</f>
-        <v>-6.1000000000000004E-3</v>
-      </c>
-      <c r="F77" s="105">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="G77" s="141">
-        <v>8.2000000000000007E-3</v>
-      </c>
-      <c r="H77" s="48">
-        <v>4.8599999999999997E-2</v>
-      </c>
-      <c r="I77" s="36">
-        <v>-2.0400000000000001E-2</v>
-      </c>
-      <c r="J77" s="83">
-        <f t="shared" ref="J76:J78" si="8">(L77+N77)/2</f>
-        <v>8.5500000000000003E-3</v>
-      </c>
-      <c r="K77" s="48">
-        <v>4.6800000000000001E-2</v>
-      </c>
-      <c r="L77" s="141">
-        <v>4.36E-2</v>
-      </c>
-      <c r="M77" s="105">
-        <v>8.6300000000000002E-2</v>
-      </c>
-      <c r="N77" s="48">
-        <v>-2.6499999999999999E-2</v>
-      </c>
-      <c r="O77" s="72">
-        <f t="shared" ref="O76:O78" si="9">(P77+R77)/2</f>
-        <v>-1.915E-2</v>
-      </c>
-      <c r="P77" s="141">
-        <v>-1.04E-2</v>
-      </c>
-      <c r="Q77" s="48">
-        <v>-5.5300000000000002E-2</v>
-      </c>
-      <c r="R77" s="105">
-        <v>-2.7900000000000001E-2</v>
-      </c>
-      <c r="S77" s="48">
-        <v>-4.6699999999999998E-2</v>
-      </c>
-      <c r="T77" s="48"/>
-      <c r="U77" s="48"/>
-      <c r="V77" s="48"/>
-      <c r="W77" s="48"/>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D78" s="48">
-        <v>0.75470000000000004</v>
-      </c>
-      <c r="E78" s="72">
-        <f t="shared" si="7"/>
-        <v>1.2849999999999999E-2</v>
-      </c>
-      <c r="F78" s="48">
-        <v>-1.2500000000000001E-2</v>
-      </c>
-      <c r="G78" s="45">
-        <v>3.8199999999999998E-2</v>
-      </c>
-      <c r="H78" s="48">
-        <v>6.4999999999999997E-3</v>
-      </c>
-      <c r="I78" s="141">
-        <v>-1.2500000000000001E-2</v>
-      </c>
-      <c r="J78" s="72">
-        <f t="shared" si="8"/>
-        <v>4.0899999999999999E-2</v>
-      </c>
-      <c r="K78" s="48">
-        <v>-2.7300000000000001E-2</v>
-      </c>
-      <c r="L78" s="48">
-        <v>0.1026</v>
-      </c>
-      <c r="M78" s="48">
-        <v>4.1999999999999997E-3</v>
-      </c>
-      <c r="N78" s="141">
-        <v>-2.0799999999999999E-2</v>
-      </c>
-      <c r="O78" s="83">
-        <f t="shared" si="9"/>
-        <v>-7.3000000000000001E-3</v>
-      </c>
-      <c r="P78" s="48">
-        <v>-2.12E-2</v>
-      </c>
-      <c r="Q78" s="48">
-        <v>-3.0599999999999999E-2</v>
-      </c>
-      <c r="R78" s="141">
-        <v>6.6E-3</v>
-      </c>
-      <c r="S78" s="48">
-        <v>-3.9100000000000003E-2</v>
-      </c>
-      <c r="T78" s="48"/>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D79" s="48"/>
-      <c r="E79" s="48"/>
-      <c r="F79" s="48"/>
-      <c r="G79" s="45"/>
-      <c r="H79" s="48"/>
-      <c r="I79" s="48"/>
-      <c r="J79" s="48"/>
-      <c r="K79" s="48"/>
-      <c r="L79" s="48"/>
-      <c r="M79" s="48"/>
-      <c r="N79" s="48"/>
-      <c r="O79" s="48"/>
-      <c r="P79" s="48"/>
-      <c r="Q79" s="48"/>
-      <c r="R79" s="48"/>
-      <c r="S79" s="48"/>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D80" s="48"/>
-      <c r="E80" s="48"/>
-      <c r="F80" s="48"/>
-      <c r="G80" s="48"/>
-      <c r="H80" s="48"/>
-      <c r="I80" s="48"/>
-      <c r="J80" s="48"/>
-      <c r="K80" s="48"/>
-      <c r="L80" s="48"/>
-      <c r="M80" s="48"/>
-      <c r="N80" s="48"/>
-      <c r="O80" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="P80" s="48"/>
-      <c r="Q80" s="48"/>
-      <c r="R80" s="48"/>
-      <c r="S80" s="48"/>
-      <c r="T80" s="48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="D81" s="48"/>
-      <c r="E81" s="48"/>
-      <c r="F81" s="48"/>
-      <c r="G81" s="48"/>
-      <c r="H81" s="48"/>
-      <c r="I81" s="48"/>
-      <c r="J81" s="48"/>
-      <c r="K81" s="48"/>
-      <c r="L81" s="48"/>
-      <c r="M81" s="48">
-        <v>100</v>
-      </c>
-      <c r="N81" s="48">
-        <v>0.6472</v>
-      </c>
-      <c r="O81" s="48">
-        <v>0.1074</v>
-      </c>
-      <c r="P81" s="48">
-        <v>0.1137</v>
-      </c>
-      <c r="Q81" s="48">
-        <v>-0.21879999999999999</v>
-      </c>
-      <c r="R81" s="48">
-        <v>-0.1154</v>
-      </c>
-      <c r="S81" s="48">
-        <f>AVERAGE(O81:R81)</f>
-        <v>-2.8275000000000002E-2</v>
-      </c>
-      <c r="T81" s="48"/>
-      <c r="X81" s="36" t="e">
+      <c r="X81" s="40" t="e">
         <f>AVERAGE(T81:W81)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="D82" s="48"/>
-      <c r="E82" s="48"/>
-      <c r="F82" s="48"/>
-      <c r="G82" s="48"/>
-      <c r="H82" s="48"/>
-      <c r="I82" s="48"/>
-      <c r="J82" s="48"/>
-      <c r="K82" s="48"/>
-      <c r="L82" s="48"/>
-      <c r="M82" s="48">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="M82" s="40">
         <v>75</v>
       </c>
-      <c r="N82" s="48">
-        <v>0.65369999999999995</v>
-      </c>
-      <c r="O82" s="48">
-        <v>0.1368</v>
-      </c>
-      <c r="P82" s="48">
-        <v>7.4700000000000003E-2</v>
-      </c>
-      <c r="Q82" s="48">
-        <v>-0.22919999999999999</v>
-      </c>
-      <c r="R82" s="48">
-        <v>-0.14419999999999999</v>
-      </c>
-      <c r="S82" s="48">
-        <f t="shared" ref="S82:S86" si="10">AVERAGE(O82:R82)</f>
-        <v>-4.047499999999999E-2</v>
-      </c>
-      <c r="X82" s="36" t="e">
-        <f t="shared" ref="X82:X86" si="11">AVERAGE(T82:W82)</f>
+      <c r="S82" s="40" t="e">
+        <f t="shared" ref="S82:S86" si="7">AVERAGE(O82:R82)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="M83" s="36">
+      <c r="X82" s="40" t="e">
+        <f t="shared" ref="X82:X86" si="8">AVERAGE(T82:W82)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="M83" s="40">
         <v>50</v>
       </c>
-      <c r="N83" s="36">
-        <v>0.65210000000000001</v>
-      </c>
-      <c r="O83" s="36">
-        <v>0.16109999999999999</v>
-      </c>
-      <c r="P83" s="36">
-        <v>0.17150000000000001</v>
-      </c>
-      <c r="Q83" s="36">
-        <v>-0.19789999999999999</v>
-      </c>
-      <c r="R83" s="36">
-        <v>-0.15379999999999999</v>
-      </c>
-      <c r="S83" s="48">
-        <f t="shared" si="10"/>
-        <v>-4.7749999999999945E-3</v>
-      </c>
-      <c r="X83" s="36" t="e">
-        <f t="shared" si="11"/>
+      <c r="S83" s="40" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="M84" s="36">
+      <c r="X83" s="40" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="M84" s="40">
         <v>25</v>
       </c>
-      <c r="S84" s="48" t="e">
-        <f t="shared" si="10"/>
+      <c r="S84" s="40" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X84" s="36" t="e">
-        <f t="shared" si="11"/>
+      <c r="X84" s="40" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="M85" s="36">
+    <row r="85" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="M85" s="40">
         <v>10</v>
       </c>
-      <c r="S85" s="48" t="e">
-        <f t="shared" si="10"/>
+      <c r="S85" s="40" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X85" s="36" t="e">
-        <f t="shared" si="11"/>
+      <c r="X85" s="40" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="M86" s="36">
+    <row r="86" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="M86" s="40">
         <v>1</v>
       </c>
-      <c r="S86" s="48" t="e">
-        <f t="shared" si="10"/>
+      <c r="S86" s="40" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X86" s="36" t="e">
-        <f t="shared" si="11"/>
+      <c r="X86" s="40" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C89" s="36"/>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C90" s="36"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C91" s="36"/>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C92" s="36"/>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C93" s="36"/>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C94" s="36"/>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C95" s="36"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C96" s="36"/>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C97" s="36"/>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C98" s="36"/>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C99" s="36"/>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C100" s="36"/>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C101" s="36"/>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C102" s="36"/>
-    </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C103" s="36"/>
-    </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C104" s="36"/>
-    </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C105" s="36"/>
-    </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C106" s="36"/>
-    </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C107" s="36"/>
-    </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C108" s="36"/>
-    </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C109" s="36"/>
-    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C89" s="40"/>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C90" s="40"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C91" s="40"/>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C92" s="40"/>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C93" s="40"/>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C94" s="40"/>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C95" s="40"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C96" s="40"/>
+    </row>
+    <row r="97" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B21:B36"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B7:B20"/>
+    <mergeCell ref="B46:B59"/>
+    <mergeCell ref="B62:B75"/>
+    <mergeCell ref="A60:A75"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A20"/>
+    <mergeCell ref="A21:A36"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A59"/>
     <mergeCell ref="O42:S42"/>
     <mergeCell ref="C44:C47"/>
     <mergeCell ref="E42:I42"/>
@@ -7179,22 +6659,18 @@
     <mergeCell ref="J3:N3"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B21:B36"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B7:B20"/>
     <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A20"/>
-    <mergeCell ref="A21:A36"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A59"/>
-    <mergeCell ref="B46:B59"/>
-    <mergeCell ref="B62:B75"/>
-    <mergeCell ref="A60:A75"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C72:C75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -7209,25 +6685,25 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="4"/>
-    <col min="4" max="4" width="21.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="4"/>
+    <col min="2" max="2" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="4"/>
+    <col min="4" max="4" width="21.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="28.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="4"/>
+    <col min="7" max="7" width="28.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="4"/>
+    <col min="14" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -7238,59 +6714,59 @@
       <c r="I1" s="14"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="108" t="s">
+      <c r="F2" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="125" t="s">
+      <c r="G2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="131" t="s">
+      <c r="H2" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="125" t="s">
+      <c r="I2" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="133" t="s">
+      <c r="J2" s="122" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="O2" s="19"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="134"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="123"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="O3" s="19"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="122" t="s">
+    <row r="4" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="87" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="10">
@@ -7321,8 +6797,8 @@
       <c r="L4" s="6"/>
       <c r="O4" s="19"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="123"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="108"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -7338,16 +6814,16 @@
       <c r="F5" s="3">
         <v>0.5</v>
       </c>
-      <c r="G5" s="80"/>
+      <c r="G5" s="69"/>
       <c r="H5" s="29"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="97"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="O5" s="19"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="123"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="108"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -7379,8 +6855,8 @@
       <c r="L6" s="6"/>
       <c r="O6" s="19"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="123"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="108"/>
       <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
@@ -7412,8 +6888,8 @@
       <c r="L7" s="6"/>
       <c r="O7" s="19"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="124"/>
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="109"/>
       <c r="B8" s="18" t="s">
         <v>16</v>
       </c>
@@ -7445,43 +6921,43 @@
       <c r="L8" s="6"/>
       <c r="O8" s="19"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="135" t="s">
+    <row r="9" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="99">
+      <c r="C9" s="86">
         <v>1</v>
       </c>
-      <c r="D9" s="99" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="99" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="99" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="102" t="s">
+      <c r="D9" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="102">
+      <c r="H9" s="89">
         <v>1E-10</v>
       </c>
-      <c r="I9" s="99">
+      <c r="I9" s="86">
         <v>256</v>
       </c>
-      <c r="J9" s="103" t="s">
+      <c r="J9" s="90" t="s">
         <v>53</v>
       </c>
       <c r="K9" s="21"/>
       <c r="L9" s="6"/>
       <c r="O9" s="19"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="123"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="108"/>
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
@@ -7506,8 +6982,8 @@
       <c r="M10" s="6"/>
       <c r="O10" s="19"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="123"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="108"/>
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
@@ -7540,8 +7016,8 @@
       <c r="M11" s="6"/>
       <c r="O11" s="19"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="123"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="108"/>
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
@@ -7574,8 +7050,8 @@
       <c r="M12" s="6"/>
       <c r="O12" s="19"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="124"/>
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="109"/>
       <c r="B13" s="12" t="s">
         <v>16</v>
       </c>
@@ -7607,8 +7083,8 @@
       <c r="L13" s="6"/>
       <c r="O13" s="19"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -7621,7 +7097,7 @@
       <c r="J15" s="7"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -7635,60 +7111,60 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
-      <c r="B17" s="137" t="s">
+      <c r="B17" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="125" t="s">
+      <c r="C17" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="125" t="s">
+      <c r="D17" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="125" t="s">
+      <c r="E17" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="125" t="s">
+      <c r="F17" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="125" t="s">
+      <c r="G17" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="136" t="s">
+      <c r="H17" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="125" t="s">
+      <c r="I17" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="125" t="s">
+      <c r="J17" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="127" t="s">
+      <c r="K17" s="117" t="s">
         <v>10</v>
       </c>
       <c r="L17" s="21"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
-      <c r="B18" s="138"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="126"/>
-      <c r="J18" s="126"/>
-      <c r="K18" s="128"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="118"/>
       <c r="L18" s="21"/>
     </row>
-    <row r="19" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="122" t="s">
+    <row r="19" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="86" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="10">
@@ -7703,24 +7179,24 @@
       <c r="F19" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="104" t="s">
+      <c r="G19" s="91" t="s">
         <v>50</v>
       </c>
       <c r="H19" s="29">
         <v>1E-10</v>
       </c>
-      <c r="I19" s="104">
+      <c r="I19" s="91">
         <v>64</v>
       </c>
       <c r="J19" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="K19" s="98" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="123"/>
+      <c r="K19" s="85" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="108"/>
       <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
@@ -7740,11 +7216,11 @@
       <c r="H20" s="29"/>
       <c r="I20" s="34"/>
       <c r="J20" s="34"/>
-      <c r="K20" s="38"/>
+      <c r="K20" s="35"/>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="123"/>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="108"/>
       <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
@@ -7777,8 +7253,8 @@
       </c>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="123"/>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="108"/>
       <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
@@ -7810,8 +7286,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="124"/>
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="109"/>
       <c r="B23" s="13" t="s">
         <v>34</v>
       </c>
@@ -7843,43 +7319,43 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="122" t="s">
+    <row r="24" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="99" t="s">
+      <c r="B24" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="99">
+      <c r="C24" s="86">
         <v>1</v>
       </c>
-      <c r="D24" s="99" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="99" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="99" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="102" t="s">
+      <c r="D24" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="H24" s="102">
+      <c r="H24" s="89">
         <v>1E-10</v>
       </c>
-      <c r="I24" s="99">
+      <c r="I24" s="86">
         <v>256</v>
       </c>
       <c r="J24" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="K24" s="101" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="123"/>
+      <c r="K24" s="88" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="108"/>
       <c r="B25" s="2" t="s">
         <v>32</v>
       </c>
@@ -7899,10 +7375,10 @@
       <c r="H25" s="29"/>
       <c r="I25" s="34"/>
       <c r="J25" s="34"/>
-      <c r="K25" s="38"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="123"/>
+      <c r="K25" s="35"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="108"/>
       <c r="B26" s="2" t="s">
         <v>15</v>
       </c>
@@ -7934,8 +7410,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="123"/>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="108"/>
       <c r="B27" s="2" t="s">
         <v>33</v>
       </c>
@@ -7967,8 +7443,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="124"/>
+    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="109"/>
       <c r="B28" s="13" t="s">
         <v>34</v>
       </c>
@@ -8000,8 +7476,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -8015,12 +7491,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="I17:I18"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -8033,11 +7508,12 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="J17:J18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/experiments/all_results.xlsx
+++ b/experiments/all_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alycia\Documents\adaptive-hypernets\experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ancarey\PycharmProjects\adaptive-hypernets\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7B76B2-0A51-4713-863F-3DE37AE329E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94144989-3448-42F1-BC52-8F06629341AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2904" yWindow="2472" windowWidth="17280" windowHeight="8964" tabRatio="665" firstSheet="2" activeTab="2" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
+    <workbookView xWindow="3495" yWindow="1710" windowWidth="15120" windowHeight="10845" tabRatio="665" firstSheet="2" activeTab="2" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart2" sheetId="13" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="72">
   <si>
     <t>Model</t>
   </si>
@@ -191,12 +191,6 @@
     <t>Compas</t>
   </si>
   <si>
-    <t>trained for 2500</t>
-  </si>
-  <si>
-    <t>11.3 sec</t>
-  </si>
-  <si>
     <t>No fairness</t>
   </si>
   <si>
@@ -262,6 +256,27 @@
   <si>
     <t>2 min 17 sec</t>
   </si>
+  <si>
+    <t>7 min 59 sec</t>
+  </si>
+  <si>
+    <t>4 min 37 sec</t>
+  </si>
+  <si>
+    <t>decentralized: trained each client for 25000 epochs (bc in original each client ran ~500 times with 50 epochs each time). Note that each epoch only uses one batch of data</t>
+  </si>
+  <si>
+    <t>2 min 49 sec</t>
+  </si>
+  <si>
+    <t>5 min 17 sec</t>
+  </si>
+  <si>
+    <t>7 min 31 sec</t>
+  </si>
+  <si>
+    <t>6 min 43 sec</t>
+  </si>
 </sst>
 </file>
 
@@ -287,7 +302,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,6 +312,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,7 +942,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1077,34 +1098,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1122,9 +1125,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1209,10 +1209,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1221,22 +1254,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1246,6 +1273,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1254,70 +1314,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4016,423 +4052,442 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FA34C5-480C-4D1A-AC66-54DFEF26762F}">
   <dimension ref="A1:X109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O59" sqref="O59"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T56" sqref="T56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="40"/>
-    <col min="3" max="3" width="25" style="131" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="14" width="8.6640625" style="40" customWidth="1"/>
-    <col min="15" max="15" width="13.109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.6640625" style="40" customWidth="1"/>
-    <col min="18" max="18" width="10.5546875" style="40" customWidth="1"/>
-    <col min="19" max="16384" width="9.109375" style="40"/>
+    <col min="1" max="2" width="9.140625" style="40"/>
+    <col min="3" max="3" width="25" style="95" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="8.7109375" style="40" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.7109375" style="40" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" style="40" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C1" s="98" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C1" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="98"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C2" s="64"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C2" s="58"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
       <c r="O2" s="38"/>
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
-      <c r="R2" s="95"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="101" t="s">
+      <c r="R2" s="88"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="101" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="101" t="s">
+      <c r="C3" s="102" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="101" t="s">
+      <c r="E3" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101" t="s">
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="105" t="s">
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-    </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="102"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="94" t="s">
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="106"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="94" t="s">
+      <c r="F4" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="94" t="s">
+      <c r="G4" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="94" t="s">
+      <c r="H4" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="94" t="s">
+      <c r="I4" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="94" t="s">
+      <c r="J4" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="94" t="s">
+      <c r="K4" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="94" t="s">
+      <c r="L4" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="94" t="s">
+      <c r="M4" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="106"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-    </row>
-    <row r="5" spans="1:19" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="103" t="s">
+      <c r="O4" s="100"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="103" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="92" t="s">
+      <c r="B5" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="101" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="85" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="48">
-        <f t="shared" ref="E5" si="0">AVERAGE(F5:I5)</f>
-        <v>0.67667500000000003</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="F5" s="46">
-        <v>0.64670000000000005</v>
+        <v>0.65</v>
       </c>
       <c r="G5" s="46">
-        <v>0.65329999999999999</v>
+        <v>0.65559999999999996</v>
       </c>
       <c r="H5" s="46">
-        <v>0.72670000000000001</v>
+        <v>0.6875</v>
       </c>
       <c r="I5" s="42">
-        <v>0.68</v>
+        <v>0.73850000000000005</v>
       </c>
       <c r="J5" s="48">
-        <f t="shared" ref="J5" si="1">AVERAGE(K5:N5)</f>
-        <v>0.57992500000000002</v>
+        <f t="shared" ref="J5" si="0">AVERAGE(K5:N5)</f>
+        <v>0.56464999999999999</v>
       </c>
       <c r="K5" s="46">
-        <v>0.67479999999999996</v>
+        <v>0.6986</v>
       </c>
       <c r="L5" s="46">
-        <v>0.63890000000000002</v>
+        <v>0.63949999999999996</v>
       </c>
       <c r="M5" s="46">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="N5" s="46">
-        <v>0.5</v>
+        <v>0.48720000000000002</v>
+      </c>
+      <c r="N5" s="42">
+        <v>0.43330000000000002</v>
       </c>
       <c r="O5" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="95" t="s">
-        <v>43</v>
-      </c>
-      <c r="R5" s="95"/>
-      <c r="S5" s="95"/>
-    </row>
-    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="101"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="136" t="s">
+        <v>67</v>
+      </c>
+      <c r="R5" s="136"/>
+      <c r="S5" s="136"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="102"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="86" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="48"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
       <c r="I6" s="36"/>
       <c r="J6" s="38" t="e">
-        <f t="shared" ref="J6" si="2">AVERAGE(K6:N6)</f>
+        <f t="shared" ref="J6" si="1">AVERAGE(K6:N6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="95"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="36"/>
       <c r="O6" s="36"/>
-      <c r="P6" s="95"/>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="95"/>
-    </row>
-    <row r="7" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="101"/>
-      <c r="B7" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="93" t="s">
+      <c r="P6" s="88"/>
+      <c r="Q6" s="136"/>
+      <c r="R6" s="136"/>
+      <c r="S6" s="136"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="102"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="86" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="41">
         <v>0.68120000000000003</v>
       </c>
-      <c r="F7" s="81">
+      <c r="F7" s="74">
         <v>0.67220000000000002</v>
       </c>
-      <c r="G7" s="95">
+      <c r="G7" s="88">
         <v>0.63890000000000002</v>
       </c>
-      <c r="H7" s="95">
+      <c r="H7" s="88">
         <v>0.69530000000000003</v>
       </c>
-      <c r="I7" s="96">
+      <c r="I7" s="89">
         <v>0.73850000000000005</v>
       </c>
-      <c r="J7" s="66">
+      <c r="J7" s="60">
         <f>AVERAGE(K7:N7)</f>
         <v>0.57247499999999996</v>
       </c>
-      <c r="K7" s="95">
+      <c r="K7" s="88">
         <v>0.69110000000000005</v>
       </c>
-      <c r="L7" s="95">
+      <c r="L7" s="88">
         <v>0.62429999999999997</v>
       </c>
-      <c r="M7" s="95">
+      <c r="M7" s="88">
         <v>0.54120000000000001</v>
       </c>
-      <c r="N7" s="96">
+      <c r="N7" s="89">
         <v>0.43330000000000002</v>
       </c>
       <c r="O7" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
-      <c r="S7" s="95"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="101"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="93" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="136"/>
+      <c r="R7" s="136"/>
+      <c r="S7" s="136"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="102"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="72">
+      <c r="E8" s="65">
         <v>0.69089999999999996</v>
       </c>
-      <c r="F8" s="78">
+      <c r="F8" s="71">
         <v>0.67220000000000002</v>
       </c>
-      <c r="G8" s="78">
+      <c r="G8" s="71">
         <v>0.65559999999999996</v>
       </c>
-      <c r="H8" s="78">
+      <c r="H8" s="71">
         <v>0.71879999999999999</v>
       </c>
-      <c r="I8" s="79">
+      <c r="I8" s="72">
         <v>0.73850000000000005</v>
       </c>
-      <c r="J8" s="71">
+      <c r="J8" s="64">
         <f>AVERAGE(K8:N8)</f>
         <v>0.58287500000000003</v>
       </c>
-      <c r="K8" s="78">
+      <c r="K8" s="71">
         <v>0.70050000000000001</v>
       </c>
-      <c r="L8" s="78">
+      <c r="L8" s="71">
         <v>0.64770000000000005</v>
       </c>
-      <c r="M8" s="78">
+      <c r="M8" s="71">
         <v>0.55000000000000004</v>
       </c>
-      <c r="N8" s="79">
+      <c r="N8" s="72">
         <v>0.43330000000000002</v>
       </c>
       <c r="O8" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
-      <c r="R8" s="95"/>
-      <c r="S8" s="95"/>
-    </row>
-    <row r="9" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="101"/>
-      <c r="B9" s="129"/>
-      <c r="C9" s="99" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="136"/>
+      <c r="R8" s="136"/>
+      <c r="S8" s="136"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="102"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="63" t="e">
-        <f t="shared" ref="J9:J36" si="3">AVERAGE(K9:N9)</f>
+      <c r="E9" s="48">
+        <v>0.65529999999999999</v>
+      </c>
+      <c r="F9" s="49">
+        <v>0.58889999999999998</v>
+      </c>
+      <c r="G9" s="49">
+        <v>0.62219999999999998</v>
+      </c>
+      <c r="H9" s="49">
+        <v>0.71089999999999998</v>
+      </c>
+      <c r="I9" s="44">
+        <v>0.73850000000000005</v>
+      </c>
+      <c r="J9" s="59">
+        <f t="shared" ref="J9:J36" si="2">AVERAGE(K9:N9)</f>
+        <v>0.56052500000000005</v>
+      </c>
+      <c r="K9" s="49">
+        <v>0.66359999999999997</v>
+      </c>
+      <c r="L9" s="49">
+        <v>0.61360000000000003</v>
+      </c>
+      <c r="M9" s="49">
+        <v>0.53159999999999996</v>
+      </c>
+      <c r="N9" s="44">
+        <v>0.43330000000000002</v>
+      </c>
+      <c r="O9" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="136"/>
+      <c r="R9" s="136"/>
+      <c r="S9" s="136"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="102"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="48"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="60" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="95"/>
-      <c r="Q9" s="95"/>
-      <c r="R9" s="95"/>
-      <c r="S9" s="95"/>
-    </row>
-    <row r="10" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="101"/>
-      <c r="B10" s="129"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="93" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="63" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
       <c r="N10" s="36"/>
       <c r="O10" s="36"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="95"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="95"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="101"/>
-      <c r="B11" s="129"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="93" t="s">
+      <c r="P10" s="88"/>
+      <c r="Q10" s="136"/>
+      <c r="R10" s="136"/>
+      <c r="S10" s="136"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="102"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="73">
+      <c r="E11" s="66">
         <v>0.66500000000000004</v>
       </c>
-      <c r="F11" s="95">
+      <c r="F11" s="88">
         <v>0.59440000000000004</v>
       </c>
-      <c r="G11" s="81">
+      <c r="G11" s="74">
         <v>0.63329999999999997</v>
       </c>
-      <c r="H11" s="81">
+      <c r="H11" s="74">
         <v>0.73440000000000005</v>
       </c>
-      <c r="I11" s="96">
+      <c r="I11" s="89">
         <v>0.73850000000000005</v>
       </c>
-      <c r="J11" s="125">
-        <f t="shared" si="3"/>
+      <c r="J11" s="91">
+        <f t="shared" si="2"/>
         <v>0.57979999999999998</v>
       </c>
-      <c r="K11" s="95">
+      <c r="K11" s="88">
         <v>0.64729999999999999</v>
       </c>
-      <c r="L11" s="81">
+      <c r="L11" s="74">
         <v>0.625</v>
       </c>
-      <c r="M11" s="81">
+      <c r="M11" s="74">
         <v>0.61360000000000003</v>
       </c>
-      <c r="N11" s="96">
+      <c r="N11" s="89">
         <v>0.43330000000000002</v>
       </c>
       <c r="O11" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="95"/>
-      <c r="R11" s="95"/>
-      <c r="S11" s="95"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="101"/>
-      <c r="B12" s="129"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="136"/>
+      <c r="R11" s="136"/>
+      <c r="S11" s="136"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="102"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="70">
+      <c r="E12" s="63">
         <v>0.66500000000000004</v>
       </c>
-      <c r="F12" s="82">
+      <c r="F12" s="75">
         <v>0.61109999999999998</v>
       </c>
-      <c r="G12" s="82">
+      <c r="G12" s="75">
         <v>0.62780000000000002</v>
       </c>
       <c r="H12" s="50">
@@ -4441,11 +4496,11 @@
       <c r="I12" s="37">
         <v>0.73080000000000001</v>
       </c>
-      <c r="J12" s="63">
-        <f t="shared" si="3"/>
+      <c r="J12" s="57">
+        <f t="shared" si="2"/>
         <v>0.56640000000000001</v>
       </c>
-      <c r="K12" s="82">
+      <c r="K12" s="75">
         <v>0.65349999999999997</v>
       </c>
       <c r="L12" s="50">
@@ -4458,124 +4513,144 @@
         <v>0.40679999999999999</v>
       </c>
       <c r="O12" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="95"/>
-    </row>
-    <row r="13" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="101"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="99" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="88"/>
+      <c r="S12" s="88"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="102"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="63" t="e">
-        <f t="shared" si="3"/>
+      <c r="E13" s="48">
+        <v>0.623</v>
+      </c>
+      <c r="F13" s="49">
+        <v>0.53890000000000005</v>
+      </c>
+      <c r="G13" s="49">
+        <v>0.63329999999999997</v>
+      </c>
+      <c r="H13" s="49">
+        <v>0.66410000000000002</v>
+      </c>
+      <c r="I13" s="44">
+        <v>0.68459999999999999</v>
+      </c>
+      <c r="J13" s="59">
+        <f t="shared" si="2"/>
+        <v>0.50722500000000004</v>
+      </c>
+      <c r="K13" s="49">
+        <v>0.70040000000000002</v>
+      </c>
+      <c r="L13" s="49">
+        <v>0.6633</v>
+      </c>
+      <c r="M13" s="49">
+        <v>0.46910000000000002</v>
+      </c>
+      <c r="N13" s="44">
+        <v>0.1961</v>
+      </c>
+      <c r="O13" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="88"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="102"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="48"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="60" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="95"/>
-    </row>
-    <row r="14" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="101"/>
-      <c r="B14" s="129"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="93" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="63" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="36"/>
       <c r="O14" s="36"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="95"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="101"/>
-      <c r="B15" s="129"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="93" t="s">
+      <c r="P14" s="88"/>
+      <c r="Q14" s="88"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="88"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="102"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="86" t="s">
         <v>39</v>
       </c>
       <c r="E15" s="41">
         <v>0.65210000000000001</v>
       </c>
-      <c r="F15" s="95">
+      <c r="F15" s="88">
         <v>0.57779999999999998</v>
       </c>
-      <c r="G15" s="81">
+      <c r="G15" s="74">
         <v>0.63890000000000002</v>
       </c>
-      <c r="H15" s="81">
+      <c r="H15" s="74">
         <v>0.74219999999999997</v>
       </c>
       <c r="I15" s="36">
         <v>0.68479999999999996</v>
       </c>
-      <c r="J15" s="66">
-        <f t="shared" si="3"/>
+      <c r="J15" s="60">
+        <f t="shared" si="2"/>
         <v>0.49672499999999997</v>
       </c>
-      <c r="K15" s="81">
+      <c r="K15" s="74">
         <v>0.68310000000000004</v>
       </c>
-      <c r="L15" s="95">
+      <c r="L15" s="88">
         <v>0.61990000000000001</v>
       </c>
-      <c r="M15" s="81">
+      <c r="M15" s="74">
         <v>0.63739999999999997</v>
       </c>
       <c r="N15" s="36">
         <v>4.65E-2</v>
       </c>
       <c r="O15" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="95"/>
-      <c r="S15" s="95"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="101"/>
-      <c r="B16" s="129"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="88"/>
+      <c r="R15" s="88"/>
+      <c r="S15" s="88"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="102"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="70">
+      <c r="E16" s="63">
         <v>0.65369999999999995</v>
       </c>
-      <c r="F16" s="82">
+      <c r="F16" s="75">
         <v>0.62219999999999998</v>
       </c>
       <c r="G16" s="50">
@@ -4584,190 +4659,210 @@
       <c r="H16" s="50">
         <v>0.70309999999999995</v>
       </c>
-      <c r="I16" s="83">
+      <c r="I16" s="76">
         <v>0.7</v>
       </c>
-      <c r="J16" s="71">
-        <f t="shared" si="3"/>
+      <c r="J16" s="64">
+        <f t="shared" si="2"/>
         <v>0.51339999999999997</v>
       </c>
       <c r="K16" s="50">
         <v>0.66339999999999999</v>
       </c>
-      <c r="L16" s="82">
+      <c r="L16" s="75">
         <v>0.66990000000000005</v>
       </c>
       <c r="M16" s="50">
         <v>0.58699999999999997</v>
       </c>
-      <c r="N16" s="83">
+      <c r="N16" s="76">
         <v>0.1333</v>
       </c>
       <c r="O16" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="P16" s="95"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="95"/>
-      <c r="S16" s="95"/>
-    </row>
-    <row r="17" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="101"/>
-      <c r="B17" s="129"/>
-      <c r="C17" s="99" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" s="88"/>
+      <c r="Q16" s="88"/>
+      <c r="R16" s="88"/>
+      <c r="S16" s="88"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="102"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="63" t="e">
-        <f t="shared" si="3"/>
+      <c r="E17" s="48">
+        <v>0.64890000000000003</v>
+      </c>
+      <c r="F17" s="49">
+        <v>0.58889999999999998</v>
+      </c>
+      <c r="G17" s="49">
+        <v>0.63329999999999997</v>
+      </c>
+      <c r="H17" s="49">
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="I17" s="44">
+        <v>0.68459999999999999</v>
+      </c>
+      <c r="J17" s="60">
+        <f t="shared" si="2"/>
+        <v>0.44825000000000004</v>
+      </c>
+      <c r="K17" s="49">
+        <v>0.66059999999999997</v>
+      </c>
+      <c r="L17" s="49">
+        <v>0.57140000000000002</v>
+      </c>
+      <c r="M17" s="49">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="N17" s="44">
+        <v>0</v>
+      </c>
+      <c r="O17" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" s="88"/>
+      <c r="Q17" s="88"/>
+      <c r="R17" s="88"/>
+      <c r="S17" s="88"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="102"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="48"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="60" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="95"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="95"/>
-      <c r="S17" s="95"/>
-    </row>
-    <row r="18" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="101"/>
-      <c r="B18" s="129"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="93" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="63" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="88"/>
       <c r="N18" s="36"/>
       <c r="O18" s="36"/>
-      <c r="P18" s="95"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="95"/>
-      <c r="S18" s="95"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="101"/>
-      <c r="B19" s="129"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="93" t="s">
+      <c r="P18" s="88"/>
+      <c r="Q18" s="88"/>
+      <c r="R18" s="88"/>
+      <c r="S18" s="88"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="102"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="95">
+      <c r="E19" s="88">
         <v>0.64239999999999997</v>
       </c>
-      <c r="F19" s="95">
+      <c r="F19" s="88">
         <v>0.58330000000000004</v>
       </c>
-      <c r="G19" s="95">
+      <c r="G19" s="88">
         <v>0.62780000000000002</v>
       </c>
-      <c r="H19" s="95">
+      <c r="H19" s="88">
         <v>0.72660000000000002</v>
       </c>
       <c r="I19" s="36">
         <v>0.66149999999999998</v>
       </c>
-      <c r="J19" s="65">
-        <f t="shared" si="3"/>
+      <c r="J19" s="60">
+        <f t="shared" si="2"/>
         <v>0.46055000000000001</v>
       </c>
-      <c r="K19" s="95">
+      <c r="K19" s="88">
         <v>0.62309999999999999</v>
       </c>
-      <c r="L19" s="81">
+      <c r="L19" s="74">
         <v>0.5786</v>
       </c>
-      <c r="M19" s="95">
+      <c r="M19" s="88">
         <v>0.52049999999999996</v>
       </c>
-      <c r="N19" s="96">
+      <c r="N19" s="89">
         <v>0.12</v>
       </c>
       <c r="O19" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="P19" s="95"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="95"/>
-      <c r="S19" s="95"/>
-    </row>
-    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="102"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" s="88"/>
+      <c r="Q19" s="88"/>
+      <c r="R19" s="88"/>
+      <c r="S19" s="88"/>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="106"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="126">
+      <c r="E20" s="92">
         <v>0.66180000000000005</v>
       </c>
-      <c r="F20" s="127">
+      <c r="F20" s="93">
         <v>0.60560000000000003</v>
       </c>
-      <c r="G20" s="127">
+      <c r="G20" s="93">
         <v>0.65</v>
       </c>
-      <c r="H20" s="127">
+      <c r="H20" s="93">
         <v>0.73440000000000005</v>
       </c>
-      <c r="I20" s="128">
+      <c r="I20" s="94">
         <v>0.68459999999999999</v>
       </c>
-      <c r="J20" s="71">
-        <f t="shared" si="3"/>
+      <c r="J20" s="64">
+        <f t="shared" si="2"/>
         <v>0.45215</v>
       </c>
-      <c r="K20" s="127">
+      <c r="K20" s="93">
         <v>0.6502</v>
       </c>
       <c r="L20" s="52">
         <v>0.57140000000000002</v>
       </c>
-      <c r="M20" s="127">
+      <c r="M20" s="93">
         <v>0.54049999999999998</v>
       </c>
       <c r="N20" s="51">
         <v>4.65E-2</v>
       </c>
       <c r="O20" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="95"/>
-    </row>
-    <row r="21" spans="1:19" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="103" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" s="88"/>
+      <c r="Q20" s="88"/>
+      <c r="R20" s="88"/>
+      <c r="S20" s="88"/>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="130" t="s">
+      <c r="B21" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="103" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="92" t="s">
+      <c r="C21" s="101" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="85" t="s">
         <v>25</v>
       </c>
       <c r="E21" s="48"/>
@@ -4775,8 +4870,8 @@
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
       <c r="I21" s="42"/>
-      <c r="J21" s="63" t="e">
-        <f t="shared" si="3"/>
+      <c r="J21" s="57" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K21" s="46"/>
@@ -4785,80 +4880,120 @@
       <c r="N21" s="42"/>
       <c r="O21" s="42"/>
     </row>
-    <row r="22" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="101"/>
-      <c r="B22" s="129"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="93" t="s">
+    <row r="22" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="102"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="86" t="s">
         <v>40</v>
       </c>
       <c r="E22" s="48"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
       <c r="I22" s="36"/>
-      <c r="J22" s="66" t="e">
-        <f t="shared" si="3"/>
+      <c r="J22" s="60" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="88"/>
       <c r="N22" s="36"/>
       <c r="O22" s="36"/>
     </row>
-    <row r="23" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="101"/>
-      <c r="B23" s="129"/>
-      <c r="C23" s="101"/>
+    <row r="23" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="102"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="102"/>
       <c r="D23" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="41"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="67" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="R23" s="95"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="101"/>
-      <c r="B24" s="129"/>
-      <c r="C24" s="101"/>
+      <c r="E23" s="41">
+        <v>0.8044</v>
+      </c>
+      <c r="F23" s="88">
+        <v>0.75729999999999997</v>
+      </c>
+      <c r="G23" s="88">
+        <v>0.79190000000000005</v>
+      </c>
+      <c r="H23" s="88">
+        <v>0.7944</v>
+      </c>
+      <c r="I23" s="36">
+        <v>0.82509999999999994</v>
+      </c>
+      <c r="J23" s="61">
+        <f t="shared" si="2"/>
+        <v>0.51902499999999996</v>
+      </c>
+      <c r="K23" s="88">
+        <v>0.52129999999999999</v>
+      </c>
+      <c r="L23" s="88">
+        <v>0.65629999999999999</v>
+      </c>
+      <c r="M23" s="88">
+        <v>0.40039999999999998</v>
+      </c>
+      <c r="N23" s="36">
+        <v>0.49809999999999999</v>
+      </c>
+      <c r="O23" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="R23" s="88"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="102"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="102"/>
       <c r="D24" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="63" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-    </row>
-    <row r="25" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="101"/>
-      <c r="B25" s="129"/>
-      <c r="C25" s="99" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="93" t="s">
+      <c r="E24" s="63">
+        <v>0.82530000000000003</v>
+      </c>
+      <c r="F24" s="75">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="G24" s="75">
+        <v>0.80789999999999995</v>
+      </c>
+      <c r="H24" s="75">
+        <v>0.83360000000000001</v>
+      </c>
+      <c r="I24" s="76">
+        <v>0.82609999999999995</v>
+      </c>
+      <c r="J24" s="64">
+        <f t="shared" si="2"/>
+        <v>0.60757499999999998</v>
+      </c>
+      <c r="K24" s="75">
+        <v>0.60389999999999999</v>
+      </c>
+      <c r="L24" s="75">
+        <v>0.66879999999999995</v>
+      </c>
+      <c r="M24" s="75">
+        <v>0.59730000000000005</v>
+      </c>
+      <c r="N24" s="76">
+        <v>0.56030000000000002</v>
+      </c>
+      <c r="O24" s="37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="102"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="86" t="s">
         <v>25</v>
       </c>
       <c r="E25" s="48"/>
@@ -4866,8 +5001,8 @@
       <c r="G25" s="49"/>
       <c r="H25" s="49"/>
       <c r="I25" s="44"/>
-      <c r="J25" s="63" t="e">
-        <f t="shared" si="3"/>
+      <c r="J25" s="57" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K25" s="49"/>
@@ -4876,55 +5011,55 @@
       <c r="N25" s="44"/>
       <c r="O25" s="44"/>
     </row>
-    <row r="26" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="101"/>
-      <c r="B26" s="129"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="93" t="s">
+    <row r="26" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="102"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="86" t="s">
         <v>40</v>
       </c>
       <c r="E26" s="48"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="95"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
       <c r="I26" s="36"/>
-      <c r="J26" s="63" t="e">
-        <f t="shared" si="3"/>
+      <c r="J26" s="57" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="95"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="95"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="88"/>
       <c r="N26" s="36"/>
       <c r="O26" s="36"/>
     </row>
-    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="101"/>
-      <c r="B27" s="129"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="93" t="s">
+    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="102"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="86" t="s">
         <v>39</v>
       </c>
       <c r="E27" s="41"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
       <c r="I27" s="36"/>
-      <c r="J27" s="66" t="e">
-        <f t="shared" si="3"/>
+      <c r="J27" s="60" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K27" s="95"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="95"/>
+      <c r="K27" s="88"/>
+      <c r="L27" s="88"/>
+      <c r="M27" s="88"/>
       <c r="N27" s="36"/>
       <c r="O27" s="36"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="101"/>
-      <c r="B28" s="129"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="93" t="s">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="102"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="86" t="s">
         <v>23</v>
       </c>
       <c r="E28" s="43"/>
@@ -4932,8 +5067,8 @@
       <c r="G28" s="50"/>
       <c r="H28" s="50"/>
       <c r="I28" s="37"/>
-      <c r="J28" s="63" t="e">
-        <f t="shared" si="3"/>
+      <c r="J28" s="57" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K28" s="50"/>
@@ -4942,13 +5077,13 @@
       <c r="N28" s="37"/>
       <c r="O28" s="37"/>
     </row>
-    <row r="29" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="101"/>
-      <c r="B29" s="129"/>
-      <c r="C29" s="99" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="93" t="s">
+    <row r="29" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="102"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="86" t="s">
         <v>25</v>
       </c>
       <c r="E29" s="48"/>
@@ -4956,8 +5091,8 @@
       <c r="G29" s="49"/>
       <c r="H29" s="49"/>
       <c r="I29" s="44"/>
-      <c r="J29" s="63" t="e">
-        <f t="shared" si="3"/>
+      <c r="J29" s="57" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K29" s="49"/>
@@ -4966,55 +5101,55 @@
       <c r="N29" s="44"/>
       <c r="O29" s="44"/>
     </row>
-    <row r="30" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="101"/>
-      <c r="B30" s="129"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="93" t="s">
+    <row r="30" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="102"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="86" t="s">
         <v>40</v>
       </c>
       <c r="E30" s="48"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="95"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
       <c r="I30" s="36"/>
-      <c r="J30" s="63" t="e">
-        <f t="shared" si="3"/>
+      <c r="J30" s="57" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="88"/>
+      <c r="M30" s="88"/>
       <c r="N30" s="36"/>
       <c r="O30" s="36"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="101"/>
-      <c r="B31" s="129"/>
-      <c r="C31" s="99"/>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="102"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="103"/>
       <c r="D31" s="39" t="s">
         <v>39</v>
       </c>
       <c r="E31" s="41"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="95"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
       <c r="I31" s="36"/>
-      <c r="J31" s="66" t="e">
-        <f t="shared" si="3"/>
+      <c r="J31" s="60" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="95"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="88"/>
+      <c r="M31" s="88"/>
       <c r="N31" s="36"/>
       <c r="O31" s="36"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="101"/>
-      <c r="B32" s="129"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="93" t="s">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="102"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="86" t="s">
         <v>23</v>
       </c>
       <c r="E32" s="43"/>
@@ -5022,8 +5157,8 @@
       <c r="G32" s="50"/>
       <c r="H32" s="50"/>
       <c r="I32" s="37"/>
-      <c r="J32" s="63" t="e">
-        <f t="shared" si="3"/>
+      <c r="J32" s="57" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K32" s="50"/>
@@ -5032,13 +5167,13 @@
       <c r="N32" s="37"/>
       <c r="O32" s="37"/>
     </row>
-    <row r="33" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="101"/>
-      <c r="B33" s="129"/>
-      <c r="C33" s="99" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="93" t="s">
+    <row r="33" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="102"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="86" t="s">
         <v>25</v>
       </c>
       <c r="E33" s="48"/>
@@ -5046,8 +5181,8 @@
       <c r="G33" s="49"/>
       <c r="H33" s="49"/>
       <c r="I33" s="44"/>
-      <c r="J33" s="63" t="e">
-        <f t="shared" si="3"/>
+      <c r="J33" s="57" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K33" s="49"/>
@@ -5056,55 +5191,55 @@
       <c r="N33" s="44"/>
       <c r="O33" s="44"/>
     </row>
-    <row r="34" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="101"/>
-      <c r="B34" s="129"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="93" t="s">
+    <row r="34" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="102"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="86" t="s">
         <v>40</v>
       </c>
       <c r="E34" s="48"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="95"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
       <c r="I34" s="36"/>
-      <c r="J34" s="63" t="e">
-        <f t="shared" si="3"/>
+      <c r="J34" s="57" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K34" s="95"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="95"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="88"/>
+      <c r="M34" s="88"/>
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" s="101"/>
-      <c r="B35" s="129"/>
-      <c r="C35" s="99"/>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="102"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="103"/>
       <c r="D35" s="39" t="s">
         <v>39</v>
       </c>
       <c r="E35" s="41"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="88"/>
       <c r="I35" s="36"/>
-      <c r="J35" s="66" t="e">
-        <f t="shared" si="3"/>
+      <c r="J35" s="60" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K35" s="95"/>
-      <c r="L35" s="95"/>
-      <c r="M35" s="95"/>
+      <c r="K35" s="88"/>
+      <c r="L35" s="88"/>
+      <c r="M35" s="88"/>
       <c r="N35" s="36"/>
       <c r="O35" s="36"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" s="101"/>
-      <c r="B36" s="103"/>
-      <c r="C36" s="104"/>
-      <c r="D36" s="93" t="s">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="102"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="86" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="43"/>
@@ -5112,8 +5247,8 @@
       <c r="G36" s="50"/>
       <c r="H36" s="50"/>
       <c r="I36" s="37"/>
-      <c r="J36" s="63" t="e">
-        <f t="shared" si="3"/>
+      <c r="J36" s="57" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K36" s="50"/>
@@ -5122,253 +5257,253 @@
       <c r="N36" s="37"/>
       <c r="O36" s="37"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C37" s="80"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A42" s="101" t="s">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C37" s="73"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="105" t="s">
+      <c r="B42" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="101" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="101" t="s">
+      <c r="C42" s="102" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="101" t="s">
+      <c r="E42" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="101"/>
-      <c r="G42" s="101"/>
-      <c r="H42" s="101"/>
-      <c r="I42" s="101"/>
-      <c r="J42" s="101" t="s">
+      <c r="F42" s="102"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="102"/>
+      <c r="I42" s="102"/>
+      <c r="J42" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="K42" s="101"/>
-      <c r="L42" s="101"/>
-      <c r="M42" s="101"/>
-      <c r="N42" s="101"/>
-      <c r="O42" s="101" t="s">
+      <c r="K42" s="102"/>
+      <c r="L42" s="102"/>
+      <c r="M42" s="102"/>
+      <c r="N42" s="102"/>
+      <c r="O42" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="P42" s="101"/>
-      <c r="Q42" s="101"/>
-      <c r="R42" s="101"/>
-      <c r="S42" s="101"/>
-    </row>
-    <row r="43" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="102"/>
-      <c r="B43" s="106"/>
-      <c r="C43" s="102"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="F43" s="94" t="s">
+      <c r="P42" s="102"/>
+      <c r="Q42" s="102"/>
+      <c r="R42" s="102"/>
+      <c r="S42" s="102"/>
+    </row>
+    <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="106"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="G43" s="94" t="s">
+      <c r="G43" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="H43" s="94" t="s">
+      <c r="H43" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="I43" s="94" t="s">
+      <c r="I43" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="J43" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="K43" s="94" t="s">
+      <c r="J43" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="K43" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="L43" s="94" t="s">
+      <c r="L43" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="M43" s="94" t="s">
+      <c r="M43" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="N43" s="94" t="s">
+      <c r="N43" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="O43" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="P43" s="94" t="s">
+      <c r="O43" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="P43" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="Q43" s="94" t="s">
+      <c r="Q43" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="R43" s="94" t="s">
+      <c r="R43" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="S43" s="94" t="s">
+      <c r="S43" s="87" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="103" t="s">
+    <row r="44" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="92"/>
-      <c r="C44" s="103" t="s">
-        <v>45</v>
-      </c>
-      <c r="D44" s="92" t="s">
+      <c r="B44" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="101" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="85" t="s">
         <v>25</v>
       </c>
       <c r="E44" s="48">
-        <f t="shared" ref="E44:E73" si="4">AVERAGE(F44:I44)</f>
-        <v>-5.6325E-2</v>
+        <f t="shared" ref="E44:E45" si="3">AVERAGE(F44:I44)</f>
+        <v>-0.30912499999999998</v>
       </c>
       <c r="F44" s="46">
-        <v>0.1641</v>
+        <v>-0.60489999999999999</v>
       </c>
       <c r="G44" s="46">
-        <v>-0.23760000000000001</v>
+        <v>-0.20930000000000001</v>
       </c>
       <c r="H44" s="46">
-        <v>-0.15959999999999999</v>
+        <v>-0.21790000000000001</v>
       </c>
       <c r="I44" s="42">
-        <v>7.7999999999999996E-3</v>
+        <v>-0.2044</v>
       </c>
       <c r="J44" s="48">
-        <f t="shared" ref="J44:J73" si="5">AVERAGE(K44:N44)</f>
-        <v>-0.126025</v>
+        <f t="shared" ref="J44:J45" si="4">AVERAGE(K44:N44)</f>
+        <v>-0.38519999999999999</v>
       </c>
       <c r="K44" s="46">
-        <v>4.6699999999999998E-2</v>
+        <v>-0.66859999999999997</v>
       </c>
       <c r="L44" s="46">
-        <v>-0.31780000000000003</v>
+        <v>-0.1976</v>
       </c>
       <c r="M44" s="46">
-        <v>-0.3417</v>
+        <v>-0.28070000000000001</v>
       </c>
       <c r="N44" s="42">
-        <v>0.1087</v>
+        <v>-0.39389999999999997</v>
       </c>
       <c r="O44" s="48">
-        <f t="shared" ref="O44:O73" si="6">AVERAGE(P44:S44)</f>
-        <v>-5.3449999999999998E-2</v>
+        <f t="shared" ref="O44:O45" si="5">AVERAGE(P44:S44)</f>
+        <v>-0.30207500000000004</v>
       </c>
       <c r="P44" s="46">
-        <v>0.17080000000000001</v>
+        <v>-0.63480000000000003</v>
       </c>
       <c r="Q44" s="46">
-        <v>-0.2394</v>
+        <v>-0.2306</v>
       </c>
       <c r="R44" s="46">
-        <v>-0.1043</v>
+        <v>-0.20830000000000001</v>
       </c>
       <c r="S44" s="42">
-        <v>-4.0899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="101"/>
-      <c r="B45" s="93"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="93" t="s">
+        <v>-0.1346</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="102"/>
+      <c r="B45" s="99"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="86" t="s">
         <v>40</v>
       </c>
       <c r="E45" s="48" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F45" s="88"/>
+      <c r="G45" s="88"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="48" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F45" s="95"/>
-      <c r="G45" s="95"/>
-      <c r="H45" s="95"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="48" t="e">
+      <c r="K45" s="88"/>
+      <c r="L45" s="88"/>
+      <c r="M45" s="88"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="48" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K45" s="95"/>
-      <c r="L45" s="95"/>
-      <c r="M45" s="95"/>
-      <c r="N45" s="36"/>
-      <c r="O45" s="48" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P45" s="95"/>
-      <c r="Q45" s="95"/>
-      <c r="R45" s="95"/>
+      <c r="P45" s="88"/>
+      <c r="Q45" s="88"/>
+      <c r="R45" s="88"/>
       <c r="S45" s="36"/>
     </row>
-    <row r="46" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="101"/>
-      <c r="B46" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="101"/>
-      <c r="D46" s="93" t="s">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="102"/>
+      <c r="B46" s="99"/>
+      <c r="C46" s="102"/>
+      <c r="D46" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="E46" s="66" cm="1">
+      <c r="E46" s="60" cm="1">
         <f t="array" ref="E46">AVERAGE(ABS(F46:I46))</f>
         <v>0.28432499999999999</v>
       </c>
-      <c r="F46" s="95">
+      <c r="F46" s="88">
         <v>-0.51190000000000002</v>
       </c>
-      <c r="G46" s="95">
+      <c r="G46" s="88">
         <v>-0.1794</v>
       </c>
-      <c r="H46" s="95">
+      <c r="H46" s="88">
         <v>-0.24160000000000001</v>
       </c>
       <c r="I46" s="36">
         <v>-0.2044</v>
       </c>
-      <c r="J46" s="66" cm="1">
+      <c r="J46" s="60" cm="1">
         <f t="array" ref="J46">AVERAGE(ABS(K46:N46))</f>
         <v>0.36047499999999999</v>
       </c>
-      <c r="K46" s="95">
+      <c r="K46" s="88">
         <v>-0.58630000000000004</v>
       </c>
-      <c r="L46" s="95">
+      <c r="L46" s="88">
         <v>-0.18540000000000001</v>
       </c>
-      <c r="M46" s="95">
+      <c r="M46" s="88">
         <v>-0.27629999999999999</v>
       </c>
       <c r="N46" s="36">
         <v>-0.39389999999999997</v>
       </c>
-      <c r="O46" s="66" cm="1">
+      <c r="O46" s="60" cm="1">
         <f t="array" ref="O46">AVERAGE(ABS(P46:S46))</f>
         <v>0.28134999999999999</v>
       </c>
-      <c r="P46" s="95">
+      <c r="P46" s="88">
         <v>-0.55289999999999995</v>
       </c>
-      <c r="Q46" s="95">
+      <c r="Q46" s="88">
         <v>-0.1983</v>
       </c>
-      <c r="R46" s="95">
+      <c r="R46" s="88">
         <v>-0.23960000000000001</v>
       </c>
       <c r="S46" s="36">
         <v>-0.1346</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" s="101"/>
-      <c r="B47" s="129"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="93" t="s">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="102"/>
+      <c r="B47" s="99"/>
+      <c r="C47" s="102"/>
+      <c r="D47" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="66" cm="1">
+      <c r="E47" s="60" cm="1">
         <f t="array" ref="E47">AVERAGE(ABS(F47:I47))</f>
         <v>0.287275</v>
       </c>
@@ -5384,7 +5519,7 @@
       <c r="I47" s="37">
         <v>-0.2044</v>
       </c>
-      <c r="J47" s="63" cm="1">
+      <c r="J47" s="57" cm="1">
         <f t="array" ref="J47">AVERAGE(ABS(K47:N47))</f>
         <v>0.37187499999999996</v>
       </c>
@@ -5400,7 +5535,7 @@
       <c r="N47" s="37">
         <v>-0.39389999999999997</v>
       </c>
-      <c r="O47" s="63" cm="1">
+      <c r="O47" s="57" cm="1">
         <f t="array" ref="O47">AVERAGE(ABS(P47:S47))</f>
         <v>0.28342499999999998</v>
       </c>
@@ -5417,314 +5552,362 @@
         <v>-0.1346</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="101"/>
-      <c r="B48" s="129"/>
-      <c r="C48" s="99" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" s="93" t="s">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="102"/>
+      <c r="B48" s="99"/>
+      <c r="C48" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="E48" s="66" cm="1">
+      <c r="E48" s="129" cm="1">
         <f t="array" ref="E48">AVERAGE(ABS(F48:I48))</f>
-        <v>0</v>
-      </c>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="57"/>
-      <c r="J48" s="66" cm="1">
+        <v>0.158275</v>
+      </c>
+      <c r="F48" s="137">
+        <v>0.154</v>
+      </c>
+      <c r="G48" s="137">
+        <v>0.1487</v>
+      </c>
+      <c r="H48" s="137">
+        <v>-0.126</v>
+      </c>
+      <c r="I48" s="138">
+        <v>-0.2044</v>
+      </c>
+      <c r="J48" s="131" cm="1">
         <f t="array" ref="J48">AVERAGE(ABS(K48:N48))</f>
-        <v>0</v>
-      </c>
-      <c r="K48" s="56"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="57"/>
-      <c r="O48" s="66" cm="1">
+        <v>0.14049999999999999</v>
+      </c>
+      <c r="K48" s="137">
+        <v>-2.8999999999999998E-3</v>
+      </c>
+      <c r="L48" s="137">
+        <v>5.1200000000000002E-2</v>
+      </c>
+      <c r="M48" s="137">
+        <v>-0.114</v>
+      </c>
+      <c r="N48" s="138">
+        <v>-0.39389999999999997</v>
+      </c>
+      <c r="O48" s="60" cm="1">
         <f t="array" ref="O48">AVERAGE(ABS(P48:S48))</f>
-        <v>0</v>
-      </c>
-      <c r="P48" s="49"/>
-      <c r="Q48" s="49"/>
-      <c r="R48" s="49"/>
-      <c r="S48" s="44"/>
-    </row>
-    <row r="49" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="101"/>
-      <c r="B49" s="129"/>
-      <c r="C49" s="99"/>
-      <c r="D49" s="93" t="s">
+        <v>0.13774999999999998</v>
+      </c>
+      <c r="P48" s="49">
+        <v>0.1487</v>
+      </c>
+      <c r="Q48" s="49">
+        <v>0.1323</v>
+      </c>
+      <c r="R48" s="49">
+        <v>-0.13539999999999999</v>
+      </c>
+      <c r="S48" s="44">
+        <v>-0.1346</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="102"/>
+      <c r="B49" s="99"/>
+      <c r="C49" s="103"/>
+      <c r="D49" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="E49" s="66" cm="1">
+      <c r="E49" s="131" cm="1">
         <f t="array" ref="E49">AVERAGE(ABS(F49:I49))</f>
         <v>0</v>
       </c>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="66" cm="1">
+      <c r="F49" s="127"/>
+      <c r="G49" s="127"/>
+      <c r="H49" s="127"/>
+      <c r="I49" s="130"/>
+      <c r="J49" s="131" cm="1">
         <f t="array" ref="J49">AVERAGE(ABS(K49:N49))</f>
         <v>0</v>
       </c>
-      <c r="K49" s="59"/>
-      <c r="L49" s="59"/>
-      <c r="M49" s="59"/>
-      <c r="N49" s="60"/>
-      <c r="O49" s="66" cm="1">
+      <c r="K49" s="127"/>
+      <c r="L49" s="127"/>
+      <c r="M49" s="127"/>
+      <c r="N49" s="130"/>
+      <c r="O49" s="60" cm="1">
         <f t="array" ref="O49">AVERAGE(ABS(P49:S49))</f>
         <v>0</v>
       </c>
-      <c r="P49" s="95"/>
-      <c r="Q49" s="95"/>
-      <c r="R49" s="95"/>
+      <c r="P49" s="88"/>
+      <c r="Q49" s="88"/>
+      <c r="R49" s="88"/>
       <c r="S49" s="36"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" s="101"/>
-      <c r="B50" s="129"/>
-      <c r="C50" s="99"/>
-      <c r="D50" s="93" t="s">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="102"/>
+      <c r="B50" s="99"/>
+      <c r="C50" s="103"/>
+      <c r="D50" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="E50" s="68" cm="1">
+      <c r="E50" s="131" cm="1">
         <f t="array" ref="E50">AVERAGE(ABS(F50:I50))</f>
         <v>9.7725000000000006E-2</v>
       </c>
-      <c r="F50" s="59">
+      <c r="F50" s="127">
         <v>0.1147</v>
       </c>
-      <c r="G50" s="59">
+      <c r="G50" s="127">
         <v>-5.4999999999999997E-3</v>
       </c>
-      <c r="H50" s="59">
+      <c r="H50" s="127">
         <v>-6.6299999999999998E-2</v>
       </c>
-      <c r="I50" s="60">
+      <c r="I50" s="130">
         <v>-0.2044</v>
       </c>
-      <c r="J50" s="58" cm="1">
+      <c r="J50" s="131" cm="1">
         <f t="array" ref="J50">AVERAGE(ABS(K50:N50))</f>
         <v>0.15329999999999999</v>
       </c>
-      <c r="K50" s="59">
+      <c r="K50" s="127">
         <v>-0.1225</v>
       </c>
-      <c r="L50" s="59">
+      <c r="L50" s="127">
         <v>-3.9800000000000002E-2</v>
       </c>
-      <c r="M50" s="59">
+      <c r="M50" s="127">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="N50" s="60">
+      <c r="N50" s="130">
         <v>-0.39389999999999997</v>
       </c>
-      <c r="O50" s="66" cm="1">
+      <c r="O50" s="60" cm="1">
         <f t="array" ref="O50">AVERAGE(ABS(P50:S50))</f>
         <v>9.5375000000000001E-2</v>
       </c>
-      <c r="P50" s="95">
+      <c r="P50" s="88">
         <v>0.1191</v>
       </c>
-      <c r="Q50" s="81">
+      <c r="Q50" s="74">
         <v>-2.3599999999999999E-2</v>
       </c>
-      <c r="R50" s="95">
+      <c r="R50" s="88">
         <v>-0.1042</v>
       </c>
       <c r="S50" s="36">
         <v>-0.1346</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A51" s="101"/>
-      <c r="B51" s="129"/>
-      <c r="C51" s="99"/>
-      <c r="D51" s="93" t="s">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="102"/>
+      <c r="B51" s="99"/>
+      <c r="C51" s="103"/>
+      <c r="D51" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="E51" s="58" cm="1">
+      <c r="E51" s="131" cm="1">
         <f t="array" ref="E51">AVERAGE(ABS(F51:I51))</f>
         <v>9.5599999999999991E-2</v>
       </c>
-      <c r="F51" s="54">
+      <c r="F51" s="132">
         <v>8.3599999999999994E-2</v>
       </c>
-      <c r="G51" s="54">
+      <c r="G51" s="132">
         <v>7.8100000000000003E-2</v>
       </c>
-      <c r="H51" s="54">
+      <c r="H51" s="132">
         <v>-3.1399999999999997E-2</v>
       </c>
-      <c r="I51" s="55">
+      <c r="I51" s="133">
         <v>-0.1893</v>
       </c>
-      <c r="J51" s="53" cm="1">
+      <c r="J51" s="134" cm="1">
         <f t="array" ref="J51">AVERAGE(ABS(K51:N51))</f>
         <v>0.15289999999999998</v>
       </c>
-      <c r="K51" s="54">
+      <c r="K51" s="132">
         <v>-0.1108</v>
       </c>
-      <c r="L51" s="54">
+      <c r="L51" s="132">
         <v>-2.76E-2</v>
       </c>
-      <c r="M51" s="54">
+      <c r="M51" s="132">
         <v>0.1096</v>
       </c>
-      <c r="N51" s="55">
+      <c r="N51" s="133">
         <v>-0.36359999999999998</v>
       </c>
-      <c r="O51" s="66" cm="1">
+      <c r="O51" s="64" cm="1">
         <f t="array" ref="O51">AVERAGE(ABS(P51:S51))</f>
         <v>8.3424999999999999E-2</v>
       </c>
-      <c r="P51" s="82">
+      <c r="P51" s="75">
         <v>7.4700000000000003E-2</v>
       </c>
       <c r="Q51" s="50">
         <v>6.1100000000000002E-2</v>
       </c>
-      <c r="R51" s="82">
+      <c r="R51" s="75">
         <v>-7.2900000000000006E-2</v>
       </c>
-      <c r="S51" s="83">
+      <c r="S51" s="76">
         <v>-0.125</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="101"/>
-      <c r="B52" s="129"/>
-      <c r="C52" s="99" t="s">
-        <v>47</v>
-      </c>
-      <c r="D52" s="93" t="s">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="102"/>
+      <c r="B52" s="99"/>
+      <c r="C52" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="E52" s="66" cm="1">
+      <c r="E52" s="59" cm="1">
         <f t="array" ref="E52">AVERAGE(ABS(F52:I52))</f>
+        <v>0.10992499999999999</v>
+      </c>
+      <c r="F52" s="49">
         <v>0</v>
       </c>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="66" cm="1">
+      <c r="G52" s="49">
+        <v>-6.3600000000000004E-2</v>
+      </c>
+      <c r="H52" s="49">
+        <v>-0.26500000000000001</v>
+      </c>
+      <c r="I52" s="44">
+        <v>-0.1111</v>
+      </c>
+      <c r="J52" s="60" cm="1">
         <f t="array" ref="J52">AVERAGE(ABS(K52:N52))</f>
+        <v>0.175925</v>
+      </c>
+      <c r="K52" s="49">
         <v>0</v>
       </c>
-      <c r="K52" s="49"/>
-      <c r="L52" s="49"/>
-      <c r="M52" s="49"/>
-      <c r="N52" s="44"/>
-      <c r="O52" s="66" cm="1">
+      <c r="L52" s="49">
+        <v>-0.1618</v>
+      </c>
+      <c r="M52" s="49">
+        <v>-0.39040000000000002</v>
+      </c>
+      <c r="N52" s="44">
+        <v>-0.1515</v>
+      </c>
+      <c r="O52" s="131" cm="1">
         <f t="array" ref="O52">AVERAGE(ABS(P52:S52))</f>
+        <v>0.103925</v>
+      </c>
+      <c r="P52" s="137">
         <v>0</v>
       </c>
-      <c r="P52" s="56"/>
-      <c r="Q52" s="56"/>
-      <c r="R52" s="56"/>
-      <c r="S52" s="57"/>
-    </row>
-    <row r="53" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="101"/>
-      <c r="B53" s="129"/>
-      <c r="C53" s="99"/>
-      <c r="D53" s="93" t="s">
+      <c r="Q52" s="137">
+        <v>-7.9899999999999999E-2</v>
+      </c>
+      <c r="R52" s="137">
+        <v>-0.23960000000000001</v>
+      </c>
+      <c r="S52" s="138">
+        <v>-9.6199999999999994E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" s="102"/>
+      <c r="B53" s="99"/>
+      <c r="C53" s="103"/>
+      <c r="D53" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="66" cm="1">
+      <c r="E53" s="60" cm="1">
         <f t="array" ref="E53">AVERAGE(ABS(F53:I53))</f>
         <v>0</v>
       </c>
-      <c r="F53" s="95"/>
-      <c r="G53" s="95"/>
-      <c r="H53" s="95"/>
+      <c r="F53" s="88"/>
+      <c r="G53" s="88"/>
+      <c r="H53" s="88"/>
       <c r="I53" s="36"/>
-      <c r="J53" s="66" cm="1">
+      <c r="J53" s="60" cm="1">
         <f t="array" ref="J53">AVERAGE(ABS(K53:N53))</f>
         <v>0</v>
       </c>
-      <c r="K53" s="95"/>
-      <c r="L53" s="95"/>
-      <c r="M53" s="95"/>
+      <c r="K53" s="88"/>
+      <c r="L53" s="88"/>
+      <c r="M53" s="88"/>
       <c r="N53" s="36"/>
-      <c r="O53" s="66" cm="1">
+      <c r="O53" s="131" cm="1">
         <f t="array" ref="O53">AVERAGE(ABS(P53:S53))</f>
         <v>0</v>
       </c>
-      <c r="P53" s="59"/>
-      <c r="Q53" s="59"/>
-      <c r="R53" s="59"/>
-      <c r="S53" s="60"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A54" s="101"/>
-      <c r="B54" s="129"/>
-      <c r="C54" s="99"/>
-      <c r="D54" s="93" t="s">
+      <c r="P53" s="127"/>
+      <c r="Q53" s="127"/>
+      <c r="R53" s="127"/>
+      <c r="S53" s="130"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="102"/>
+      <c r="B54" s="99"/>
+      <c r="C54" s="103"/>
+      <c r="D54" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="E54" s="125" cm="1">
+      <c r="E54" s="91" cm="1">
         <f t="array" ref="E54">AVERAGE(ABS(F54:I54))</f>
         <v>4.4874999999999998E-2</v>
       </c>
-      <c r="F54" s="81">
+      <c r="F54" s="74">
         <v>-2.4500000000000001E-2</v>
       </c>
-      <c r="G54" s="81">
+      <c r="G54" s="74">
         <v>-1.03E-2</v>
       </c>
-      <c r="H54" s="95">
+      <c r="H54" s="88">
         <v>-0.1225</v>
       </c>
       <c r="I54" s="36">
         <v>-2.2200000000000001E-2</v>
       </c>
-      <c r="J54" s="66" cm="1">
+      <c r="J54" s="60" cm="1">
         <f t="array" ref="J54">AVERAGE(ABS(K54:N54))</f>
         <v>0.11187499999999999</v>
       </c>
-      <c r="K54" s="95">
+      <c r="K54" s="88">
         <v>-0.21759999999999999</v>
       </c>
-      <c r="L54" s="95">
+      <c r="L54" s="88">
         <v>-9.4299999999999995E-2</v>
       </c>
-      <c r="M54" s="95">
+      <c r="M54" s="88">
         <v>-0.1053</v>
       </c>
-      <c r="N54" s="96">
+      <c r="N54" s="89">
         <v>-3.0300000000000001E-2</v>
       </c>
-      <c r="O54" s="68" cm="1">
+      <c r="O54" s="131" cm="1">
         <f t="array" ref="O54">AVERAGE(ABS(P54:S54))</f>
         <v>5.04E-2</v>
       </c>
-      <c r="P54" s="59">
+      <c r="P54" s="127">
         <v>-1.7999999999999999E-2</v>
       </c>
-      <c r="Q54" s="59">
+      <c r="Q54" s="127">
         <v>-2.9000000000000001E-2</v>
       </c>
-      <c r="R54" s="59">
+      <c r="R54" s="127">
         <v>0.13539999999999999</v>
       </c>
-      <c r="S54" s="60">
+      <c r="S54" s="130">
         <v>-1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A55" s="101"/>
-      <c r="B55" s="129"/>
-      <c r="C55" s="99"/>
-      <c r="D55" s="93" t="s">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="102"/>
+      <c r="B55" s="99"/>
+      <c r="C55" s="103"/>
+      <c r="D55" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="E55" s="66" cm="1">
+      <c r="E55" s="60" cm="1">
         <f t="array" ref="E55">AVERAGE(ABS(F55:I55))</f>
         <v>7.0124999999999993E-2</v>
       </c>
@@ -5734,235 +5917,259 @@
       <c r="G55" s="50">
         <v>4.1200000000000001E-2</v>
       </c>
-      <c r="H55" s="82">
+      <c r="H55" s="75">
         <v>-0.122</v>
       </c>
-      <c r="I55" s="83">
+      <c r="I55" s="76">
         <v>-5.2499999999999998E-2</v>
       </c>
-      <c r="J55" s="124" cm="1">
+      <c r="J55" s="91" cm="1">
         <f t="array" ref="J55">AVERAGE(ABS(K55:N55))</f>
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="K55" s="82">
+      <c r="K55" s="75">
         <v>-2.75E-2</v>
       </c>
-      <c r="L55" s="82">
+      <c r="L55" s="75">
         <v>-6.5000000000000002E-2</v>
       </c>
-      <c r="M55" s="82">
+      <c r="M55" s="75">
         <v>-5.2600000000000001E-2</v>
       </c>
       <c r="N55" s="37">
         <v>-9.0899999999999995E-2</v>
       </c>
-      <c r="O55" s="58" cm="1">
+      <c r="O55" s="134" cm="1">
         <f t="array" ref="O55">AVERAGE(ABS(P55:S55))</f>
         <v>6.1925000000000001E-2</v>
       </c>
-      <c r="P55" s="54">
+      <c r="P55" s="132">
         <v>3.5700000000000003E-2</v>
       </c>
-      <c r="Q55" s="54">
+      <c r="Q55" s="132">
         <v>2.7699999999999999E-2</v>
       </c>
-      <c r="R55" s="54">
+      <c r="R55" s="132">
         <v>-0.14580000000000001</v>
       </c>
-      <c r="S55" s="55">
+      <c r="S55" s="133">
         <v>-3.85E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="101"/>
-      <c r="B56" s="129"/>
-      <c r="C56" s="99" t="s">
-        <v>48</v>
-      </c>
-      <c r="D56" s="93" t="s">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="102"/>
+      <c r="B56" s="99"/>
+      <c r="C56" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="E56" s="66" cm="1">
-        <f t="array" ref="E56">AVERAGE(ABS(F56:I56))</f>
+      <c r="E56" s="59">
+        <f t="shared" ref="E56:E57" si="6">AVERAGE(ABS(G56),ABS(I56))</f>
+        <v>6.4699999999999994E-2</v>
+      </c>
+      <c r="F56" s="137">
+        <v>0.13350000000000001</v>
+      </c>
+      <c r="G56" s="49">
+        <v>-0.12939999999999999</v>
+      </c>
+      <c r="H56" s="137">
+        <v>-0.1061</v>
+      </c>
+      <c r="I56" s="44">
         <v>0</v>
       </c>
-      <c r="F56" s="56"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="44"/>
-      <c r="J56" s="66" cm="1">
-        <f t="array" ref="J56">AVERAGE(ABS(K56:N56))</f>
+      <c r="J56" s="59">
+        <f t="shared" ref="J56:J57" si="7">AVERAGE(ABS(L56),ABS(N56))</f>
+        <v>7.1150000000000005E-2</v>
+      </c>
+      <c r="K56" s="137">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="L56" s="49">
+        <v>-0.14230000000000001</v>
+      </c>
+      <c r="M56" s="137">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="N56" s="44">
         <v>0</v>
       </c>
-      <c r="K56" s="56"/>
-      <c r="L56" s="49"/>
-      <c r="M56" s="56"/>
-      <c r="N56" s="44"/>
-      <c r="O56" s="66" cm="1">
-        <f t="array" ref="O56">AVERAGE(ABS(P56:S56))</f>
+      <c r="O56" s="60">
+        <f t="shared" ref="O56:O57" si="8">AVERAGE(ABS(Q56),ABS(S56))</f>
+        <v>7.4349999999999999E-2</v>
+      </c>
+      <c r="P56" s="49">
+        <v>0.1232</v>
+      </c>
+      <c r="Q56" s="137">
+        <v>-0.1487</v>
+      </c>
+      <c r="R56" s="49">
+        <v>-0.125</v>
+      </c>
+      <c r="S56" s="138">
         <v>0</v>
       </c>
-      <c r="P56" s="49"/>
-      <c r="Q56" s="56"/>
-      <c r="R56" s="49"/>
-      <c r="S56" s="57"/>
-    </row>
-    <row r="57" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="101"/>
-      <c r="B57" s="129"/>
-      <c r="C57" s="99"/>
-      <c r="D57" s="93" t="s">
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" s="102"/>
+      <c r="B57" s="99"/>
+      <c r="C57" s="103"/>
+      <c r="D57" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="E57" s="66" cm="1">
-        <f t="array" ref="E57">AVERAGE(ABS(F57:I57))</f>
+      <c r="E57" s="60">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F57" s="59"/>
-      <c r="G57" s="95"/>
-      <c r="H57" s="59"/>
+      <c r="F57" s="127"/>
+      <c r="G57" s="88"/>
+      <c r="H57" s="127"/>
       <c r="I57" s="36"/>
-      <c r="J57" s="66" cm="1">
-        <f t="array" ref="J57">AVERAGE(ABS(K57:N57))</f>
+      <c r="J57" s="60">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K57" s="59"/>
-      <c r="L57" s="95"/>
-      <c r="M57" s="59"/>
+      <c r="K57" s="127"/>
+      <c r="L57" s="88"/>
+      <c r="M57" s="127"/>
       <c r="N57" s="36"/>
-      <c r="O57" s="66" cm="1">
-        <f t="array" ref="O57">AVERAGE(ABS(P57:S57))</f>
+      <c r="O57" s="60">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P57" s="95"/>
-      <c r="Q57" s="59"/>
-      <c r="R57" s="95"/>
-      <c r="S57" s="60"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A58" s="101"/>
-      <c r="B58" s="129"/>
-      <c r="C58" s="99"/>
-      <c r="D58" s="93" t="s">
+      <c r="P57" s="88"/>
+      <c r="Q57" s="127"/>
+      <c r="R57" s="88"/>
+      <c r="S57" s="130"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" s="102"/>
+      <c r="B58" s="99"/>
+      <c r="C58" s="103"/>
+      <c r="D58" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="65">
+      <c r="E58" s="60">
         <f>AVERAGE(ABS(G58),ABS(I58))</f>
         <v>9.0499999999999997E-2</v>
       </c>
-      <c r="F58" s="59">
+      <c r="F58" s="127">
         <v>5.1799999999999999E-2</v>
       </c>
-      <c r="G58" s="81">
+      <c r="G58" s="74">
         <v>8.6599999999999996E-2</v>
       </c>
-      <c r="H58" s="59">
+      <c r="H58" s="127">
         <v>0.12</v>
       </c>
       <c r="I58" s="36">
         <v>9.4399999999999998E-2</v>
       </c>
-      <c r="J58" s="65">
+      <c r="J58" s="60">
         <f>AVERAGE(ABS(L58),ABS(N58))</f>
         <v>0.11554999999999999</v>
       </c>
-      <c r="K58" s="59">
+      <c r="K58" s="127">
         <v>-0.1588</v>
       </c>
-      <c r="L58" s="81">
+      <c r="L58" s="74">
         <v>-0.16669999999999999</v>
       </c>
-      <c r="M58" s="59">
+      <c r="M58" s="127">
         <v>-0.1711</v>
       </c>
       <c r="N58" s="36">
         <v>-6.4399999999999999E-2</v>
       </c>
-      <c r="O58" s="65">
+      <c r="O58" s="60">
         <f>AVERAGE(ABS(Q58),ABS(S58))</f>
         <v>0.1051</v>
       </c>
-      <c r="P58" s="81">
+      <c r="P58" s="74">
         <v>5.5899999999999998E-2</v>
       </c>
-      <c r="Q58" s="59">
+      <c r="Q58" s="127">
         <v>-0.10440000000000001</v>
       </c>
-      <c r="R58" s="95">
+      <c r="R58" s="88">
         <v>-0.11459999999999999</v>
       </c>
-      <c r="S58" s="60">
+      <c r="S58" s="130">
         <v>0.10580000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="102"/>
-      <c r="B59" s="106"/>
-      <c r="C59" s="100"/>
-      <c r="D59" s="94" t="s">
+    <row r="59" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="106"/>
+      <c r="B59" s="100"/>
+      <c r="C59" s="104"/>
+      <c r="D59" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="E59" s="124">
+      <c r="E59" s="91">
         <f>AVERAGE(ABS(G59),ABS(I59))</f>
         <v>7.0800000000000002E-2</v>
       </c>
-      <c r="F59" s="61">
+      <c r="F59" s="128">
         <v>0.1099</v>
       </c>
       <c r="G59" s="52">
         <v>-0.11940000000000001</v>
       </c>
-      <c r="H59" s="61">
+      <c r="H59" s="128">
         <v>-7.8299999999999995E-2</v>
       </c>
-      <c r="I59" s="128">
+      <c r="I59" s="94">
         <v>-2.2200000000000001E-2</v>
       </c>
-      <c r="J59" s="124">
+      <c r="J59" s="91">
         <f>AVERAGE(ABS(L59),ABS(N59))</f>
         <v>0.1135</v>
       </c>
-      <c r="K59" s="61">
+      <c r="K59" s="128">
         <v>-0.1108</v>
       </c>
       <c r="L59" s="52">
         <v>-0.19670000000000001</v>
       </c>
-      <c r="M59" s="61">
+      <c r="M59" s="128">
         <v>-8.77E-2</v>
       </c>
-      <c r="N59" s="128">
+      <c r="N59" s="94">
         <v>-3.0300000000000001E-2</v>
       </c>
-      <c r="O59" s="124">
+      <c r="O59" s="91">
         <f>AVERAGE(ABS(Q59),ABS(S59))</f>
         <v>7.9949999999999993E-2</v>
       </c>
       <c r="P59" s="52">
         <v>0.1069</v>
       </c>
-      <c r="Q59" s="61">
+      <c r="Q59" s="128">
         <v>-0.14069999999999999</v>
       </c>
-      <c r="R59" s="127">
+      <c r="R59" s="93">
         <v>-8.3299999999999999E-2</v>
       </c>
-      <c r="S59" s="62">
+      <c r="S59" s="135">
         <v>-1.9199999999999998E-2</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="103" t="s">
+      <c r="A60" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B60" s="92"/>
-      <c r="C60" s="103" t="s">
-        <v>45</v>
-      </c>
-      <c r="D60" s="92" t="s">
+      <c r="B60" s="85"/>
+      <c r="C60" s="101" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="E60" s="66" cm="1">
+      <c r="E60" s="60" cm="1">
         <f t="array" ref="E60">AVERAGE(ABS(F60:I60))</f>
         <v>0</v>
       </c>
@@ -5970,7 +6177,7 @@
       <c r="G60" s="46"/>
       <c r="H60" s="46"/>
       <c r="I60" s="42"/>
-      <c r="J60" s="66" cm="1">
+      <c r="J60" s="60" cm="1">
         <f t="array" ref="J60">AVERAGE(ABS(K60:N60))</f>
         <v>0</v>
       </c>
@@ -5978,7 +6185,7 @@
       <c r="L60" s="46"/>
       <c r="M60" s="46"/>
       <c r="N60" s="42"/>
-      <c r="O60" s="66" cm="1">
+      <c r="O60" s="60" cm="1">
         <f t="array" ref="O60">AVERAGE(ABS(P60:S60))</f>
         <v>0</v>
       </c>
@@ -5987,226 +6194,274 @@
       <c r="R60" s="46"/>
       <c r="S60" s="42"/>
     </row>
-    <row r="61" spans="1:19" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="101"/>
-      <c r="B61" s="93"/>
-      <c r="C61" s="101"/>
-      <c r="D61" s="93" t="s">
+    <row r="61" spans="1:19" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="102"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="102"/>
+      <c r="D61" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="E61" s="66" cm="1">
+      <c r="E61" s="60" cm="1">
         <f t="array" ref="E61">AVERAGE(ABS(F61:I61))</f>
         <v>0</v>
       </c>
-      <c r="F61" s="95"/>
-      <c r="G61" s="95"/>
-      <c r="H61" s="95"/>
+      <c r="F61" s="88"/>
+      <c r="G61" s="88"/>
+      <c r="H61" s="88"/>
       <c r="I61" s="36"/>
-      <c r="J61" s="66" cm="1">
+      <c r="J61" s="60" cm="1">
         <f t="array" ref="J61">AVERAGE(ABS(K61:N61))</f>
         <v>0</v>
       </c>
-      <c r="K61" s="95"/>
-      <c r="L61" s="95"/>
-      <c r="M61" s="95"/>
+      <c r="K61" s="88"/>
+      <c r="L61" s="88"/>
+      <c r="M61" s="88"/>
       <c r="N61" s="36"/>
-      <c r="O61" s="66" cm="1">
+      <c r="O61" s="60" cm="1">
         <f t="array" ref="O61">AVERAGE(ABS(P61:S61))</f>
         <v>0</v>
       </c>
-      <c r="P61" s="95"/>
-      <c r="Q61" s="95"/>
-      <c r="R61" s="95"/>
+      <c r="P61" s="88"/>
+      <c r="Q61" s="88"/>
+      <c r="R61" s="88"/>
       <c r="S61" s="36"/>
     </row>
-    <row r="62" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="101"/>
-      <c r="B62" s="105" t="s">
+    <row r="62" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="102"/>
+      <c r="B62" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="101"/>
+      <c r="C62" s="102"/>
       <c r="D62" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="67" cm="1">
+      <c r="E62" s="61" cm="1">
         <f t="array" ref="E62">AVERAGE(ABS(F62:I62))</f>
-        <v>0</v>
-      </c>
-      <c r="F62" s="95"/>
-      <c r="G62" s="95"/>
-      <c r="H62" s="95"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="67" cm="1">
+        <v>0.15140000000000001</v>
+      </c>
+      <c r="F62" s="88">
+        <v>-0.23910000000000001</v>
+      </c>
+      <c r="G62" s="88">
+        <v>-3.15E-2</v>
+      </c>
+      <c r="H62" s="88">
+        <v>-0.14319999999999999</v>
+      </c>
+      <c r="I62" s="36">
+        <v>-0.1918</v>
+      </c>
+      <c r="J62" s="61" cm="1">
         <f t="array" ref="J62">AVERAGE(ABS(K62:N62))</f>
-        <v>0</v>
-      </c>
-      <c r="K62" s="95"/>
-      <c r="L62" s="95"/>
-      <c r="M62" s="95"/>
-      <c r="N62" s="36"/>
-      <c r="O62" s="67" cm="1">
+        <v>0.226825</v>
+      </c>
+      <c r="K62" s="88">
+        <v>-0.31780000000000003</v>
+      </c>
+      <c r="L62" s="88">
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="M62" s="88">
+        <v>-0.2225</v>
+      </c>
+      <c r="N62" s="36">
+        <v>-0.32079999999999997</v>
+      </c>
+      <c r="O62" s="61" cm="1">
         <f t="array" ref="O62">AVERAGE(ABS(P62:S62))</f>
-        <v>0</v>
-      </c>
-      <c r="P62" s="74"/>
-      <c r="Q62" s="74"/>
-      <c r="R62" s="74"/>
-      <c r="S62" s="75"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A63" s="101"/>
-      <c r="B63" s="129"/>
-      <c r="C63" s="101"/>
+        <v>0.17682500000000001</v>
+      </c>
+      <c r="P62" s="67">
+        <v>-0.23730000000000001</v>
+      </c>
+      <c r="Q62" s="67">
+        <v>-0.18540000000000001</v>
+      </c>
+      <c r="R62" s="67">
+        <v>-0.12839999999999999</v>
+      </c>
+      <c r="S62" s="68">
+        <v>-0.15620000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" s="102"/>
+      <c r="B63" s="99"/>
+      <c r="C63" s="102"/>
       <c r="D63" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E63" s="66" cm="1">
+      <c r="E63" s="60" cm="1">
         <f t="array" ref="E63">AVERAGE(ABS(F63:I63))</f>
-        <v>0</v>
-      </c>
-      <c r="F63" s="50"/>
-      <c r="G63" s="50"/>
-      <c r="H63" s="50"/>
-      <c r="I63" s="37"/>
-      <c r="J63" s="63" cm="1">
+        <v>0.14297499999999999</v>
+      </c>
+      <c r="F63" s="50">
+        <v>-0.2334</v>
+      </c>
+      <c r="G63" s="50">
+        <v>-5.21E-2</v>
+      </c>
+      <c r="H63" s="50">
+        <v>-0.14660000000000001</v>
+      </c>
+      <c r="I63" s="37">
+        <v>-0.13980000000000001</v>
+      </c>
+      <c r="J63" s="57" cm="1">
         <f t="array" ref="J63">AVERAGE(ABS(K63:N63))</f>
-        <v>0</v>
-      </c>
-      <c r="K63" s="50"/>
-      <c r="L63" s="50"/>
-      <c r="M63" s="50"/>
-      <c r="N63" s="37"/>
-      <c r="O63" s="63" cm="1">
+        <v>0.18742499999999998</v>
+      </c>
+      <c r="K63" s="50">
+        <v>-0.3362</v>
+      </c>
+      <c r="L63" s="50">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="M63" s="50">
+        <v>-0.2034</v>
+      </c>
+      <c r="N63" s="37">
+        <v>-0.1857</v>
+      </c>
+      <c r="O63" s="57" cm="1">
         <f t="array" ref="O63">AVERAGE(ABS(P63:S63))</f>
-        <v>0</v>
-      </c>
-      <c r="P63" s="47"/>
-      <c r="Q63" s="47"/>
-      <c r="R63" s="47"/>
-      <c r="S63" s="45"/>
-    </row>
-    <row r="64" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="101"/>
-      <c r="B64" s="129"/>
-      <c r="C64" s="99" t="s">
-        <v>46</v>
-      </c>
-      <c r="D64" s="93" t="s">
+        <v>0.21174999999999999</v>
+      </c>
+      <c r="P63" s="47">
+        <v>-0.2752</v>
+      </c>
+      <c r="Q63" s="47">
+        <v>-0.2072</v>
+      </c>
+      <c r="R63" s="47">
+        <v>-0.18659999999999999</v>
+      </c>
+      <c r="S63" s="45">
+        <v>-0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="102"/>
+      <c r="B64" s="99"/>
+      <c r="C64" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="E64" s="66" cm="1">
+      <c r="E64" s="60" cm="1">
         <f t="array" ref="E64">AVERAGE(ABS(F64:I64))</f>
         <v>0</v>
       </c>
-      <c r="F64" s="56"/>
-      <c r="G64" s="56"/>
-      <c r="H64" s="56"/>
-      <c r="I64" s="57"/>
-      <c r="J64" s="66" cm="1">
+      <c r="F64" s="53"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="60" cm="1">
         <f t="array" ref="J64">AVERAGE(ABS(K64:N64))</f>
         <v>0</v>
       </c>
-      <c r="K64" s="56"/>
-      <c r="L64" s="56"/>
-      <c r="M64" s="56"/>
-      <c r="N64" s="57"/>
-      <c r="O64" s="66" cm="1">
+      <c r="K64" s="53"/>
+      <c r="L64" s="53"/>
+      <c r="M64" s="53"/>
+      <c r="N64" s="54"/>
+      <c r="O64" s="60" cm="1">
         <f t="array" ref="O64">AVERAGE(ABS(P64:S64))</f>
         <v>0</v>
       </c>
-      <c r="P64" s="76"/>
-      <c r="Q64" s="76"/>
-      <c r="R64" s="76"/>
-      <c r="S64" s="77"/>
-    </row>
-    <row r="65" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="101"/>
-      <c r="B65" s="129"/>
-      <c r="C65" s="99"/>
-      <c r="D65" s="93" t="s">
+      <c r="P64" s="69"/>
+      <c r="Q64" s="69"/>
+      <c r="R64" s="69"/>
+      <c r="S64" s="70"/>
+    </row>
+    <row r="65" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="102"/>
+      <c r="B65" s="99"/>
+      <c r="C65" s="103"/>
+      <c r="D65" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="E65" s="66" cm="1">
+      <c r="E65" s="60" cm="1">
         <f t="array" ref="E65">AVERAGE(ABS(F65:I65))</f>
         <v>0</v>
       </c>
-      <c r="F65" s="59"/>
-      <c r="G65" s="59"/>
-      <c r="H65" s="59"/>
-      <c r="I65" s="60"/>
-      <c r="J65" s="66" cm="1">
+      <c r="F65" s="55"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="56"/>
+      <c r="J65" s="60" cm="1">
         <f t="array" ref="J65">AVERAGE(ABS(K65:N65))</f>
         <v>0</v>
       </c>
-      <c r="K65" s="59"/>
-      <c r="L65" s="59"/>
-      <c r="M65" s="59"/>
-      <c r="N65" s="60"/>
-      <c r="O65" s="66" cm="1">
+      <c r="K65" s="55"/>
+      <c r="L65" s="55"/>
+      <c r="M65" s="55"/>
+      <c r="N65" s="56"/>
+      <c r="O65" s="60" cm="1">
         <f t="array" ref="O65">AVERAGE(ABS(P65:S65))</f>
         <v>0</v>
       </c>
-      <c r="P65" s="74"/>
-      <c r="Q65" s="74"/>
-      <c r="R65" s="74"/>
-      <c r="S65" s="75"/>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A66" s="101"/>
-      <c r="B66" s="129"/>
-      <c r="C66" s="99"/>
-      <c r="D66" s="93" t="s">
+      <c r="P65" s="67"/>
+      <c r="Q65" s="67"/>
+      <c r="R65" s="67"/>
+      <c r="S65" s="68"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" s="102"/>
+      <c r="B66" s="99"/>
+      <c r="C66" s="103"/>
+      <c r="D66" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="E66" s="68" cm="1">
+      <c r="E66" s="129" cm="1">
         <f t="array" ref="E66">AVERAGE(ABS(F66:I66))</f>
         <v>0</v>
       </c>
-      <c r="F66" s="59"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="59"/>
-      <c r="I66" s="60"/>
-      <c r="J66" s="58" cm="1">
+      <c r="F66" s="127"/>
+      <c r="G66" s="127"/>
+      <c r="H66" s="127"/>
+      <c r="I66" s="130"/>
+      <c r="J66" s="131" cm="1">
         <f t="array" ref="J66">AVERAGE(ABS(K66:N66))</f>
         <v>0</v>
       </c>
-      <c r="K66" s="59"/>
-      <c r="L66" s="59"/>
-      <c r="M66" s="59"/>
-      <c r="N66" s="60"/>
-      <c r="O66" s="66" cm="1">
+      <c r="K66" s="127"/>
+      <c r="L66" s="127"/>
+      <c r="M66" s="127"/>
+      <c r="N66" s="130"/>
+      <c r="O66" s="60" cm="1">
         <f t="array" ref="O66">AVERAGE(ABS(P66:S66))</f>
         <v>0</v>
       </c>
-      <c r="P66" s="74"/>
-      <c r="Q66" s="74"/>
-      <c r="R66" s="74"/>
-      <c r="S66" s="75"/>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A67" s="101"/>
-      <c r="B67" s="129"/>
-      <c r="C67" s="99"/>
-      <c r="D67" s="93" t="s">
+      <c r="P66" s="67"/>
+      <c r="Q66" s="67"/>
+      <c r="R66" s="67"/>
+      <c r="S66" s="68"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" s="102"/>
+      <c r="B67" s="99"/>
+      <c r="C67" s="103"/>
+      <c r="D67" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="E67" s="53" cm="1">
+      <c r="E67" s="134" cm="1">
         <f t="array" ref="E67">AVERAGE(ABS(F67:I67))</f>
         <v>0</v>
       </c>
-      <c r="F67" s="54"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="54"/>
-      <c r="I67" s="55"/>
-      <c r="J67" s="53" cm="1">
+      <c r="F67" s="132"/>
+      <c r="G67" s="132"/>
+      <c r="H67" s="132"/>
+      <c r="I67" s="133"/>
+      <c r="J67" s="134" cm="1">
         <f t="array" ref="J67">AVERAGE(ABS(K67:N67))</f>
         <v>0</v>
       </c>
-      <c r="K67" s="54"/>
-      <c r="L67" s="54"/>
-      <c r="M67" s="54"/>
-      <c r="N67" s="55"/>
-      <c r="O67" s="66" cm="1">
+      <c r="K67" s="132"/>
+      <c r="L67" s="132"/>
+      <c r="M67" s="132"/>
+      <c r="N67" s="133"/>
+      <c r="O67" s="60" cm="1">
         <f t="array" ref="O67">AVERAGE(ABS(P67:S67))</f>
         <v>0</v>
       </c>
@@ -6215,16 +6470,16 @@
       <c r="R67" s="47"/>
       <c r="S67" s="45"/>
     </row>
-    <row r="68" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="101"/>
-      <c r="B68" s="129"/>
-      <c r="C68" s="99" t="s">
-        <v>47</v>
-      </c>
-      <c r="D68" s="93" t="s">
+    <row r="68" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="102"/>
+      <c r="B68" s="99"/>
+      <c r="C68" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="D68" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="E68" s="66" cm="1">
+      <c r="E68" s="60" cm="1">
         <f t="array" ref="E68">AVERAGE(ABS(F68:I68))</f>
         <v>0</v>
       </c>
@@ -6232,7 +6487,7 @@
       <c r="G68" s="49"/>
       <c r="H68" s="49"/>
       <c r="I68" s="44"/>
-      <c r="J68" s="66" cm="1">
+      <c r="J68" s="60" cm="1">
         <f t="array" ref="J68">AVERAGE(ABS(K68:N68))</f>
         <v>0</v>
       </c>
@@ -6240,87 +6495,87 @@
       <c r="L68" s="49"/>
       <c r="M68" s="49"/>
       <c r="N68" s="44"/>
-      <c r="O68" s="66" cm="1">
+      <c r="O68" s="60" cm="1">
         <f t="array" ref="O68">AVERAGE(ABS(P68:S68))</f>
         <v>0</v>
       </c>
-      <c r="P68" s="56"/>
-      <c r="Q68" s="56"/>
-      <c r="R68" s="56"/>
-      <c r="S68" s="57"/>
-    </row>
-    <row r="69" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="101"/>
-      <c r="B69" s="129"/>
-      <c r="C69" s="99"/>
-      <c r="D69" s="93" t="s">
+      <c r="P68" s="53"/>
+      <c r="Q68" s="53"/>
+      <c r="R68" s="53"/>
+      <c r="S68" s="54"/>
+    </row>
+    <row r="69" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="102"/>
+      <c r="B69" s="99"/>
+      <c r="C69" s="103"/>
+      <c r="D69" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="E69" s="66" cm="1">
+      <c r="E69" s="60" cm="1">
         <f t="array" ref="E69">AVERAGE(ABS(F69:I69))</f>
         <v>0</v>
       </c>
-      <c r="F69" s="95"/>
-      <c r="G69" s="95"/>
-      <c r="H69" s="95"/>
+      <c r="F69" s="88"/>
+      <c r="G69" s="88"/>
+      <c r="H69" s="88"/>
       <c r="I69" s="36"/>
-      <c r="J69" s="66" cm="1">
+      <c r="J69" s="60" cm="1">
         <f t="array" ref="J69">AVERAGE(ABS(K69:N69))</f>
         <v>0</v>
       </c>
-      <c r="K69" s="95"/>
-      <c r="L69" s="95"/>
-      <c r="M69" s="95"/>
+      <c r="K69" s="88"/>
+      <c r="L69" s="88"/>
+      <c r="M69" s="88"/>
       <c r="N69" s="36"/>
-      <c r="O69" s="66" cm="1">
+      <c r="O69" s="60" cm="1">
         <f t="array" ref="O69">AVERAGE(ABS(P69:S69))</f>
         <v>0</v>
       </c>
-      <c r="P69" s="59"/>
-      <c r="Q69" s="59"/>
-      <c r="R69" s="59"/>
-      <c r="S69" s="60"/>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A70" s="101"/>
-      <c r="B70" s="129"/>
-      <c r="C70" s="99"/>
+      <c r="P69" s="55"/>
+      <c r="Q69" s="55"/>
+      <c r="R69" s="55"/>
+      <c r="S69" s="56"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" s="102"/>
+      <c r="B70" s="99"/>
+      <c r="C70" s="103"/>
       <c r="D70" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E70" s="66" cm="1">
+      <c r="E70" s="60" cm="1">
         <f t="array" ref="E70">AVERAGE(ABS(F70:I70))</f>
         <v>0</v>
       </c>
-      <c r="F70" s="95"/>
-      <c r="G70" s="95"/>
-      <c r="H70" s="95"/>
+      <c r="F70" s="88"/>
+      <c r="G70" s="88"/>
+      <c r="H70" s="88"/>
       <c r="I70" s="36"/>
-      <c r="J70" s="66" cm="1">
+      <c r="J70" s="60" cm="1">
         <f t="array" ref="J70">AVERAGE(ABS(K70:N70))</f>
         <v>0</v>
       </c>
-      <c r="K70" s="95"/>
-      <c r="L70" s="95"/>
-      <c r="M70" s="95"/>
+      <c r="K70" s="88"/>
+      <c r="L70" s="88"/>
+      <c r="M70" s="88"/>
       <c r="N70" s="36"/>
-      <c r="O70" s="68" cm="1">
+      <c r="O70" s="129" cm="1">
         <f t="array" ref="O70">AVERAGE(ABS(P70:S70))</f>
         <v>0</v>
       </c>
-      <c r="P70" s="59"/>
-      <c r="Q70" s="59"/>
-      <c r="R70" s="59"/>
-      <c r="S70" s="60"/>
-    </row>
-    <row r="71" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="101"/>
-      <c r="B71" s="129"/>
-      <c r="C71" s="99"/>
-      <c r="D71" s="93" t="s">
+      <c r="P70" s="127"/>
+      <c r="Q70" s="127"/>
+      <c r="R70" s="127"/>
+      <c r="S70" s="130"/>
+    </row>
+    <row r="71" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="102"/>
+      <c r="B71" s="99"/>
+      <c r="C71" s="103"/>
+      <c r="D71" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="E71" s="66" cm="1">
+      <c r="E71" s="60" cm="1">
         <f t="array" ref="E71">AVERAGE(ABS(F71:I71))</f>
         <v>0</v>
       </c>
@@ -6328,7 +6583,7 @@
       <c r="G71" s="50"/>
       <c r="H71" s="50"/>
       <c r="I71" s="37"/>
-      <c r="J71" s="63" cm="1">
+      <c r="J71" s="57" cm="1">
         <f t="array" ref="J71">AVERAGE(ABS(K71:N71))</f>
         <v>0</v>
       </c>
@@ -6336,186 +6591,186 @@
       <c r="L71" s="50"/>
       <c r="M71" s="50"/>
       <c r="N71" s="37"/>
-      <c r="O71" s="53" cm="1">
+      <c r="O71" s="134" cm="1">
         <f t="array" ref="O71">AVERAGE(ABS(P71:S71))</f>
         <v>0</v>
       </c>
-      <c r="P71" s="54"/>
-      <c r="Q71" s="54"/>
-      <c r="R71" s="54"/>
-      <c r="S71" s="55"/>
-    </row>
-    <row r="72" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="101"/>
-      <c r="B72" s="129"/>
-      <c r="C72" s="99" t="s">
-        <v>48</v>
-      </c>
-      <c r="D72" s="93" t="s">
+      <c r="P71" s="132"/>
+      <c r="Q71" s="132"/>
+      <c r="R71" s="132"/>
+      <c r="S71" s="133"/>
+    </row>
+    <row r="72" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="102"/>
+      <c r="B72" s="99"/>
+      <c r="C72" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="D72" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="E72" s="66" cm="1">
+      <c r="E72" s="60" cm="1">
         <f t="array" ref="E72">AVERAGE(ABS(F72:I72))</f>
         <v>0</v>
       </c>
-      <c r="F72" s="56"/>
+      <c r="F72" s="53"/>
       <c r="G72" s="49"/>
-      <c r="H72" s="56"/>
+      <c r="H72" s="53"/>
       <c r="I72" s="44"/>
-      <c r="J72" s="66" cm="1">
+      <c r="J72" s="60" cm="1">
         <f t="array" ref="J72">AVERAGE(ABS(K72:N72))</f>
         <v>0</v>
       </c>
-      <c r="K72" s="56"/>
+      <c r="K72" s="53"/>
       <c r="L72" s="49"/>
-      <c r="M72" s="56"/>
+      <c r="M72" s="53"/>
       <c r="N72" s="44"/>
-      <c r="O72" s="66" cm="1">
+      <c r="O72" s="60" cm="1">
         <f t="array" ref="O72">AVERAGE(ABS(P72:S72))</f>
         <v>0</v>
       </c>
       <c r="P72" s="49"/>
-      <c r="Q72" s="56"/>
+      <c r="Q72" s="53"/>
       <c r="R72" s="49"/>
-      <c r="S72" s="57"/>
-    </row>
-    <row r="73" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="101"/>
-      <c r="B73" s="129"/>
-      <c r="C73" s="99"/>
-      <c r="D73" s="93" t="s">
+      <c r="S72" s="54"/>
+    </row>
+    <row r="73" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="102"/>
+      <c r="B73" s="99"/>
+      <c r="C73" s="103"/>
+      <c r="D73" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="E73" s="66" cm="1">
+      <c r="E73" s="60" cm="1">
         <f t="array" ref="E73">AVERAGE(ABS(F73:I73))</f>
         <v>0</v>
       </c>
-      <c r="F73" s="59"/>
-      <c r="G73" s="95"/>
-      <c r="H73" s="59"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="88"/>
+      <c r="H73" s="55"/>
       <c r="I73" s="36"/>
-      <c r="J73" s="66" cm="1">
+      <c r="J73" s="60" cm="1">
         <f t="array" ref="J73">AVERAGE(ABS(K73:N73))</f>
         <v>0</v>
       </c>
-      <c r="K73" s="59"/>
-      <c r="L73" s="95"/>
-      <c r="M73" s="59"/>
+      <c r="K73" s="55"/>
+      <c r="L73" s="88"/>
+      <c r="M73" s="55"/>
       <c r="N73" s="36"/>
-      <c r="O73" s="66" cm="1">
+      <c r="O73" s="60" cm="1">
         <f t="array" ref="O73">AVERAGE(ABS(P73:S73))</f>
         <v>0</v>
       </c>
-      <c r="P73" s="95"/>
-      <c r="Q73" s="59"/>
-      <c r="R73" s="95"/>
-      <c r="S73" s="60"/>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A74" s="101"/>
-      <c r="B74" s="129"/>
-      <c r="C74" s="99"/>
+      <c r="P73" s="88"/>
+      <c r="Q73" s="55"/>
+      <c r="R73" s="88"/>
+      <c r="S73" s="56"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" s="102"/>
+      <c r="B74" s="99"/>
+      <c r="C74" s="103"/>
       <c r="D74" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E74" s="65">
+      <c r="E74" s="59">
         <f>AVERAGE(ABS(G74),ABS(I74))</f>
         <v>0</v>
       </c>
-      <c r="F74" s="59"/>
-      <c r="G74" s="95"/>
-      <c r="H74" s="59"/>
+      <c r="F74" s="127"/>
+      <c r="G74" s="88"/>
+      <c r="H74" s="127"/>
       <c r="I74" s="36"/>
-      <c r="J74" s="65">
+      <c r="J74" s="59">
         <f>AVERAGE(ABS(L74),ABS(N74))</f>
         <v>0</v>
       </c>
-      <c r="K74" s="59"/>
-      <c r="L74" s="95"/>
-      <c r="M74" s="59"/>
+      <c r="K74" s="127"/>
+      <c r="L74" s="88"/>
+      <c r="M74" s="127"/>
       <c r="N74" s="36"/>
-      <c r="O74" s="65">
+      <c r="O74" s="59">
         <f>AVERAGE(ABS(Q74),ABS(S74))</f>
         <v>0</v>
       </c>
-      <c r="P74" s="95"/>
-      <c r="Q74" s="59"/>
-      <c r="R74" s="95"/>
-      <c r="S74" s="60"/>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A75" s="101"/>
-      <c r="B75" s="103"/>
-      <c r="C75" s="104"/>
-      <c r="D75" s="93" t="s">
+      <c r="P74" s="88"/>
+      <c r="Q74" s="127"/>
+      <c r="R74" s="88"/>
+      <c r="S74" s="130"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" s="102"/>
+      <c r="B75" s="101"/>
+      <c r="C75" s="105"/>
+      <c r="D75" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="E75" s="66">
+      <c r="E75" s="60">
         <f>AVERAGE(ABS(G75),ABS(I75))</f>
         <v>0</v>
       </c>
-      <c r="F75" s="54"/>
+      <c r="F75" s="132"/>
       <c r="G75" s="50"/>
-      <c r="H75" s="54"/>
+      <c r="H75" s="132"/>
       <c r="I75" s="37"/>
-      <c r="J75" s="63">
+      <c r="J75" s="57">
         <f>AVERAGE(ABS(L75),ABS(N75))</f>
         <v>0</v>
       </c>
-      <c r="K75" s="54"/>
+      <c r="K75" s="132"/>
       <c r="L75" s="50"/>
-      <c r="M75" s="54"/>
+      <c r="M75" s="132"/>
       <c r="N75" s="37"/>
-      <c r="O75" s="63">
+      <c r="O75" s="57">
         <f>AVERAGE(ABS(Q75),ABS(S75))</f>
         <v>0</v>
       </c>
       <c r="P75" s="50"/>
-      <c r="Q75" s="54"/>
+      <c r="Q75" s="132"/>
       <c r="R75" s="50"/>
-      <c r="S75" s="55"/>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C76" s="80"/>
-      <c r="E76" s="133"/>
+      <c r="S75" s="133"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C76" s="73"/>
+      <c r="E76" s="97"/>
       <c r="I76" s="49"/>
-      <c r="J76" s="133"/>
+      <c r="J76" s="97"/>
       <c r="N76" s="49"/>
-      <c r="O76" s="133"/>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D77" s="95"/>
-      <c r="E77" s="132"/>
-      <c r="F77" s="95"/>
-      <c r="I77" s="95"/>
-      <c r="J77" s="132"/>
-      <c r="M77" s="95"/>
-      <c r="N77" s="95"/>
-      <c r="O77" s="132"/>
-      <c r="R77" s="95"/>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D78" s="95"/>
-      <c r="E78" s="132"/>
-      <c r="G78" s="95"/>
-      <c r="J78" s="132"/>
-      <c r="O78" s="132"/>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D79" s="95"/>
-      <c r="E79" s="95"/>
-      <c r="G79" s="95"/>
-      <c r="O79" s="95"/>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O76" s="97"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D77" s="88"/>
+      <c r="E77" s="96"/>
+      <c r="F77" s="88"/>
+      <c r="I77" s="88"/>
+      <c r="J77" s="96"/>
+      <c r="M77" s="88"/>
+      <c r="N77" s="88"/>
+      <c r="O77" s="96"/>
+      <c r="R77" s="88"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D78" s="88"/>
+      <c r="E78" s="96"/>
+      <c r="G78" s="88"/>
+      <c r="J78" s="96"/>
+      <c r="O78" s="96"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D79" s="88"/>
+      <c r="E79" s="88"/>
+      <c r="G79" s="88"/>
+      <c r="O79" s="88"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O80" s="40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T80" s="40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.25">
       <c r="M81" s="40">
         <v>100</v>
       </c>
@@ -6528,125 +6783,124 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.25">
       <c r="M82" s="40">
         <v>75</v>
       </c>
       <c r="S82" s="40" t="e">
-        <f t="shared" ref="S82:S86" si="7">AVERAGE(O82:R82)</f>
+        <f t="shared" ref="S82:S86" si="9">AVERAGE(O82:R82)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="X82" s="40" t="e">
-        <f t="shared" ref="X82:X86" si="8">AVERAGE(T82:W82)</f>
+        <f t="shared" ref="X82:X86" si="10">AVERAGE(T82:W82)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:24" x14ac:dyDescent="0.25">
       <c r="M83" s="40">
         <v>50</v>
       </c>
       <c r="S83" s="40" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X83" s="40" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.25">
       <c r="M84" s="40">
         <v>25</v>
       </c>
       <c r="S84" s="40" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X84" s="40" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:24" x14ac:dyDescent="0.25">
       <c r="M85" s="40">
         <v>10</v>
       </c>
       <c r="S85" s="40" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X85" s="40" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:24" x14ac:dyDescent="0.25">
       <c r="M86" s="40">
         <v>1</v>
       </c>
       <c r="S86" s="40" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X86" s="40" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C89" s="40"/>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C90" s="40"/>
     </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C91" s="40"/>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C92" s="40"/>
     </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C93" s="40"/>
     </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C94" s="40"/>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C95" s="40"/>
     </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C96" s="40"/>
     </row>
-    <row r="97" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="B46:B59"/>
-    <mergeCell ref="B62:B75"/>
-    <mergeCell ref="A60:A75"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A20"/>
-    <mergeCell ref="A21:A36"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A59"/>
+  <mergeCells count="40">
+    <mergeCell ref="Q5:S11"/>
+    <mergeCell ref="B44:B59"/>
+    <mergeCell ref="B21:B36"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B5:B20"/>
     <mergeCell ref="O42:S42"/>
     <mergeCell ref="C44:C47"/>
     <mergeCell ref="E42:I42"/>
@@ -6659,18 +6913,20 @@
     <mergeCell ref="J3:N3"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="D42:D43"/>
-    <mergeCell ref="B21:B36"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B7:B20"/>
-    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A20"/>
+    <mergeCell ref="A21:A36"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A59"/>
+    <mergeCell ref="B62:B75"/>
+    <mergeCell ref="A60:A75"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C72:C75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -6685,25 +6941,25 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="4"/>
-    <col min="2" max="2" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="4"/>
-    <col min="4" max="4" width="21.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="21.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="4"/>
-    <col min="7" max="7" width="28.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="4"/>
+    <col min="7" max="7" width="28.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="4"/>
+    <col min="14" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -6714,59 +6970,59 @@
       <c r="I1" s="14"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="97" t="s">
+      <c r="D2" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="97" t="s">
+      <c r="E2" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="97" t="s">
+      <c r="F2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="115" t="s">
+      <c r="G2" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="115" t="s">
+      <c r="I2" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="122" t="s">
+      <c r="J2" s="121" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="O2" s="19"/>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
-      <c r="B3" s="120"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="123"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="122"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="O3" s="19"/>
     </row>
-    <row r="4" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="107" t="s">
+    <row r="4" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="80" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="10">
@@ -6782,7 +7038,7 @@
         <v>19</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H4" s="29">
         <v>1E-10</v>
@@ -6791,14 +7047,14 @@
         <v>64</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="O4" s="19"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="108"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="110"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -6814,16 +7070,16 @@
       <c r="F5" s="3">
         <v>0.5</v>
       </c>
-      <c r="G5" s="69"/>
+      <c r="G5" s="62"/>
       <c r="H5" s="29"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="84"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="O5" s="19"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="108"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="110"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -6855,8 +7111,8 @@
       <c r="L6" s="6"/>
       <c r="O6" s="19"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="108"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="110"/>
       <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
@@ -6888,8 +7144,8 @@
       <c r="L7" s="6"/>
       <c r="O7" s="19"/>
     </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="109"/>
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="111"/>
       <c r="B8" s="18" t="s">
         <v>16</v>
       </c>
@@ -6921,43 +7177,43 @@
       <c r="L8" s="6"/>
       <c r="O8" s="19"/>
     </row>
-    <row r="9" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="110" t="s">
+    <row r="9" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="86">
+      <c r="C9" s="79">
         <v>1</v>
       </c>
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="86" t="s">
+      <c r="E9" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="86" t="s">
+      <c r="F9" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="89" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="89">
+      <c r="G9" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="82">
         <v>1E-10</v>
       </c>
-      <c r="I9" s="86">
+      <c r="I9" s="79">
         <v>256</v>
       </c>
-      <c r="J9" s="90" t="s">
-        <v>53</v>
+      <c r="J9" s="83" t="s">
+        <v>51</v>
       </c>
       <c r="K9" s="21"/>
       <c r="L9" s="6"/>
       <c r="O9" s="19"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="108"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="110"/>
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
@@ -6982,8 +7238,8 @@
       <c r="M10" s="6"/>
       <c r="O10" s="19"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="108"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="110"/>
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
@@ -7016,8 +7272,8 @@
       <c r="M11" s="6"/>
       <c r="O11" s="19"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="108"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="110"/>
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
@@ -7050,8 +7306,8 @@
       <c r="M12" s="6"/>
       <c r="O12" s="19"/>
     </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="109"/>
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="111"/>
       <c r="B13" s="12" t="s">
         <v>16</v>
       </c>
@@ -7083,8 +7339,8 @@
       <c r="L13" s="6"/>
       <c r="O13" s="19"/>
     </row>
-    <row r="14" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -7097,7 +7353,7 @@
       <c r="J15" s="7"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -7111,60 +7367,60 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
-      <c r="B17" s="113" t="s">
+      <c r="B17" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="115" t="s">
+      <c r="C17" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="115" t="s">
+      <c r="D17" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="115" t="s">
+      <c r="E17" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="115" t="s">
+      <c r="F17" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="115" t="s">
+      <c r="G17" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="111" t="s">
+      <c r="H17" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="115" t="s">
+      <c r="I17" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="115" t="s">
+      <c r="J17" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="117" t="s">
+      <c r="K17" s="114" t="s">
         <v>10</v>
       </c>
       <c r="L17" s="21"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="118"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="115"/>
       <c r="L18" s="21"/>
     </row>
-    <row r="19" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="107" t="s">
+    <row r="19" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="79" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="10">
@@ -7179,24 +7435,24 @@
       <c r="F19" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="91" t="s">
-        <v>50</v>
+      <c r="G19" s="84" t="s">
+        <v>48</v>
       </c>
       <c r="H19" s="29">
         <v>1E-10</v>
       </c>
-      <c r="I19" s="91">
+      <c r="I19" s="84">
         <v>64</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19" s="85" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="108"/>
+        <v>49</v>
+      </c>
+      <c r="K19" s="78" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="110"/>
       <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
@@ -7219,8 +7475,8 @@
       <c r="K20" s="35"/>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="108"/>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="110"/>
       <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
@@ -7253,8 +7509,8 @@
       </c>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="108"/>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="110"/>
       <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
@@ -7286,8 +7542,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="109"/>
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="111"/>
       <c r="B23" s="13" t="s">
         <v>34</v>
       </c>
@@ -7319,43 +7575,43 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="107" t="s">
+    <row r="24" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="86" t="s">
+      <c r="B24" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="86">
+      <c r="C24" s="79">
         <v>1</v>
       </c>
-      <c r="D24" s="86" t="s">
+      <c r="D24" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="86" t="s">
+      <c r="E24" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="86" t="s">
+      <c r="F24" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="89" t="s">
-        <v>52</v>
-      </c>
-      <c r="H24" s="89">
+      <c r="G24" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="82">
         <v>1E-10</v>
       </c>
-      <c r="I24" s="86">
+      <c r="I24" s="79">
         <v>256</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="K24" s="88" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="108"/>
+        <v>49</v>
+      </c>
+      <c r="K24" s="81" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="110"/>
       <c r="B25" s="2" t="s">
         <v>32</v>
       </c>
@@ -7377,8 +7633,8 @@
       <c r="J25" s="34"/>
       <c r="K25" s="35"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="108"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="110"/>
       <c r="B26" s="2" t="s">
         <v>15</v>
       </c>
@@ -7410,8 +7666,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="108"/>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="110"/>
       <c r="B27" s="2" t="s">
         <v>33</v>
       </c>
@@ -7443,8 +7699,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="109"/>
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="111"/>
       <c r="B28" s="13" t="s">
         <v>34</v>
       </c>
@@ -7476,8 +7732,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -7491,11 +7747,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -7508,12 +7765,11 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="J17:J18"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="I17:I18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/experiments/all_results.xlsx
+++ b/experiments/all_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ancarey\PycharmProjects\adaptive-hypernets\experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alycia\Documents\adaptive-hypernets\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94144989-3448-42F1-BC52-8F06629341AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7C84B5-0FA1-4866-BA13-B198FDEA534B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="1710" windowWidth="15120" windowHeight="10845" tabRatio="665" firstSheet="2" activeTab="2" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="665" firstSheet="2" activeTab="2" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart2" sheetId="13" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="82">
   <si>
     <t>Model</t>
   </si>
@@ -221,13 +221,7 @@
     <t>eod</t>
   </si>
   <si>
-    <t>dp:100, eo: 50</t>
-  </si>
-  <si>
     <t>spd</t>
-  </si>
-  <si>
-    <t>dp:750, eo:</t>
   </si>
   <si>
     <t>8 min 17 sec</t>
@@ -277,6 +271,42 @@
   <si>
     <t>6 min 43 sec</t>
   </si>
+  <si>
+    <t>10 min 24 sec</t>
+  </si>
+  <si>
+    <t>12 min 48 sec</t>
+  </si>
+  <si>
+    <t>11 min 31 sec</t>
+  </si>
+  <si>
+    <t>7 min 26 sec</t>
+  </si>
+  <si>
+    <t>9 min 49 sec</t>
+  </si>
+  <si>
+    <t>8 min 54 sec</t>
+  </si>
+  <si>
+    <t>2 min 20 sec</t>
+  </si>
+  <si>
+    <t>4 min 58</t>
+  </si>
+  <si>
+    <t>7 min 7 sec</t>
+  </si>
+  <si>
+    <t>6 min 6 sec</t>
+  </si>
+  <si>
+    <t>dp:100, eo: 25</t>
+  </si>
+  <si>
+    <t>dp:25, eo: 200</t>
+  </si>
 </sst>
 </file>
 
@@ -302,18 +332,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -942,7 +966,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1068,9 +1092,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1096,18 +1117,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1233,19 +1242,49 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1257,8 +1296,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1320,40 +1377,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4052,2725 +4082,3165 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FA34C5-480C-4D1A-AC66-54DFEF26762F}">
   <dimension ref="A1:X109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T56" sqref="T56"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K71" sqref="K71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="40"/>
-    <col min="3" max="3" width="25" style="95" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="14" width="8.7109375" style="40" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.7109375" style="40" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" style="40" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="40"/>
+    <col min="1" max="2" width="9.109375" style="40"/>
+    <col min="3" max="3" width="25" style="90" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="8.6640625" style="40" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.6640625" style="40" customWidth="1"/>
+    <col min="18" max="18" width="10.5546875" style="40" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C1" s="108" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C1" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="108"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C2" s="58"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C2" s="53"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
       <c r="O2" s="38"/>
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
-      <c r="R2" s="88"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="R2" s="83"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="102" t="s">
+      <c r="D3" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="102" t="s">
+      <c r="E3" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102" t="s">
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="98" t="s">
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="88"/>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="106"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="87" t="s">
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="115"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="87" t="s">
+      <c r="F4" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="87" t="s">
+      <c r="I4" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="87" t="s">
+      <c r="J4" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="87" t="s">
+      <c r="L4" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="87" t="s">
+      <c r="M4" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="100"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-    </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101" t="s">
+      <c r="O4" s="116"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="47">
         <v>0.67800000000000005</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="45">
         <v>0.65</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="45">
         <v>0.65559999999999996</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="45">
         <v>0.6875</v>
       </c>
       <c r="I5" s="42">
         <v>0.73850000000000005</v>
       </c>
-      <c r="J5" s="48">
+      <c r="J5" s="47">
         <f t="shared" ref="J5" si="0">AVERAGE(K5:N5)</f>
         <v>0.56464999999999999</v>
       </c>
-      <c r="K5" s="46">
+      <c r="K5" s="45">
         <v>0.6986</v>
       </c>
-      <c r="L5" s="46">
+      <c r="L5" s="45">
         <v>0.63949999999999996</v>
       </c>
-      <c r="M5" s="46">
+      <c r="M5" s="45">
         <v>0.48720000000000002</v>
       </c>
       <c r="N5" s="42">
         <v>0.43330000000000002</v>
       </c>
       <c r="O5" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="136" t="s">
-        <v>67</v>
-      </c>
-      <c r="R5" s="136"/>
-      <c r="S5" s="136"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="102"/>
-      <c r="B6" s="99"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="117" t="s">
+        <v>65</v>
+      </c>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+    </row>
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="114"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
       <c r="I6" s="36"/>
       <c r="J6" s="38" t="e">
         <f t="shared" ref="J6" si="1">AVERAGE(K6:N6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
       <c r="N6" s="36"/>
       <c r="O6" s="36"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="136"/>
-      <c r="R6" s="136"/>
-      <c r="S6" s="136"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="102"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="86" t="s">
+      <c r="P6" s="83"/>
+      <c r="Q6" s="117"/>
+      <c r="R6" s="117"/>
+      <c r="S6" s="117"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="114"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="81" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="41">
         <v>0.68120000000000003</v>
       </c>
-      <c r="F7" s="74">
+      <c r="F7" s="69">
         <v>0.67220000000000002</v>
       </c>
-      <c r="G7" s="88">
+      <c r="G7" s="83">
         <v>0.63890000000000002</v>
       </c>
-      <c r="H7" s="88">
+      <c r="H7" s="83">
         <v>0.69530000000000003</v>
       </c>
-      <c r="I7" s="89">
+      <c r="I7" s="84">
         <v>0.73850000000000005</v>
       </c>
-      <c r="J7" s="60">
+      <c r="J7" s="55">
         <f>AVERAGE(K7:N7)</f>
         <v>0.57247499999999996</v>
       </c>
-      <c r="K7" s="88">
+      <c r="K7" s="83">
         <v>0.69110000000000005</v>
       </c>
-      <c r="L7" s="88">
+      <c r="L7" s="83">
         <v>0.62429999999999997</v>
       </c>
-      <c r="M7" s="88">
+      <c r="M7" s="83">
         <v>0.54120000000000001</v>
       </c>
-      <c r="N7" s="89">
+      <c r="N7" s="84">
         <v>0.43330000000000002</v>
       </c>
       <c r="O7" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="136"/>
-      <c r="R7" s="136"/>
-      <c r="S7" s="136"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="102"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="117"/>
+      <c r="R7" s="117"/>
+      <c r="S7" s="117"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="114"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="65">
+      <c r="E8" s="60">
         <v>0.69089999999999996</v>
       </c>
-      <c r="F8" s="71">
+      <c r="F8" s="66">
         <v>0.67220000000000002</v>
       </c>
-      <c r="G8" s="71">
+      <c r="G8" s="66">
         <v>0.65559999999999996</v>
       </c>
-      <c r="H8" s="71">
+      <c r="H8" s="66">
         <v>0.71879999999999999</v>
       </c>
-      <c r="I8" s="72">
+      <c r="I8" s="67">
         <v>0.73850000000000005</v>
       </c>
-      <c r="J8" s="64">
+      <c r="J8" s="59">
         <f>AVERAGE(K8:N8)</f>
         <v>0.58287500000000003</v>
       </c>
-      <c r="K8" s="71">
+      <c r="K8" s="66">
         <v>0.70050000000000001</v>
       </c>
-      <c r="L8" s="71">
+      <c r="L8" s="66">
         <v>0.64770000000000005</v>
       </c>
-      <c r="M8" s="71">
+      <c r="M8" s="66">
         <v>0.55000000000000004</v>
       </c>
-      <c r="N8" s="72">
+      <c r="N8" s="67">
         <v>0.43330000000000002</v>
       </c>
-      <c r="O8" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="136"/>
-      <c r="R8" s="136"/>
-      <c r="S8" s="136"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="102"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="103" t="s">
+      <c r="O8" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="117"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="117"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="114"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="47">
         <v>0.65529999999999999</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="48">
         <v>0.58889999999999998</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="48">
         <v>0.62219999999999998</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="48">
         <v>0.71089999999999998</v>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="43">
         <v>0.73850000000000005</v>
       </c>
-      <c r="J9" s="59">
+      <c r="J9" s="54">
         <f t="shared" ref="J9:J36" si="2">AVERAGE(K9:N9)</f>
         <v>0.56052500000000005</v>
       </c>
-      <c r="K9" s="49">
+      <c r="K9" s="48">
         <v>0.66359999999999997</v>
       </c>
-      <c r="L9" s="49">
+      <c r="L9" s="48">
         <v>0.61360000000000003</v>
       </c>
-      <c r="M9" s="49">
+      <c r="M9" s="48">
         <v>0.53159999999999996</v>
       </c>
-      <c r="N9" s="44">
+      <c r="N9" s="43">
         <v>0.43330000000000002</v>
       </c>
-      <c r="O9" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="136"/>
-      <c r="R9" s="136"/>
-      <c r="S9" s="136"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="102"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="86" t="s">
+      <c r="O9" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="117"/>
+    </row>
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="114"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
       <c r="I10" s="36"/>
-      <c r="J10" s="60" t="e">
+      <c r="J10" s="55" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
       <c r="N10" s="36"/>
       <c r="O10" s="36"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="136"/>
-      <c r="R10" s="136"/>
-      <c r="S10" s="136"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="102"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="86" t="s">
+      <c r="P10" s="83"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="114"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="66">
+      <c r="E11" s="61">
         <v>0.66500000000000004</v>
       </c>
-      <c r="F11" s="88">
+      <c r="F11" s="83">
         <v>0.59440000000000004</v>
       </c>
-      <c r="G11" s="74">
+      <c r="G11" s="69">
         <v>0.63329999999999997</v>
       </c>
-      <c r="H11" s="74">
+      <c r="H11" s="69">
         <v>0.73440000000000005</v>
       </c>
-      <c r="I11" s="89">
+      <c r="I11" s="84">
         <v>0.73850000000000005</v>
       </c>
-      <c r="J11" s="91">
+      <c r="J11" s="86">
         <f t="shared" si="2"/>
         <v>0.57979999999999998</v>
       </c>
-      <c r="K11" s="88">
+      <c r="K11" s="83">
         <v>0.64729999999999999</v>
       </c>
-      <c r="L11" s="74">
+      <c r="L11" s="69">
         <v>0.625</v>
       </c>
-      <c r="M11" s="74">
+      <c r="M11" s="69">
         <v>0.61360000000000003</v>
       </c>
-      <c r="N11" s="89">
+      <c r="N11" s="84">
         <v>0.43330000000000002</v>
       </c>
       <c r="O11" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="136"/>
-      <c r="R11" s="136"/>
-      <c r="S11" s="136"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="102"/>
-      <c r="B12" s="99"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="117"/>
+      <c r="R11" s="117"/>
+      <c r="S11" s="117"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="114"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="63">
+      <c r="E12" s="58">
         <v>0.66500000000000004</v>
       </c>
-      <c r="F12" s="75">
+      <c r="F12" s="70">
         <v>0.61109999999999998</v>
       </c>
-      <c r="G12" s="75">
+      <c r="G12" s="70">
         <v>0.62780000000000002</v>
       </c>
-      <c r="H12" s="50">
+      <c r="H12" s="49">
         <v>0.72660000000000002</v>
       </c>
       <c r="I12" s="37">
         <v>0.73080000000000001</v>
       </c>
-      <c r="J12" s="57">
+      <c r="J12" s="52">
         <f t="shared" si="2"/>
         <v>0.56640000000000001</v>
       </c>
-      <c r="K12" s="75">
+      <c r="K12" s="70">
         <v>0.65349999999999997</v>
       </c>
-      <c r="L12" s="50">
+      <c r="L12" s="49">
         <v>0.61709999999999998</v>
       </c>
-      <c r="M12" s="50">
+      <c r="M12" s="49">
         <v>0.58819999999999995</v>
       </c>
       <c r="N12" s="37">
         <v>0.40679999999999999</v>
       </c>
       <c r="O12" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="88"/>
-      <c r="R12" s="88"/>
-      <c r="S12" s="88"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="102"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="103" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" s="83"/>
+      <c r="Q12" s="83"/>
+      <c r="R12" s="83"/>
+      <c r="S12" s="83"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="114"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="86" t="s">
+      <c r="D13" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="47">
         <v>0.623</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13" s="48">
         <v>0.53890000000000005</v>
       </c>
-      <c r="G13" s="49">
+      <c r="G13" s="48">
         <v>0.63329999999999997</v>
       </c>
-      <c r="H13" s="49">
+      <c r="H13" s="48">
         <v>0.66410000000000002</v>
       </c>
-      <c r="I13" s="44">
+      <c r="I13" s="43">
         <v>0.68459999999999999</v>
       </c>
-      <c r="J13" s="59">
+      <c r="J13" s="54">
         <f t="shared" si="2"/>
         <v>0.50722500000000004</v>
       </c>
-      <c r="K13" s="49">
+      <c r="K13" s="48">
         <v>0.70040000000000002</v>
       </c>
-      <c r="L13" s="49">
+      <c r="L13" s="48">
         <v>0.6633</v>
       </c>
-      <c r="M13" s="49">
+      <c r="M13" s="48">
         <v>0.46910000000000002</v>
       </c>
-      <c r="N13" s="44">
+      <c r="N13" s="43">
         <v>0.1961</v>
       </c>
-      <c r="O13" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="P13" s="88"/>
-      <c r="Q13" s="88"/>
-      <c r="R13" s="88"/>
-      <c r="S13" s="88"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="102"/>
-      <c r="B14" s="99"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="86" t="s">
+      <c r="O13" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="83"/>
+    </row>
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="114"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
       <c r="I14" s="36"/>
-      <c r="J14" s="60" t="e">
+      <c r="J14" s="55" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
       <c r="N14" s="36"/>
       <c r="O14" s="36"/>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="88"/>
-      <c r="R14" s="88"/>
-      <c r="S14" s="88"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="102"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="86" t="s">
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="83"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="114"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="81" t="s">
         <v>39</v>
       </c>
       <c r="E15" s="41">
         <v>0.65210000000000001</v>
       </c>
-      <c r="F15" s="88">
+      <c r="F15" s="83">
         <v>0.57779999999999998</v>
       </c>
-      <c r="G15" s="74">
+      <c r="G15" s="69">
         <v>0.63890000000000002</v>
       </c>
-      <c r="H15" s="74">
+      <c r="H15" s="69">
         <v>0.74219999999999997</v>
       </c>
       <c r="I15" s="36">
         <v>0.68479999999999996</v>
       </c>
-      <c r="J15" s="60">
+      <c r="J15" s="55">
         <f t="shared" si="2"/>
         <v>0.49672499999999997</v>
       </c>
-      <c r="K15" s="74">
+      <c r="K15" s="69">
         <v>0.68310000000000004</v>
       </c>
-      <c r="L15" s="88">
+      <c r="L15" s="83">
         <v>0.61990000000000001</v>
       </c>
-      <c r="M15" s="74">
+      <c r="M15" s="69">
         <v>0.63739999999999997</v>
       </c>
       <c r="N15" s="36">
         <v>4.65E-2</v>
       </c>
       <c r="O15" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="P15" s="88"/>
-      <c r="Q15" s="88"/>
-      <c r="R15" s="88"/>
-      <c r="S15" s="88"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="102"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="83"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="114"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="63">
+      <c r="E16" s="58">
         <v>0.65369999999999995</v>
       </c>
-      <c r="F16" s="75">
+      <c r="F16" s="70">
         <v>0.62219999999999998</v>
       </c>
-      <c r="G16" s="50">
+      <c r="G16" s="49">
         <v>0.61670000000000003</v>
       </c>
-      <c r="H16" s="50">
+      <c r="H16" s="49">
         <v>0.70309999999999995</v>
       </c>
-      <c r="I16" s="76">
+      <c r="I16" s="71">
         <v>0.7</v>
       </c>
-      <c r="J16" s="64">
+      <c r="J16" s="59">
         <f t="shared" si="2"/>
         <v>0.51339999999999997</v>
       </c>
-      <c r="K16" s="50">
+      <c r="K16" s="49">
         <v>0.66339999999999999</v>
       </c>
-      <c r="L16" s="75">
+      <c r="L16" s="70">
         <v>0.66990000000000005</v>
       </c>
-      <c r="M16" s="50">
+      <c r="M16" s="49">
         <v>0.58699999999999997</v>
       </c>
-      <c r="N16" s="76">
+      <c r="N16" s="71">
         <v>0.1333</v>
       </c>
       <c r="O16" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="P16" s="88"/>
-      <c r="Q16" s="88"/>
-      <c r="R16" s="88"/>
-      <c r="S16" s="88"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="102"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="103" t="s">
+        <v>57</v>
+      </c>
+      <c r="P16" s="83"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="83"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="114"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="86" t="s">
+      <c r="D17" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="47">
         <v>0.64890000000000003</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="48">
         <v>0.58889999999999998</v>
       </c>
-      <c r="G17" s="49">
+      <c r="G17" s="48">
         <v>0.63329999999999997</v>
       </c>
-      <c r="H17" s="49">
+      <c r="H17" s="48">
         <v>0.71879999999999999</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="43">
         <v>0.68459999999999999</v>
       </c>
-      <c r="J17" s="60">
+      <c r="J17" s="55">
         <f t="shared" si="2"/>
         <v>0.44825000000000004</v>
       </c>
-      <c r="K17" s="49">
+      <c r="K17" s="48">
         <v>0.66059999999999997</v>
       </c>
-      <c r="L17" s="49">
+      <c r="L17" s="48">
         <v>0.57140000000000002</v>
       </c>
-      <c r="M17" s="49">
+      <c r="M17" s="48">
         <v>0.56100000000000005</v>
       </c>
-      <c r="N17" s="44">
+      <c r="N17" s="43">
         <v>0</v>
       </c>
-      <c r="O17" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="P17" s="88"/>
-      <c r="Q17" s="88"/>
-      <c r="R17" s="88"/>
-      <c r="S17" s="88"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="102"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="86" t="s">
+      <c r="O17" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="83"/>
+    </row>
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="114"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
       <c r="I18" s="36"/>
-      <c r="J18" s="60" t="e">
+      <c r="J18" s="55" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="88"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="88"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
       <c r="N18" s="36"/>
       <c r="O18" s="36"/>
-      <c r="P18" s="88"/>
-      <c r="Q18" s="88"/>
-      <c r="R18" s="88"/>
-      <c r="S18" s="88"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="102"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="86" t="s">
+      <c r="P18" s="83"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="83"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="114"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="83">
         <v>0.64239999999999997</v>
       </c>
-      <c r="F19" s="88">
+      <c r="F19" s="83">
         <v>0.58330000000000004</v>
       </c>
-      <c r="G19" s="88">
+      <c r="G19" s="83">
         <v>0.62780000000000002</v>
       </c>
-      <c r="H19" s="88">
+      <c r="H19" s="83">
         <v>0.72660000000000002</v>
       </c>
       <c r="I19" s="36">
         <v>0.66149999999999998</v>
       </c>
-      <c r="J19" s="60">
+      <c r="J19" s="55">
         <f t="shared" si="2"/>
         <v>0.46055000000000001</v>
       </c>
-      <c r="K19" s="88">
+      <c r="K19" s="83">
         <v>0.62309999999999999</v>
       </c>
-      <c r="L19" s="74">
+      <c r="L19" s="69">
         <v>0.5786</v>
       </c>
-      <c r="M19" s="88">
+      <c r="M19" s="83">
         <v>0.52049999999999996</v>
       </c>
-      <c r="N19" s="89">
+      <c r="N19" s="84">
         <v>0.12</v>
       </c>
       <c r="O19" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="P19" s="88"/>
-      <c r="Q19" s="88"/>
-      <c r="R19" s="88"/>
-      <c r="S19" s="88"/>
-    </row>
-    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="106"/>
-      <c r="B20" s="100"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="83"/>
+      <c r="S19" s="83"/>
+    </row>
+    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="115"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="92">
+      <c r="E20" s="87">
         <v>0.66180000000000005</v>
       </c>
-      <c r="F20" s="93">
+      <c r="F20" s="88">
         <v>0.60560000000000003</v>
       </c>
-      <c r="G20" s="93">
+      <c r="G20" s="88">
         <v>0.65</v>
       </c>
-      <c r="H20" s="93">
+      <c r="H20" s="88">
         <v>0.73440000000000005</v>
       </c>
-      <c r="I20" s="94">
+      <c r="I20" s="89">
         <v>0.68459999999999999</v>
       </c>
-      <c r="J20" s="64">
+      <c r="J20" s="86">
         <f t="shared" si="2"/>
         <v>0.45215</v>
       </c>
-      <c r="K20" s="93">
+      <c r="K20" s="88">
         <v>0.6502</v>
       </c>
-      <c r="L20" s="52">
+      <c r="L20" s="51">
         <v>0.57140000000000002</v>
       </c>
-      <c r="M20" s="93">
+      <c r="M20" s="88">
         <v>0.54049999999999998</v>
       </c>
-      <c r="N20" s="51">
+      <c r="N20" s="50">
         <v>4.65E-2</v>
       </c>
-      <c r="O20" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="88"/>
-      <c r="R20" s="88"/>
-      <c r="S20" s="88"/>
-    </row>
-    <row r="21" spans="1:19" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="101" t="s">
+      <c r="O20" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="83"/>
+      <c r="S20" s="83"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="107" t="s">
+      <c r="B21" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="101" t="s">
+      <c r="C21" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="85" t="s">
+      <c r="D21" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="57" t="e">
+      <c r="E21" s="47">
+        <v>0.78380000000000005</v>
+      </c>
+      <c r="F21" s="45">
+        <v>0.78069999999999995</v>
+      </c>
+      <c r="G21" s="45">
+        <v>0.78439999999999999</v>
+      </c>
+      <c r="H21" s="45">
+        <v>0.7883</v>
+      </c>
+      <c r="I21" s="42">
+        <v>0.77980000000000005</v>
+      </c>
+      <c r="J21" s="56">
+        <f t="shared" si="2"/>
+        <v>0.44640000000000002</v>
+      </c>
+      <c r="K21" s="45">
+        <v>0.59379999999999999</v>
+      </c>
+      <c r="L21" s="45">
+        <v>0.64510000000000001</v>
+      </c>
+      <c r="M21" s="45">
+        <v>0.35959999999999998</v>
+      </c>
+      <c r="N21" s="42">
+        <v>0.18709999999999999</v>
+      </c>
+      <c r="O21" s="42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="114"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="47"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="55" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-    </row>
-    <row r="22" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="102"/>
-      <c r="B22" s="99"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="86" t="s">
+      <c r="K22" s="83"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="114"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="41">
+        <v>0.8044</v>
+      </c>
+      <c r="F23" s="83">
+        <v>0.75729999999999997</v>
+      </c>
+      <c r="G23" s="83">
+        <v>0.79190000000000005</v>
+      </c>
+      <c r="H23" s="83">
+        <v>0.7944</v>
+      </c>
+      <c r="I23" s="36">
+        <v>0.82509999999999994</v>
+      </c>
+      <c r="J23" s="55">
+        <f t="shared" si="2"/>
+        <v>0.51902499999999996</v>
+      </c>
+      <c r="K23" s="83">
+        <v>0.52129999999999999</v>
+      </c>
+      <c r="L23" s="83">
+        <v>0.65629999999999999</v>
+      </c>
+      <c r="M23" s="83">
+        <v>0.40039999999999998</v>
+      </c>
+      <c r="N23" s="36">
+        <v>0.49809999999999999</v>
+      </c>
+      <c r="O23" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="R23" s="83"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="114"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="58">
+        <v>0.82530000000000003</v>
+      </c>
+      <c r="F24" s="70">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="G24" s="70">
+        <v>0.80789999999999995</v>
+      </c>
+      <c r="H24" s="70">
+        <v>0.83360000000000001</v>
+      </c>
+      <c r="I24" s="71">
+        <v>0.82609999999999995</v>
+      </c>
+      <c r="J24" s="59">
+        <f t="shared" si="2"/>
+        <v>0.60757499999999998</v>
+      </c>
+      <c r="K24" s="70">
+        <v>0.60389999999999999</v>
+      </c>
+      <c r="L24" s="70">
+        <v>0.66879999999999995</v>
+      </c>
+      <c r="M24" s="70">
+        <v>0.59730000000000005</v>
+      </c>
+      <c r="N24" s="71">
+        <v>0.56030000000000002</v>
+      </c>
+      <c r="O24" s="37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="114"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="47">
+        <v>0.78310000000000002</v>
+      </c>
+      <c r="F25" s="48">
+        <v>0.76849999999999996</v>
+      </c>
+      <c r="G25" s="48">
+        <v>0.69630000000000003</v>
+      </c>
+      <c r="H25" s="48">
+        <v>0.79810000000000003</v>
+      </c>
+      <c r="I25" s="43">
+        <v>0.78620000000000001</v>
+      </c>
+      <c r="J25" s="55">
+        <f t="shared" si="2"/>
+        <v>0.29794999999999999</v>
+      </c>
+      <c r="K25" s="48">
+        <v>0.55659999999999998</v>
+      </c>
+      <c r="L25" s="48">
+        <v>2.41E-2</v>
+      </c>
+      <c r="M25" s="48">
+        <v>0.36849999999999999</v>
+      </c>
+      <c r="N25" s="43">
+        <v>0.24260000000000001</v>
+      </c>
+      <c r="O25" s="43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="114"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="48"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="60" t="e">
+      <c r="E26" s="47"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="55" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-    </row>
-    <row r="23" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="102"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="39" t="s">
+      <c r="K26" s="83"/>
+      <c r="L26" s="83"/>
+      <c r="M26" s="83"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="114"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="41">
-        <v>0.8044</v>
-      </c>
-      <c r="F23" s="88">
-        <v>0.75729999999999997</v>
-      </c>
-      <c r="G23" s="88">
-        <v>0.79190000000000005</v>
-      </c>
-      <c r="H23" s="88">
-        <v>0.7944</v>
-      </c>
-      <c r="I23" s="36">
-        <v>0.82509999999999994</v>
-      </c>
-      <c r="J23" s="61">
+      <c r="E27" s="41">
+        <v>0.75790000000000002</v>
+      </c>
+      <c r="F27" s="83">
+        <v>0.70009999999999994</v>
+      </c>
+      <c r="G27" s="83">
+        <v>0.70850000000000002</v>
+      </c>
+      <c r="H27" s="69">
+        <v>0.76849999999999996</v>
+      </c>
+      <c r="I27" s="84">
+        <v>0.77029999999999998</v>
+      </c>
+      <c r="J27" s="55">
         <f t="shared" si="2"/>
-        <v>0.51902499999999996</v>
-      </c>
-      <c r="K23" s="88">
-        <v>0.52129999999999999</v>
-      </c>
-      <c r="L23" s="88">
-        <v>0.65629999999999999</v>
-      </c>
-      <c r="M23" s="88">
-        <v>0.40039999999999998</v>
-      </c>
-      <c r="N23" s="36">
-        <v>0.49809999999999999</v>
-      </c>
-      <c r="O23" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="R23" s="88"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="102"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="39" t="s">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="K27" s="83">
+        <v>0.24879999999999999</v>
+      </c>
+      <c r="L27" s="83">
+        <v>0.32540000000000002</v>
+      </c>
+      <c r="M27" s="69">
+        <v>0.2402</v>
+      </c>
+      <c r="N27" s="36">
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="O27" s="36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="114"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="63">
-        <v>0.82530000000000003</v>
-      </c>
-      <c r="F24" s="75">
-        <v>0.79100000000000004</v>
-      </c>
-      <c r="G24" s="75">
-        <v>0.80789999999999995</v>
-      </c>
-      <c r="H24" s="75">
-        <v>0.83360000000000001</v>
-      </c>
-      <c r="I24" s="76">
-        <v>0.82609999999999995</v>
-      </c>
-      <c r="J24" s="64">
+      <c r="E28" s="58">
+        <v>0.76190000000000002</v>
+      </c>
+      <c r="F28" s="70">
+        <v>0.74319999999999997</v>
+      </c>
+      <c r="G28" s="70">
+        <v>0.72819999999999996</v>
+      </c>
+      <c r="H28" s="49">
+        <v>0.76649999999999996</v>
+      </c>
+      <c r="I28" s="37">
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="J28" s="59">
         <f t="shared" si="2"/>
-        <v>0.60757499999999998</v>
-      </c>
-      <c r="K24" s="75">
-        <v>0.60389999999999999</v>
-      </c>
-      <c r="L24" s="75">
-        <v>0.66879999999999995</v>
-      </c>
-      <c r="M24" s="75">
-        <v>0.59730000000000005</v>
-      </c>
-      <c r="N24" s="76">
-        <v>0.56030000000000002</v>
-      </c>
-      <c r="O24" s="37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="102"/>
-      <c r="B25" s="99"/>
-      <c r="C25" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="86" t="s">
+        <v>0.29952500000000004</v>
+      </c>
+      <c r="K28" s="70">
+        <v>0.4219</v>
+      </c>
+      <c r="L28" s="70">
+        <v>0.33179999999999998</v>
+      </c>
+      <c r="M28" s="49">
+        <v>0.11459999999999999</v>
+      </c>
+      <c r="N28" s="71">
+        <v>0.32979999999999998</v>
+      </c>
+      <c r="O28" s="37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="114"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="48"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="57" t="e">
+      <c r="E29" s="47">
+        <v>0.75590000000000002</v>
+      </c>
+      <c r="F29" s="48">
+        <v>0.69169999999999998</v>
+      </c>
+      <c r="G29" s="48">
+        <v>0.70009999999999994</v>
+      </c>
+      <c r="H29" s="48">
+        <v>0.76229999999999998</v>
+      </c>
+      <c r="I29" s="43">
+        <v>0.77090000000000003</v>
+      </c>
+      <c r="J29" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="48">
+        <v>0</v>
+      </c>
+      <c r="L29" s="48">
+        <v>0</v>
+      </c>
+      <c r="M29" s="48">
+        <v>0</v>
+      </c>
+      <c r="N29" s="43">
+        <v>0</v>
+      </c>
+      <c r="O29" s="43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="114"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="47"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="55" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-    </row>
-    <row r="26" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="102"/>
-      <c r="B26" s="99"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="86" t="s">
+      <c r="K30" s="104"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="83"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="114"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="41">
+        <v>0.74160000000000004</v>
+      </c>
+      <c r="F31" s="69">
+        <v>0.66639999999999999</v>
+      </c>
+      <c r="G31" s="83">
+        <v>0.69350000000000001</v>
+      </c>
+      <c r="H31" s="83">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="I31" s="84">
+        <v>0.76219999999999999</v>
+      </c>
+      <c r="J31" s="55">
+        <f t="shared" si="2"/>
+        <v>0.30657499999999999</v>
+      </c>
+      <c r="K31" s="83">
+        <v>0.2908</v>
+      </c>
+      <c r="L31" s="83">
+        <v>0.35759999999999997</v>
+      </c>
+      <c r="M31" s="83">
+        <v>0.20630000000000001</v>
+      </c>
+      <c r="N31" s="84">
+        <v>0.37159999999999999</v>
+      </c>
+      <c r="O31" s="36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="114"/>
+      <c r="B32" s="112"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="58">
+        <v>0.75739999999999996</v>
+      </c>
+      <c r="F32" s="49">
+        <v>0.64570000000000005</v>
+      </c>
+      <c r="G32" s="70">
+        <v>0.71789999999999998</v>
+      </c>
+      <c r="H32" s="70">
+        <v>0.78680000000000005</v>
+      </c>
+      <c r="I32" s="37">
+        <v>0.75519999999999998</v>
+      </c>
+      <c r="J32" s="59">
+        <f t="shared" si="2"/>
+        <v>0.36560000000000004</v>
+      </c>
+      <c r="K32" s="70">
+        <v>0.46760000000000002</v>
+      </c>
+      <c r="L32" s="70">
+        <v>0.37419999999999998</v>
+      </c>
+      <c r="M32" s="70">
+        <v>0.38169999999999998</v>
+      </c>
+      <c r="N32" s="37">
+        <v>0.2389</v>
+      </c>
+      <c r="O32" s="37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="114"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="108" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="47">
+        <v>0.77769999999999995</v>
+      </c>
+      <c r="F33" s="48">
+        <v>0.76759999999999995</v>
+      </c>
+      <c r="G33" s="48">
+        <v>0.70009999999999994</v>
+      </c>
+      <c r="H33" s="48">
+        <v>0.79820000000000002</v>
+      </c>
+      <c r="I33" s="43">
+        <v>0.77280000000000004</v>
+      </c>
+      <c r="J33" s="86">
+        <f t="shared" si="2"/>
+        <v>0.27392500000000003</v>
+      </c>
+      <c r="K33" s="140">
+        <v>0.55710000000000004</v>
+      </c>
+      <c r="L33" s="48">
+        <v>0</v>
+      </c>
+      <c r="M33" s="140">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="N33" s="139">
+        <v>0.18140000000000001</v>
+      </c>
+      <c r="O33" s="43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="114"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="48"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="57" t="e">
+      <c r="E34" s="47"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="55" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-    </row>
-    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="102"/>
-      <c r="B27" s="99"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="60" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K27" s="88"/>
-      <c r="L27" s="88"/>
-      <c r="M27" s="88"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="102"/>
-      <c r="B28" s="99"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="43"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="57" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-    </row>
-    <row r="29" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="102"/>
-      <c r="B29" s="99"/>
-      <c r="C29" s="103" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="86" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="48"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="57" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-    </row>
-    <row r="30" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="102"/>
-      <c r="B30" s="99"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="48"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="57" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K30" s="88"/>
-      <c r="L30" s="88"/>
-      <c r="M30" s="88"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="102"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="60" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K31" s="88"/>
-      <c r="L31" s="88"/>
-      <c r="M31" s="88"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="102"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="43"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="57" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-    </row>
-    <row r="33" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="102"/>
-      <c r="B33" s="99"/>
-      <c r="C33" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="86" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="48"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="57" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="44"/>
-    </row>
-    <row r="34" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="102"/>
-      <c r="B34" s="99"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="48"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="57" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K34" s="88"/>
-      <c r="L34" s="88"/>
-      <c r="M34" s="88"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="83"/>
+      <c r="M34" s="83"/>
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="102"/>
-      <c r="B35" s="99"/>
-      <c r="C35" s="103"/>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" s="114"/>
+      <c r="B35" s="112"/>
+      <c r="C35" s="108"/>
       <c r="D35" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="41"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="60" t="e">
+      <c r="E35" s="41">
+        <v>0.74939999999999996</v>
+      </c>
+      <c r="F35" s="69">
+        <v>0.72450000000000003</v>
+      </c>
+      <c r="G35" s="83">
+        <v>0.68420000000000003</v>
+      </c>
+      <c r="H35" s="83">
+        <v>0.75149999999999995</v>
+      </c>
+      <c r="I35" s="36">
+        <v>0.76359999999999995</v>
+      </c>
+      <c r="J35" s="55">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K35" s="88"/>
-      <c r="L35" s="88"/>
-      <c r="M35" s="88"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="102"/>
-      <c r="B36" s="101"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="86" t="s">
+        <v>0.19577499999999998</v>
+      </c>
+      <c r="K35" s="83">
+        <v>0.41670000000000001</v>
+      </c>
+      <c r="L35" s="83">
+        <v>0.12470000000000001</v>
+      </c>
+      <c r="M35" s="83">
+        <v>0.1656</v>
+      </c>
+      <c r="N35" s="36">
+        <v>7.6100000000000001E-2</v>
+      </c>
+      <c r="O35" s="36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36" s="114"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="43"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="57" t="e">
+      <c r="E36" s="58">
+        <v>0.76080000000000003</v>
+      </c>
+      <c r="F36" s="49">
+        <v>0.72260000000000002</v>
+      </c>
+      <c r="G36" s="70">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="H36" s="70">
+        <v>0.77349999999999997</v>
+      </c>
+      <c r="I36" s="71">
+        <v>0.76559999999999995</v>
+      </c>
+      <c r="J36" s="52">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C37" s="73"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="102" t="s">
+        <v>0.22152500000000003</v>
+      </c>
+      <c r="K36" s="49">
+        <v>0.4264</v>
+      </c>
+      <c r="L36" s="70">
+        <v>0.20050000000000001</v>
+      </c>
+      <c r="M36" s="49">
+        <v>0.1789</v>
+      </c>
+      <c r="N36" s="37">
+        <v>8.0299999999999996E-2</v>
+      </c>
+      <c r="O36" s="37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C37" s="68"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="98" t="s">
+      <c r="B42" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="102" t="s">
+      <c r="C42" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="102" t="s">
+      <c r="D42" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="102" t="s">
+      <c r="E42" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="102"/>
-      <c r="G42" s="102"/>
-      <c r="H42" s="102"/>
-      <c r="I42" s="102"/>
-      <c r="J42" s="102" t="s">
+      <c r="F42" s="114"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="114"/>
+      <c r="J42" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="K42" s="102"/>
-      <c r="L42" s="102"/>
-      <c r="M42" s="102"/>
-      <c r="N42" s="102"/>
-      <c r="O42" s="102" t="s">
+      <c r="K42" s="114"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="114"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="P42" s="102"/>
-      <c r="Q42" s="102"/>
-      <c r="R42" s="102"/>
-      <c r="S42" s="102"/>
-    </row>
-    <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="106"/>
-      <c r="B43" s="100"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="106"/>
-      <c r="E43" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" s="87" t="s">
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="114"/>
+    </row>
+    <row r="43" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="115"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="G43" s="87" t="s">
+      <c r="G43" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="H43" s="87" t="s">
+      <c r="H43" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="I43" s="87" t="s">
+      <c r="I43" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="J43" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="K43" s="87" t="s">
+      <c r="J43" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="K43" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="L43" s="87" t="s">
+      <c r="L43" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="M43" s="87" t="s">
+      <c r="M43" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="N43" s="87" t="s">
+      <c r="N43" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="O43" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="P43" s="87" t="s">
+      <c r="O43" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="P43" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="Q43" s="87" t="s">
+      <c r="Q43" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="R43" s="87" t="s">
+      <c r="R43" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="S43" s="87" t="s">
+      <c r="S43" s="82" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="101" t="s">
+    <row r="44" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="107" t="s">
+      <c r="B44" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="101" t="s">
+      <c r="C44" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="85" t="s">
+      <c r="D44" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="48">
+      <c r="E44" s="47">
         <f t="shared" ref="E44:E45" si="3">AVERAGE(F44:I44)</f>
         <v>-0.30912499999999998</v>
       </c>
-      <c r="F44" s="46">
+      <c r="F44" s="45">
         <v>-0.60489999999999999</v>
       </c>
-      <c r="G44" s="46">
+      <c r="G44" s="45">
         <v>-0.20930000000000001</v>
       </c>
-      <c r="H44" s="46">
+      <c r="H44" s="45">
         <v>-0.21790000000000001</v>
       </c>
       <c r="I44" s="42">
         <v>-0.2044</v>
       </c>
-      <c r="J44" s="48">
+      <c r="J44" s="47">
         <f t="shared" ref="J44:J45" si="4">AVERAGE(K44:N44)</f>
         <v>-0.38519999999999999</v>
       </c>
-      <c r="K44" s="46">
+      <c r="K44" s="45">
         <v>-0.66859999999999997</v>
       </c>
-      <c r="L44" s="46">
+      <c r="L44" s="45">
         <v>-0.1976</v>
       </c>
-      <c r="M44" s="46">
+      <c r="M44" s="45">
         <v>-0.28070000000000001</v>
       </c>
       <c r="N44" s="42">
         <v>-0.39389999999999997</v>
       </c>
-      <c r="O44" s="48">
+      <c r="O44" s="47">
         <f t="shared" ref="O44:O45" si="5">AVERAGE(P44:S44)</f>
         <v>-0.30207500000000004</v>
       </c>
-      <c r="P44" s="46">
+      <c r="P44" s="45">
         <v>-0.63480000000000003</v>
       </c>
-      <c r="Q44" s="46">
+      <c r="Q44" s="45">
         <v>-0.2306</v>
       </c>
-      <c r="R44" s="46">
+      <c r="R44" s="45">
         <v>-0.20830000000000001</v>
       </c>
       <c r="S44" s="42">
         <v>-0.1346</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="102"/>
-      <c r="B45" s="99"/>
-      <c r="C45" s="102"/>
-      <c r="D45" s="86" t="s">
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="114"/>
+      <c r="B45" s="112"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="48" t="e">
+      <c r="E45" s="47" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F45" s="88"/>
-      <c r="G45" s="88"/>
-      <c r="H45" s="88"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="83"/>
       <c r="I45" s="36"/>
-      <c r="J45" s="48" t="e">
+      <c r="J45" s="47" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K45" s="88"/>
-      <c r="L45" s="88"/>
-      <c r="M45" s="88"/>
+      <c r="K45" s="83"/>
+      <c r="L45" s="83"/>
+      <c r="M45" s="83"/>
       <c r="N45" s="36"/>
-      <c r="O45" s="48" t="e">
+      <c r="O45" s="47" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P45" s="88"/>
-      <c r="Q45" s="88"/>
-      <c r="R45" s="88"/>
+      <c r="P45" s="83"/>
+      <c r="Q45" s="83"/>
+      <c r="R45" s="83"/>
       <c r="S45" s="36"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="102"/>
-      <c r="B46" s="99"/>
-      <c r="C46" s="102"/>
-      <c r="D46" s="86" t="s">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A46" s="114"/>
+      <c r="B46" s="112"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="E46" s="60" cm="1">
+      <c r="E46" s="55" cm="1">
         <f t="array" ref="E46">AVERAGE(ABS(F46:I46))</f>
         <v>0.28432499999999999</v>
       </c>
-      <c r="F46" s="88">
+      <c r="F46" s="83">
         <v>-0.51190000000000002</v>
       </c>
-      <c r="G46" s="88">
+      <c r="G46" s="83">
         <v>-0.1794</v>
       </c>
-      <c r="H46" s="88">
+      <c r="H46" s="83">
         <v>-0.24160000000000001</v>
       </c>
       <c r="I46" s="36">
         <v>-0.2044</v>
       </c>
-      <c r="J46" s="60" cm="1">
+      <c r="J46" s="55" cm="1">
         <f t="array" ref="J46">AVERAGE(ABS(K46:N46))</f>
         <v>0.36047499999999999</v>
       </c>
-      <c r="K46" s="88">
+      <c r="K46" s="83">
         <v>-0.58630000000000004</v>
       </c>
-      <c r="L46" s="88">
+      <c r="L46" s="83">
         <v>-0.18540000000000001</v>
       </c>
-      <c r="M46" s="88">
+      <c r="M46" s="83">
         <v>-0.27629999999999999</v>
       </c>
       <c r="N46" s="36">
         <v>-0.39389999999999997</v>
       </c>
-      <c r="O46" s="60" cm="1">
+      <c r="O46" s="55" cm="1">
         <f t="array" ref="O46">AVERAGE(ABS(P46:S46))</f>
         <v>0.28134999999999999</v>
       </c>
-      <c r="P46" s="88">
+      <c r="P46" s="83">
         <v>-0.55289999999999995</v>
       </c>
-      <c r="Q46" s="88">
+      <c r="Q46" s="83">
         <v>-0.1983</v>
       </c>
-      <c r="R46" s="88">
+      <c r="R46" s="83">
         <v>-0.23960000000000001</v>
       </c>
       <c r="S46" s="36">
         <v>-0.1346</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="102"/>
-      <c r="B47" s="99"/>
-      <c r="C47" s="102"/>
-      <c r="D47" s="86" t="s">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A47" s="114"/>
+      <c r="B47" s="112"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="60" cm="1">
+      <c r="E47" s="55" cm="1">
         <f t="array" ref="E47">AVERAGE(ABS(F47:I47))</f>
         <v>0.287275</v>
       </c>
-      <c r="F47" s="50">
+      <c r="F47" s="49">
         <v>-0.55300000000000005</v>
       </c>
-      <c r="G47" s="50">
+      <c r="G47" s="49">
         <v>-0.19769999999999999</v>
       </c>
-      <c r="H47" s="50">
+      <c r="H47" s="49">
         <v>-0.19400000000000001</v>
       </c>
       <c r="I47" s="37">
         <v>-0.2044</v>
       </c>
-      <c r="J47" s="57" cm="1">
+      <c r="J47" s="52" cm="1">
         <f t="array" ref="J47">AVERAGE(ABS(K47:N47))</f>
         <v>0.37187499999999996</v>
       </c>
-      <c r="K47" s="50">
+      <c r="K47" s="49">
         <v>-0.62160000000000004</v>
       </c>
-      <c r="L47" s="50">
+      <c r="L47" s="49">
         <v>-0.222</v>
       </c>
-      <c r="M47" s="50">
+      <c r="M47" s="49">
         <v>-0.25</v>
       </c>
       <c r="N47" s="37">
         <v>-0.39389999999999997</v>
       </c>
-      <c r="O47" s="57" cm="1">
+      <c r="O47" s="52" cm="1">
         <f t="array" ref="O47">AVERAGE(ABS(P47:S47))</f>
         <v>0.28342499999999998</v>
       </c>
-      <c r="P47" s="50">
+      <c r="P47" s="49">
         <v>-0.59319999999999995</v>
       </c>
-      <c r="Q47" s="50">
+      <c r="Q47" s="49">
         <v>-0.21840000000000001</v>
       </c>
-      <c r="R47" s="50">
+      <c r="R47" s="49">
         <v>-0.1875</v>
       </c>
       <c r="S47" s="37">
         <v>-0.1346</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="102"/>
-      <c r="B48" s="99"/>
-      <c r="C48" s="103" t="s">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A48" s="114"/>
+      <c r="B48" s="112"/>
+      <c r="C48" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="D48" s="86" t="s">
+      <c r="D48" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="E48" s="129" cm="1">
+      <c r="E48" s="95" cm="1">
         <f t="array" ref="E48">AVERAGE(ABS(F48:I48))</f>
         <v>0.158275</v>
       </c>
-      <c r="F48" s="137">
+      <c r="F48" s="102">
         <v>0.154</v>
       </c>
-      <c r="G48" s="137">
+      <c r="G48" s="102">
         <v>0.1487</v>
       </c>
-      <c r="H48" s="137">
+      <c r="H48" s="102">
         <v>-0.126</v>
       </c>
-      <c r="I48" s="138">
+      <c r="I48" s="103">
         <v>-0.2044</v>
       </c>
-      <c r="J48" s="131" cm="1">
+      <c r="J48" s="97" cm="1">
         <f t="array" ref="J48">AVERAGE(ABS(K48:N48))</f>
         <v>0.14049999999999999</v>
       </c>
-      <c r="K48" s="137">
+      <c r="K48" s="102">
         <v>-2.8999999999999998E-3</v>
       </c>
-      <c r="L48" s="137">
+      <c r="L48" s="102">
         <v>5.1200000000000002E-2</v>
       </c>
-      <c r="M48" s="137">
+      <c r="M48" s="102">
         <v>-0.114</v>
       </c>
-      <c r="N48" s="138">
+      <c r="N48" s="103">
         <v>-0.39389999999999997</v>
       </c>
-      <c r="O48" s="60" cm="1">
+      <c r="O48" s="55" cm="1">
         <f t="array" ref="O48">AVERAGE(ABS(P48:S48))</f>
         <v>0.13774999999999998</v>
       </c>
-      <c r="P48" s="49">
+      <c r="P48" s="48">
         <v>0.1487</v>
       </c>
-      <c r="Q48" s="49">
+      <c r="Q48" s="48">
         <v>0.1323</v>
       </c>
-      <c r="R48" s="49">
+      <c r="R48" s="48">
         <v>-0.13539999999999999</v>
       </c>
-      <c r="S48" s="44">
+      <c r="S48" s="43">
         <v>-0.1346</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="102"/>
-      <c r="B49" s="99"/>
-      <c r="C49" s="103"/>
-      <c r="D49" s="86" t="s">
+    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="114"/>
+      <c r="B49" s="112"/>
+      <c r="C49" s="108"/>
+      <c r="D49" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="E49" s="131" cm="1">
+      <c r="E49" s="97" cm="1">
         <f t="array" ref="E49">AVERAGE(ABS(F49:I49))</f>
         <v>0</v>
       </c>
-      <c r="F49" s="127"/>
-      <c r="G49" s="127"/>
-      <c r="H49" s="127"/>
-      <c r="I49" s="130"/>
-      <c r="J49" s="131" cm="1">
+      <c r="F49" s="93"/>
+      <c r="G49" s="93"/>
+      <c r="H49" s="93"/>
+      <c r="I49" s="96"/>
+      <c r="J49" s="97" cm="1">
         <f t="array" ref="J49">AVERAGE(ABS(K49:N49))</f>
         <v>0</v>
       </c>
-      <c r="K49" s="127"/>
-      <c r="L49" s="127"/>
-      <c r="M49" s="127"/>
-      <c r="N49" s="130"/>
-      <c r="O49" s="60" cm="1">
+      <c r="K49" s="93"/>
+      <c r="L49" s="93"/>
+      <c r="M49" s="93"/>
+      <c r="N49" s="96"/>
+      <c r="O49" s="55" cm="1">
         <f t="array" ref="O49">AVERAGE(ABS(P49:S49))</f>
         <v>0</v>
       </c>
-      <c r="P49" s="88"/>
-      <c r="Q49" s="88"/>
-      <c r="R49" s="88"/>
+      <c r="P49" s="83"/>
+      <c r="Q49" s="83"/>
+      <c r="R49" s="83"/>
       <c r="S49" s="36"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="102"/>
-      <c r="B50" s="99"/>
-      <c r="C50" s="103"/>
-      <c r="D50" s="86" t="s">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A50" s="114"/>
+      <c r="B50" s="112"/>
+      <c r="C50" s="108"/>
+      <c r="D50" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="E50" s="131" cm="1">
+      <c r="E50" s="97" cm="1">
         <f t="array" ref="E50">AVERAGE(ABS(F50:I50))</f>
         <v>9.7725000000000006E-2</v>
       </c>
-      <c r="F50" s="127">
+      <c r="F50" s="93">
         <v>0.1147</v>
       </c>
-      <c r="G50" s="127">
+      <c r="G50" s="93">
         <v>-5.4999999999999997E-3</v>
       </c>
-      <c r="H50" s="127">
+      <c r="H50" s="93">
         <v>-6.6299999999999998E-2</v>
       </c>
-      <c r="I50" s="130">
+      <c r="I50" s="96">
         <v>-0.2044</v>
       </c>
-      <c r="J50" s="131" cm="1">
+      <c r="J50" s="97" cm="1">
         <f t="array" ref="J50">AVERAGE(ABS(K50:N50))</f>
         <v>0.15329999999999999</v>
       </c>
-      <c r="K50" s="127">
+      <c r="K50" s="93">
         <v>-0.1225</v>
       </c>
-      <c r="L50" s="127">
+      <c r="L50" s="93">
         <v>-3.9800000000000002E-2</v>
       </c>
-      <c r="M50" s="127">
+      <c r="M50" s="93">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="N50" s="130">
+      <c r="N50" s="96">
         <v>-0.39389999999999997</v>
       </c>
-      <c r="O50" s="60" cm="1">
+      <c r="O50" s="55" cm="1">
         <f t="array" ref="O50">AVERAGE(ABS(P50:S50))</f>
         <v>9.5375000000000001E-2</v>
       </c>
-      <c r="P50" s="88">
+      <c r="P50" s="83">
         <v>0.1191</v>
       </c>
-      <c r="Q50" s="74">
+      <c r="Q50" s="69">
         <v>-2.3599999999999999E-2</v>
       </c>
-      <c r="R50" s="88">
+      <c r="R50" s="83">
         <v>-0.1042</v>
       </c>
       <c r="S50" s="36">
         <v>-0.1346</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="102"/>
-      <c r="B51" s="99"/>
-      <c r="C51" s="103"/>
-      <c r="D51" s="86" t="s">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A51" s="114"/>
+      <c r="B51" s="112"/>
+      <c r="C51" s="108"/>
+      <c r="D51" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="E51" s="131" cm="1">
+      <c r="E51" s="97" cm="1">
         <f t="array" ref="E51">AVERAGE(ABS(F51:I51))</f>
         <v>9.5599999999999991E-2</v>
       </c>
-      <c r="F51" s="132">
+      <c r="F51" s="98">
         <v>8.3599999999999994E-2</v>
       </c>
-      <c r="G51" s="132">
+      <c r="G51" s="98">
         <v>7.8100000000000003E-2</v>
       </c>
-      <c r="H51" s="132">
+      <c r="H51" s="98">
         <v>-3.1399999999999997E-2</v>
       </c>
-      <c r="I51" s="133">
+      <c r="I51" s="99">
         <v>-0.1893</v>
       </c>
-      <c r="J51" s="134" cm="1">
+      <c r="J51" s="100" cm="1">
         <f t="array" ref="J51">AVERAGE(ABS(K51:N51))</f>
         <v>0.15289999999999998</v>
       </c>
-      <c r="K51" s="132">
+      <c r="K51" s="98">
         <v>-0.1108</v>
       </c>
-      <c r="L51" s="132">
+      <c r="L51" s="98">
         <v>-2.76E-2</v>
       </c>
-      <c r="M51" s="132">
+      <c r="M51" s="98">
         <v>0.1096</v>
       </c>
-      <c r="N51" s="133">
+      <c r="N51" s="99">
         <v>-0.36359999999999998</v>
       </c>
-      <c r="O51" s="64" cm="1">
+      <c r="O51" s="59" cm="1">
         <f t="array" ref="O51">AVERAGE(ABS(P51:S51))</f>
         <v>8.3424999999999999E-2</v>
       </c>
-      <c r="P51" s="75">
+      <c r="P51" s="70">
         <v>7.4700000000000003E-2</v>
       </c>
-      <c r="Q51" s="50">
+      <c r="Q51" s="49">
         <v>6.1100000000000002E-2</v>
       </c>
-      <c r="R51" s="75">
+      <c r="R51" s="70">
         <v>-7.2900000000000006E-2</v>
       </c>
-      <c r="S51" s="76">
+      <c r="S51" s="71">
         <v>-0.125</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="102"/>
-      <c r="B52" s="99"/>
-      <c r="C52" s="103" t="s">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A52" s="114"/>
+      <c r="B52" s="112"/>
+      <c r="C52" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="86" t="s">
+      <c r="D52" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="E52" s="59" cm="1">
+      <c r="E52" s="54" cm="1">
         <f t="array" ref="E52">AVERAGE(ABS(F52:I52))</f>
         <v>0.10992499999999999</v>
       </c>
-      <c r="F52" s="49">
+      <c r="F52" s="48">
         <v>0</v>
       </c>
-      <c r="G52" s="49">
+      <c r="G52" s="48">
         <v>-6.3600000000000004E-2</v>
       </c>
-      <c r="H52" s="49">
+      <c r="H52" s="48">
         <v>-0.26500000000000001</v>
       </c>
-      <c r="I52" s="44">
+      <c r="I52" s="43">
         <v>-0.1111</v>
       </c>
-      <c r="J52" s="60" cm="1">
+      <c r="J52" s="55" cm="1">
         <f t="array" ref="J52">AVERAGE(ABS(K52:N52))</f>
         <v>0.175925</v>
       </c>
-      <c r="K52" s="49">
+      <c r="K52" s="48">
         <v>0</v>
       </c>
-      <c r="L52" s="49">
+      <c r="L52" s="48">
         <v>-0.1618</v>
       </c>
-      <c r="M52" s="49">
+      <c r="M52" s="48">
         <v>-0.39040000000000002</v>
       </c>
-      <c r="N52" s="44">
+      <c r="N52" s="43">
         <v>-0.1515</v>
       </c>
-      <c r="O52" s="131" cm="1">
+      <c r="O52" s="97" cm="1">
         <f t="array" ref="O52">AVERAGE(ABS(P52:S52))</f>
         <v>0.103925</v>
       </c>
-      <c r="P52" s="137">
+      <c r="P52" s="102">
         <v>0</v>
       </c>
-      <c r="Q52" s="137">
+      <c r="Q52" s="102">
         <v>-7.9899999999999999E-2</v>
       </c>
-      <c r="R52" s="137">
+      <c r="R52" s="102">
         <v>-0.23960000000000001</v>
       </c>
-      <c r="S52" s="138">
+      <c r="S52" s="103">
         <v>-9.6199999999999994E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="102"/>
-      <c r="B53" s="99"/>
-      <c r="C53" s="103"/>
-      <c r="D53" s="86" t="s">
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="114"/>
+      <c r="B53" s="112"/>
+      <c r="C53" s="108"/>
+      <c r="D53" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="60" cm="1">
+      <c r="E53" s="55" cm="1">
         <f t="array" ref="E53">AVERAGE(ABS(F53:I53))</f>
         <v>0</v>
       </c>
-      <c r="F53" s="88"/>
-      <c r="G53" s="88"/>
-      <c r="H53" s="88"/>
+      <c r="F53" s="83"/>
+      <c r="G53" s="83"/>
+      <c r="H53" s="83"/>
       <c r="I53" s="36"/>
-      <c r="J53" s="60" cm="1">
+      <c r="J53" s="55" cm="1">
         <f t="array" ref="J53">AVERAGE(ABS(K53:N53))</f>
         <v>0</v>
       </c>
-      <c r="K53" s="88"/>
-      <c r="L53" s="88"/>
-      <c r="M53" s="88"/>
+      <c r="K53" s="83"/>
+      <c r="L53" s="83"/>
+      <c r="M53" s="83"/>
       <c r="N53" s="36"/>
-      <c r="O53" s="131" cm="1">
+      <c r="O53" s="97" cm="1">
         <f t="array" ref="O53">AVERAGE(ABS(P53:S53))</f>
         <v>0</v>
       </c>
-      <c r="P53" s="127"/>
-      <c r="Q53" s="127"/>
-      <c r="R53" s="127"/>
-      <c r="S53" s="130"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="102"/>
-      <c r="B54" s="99"/>
-      <c r="C54" s="103"/>
-      <c r="D54" s="86" t="s">
+      <c r="P53" s="93"/>
+      <c r="Q53" s="93"/>
+      <c r="R53" s="93"/>
+      <c r="S53" s="96"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A54" s="114"/>
+      <c r="B54" s="112"/>
+      <c r="C54" s="108"/>
+      <c r="D54" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="E54" s="91" cm="1">
+      <c r="E54" s="86" cm="1">
         <f t="array" ref="E54">AVERAGE(ABS(F54:I54))</f>
         <v>4.4874999999999998E-2</v>
       </c>
-      <c r="F54" s="74">
+      <c r="F54" s="69">
         <v>-2.4500000000000001E-2</v>
       </c>
-      <c r="G54" s="74">
+      <c r="G54" s="69">
         <v>-1.03E-2</v>
       </c>
-      <c r="H54" s="88">
+      <c r="H54" s="83">
         <v>-0.1225</v>
       </c>
       <c r="I54" s="36">
         <v>-2.2200000000000001E-2</v>
       </c>
-      <c r="J54" s="60" cm="1">
+      <c r="J54" s="55" cm="1">
         <f t="array" ref="J54">AVERAGE(ABS(K54:N54))</f>
         <v>0.11187499999999999</v>
       </c>
-      <c r="K54" s="88">
+      <c r="K54" s="83">
         <v>-0.21759999999999999</v>
       </c>
-      <c r="L54" s="88">
+      <c r="L54" s="83">
         <v>-9.4299999999999995E-2</v>
       </c>
-      <c r="M54" s="88">
+      <c r="M54" s="83">
         <v>-0.1053</v>
       </c>
-      <c r="N54" s="89">
+      <c r="N54" s="84">
         <v>-3.0300000000000001E-2</v>
       </c>
-      <c r="O54" s="131" cm="1">
+      <c r="O54" s="97" cm="1">
         <f t="array" ref="O54">AVERAGE(ABS(P54:S54))</f>
         <v>5.04E-2</v>
       </c>
-      <c r="P54" s="127">
+      <c r="P54" s="93">
         <v>-1.7999999999999999E-2</v>
       </c>
-      <c r="Q54" s="127">
+      <c r="Q54" s="93">
         <v>-2.9000000000000001E-2</v>
       </c>
-      <c r="R54" s="127">
+      <c r="R54" s="93">
         <v>0.13539999999999999</v>
       </c>
-      <c r="S54" s="130">
+      <c r="S54" s="96">
         <v>-1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="102"/>
-      <c r="B55" s="99"/>
-      <c r="C55" s="103"/>
-      <c r="D55" s="86" t="s">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A55" s="114"/>
+      <c r="B55" s="112"/>
+      <c r="C55" s="108"/>
+      <c r="D55" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="E55" s="60" cm="1">
+      <c r="E55" s="55" cm="1">
         <f t="array" ref="E55">AVERAGE(ABS(F55:I55))</f>
         <v>7.0124999999999993E-2</v>
       </c>
-      <c r="F55" s="50">
+      <c r="F55" s="49">
         <v>6.4799999999999996E-2</v>
       </c>
-      <c r="G55" s="50">
+      <c r="G55" s="49">
         <v>4.1200000000000001E-2</v>
       </c>
-      <c r="H55" s="75">
+      <c r="H55" s="70">
         <v>-0.122</v>
       </c>
-      <c r="I55" s="76">
+      <c r="I55" s="71">
         <v>-5.2499999999999998E-2</v>
       </c>
-      <c r="J55" s="91" cm="1">
+      <c r="J55" s="86" cm="1">
         <f t="array" ref="J55">AVERAGE(ABS(K55:N55))</f>
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="K55" s="75">
+      <c r="K55" s="70">
         <v>-2.75E-2</v>
       </c>
-      <c r="L55" s="75">
+      <c r="L55" s="70">
         <v>-6.5000000000000002E-2</v>
       </c>
-      <c r="M55" s="75">
+      <c r="M55" s="70">
         <v>-5.2600000000000001E-2</v>
       </c>
       <c r="N55" s="37">
         <v>-9.0899999999999995E-2</v>
       </c>
-      <c r="O55" s="134" cm="1">
+      <c r="O55" s="100" cm="1">
         <f t="array" ref="O55">AVERAGE(ABS(P55:S55))</f>
         <v>6.1925000000000001E-2</v>
       </c>
-      <c r="P55" s="132">
+      <c r="P55" s="98">
         <v>3.5700000000000003E-2</v>
       </c>
-      <c r="Q55" s="132">
+      <c r="Q55" s="98">
         <v>2.7699999999999999E-2</v>
       </c>
-      <c r="R55" s="132">
+      <c r="R55" s="98">
         <v>-0.14580000000000001</v>
       </c>
-      <c r="S55" s="133">
+      <c r="S55" s="99">
         <v>-3.85E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="102"/>
-      <c r="B56" s="99"/>
-      <c r="C56" s="103" t="s">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A56" s="114"/>
+      <c r="B56" s="112"/>
+      <c r="C56" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="86" t="s">
+      <c r="D56" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="E56" s="59">
+      <c r="E56" s="54">
         <f t="shared" ref="E56:E57" si="6">AVERAGE(ABS(G56),ABS(I56))</f>
         <v>6.4699999999999994E-2</v>
       </c>
-      <c r="F56" s="137">
+      <c r="F56" s="102">
         <v>0.13350000000000001</v>
       </c>
-      <c r="G56" s="49">
+      <c r="G56" s="48">
         <v>-0.12939999999999999</v>
       </c>
-      <c r="H56" s="137">
+      <c r="H56" s="102">
         <v>-0.1061</v>
       </c>
-      <c r="I56" s="44">
+      <c r="I56" s="43">
         <v>0</v>
       </c>
-      <c r="J56" s="59">
+      <c r="J56" s="54">
         <f t="shared" ref="J56:J57" si="7">AVERAGE(ABS(L56),ABS(N56))</f>
         <v>7.1150000000000005E-2</v>
       </c>
-      <c r="K56" s="137">
+      <c r="K56" s="102">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="L56" s="49">
+      <c r="L56" s="48">
         <v>-0.14230000000000001</v>
       </c>
-      <c r="M56" s="137">
+      <c r="M56" s="102">
         <v>-5.7000000000000002E-2</v>
       </c>
-      <c r="N56" s="44">
+      <c r="N56" s="43">
         <v>0</v>
       </c>
-      <c r="O56" s="60">
-        <f t="shared" ref="O56:O57" si="8">AVERAGE(ABS(Q56),ABS(S56))</f>
-        <v>7.4349999999999999E-2</v>
-      </c>
-      <c r="P56" s="49">
+      <c r="O56" s="55">
+        <f t="shared" ref="O56:O57" si="8">AVERAGE(ABS(P56),ABS(R56))</f>
+        <v>0.1241</v>
+      </c>
+      <c r="P56" s="48">
         <v>0.1232</v>
       </c>
-      <c r="Q56" s="137">
+      <c r="Q56" s="102">
         <v>-0.1487</v>
       </c>
-      <c r="R56" s="49">
+      <c r="R56" s="48">
         <v>-0.125</v>
       </c>
-      <c r="S56" s="138">
+      <c r="S56" s="103">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="102"/>
-      <c r="B57" s="99"/>
-      <c r="C57" s="103"/>
-      <c r="D57" s="86" t="s">
+    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="114"/>
+      <c r="B57" s="112"/>
+      <c r="C57" s="108"/>
+      <c r="D57" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="E57" s="60">
+      <c r="E57" s="55">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F57" s="127"/>
-      <c r="G57" s="88"/>
-      <c r="H57" s="127"/>
+      <c r="F57" s="93"/>
+      <c r="G57" s="83"/>
+      <c r="H57" s="93"/>
       <c r="I57" s="36"/>
-      <c r="J57" s="60">
+      <c r="J57" s="55">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K57" s="127"/>
-      <c r="L57" s="88"/>
-      <c r="M57" s="127"/>
+      <c r="K57" s="93"/>
+      <c r="L57" s="83"/>
+      <c r="M57" s="93"/>
       <c r="N57" s="36"/>
-      <c r="O57" s="60">
+      <c r="O57" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P57" s="88"/>
-      <c r="Q57" s="127"/>
-      <c r="R57" s="88"/>
-      <c r="S57" s="130"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="102"/>
-      <c r="B58" s="99"/>
-      <c r="C58" s="103"/>
-      <c r="D58" s="86" t="s">
+      <c r="P57" s="83"/>
+      <c r="Q57" s="93"/>
+      <c r="R57" s="83"/>
+      <c r="S57" s="96"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A58" s="114"/>
+      <c r="B58" s="112"/>
+      <c r="C58" s="108"/>
+      <c r="D58" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="60">
+      <c r="E58" s="55">
         <f>AVERAGE(ABS(G58),ABS(I58))</f>
         <v>9.0499999999999997E-2</v>
       </c>
-      <c r="F58" s="127">
+      <c r="F58" s="93">
         <v>5.1799999999999999E-2</v>
       </c>
-      <c r="G58" s="74">
+      <c r="G58" s="69">
         <v>8.6599999999999996E-2</v>
       </c>
-      <c r="H58" s="127">
+      <c r="H58" s="93">
         <v>0.12</v>
       </c>
       <c r="I58" s="36">
         <v>9.4399999999999998E-2</v>
       </c>
-      <c r="J58" s="60">
+      <c r="J58" s="55">
         <f>AVERAGE(ABS(L58),ABS(N58))</f>
         <v>0.11554999999999999</v>
       </c>
-      <c r="K58" s="127">
+      <c r="K58" s="93">
         <v>-0.1588</v>
       </c>
-      <c r="L58" s="74">
+      <c r="L58" s="69">
         <v>-0.16669999999999999</v>
       </c>
-      <c r="M58" s="127">
+      <c r="M58" s="93">
         <v>-0.1711</v>
       </c>
       <c r="N58" s="36">
         <v>-6.4399999999999999E-2</v>
       </c>
-      <c r="O58" s="60">
-        <f>AVERAGE(ABS(Q58),ABS(S58))</f>
-        <v>0.1051</v>
-      </c>
-      <c r="P58" s="74">
+      <c r="O58" s="86">
+        <f>AVERAGE(ABS(P58),ABS(R58))</f>
+        <v>8.5249999999999992E-2</v>
+      </c>
+      <c r="P58" s="69">
         <v>5.5899999999999998E-2</v>
       </c>
-      <c r="Q58" s="127">
+      <c r="Q58" s="93">
         <v>-0.10440000000000001</v>
       </c>
-      <c r="R58" s="88">
+      <c r="R58" s="83">
         <v>-0.11459999999999999</v>
       </c>
-      <c r="S58" s="130">
+      <c r="S58" s="96">
         <v>0.10580000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="106"/>
-      <c r="B59" s="100"/>
-      <c r="C59" s="104"/>
-      <c r="D59" s="87" t="s">
+    <row r="59" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="115"/>
+      <c r="B59" s="116"/>
+      <c r="C59" s="109"/>
+      <c r="D59" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="E59" s="91">
+      <c r="E59" s="86">
         <f>AVERAGE(ABS(G59),ABS(I59))</f>
         <v>7.0800000000000002E-2</v>
       </c>
-      <c r="F59" s="128">
+      <c r="F59" s="94">
         <v>0.1099</v>
       </c>
-      <c r="G59" s="52">
+      <c r="G59" s="51">
         <v>-0.11940000000000001</v>
       </c>
-      <c r="H59" s="128">
+      <c r="H59" s="94">
         <v>-7.8299999999999995E-2</v>
       </c>
-      <c r="I59" s="94">
+      <c r="I59" s="89">
         <v>-2.2200000000000001E-2</v>
       </c>
-      <c r="J59" s="91">
+      <c r="J59" s="107">
         <f>AVERAGE(ABS(L59),ABS(N59))</f>
         <v>0.1135</v>
       </c>
-      <c r="K59" s="128">
+      <c r="K59" s="94">
         <v>-0.1108</v>
       </c>
-      <c r="L59" s="52">
+      <c r="L59" s="51">
         <v>-0.19670000000000001</v>
       </c>
-      <c r="M59" s="128">
+      <c r="M59" s="94">
         <v>-8.77E-2</v>
       </c>
-      <c r="N59" s="94">
+      <c r="N59" s="89">
         <v>-3.0300000000000001E-2</v>
       </c>
-      <c r="O59" s="91">
-        <f>AVERAGE(ABS(Q59),ABS(S59))</f>
-        <v>7.9949999999999993E-2</v>
-      </c>
-      <c r="P59" s="52">
+      <c r="O59" s="55">
+        <f>AVERAGE(ABS(P59),ABS(R59))</f>
+        <v>9.509999999999999E-2</v>
+      </c>
+      <c r="P59" s="51">
         <v>0.1069</v>
       </c>
-      <c r="Q59" s="128">
+      <c r="Q59" s="94">
         <v>-0.14069999999999999</v>
       </c>
-      <c r="R59" s="93">
+      <c r="R59" s="88">
         <v>-8.3299999999999999E-2</v>
       </c>
-      <c r="S59" s="135">
+      <c r="S59" s="101">
         <v>-1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="101" t="s">
+    <row r="60" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="B60" s="85"/>
-      <c r="C60" s="101" t="s">
+      <c r="B60" s="118" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="D60" s="85" t="s">
+      <c r="D60" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="E60" s="60" cm="1">
+      <c r="E60" s="56" cm="1">
         <f t="array" ref="E60">AVERAGE(ABS(F60:I60))</f>
-        <v>0</v>
-      </c>
-      <c r="F60" s="46"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="46"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="60" cm="1">
+        <v>8.0049999999999996E-2</v>
+      </c>
+      <c r="F60" s="45">
+        <v>-8.9200000000000002E-2</v>
+      </c>
+      <c r="G60" s="45">
+        <v>-0.1462</v>
+      </c>
+      <c r="H60" s="45">
+        <v>-4.58E-2</v>
+      </c>
+      <c r="I60" s="42">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="J60" s="55" cm="1">
         <f t="array" ref="J60">AVERAGE(ABS(K60:N60))</f>
-        <v>0</v>
-      </c>
-      <c r="K60" s="46"/>
-      <c r="L60" s="46"/>
-      <c r="M60" s="46"/>
-      <c r="N60" s="42"/>
-      <c r="O60" s="60" cm="1">
+        <v>0.1167</v>
+      </c>
+      <c r="K60" s="45">
+        <v>-0.13109999999999999</v>
+      </c>
+      <c r="L60" s="45">
+        <v>-0.20369999999999999</v>
+      </c>
+      <c r="M60" s="45">
+        <v>-6.4199999999999993E-2</v>
+      </c>
+      <c r="N60" s="42">
+        <v>-6.7799999999999999E-2</v>
+      </c>
+      <c r="O60" s="56" cm="1">
         <f t="array" ref="O60">AVERAGE(ABS(P60:S60))</f>
-        <v>0</v>
-      </c>
-      <c r="P60" s="46"/>
-      <c r="Q60" s="46"/>
-      <c r="R60" s="46"/>
-      <c r="S60" s="42"/>
-    </row>
-    <row r="61" spans="1:19" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="102"/>
-      <c r="B61" s="86"/>
-      <c r="C61" s="102"/>
-      <c r="D61" s="86" t="s">
+        <v>9.2350000000000002E-2</v>
+      </c>
+      <c r="P60" s="45">
+        <v>-0.10929999999999999</v>
+      </c>
+      <c r="Q60" s="45">
+        <v>0.17280000000000001</v>
+      </c>
+      <c r="R60" s="45">
+        <v>-5.9400000000000001E-2</v>
+      </c>
+      <c r="S60" s="42">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="114"/>
+      <c r="B61" s="112"/>
+      <c r="C61" s="114"/>
+      <c r="D61" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="E61" s="60" cm="1">
+      <c r="E61" s="55" cm="1">
         <f t="array" ref="E61">AVERAGE(ABS(F61:I61))</f>
         <v>0</v>
       </c>
-      <c r="F61" s="88"/>
-      <c r="G61" s="88"/>
-      <c r="H61" s="88"/>
+      <c r="F61" s="83"/>
+      <c r="G61" s="83"/>
+      <c r="H61" s="83"/>
       <c r="I61" s="36"/>
-      <c r="J61" s="60" cm="1">
+      <c r="J61" s="55" cm="1">
         <f t="array" ref="J61">AVERAGE(ABS(K61:N61))</f>
         <v>0</v>
       </c>
-      <c r="K61" s="88"/>
-      <c r="L61" s="88"/>
-      <c r="M61" s="88"/>
+      <c r="K61" s="83"/>
+      <c r="L61" s="83"/>
+      <c r="M61" s="83"/>
       <c r="N61" s="36"/>
-      <c r="O61" s="60" cm="1">
+      <c r="O61" s="55" cm="1">
         <f t="array" ref="O61">AVERAGE(ABS(P61:S61))</f>
         <v>0</v>
       </c>
-      <c r="P61" s="88"/>
-      <c r="Q61" s="88"/>
-      <c r="R61" s="88"/>
+      <c r="P61" s="83"/>
+      <c r="Q61" s="83"/>
+      <c r="R61" s="83"/>
       <c r="S61" s="36"/>
     </row>
-    <row r="62" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="102"/>
-      <c r="B62" s="98" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" s="102"/>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A62" s="114"/>
+      <c r="B62" s="112"/>
+      <c r="C62" s="114"/>
       <c r="D62" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="61" cm="1">
+      <c r="E62" s="55" cm="1">
         <f t="array" ref="E62">AVERAGE(ABS(F62:I62))</f>
         <v>0.15140000000000001</v>
       </c>
-      <c r="F62" s="88">
+      <c r="F62" s="83">
         <v>-0.23910000000000001</v>
       </c>
-      <c r="G62" s="88">
+      <c r="G62" s="83">
         <v>-3.15E-2</v>
       </c>
-      <c r="H62" s="88">
+      <c r="H62" s="83">
         <v>-0.14319999999999999</v>
       </c>
       <c r="I62" s="36">
         <v>-0.1918</v>
       </c>
-      <c r="J62" s="61" cm="1">
+      <c r="J62" s="55" cm="1">
         <f t="array" ref="J62">AVERAGE(ABS(K62:N62))</f>
         <v>0.226825</v>
       </c>
-      <c r="K62" s="88">
+      <c r="K62" s="83">
         <v>-0.31780000000000003</v>
       </c>
-      <c r="L62" s="88">
+      <c r="L62" s="83">
         <v>4.6199999999999998E-2</v>
       </c>
-      <c r="M62" s="88">
+      <c r="M62" s="83">
         <v>-0.2225</v>
       </c>
       <c r="N62" s="36">
         <v>-0.32079999999999997</v>
       </c>
-      <c r="O62" s="61" cm="1">
+      <c r="O62" s="55" cm="1">
         <f t="array" ref="O62">AVERAGE(ABS(P62:S62))</f>
         <v>0.17682500000000001</v>
       </c>
-      <c r="P62" s="67">
+      <c r="P62" s="62">
         <v>-0.23730000000000001</v>
       </c>
-      <c r="Q62" s="67">
+      <c r="Q62" s="62">
         <v>-0.18540000000000001</v>
       </c>
-      <c r="R62" s="67">
+      <c r="R62" s="62">
         <v>-0.12839999999999999</v>
       </c>
-      <c r="S62" s="68">
+      <c r="S62" s="63">
         <v>-0.15620000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="102"/>
-      <c r="B63" s="99"/>
-      <c r="C63" s="102"/>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A63" s="114"/>
+      <c r="B63" s="112"/>
+      <c r="C63" s="114"/>
       <c r="D63" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E63" s="60" cm="1">
+      <c r="E63" s="55" cm="1">
         <f t="array" ref="E63">AVERAGE(ABS(F63:I63))</f>
         <v>0.14297499999999999</v>
       </c>
-      <c r="F63" s="50">
+      <c r="F63" s="49">
         <v>-0.2334</v>
       </c>
-      <c r="G63" s="50">
+      <c r="G63" s="49">
         <v>-5.21E-2</v>
       </c>
-      <c r="H63" s="50">
+      <c r="H63" s="49">
         <v>-0.14660000000000001</v>
       </c>
       <c r="I63" s="37">
         <v>-0.13980000000000001</v>
       </c>
-      <c r="J63" s="57" cm="1">
+      <c r="J63" s="52" cm="1">
         <f t="array" ref="J63">AVERAGE(ABS(K63:N63))</f>
         <v>0.18742499999999998</v>
       </c>
-      <c r="K63" s="50">
+      <c r="K63" s="49">
         <v>-0.3362</v>
       </c>
-      <c r="L63" s="50">
+      <c r="L63" s="49">
         <v>2.4400000000000002E-2</v>
       </c>
-      <c r="M63" s="50">
+      <c r="M63" s="49">
         <v>-0.2034</v>
       </c>
       <c r="N63" s="37">
         <v>-0.1857</v>
       </c>
-      <c r="O63" s="57" cm="1">
+      <c r="O63" s="52" cm="1">
         <f t="array" ref="O63">AVERAGE(ABS(P63:S63))</f>
         <v>0.21174999999999999</v>
       </c>
-      <c r="P63" s="47">
+      <c r="P63" s="46">
         <v>-0.2752</v>
       </c>
-      <c r="Q63" s="47">
+      <c r="Q63" s="46">
         <v>-0.2072</v>
       </c>
-      <c r="R63" s="47">
+      <c r="R63" s="46">
         <v>-0.18659999999999999</v>
       </c>
-      <c r="S63" s="45">
+      <c r="S63" s="44">
         <v>-0.17799999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="102"/>
-      <c r="B64" s="99"/>
-      <c r="C64" s="103" t="s">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A64" s="114"/>
+      <c r="B64" s="112"/>
+      <c r="C64" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="D64" s="86" t="s">
+      <c r="D64" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="E64" s="60" cm="1">
+      <c r="E64" s="95" cm="1">
         <f t="array" ref="E64">AVERAGE(ABS(F64:I64))</f>
-        <v>0</v>
-      </c>
-      <c r="F64" s="53"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="54"/>
-      <c r="J64" s="60" cm="1">
+        <v>3.7400000000000003E-2</v>
+      </c>
+      <c r="F64" s="102">
+        <v>0.1046</v>
+      </c>
+      <c r="G64" s="102">
+        <v>-1.0200000000000001E-2</v>
+      </c>
+      <c r="H64" s="102">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="I64" s="103">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="J64" s="97" cm="1">
         <f t="array" ref="J64">AVERAGE(ABS(K64:N64))</f>
-        <v>0</v>
-      </c>
-      <c r="K64" s="53"/>
-      <c r="L64" s="53"/>
-      <c r="M64" s="53"/>
-      <c r="N64" s="54"/>
-      <c r="O64" s="60" cm="1">
+        <v>6.13E-2</v>
+      </c>
+      <c r="K64" s="102">
+        <v>0.1658</v>
+      </c>
+      <c r="L64" s="102">
+        <v>-1.44E-2</v>
+      </c>
+      <c r="M64" s="102">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="N64" s="103">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="O64" s="55" cm="1">
         <f t="array" ref="O64">AVERAGE(ABS(P64:S64))</f>
-        <v>0</v>
-      </c>
-      <c r="P64" s="69"/>
-      <c r="Q64" s="69"/>
-      <c r="R64" s="69"/>
-      <c r="S64" s="70"/>
-    </row>
-    <row r="65" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="102"/>
-      <c r="B65" s="99"/>
-      <c r="C65" s="103"/>
-      <c r="D65" s="86" t="s">
+        <v>1.8449999999999998E-2</v>
+      </c>
+      <c r="P64" s="64">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="Q64" s="64">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="R64" s="64">
+        <v>-2.9600000000000001E-2</v>
+      </c>
+      <c r="S64" s="65">
+        <v>-8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="114"/>
+      <c r="B65" s="112"/>
+      <c r="C65" s="108"/>
+      <c r="D65" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="E65" s="60" cm="1">
+      <c r="E65" s="97" cm="1">
         <f t="array" ref="E65">AVERAGE(ABS(F65:I65))</f>
         <v>0</v>
       </c>
-      <c r="F65" s="55"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="60" cm="1">
+      <c r="F65" s="93"/>
+      <c r="G65" s="93"/>
+      <c r="H65" s="93"/>
+      <c r="I65" s="96"/>
+      <c r="J65" s="97" cm="1">
         <f t="array" ref="J65">AVERAGE(ABS(K65:N65))</f>
         <v>0</v>
       </c>
-      <c r="K65" s="55"/>
-      <c r="L65" s="55"/>
-      <c r="M65" s="55"/>
-      <c r="N65" s="56"/>
-      <c r="O65" s="60" cm="1">
+      <c r="K65" s="93"/>
+      <c r="L65" s="93"/>
+      <c r="M65" s="93"/>
+      <c r="N65" s="96"/>
+      <c r="O65" s="55" cm="1">
         <f t="array" ref="O65">AVERAGE(ABS(P65:S65))</f>
         <v>0</v>
       </c>
-      <c r="P65" s="67"/>
-      <c r="Q65" s="67"/>
-      <c r="R65" s="67"/>
-      <c r="S65" s="68"/>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66" s="102"/>
-      <c r="B66" s="99"/>
-      <c r="C66" s="103"/>
-      <c r="D66" s="86" t="s">
+      <c r="P65" s="62"/>
+      <c r="Q65" s="62"/>
+      <c r="R65" s="62"/>
+      <c r="S65" s="63"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A66" s="114"/>
+      <c r="B66" s="112"/>
+      <c r="C66" s="108"/>
+      <c r="D66" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="E66" s="129" cm="1">
+      <c r="E66" s="97" cm="1">
         <f t="array" ref="E66">AVERAGE(ABS(F66:I66))</f>
+        <v>4.3050000000000005E-2</v>
+      </c>
+      <c r="F66" s="93">
+        <v>-1.83E-2</v>
+      </c>
+      <c r="G66" s="93">
+        <v>0.1139</v>
+      </c>
+      <c r="H66" s="93">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="I66" s="96">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="J66" s="97" cm="1">
+        <f t="array" ref="J66">AVERAGE(ABS(K66:N66))</f>
+        <v>8.0324999999999994E-2</v>
+      </c>
+      <c r="K66" s="93">
+        <v>-3.6200000000000003E-2</v>
+      </c>
+      <c r="L66" s="93">
+        <v>0.22439999999999999</v>
+      </c>
+      <c r="M66" s="93">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="N66" s="96">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="O66" s="86" cm="1">
+        <f t="array" ref="O66">AVERAGE(ABS(P66:S66))</f>
+        <v>1.3350000000000002E-2</v>
+      </c>
+      <c r="P66" s="105">
+        <v>-3.4200000000000001E-2</v>
+      </c>
+      <c r="Q66" s="62">
+        <v>1.49E-2</v>
+      </c>
+      <c r="R66" s="62">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="S66" s="106">
+        <v>-8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A67" s="114"/>
+      <c r="B67" s="112"/>
+      <c r="C67" s="108"/>
+      <c r="D67" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="100" cm="1">
+        <f t="array" ref="E67">AVERAGE(ABS(F67:I67))</f>
+        <v>6.7100000000000007E-2</v>
+      </c>
+      <c r="F67" s="98">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="G67" s="98">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="H67" s="98">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="I67" s="99">
+        <v>0.1178</v>
+      </c>
+      <c r="J67" s="100" cm="1">
+        <f t="array" ref="J67">AVERAGE(ABS(K67:N67))</f>
+        <v>0.12219999999999999</v>
+      </c>
+      <c r="K67" s="98">
+        <v>6.1800000000000001E-2</v>
+      </c>
+      <c r="L67" s="98">
+        <v>0.1744</v>
+      </c>
+      <c r="M67" s="98">
+        <v>4.2299999999999997E-2</v>
+      </c>
+      <c r="N67" s="99">
+        <v>0.21029999999999999</v>
+      </c>
+      <c r="O67" s="55">
+        <f>AVERAGE(ABS(P67),ABS(Q67),ABS(R67),ABS(S67))</f>
+        <v>1.6725E-2</v>
+      </c>
+      <c r="P67" s="46">
+        <v>-4.4600000000000001E-2</v>
+      </c>
+      <c r="Q67" s="66">
+        <v>5.3E-3</v>
+      </c>
+      <c r="R67" s="66">
         <v>0</v>
       </c>
-      <c r="F66" s="127"/>
-      <c r="G66" s="127"/>
-      <c r="H66" s="127"/>
-      <c r="I66" s="130"/>
-      <c r="J66" s="131" cm="1">
-        <f t="array" ref="J66">AVERAGE(ABS(K66:N66))</f>
-        <v>0</v>
-      </c>
-      <c r="K66" s="127"/>
-      <c r="L66" s="127"/>
-      <c r="M66" s="127"/>
-      <c r="N66" s="130"/>
-      <c r="O66" s="60" cm="1">
-        <f t="array" ref="O66">AVERAGE(ABS(P66:S66))</f>
-        <v>0</v>
-      </c>
-      <c r="P66" s="67"/>
-      <c r="Q66" s="67"/>
-      <c r="R66" s="67"/>
-      <c r="S66" s="68"/>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="102"/>
-      <c r="B67" s="99"/>
-      <c r="C67" s="103"/>
-      <c r="D67" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="E67" s="134" cm="1">
-        <f t="array" ref="E67">AVERAGE(ABS(F67:I67))</f>
-        <v>0</v>
-      </c>
-      <c r="F67" s="132"/>
-      <c r="G67" s="132"/>
-      <c r="H67" s="132"/>
-      <c r="I67" s="133"/>
-      <c r="J67" s="134" cm="1">
-        <f t="array" ref="J67">AVERAGE(ABS(K67:N67))</f>
-        <v>0</v>
-      </c>
-      <c r="K67" s="132"/>
-      <c r="L67" s="132"/>
-      <c r="M67" s="132"/>
-      <c r="N67" s="133"/>
-      <c r="O67" s="60" cm="1">
-        <f t="array" ref="O67">AVERAGE(ABS(P67:S67))</f>
-        <v>0</v>
-      </c>
-      <c r="P67" s="47"/>
-      <c r="Q67" s="47"/>
-      <c r="R67" s="47"/>
-      <c r="S67" s="45"/>
-    </row>
-    <row r="68" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="102"/>
-      <c r="B68" s="99"/>
-      <c r="C68" s="103" t="s">
+      <c r="S67" s="44">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A68" s="114"/>
+      <c r="B68" s="112"/>
+      <c r="C68" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="D68" s="86" t="s">
+      <c r="D68" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="E68" s="60" cm="1">
+      <c r="E68" s="86" cm="1">
         <f t="array" ref="E68">AVERAGE(ABS(F68:I68))</f>
         <v>0</v>
       </c>
-      <c r="F68" s="49"/>
-      <c r="G68" s="49"/>
-      <c r="H68" s="49"/>
-      <c r="I68" s="44"/>
-      <c r="J68" s="60" cm="1">
+      <c r="F68" s="48">
+        <v>0</v>
+      </c>
+      <c r="G68" s="48">
+        <v>0</v>
+      </c>
+      <c r="H68" s="48">
+        <v>0</v>
+      </c>
+      <c r="I68" s="43">
+        <v>0</v>
+      </c>
+      <c r="J68" s="86" cm="1">
         <f t="array" ref="J68">AVERAGE(ABS(K68:N68))</f>
         <v>0</v>
       </c>
-      <c r="K68" s="49"/>
-      <c r="L68" s="49"/>
-      <c r="M68" s="49"/>
-      <c r="N68" s="44"/>
-      <c r="O68" s="60" cm="1">
+      <c r="K68" s="48">
+        <v>0</v>
+      </c>
+      <c r="L68" s="48">
+        <v>0</v>
+      </c>
+      <c r="M68" s="48">
+        <v>0</v>
+      </c>
+      <c r="N68" s="43">
+        <v>0</v>
+      </c>
+      <c r="O68" s="138" cm="1">
         <f t="array" ref="O68">AVERAGE(ABS(P68:S68))</f>
         <v>0</v>
       </c>
-      <c r="P68" s="53"/>
-      <c r="Q68" s="53"/>
-      <c r="R68" s="53"/>
-      <c r="S68" s="54"/>
-    </row>
-    <row r="69" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="102"/>
-      <c r="B69" s="99"/>
-      <c r="C69" s="103"/>
-      <c r="D69" s="86" t="s">
+      <c r="P68" s="102">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="102">
+        <v>0</v>
+      </c>
+      <c r="R68" s="102">
+        <v>0</v>
+      </c>
+      <c r="S68" s="103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="114"/>
+      <c r="B69" s="112"/>
+      <c r="C69" s="108"/>
+      <c r="D69" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="E69" s="60" cm="1">
+      <c r="E69" s="55" cm="1">
         <f t="array" ref="E69">AVERAGE(ABS(F69:I69))</f>
         <v>0</v>
       </c>
-      <c r="F69" s="88"/>
-      <c r="G69" s="88"/>
-      <c r="H69" s="88"/>
+      <c r="F69" s="83"/>
+      <c r="G69" s="83"/>
+      <c r="H69" s="83"/>
       <c r="I69" s="36"/>
-      <c r="J69" s="60" cm="1">
+      <c r="J69" s="55" cm="1">
         <f t="array" ref="J69">AVERAGE(ABS(K69:N69))</f>
         <v>0</v>
       </c>
-      <c r="K69" s="88"/>
-      <c r="L69" s="88"/>
-      <c r="M69" s="88"/>
+      <c r="K69" s="83"/>
+      <c r="L69" s="83"/>
+      <c r="M69" s="83"/>
       <c r="N69" s="36"/>
-      <c r="O69" s="60" cm="1">
+      <c r="O69" s="97" cm="1">
         <f t="array" ref="O69">AVERAGE(ABS(P69:S69))</f>
         <v>0</v>
       </c>
-      <c r="P69" s="55"/>
-      <c r="Q69" s="55"/>
-      <c r="R69" s="55"/>
-      <c r="S69" s="56"/>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70" s="102"/>
-      <c r="B70" s="99"/>
-      <c r="C70" s="103"/>
+      <c r="P69" s="93"/>
+      <c r="Q69" s="93"/>
+      <c r="R69" s="93"/>
+      <c r="S69" s="96"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A70" s="114"/>
+      <c r="B70" s="112"/>
+      <c r="C70" s="108"/>
       <c r="D70" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E70" s="60" cm="1">
+      <c r="E70" s="55" cm="1">
         <f t="array" ref="E70">AVERAGE(ABS(F70:I70))</f>
+        <v>3.6149999999999995E-2</v>
+      </c>
+      <c r="F70" s="83">
+        <v>5.33E-2</v>
+      </c>
+      <c r="G70" s="83">
+        <v>5.79E-2</v>
+      </c>
+      <c r="H70" s="69">
+        <v>-6.1000000000000004E-3</v>
+      </c>
+      <c r="I70" s="36">
+        <v>-2.7300000000000001E-2</v>
+      </c>
+      <c r="J70" s="55" cm="1">
+        <f t="array" ref="J70">AVERAGE(ABS(K70:N70))</f>
+        <v>6.0425000000000006E-2</v>
+      </c>
+      <c r="K70" s="83">
+        <v>9.11E-2</v>
+      </c>
+      <c r="L70" s="83">
+        <v>0.12180000000000001</v>
+      </c>
+      <c r="M70" s="69">
+        <v>-1.4800000000000001E-2</v>
+      </c>
+      <c r="N70" s="84">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="O70" s="97" cm="1">
+        <f t="array" ref="O70">AVERAGE(ABS(P70:S70))</f>
+        <v>2.7075000000000002E-2</v>
+      </c>
+      <c r="P70" s="93">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="Q70" s="93">
+        <v>-1.4200000000000001E-2</v>
+      </c>
+      <c r="R70" s="93">
+        <v>-1.3299999999999999E-2</v>
+      </c>
+      <c r="S70" s="96">
+        <v>-7.3099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A71" s="114"/>
+      <c r="B71" s="112"/>
+      <c r="C71" s="108"/>
+      <c r="D71" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" s="55" cm="1">
+        <f t="array" ref="E71">AVERAGE(ABS(F71:I71))</f>
+        <v>1.8325000000000001E-2</v>
+      </c>
+      <c r="F71" s="70">
+        <v>-1.0800000000000001E-2</v>
+      </c>
+      <c r="G71" s="70">
+        <v>0.03</v>
+      </c>
+      <c r="H71" s="49">
+        <v>-1.17E-2</v>
+      </c>
+      <c r="I71" s="71">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="J71" s="52" cm="1">
+        <f t="array" ref="J71">AVERAGE(ABS(K71:N71))</f>
+        <v>4.7499999999999994E-2</v>
+      </c>
+      <c r="K71" s="70">
+        <v>-4.2799999999999998E-2</v>
+      </c>
+      <c r="L71" s="70">
+        <v>8.4599999999999995E-2</v>
+      </c>
+      <c r="M71" s="49">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="N71" s="37">
+        <v>4.36E-2</v>
+      </c>
+      <c r="O71" s="100" cm="1">
+        <f t="array" ref="O71">AVERAGE(ABS(P71:S71))</f>
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="P71" s="98">
+        <v>-5.96E-2</v>
+      </c>
+      <c r="Q71" s="98">
+        <v>-4.2799999999999998E-2</v>
+      </c>
+      <c r="R71" s="98">
+        <v>-4.8099999999999997E-2</v>
+      </c>
+      <c r="S71" s="99">
+        <v>-1.3899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A72" s="114"/>
+      <c r="B72" s="112"/>
+      <c r="C72" s="108" t="s">
+        <v>46</v>
+      </c>
+      <c r="D72" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="86">
+        <f t="shared" ref="E72:E73" si="9">AVERAGE(ABS(G72),ABS(I72))</f>
         <v>0</v>
       </c>
-      <c r="F70" s="88"/>
-      <c r="G70" s="88"/>
-      <c r="H70" s="88"/>
-      <c r="I70" s="36"/>
-      <c r="J70" s="60" cm="1">
-        <f t="array" ref="J70">AVERAGE(ABS(K70:N70))</f>
+      <c r="F72" s="102">
+        <v>0.1011</v>
+      </c>
+      <c r="G72" s="48">
         <v>0</v>
       </c>
-      <c r="K70" s="88"/>
-      <c r="L70" s="88"/>
-      <c r="M70" s="88"/>
-      <c r="N70" s="36"/>
-      <c r="O70" s="129" cm="1">
-        <f t="array" ref="O70">AVERAGE(ABS(P70:S70))</f>
+      <c r="H72" s="102">
         <v>0</v>
       </c>
-      <c r="P70" s="127"/>
-      <c r="Q70" s="127"/>
-      <c r="R70" s="127"/>
-      <c r="S70" s="130"/>
-    </row>
-    <row r="71" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="102"/>
-      <c r="B71" s="99"/>
-      <c r="C71" s="103"/>
-      <c r="D71" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="E71" s="60" cm="1">
-        <f t="array" ref="E71">AVERAGE(ABS(F71:I71))</f>
+      <c r="I72" s="43">
         <v>0</v>
       </c>
-      <c r="F71" s="50"/>
-      <c r="G71" s="50"/>
-      <c r="H71" s="50"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="57" cm="1">
-        <f t="array" ref="J71">AVERAGE(ABS(K71:N71))</f>
+      <c r="J72" s="86">
+        <f t="shared" ref="J72:J73" si="10">AVERAGE(ABS(L72),ABS(N72))</f>
+        <v>4.15E-3</v>
+      </c>
+      <c r="K72" s="102">
+        <v>0.16220000000000001</v>
+      </c>
+      <c r="L72" s="48">
         <v>0</v>
       </c>
-      <c r="K71" s="50"/>
-      <c r="L71" s="50"/>
-      <c r="M71" s="50"/>
-      <c r="N71" s="37"/>
-      <c r="O71" s="134" cm="1">
-        <f t="array" ref="O71">AVERAGE(ABS(P71:S71))</f>
+      <c r="M72" s="102">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="N72" s="43">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="O72" s="55">
+        <f t="shared" ref="O72:O73" si="11">AVERAGE(ABS(P72),ABS(R72))</f>
+        <v>2.92E-2</v>
+      </c>
+      <c r="P72" s="48">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="Q72" s="102">
         <v>0</v>
       </c>
-      <c r="P71" s="132"/>
-      <c r="Q71" s="132"/>
-      <c r="R71" s="132"/>
-      <c r="S71" s="133"/>
-    </row>
-    <row r="72" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="102"/>
-      <c r="B72" s="99"/>
-      <c r="C72" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="D72" s="86" t="s">
-        <v>25</v>
-      </c>
-      <c r="E72" s="60" cm="1">
-        <f t="array" ref="E72">AVERAGE(ABS(F72:I72))</f>
+      <c r="R72" s="48">
+        <v>-2.6599999999999999E-2</v>
+      </c>
+      <c r="S72" s="103">
+        <v>-1.47E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="114"/>
+      <c r="B73" s="112"/>
+      <c r="C73" s="108"/>
+      <c r="D73" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="E73" s="55">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F72" s="53"/>
-      <c r="G72" s="49"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="44"/>
-      <c r="J72" s="60" cm="1">
-        <f t="array" ref="J72">AVERAGE(ABS(K72:N72))</f>
+      <c r="F73" s="93"/>
+      <c r="G73" s="83"/>
+      <c r="H73" s="93"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="55">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K72" s="53"/>
-      <c r="L72" s="49"/>
-      <c r="M72" s="53"/>
-      <c r="N72" s="44"/>
-      <c r="O72" s="60" cm="1">
-        <f t="array" ref="O72">AVERAGE(ABS(P72:S72))</f>
+      <c r="K73" s="93"/>
+      <c r="L73" s="83"/>
+      <c r="M73" s="93"/>
+      <c r="N73" s="36"/>
+      <c r="O73" s="55">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P72" s="49"/>
-      <c r="Q72" s="53"/>
-      <c r="R72" s="49"/>
-      <c r="S72" s="54"/>
-    </row>
-    <row r="73" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="102"/>
-      <c r="B73" s="99"/>
-      <c r="C73" s="103"/>
-      <c r="D73" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="E73" s="60" cm="1">
-        <f t="array" ref="E73">AVERAGE(ABS(F73:I73))</f>
-        <v>0</v>
-      </c>
-      <c r="F73" s="55"/>
-      <c r="G73" s="88"/>
-      <c r="H73" s="55"/>
-      <c r="I73" s="36"/>
-      <c r="J73" s="60" cm="1">
-        <f t="array" ref="J73">AVERAGE(ABS(K73:N73))</f>
-        <v>0</v>
-      </c>
-      <c r="K73" s="55"/>
-      <c r="L73" s="88"/>
-      <c r="M73" s="55"/>
-      <c r="N73" s="36"/>
-      <c r="O73" s="60" cm="1">
-        <f t="array" ref="O73">AVERAGE(ABS(P73:S73))</f>
-        <v>0</v>
-      </c>
-      <c r="P73" s="88"/>
-      <c r="Q73" s="55"/>
-      <c r="R73" s="88"/>
-      <c r="S73" s="56"/>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" s="102"/>
-      <c r="B74" s="99"/>
-      <c r="C74" s="103"/>
+      <c r="P73" s="83"/>
+      <c r="Q73" s="93"/>
+      <c r="R73" s="83"/>
+      <c r="S73" s="96"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A74" s="114"/>
+      <c r="B74" s="112"/>
+      <c r="C74" s="108"/>
       <c r="D74" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E74" s="59">
+      <c r="E74" s="55">
         <f>AVERAGE(ABS(G74),ABS(I74))</f>
-        <v>0</v>
-      </c>
-      <c r="F74" s="127"/>
-      <c r="G74" s="88"/>
-      <c r="H74" s="127"/>
-      <c r="I74" s="36"/>
-      <c r="J74" s="59">
+        <v>1.17E-2</v>
+      </c>
+      <c r="F74" s="93">
+        <v>-1.49E-2</v>
+      </c>
+      <c r="G74" s="83">
+        <v>-2.0500000000000001E-2</v>
+      </c>
+      <c r="H74" s="93">
+        <v>2.3E-3</v>
+      </c>
+      <c r="I74" s="84">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="J74" s="55">
         <f>AVERAGE(ABS(L74),ABS(N74))</f>
-        <v>0</v>
-      </c>
-      <c r="K74" s="127"/>
-      <c r="L74" s="88"/>
-      <c r="M74" s="127"/>
-      <c r="N74" s="36"/>
-      <c r="O74" s="59">
-        <f>AVERAGE(ABS(Q74),ABS(S74))</f>
-        <v>0</v>
-      </c>
-      <c r="P74" s="88"/>
-      <c r="Q74" s="127"/>
-      <c r="R74" s="88"/>
-      <c r="S74" s="130"/>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A75" s="102"/>
-      <c r="B75" s="101"/>
-      <c r="C75" s="105"/>
-      <c r="D75" s="86" t="s">
+        <v>9.5499999999999995E-3</v>
+      </c>
+      <c r="K74" s="93">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="L74" s="69">
+        <v>-1.03E-2</v>
+      </c>
+      <c r="M74" s="93">
+        <v>-1.06E-2</v>
+      </c>
+      <c r="N74" s="84">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="O74" s="55">
+        <f>AVERAGE(ABS(P74),ABS(R74))</f>
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="P74" s="83">
+        <v>-7.2999999999999995E-2</v>
+      </c>
+      <c r="Q74" s="93">
+        <v>-2.9399999999999999E-2</v>
+      </c>
+      <c r="R74" s="69">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="S74" s="96">
+        <v>-5.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A75" s="114"/>
+      <c r="B75" s="113"/>
+      <c r="C75" s="110"/>
+      <c r="D75" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="E75" s="60">
+      <c r="E75" s="86">
         <f>AVERAGE(ABS(G75),ABS(I75))</f>
-        <v>0</v>
-      </c>
-      <c r="F75" s="132"/>
-      <c r="G75" s="50"/>
-      <c r="H75" s="132"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="57">
+        <v>6.8500000000000002E-3</v>
+      </c>
+      <c r="F75" s="98">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="G75" s="70">
+        <v>-9.9000000000000008E-3</v>
+      </c>
+      <c r="H75" s="98">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I75" s="37">
+        <v>3.8E-3</v>
+      </c>
+      <c r="J75" s="52">
         <f>AVERAGE(ABS(L75),ABS(N75))</f>
-        <v>0</v>
-      </c>
-      <c r="K75" s="132"/>
-      <c r="L75" s="50"/>
-      <c r="M75" s="132"/>
-      <c r="N75" s="37"/>
-      <c r="O75" s="57">
-        <f>AVERAGE(ABS(Q75),ABS(S75))</f>
-        <v>0</v>
-      </c>
-      <c r="P75" s="50"/>
-      <c r="Q75" s="132"/>
-      <c r="R75" s="50"/>
-      <c r="S75" s="133"/>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C76" s="73"/>
-      <c r="E76" s="97"/>
-      <c r="I76" s="49"/>
-      <c r="J76" s="97"/>
-      <c r="N76" s="49"/>
-      <c r="O76" s="97"/>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D77" s="88"/>
-      <c r="E77" s="96"/>
-      <c r="F77" s="88"/>
-      <c r="I77" s="88"/>
-      <c r="J77" s="96"/>
-      <c r="M77" s="88"/>
-      <c r="N77" s="88"/>
-      <c r="O77" s="96"/>
-      <c r="R77" s="88"/>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D78" s="88"/>
-      <c r="E78" s="96"/>
-      <c r="G78" s="88"/>
-      <c r="J78" s="96"/>
-      <c r="O78" s="96"/>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D79" s="88"/>
-      <c r="E79" s="88"/>
-      <c r="G79" s="88"/>
-      <c r="O79" s="88"/>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.12E-2</v>
+      </c>
+      <c r="K75" s="98">
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="L75" s="70">
+        <v>-1.03E-2</v>
+      </c>
+      <c r="M75" s="98">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="N75" s="37">
+        <v>1.21E-2</v>
+      </c>
+      <c r="O75" s="59">
+        <f>AVERAGE(ABS(P75),ABS(R75))</f>
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="P75" s="70">
+        <v>-3.0099999999999998E-2</v>
+      </c>
+      <c r="Q75" s="98">
+        <v>-2.53E-2</v>
+      </c>
+      <c r="R75" s="49">
+        <v>-1.55E-2</v>
+      </c>
+      <c r="S75" s="99">
+        <v>-6.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C76" s="68"/>
+      <c r="E76" s="92"/>
+      <c r="I76" s="48"/>
+      <c r="J76" s="92"/>
+      <c r="N76" s="48"/>
+      <c r="O76" s="92"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D77" s="83"/>
+      <c r="E77" s="91"/>
+      <c r="F77" s="83"/>
+      <c r="I77" s="83"/>
+      <c r="J77" s="91"/>
+      <c r="M77" s="83"/>
+      <c r="N77" s="83"/>
+      <c r="O77" s="91"/>
+      <c r="R77" s="83"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D78" s="83"/>
+      <c r="E78" s="91"/>
+      <c r="G78" s="83"/>
+      <c r="J78" s="91"/>
+      <c r="O78" s="91"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D79" s="83"/>
+      <c r="E79" s="83"/>
+      <c r="G79" s="83"/>
+      <c r="O79" s="83"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="O80" s="40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T80" s="40" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.3">
       <c r="M81" s="40">
         <v>100</v>
       </c>
@@ -6783,108 +7253,108 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.3">
       <c r="M82" s="40">
         <v>75</v>
       </c>
       <c r="S82" s="40" t="e">
-        <f t="shared" ref="S82:S86" si="9">AVERAGE(O82:R82)</f>
+        <f t="shared" ref="S82:S86" si="12">AVERAGE(O82:R82)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="X82" s="40" t="e">
-        <f t="shared" ref="X82:X86" si="10">AVERAGE(T82:W82)</f>
+        <f t="shared" ref="X82:X86" si="13">AVERAGE(T82:W82)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:24" x14ac:dyDescent="0.3">
       <c r="M83" s="40">
         <v>50</v>
       </c>
       <c r="S83" s="40" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X83" s="40" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.3">
       <c r="M84" s="40">
         <v>25</v>
       </c>
       <c r="S84" s="40" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X84" s="40" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:24" x14ac:dyDescent="0.3">
       <c r="M85" s="40">
         <v>10</v>
       </c>
       <c r="S85" s="40" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X85" s="40" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:24" x14ac:dyDescent="0.3">
       <c r="M86" s="40">
         <v>1</v>
       </c>
       <c r="S86" s="40" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X86" s="40" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C89" s="40"/>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C90" s="40"/>
     </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C91" s="40"/>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C92" s="40"/>
     </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C93" s="40"/>
     </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C94" s="40"/>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C95" s="40"/>
     </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C96" s="40"/>
     </row>
-    <row r="97" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="40">
     <mergeCell ref="Q5:S11"/>
@@ -6913,16 +7383,16 @@
     <mergeCell ref="J3:N3"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="D42:D43"/>
+    <mergeCell ref="A60:A75"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C68:C71"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A59"/>
-    <mergeCell ref="B62:B75"/>
-    <mergeCell ref="A60:A75"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="B60:B75"/>
     <mergeCell ref="C48:C51"/>
     <mergeCell ref="C52:C55"/>
     <mergeCell ref="C56:C59"/>
@@ -6937,29 +7407,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D43789-1003-47D8-B7A4-FDE215F69927}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="4"/>
-    <col min="4" max="4" width="21.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="4"/>
+    <col min="2" max="2" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="4"/>
+    <col min="4" max="4" width="21.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="28.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="4"/>
+    <col min="7" max="7" width="28.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="4"/>
+    <col min="14" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -6970,59 +7440,59 @@
       <c r="I1" s="14"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="118" t="s">
+      <c r="C2" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="118" t="s">
+      <c r="D2" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="118" t="s">
+      <c r="E2" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="118" t="s">
+      <c r="F2" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="112" t="s">
+      <c r="G2" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="119" t="s">
+      <c r="H2" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="112" t="s">
+      <c r="I2" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="121" t="s">
+      <c r="J2" s="132" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="O2" s="19"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
-      <c r="B3" s="117"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="122"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="133"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="O3" s="19"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="109" t="s">
+    <row r="4" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="75" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="10">
@@ -7053,8 +7523,8 @@
       <c r="L4" s="6"/>
       <c r="O4" s="19"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="121"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -7070,16 +7540,16 @@
       <c r="F5" s="3">
         <v>0.5</v>
       </c>
-      <c r="G5" s="62"/>
+      <c r="G5" s="57"/>
       <c r="H5" s="29"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="77"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="O5" s="19"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="110"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="121"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -7111,8 +7581,8 @@
       <c r="L6" s="6"/>
       <c r="O6" s="19"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="110"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="121"/>
       <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
@@ -7144,8 +7614,8 @@
       <c r="L7" s="6"/>
       <c r="O7" s="19"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="111"/>
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="122"/>
       <c r="B8" s="18" t="s">
         <v>16</v>
       </c>
@@ -7177,43 +7647,43 @@
       <c r="L8" s="6"/>
       <c r="O8" s="19"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="123" t="s">
+    <row r="9" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="79">
+      <c r="C9" s="74">
         <v>1</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="79" t="s">
+      <c r="E9" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="79" t="s">
+      <c r="F9" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="82" t="s">
+      <c r="G9" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="82">
+      <c r="H9" s="77">
         <v>1E-10</v>
       </c>
-      <c r="I9" s="79">
+      <c r="I9" s="74">
         <v>256</v>
       </c>
-      <c r="J9" s="83" t="s">
+      <c r="J9" s="78" t="s">
         <v>51</v>
       </c>
       <c r="K9" s="21"/>
       <c r="L9" s="6"/>
       <c r="O9" s="19"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="110"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="121"/>
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
@@ -7238,8 +7708,8 @@
       <c r="M10" s="6"/>
       <c r="O10" s="19"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="110"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="121"/>
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
@@ -7272,8 +7742,8 @@
       <c r="M11" s="6"/>
       <c r="O11" s="19"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="110"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="121"/>
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
@@ -7306,8 +7776,8 @@
       <c r="M12" s="6"/>
       <c r="O12" s="19"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="111"/>
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="122"/>
       <c r="B13" s="12" t="s">
         <v>16</v>
       </c>
@@ -7339,8 +7809,8 @@
       <c r="L13" s="6"/>
       <c r="O13" s="19"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -7353,7 +7823,7 @@
       <c r="J15" s="7"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -7367,60 +7837,60 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
-      <c r="B17" s="125" t="s">
+      <c r="B17" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="112" t="s">
+      <c r="C17" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="112" t="s">
+      <c r="D17" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="112" t="s">
+      <c r="E17" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="112" t="s">
+      <c r="F17" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="112" t="s">
+      <c r="G17" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="124" t="s">
+      <c r="H17" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="112" t="s">
+      <c r="I17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="112" t="s">
+      <c r="J17" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="114" t="s">
+      <c r="K17" s="125" t="s">
         <v>10</v>
       </c>
       <c r="L17" s="21"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
-      <c r="B18" s="126"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="115"/>
+      <c r="B18" s="137"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="124"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="126"/>
       <c r="L18" s="21"/>
     </row>
-    <row r="19" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="109" t="s">
+    <row r="19" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="74" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="10">
@@ -7435,24 +7905,24 @@
       <c r="F19" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="84" t="s">
+      <c r="G19" s="79" t="s">
         <v>48</v>
       </c>
       <c r="H19" s="29">
         <v>1E-10</v>
       </c>
-      <c r="I19" s="84">
+      <c r="I19" s="79">
         <v>64</v>
       </c>
       <c r="J19" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="K19" s="78" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="110"/>
+      <c r="K19" s="73" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="121"/>
       <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
@@ -7475,8 +7945,8 @@
       <c r="K20" s="35"/>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="110"/>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="121"/>
       <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
@@ -7509,8 +7979,8 @@
       </c>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="110"/>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="121"/>
       <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
@@ -7542,8 +8012,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="111"/>
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="122"/>
       <c r="B23" s="13" t="s">
         <v>34</v>
       </c>
@@ -7575,43 +8045,43 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="109" t="s">
+    <row r="24" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="79" t="s">
+      <c r="B24" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="79">
+      <c r="C24" s="74">
         <v>1</v>
       </c>
-      <c r="D24" s="79" t="s">
+      <c r="D24" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="79" t="s">
+      <c r="E24" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="79" t="s">
+      <c r="F24" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="82" t="s">
+      <c r="G24" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="82">
+      <c r="H24" s="77">
         <v>1E-10</v>
       </c>
-      <c r="I24" s="79">
+      <c r="I24" s="74">
         <v>256</v>
       </c>
       <c r="J24" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="K24" s="81" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="110"/>
+      <c r="K24" s="76" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="121"/>
       <c r="B25" s="2" t="s">
         <v>32</v>
       </c>
@@ -7633,8 +8103,8 @@
       <c r="J25" s="34"/>
       <c r="K25" s="35"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="110"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="121"/>
       <c r="B26" s="2" t="s">
         <v>15</v>
       </c>
@@ -7666,8 +8136,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="110"/>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="121"/>
       <c r="B27" s="2" t="s">
         <v>33</v>
       </c>
@@ -7699,8 +8169,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="111"/>
+    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="122"/>
       <c r="B28" s="13" t="s">
         <v>34</v>
       </c>
@@ -7732,8 +8202,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>

--- a/experiments/all_results.xlsx
+++ b/experiments/all_results.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alycia\Documents\adaptive-hypernets\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7C84B5-0FA1-4866-BA13-B198FDEA534B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327779FE-B97D-4D3D-9E3F-656E0054830B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="665" firstSheet="2" activeTab="2" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
+    <workbookView xWindow="11784" yWindow="-156" windowWidth="17280" windowHeight="8964" tabRatio="665" firstSheet="3" activeTab="4" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart2" sheetId="13" r:id="rId1"/>
     <sheet name="Chart1" sheetId="12" r:id="rId2"/>
     <sheet name="compas-comparison table" sheetId="11" r:id="rId3"/>
     <sheet name="compas-Param and Arch" sheetId="8" r:id="rId4"/>
+    <sheet name="FHN-new" sheetId="14" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="83">
   <si>
     <t>Model</t>
   </si>
@@ -155,18 +156,6 @@
     <t>Time</t>
   </si>
   <si>
-    <t>LR + fair</t>
-  </si>
-  <si>
-    <t>NN + fair</t>
-  </si>
-  <si>
-    <t>LR - HN + fair</t>
-  </si>
-  <si>
-    <t>NN - HN + fair</t>
-  </si>
-  <si>
     <t>Avg</t>
   </si>
   <si>
@@ -204,18 +193,6 @@
   </si>
   <si>
     <t>Fairness</t>
-  </si>
-  <si>
-    <t>h: .0001, c: .01</t>
-  </si>
-  <si>
-    <t>h:2000, c:50</t>
-  </si>
-  <si>
-    <t>h: .00001, c: .0001</t>
-  </si>
-  <si>
-    <t>h: 2000, c: 50</t>
   </si>
   <si>
     <t>eod</t>
@@ -302,10 +279,37 @@
     <t>6 min 6 sec</t>
   </si>
   <si>
-    <t>dp:100, eo: 25</t>
+    <t>10 min 27 sec</t>
   </si>
   <si>
-    <t>dp:25, eo: 200</t>
+    <t>5000, 50</t>
+  </si>
+  <si>
+    <t>h: 1e-5, c:5e-5</t>
+  </si>
+  <si>
+    <t>17 min 53 sec</t>
+  </si>
+  <si>
+    <t>dp: 100, eo:100</t>
+  </si>
+  <si>
+    <t>23 min 1 sec</t>
+  </si>
+  <si>
+    <t>21 min 16 sec</t>
+  </si>
+  <si>
+    <t>5 min 24 sec</t>
+  </si>
+  <si>
+    <t>13 min 12 sec</t>
+  </si>
+  <si>
+    <t>18 min 50 sec</t>
+  </si>
+  <si>
+    <t>15 min 48 sec</t>
   </si>
 </sst>
 </file>
@@ -346,7 +350,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -499,21 +503,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -530,21 +519,6 @@
       </right>
       <top/>
       <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -589,41 +563,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thick">
         <color indexed="64"/>
@@ -711,32 +650,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thick">
         <color indexed="64"/>
@@ -747,17 +660,6 @@
       <bottom style="thick">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -911,19 +813,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thick">
         <color indexed="64"/>
@@ -966,12 +855,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1002,20 +888,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1026,28 +903,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1065,12 +924,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1086,151 +939,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1239,40 +1089,40 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1284,14 +1134,100 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1299,58 +1235,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1359,32 +1274,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4082,3281 +3985,3305 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FA34C5-480C-4D1A-AC66-54DFEF26762F}">
   <dimension ref="A1:X109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K71" sqref="K71"/>
+    <sheetView topLeftCell="A48" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:S75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="40"/>
-    <col min="3" max="3" width="25" style="90" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="14" width="8.6640625" style="40" customWidth="1"/>
-    <col min="15" max="15" width="13.109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.6640625" style="40" customWidth="1"/>
-    <col min="18" max="18" width="10.5546875" style="40" customWidth="1"/>
-    <col min="19" max="16384" width="9.109375" style="40"/>
+    <col min="1" max="2" width="9.109375" style="28"/>
+    <col min="3" max="3" width="25" style="77" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="8.6640625" style="28" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.6640625" style="28" customWidth="1"/>
+    <col min="18" max="18" width="10.5546875" style="28" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="119"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C2" s="53"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="83"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="70"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="114" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="114" t="s">
+      <c r="A3" s="127" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="127" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="127" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="130" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="128"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="122"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="114" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="111" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="83"/>
-    </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="115"/>
-      <c r="B4" s="116"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="82" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="82" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="82" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="82" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="116"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
-    </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="113" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="118" t="s">
+      <c r="B5" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="113" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="80" t="s">
+      <c r="C5" s="123" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="35">
         <v>0.67800000000000005</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="33">
         <v>0.65</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="33">
         <v>0.65559999999999996</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="33">
         <v>0.6875</v>
       </c>
-      <c r="I5" s="42">
+      <c r="I5" s="30">
         <v>0.73850000000000005</v>
       </c>
-      <c r="J5" s="47">
+      <c r="J5" s="35">
         <f t="shared" ref="J5" si="0">AVERAGE(K5:N5)</f>
         <v>0.56464999999999999</v>
       </c>
-      <c r="K5" s="45">
+      <c r="K5" s="33">
         <v>0.6986</v>
       </c>
-      <c r="L5" s="45">
+      <c r="L5" s="33">
         <v>0.63949999999999996</v>
       </c>
-      <c r="M5" s="45">
+      <c r="M5" s="33">
         <v>0.48720000000000002</v>
       </c>
-      <c r="N5" s="42">
+      <c r="N5" s="30">
         <v>0.43330000000000002</v>
       </c>
-      <c r="O5" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="117" t="s">
-        <v>65</v>
-      </c>
-      <c r="R5" s="117"/>
-      <c r="S5" s="117"/>
+      <c r="O5" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="119" t="s">
+        <v>57</v>
+      </c>
+      <c r="R5" s="119"/>
+      <c r="S5" s="119"/>
     </row>
     <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="114"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="38" t="e">
+      <c r="A6" s="127"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="26" t="e">
         <f t="shared" ref="J6" si="1">AVERAGE(K6:N6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="117"/>
-      <c r="R6" s="117"/>
-      <c r="S6" s="117"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="114"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="41">
+      <c r="A7" s="127"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="29">
         <v>0.68120000000000003</v>
       </c>
-      <c r="F7" s="69">
+      <c r="F7" s="57">
         <v>0.67220000000000002</v>
       </c>
-      <c r="G7" s="83">
+      <c r="G7" s="70">
         <v>0.63890000000000002</v>
       </c>
-      <c r="H7" s="83">
+      <c r="H7" s="70">
         <v>0.69530000000000003</v>
       </c>
-      <c r="I7" s="84">
+      <c r="I7" s="71">
         <v>0.73850000000000005</v>
       </c>
-      <c r="J7" s="55">
+      <c r="J7" s="43">
         <f>AVERAGE(K7:N7)</f>
         <v>0.57247499999999996</v>
       </c>
-      <c r="K7" s="83">
+      <c r="K7" s="70">
         <v>0.69110000000000005</v>
       </c>
-      <c r="L7" s="83">
+      <c r="L7" s="70">
         <v>0.62429999999999997</v>
       </c>
-      <c r="M7" s="83">
+      <c r="M7" s="70">
         <v>0.54120000000000001</v>
       </c>
-      <c r="N7" s="84">
+      <c r="N7" s="71">
         <v>0.43330000000000002</v>
       </c>
-      <c r="O7" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="117"/>
-      <c r="R7" s="117"/>
-      <c r="S7" s="117"/>
+      <c r="O7" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="114"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="81" t="s">
+      <c r="A8" s="127"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="48">
         <v>0.69089999999999996</v>
       </c>
-      <c r="F8" s="66">
+      <c r="F8" s="54">
         <v>0.67220000000000002</v>
       </c>
-      <c r="G8" s="66">
+      <c r="G8" s="54">
         <v>0.65559999999999996</v>
       </c>
-      <c r="H8" s="66">
+      <c r="H8" s="54">
         <v>0.71879999999999999</v>
       </c>
-      <c r="I8" s="67">
+      <c r="I8" s="55">
         <v>0.73850000000000005</v>
       </c>
-      <c r="J8" s="59">
+      <c r="J8" s="47">
         <f>AVERAGE(K8:N8)</f>
         <v>0.58287500000000003</v>
       </c>
-      <c r="K8" s="66">
+      <c r="K8" s="54">
         <v>0.70050000000000001</v>
       </c>
-      <c r="L8" s="66">
+      <c r="L8" s="54">
         <v>0.64770000000000005</v>
       </c>
-      <c r="M8" s="66">
+      <c r="M8" s="54">
         <v>0.55000000000000004</v>
       </c>
-      <c r="N8" s="67">
+      <c r="N8" s="55">
         <v>0.43330000000000002</v>
       </c>
-      <c r="O8" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="117"/>
-      <c r="R8" s="117"/>
-      <c r="S8" s="117"/>
+      <c r="O8" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="119"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="114"/>
-      <c r="B9" s="112"/>
-      <c r="C9" s="108" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="81" t="s">
+      <c r="A9" s="127"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="125" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="35">
         <v>0.65529999999999999</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="36">
         <v>0.58889999999999998</v>
       </c>
-      <c r="G9" s="48">
+      <c r="G9" s="36">
         <v>0.62219999999999998</v>
       </c>
-      <c r="H9" s="48">
+      <c r="H9" s="36">
         <v>0.71089999999999998</v>
       </c>
-      <c r="I9" s="43">
+      <c r="I9" s="31">
         <v>0.73850000000000005</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="42">
         <f t="shared" ref="J9:J36" si="2">AVERAGE(K9:N9)</f>
         <v>0.56052500000000005</v>
       </c>
-      <c r="K9" s="48">
+      <c r="K9" s="36">
         <v>0.66359999999999997</v>
       </c>
-      <c r="L9" s="48">
+      <c r="L9" s="36">
         <v>0.61360000000000003</v>
       </c>
-      <c r="M9" s="48">
+      <c r="M9" s="36">
         <v>0.53159999999999996</v>
       </c>
-      <c r="N9" s="43">
+      <c r="N9" s="31">
         <v>0.43330000000000002</v>
       </c>
-      <c r="O9" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="117"/>
+      <c r="O9" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="119"/>
+      <c r="R9" s="119"/>
+      <c r="S9" s="119"/>
     </row>
     <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="114"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="55" t="e">
+      <c r="A10" s="127"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="43" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="117"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="117"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="119"/>
+      <c r="R10" s="119"/>
+      <c r="S10" s="119"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="114"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="61">
+      <c r="A11" s="127"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="49">
         <v>0.66500000000000004</v>
       </c>
-      <c r="F11" s="83">
+      <c r="F11" s="70">
         <v>0.59440000000000004</v>
       </c>
-      <c r="G11" s="69">
+      <c r="G11" s="57">
         <v>0.63329999999999997</v>
       </c>
-      <c r="H11" s="69">
+      <c r="H11" s="57">
         <v>0.73440000000000005</v>
       </c>
-      <c r="I11" s="84">
+      <c r="I11" s="71">
         <v>0.73850000000000005</v>
       </c>
-      <c r="J11" s="86">
+      <c r="J11" s="73">
         <f t="shared" si="2"/>
         <v>0.57979999999999998</v>
       </c>
-      <c r="K11" s="83">
+      <c r="K11" s="70">
         <v>0.64729999999999999</v>
       </c>
-      <c r="L11" s="69">
+      <c r="L11" s="57">
         <v>0.625</v>
       </c>
-      <c r="M11" s="69">
+      <c r="M11" s="57">
         <v>0.61360000000000003</v>
       </c>
-      <c r="N11" s="84">
+      <c r="N11" s="71">
         <v>0.43330000000000002</v>
       </c>
-      <c r="O11" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="117"/>
-      <c r="R11" s="117"/>
-      <c r="S11" s="117"/>
+      <c r="O11" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="119"/>
+      <c r="R11" s="119"/>
+      <c r="S11" s="119"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="114"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="81" t="s">
+      <c r="A12" s="127"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="46">
         <v>0.66500000000000004</v>
       </c>
-      <c r="F12" s="70">
+      <c r="F12" s="58">
         <v>0.61109999999999998</v>
       </c>
-      <c r="G12" s="70">
+      <c r="G12" s="58">
         <v>0.62780000000000002</v>
       </c>
-      <c r="H12" s="49">
+      <c r="H12" s="37">
         <v>0.72660000000000002</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="25">
         <v>0.73080000000000001</v>
       </c>
-      <c r="J12" s="52">
+      <c r="J12" s="40">
         <f t="shared" si="2"/>
         <v>0.56640000000000001</v>
       </c>
-      <c r="K12" s="70">
+      <c r="K12" s="58">
         <v>0.65349999999999997</v>
       </c>
-      <c r="L12" s="49">
+      <c r="L12" s="37">
         <v>0.61709999999999998</v>
       </c>
-      <c r="M12" s="49">
+      <c r="M12" s="37">
         <v>0.58819999999999995</v>
       </c>
-      <c r="N12" s="37">
+      <c r="N12" s="25">
         <v>0.40679999999999999</v>
       </c>
-      <c r="O12" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="P12" s="83"/>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="83"/>
-      <c r="S12" s="83"/>
+      <c r="O12" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="70"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="114"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="108" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="81" t="s">
+      <c r="A13" s="127"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="125" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="35">
         <v>0.623</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="36">
         <v>0.53890000000000005</v>
       </c>
-      <c r="G13" s="48">
+      <c r="G13" s="36">
         <v>0.63329999999999997</v>
       </c>
-      <c r="H13" s="48">
+      <c r="H13" s="36">
         <v>0.66410000000000002</v>
       </c>
-      <c r="I13" s="43">
+      <c r="I13" s="31">
         <v>0.68459999999999999</v>
       </c>
-      <c r="J13" s="54">
+      <c r="J13" s="42">
         <f t="shared" si="2"/>
         <v>0.50722500000000004</v>
       </c>
-      <c r="K13" s="48">
+      <c r="K13" s="36">
         <v>0.70040000000000002</v>
       </c>
-      <c r="L13" s="48">
+      <c r="L13" s="36">
         <v>0.6633</v>
       </c>
-      <c r="M13" s="48">
+      <c r="M13" s="36">
         <v>0.46910000000000002</v>
       </c>
-      <c r="N13" s="43">
+      <c r="N13" s="31">
         <v>0.1961</v>
       </c>
-      <c r="O13" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="P13" s="83"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="83"/>
-      <c r="S13" s="83"/>
+      <c r="O13" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
     </row>
     <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="114"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="55" t="e">
+      <c r="A14" s="127"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="43" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="83"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="114"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="41">
+      <c r="A15" s="127"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="29">
         <v>0.65210000000000001</v>
       </c>
-      <c r="F15" s="83">
+      <c r="F15" s="70">
         <v>0.57779999999999998</v>
       </c>
-      <c r="G15" s="69">
+      <c r="G15" s="57">
         <v>0.63890000000000002</v>
       </c>
-      <c r="H15" s="69">
+      <c r="H15" s="57">
         <v>0.74219999999999997</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="24">
         <v>0.68479999999999996</v>
       </c>
-      <c r="J15" s="55">
+      <c r="J15" s="43">
         <f t="shared" si="2"/>
         <v>0.49672499999999997</v>
       </c>
-      <c r="K15" s="69">
+      <c r="K15" s="57">
         <v>0.68310000000000004</v>
       </c>
-      <c r="L15" s="83">
+      <c r="L15" s="70">
         <v>0.61990000000000001</v>
       </c>
-      <c r="M15" s="69">
+      <c r="M15" s="57">
         <v>0.63739999999999997</v>
       </c>
-      <c r="N15" s="36">
+      <c r="N15" s="24">
         <v>4.65E-2</v>
       </c>
-      <c r="O15" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="83"/>
-      <c r="S15" s="83"/>
+      <c r="O15" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="70"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="114"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="81" t="s">
+      <c r="A16" s="127"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="58">
+      <c r="E16" s="46">
         <v>0.65369999999999995</v>
       </c>
-      <c r="F16" s="70">
+      <c r="F16" s="58">
         <v>0.62219999999999998</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16" s="37">
         <v>0.61670000000000003</v>
       </c>
-      <c r="H16" s="49">
+      <c r="H16" s="37">
         <v>0.70309999999999995</v>
       </c>
-      <c r="I16" s="71">
+      <c r="I16" s="59">
         <v>0.7</v>
       </c>
-      <c r="J16" s="59">
+      <c r="J16" s="47">
         <f t="shared" si="2"/>
         <v>0.51339999999999997</v>
       </c>
-      <c r="K16" s="49">
+      <c r="K16" s="37">
         <v>0.66339999999999999</v>
       </c>
-      <c r="L16" s="70">
+      <c r="L16" s="58">
         <v>0.66990000000000005</v>
       </c>
-      <c r="M16" s="49">
+      <c r="M16" s="37">
         <v>0.58699999999999997</v>
       </c>
-      <c r="N16" s="71">
+      <c r="N16" s="59">
         <v>0.1333</v>
       </c>
-      <c r="O16" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="83"/>
-      <c r="S16" s="83"/>
+      <c r="O16" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="70"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="114"/>
-      <c r="B17" s="112"/>
-      <c r="C17" s="108" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="81" t="s">
+      <c r="A17" s="127"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="125" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="47">
+      <c r="E17" s="35">
         <v>0.64890000000000003</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="36">
         <v>0.58889999999999998</v>
       </c>
-      <c r="G17" s="48">
+      <c r="G17" s="36">
         <v>0.63329999999999997</v>
       </c>
-      <c r="H17" s="48">
+      <c r="H17" s="36">
         <v>0.71879999999999999</v>
       </c>
-      <c r="I17" s="43">
+      <c r="I17" s="31">
         <v>0.68459999999999999</v>
       </c>
-      <c r="J17" s="55">
+      <c r="J17" s="43">
         <f t="shared" si="2"/>
         <v>0.44825000000000004</v>
       </c>
-      <c r="K17" s="48">
+      <c r="K17" s="36">
         <v>0.66059999999999997</v>
       </c>
-      <c r="L17" s="48">
+      <c r="L17" s="36">
         <v>0.57140000000000002</v>
       </c>
-      <c r="M17" s="48">
+      <c r="M17" s="36">
         <v>0.56100000000000005</v>
       </c>
-      <c r="N17" s="43">
-        <v>0</v>
-      </c>
-      <c r="O17" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="83"/>
-      <c r="S17" s="83"/>
+      <c r="N17" s="31">
+        <v>0</v>
+      </c>
+      <c r="O17" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
     </row>
     <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="114"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="47"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="55" t="e">
+      <c r="A18" s="127"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="35"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="43" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="83"/>
-      <c r="S18" s="83"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="70"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="114"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="83">
+      <c r="A19" s="127"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="70">
         <v>0.64239999999999997</v>
       </c>
-      <c r="F19" s="83">
+      <c r="F19" s="70">
         <v>0.58330000000000004</v>
       </c>
-      <c r="G19" s="83">
+      <c r="G19" s="70">
         <v>0.62780000000000002</v>
       </c>
-      <c r="H19" s="83">
+      <c r="H19" s="70">
         <v>0.72660000000000002</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="24">
         <v>0.66149999999999998</v>
       </c>
-      <c r="J19" s="55">
+      <c r="J19" s="43">
         <f t="shared" si="2"/>
         <v>0.46055000000000001</v>
       </c>
-      <c r="K19" s="83">
+      <c r="K19" s="70">
         <v>0.62309999999999999</v>
       </c>
-      <c r="L19" s="69">
+      <c r="L19" s="57">
         <v>0.5786</v>
       </c>
-      <c r="M19" s="83">
+      <c r="M19" s="70">
         <v>0.52049999999999996</v>
       </c>
-      <c r="N19" s="84">
+      <c r="N19" s="71">
         <v>0.12</v>
       </c>
-      <c r="O19" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="P19" s="83"/>
-      <c r="Q19" s="83"/>
-      <c r="R19" s="83"/>
-      <c r="S19" s="83"/>
+      <c r="O19" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="70"/>
     </row>
     <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="115"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="82" t="s">
+      <c r="A20" s="128"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="87">
+      <c r="E20" s="74">
         <v>0.66180000000000005</v>
       </c>
-      <c r="F20" s="88">
+      <c r="F20" s="75">
         <v>0.60560000000000003</v>
       </c>
-      <c r="G20" s="88">
+      <c r="G20" s="75">
         <v>0.65</v>
       </c>
-      <c r="H20" s="88">
+      <c r="H20" s="75">
         <v>0.73440000000000005</v>
       </c>
-      <c r="I20" s="89">
+      <c r="I20" s="76">
         <v>0.68459999999999999</v>
       </c>
-      <c r="J20" s="86">
+      <c r="J20" s="73">
         <f t="shared" si="2"/>
         <v>0.45215</v>
       </c>
-      <c r="K20" s="88">
+      <c r="K20" s="75">
         <v>0.6502</v>
       </c>
-      <c r="L20" s="51">
+      <c r="L20" s="39">
         <v>0.57140000000000002</v>
       </c>
-      <c r="M20" s="88">
+      <c r="M20" s="75">
         <v>0.54049999999999998</v>
       </c>
-      <c r="N20" s="50">
+      <c r="N20" s="38">
         <v>4.65E-2</v>
       </c>
-      <c r="O20" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="P20" s="83"/>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="83"/>
-      <c r="S20" s="83"/>
+      <c r="O20" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
     </row>
     <row r="21" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="113" t="s">
+      <c r="A21" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="118" t="s">
+      <c r="B21" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="113" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="80" t="s">
+      <c r="C21" s="123" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="47">
+      <c r="E21" s="35">
         <v>0.78380000000000005</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="33">
         <v>0.78069999999999995</v>
       </c>
-      <c r="G21" s="45">
+      <c r="G21" s="33">
         <v>0.78439999999999999</v>
       </c>
-      <c r="H21" s="45">
+      <c r="H21" s="33">
         <v>0.7883</v>
       </c>
-      <c r="I21" s="42">
+      <c r="I21" s="30">
         <v>0.77980000000000005</v>
       </c>
-      <c r="J21" s="56">
+      <c r="J21" s="44">
         <f t="shared" si="2"/>
         <v>0.44640000000000002</v>
       </c>
-      <c r="K21" s="45">
+      <c r="K21" s="33">
         <v>0.59379999999999999</v>
       </c>
-      <c r="L21" s="45">
+      <c r="L21" s="33">
         <v>0.64510000000000001</v>
       </c>
-      <c r="M21" s="45">
+      <c r="M21" s="33">
         <v>0.35959999999999998</v>
       </c>
-      <c r="N21" s="42">
+      <c r="N21" s="30">
         <v>0.18709999999999999</v>
       </c>
-      <c r="O21" s="42" t="s">
-        <v>76</v>
+      <c r="O21" s="30" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="114"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="55" t="e">
+      <c r="A22" s="127"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="35"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="43" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="114"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="41">
+      <c r="A23" s="127"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="29">
         <v>0.8044</v>
       </c>
-      <c r="F23" s="83">
+      <c r="F23" s="70">
         <v>0.75729999999999997</v>
       </c>
-      <c r="G23" s="83">
+      <c r="G23" s="70">
         <v>0.79190000000000005</v>
       </c>
-      <c r="H23" s="83">
+      <c r="H23" s="70">
         <v>0.7944</v>
       </c>
-      <c r="I23" s="36">
+      <c r="I23" s="24">
         <v>0.82509999999999994</v>
       </c>
-      <c r="J23" s="55">
+      <c r="J23" s="43">
         <f t="shared" si="2"/>
         <v>0.51902499999999996</v>
       </c>
-      <c r="K23" s="83">
+      <c r="K23" s="70">
         <v>0.52129999999999999</v>
       </c>
-      <c r="L23" s="83">
+      <c r="L23" s="70">
         <v>0.65629999999999999</v>
       </c>
-      <c r="M23" s="83">
+      <c r="M23" s="70">
         <v>0.40039999999999998</v>
       </c>
-      <c r="N23" s="36">
+      <c r="N23" s="24">
         <v>0.49809999999999999</v>
       </c>
-      <c r="O23" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="R23" s="83"/>
+      <c r="O23" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="R23" s="70"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="114"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="39" t="s">
+      <c r="A24" s="127"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="127"/>
+      <c r="D24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="58">
+      <c r="E24" s="46">
         <v>0.82530000000000003</v>
       </c>
-      <c r="F24" s="70">
+      <c r="F24" s="58">
         <v>0.79100000000000004</v>
       </c>
-      <c r="G24" s="70">
+      <c r="G24" s="58">
         <v>0.80789999999999995</v>
       </c>
-      <c r="H24" s="70">
+      <c r="H24" s="58">
         <v>0.83360000000000001</v>
       </c>
-      <c r="I24" s="71">
+      <c r="I24" s="59">
         <v>0.82609999999999995</v>
       </c>
-      <c r="J24" s="59">
+      <c r="J24" s="47">
         <f t="shared" si="2"/>
         <v>0.60757499999999998</v>
       </c>
-      <c r="K24" s="70">
+      <c r="K24" s="58">
         <v>0.60389999999999999</v>
       </c>
-      <c r="L24" s="70">
+      <c r="L24" s="58">
         <v>0.66879999999999995</v>
       </c>
-      <c r="M24" s="70">
+      <c r="M24" s="58">
         <v>0.59730000000000005</v>
       </c>
-      <c r="N24" s="71">
+      <c r="N24" s="59">
         <v>0.56030000000000002</v>
       </c>
-      <c r="O24" s="37" t="s">
-        <v>63</v>
+      <c r="O24" s="25" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="114"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="108" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="81" t="s">
+      <c r="A25" s="127"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="125" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="47">
+      <c r="E25" s="35">
         <v>0.78310000000000002</v>
       </c>
-      <c r="F25" s="48">
+      <c r="F25" s="36">
         <v>0.76849999999999996</v>
       </c>
-      <c r="G25" s="48">
+      <c r="G25" s="36">
         <v>0.69630000000000003</v>
       </c>
-      <c r="H25" s="48">
+      <c r="H25" s="36">
         <v>0.79810000000000003</v>
       </c>
-      <c r="I25" s="43">
+      <c r="I25" s="31">
         <v>0.78620000000000001</v>
       </c>
-      <c r="J25" s="55">
+      <c r="J25" s="43">
         <f t="shared" si="2"/>
         <v>0.29794999999999999</v>
       </c>
-      <c r="K25" s="48">
+      <c r="K25" s="36">
         <v>0.55659999999999998</v>
       </c>
-      <c r="L25" s="48">
+      <c r="L25" s="36">
         <v>2.41E-2</v>
       </c>
-      <c r="M25" s="48">
+      <c r="M25" s="36">
         <v>0.36849999999999999</v>
       </c>
-      <c r="N25" s="43">
+      <c r="N25" s="31">
         <v>0.24260000000000001</v>
       </c>
-      <c r="O25" s="43" t="s">
-        <v>77</v>
+      <c r="O25" s="31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="114"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="47"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="55" t="e">
+      <c r="A26" s="127"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="35"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="43" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="83"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="83"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
     </row>
     <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="114"/>
-      <c r="B27" s="112"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="41">
+      <c r="A27" s="127"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="29">
         <v>0.75790000000000002</v>
       </c>
-      <c r="F27" s="83">
+      <c r="F27" s="70">
         <v>0.70009999999999994</v>
       </c>
-      <c r="G27" s="83">
+      <c r="G27" s="70">
         <v>0.70850000000000002</v>
       </c>
-      <c r="H27" s="69">
+      <c r="H27" s="57">
         <v>0.76849999999999996</v>
       </c>
-      <c r="I27" s="84">
+      <c r="I27" s="71">
         <v>0.77029999999999998</v>
       </c>
-      <c r="J27" s="55">
+      <c r="J27" s="43">
         <f t="shared" si="2"/>
         <v>0.22800000000000001</v>
       </c>
-      <c r="K27" s="83">
+      <c r="K27" s="70">
         <v>0.24879999999999999</v>
       </c>
-      <c r="L27" s="83">
+      <c r="L27" s="70">
         <v>0.32540000000000002</v>
       </c>
-      <c r="M27" s="69">
+      <c r="M27" s="57">
         <v>0.2402</v>
       </c>
-      <c r="N27" s="36">
+      <c r="N27" s="24">
         <v>9.7600000000000006E-2</v>
       </c>
-      <c r="O27" s="36" t="s">
-        <v>73</v>
+      <c r="O27" s="24" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="114"/>
-      <c r="B28" s="112"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="81" t="s">
+      <c r="A28" s="127"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="58">
+      <c r="E28" s="46">
         <v>0.76190000000000002</v>
       </c>
-      <c r="F28" s="70">
+      <c r="F28" s="58">
         <v>0.74319999999999997</v>
       </c>
-      <c r="G28" s="70">
+      <c r="G28" s="58">
         <v>0.72819999999999996</v>
       </c>
-      <c r="H28" s="49">
+      <c r="H28" s="37">
         <v>0.76649999999999996</v>
       </c>
-      <c r="I28" s="37">
+      <c r="I28" s="25">
         <v>0.76670000000000005</v>
       </c>
-      <c r="J28" s="59">
+      <c r="J28" s="47">
         <f t="shared" si="2"/>
         <v>0.29952500000000004</v>
       </c>
-      <c r="K28" s="70">
+      <c r="K28" s="58">
         <v>0.4219</v>
       </c>
-      <c r="L28" s="70">
+      <c r="L28" s="58">
         <v>0.33179999999999998</v>
       </c>
-      <c r="M28" s="49">
+      <c r="M28" s="37">
         <v>0.11459999999999999</v>
       </c>
-      <c r="N28" s="71">
+      <c r="N28" s="59">
         <v>0.32979999999999998</v>
       </c>
-      <c r="O28" s="37" t="s">
+      <c r="O28" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="127"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="125" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="35">
+        <v>0.75590000000000002</v>
+      </c>
+      <c r="F29" s="36">
+        <v>0.69169999999999998</v>
+      </c>
+      <c r="G29" s="36">
+        <v>0.70009999999999994</v>
+      </c>
+      <c r="H29" s="36">
+        <v>0.76229999999999998</v>
+      </c>
+      <c r="I29" s="31">
+        <v>0.77090000000000003</v>
+      </c>
+      <c r="J29" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="36">
+        <v>0</v>
+      </c>
+      <c r="L29" s="36">
+        <v>0</v>
+      </c>
+      <c r="M29" s="36">
+        <v>0</v>
+      </c>
+      <c r="N29" s="31">
+        <v>0</v>
+      </c>
+      <c r="O29" s="31" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="114"/>
-      <c r="B29" s="112"/>
-      <c r="C29" s="108" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="81" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="47">
-        <v>0.75590000000000002</v>
-      </c>
-      <c r="F29" s="48">
-        <v>0.69169999999999998</v>
-      </c>
-      <c r="G29" s="48">
-        <v>0.70009999999999994</v>
-      </c>
-      <c r="H29" s="48">
-        <v>0.76229999999999998</v>
-      </c>
-      <c r="I29" s="43">
-        <v>0.77090000000000003</v>
-      </c>
-      <c r="J29" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="48">
-        <v>0</v>
-      </c>
-      <c r="L29" s="48">
-        <v>0</v>
-      </c>
-      <c r="M29" s="48">
-        <v>0</v>
-      </c>
-      <c r="N29" s="43">
-        <v>0</v>
-      </c>
-      <c r="O29" s="43" t="s">
-        <v>78</v>
-      </c>
-    </row>
     <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="114"/>
-      <c r="B30" s="112"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="47"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="55" t="e">
+      <c r="A30" s="127"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="35"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="43" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="104"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="114"/>
-      <c r="B31" s="112"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="41">
+      <c r="A31" s="127"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="29">
         <v>0.74160000000000004</v>
       </c>
-      <c r="F31" s="69">
+      <c r="F31" s="57">
         <v>0.66639999999999999</v>
       </c>
-      <c r="G31" s="83">
+      <c r="G31" s="70">
         <v>0.69350000000000001</v>
       </c>
-      <c r="H31" s="83">
+      <c r="H31" s="70">
         <v>0.74299999999999999</v>
       </c>
-      <c r="I31" s="84">
+      <c r="I31" s="71">
         <v>0.76219999999999999</v>
       </c>
-      <c r="J31" s="55">
+      <c r="J31" s="43">
         <f t="shared" si="2"/>
         <v>0.30657499999999999</v>
       </c>
-      <c r="K31" s="83">
+      <c r="K31" s="70">
         <v>0.2908</v>
       </c>
-      <c r="L31" s="83">
+      <c r="L31" s="70">
         <v>0.35759999999999997</v>
       </c>
-      <c r="M31" s="83">
+      <c r="M31" s="70">
         <v>0.20630000000000001</v>
       </c>
-      <c r="N31" s="84">
+      <c r="N31" s="71">
         <v>0.37159999999999999</v>
       </c>
-      <c r="O31" s="36" t="s">
-        <v>74</v>
+      <c r="O31" s="24" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="114"/>
-      <c r="B32" s="112"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="81" t="s">
+      <c r="A32" s="127"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="58">
+      <c r="E32" s="46">
         <v>0.75739999999999996</v>
       </c>
-      <c r="F32" s="49">
+      <c r="F32" s="37">
         <v>0.64570000000000005</v>
       </c>
-      <c r="G32" s="70">
+      <c r="G32" s="58">
         <v>0.71789999999999998</v>
       </c>
-      <c r="H32" s="70">
+      <c r="H32" s="58">
         <v>0.78680000000000005</v>
       </c>
-      <c r="I32" s="37">
+      <c r="I32" s="25">
         <v>0.75519999999999998</v>
       </c>
-      <c r="J32" s="59">
+      <c r="J32" s="47">
         <f t="shared" si="2"/>
         <v>0.36560000000000004</v>
       </c>
-      <c r="K32" s="70">
+      <c r="K32" s="58">
         <v>0.46760000000000002</v>
       </c>
-      <c r="L32" s="70">
+      <c r="L32" s="58">
         <v>0.37419999999999998</v>
       </c>
-      <c r="M32" s="70">
+      <c r="M32" s="58">
         <v>0.38169999999999998</v>
       </c>
-      <c r="N32" s="37">
+      <c r="N32" s="25">
         <v>0.2389</v>
       </c>
-      <c r="O32" s="37" t="s">
-        <v>71</v>
+      <c r="O32" s="25" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A33" s="114"/>
-      <c r="B33" s="112"/>
-      <c r="C33" s="108" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="81" t="s">
+      <c r="A33" s="127"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="125" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="47">
+      <c r="E33" s="35">
         <v>0.77769999999999995</v>
       </c>
-      <c r="F33" s="48">
+      <c r="F33" s="36">
         <v>0.76759999999999995</v>
       </c>
-      <c r="G33" s="48">
+      <c r="G33" s="36">
         <v>0.70009999999999994</v>
       </c>
-      <c r="H33" s="48">
+      <c r="H33" s="36">
         <v>0.79820000000000002</v>
       </c>
-      <c r="I33" s="43">
+      <c r="I33" s="31">
         <v>0.77280000000000004</v>
       </c>
-      <c r="J33" s="86">
+      <c r="J33" s="73">
         <f t="shared" si="2"/>
         <v>0.27392500000000003</v>
       </c>
-      <c r="K33" s="140">
+      <c r="K33" s="97">
         <v>0.55710000000000004</v>
       </c>
-      <c r="L33" s="48">
-        <v>0</v>
-      </c>
-      <c r="M33" s="140">
+      <c r="L33" s="36">
+        <v>0</v>
+      </c>
+      <c r="M33" s="97">
         <v>0.35720000000000002</v>
       </c>
-      <c r="N33" s="139">
+      <c r="N33" s="96">
         <v>0.18140000000000001</v>
       </c>
-      <c r="O33" s="43" t="s">
-        <v>79</v>
+      <c r="O33" s="31" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="114"/>
-      <c r="B34" s="112"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="47"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="55" t="e">
+      <c r="A34" s="127"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="35"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="43" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K34" s="83"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="83"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" s="114"/>
-      <c r="B35" s="112"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="41">
+      <c r="A35" s="127"/>
+      <c r="B35" s="121"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="29">
         <v>0.74939999999999996</v>
       </c>
-      <c r="F35" s="69">
+      <c r="F35" s="57">
         <v>0.72450000000000003</v>
       </c>
-      <c r="G35" s="83">
+      <c r="G35" s="70">
         <v>0.68420000000000003</v>
       </c>
-      <c r="H35" s="83">
+      <c r="H35" s="70">
         <v>0.75149999999999995</v>
       </c>
-      <c r="I35" s="36">
+      <c r="I35" s="24">
         <v>0.76359999999999995</v>
       </c>
-      <c r="J35" s="55">
+      <c r="J35" s="43">
         <f t="shared" si="2"/>
         <v>0.19577499999999998</v>
       </c>
-      <c r="K35" s="83">
+      <c r="K35" s="70">
         <v>0.41670000000000001</v>
       </c>
-      <c r="L35" s="83">
+      <c r="L35" s="70">
         <v>0.12470000000000001</v>
       </c>
-      <c r="M35" s="83">
+      <c r="M35" s="70">
         <v>0.1656</v>
       </c>
-      <c r="N35" s="36">
+      <c r="N35" s="24">
         <v>7.6100000000000001E-2</v>
       </c>
-      <c r="O35" s="36" t="s">
-        <v>75</v>
+      <c r="O35" s="24" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" s="114"/>
-      <c r="B36" s="113"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="81" t="s">
+      <c r="A36" s="127"/>
+      <c r="B36" s="123"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="58">
+      <c r="E36" s="46">
         <v>0.76080000000000003</v>
       </c>
-      <c r="F36" s="49">
+      <c r="F36" s="37">
         <v>0.72260000000000002</v>
       </c>
-      <c r="G36" s="70">
+      <c r="G36" s="58">
         <v>0.70099999999999996</v>
       </c>
-      <c r="H36" s="70">
+      <c r="H36" s="58">
         <v>0.77349999999999997</v>
       </c>
-      <c r="I36" s="71">
+      <c r="I36" s="59">
         <v>0.76559999999999995</v>
       </c>
-      <c r="J36" s="52">
+      <c r="J36" s="40">
         <f t="shared" si="2"/>
         <v>0.22152500000000003</v>
       </c>
-      <c r="K36" s="49">
+      <c r="K36" s="37">
         <v>0.4264</v>
       </c>
-      <c r="L36" s="70">
+      <c r="L36" s="58">
         <v>0.20050000000000001</v>
       </c>
-      <c r="M36" s="49">
+      <c r="M36" s="37">
         <v>0.1789</v>
       </c>
-      <c r="N36" s="37">
+      <c r="N36" s="25">
         <v>8.0299999999999996E-2</v>
       </c>
-      <c r="O36" s="37" t="s">
-        <v>72</v>
+      <c r="O36" s="25" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C37" s="68"/>
+      <c r="C37" s="56"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A42" s="114" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="114" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" s="114" t="s">
+      <c r="A42" s="127" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="127" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="127" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="127"/>
+      <c r="G42" s="127"/>
+      <c r="H42" s="127"/>
+      <c r="I42" s="127"/>
+      <c r="J42" s="127" t="s">
+        <v>7</v>
+      </c>
+      <c r="K42" s="127"/>
+      <c r="L42" s="127"/>
+      <c r="M42" s="127"/>
+      <c r="N42" s="127"/>
+      <c r="O42" s="127" t="s">
+        <v>8</v>
+      </c>
+      <c r="P42" s="127"/>
+      <c r="Q42" s="127"/>
+      <c r="R42" s="127"/>
+      <c r="S42" s="127"/>
+    </row>
+    <row r="43" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="128"/>
+      <c r="B43" s="122"/>
+      <c r="C43" s="128"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="J43" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="K43" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="L43" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="M43" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="N43" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="O43" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="P43" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q43" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="R43" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="S43" s="69" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="114" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="114"/>
-      <c r="G42" s="114"/>
-      <c r="H42" s="114"/>
-      <c r="I42" s="114"/>
-      <c r="J42" s="114" t="s">
-        <v>7</v>
-      </c>
-      <c r="K42" s="114"/>
-      <c r="L42" s="114"/>
-      <c r="M42" s="114"/>
-      <c r="N42" s="114"/>
-      <c r="O42" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="P42" s="114"/>
-      <c r="Q42" s="114"/>
-      <c r="R42" s="114"/>
-      <c r="S42" s="114"/>
-    </row>
-    <row r="43" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="115"/>
-      <c r="B43" s="116"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="82" t="s">
-        <v>56</v>
-      </c>
-      <c r="F43" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="G43" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="H43" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="I43" s="82" t="s">
-        <v>37</v>
-      </c>
-      <c r="J43" s="82" t="s">
-        <v>56</v>
-      </c>
-      <c r="K43" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="L43" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="M43" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="N43" s="82" t="s">
-        <v>37</v>
-      </c>
-      <c r="O43" s="82" t="s">
-        <v>56</v>
-      </c>
-      <c r="P43" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q43" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="R43" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="S43" s="82" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="113" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="118" t="s">
+      <c r="B44" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="113" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="80" t="s">
+      <c r="C44" s="123" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="47">
+      <c r="E44" s="35">
         <f t="shared" ref="E44:E45" si="3">AVERAGE(F44:I44)</f>
         <v>-0.30912499999999998</v>
       </c>
-      <c r="F44" s="45">
+      <c r="F44" s="33">
         <v>-0.60489999999999999</v>
       </c>
-      <c r="G44" s="45">
+      <c r="G44" s="33">
         <v>-0.20930000000000001</v>
       </c>
-      <c r="H44" s="45">
+      <c r="H44" s="33">
         <v>-0.21790000000000001</v>
       </c>
-      <c r="I44" s="42">
+      <c r="I44" s="30">
         <v>-0.2044</v>
       </c>
-      <c r="J44" s="47">
+      <c r="J44" s="35">
         <f t="shared" ref="J44:J45" si="4">AVERAGE(K44:N44)</f>
         <v>-0.38519999999999999</v>
       </c>
-      <c r="K44" s="45">
+      <c r="K44" s="33">
         <v>-0.66859999999999997</v>
       </c>
-      <c r="L44" s="45">
+      <c r="L44" s="33">
         <v>-0.1976</v>
       </c>
-      <c r="M44" s="45">
+      <c r="M44" s="33">
         <v>-0.28070000000000001</v>
       </c>
-      <c r="N44" s="42">
+      <c r="N44" s="30">
         <v>-0.39389999999999997</v>
       </c>
-      <c r="O44" s="47">
+      <c r="O44" s="35">
         <f t="shared" ref="O44:O45" si="5">AVERAGE(P44:S44)</f>
         <v>-0.30207500000000004</v>
       </c>
-      <c r="P44" s="45">
+      <c r="P44" s="33">
         <v>-0.63480000000000003</v>
       </c>
-      <c r="Q44" s="45">
+      <c r="Q44" s="33">
         <v>-0.2306</v>
       </c>
-      <c r="R44" s="45">
+      <c r="R44" s="33">
         <v>-0.20830000000000001</v>
       </c>
-      <c r="S44" s="42">
+      <c r="S44" s="30">
         <v>-0.1346</v>
       </c>
     </row>
     <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="114"/>
-      <c r="B45" s="112"/>
-      <c r="C45" s="114"/>
-      <c r="D45" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E45" s="47" t="e">
+      <c r="A45" s="127"/>
+      <c r="B45" s="121"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="35" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F45" s="83"/>
-      <c r="G45" s="83"/>
-      <c r="H45" s="83"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="47" t="e">
+      <c r="F45" s="70"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K45" s="83"/>
-      <c r="L45" s="83"/>
-      <c r="M45" s="83"/>
-      <c r="N45" s="36"/>
-      <c r="O45" s="47" t="e">
+      <c r="K45" s="70"/>
+      <c r="L45" s="70"/>
+      <c r="M45" s="70"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="35" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P45" s="83"/>
-      <c r="Q45" s="83"/>
-      <c r="R45" s="83"/>
-      <c r="S45" s="36"/>
+      <c r="P45" s="70"/>
+      <c r="Q45" s="70"/>
+      <c r="R45" s="70"/>
+      <c r="S45" s="24"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A46" s="114"/>
-      <c r="B46" s="112"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="E46" s="55" cm="1">
+      <c r="A46" s="127"/>
+      <c r="B46" s="121"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="43" cm="1">
         <f t="array" ref="E46">AVERAGE(ABS(F46:I46))</f>
         <v>0.28432499999999999</v>
       </c>
-      <c r="F46" s="83">
+      <c r="F46" s="70">
         <v>-0.51190000000000002</v>
       </c>
-      <c r="G46" s="83">
+      <c r="G46" s="70">
         <v>-0.1794</v>
       </c>
-      <c r="H46" s="83">
+      <c r="H46" s="70">
         <v>-0.24160000000000001</v>
       </c>
-      <c r="I46" s="36">
+      <c r="I46" s="24">
         <v>-0.2044</v>
       </c>
-      <c r="J46" s="55" cm="1">
+      <c r="J46" s="43" cm="1">
         <f t="array" ref="J46">AVERAGE(ABS(K46:N46))</f>
         <v>0.36047499999999999</v>
       </c>
-      <c r="K46" s="83">
+      <c r="K46" s="70">
         <v>-0.58630000000000004</v>
       </c>
-      <c r="L46" s="83">
+      <c r="L46" s="70">
         <v>-0.18540000000000001</v>
       </c>
-      <c r="M46" s="83">
+      <c r="M46" s="70">
         <v>-0.27629999999999999</v>
       </c>
-      <c r="N46" s="36">
+      <c r="N46" s="24">
         <v>-0.39389999999999997</v>
       </c>
-      <c r="O46" s="55" cm="1">
+      <c r="O46" s="43" cm="1">
         <f t="array" ref="O46">AVERAGE(ABS(P46:S46))</f>
         <v>0.28134999999999999</v>
       </c>
-      <c r="P46" s="83">
+      <c r="P46" s="70">
         <v>-0.55289999999999995</v>
       </c>
-      <c r="Q46" s="83">
+      <c r="Q46" s="70">
         <v>-0.1983</v>
       </c>
-      <c r="R46" s="83">
+      <c r="R46" s="70">
         <v>-0.23960000000000001</v>
       </c>
-      <c r="S46" s="36">
+      <c r="S46" s="24">
         <v>-0.1346</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" s="114"/>
-      <c r="B47" s="112"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="81" t="s">
+      <c r="A47" s="127"/>
+      <c r="B47" s="121"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="55" cm="1">
+      <c r="E47" s="43" cm="1">
         <f t="array" ref="E47">AVERAGE(ABS(F47:I47))</f>
         <v>0.287275</v>
       </c>
-      <c r="F47" s="49">
+      <c r="F47" s="37">
         <v>-0.55300000000000005</v>
       </c>
-      <c r="G47" s="49">
+      <c r="G47" s="37">
         <v>-0.19769999999999999</v>
       </c>
-      <c r="H47" s="49">
+      <c r="H47" s="37">
         <v>-0.19400000000000001</v>
       </c>
-      <c r="I47" s="37">
+      <c r="I47" s="25">
         <v>-0.2044</v>
       </c>
-      <c r="J47" s="52" cm="1">
+      <c r="J47" s="40" cm="1">
         <f t="array" ref="J47">AVERAGE(ABS(K47:N47))</f>
         <v>0.37187499999999996</v>
       </c>
-      <c r="K47" s="49">
+      <c r="K47" s="37">
         <v>-0.62160000000000004</v>
       </c>
-      <c r="L47" s="49">
+      <c r="L47" s="37">
         <v>-0.222</v>
       </c>
-      <c r="M47" s="49">
+      <c r="M47" s="37">
         <v>-0.25</v>
       </c>
-      <c r="N47" s="37">
+      <c r="N47" s="25">
         <v>-0.39389999999999997</v>
       </c>
-      <c r="O47" s="52" cm="1">
+      <c r="O47" s="40" cm="1">
         <f t="array" ref="O47">AVERAGE(ABS(P47:S47))</f>
         <v>0.28342499999999998</v>
       </c>
-      <c r="P47" s="49">
+      <c r="P47" s="37">
         <v>-0.59319999999999995</v>
       </c>
-      <c r="Q47" s="49">
+      <c r="Q47" s="37">
         <v>-0.21840000000000001</v>
       </c>
-      <c r="R47" s="49">
+      <c r="R47" s="37">
         <v>-0.1875</v>
       </c>
-      <c r="S47" s="37">
+      <c r="S47" s="25">
         <v>-0.1346</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A48" s="114"/>
-      <c r="B48" s="112"/>
-      <c r="C48" s="108" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48" s="81" t="s">
+      <c r="A48" s="127"/>
+      <c r="B48" s="121"/>
+      <c r="C48" s="125" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="E48" s="95" cm="1">
+      <c r="E48" s="82" cm="1">
         <f t="array" ref="E48">AVERAGE(ABS(F48:I48))</f>
         <v>0.158275</v>
       </c>
-      <c r="F48" s="102">
+      <c r="F48" s="89">
         <v>0.154</v>
       </c>
-      <c r="G48" s="102">
+      <c r="G48" s="89">
         <v>0.1487</v>
       </c>
-      <c r="H48" s="102">
+      <c r="H48" s="89">
         <v>-0.126</v>
       </c>
-      <c r="I48" s="103">
+      <c r="I48" s="90">
         <v>-0.2044</v>
       </c>
-      <c r="J48" s="97" cm="1">
+      <c r="J48" s="84" cm="1">
         <f t="array" ref="J48">AVERAGE(ABS(K48:N48))</f>
         <v>0.14049999999999999</v>
       </c>
-      <c r="K48" s="102">
+      <c r="K48" s="89">
         <v>-2.8999999999999998E-3</v>
       </c>
-      <c r="L48" s="102">
+      <c r="L48" s="89">
         <v>5.1200000000000002E-2</v>
       </c>
-      <c r="M48" s="102">
+      <c r="M48" s="89">
         <v>-0.114</v>
       </c>
-      <c r="N48" s="103">
+      <c r="N48" s="90">
         <v>-0.39389999999999997</v>
       </c>
-      <c r="O48" s="55" cm="1">
+      <c r="O48" s="43" cm="1">
         <f t="array" ref="O48">AVERAGE(ABS(P48:S48))</f>
         <v>0.13774999999999998</v>
       </c>
-      <c r="P48" s="48">
+      <c r="P48" s="36">
         <v>0.1487</v>
       </c>
-      <c r="Q48" s="48">
+      <c r="Q48" s="36">
         <v>0.1323</v>
       </c>
-      <c r="R48" s="48">
+      <c r="R48" s="36">
         <v>-0.13539999999999999</v>
       </c>
-      <c r="S48" s="43">
+      <c r="S48" s="31">
         <v>-0.1346</v>
       </c>
     </row>
     <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="114"/>
-      <c r="B49" s="112"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E49" s="97" cm="1">
+      <c r="A49" s="127"/>
+      <c r="B49" s="121"/>
+      <c r="C49" s="125"/>
+      <c r="D49" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="84" cm="1">
         <f t="array" ref="E49">AVERAGE(ABS(F49:I49))</f>
         <v>0</v>
       </c>
-      <c r="F49" s="93"/>
-      <c r="G49" s="93"/>
-      <c r="H49" s="93"/>
-      <c r="I49" s="96"/>
-      <c r="J49" s="97" cm="1">
+      <c r="F49" s="80"/>
+      <c r="G49" s="80"/>
+      <c r="H49" s="80"/>
+      <c r="I49" s="83"/>
+      <c r="J49" s="84" cm="1">
         <f t="array" ref="J49">AVERAGE(ABS(K49:N49))</f>
         <v>0</v>
       </c>
-      <c r="K49" s="93"/>
-      <c r="L49" s="93"/>
-      <c r="M49" s="93"/>
-      <c r="N49" s="96"/>
-      <c r="O49" s="55" cm="1">
+      <c r="K49" s="80"/>
+      <c r="L49" s="80"/>
+      <c r="M49" s="80"/>
+      <c r="N49" s="83"/>
+      <c r="O49" s="43" cm="1">
         <f t="array" ref="O49">AVERAGE(ABS(P49:S49))</f>
         <v>0</v>
       </c>
-      <c r="P49" s="83"/>
-      <c r="Q49" s="83"/>
-      <c r="R49" s="83"/>
-      <c r="S49" s="36"/>
+      <c r="P49" s="70"/>
+      <c r="Q49" s="70"/>
+      <c r="R49" s="70"/>
+      <c r="S49" s="24"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" s="114"/>
-      <c r="B50" s="112"/>
-      <c r="C50" s="108"/>
-      <c r="D50" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="E50" s="97" cm="1">
+      <c r="A50" s="127"/>
+      <c r="B50" s="121"/>
+      <c r="C50" s="125"/>
+      <c r="D50" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" s="84" cm="1">
         <f t="array" ref="E50">AVERAGE(ABS(F50:I50))</f>
         <v>9.7725000000000006E-2</v>
       </c>
-      <c r="F50" s="93">
+      <c r="F50" s="80">
         <v>0.1147</v>
       </c>
-      <c r="G50" s="93">
+      <c r="G50" s="80">
         <v>-5.4999999999999997E-3</v>
       </c>
-      <c r="H50" s="93">
+      <c r="H50" s="80">
         <v>-6.6299999999999998E-2</v>
       </c>
-      <c r="I50" s="96">
+      <c r="I50" s="83">
         <v>-0.2044</v>
       </c>
-      <c r="J50" s="97" cm="1">
+      <c r="J50" s="84" cm="1">
         <f t="array" ref="J50">AVERAGE(ABS(K50:N50))</f>
         <v>0.15329999999999999</v>
       </c>
-      <c r="K50" s="93">
+      <c r="K50" s="80">
         <v>-0.1225</v>
       </c>
-      <c r="L50" s="93">
+      <c r="L50" s="80">
         <v>-3.9800000000000002E-2</v>
       </c>
-      <c r="M50" s="93">
+      <c r="M50" s="80">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="N50" s="96">
+      <c r="N50" s="83">
         <v>-0.39389999999999997</v>
       </c>
-      <c r="O50" s="55" cm="1">
+      <c r="O50" s="43" cm="1">
         <f t="array" ref="O50">AVERAGE(ABS(P50:S50))</f>
         <v>9.5375000000000001E-2</v>
       </c>
-      <c r="P50" s="83">
+      <c r="P50" s="70">
         <v>0.1191</v>
       </c>
-      <c r="Q50" s="69">
+      <c r="Q50" s="57">
         <v>-2.3599999999999999E-2</v>
       </c>
-      <c r="R50" s="83">
+      <c r="R50" s="70">
         <v>-0.1042</v>
       </c>
-      <c r="S50" s="36">
+      <c r="S50" s="24">
         <v>-0.1346</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A51" s="114"/>
-      <c r="B51" s="112"/>
-      <c r="C51" s="108"/>
-      <c r="D51" s="81" t="s">
+      <c r="A51" s="127"/>
+      <c r="B51" s="121"/>
+      <c r="C51" s="125"/>
+      <c r="D51" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="E51" s="97" cm="1">
+      <c r="E51" s="84" cm="1">
         <f t="array" ref="E51">AVERAGE(ABS(F51:I51))</f>
         <v>9.5599999999999991E-2</v>
       </c>
-      <c r="F51" s="98">
+      <c r="F51" s="85">
         <v>8.3599999999999994E-2</v>
       </c>
-      <c r="G51" s="98">
+      <c r="G51" s="85">
         <v>7.8100000000000003E-2</v>
       </c>
-      <c r="H51" s="98">
+      <c r="H51" s="85">
         <v>-3.1399999999999997E-2</v>
       </c>
-      <c r="I51" s="99">
+      <c r="I51" s="86">
         <v>-0.1893</v>
       </c>
-      <c r="J51" s="100" cm="1">
+      <c r="J51" s="87" cm="1">
         <f t="array" ref="J51">AVERAGE(ABS(K51:N51))</f>
         <v>0.15289999999999998</v>
       </c>
-      <c r="K51" s="98">
+      <c r="K51" s="85">
         <v>-0.1108</v>
       </c>
-      <c r="L51" s="98">
+      <c r="L51" s="85">
         <v>-2.76E-2</v>
       </c>
-      <c r="M51" s="98">
+      <c r="M51" s="85">
         <v>0.1096</v>
       </c>
-      <c r="N51" s="99">
+      <c r="N51" s="86">
         <v>-0.36359999999999998</v>
       </c>
-      <c r="O51" s="59" cm="1">
+      <c r="O51" s="47" cm="1">
         <f t="array" ref="O51">AVERAGE(ABS(P51:S51))</f>
         <v>8.3424999999999999E-2</v>
       </c>
-      <c r="P51" s="70">
+      <c r="P51" s="58">
         <v>7.4700000000000003E-2</v>
       </c>
-      <c r="Q51" s="49">
+      <c r="Q51" s="37">
         <v>6.1100000000000002E-2</v>
       </c>
-      <c r="R51" s="70">
+      <c r="R51" s="58">
         <v>-7.2900000000000006E-2</v>
       </c>
-      <c r="S51" s="71">
+      <c r="S51" s="59">
         <v>-0.125</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A52" s="114"/>
-      <c r="B52" s="112"/>
-      <c r="C52" s="108" t="s">
-        <v>45</v>
-      </c>
-      <c r="D52" s="81" t="s">
+      <c r="A52" s="127"/>
+      <c r="B52" s="121"/>
+      <c r="C52" s="125" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="E52" s="54" cm="1">
+      <c r="E52" s="42" cm="1">
         <f t="array" ref="E52">AVERAGE(ABS(F52:I52))</f>
         <v>0.10992499999999999</v>
       </c>
-      <c r="F52" s="48">
-        <v>0</v>
-      </c>
-      <c r="G52" s="48">
+      <c r="F52" s="36">
+        <v>0</v>
+      </c>
+      <c r="G52" s="36">
         <v>-6.3600000000000004E-2</v>
       </c>
-      <c r="H52" s="48">
+      <c r="H52" s="36">
         <v>-0.26500000000000001</v>
       </c>
-      <c r="I52" s="43">
+      <c r="I52" s="31">
         <v>-0.1111</v>
       </c>
-      <c r="J52" s="55" cm="1">
+      <c r="J52" s="43" cm="1">
         <f t="array" ref="J52">AVERAGE(ABS(K52:N52))</f>
         <v>0.175925</v>
       </c>
-      <c r="K52" s="48">
-        <v>0</v>
-      </c>
-      <c r="L52" s="48">
+      <c r="K52" s="36">
+        <v>0</v>
+      </c>
+      <c r="L52" s="36">
         <v>-0.1618</v>
       </c>
-      <c r="M52" s="48">
+      <c r="M52" s="36">
         <v>-0.39040000000000002</v>
       </c>
-      <c r="N52" s="43">
+      <c r="N52" s="31">
         <v>-0.1515</v>
       </c>
-      <c r="O52" s="97" cm="1">
+      <c r="O52" s="84" cm="1">
         <f t="array" ref="O52">AVERAGE(ABS(P52:S52))</f>
         <v>0.103925</v>
       </c>
-      <c r="P52" s="102">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="102">
+      <c r="P52" s="89">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="89">
         <v>-7.9899999999999999E-2</v>
       </c>
-      <c r="R52" s="102">
+      <c r="R52" s="89">
         <v>-0.23960000000000001</v>
       </c>
-      <c r="S52" s="103">
+      <c r="S52" s="90">
         <v>-9.6199999999999994E-2</v>
       </c>
     </row>
     <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="114"/>
-      <c r="B53" s="112"/>
-      <c r="C53" s="108"/>
-      <c r="D53" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E53" s="55" cm="1">
+      <c r="A53" s="127"/>
+      <c r="B53" s="121"/>
+      <c r="C53" s="125"/>
+      <c r="D53" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" s="43" cm="1">
         <f t="array" ref="E53">AVERAGE(ABS(F53:I53))</f>
         <v>0</v>
       </c>
-      <c r="F53" s="83"/>
-      <c r="G53" s="83"/>
-      <c r="H53" s="83"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="55" cm="1">
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="43" cm="1">
         <f t="array" ref="J53">AVERAGE(ABS(K53:N53))</f>
         <v>0</v>
       </c>
-      <c r="K53" s="83"/>
-      <c r="L53" s="83"/>
-      <c r="M53" s="83"/>
-      <c r="N53" s="36"/>
-      <c r="O53" s="97" cm="1">
+      <c r="K53" s="70"/>
+      <c r="L53" s="70"/>
+      <c r="M53" s="70"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="84" cm="1">
         <f t="array" ref="O53">AVERAGE(ABS(P53:S53))</f>
         <v>0</v>
       </c>
-      <c r="P53" s="93"/>
-      <c r="Q53" s="93"/>
-      <c r="R53" s="93"/>
-      <c r="S53" s="96"/>
+      <c r="P53" s="80"/>
+      <c r="Q53" s="80"/>
+      <c r="R53" s="80"/>
+      <c r="S53" s="83"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A54" s="114"/>
-      <c r="B54" s="112"/>
-      <c r="C54" s="108"/>
-      <c r="D54" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="E54" s="86" cm="1">
+      <c r="A54" s="127"/>
+      <c r="B54" s="121"/>
+      <c r="C54" s="125"/>
+      <c r="D54" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" s="73" cm="1">
         <f t="array" ref="E54">AVERAGE(ABS(F54:I54))</f>
         <v>4.4874999999999998E-2</v>
       </c>
-      <c r="F54" s="69">
+      <c r="F54" s="57">
         <v>-2.4500000000000001E-2</v>
       </c>
-      <c r="G54" s="69">
+      <c r="G54" s="57">
         <v>-1.03E-2</v>
       </c>
-      <c r="H54" s="83">
+      <c r="H54" s="70">
         <v>-0.1225</v>
       </c>
-      <c r="I54" s="36">
+      <c r="I54" s="24">
         <v>-2.2200000000000001E-2</v>
       </c>
-      <c r="J54" s="55" cm="1">
+      <c r="J54" s="43" cm="1">
         <f t="array" ref="J54">AVERAGE(ABS(K54:N54))</f>
         <v>0.11187499999999999</v>
       </c>
-      <c r="K54" s="83">
+      <c r="K54" s="70">
         <v>-0.21759999999999999</v>
       </c>
-      <c r="L54" s="83">
+      <c r="L54" s="70">
         <v>-9.4299999999999995E-2</v>
       </c>
-      <c r="M54" s="83">
+      <c r="M54" s="70">
         <v>-0.1053</v>
       </c>
-      <c r="N54" s="84">
+      <c r="N54" s="71">
         <v>-3.0300000000000001E-2</v>
       </c>
-      <c r="O54" s="97" cm="1">
+      <c r="O54" s="84" cm="1">
         <f t="array" ref="O54">AVERAGE(ABS(P54:S54))</f>
         <v>5.04E-2</v>
       </c>
-      <c r="P54" s="93">
+      <c r="P54" s="80">
         <v>-1.7999999999999999E-2</v>
       </c>
-      <c r="Q54" s="93">
+      <c r="Q54" s="80">
         <v>-2.9000000000000001E-2</v>
       </c>
-      <c r="R54" s="93">
+      <c r="R54" s="80">
         <v>0.13539999999999999</v>
       </c>
-      <c r="S54" s="96">
+      <c r="S54" s="83">
         <v>-1.9199999999999998E-2</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A55" s="114"/>
-      <c r="B55" s="112"/>
-      <c r="C55" s="108"/>
-      <c r="D55" s="81" t="s">
+      <c r="A55" s="127"/>
+      <c r="B55" s="121"/>
+      <c r="C55" s="125"/>
+      <c r="D55" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="E55" s="55" cm="1">
+      <c r="E55" s="43" cm="1">
         <f t="array" ref="E55">AVERAGE(ABS(F55:I55))</f>
         <v>7.0124999999999993E-2</v>
       </c>
-      <c r="F55" s="49">
+      <c r="F55" s="37">
         <v>6.4799999999999996E-2</v>
       </c>
-      <c r="G55" s="49">
+      <c r="G55" s="37">
         <v>4.1200000000000001E-2</v>
       </c>
-      <c r="H55" s="70">
+      <c r="H55" s="58">
         <v>-0.122</v>
       </c>
-      <c r="I55" s="71">
+      <c r="I55" s="59">
         <v>-5.2499999999999998E-2</v>
       </c>
-      <c r="J55" s="86" cm="1">
+      <c r="J55" s="73" cm="1">
         <f t="array" ref="J55">AVERAGE(ABS(K55:N55))</f>
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="K55" s="70">
+      <c r="K55" s="58">
         <v>-2.75E-2</v>
       </c>
-      <c r="L55" s="70">
+      <c r="L55" s="58">
         <v>-6.5000000000000002E-2</v>
       </c>
-      <c r="M55" s="70">
+      <c r="M55" s="58">
         <v>-5.2600000000000001E-2</v>
       </c>
-      <c r="N55" s="37">
+      <c r="N55" s="25">
         <v>-9.0899999999999995E-2</v>
       </c>
-      <c r="O55" s="100" cm="1">
+      <c r="O55" s="87" cm="1">
         <f t="array" ref="O55">AVERAGE(ABS(P55:S55))</f>
         <v>6.1925000000000001E-2</v>
       </c>
-      <c r="P55" s="98">
+      <c r="P55" s="85">
         <v>3.5700000000000003E-2</v>
       </c>
-      <c r="Q55" s="98">
+      <c r="Q55" s="85">
         <v>2.7699999999999999E-2</v>
       </c>
-      <c r="R55" s="98">
+      <c r="R55" s="85">
         <v>-0.14580000000000001</v>
       </c>
-      <c r="S55" s="99">
+      <c r="S55" s="86">
         <v>-3.85E-2</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A56" s="114"/>
-      <c r="B56" s="112"/>
-      <c r="C56" s="108" t="s">
-        <v>46</v>
-      </c>
-      <c r="D56" s="81" t="s">
+      <c r="A56" s="127"/>
+      <c r="B56" s="121"/>
+      <c r="C56" s="125" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="E56" s="54">
+      <c r="E56" s="42">
         <f t="shared" ref="E56:E57" si="6">AVERAGE(ABS(G56),ABS(I56))</f>
         <v>6.4699999999999994E-2</v>
       </c>
-      <c r="F56" s="102">
+      <c r="F56" s="89">
         <v>0.13350000000000001</v>
       </c>
-      <c r="G56" s="48">
+      <c r="G56" s="36">
         <v>-0.12939999999999999</v>
       </c>
-      <c r="H56" s="102">
+      <c r="H56" s="89">
         <v>-0.1061</v>
       </c>
-      <c r="I56" s="43">
-        <v>0</v>
-      </c>
-      <c r="J56" s="54">
+      <c r="I56" s="31">
+        <v>0</v>
+      </c>
+      <c r="J56" s="42">
         <f t="shared" ref="J56:J57" si="7">AVERAGE(ABS(L56),ABS(N56))</f>
         <v>7.1150000000000005E-2</v>
       </c>
-      <c r="K56" s="102">
+      <c r="K56" s="89">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="L56" s="48">
+      <c r="L56" s="36">
         <v>-0.14230000000000001</v>
       </c>
-      <c r="M56" s="102">
+      <c r="M56" s="89">
         <v>-5.7000000000000002E-2</v>
       </c>
-      <c r="N56" s="43">
-        <v>0</v>
-      </c>
-      <c r="O56" s="55">
+      <c r="N56" s="31">
+        <v>0</v>
+      </c>
+      <c r="O56" s="43">
         <f t="shared" ref="O56:O57" si="8">AVERAGE(ABS(P56),ABS(R56))</f>
         <v>0.1241</v>
       </c>
-      <c r="P56" s="48">
+      <c r="P56" s="36">
         <v>0.1232</v>
       </c>
-      <c r="Q56" s="102">
+      <c r="Q56" s="89">
         <v>-0.1487</v>
       </c>
-      <c r="R56" s="48">
+      <c r="R56" s="36">
         <v>-0.125</v>
       </c>
-      <c r="S56" s="103">
+      <c r="S56" s="90">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="114"/>
-      <c r="B57" s="112"/>
-      <c r="C57" s="108"/>
-      <c r="D57" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E57" s="55">
+      <c r="A57" s="127"/>
+      <c r="B57" s="121"/>
+      <c r="C57" s="125"/>
+      <c r="D57" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F57" s="93"/>
-      <c r="G57" s="83"/>
-      <c r="H57" s="93"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="55">
+      <c r="F57" s="80"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="80"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K57" s="93"/>
-      <c r="L57" s="83"/>
-      <c r="M57" s="93"/>
-      <c r="N57" s="36"/>
-      <c r="O57" s="55">
+      <c r="K57" s="80"/>
+      <c r="L57" s="70"/>
+      <c r="M57" s="80"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P57" s="83"/>
-      <c r="Q57" s="93"/>
-      <c r="R57" s="83"/>
-      <c r="S57" s="96"/>
+      <c r="P57" s="70"/>
+      <c r="Q57" s="80"/>
+      <c r="R57" s="70"/>
+      <c r="S57" s="83"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A58" s="114"/>
-      <c r="B58" s="112"/>
-      <c r="C58" s="108"/>
-      <c r="D58" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="E58" s="55">
+      <c r="A58" s="127"/>
+      <c r="B58" s="121"/>
+      <c r="C58" s="125"/>
+      <c r="D58" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58" s="43">
         <f>AVERAGE(ABS(G58),ABS(I58))</f>
         <v>9.0499999999999997E-2</v>
       </c>
-      <c r="F58" s="93">
+      <c r="F58" s="80">
         <v>5.1799999999999999E-2</v>
       </c>
-      <c r="G58" s="69">
+      <c r="G58" s="57">
         <v>8.6599999999999996E-2</v>
       </c>
-      <c r="H58" s="93">
+      <c r="H58" s="80">
         <v>0.12</v>
       </c>
-      <c r="I58" s="36">
+      <c r="I58" s="24">
         <v>9.4399999999999998E-2</v>
       </c>
-      <c r="J58" s="55">
+      <c r="J58" s="43">
         <f>AVERAGE(ABS(L58),ABS(N58))</f>
         <v>0.11554999999999999</v>
       </c>
-      <c r="K58" s="93">
+      <c r="K58" s="80">
         <v>-0.1588</v>
       </c>
-      <c r="L58" s="69">
+      <c r="L58" s="57">
         <v>-0.16669999999999999</v>
       </c>
-      <c r="M58" s="93">
+      <c r="M58" s="80">
         <v>-0.1711</v>
       </c>
-      <c r="N58" s="36">
+      <c r="N58" s="24">
         <v>-6.4399999999999999E-2</v>
       </c>
-      <c r="O58" s="86">
+      <c r="O58" s="73">
         <f>AVERAGE(ABS(P58),ABS(R58))</f>
         <v>8.5249999999999992E-2</v>
       </c>
-      <c r="P58" s="69">
+      <c r="P58" s="57">
         <v>5.5899999999999998E-2</v>
       </c>
-      <c r="Q58" s="93">
+      <c r="Q58" s="80">
         <v>-0.10440000000000001</v>
       </c>
-      <c r="R58" s="83">
+      <c r="R58" s="70">
         <v>-0.11459999999999999</v>
       </c>
-      <c r="S58" s="96">
+      <c r="S58" s="83">
         <v>0.10580000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="115"/>
-      <c r="B59" s="116"/>
-      <c r="C59" s="109"/>
-      <c r="D59" s="82" t="s">
+      <c r="A59" s="128"/>
+      <c r="B59" s="122"/>
+      <c r="C59" s="126"/>
+      <c r="D59" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="E59" s="86">
+      <c r="E59" s="73">
         <f>AVERAGE(ABS(G59),ABS(I59))</f>
         <v>7.0800000000000002E-2</v>
       </c>
-      <c r="F59" s="94">
+      <c r="F59" s="81">
         <v>0.1099</v>
       </c>
-      <c r="G59" s="51">
+      <c r="G59" s="39">
         <v>-0.11940000000000001</v>
       </c>
-      <c r="H59" s="94">
+      <c r="H59" s="81">
         <v>-7.8299999999999995E-2</v>
       </c>
-      <c r="I59" s="89">
+      <c r="I59" s="76">
         <v>-2.2200000000000001E-2</v>
       </c>
-      <c r="J59" s="107">
+      <c r="J59" s="94">
         <f>AVERAGE(ABS(L59),ABS(N59))</f>
         <v>0.1135</v>
       </c>
-      <c r="K59" s="94">
+      <c r="K59" s="81">
         <v>-0.1108</v>
       </c>
-      <c r="L59" s="51">
+      <c r="L59" s="39">
         <v>-0.19670000000000001</v>
       </c>
-      <c r="M59" s="94">
+      <c r="M59" s="81">
         <v>-8.77E-2</v>
       </c>
-      <c r="N59" s="89">
+      <c r="N59" s="76">
         <v>-3.0300000000000001E-2</v>
       </c>
-      <c r="O59" s="55">
+      <c r="O59" s="43">
         <f>AVERAGE(ABS(P59),ABS(R59))</f>
         <v>9.509999999999999E-2</v>
       </c>
-      <c r="P59" s="51">
+      <c r="P59" s="39">
         <v>0.1069</v>
       </c>
-      <c r="Q59" s="94">
+      <c r="Q59" s="81">
         <v>-0.14069999999999999</v>
       </c>
-      <c r="R59" s="88">
+      <c r="R59" s="75">
         <v>-8.3299999999999999E-2</v>
       </c>
-      <c r="S59" s="101">
+      <c r="S59" s="88">
         <v>-1.9199999999999998E-2</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="113" t="s">
+      <c r="A60" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="B60" s="118" t="s">
+      <c r="B60" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="113" t="s">
-        <v>43</v>
-      </c>
-      <c r="D60" s="80" t="s">
+      <c r="C60" s="123" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="E60" s="56" cm="1">
+      <c r="E60" s="44" cm="1">
         <f t="array" ref="E60">AVERAGE(ABS(F60:I60))</f>
         <v>8.0049999999999996E-2</v>
       </c>
-      <c r="F60" s="45">
+      <c r="F60" s="33">
         <v>-8.9200000000000002E-2</v>
       </c>
-      <c r="G60" s="45">
+      <c r="G60" s="33">
         <v>-0.1462</v>
       </c>
-      <c r="H60" s="45">
+      <c r="H60" s="33">
         <v>-4.58E-2</v>
       </c>
-      <c r="I60" s="42">
+      <c r="I60" s="30">
         <v>-3.9E-2</v>
       </c>
-      <c r="J60" s="55" cm="1">
+      <c r="J60" s="43" cm="1">
         <f t="array" ref="J60">AVERAGE(ABS(K60:N60))</f>
         <v>0.1167</v>
       </c>
-      <c r="K60" s="45">
+      <c r="K60" s="33">
         <v>-0.13109999999999999</v>
       </c>
-      <c r="L60" s="45">
+      <c r="L60" s="33">
         <v>-0.20369999999999999</v>
       </c>
-      <c r="M60" s="45">
+      <c r="M60" s="33">
         <v>-6.4199999999999993E-2</v>
       </c>
-      <c r="N60" s="42">
+      <c r="N60" s="30">
         <v>-6.7799999999999999E-2</v>
       </c>
-      <c r="O60" s="56" cm="1">
+      <c r="O60" s="44" cm="1">
         <f t="array" ref="O60">AVERAGE(ABS(P60:S60))</f>
         <v>9.2350000000000002E-2</v>
       </c>
-      <c r="P60" s="45">
+      <c r="P60" s="33">
         <v>-0.10929999999999999</v>
       </c>
-      <c r="Q60" s="45">
+      <c r="Q60" s="33">
         <v>0.17280000000000001</v>
       </c>
-      <c r="R60" s="45">
+      <c r="R60" s="33">
         <v>-5.9400000000000001E-2</v>
       </c>
-      <c r="S60" s="42">
+      <c r="S60" s="30">
         <v>-2.7900000000000001E-2</v>
       </c>
     </row>
     <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="114"/>
-      <c r="B61" s="112"/>
-      <c r="C61" s="114"/>
-      <c r="D61" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E61" s="55" cm="1">
+      <c r="A61" s="127"/>
+      <c r="B61" s="121"/>
+      <c r="C61" s="127"/>
+      <c r="D61" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" s="43" cm="1">
         <f t="array" ref="E61">AVERAGE(ABS(F61:I61))</f>
         <v>0</v>
       </c>
-      <c r="F61" s="83"/>
-      <c r="G61" s="83"/>
-      <c r="H61" s="83"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="55" cm="1">
+      <c r="F61" s="70"/>
+      <c r="G61" s="70"/>
+      <c r="H61" s="70"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="43" cm="1">
         <f t="array" ref="J61">AVERAGE(ABS(K61:N61))</f>
         <v>0</v>
       </c>
-      <c r="K61" s="83"/>
-      <c r="L61" s="83"/>
-      <c r="M61" s="83"/>
-      <c r="N61" s="36"/>
-      <c r="O61" s="55" cm="1">
+      <c r="K61" s="70"/>
+      <c r="L61" s="70"/>
+      <c r="M61" s="70"/>
+      <c r="N61" s="24"/>
+      <c r="O61" s="43" cm="1">
         <f t="array" ref="O61">AVERAGE(ABS(P61:S61))</f>
         <v>0</v>
       </c>
-      <c r="P61" s="83"/>
-      <c r="Q61" s="83"/>
-      <c r="R61" s="83"/>
-      <c r="S61" s="36"/>
+      <c r="P61" s="70"/>
+      <c r="Q61" s="70"/>
+      <c r="R61" s="70"/>
+      <c r="S61" s="24"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A62" s="114"/>
-      <c r="B62" s="112"/>
-      <c r="C62" s="114"/>
-      <c r="D62" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="E62" s="55" cm="1">
+      <c r="A62" s="127"/>
+      <c r="B62" s="121"/>
+      <c r="C62" s="127"/>
+      <c r="D62" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" s="43" cm="1">
         <f t="array" ref="E62">AVERAGE(ABS(F62:I62))</f>
         <v>0.15140000000000001</v>
       </c>
-      <c r="F62" s="83">
+      <c r="F62" s="70">
         <v>-0.23910000000000001</v>
       </c>
-      <c r="G62" s="83">
+      <c r="G62" s="70">
         <v>-3.15E-2</v>
       </c>
-      <c r="H62" s="83">
+      <c r="H62" s="70">
         <v>-0.14319999999999999</v>
       </c>
-      <c r="I62" s="36">
+      <c r="I62" s="24">
         <v>-0.1918</v>
       </c>
-      <c r="J62" s="55" cm="1">
+      <c r="J62" s="43" cm="1">
         <f t="array" ref="J62">AVERAGE(ABS(K62:N62))</f>
         <v>0.226825</v>
       </c>
-      <c r="K62" s="83">
+      <c r="K62" s="70">
         <v>-0.31780000000000003</v>
       </c>
-      <c r="L62" s="83">
+      <c r="L62" s="70">
         <v>4.6199999999999998E-2</v>
       </c>
-      <c r="M62" s="83">
+      <c r="M62" s="70">
         <v>-0.2225</v>
       </c>
-      <c r="N62" s="36">
+      <c r="N62" s="24">
         <v>-0.32079999999999997</v>
       </c>
-      <c r="O62" s="55" cm="1">
+      <c r="O62" s="43" cm="1">
         <f t="array" ref="O62">AVERAGE(ABS(P62:S62))</f>
         <v>0.17682500000000001</v>
       </c>
-      <c r="P62" s="62">
+      <c r="P62" s="50">
         <v>-0.23730000000000001</v>
       </c>
-      <c r="Q62" s="62">
+      <c r="Q62" s="50">
         <v>-0.18540000000000001</v>
       </c>
-      <c r="R62" s="62">
+      <c r="R62" s="50">
         <v>-0.12839999999999999</v>
       </c>
-      <c r="S62" s="63">
+      <c r="S62" s="51">
         <v>-0.15620000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A63" s="114"/>
-      <c r="B63" s="112"/>
-      <c r="C63" s="114"/>
-      <c r="D63" s="39" t="s">
+      <c r="A63" s="127"/>
+      <c r="B63" s="121"/>
+      <c r="C63" s="127"/>
+      <c r="D63" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E63" s="55" cm="1">
+      <c r="E63" s="43" cm="1">
         <f t="array" ref="E63">AVERAGE(ABS(F63:I63))</f>
         <v>0.14297499999999999</v>
       </c>
-      <c r="F63" s="49">
+      <c r="F63" s="37">
         <v>-0.2334</v>
       </c>
-      <c r="G63" s="49">
+      <c r="G63" s="37">
         <v>-5.21E-2</v>
       </c>
-      <c r="H63" s="49">
+      <c r="H63" s="37">
         <v>-0.14660000000000001</v>
       </c>
-      <c r="I63" s="37">
+      <c r="I63" s="25">
         <v>-0.13980000000000001</v>
       </c>
-      <c r="J63" s="52" cm="1">
+      <c r="J63" s="40" cm="1">
         <f t="array" ref="J63">AVERAGE(ABS(K63:N63))</f>
         <v>0.18742499999999998</v>
       </c>
-      <c r="K63" s="49">
+      <c r="K63" s="37">
         <v>-0.3362</v>
       </c>
-      <c r="L63" s="49">
+      <c r="L63" s="37">
         <v>2.4400000000000002E-2</v>
       </c>
-      <c r="M63" s="49">
+      <c r="M63" s="37">
         <v>-0.2034</v>
       </c>
-      <c r="N63" s="37">
+      <c r="N63" s="25">
         <v>-0.1857</v>
       </c>
-      <c r="O63" s="52" cm="1">
+      <c r="O63" s="40" cm="1">
         <f t="array" ref="O63">AVERAGE(ABS(P63:S63))</f>
         <v>0.21174999999999999</v>
       </c>
-      <c r="P63" s="46">
+      <c r="P63" s="34">
         <v>-0.2752</v>
       </c>
-      <c r="Q63" s="46">
+      <c r="Q63" s="34">
         <v>-0.2072</v>
       </c>
-      <c r="R63" s="46">
+      <c r="R63" s="34">
         <v>-0.18659999999999999</v>
       </c>
-      <c r="S63" s="44">
+      <c r="S63" s="32">
         <v>-0.17799999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A64" s="114"/>
-      <c r="B64" s="112"/>
-      <c r="C64" s="108" t="s">
-        <v>44</v>
-      </c>
-      <c r="D64" s="81" t="s">
+      <c r="A64" s="127"/>
+      <c r="B64" s="121"/>
+      <c r="C64" s="125" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="E64" s="95" cm="1">
+      <c r="E64" s="82" cm="1">
         <f t="array" ref="E64">AVERAGE(ABS(F64:I64))</f>
         <v>3.7400000000000003E-2</v>
       </c>
-      <c r="F64" s="102">
+      <c r="F64" s="89">
         <v>0.1046</v>
       </c>
-      <c r="G64" s="102">
+      <c r="G64" s="89">
         <v>-1.0200000000000001E-2</v>
       </c>
-      <c r="H64" s="102">
+      <c r="H64" s="89">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="I64" s="103">
+      <c r="I64" s="90">
         <v>2.4899999999999999E-2</v>
       </c>
-      <c r="J64" s="97" cm="1">
+      <c r="J64" s="84" cm="1">
         <f t="array" ref="J64">AVERAGE(ABS(K64:N64))</f>
         <v>6.13E-2</v>
       </c>
-      <c r="K64" s="102">
+      <c r="K64" s="89">
         <v>0.1658</v>
       </c>
-      <c r="L64" s="102">
+      <c r="L64" s="89">
         <v>-1.44E-2</v>
       </c>
-      <c r="M64" s="102">
+      <c r="M64" s="89">
         <v>2.3599999999999999E-2</v>
       </c>
-      <c r="N64" s="103">
+      <c r="N64" s="90">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="O64" s="55" cm="1">
+      <c r="O64" s="43" cm="1">
         <f t="array" ref="O64">AVERAGE(ABS(P64:S64))</f>
         <v>1.8449999999999998E-2</v>
       </c>
-      <c r="P64" s="64">
+      <c r="P64" s="52">
         <v>3.5299999999999998E-2</v>
       </c>
-      <c r="Q64" s="64">
+      <c r="Q64" s="52">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="R64" s="64">
+      <c r="R64" s="52">
         <v>-2.9600000000000001E-2</v>
       </c>
-      <c r="S64" s="65">
+      <c r="S64" s="53">
         <v>-8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="114"/>
-      <c r="B65" s="112"/>
-      <c r="C65" s="108"/>
-      <c r="D65" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E65" s="97" cm="1">
+      <c r="A65" s="127"/>
+      <c r="B65" s="121"/>
+      <c r="C65" s="125"/>
+      <c r="D65" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="E65" s="84" cm="1">
         <f t="array" ref="E65">AVERAGE(ABS(F65:I65))</f>
         <v>0</v>
       </c>
-      <c r="F65" s="93"/>
-      <c r="G65" s="93"/>
-      <c r="H65" s="93"/>
-      <c r="I65" s="96"/>
-      <c r="J65" s="97" cm="1">
+      <c r="F65" s="80"/>
+      <c r="G65" s="80"/>
+      <c r="H65" s="80"/>
+      <c r="I65" s="83"/>
+      <c r="J65" s="84" cm="1">
         <f t="array" ref="J65">AVERAGE(ABS(K65:N65))</f>
         <v>0</v>
       </c>
-      <c r="K65" s="93"/>
-      <c r="L65" s="93"/>
-      <c r="M65" s="93"/>
-      <c r="N65" s="96"/>
-      <c r="O65" s="55" cm="1">
+      <c r="K65" s="80"/>
+      <c r="L65" s="80"/>
+      <c r="M65" s="80"/>
+      <c r="N65" s="83"/>
+      <c r="O65" s="43" cm="1">
         <f t="array" ref="O65">AVERAGE(ABS(P65:S65))</f>
         <v>0</v>
       </c>
-      <c r="P65" s="62"/>
-      <c r="Q65" s="62"/>
-      <c r="R65" s="62"/>
-      <c r="S65" s="63"/>
+      <c r="P65" s="50"/>
+      <c r="Q65" s="50"/>
+      <c r="R65" s="50"/>
+      <c r="S65" s="51"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A66" s="114"/>
-      <c r="B66" s="112"/>
-      <c r="C66" s="108"/>
-      <c r="D66" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="E66" s="97" cm="1">
+      <c r="A66" s="127"/>
+      <c r="B66" s="121"/>
+      <c r="C66" s="125"/>
+      <c r="D66" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="E66" s="84" cm="1">
         <f t="array" ref="E66">AVERAGE(ABS(F66:I66))</f>
         <v>4.3050000000000005E-2</v>
       </c>
-      <c r="F66" s="93">
+      <c r="F66" s="80">
         <v>-1.83E-2</v>
       </c>
-      <c r="G66" s="93">
+      <c r="G66" s="80">
         <v>0.1139</v>
       </c>
-      <c r="H66" s="93">
+      <c r="H66" s="80">
         <v>2.6100000000000002E-2</v>
       </c>
-      <c r="I66" s="96">
+      <c r="I66" s="83">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="J66" s="97" cm="1">
+      <c r="J66" s="84" cm="1">
         <f t="array" ref="J66">AVERAGE(ABS(K66:N66))</f>
         <v>8.0324999999999994E-2</v>
       </c>
-      <c r="K66" s="93">
+      <c r="K66" s="80">
         <v>-3.6200000000000003E-2</v>
       </c>
-      <c r="L66" s="93">
+      <c r="L66" s="80">
         <v>0.22439999999999999</v>
       </c>
-      <c r="M66" s="93">
+      <c r="M66" s="80">
         <v>3.6299999999999999E-2</v>
       </c>
-      <c r="N66" s="96">
+      <c r="N66" s="83">
         <v>2.4400000000000002E-2</v>
       </c>
-      <c r="O66" s="86" cm="1">
+      <c r="O66" s="73" cm="1">
         <f t="array" ref="O66">AVERAGE(ABS(P66:S66))</f>
         <v>1.3350000000000002E-2</v>
       </c>
-      <c r="P66" s="105">
+      <c r="P66" s="92">
         <v>-3.4200000000000001E-2</v>
       </c>
-      <c r="Q66" s="62">
+      <c r="Q66" s="50">
         <v>1.49E-2</v>
       </c>
-      <c r="R66" s="62">
+      <c r="R66" s="50">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="S66" s="106">
+      <c r="S66" s="93">
         <v>-8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A67" s="114"/>
-      <c r="B67" s="112"/>
-      <c r="C67" s="108"/>
-      <c r="D67" s="81" t="s">
+      <c r="A67" s="127"/>
+      <c r="B67" s="121"/>
+      <c r="C67" s="125"/>
+      <c r="D67" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="E67" s="100" cm="1">
+      <c r="E67" s="87" cm="1">
         <f t="array" ref="E67">AVERAGE(ABS(F67:I67))</f>
         <v>6.7100000000000007E-2</v>
       </c>
-      <c r="F67" s="98">
+      <c r="F67" s="85">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="G67" s="98">
+      <c r="G67" s="85">
         <v>9.2499999999999999E-2</v>
       </c>
-      <c r="H67" s="98">
+      <c r="H67" s="85">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="I67" s="99">
+      <c r="I67" s="86">
         <v>0.1178</v>
       </c>
-      <c r="J67" s="100" cm="1">
+      <c r="J67" s="87" cm="1">
         <f t="array" ref="J67">AVERAGE(ABS(K67:N67))</f>
         <v>0.12219999999999999</v>
       </c>
-      <c r="K67" s="98">
+      <c r="K67" s="85">
         <v>6.1800000000000001E-2</v>
       </c>
-      <c r="L67" s="98">
+      <c r="L67" s="85">
         <v>0.1744</v>
       </c>
-      <c r="M67" s="98">
+      <c r="M67" s="85">
         <v>4.2299999999999997E-2</v>
       </c>
-      <c r="N67" s="99">
+      <c r="N67" s="86">
         <v>0.21029999999999999</v>
       </c>
-      <c r="O67" s="55">
+      <c r="O67" s="43">
         <f>AVERAGE(ABS(P67),ABS(Q67),ABS(R67),ABS(S67))</f>
         <v>1.6725E-2</v>
       </c>
-      <c r="P67" s="46">
+      <c r="P67" s="34">
         <v>-4.4600000000000001E-2</v>
       </c>
-      <c r="Q67" s="66">
+      <c r="Q67" s="54">
         <v>5.3E-3</v>
       </c>
-      <c r="R67" s="66">
-        <v>0</v>
-      </c>
-      <c r="S67" s="44">
+      <c r="R67" s="54">
+        <v>0</v>
+      </c>
+      <c r="S67" s="32">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A68" s="114"/>
-      <c r="B68" s="112"/>
-      <c r="C68" s="108" t="s">
-        <v>45</v>
-      </c>
-      <c r="D68" s="81" t="s">
+      <c r="A68" s="127"/>
+      <c r="B68" s="121"/>
+      <c r="C68" s="125" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="E68" s="86" cm="1">
+      <c r="E68" s="73" cm="1">
         <f t="array" ref="E68">AVERAGE(ABS(F68:I68))</f>
         <v>0</v>
       </c>
-      <c r="F68" s="48">
-        <v>0</v>
-      </c>
-      <c r="G68" s="48">
-        <v>0</v>
-      </c>
-      <c r="H68" s="48">
-        <v>0</v>
-      </c>
-      <c r="I68" s="43">
-        <v>0</v>
-      </c>
-      <c r="J68" s="86" cm="1">
+      <c r="F68" s="36">
+        <v>0</v>
+      </c>
+      <c r="G68" s="36">
+        <v>0</v>
+      </c>
+      <c r="H68" s="36">
+        <v>0</v>
+      </c>
+      <c r="I68" s="31">
+        <v>0</v>
+      </c>
+      <c r="J68" s="73" cm="1">
         <f t="array" ref="J68">AVERAGE(ABS(K68:N68))</f>
         <v>0</v>
       </c>
-      <c r="K68" s="48">
-        <v>0</v>
-      </c>
-      <c r="L68" s="48">
-        <v>0</v>
-      </c>
-      <c r="M68" s="48">
-        <v>0</v>
-      </c>
-      <c r="N68" s="43">
-        <v>0</v>
-      </c>
-      <c r="O68" s="138" cm="1">
+      <c r="K68" s="36">
+        <v>0</v>
+      </c>
+      <c r="L68" s="36">
+        <v>0</v>
+      </c>
+      <c r="M68" s="36">
+        <v>0</v>
+      </c>
+      <c r="N68" s="31">
+        <v>0</v>
+      </c>
+      <c r="O68" s="95" cm="1">
         <f t="array" ref="O68">AVERAGE(ABS(P68:S68))</f>
         <v>0</v>
       </c>
-      <c r="P68" s="102">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="102">
-        <v>0</v>
-      </c>
-      <c r="R68" s="102">
-        <v>0</v>
-      </c>
-      <c r="S68" s="103">
+      <c r="P68" s="89">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="89">
+        <v>0</v>
+      </c>
+      <c r="R68" s="89">
+        <v>0</v>
+      </c>
+      <c r="S68" s="90">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="114"/>
-      <c r="B69" s="112"/>
-      <c r="C69" s="108"/>
-      <c r="D69" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E69" s="55" cm="1">
+      <c r="A69" s="127"/>
+      <c r="B69" s="121"/>
+      <c r="C69" s="125"/>
+      <c r="D69" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="E69" s="43" cm="1">
         <f t="array" ref="E69">AVERAGE(ABS(F69:I69))</f>
         <v>0</v>
       </c>
-      <c r="F69" s="83"/>
-      <c r="G69" s="83"/>
-      <c r="H69" s="83"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="55" cm="1">
+      <c r="F69" s="70"/>
+      <c r="G69" s="70"/>
+      <c r="H69" s="70"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="43" cm="1">
         <f t="array" ref="J69">AVERAGE(ABS(K69:N69))</f>
         <v>0</v>
       </c>
-      <c r="K69" s="83"/>
-      <c r="L69" s="83"/>
-      <c r="M69" s="83"/>
-      <c r="N69" s="36"/>
-      <c r="O69" s="97" cm="1">
+      <c r="K69" s="70"/>
+      <c r="L69" s="70"/>
+      <c r="M69" s="70"/>
+      <c r="N69" s="24"/>
+      <c r="O69" s="84" cm="1">
         <f t="array" ref="O69">AVERAGE(ABS(P69:S69))</f>
         <v>0</v>
       </c>
-      <c r="P69" s="93"/>
-      <c r="Q69" s="93"/>
-      <c r="R69" s="93"/>
-      <c r="S69" s="96"/>
+      <c r="P69" s="80"/>
+      <c r="Q69" s="80"/>
+      <c r="R69" s="80"/>
+      <c r="S69" s="83"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A70" s="114"/>
-      <c r="B70" s="112"/>
-      <c r="C70" s="108"/>
-      <c r="D70" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="E70" s="55" cm="1">
+      <c r="A70" s="127"/>
+      <c r="B70" s="121"/>
+      <c r="C70" s="125"/>
+      <c r="D70" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E70" s="43" cm="1">
         <f t="array" ref="E70">AVERAGE(ABS(F70:I70))</f>
         <v>3.6149999999999995E-2</v>
       </c>
-      <c r="F70" s="83">
+      <c r="F70" s="70">
         <v>5.33E-2</v>
       </c>
-      <c r="G70" s="83">
+      <c r="G70" s="70">
         <v>5.79E-2</v>
       </c>
-      <c r="H70" s="69">
+      <c r="H70" s="57">
         <v>-6.1000000000000004E-3</v>
       </c>
-      <c r="I70" s="36">
+      <c r="I70" s="24">
         <v>-2.7300000000000001E-2</v>
       </c>
-      <c r="J70" s="55" cm="1">
+      <c r="J70" s="43" cm="1">
         <f t="array" ref="J70">AVERAGE(ABS(K70:N70))</f>
         <v>6.0425000000000006E-2</v>
       </c>
-      <c r="K70" s="83">
+      <c r="K70" s="70">
         <v>9.11E-2</v>
       </c>
-      <c r="L70" s="83">
+      <c r="L70" s="70">
         <v>0.12180000000000001</v>
       </c>
-      <c r="M70" s="69">
+      <c r="M70" s="57">
         <v>-1.4800000000000001E-2</v>
       </c>
-      <c r="N70" s="84">
+      <c r="N70" s="71">
         <v>-1.4E-2</v>
       </c>
-      <c r="O70" s="97" cm="1">
+      <c r="O70" s="84" cm="1">
         <f t="array" ref="O70">AVERAGE(ABS(P70:S70))</f>
         <v>2.7075000000000002E-2</v>
       </c>
-      <c r="P70" s="93">
+      <c r="P70" s="80">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="Q70" s="93">
+      <c r="Q70" s="80">
         <v>-1.4200000000000001E-2</v>
       </c>
-      <c r="R70" s="93">
+      <c r="R70" s="80">
         <v>-1.3299999999999999E-2</v>
       </c>
-      <c r="S70" s="96">
+      <c r="S70" s="83">
         <v>-7.3099999999999998E-2</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A71" s="114"/>
-      <c r="B71" s="112"/>
-      <c r="C71" s="108"/>
-      <c r="D71" s="81" t="s">
+      <c r="A71" s="127"/>
+      <c r="B71" s="121"/>
+      <c r="C71" s="125"/>
+      <c r="D71" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="E71" s="55" cm="1">
+      <c r="E71" s="43" cm="1">
         <f t="array" ref="E71">AVERAGE(ABS(F71:I71))</f>
         <v>1.8325000000000001E-2</v>
       </c>
-      <c r="F71" s="70">
+      <c r="F71" s="58">
         <v>-1.0800000000000001E-2</v>
       </c>
-      <c r="G71" s="70">
+      <c r="G71" s="58">
         <v>0.03</v>
       </c>
-      <c r="H71" s="49">
+      <c r="H71" s="37">
         <v>-1.17E-2</v>
       </c>
-      <c r="I71" s="71">
+      <c r="I71" s="59">
         <v>2.0799999999999999E-2</v>
       </c>
-      <c r="J71" s="52" cm="1">
+      <c r="J71" s="40" cm="1">
         <f t="array" ref="J71">AVERAGE(ABS(K71:N71))</f>
         <v>4.7499999999999994E-2</v>
       </c>
-      <c r="K71" s="70">
+      <c r="K71" s="58">
         <v>-4.2799999999999998E-2</v>
       </c>
-      <c r="L71" s="70">
+      <c r="L71" s="58">
         <v>8.4599999999999995E-2</v>
       </c>
-      <c r="M71" s="49">
+      <c r="M71" s="37">
         <v>-1.9E-2</v>
       </c>
-      <c r="N71" s="37">
+      <c r="N71" s="25">
         <v>4.36E-2</v>
       </c>
-      <c r="O71" s="100" cm="1">
+      <c r="O71" s="87" cm="1">
         <f t="array" ref="O71">AVERAGE(ABS(P71:S71))</f>
         <v>4.1099999999999998E-2</v>
       </c>
-      <c r="P71" s="98">
+      <c r="P71" s="85">
         <v>-5.96E-2</v>
       </c>
-      <c r="Q71" s="98">
+      <c r="Q71" s="85">
         <v>-4.2799999999999998E-2</v>
       </c>
-      <c r="R71" s="98">
+      <c r="R71" s="85">
         <v>-4.8099999999999997E-2</v>
       </c>
-      <c r="S71" s="99">
+      <c r="S71" s="86">
         <v>-1.3899999999999999E-2</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A72" s="114"/>
-      <c r="B72" s="112"/>
-      <c r="C72" s="108" t="s">
-        <v>46</v>
-      </c>
-      <c r="D72" s="81" t="s">
+      <c r="A72" s="127"/>
+      <c r="B72" s="121"/>
+      <c r="C72" s="125" t="s">
+        <v>42</v>
+      </c>
+      <c r="D72" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="E72" s="86">
+      <c r="E72" s="73">
         <f t="shared" ref="E72:E73" si="9">AVERAGE(ABS(G72),ABS(I72))</f>
         <v>0</v>
       </c>
-      <c r="F72" s="102">
+      <c r="F72" s="89">
         <v>0.1011</v>
       </c>
-      <c r="G72" s="48">
-        <v>0</v>
-      </c>
-      <c r="H72" s="102">
-        <v>0</v>
-      </c>
-      <c r="I72" s="43">
-        <v>0</v>
-      </c>
-      <c r="J72" s="86">
+      <c r="G72" s="36">
+        <v>0</v>
+      </c>
+      <c r="H72" s="89">
+        <v>0</v>
+      </c>
+      <c r="I72" s="31">
+        <v>0</v>
+      </c>
+      <c r="J72" s="73">
         <f t="shared" ref="J72:J73" si="10">AVERAGE(ABS(L72),ABS(N72))</f>
         <v>4.15E-3</v>
       </c>
-      <c r="K72" s="102">
+      <c r="K72" s="89">
         <v>0.16220000000000001</v>
       </c>
-      <c r="L72" s="48">
-        <v>0</v>
-      </c>
-      <c r="M72" s="102">
+      <c r="L72" s="36">
+        <v>0</v>
+      </c>
+      <c r="M72" s="89">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="N72" s="43">
+      <c r="N72" s="31">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="O72" s="55">
+      <c r="O72" s="43">
         <f t="shared" ref="O72:O73" si="11">AVERAGE(ABS(P72),ABS(R72))</f>
         <v>2.92E-2</v>
       </c>
-      <c r="P72" s="48">
+      <c r="P72" s="36">
         <v>3.1800000000000002E-2</v>
       </c>
-      <c r="Q72" s="102">
-        <v>0</v>
-      </c>
-      <c r="R72" s="48">
+      <c r="Q72" s="89">
+        <v>0</v>
+      </c>
+      <c r="R72" s="36">
         <v>-2.6599999999999999E-2</v>
       </c>
-      <c r="S72" s="103">
+      <c r="S72" s="90">
         <v>-1.47E-2</v>
       </c>
     </row>
     <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="114"/>
-      <c r="B73" s="112"/>
-      <c r="C73" s="108"/>
-      <c r="D73" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E73" s="55">
+      <c r="A73" s="127"/>
+      <c r="B73" s="121"/>
+      <c r="C73" s="125"/>
+      <c r="D73" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F73" s="93"/>
-      <c r="G73" s="83"/>
-      <c r="H73" s="93"/>
-      <c r="I73" s="36"/>
-      <c r="J73" s="55">
+      <c r="F73" s="80"/>
+      <c r="G73" s="70"/>
+      <c r="H73" s="80"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="43">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K73" s="93"/>
-      <c r="L73" s="83"/>
-      <c r="M73" s="93"/>
-      <c r="N73" s="36"/>
-      <c r="O73" s="55">
+      <c r="K73" s="80"/>
+      <c r="L73" s="70"/>
+      <c r="M73" s="80"/>
+      <c r="N73" s="24"/>
+      <c r="O73" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P73" s="83"/>
-      <c r="Q73" s="93"/>
-      <c r="R73" s="83"/>
-      <c r="S73" s="96"/>
+      <c r="P73" s="70"/>
+      <c r="Q73" s="80"/>
+      <c r="R73" s="70"/>
+      <c r="S73" s="83"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A74" s="114"/>
-      <c r="B74" s="112"/>
-      <c r="C74" s="108"/>
-      <c r="D74" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="E74" s="55">
+      <c r="A74" s="127"/>
+      <c r="B74" s="121"/>
+      <c r="C74" s="125"/>
+      <c r="D74" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E74" s="43">
         <f>AVERAGE(ABS(G74),ABS(I74))</f>
         <v>1.17E-2</v>
       </c>
-      <c r="F74" s="93">
+      <c r="F74" s="80">
         <v>-1.49E-2</v>
       </c>
-      <c r="G74" s="83">
+      <c r="G74" s="70">
         <v>-2.0500000000000001E-2</v>
       </c>
-      <c r="H74" s="93">
+      <c r="H74" s="80">
         <v>2.3E-3</v>
       </c>
-      <c r="I74" s="84">
+      <c r="I74" s="71">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="J74" s="55">
+      <c r="J74" s="43">
         <f>AVERAGE(ABS(L74),ABS(N74))</f>
         <v>9.5499999999999995E-3</v>
       </c>
-      <c r="K74" s="93">
+      <c r="K74" s="80">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="L74" s="69">
+      <c r="L74" s="57">
         <v>-1.03E-2</v>
       </c>
-      <c r="M74" s="93">
+      <c r="M74" s="80">
         <v>-1.06E-2</v>
       </c>
-      <c r="N74" s="84">
+      <c r="N74" s="71">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="O74" s="55">
+      <c r="O74" s="43">
         <f>AVERAGE(ABS(P74),ABS(R74))</f>
         <v>3.6600000000000001E-2</v>
       </c>
-      <c r="P74" s="83">
+      <c r="P74" s="70">
         <v>-7.2999999999999995E-2</v>
       </c>
-      <c r="Q74" s="93">
+      <c r="Q74" s="80">
         <v>-2.9399999999999999E-2</v>
       </c>
-      <c r="R74" s="69">
+      <c r="R74" s="57">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S74" s="96">
+      <c r="S74" s="83">
         <v>-5.1000000000000004E-3</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A75" s="114"/>
-      <c r="B75" s="113"/>
-      <c r="C75" s="110"/>
-      <c r="D75" s="81" t="s">
+      <c r="A75" s="127"/>
+      <c r="B75" s="123"/>
+      <c r="C75" s="129"/>
+      <c r="D75" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="E75" s="86">
+      <c r="E75" s="73">
         <f>AVERAGE(ABS(G75),ABS(I75))</f>
         <v>6.8500000000000002E-3</v>
       </c>
-      <c r="F75" s="98">
+      <c r="F75" s="85">
         <v>5.5300000000000002E-2</v>
       </c>
-      <c r="G75" s="70">
+      <c r="G75" s="58">
         <v>-9.9000000000000008E-3</v>
       </c>
-      <c r="H75" s="98">
+      <c r="H75" s="85">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I75" s="37">
+      <c r="I75" s="25">
         <v>3.8E-3</v>
       </c>
-      <c r="J75" s="52">
+      <c r="J75" s="40">
         <f>AVERAGE(ABS(L75),ABS(N75))</f>
         <v>1.12E-2</v>
       </c>
-      <c r="K75" s="98">
+      <c r="K75" s="85">
         <v>9.7600000000000006E-2</v>
       </c>
-      <c r="L75" s="70">
+      <c r="L75" s="58">
         <v>-1.03E-2</v>
       </c>
-      <c r="M75" s="98">
+      <c r="M75" s="85">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="N75" s="37">
+      <c r="N75" s="25">
         <v>1.21E-2</v>
       </c>
-      <c r="O75" s="59">
+      <c r="O75" s="47">
         <f>AVERAGE(ABS(P75),ABS(R75))</f>
         <v>2.2800000000000001E-2</v>
       </c>
-      <c r="P75" s="70">
+      <c r="P75" s="58">
         <v>-3.0099999999999998E-2</v>
       </c>
-      <c r="Q75" s="98">
+      <c r="Q75" s="85">
         <v>-2.53E-2</v>
       </c>
-      <c r="R75" s="49">
+      <c r="R75" s="37">
         <v>-1.55E-2</v>
       </c>
-      <c r="S75" s="99">
+      <c r="S75" s="86">
         <v>-6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C76" s="68"/>
-      <c r="E76" s="92"/>
-      <c r="I76" s="48"/>
-      <c r="J76" s="92"/>
-      <c r="N76" s="48"/>
-      <c r="O76" s="92"/>
+      <c r="C76" s="56"/>
+      <c r="E76" s="79"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="79"/>
+      <c r="N76" s="36"/>
+      <c r="O76" s="79"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D77" s="83"/>
-      <c r="E77" s="91"/>
-      <c r="F77" s="83"/>
-      <c r="I77" s="83"/>
-      <c r="J77" s="91"/>
-      <c r="M77" s="83"/>
-      <c r="N77" s="83"/>
-      <c r="O77" s="91"/>
-      <c r="R77" s="83"/>
+      <c r="D77" s="70"/>
+      <c r="E77" s="78"/>
+      <c r="F77" s="70"/>
+      <c r="I77" s="70"/>
+      <c r="J77" s="78"/>
+      <c r="M77" s="70"/>
+      <c r="N77" s="70"/>
+      <c r="O77" s="78"/>
+      <c r="R77" s="70"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D78" s="83"/>
-      <c r="E78" s="91"/>
-      <c r="G78" s="83"/>
-      <c r="J78" s="91"/>
-      <c r="O78" s="91"/>
+      <c r="D78" s="70"/>
+      <c r="E78" s="78"/>
+      <c r="G78" s="70"/>
+      <c r="J78" s="78"/>
+      <c r="O78" s="78"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D79" s="83"/>
-      <c r="E79" s="83"/>
-      <c r="G79" s="83"/>
-      <c r="O79" s="83"/>
+      <c r="D79" s="70"/>
+      <c r="E79" s="70"/>
+      <c r="G79" s="70"/>
+      <c r="O79" s="70"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="O80" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="T80" s="40" t="s">
-        <v>52</v>
+      <c r="O80" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="T80" s="28" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="M81" s="40">
+      <c r="M81" s="28">
         <v>100</v>
       </c>
-      <c r="S81" s="40" t="e">
+      <c r="S81" s="28" t="e">
         <f>AVERAGE(O81:R81)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X81" s="40" t="e">
+      <c r="X81" s="28" t="e">
         <f>AVERAGE(T81:W81)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="82" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="M82" s="40">
+      <c r="M82" s="28">
         <v>75</v>
       </c>
-      <c r="S82" s="40" t="e">
+      <c r="S82" s="28" t="e">
         <f t="shared" ref="S82:S86" si="12">AVERAGE(O82:R82)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X82" s="40" t="e">
+      <c r="X82" s="28" t="e">
         <f t="shared" ref="X82:X86" si="13">AVERAGE(T82:W82)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="83" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="M83" s="40">
+      <c r="M83" s="28">
         <v>50</v>
       </c>
-      <c r="S83" s="40" t="e">
+      <c r="S83" s="28" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X83" s="40" t="e">
+      <c r="X83" s="28" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="84" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="M84" s="40">
+      <c r="M84" s="28">
         <v>25</v>
       </c>
-      <c r="S84" s="40" t="e">
+      <c r="S84" s="28" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X84" s="40" t="e">
+      <c r="X84" s="28" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="85" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="M85" s="40">
+      <c r="M85" s="28">
         <v>10</v>
       </c>
-      <c r="S85" s="40" t="e">
+      <c r="S85" s="28" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X85" s="40" t="e">
+      <c r="X85" s="28" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="86" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="M86" s="40">
+      <c r="M86" s="28">
         <v>1</v>
       </c>
-      <c r="S86" s="40" t="e">
+      <c r="S86" s="28" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X86" s="40" t="e">
+      <c r="X86" s="28" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="89" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C89" s="40"/>
+      <c r="C89" s="28"/>
     </row>
     <row r="90" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C90" s="40"/>
+      <c r="C90" s="28"/>
     </row>
     <row r="91" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C91" s="40"/>
+      <c r="C91" s="28"/>
     </row>
     <row r="92" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C92" s="40"/>
+      <c r="C92" s="28"/>
     </row>
     <row r="93" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C93" s="40"/>
+      <c r="C93" s="28"/>
     </row>
     <row r="94" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C94" s="40"/>
+      <c r="C94" s="28"/>
     </row>
     <row r="95" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C95" s="40"/>
+      <c r="C95" s="28"/>
     </row>
     <row r="96" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C96" s="40"/>
-    </row>
-    <row r="97" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="C96" s="28"/>
+    </row>
+    <row r="97" s="28" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="28" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="28" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="28" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="28" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="28" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="28" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="28" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="28" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="28" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="28" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="28" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="28" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A60:A75"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A20"/>
+    <mergeCell ref="A21:A36"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A59"/>
+    <mergeCell ref="B60:B75"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="D42:D43"/>
     <mergeCell ref="Q5:S11"/>
     <mergeCell ref="B44:B59"/>
     <mergeCell ref="B21:B36"/>
@@ -7373,30 +7300,6 @@
     <mergeCell ref="B5:B20"/>
     <mergeCell ref="O42:S42"/>
     <mergeCell ref="C44:C47"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="A60:A75"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A20"/>
-    <mergeCell ref="A21:A36"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A59"/>
-    <mergeCell ref="B60:B75"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C72:C75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -7405,824 +7308,666 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D43789-1003-47D8-B7A4-FDE215F69927}">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="4"/>
-    <col min="2" max="2" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="4"/>
-    <col min="4" max="4" width="21.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="4"/>
-    <col min="7" max="7" width="28.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="4"/>
+    <col min="1" max="1" width="9.109375" style="3"/>
+    <col min="2" max="2" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="3"/>
+    <col min="4" max="4" width="21.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="3"/>
+    <col min="7" max="7" width="28.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="6"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="127" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="129" t="s">
+      <c r="D2" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="129" t="s">
+      <c r="E2" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="129" t="s">
+      <c r="F2" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="123" t="s">
+      <c r="G2" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="130" t="s">
+      <c r="H2" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="123" t="s">
+      <c r="I2" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="132" t="s">
+      <c r="J2" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="O2" s="19"/>
+      <c r="K2" s="146" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="O2" s="15"/>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15"/>
-      <c r="B3" s="128"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="O3" s="19"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="4"/>
+      <c r="O3" s="15"/>
     </row>
     <row r="4" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>1</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="29">
+      <c r="G4" s="9"/>
+      <c r="H4" s="19">
         <v>1E-10</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <v>64</v>
       </c>
-      <c r="J4" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="O4" s="19"/>
+      <c r="J4" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="60"/>
+      <c r="L4" s="5"/>
+      <c r="O4" s="15"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="121"/>
+      <c r="A5" s="132"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>10</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>0.5</v>
       </c>
-      <c r="G5" s="57"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="O5" s="19"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="5"/>
+      <c r="O5" s="15"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="121"/>
+      <c r="A6" s="132"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>100</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="O6" s="19"/>
+      <c r="K6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="O6" s="15"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="121"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="132"/>
+      <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>100</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="O7" s="19"/>
+      <c r="K7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="O7" s="15"/>
     </row>
     <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="122"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="133"/>
+      <c r="B8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>4</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>100</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="6"/>
-      <c r="O8" s="19"/>
+      <c r="K8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A9" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="74">
+      <c r="C9" s="61">
         <v>1</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="74" t="s">
+      <c r="E9" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="74" t="s">
+      <c r="F9" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="77" t="s">
+      <c r="G9" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="64">
+        <v>1E-10</v>
+      </c>
+      <c r="I9" s="61">
+        <v>256</v>
+      </c>
+      <c r="J9" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="132"/>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="20">
+        <v>3</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="20">
+        <v>10</v>
+      </c>
+      <c r="F10" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="132"/>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="20">
+        <v>3</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="20">
+        <v>25</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="132"/>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="20">
+        <v>4</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="20">
         <v>50</v>
       </c>
-      <c r="H9" s="77">
-        <v>1E-10</v>
-      </c>
-      <c r="I9" s="74">
-        <v>256</v>
-      </c>
-      <c r="J9" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="6"/>
-      <c r="O9" s="19"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="121"/>
-      <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="30">
-        <v>3</v>
-      </c>
-      <c r="D10" s="30" t="s">
+      <c r="F12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="133"/>
+      <c r="B13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="11">
+        <v>4</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="30">
-        <v>10</v>
-      </c>
-      <c r="F10" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="O10" s="19"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="121"/>
-      <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="30">
-        <v>3</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="30">
-        <v>25</v>
-      </c>
-      <c r="F11" s="30" t="s">
+      <c r="E13" s="11">
+        <v>100</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="O11" s="19"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="121"/>
-      <c r="B12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="30">
-        <v>4</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="30">
-        <v>50</v>
-      </c>
-      <c r="F12" s="30" t="s">
+      <c r="K13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="O12" s="19"/>
-    </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="122"/>
-      <c r="B13" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="12">
-        <v>4</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="12">
-        <v>100</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="O13" s="19"/>
+      <c r="L13" s="5"/>
+      <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="136" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="123" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="123" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="123" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="123" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="123" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="135" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="123" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="123" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" s="125" t="s">
-        <v>10</v>
-      </c>
-      <c r="L17" s="21"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="16"/>
-      <c r="B18" s="137"/>
-      <c r="C18" s="124"/>
-      <c r="D18" s="124"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="124"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="124"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="126"/>
-      <c r="L18" s="21"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="120" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="10">
-        <v>1</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="79" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="29">
-        <v>1E-10</v>
-      </c>
-      <c r="I19" s="79">
-        <v>64</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19" s="73" t="s">
-        <v>81</v>
-      </c>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="136"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="136"/>
+      <c r="K17" s="136"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="136"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="136"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="121"/>
-      <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="3">
-        <v>3</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="22">
-        <v>10</v>
-      </c>
-      <c r="F20" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="G20" s="34"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="6"/>
+      <c r="A20" s="136"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="121"/>
-      <c r="B21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="3">
-        <v>3</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="22">
-        <v>25</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="6"/>
+      <c r="A21" s="136"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="121"/>
-      <c r="B22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="3">
-        <v>4</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="22">
-        <v>100</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="122"/>
-      <c r="B23" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="12">
-        <v>4</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="12">
-        <v>100</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="120" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="74">
-        <v>1</v>
-      </c>
-      <c r="D24" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="H24" s="77">
-        <v>1E-10</v>
-      </c>
-      <c r="I24" s="74">
-        <v>256</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="K24" s="76" t="s">
-        <v>80</v>
-      </c>
+      <c r="A22" s="136"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="136"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="136"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="112"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="121"/>
-      <c r="B25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="33">
-        <v>3</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="33">
-        <v>10</v>
-      </c>
-      <c r="F25" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="G25" s="34"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="35"/>
+      <c r="A25" s="136"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="121"/>
-      <c r="B26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="33">
-        <v>3</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="33">
-        <v>25</v>
-      </c>
-      <c r="F26" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26" s="25" t="s">
-        <v>19</v>
-      </c>
+      <c r="A26" s="136"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="121"/>
-      <c r="B27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="33">
-        <v>4</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="33">
-        <v>100</v>
-      </c>
-      <c r="F27" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="122"/>
-      <c r="B28" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="12">
-        <v>4</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="12">
-        <v>100</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K28" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="A27" s="136"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="136"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+    </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
+      <c r="A30" s="113"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
+  <mergeCells count="24">
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="I17:I18"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -8235,13 +7980,2141 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="J17:J18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98429BE5-E627-4A31-99EF-56AC0799C3EF}">
+  <dimension ref="A1:S57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T57" sqref="T57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.5546875" style="104" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="104"/>
+    <col min="3" max="3" width="31.88671875" style="104" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="104" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="8.88671875" style="104"/>
+    <col min="15" max="15" width="13.109375" style="104" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="104"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="127" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="127" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="127" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="130" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="128"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="102" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="102" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="102" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="102" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="122"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="123" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="123" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="35"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="104" t="e">
+        <f>AVERAGE(K3:N3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="119" t="s">
+        <v>57</v>
+      </c>
+      <c r="R3" s="119"/>
+      <c r="S3" s="119"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="127"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="101" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="104" t="e">
+        <f>AVERAGE(K4:N4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="127"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="108">
+        <v>0.82969999999999999</v>
+      </c>
+      <c r="F5" s="34">
+        <v>0.79659999999999997</v>
+      </c>
+      <c r="G5" s="34">
+        <v>0.77229999999999999</v>
+      </c>
+      <c r="H5" s="34">
+        <v>0.84</v>
+      </c>
+      <c r="I5" s="32">
+        <v>0.83550000000000002</v>
+      </c>
+      <c r="J5" s="104">
+        <f>AVERAGE(K5:N5)</f>
+        <v>0.60305000000000009</v>
+      </c>
+      <c r="K5" s="111">
+        <v>0.6472</v>
+      </c>
+      <c r="L5" s="34">
+        <v>0.56369999999999998</v>
+      </c>
+      <c r="M5" s="34">
+        <v>0.62260000000000004</v>
+      </c>
+      <c r="N5" s="32">
+        <v>0.57869999999999999</v>
+      </c>
+      <c r="O5" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="119"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="127"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="125" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="116" t="e">
+        <f t="shared" ref="J6:J26" si="0">AVERAGE(K6:N6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="100"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="127"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="101" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="104" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="127"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="109">
+        <v>0.80959999999999999</v>
+      </c>
+      <c r="F8" s="37">
+        <v>0.747</v>
+      </c>
+      <c r="G8" s="37">
+        <v>0.7732</v>
+      </c>
+      <c r="H8" s="37">
+        <v>0.82110000000000005</v>
+      </c>
+      <c r="I8" s="25">
+        <v>0.81589999999999996</v>
+      </c>
+      <c r="J8" s="148">
+        <f>AVERAGE(K8:N8)</f>
+        <v>0.51050000000000006</v>
+      </c>
+      <c r="K8" s="37">
+        <v>0.47060000000000002</v>
+      </c>
+      <c r="L8" s="37">
+        <v>0.54169999999999996</v>
+      </c>
+      <c r="M8" s="37">
+        <v>0.56559999999999999</v>
+      </c>
+      <c r="N8" s="25">
+        <v>0.46410000000000001</v>
+      </c>
+      <c r="O8" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="100"/>
+      <c r="R8" s="100"/>
+      <c r="S8" s="100"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="127"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="125" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="116" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="100"/>
+      <c r="R9" s="100"/>
+      <c r="S9" s="100"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="127"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="101" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="104" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="100"/>
+      <c r="R10" s="100"/>
+      <c r="S10" s="100"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="127"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="109">
+        <v>0.77329999999999999</v>
+      </c>
+      <c r="F11" s="37">
+        <v>0.69630000000000003</v>
+      </c>
+      <c r="G11" s="37">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="H11" s="37">
+        <v>0.77339999999999998</v>
+      </c>
+      <c r="I11" s="25">
+        <v>0.79730000000000001</v>
+      </c>
+      <c r="J11" s="104">
+        <f t="shared" si="0"/>
+        <v>0.27752499999999997</v>
+      </c>
+      <c r="K11" s="37">
+        <v>0.12429999999999999</v>
+      </c>
+      <c r="L11" s="37">
+        <v>0.21709999999999999</v>
+      </c>
+      <c r="M11" s="37">
+        <v>0.3528</v>
+      </c>
+      <c r="N11" s="25">
+        <v>0.41589999999999999</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="100"/>
+      <c r="R11" s="100"/>
+      <c r="S11" s="100"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="127"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="125" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="116" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="100"/>
+      <c r="R12" s="100"/>
+      <c r="S12" s="100"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="127"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="101" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="35"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="104" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K13" s="100"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="100"/>
+      <c r="Q13" s="100"/>
+      <c r="R13" s="100"/>
+      <c r="S13" s="100"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="128"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="110">
+        <v>0.79049999999999998</v>
+      </c>
+      <c r="F14" s="39">
+        <v>0.73850000000000005</v>
+      </c>
+      <c r="G14" s="39">
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="H14" s="39">
+        <v>0.80759999999999998</v>
+      </c>
+      <c r="I14" s="38">
+        <v>0.7954</v>
+      </c>
+      <c r="J14" s="104">
+        <f t="shared" si="0"/>
+        <v>0.44605</v>
+      </c>
+      <c r="K14" s="39">
+        <v>0.46860000000000002</v>
+      </c>
+      <c r="L14" s="39">
+        <v>0.37759999999999999</v>
+      </c>
+      <c r="M14" s="39">
+        <v>0.51929999999999998</v>
+      </c>
+      <c r="N14" s="38">
+        <v>0.41870000000000002</v>
+      </c>
+      <c r="O14" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" s="100"/>
+      <c r="Q14" s="100"/>
+      <c r="R14" s="100"/>
+      <c r="S14" s="100"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="123" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="123" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="118" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="127"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="101" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="35"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="104" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K16" s="100"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="100"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="127"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="109">
+        <v>0.68769999999999998</v>
+      </c>
+      <c r="F17" s="37">
+        <v>0.68330000000000002</v>
+      </c>
+      <c r="G17" s="37">
+        <v>0.67220000000000002</v>
+      </c>
+      <c r="H17" s="37">
+        <v>0.67190000000000005</v>
+      </c>
+      <c r="I17" s="25">
+        <v>0.73080000000000001</v>
+      </c>
+      <c r="J17" s="104">
+        <f t="shared" si="0"/>
+        <v>0.59267500000000006</v>
+      </c>
+      <c r="K17" s="37">
+        <v>0.72460000000000002</v>
+      </c>
+      <c r="L17" s="37">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="M17" s="37">
+        <v>0.55320000000000003</v>
+      </c>
+      <c r="N17" s="25">
+        <v>0.42620000000000002</v>
+      </c>
+      <c r="O17" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="127"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="125" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="116" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="127"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="101" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="35"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="104" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K19" s="100"/>
+      <c r="L19" s="100"/>
+      <c r="M19" s="100"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="127"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="109">
+        <v>0.57279999999999998</v>
+      </c>
+      <c r="F20" s="37">
+        <v>0.53890000000000005</v>
+      </c>
+      <c r="G20" s="37">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H20" s="37">
+        <v>0.52339999999999998</v>
+      </c>
+      <c r="I20" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="J20" s="117">
+        <f t="shared" si="0"/>
+        <v>0.59202500000000002</v>
+      </c>
+      <c r="K20" s="37">
+        <v>0.70040000000000002</v>
+      </c>
+      <c r="L20" s="37">
+        <v>0.70050000000000001</v>
+      </c>
+      <c r="M20" s="37">
+        <v>0.60650000000000004</v>
+      </c>
+      <c r="N20" s="25">
+        <v>0.36070000000000002</v>
+      </c>
+      <c r="O20" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="127"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="125" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="35"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="104" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="127"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="101" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="35"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="104" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="127"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="109">
+        <v>0.53559999999999997</v>
+      </c>
+      <c r="F23" s="37">
+        <v>0.5333</v>
+      </c>
+      <c r="G23" s="37">
+        <v>0.53890000000000005</v>
+      </c>
+      <c r="H23" s="37">
+        <v>0.38279999999999997</v>
+      </c>
+      <c r="I23" s="25">
+        <v>0.68459999999999999</v>
+      </c>
+      <c r="J23" s="117">
+        <f t="shared" si="0"/>
+        <v>0.4884</v>
+      </c>
+      <c r="K23" s="37">
+        <v>0.69569999999999999</v>
+      </c>
+      <c r="L23" s="37">
+        <v>0.70040000000000002</v>
+      </c>
+      <c r="M23" s="37">
+        <v>0.54859999999999998</v>
+      </c>
+      <c r="N23" s="25">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="O23" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="127"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="125" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="35"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="104" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="127"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="101" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="35"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="104" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K25" s="100"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="100"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="127"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="109">
+        <v>0.53239999999999998</v>
+      </c>
+      <c r="F26" s="37">
+        <v>0.53890000000000005</v>
+      </c>
+      <c r="G26" s="37">
+        <v>0.5444</v>
+      </c>
+      <c r="H26" s="37">
+        <v>0.40620000000000001</v>
+      </c>
+      <c r="I26" s="25">
+        <v>0.63080000000000003</v>
+      </c>
+      <c r="J26" s="117">
+        <f t="shared" si="0"/>
+        <v>0.56417499999999998</v>
+      </c>
+      <c r="K26" s="37">
+        <v>0.70040000000000002</v>
+      </c>
+      <c r="L26" s="37">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="M26" s="37">
+        <v>0.56820000000000004</v>
+      </c>
+      <c r="N26" s="25">
+        <v>0.29409999999999997</v>
+      </c>
+      <c r="O26" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="127" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="127" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="127" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="127"/>
+      <c r="G32" s="127"/>
+      <c r="H32" s="127"/>
+      <c r="I32" s="127"/>
+      <c r="J32" s="127" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="127"/>
+      <c r="L32" s="127"/>
+      <c r="M32" s="127"/>
+      <c r="N32" s="127"/>
+      <c r="O32" s="127" t="s">
+        <v>8</v>
+      </c>
+      <c r="P32" s="127"/>
+      <c r="Q32" s="127"/>
+      <c r="R32" s="127"/>
+      <c r="S32" s="127"/>
+    </row>
+    <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="128"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="102" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="K33" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="M33" s="102" t="s">
+        <v>32</v>
+      </c>
+      <c r="N33" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="O33" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="P33" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q33" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="R33" s="102" t="s">
+        <v>32</v>
+      </c>
+      <c r="S33" s="102" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="123" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="123" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="43" cm="1">
+        <f t="array" ref="E34">AVERAGE(ABS(F34:I34))</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="35" cm="1">
+        <f t="array" ref="J34">AVERAGE(ABS(K34:N34))</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="35" cm="1">
+        <f t="array" ref="O34">AVERAGE(ABS(P34:S34))</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="30"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" s="127"/>
+      <c r="B35" s="121"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="101" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="43" cm="1">
+        <f t="array" ref="E35">AVERAGE(ABS(F35:I35))</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="35" cm="1">
+        <f t="array" ref="J35">AVERAGE(ABS(K35:N35))</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="100"/>
+      <c r="L35" s="100"/>
+      <c r="M35" s="100"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="35" cm="1">
+        <f t="array" ref="O35">AVERAGE(ABS(P35:S35))</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="100"/>
+      <c r="Q35" s="100"/>
+      <c r="R35" s="100"/>
+      <c r="S35" s="24"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36" s="127"/>
+      <c r="B36" s="121"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="43" cm="1">
+        <f t="array" ref="E36">AVERAGE(ABS(F36:I36))</f>
+        <v>0.15329999999999999</v>
+      </c>
+      <c r="F36" s="37">
+        <v>-0.23519999999999999</v>
+      </c>
+      <c r="G36" s="37">
+        <v>-0.1148</v>
+      </c>
+      <c r="H36" s="37">
+        <v>-0.10780000000000001</v>
+      </c>
+      <c r="I36" s="25">
+        <v>-0.15540000000000001</v>
+      </c>
+      <c r="J36" s="40" cm="1">
+        <f t="array" ref="J36">AVERAGE(ABS(K36:N36))</f>
+        <v>0.18625000000000003</v>
+      </c>
+      <c r="K36" s="37">
+        <v>-0.29899999999999999</v>
+      </c>
+      <c r="L36" s="37">
+        <v>-9.0999999999999998E-2</v>
+      </c>
+      <c r="M36" s="37">
+        <v>-0.1288</v>
+      </c>
+      <c r="N36" s="25">
+        <v>-0.22620000000000001</v>
+      </c>
+      <c r="O36" s="40" cm="1">
+        <f t="array" ref="O36">AVERAGE(ABS(P36:S36))</f>
+        <v>0.21932499999999999</v>
+      </c>
+      <c r="P36" s="37">
+        <v>-0.31140000000000001</v>
+      </c>
+      <c r="Q36" s="37">
+        <v>-0.20669999999999999</v>
+      </c>
+      <c r="R36" s="37">
+        <v>-0.1802</v>
+      </c>
+      <c r="S36" s="25">
+        <v>-0.17899999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="127"/>
+      <c r="B37" s="121"/>
+      <c r="C37" s="125" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="82" cm="1">
+        <f t="array" ref="E37">AVERAGE(ABS(F37:I37))</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="89"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="84" cm="1">
+        <f t="array" ref="J37">AVERAGE(ABS(K37:N37))</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="89"/>
+      <c r="L37" s="89"/>
+      <c r="M37" s="89"/>
+      <c r="N37" s="90"/>
+      <c r="O37" s="43" cm="1">
+        <f t="array" ref="O37">AVERAGE(ABS(P37:S37))</f>
+        <v>0</v>
+      </c>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="31"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="127"/>
+      <c r="B38" s="121"/>
+      <c r="C38" s="125"/>
+      <c r="D38" s="101" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="84" cm="1">
+        <f t="array" ref="E38">AVERAGE(ABS(F38:I38))</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="80"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="84" cm="1">
+        <f t="array" ref="J38">AVERAGE(ABS(K38:N38))</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="80"/>
+      <c r="L38" s="80"/>
+      <c r="M38" s="80"/>
+      <c r="N38" s="83"/>
+      <c r="O38" s="43" cm="1">
+        <f t="array" ref="O38">AVERAGE(ABS(P38:S38))</f>
+        <v>0</v>
+      </c>
+      <c r="P38" s="100"/>
+      <c r="Q38" s="100"/>
+      <c r="R38" s="100"/>
+      <c r="S38" s="24"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39" s="127"/>
+      <c r="B39" s="121"/>
+      <c r="C39" s="125"/>
+      <c r="D39" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="87" cm="1">
+        <f t="array" ref="E39">AVERAGE(ABS(F39:I39))</f>
+        <v>0.143375</v>
+      </c>
+      <c r="F39" s="85">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="G39" s="85">
+        <v>0.19220000000000001</v>
+      </c>
+      <c r="H39" s="85">
+        <v>0.1646</v>
+      </c>
+      <c r="I39" s="86">
+        <v>0.18210000000000001</v>
+      </c>
+      <c r="J39" s="87" cm="1">
+        <f t="array" ref="J39">AVERAGE(ABS(K39:N39))</f>
+        <v>0.26574999999999999</v>
+      </c>
+      <c r="K39" s="85">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="L39" s="85">
+        <v>0.37309999999999999</v>
+      </c>
+      <c r="M39" s="85">
+        <v>0.28170000000000001</v>
+      </c>
+      <c r="N39" s="86">
+        <v>0.33040000000000003</v>
+      </c>
+      <c r="O39" s="40" cm="1">
+        <f t="array" ref="O39">AVERAGE(ABS(P39:S39))</f>
+        <v>2.0449999999999999E-2</v>
+      </c>
+      <c r="P39" s="37">
+        <v>-6.3100000000000003E-2</v>
+      </c>
+      <c r="Q39" s="37">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R39" s="37">
+        <v>-4.0000000000000002E-4</v>
+      </c>
+      <c r="S39" s="25">
+        <v>1.5299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" s="127"/>
+      <c r="B40" s="121"/>
+      <c r="C40" s="125" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="43" cm="1">
+        <f t="array" ref="E40">AVERAGE(ABS(F40:I40))</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="43" cm="1">
+        <f t="array" ref="J40">AVERAGE(ABS(K40:N40))</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="84" cm="1">
+        <f t="array" ref="O40">AVERAGE(ABS(P40:S40))</f>
+        <v>0</v>
+      </c>
+      <c r="P40" s="89"/>
+      <c r="Q40" s="89"/>
+      <c r="R40" s="89"/>
+      <c r="S40" s="90"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A41" s="127"/>
+      <c r="B41" s="121"/>
+      <c r="C41" s="125"/>
+      <c r="D41" s="101" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="43" cm="1">
+        <f t="array" ref="E41">AVERAGE(ABS(F41:I41))</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="43" cm="1">
+        <f t="array" ref="J41">AVERAGE(ABS(K41:N41))</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="100"/>
+      <c r="L41" s="100"/>
+      <c r="M41" s="100"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="84" cm="1">
+        <f t="array" ref="O41">AVERAGE(ABS(P41:S41))</f>
+        <v>0</v>
+      </c>
+      <c r="P41" s="80"/>
+      <c r="Q41" s="80"/>
+      <c r="R41" s="80"/>
+      <c r="S41" s="83"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42" s="127"/>
+      <c r="B42" s="121"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="43" cm="1">
+        <f t="array" ref="E42">AVERAGE(ABS(F42:I42))</f>
+        <v>5.9499999999999996E-3</v>
+      </c>
+      <c r="F42" s="37">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="G42" s="37">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="H42" s="37">
+        <v>-2.7000000000000001E-3</v>
+      </c>
+      <c r="I42" s="25">
+        <v>-1.32E-2</v>
+      </c>
+      <c r="J42" s="43" cm="1">
+        <f t="array" ref="J42">AVERAGE(ABS(K42:N42))</f>
+        <v>1.5300000000000001E-2</v>
+      </c>
+      <c r="K42" s="37">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="L42" s="37">
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="M42" s="37">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="N42" s="25">
+        <v>-1.7600000000000001E-2</v>
+      </c>
+      <c r="O42" s="87" cm="1">
+        <f t="array" ref="O42">AVERAGE(ABS(P42:S42))</f>
+        <v>3.2350000000000004E-2</v>
+      </c>
+      <c r="P42" s="85">
+        <v>-3.2000000000000002E-3</v>
+      </c>
+      <c r="Q42" s="85">
+        <v>-2.4199999999999999E-2</v>
+      </c>
+      <c r="R42" s="85">
+        <v>-4.53E-2</v>
+      </c>
+      <c r="S42" s="86">
+        <v>-5.67E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A43" s="127"/>
+      <c r="B43" s="121"/>
+      <c r="C43" s="125" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="42" cm="1">
+        <f t="array" ref="E43">AVERAGE(ABS(F43:I43))</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="89"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="89"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="42" cm="1">
+        <f t="array" ref="J43">AVERAGE(ABS(K43:N43))</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="89"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="89"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="43" cm="1">
+        <f t="array" ref="O43">AVERAGE(ABS(P43:S43))</f>
+        <v>0</v>
+      </c>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="89"/>
+      <c r="R43" s="36"/>
+      <c r="S43" s="90"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A44" s="127"/>
+      <c r="B44" s="121"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="101" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="43" cm="1">
+        <f t="array" ref="E44">AVERAGE(ABS(F44:I44))</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="80"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="80"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="43" cm="1">
+        <f t="array" ref="J44">AVERAGE(ABS(K44:N44))</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="80"/>
+      <c r="L44" s="100"/>
+      <c r="M44" s="80"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="43" cm="1">
+        <f t="array" ref="O44">AVERAGE(ABS(P44:S44))</f>
+        <v>0</v>
+      </c>
+      <c r="P44" s="100"/>
+      <c r="Q44" s="80"/>
+      <c r="R44" s="100"/>
+      <c r="S44" s="83"/>
+    </row>
+    <row r="45" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="128"/>
+      <c r="B45" s="122"/>
+      <c r="C45" s="126"/>
+      <c r="D45" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="43">
+        <f>AVERAGE(ABS(G45),ABS(I45))</f>
+        <v>3.3450000000000001E-2</v>
+      </c>
+      <c r="F45" s="81">
+        <v>-6.8099999999999994E-2</v>
+      </c>
+      <c r="G45" s="39">
+        <v>4.65E-2</v>
+      </c>
+      <c r="H45" s="81">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="I45" s="38">
+        <v>-2.0400000000000001E-2</v>
+      </c>
+      <c r="J45" s="103">
+        <f>AVERAGE(ABS(L45),ABS(N45))</f>
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="K45" s="81">
+        <v>-0.10050000000000001</v>
+      </c>
+      <c r="L45" s="39">
+        <v>0.1013</v>
+      </c>
+      <c r="M45" s="81">
+        <v>0.13789999999999999</v>
+      </c>
+      <c r="N45" s="38">
+        <v>-1.95E-2</v>
+      </c>
+      <c r="O45" s="43">
+        <f>AVERAGE(ABS(P45), ABS(R45))</f>
+        <v>8.4349999999999994E-2</v>
+      </c>
+      <c r="P45" s="39">
+        <v>-0.11799999999999999</v>
+      </c>
+      <c r="Q45" s="81">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="R45" s="39">
+        <v>-5.0700000000000002E-2</v>
+      </c>
+      <c r="S45" s="88">
+        <v>-6.7699999999999996E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="123" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="123" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="44" cm="1">
+        <f t="array" ref="E46">AVERAGE(ABS(F46:I46))</f>
+        <v>0</v>
+      </c>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="43" cm="1">
+        <f t="array" ref="J46">AVERAGE(ABS(K46:N46))</f>
+        <v>0</v>
+      </c>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="44" cm="1">
+        <f t="array" ref="O46">AVERAGE(ABS(P46:S46))</f>
+        <v>0</v>
+      </c>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="33"/>
+      <c r="R46" s="33"/>
+      <c r="S46" s="30"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A47" s="127"/>
+      <c r="B47" s="121"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="101" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="43" cm="1">
+        <f t="array" ref="E47">AVERAGE(ABS(F47:I47))</f>
+        <v>0</v>
+      </c>
+      <c r="F47" s="100"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="100"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="43" cm="1">
+        <f t="array" ref="J47">AVERAGE(ABS(K47:N47))</f>
+        <v>0</v>
+      </c>
+      <c r="K47" s="100"/>
+      <c r="L47" s="100"/>
+      <c r="M47" s="100"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="43" cm="1">
+        <f t="array" ref="O47">AVERAGE(ABS(P47:S47))</f>
+        <v>0</v>
+      </c>
+      <c r="P47" s="100"/>
+      <c r="Q47" s="100"/>
+      <c r="R47" s="100"/>
+      <c r="S47" s="24"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A48" s="127"/>
+      <c r="B48" s="121"/>
+      <c r="C48" s="127"/>
+      <c r="D48" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="43" cm="1">
+        <f t="array" ref="E48">AVERAGE(ABS(F48:I48))</f>
+        <v>0.28902500000000003</v>
+      </c>
+      <c r="F48" s="37">
+        <v>-0.50370000000000004</v>
+      </c>
+      <c r="G48" s="37">
+        <v>-0.16300000000000001</v>
+      </c>
+      <c r="H48" s="37">
+        <v>-0.27800000000000002</v>
+      </c>
+      <c r="I48" s="25">
+        <v>-0.2114</v>
+      </c>
+      <c r="J48" s="40" cm="1">
+        <f t="array" ref="J48">AVERAGE(ABS(K48:N48))</f>
+        <v>0.35102499999999998</v>
+      </c>
+      <c r="K48" s="37">
+        <v>-0.59709999999999996</v>
+      </c>
+      <c r="L48" s="37">
+        <v>-0.16750000000000001</v>
+      </c>
+      <c r="M48" s="37">
+        <v>-0.24560000000000001</v>
+      </c>
+      <c r="N48" s="25">
+        <v>-0.39389999999999997</v>
+      </c>
+      <c r="O48" s="40" cm="1">
+        <f t="array" ref="O48">AVERAGE(ABS(P48:S48))</f>
+        <v>0.29137500000000005</v>
+      </c>
+      <c r="P48" s="34">
+        <v>-0.54339999999999999</v>
+      </c>
+      <c r="Q48" s="34">
+        <v>-0.1862</v>
+      </c>
+      <c r="R48" s="34">
+        <v>-0.29170000000000001</v>
+      </c>
+      <c r="S48" s="32">
+        <v>-0.14419999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A49" s="127"/>
+      <c r="B49" s="121"/>
+      <c r="C49" s="125" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="82" cm="1">
+        <f t="array" ref="E49">AVERAGE(ABS(F49:I49))</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="89"/>
+      <c r="G49" s="89"/>
+      <c r="H49" s="89"/>
+      <c r="I49" s="90"/>
+      <c r="J49" s="84" cm="1">
+        <f t="array" ref="J49">AVERAGE(ABS(K49:N49))</f>
+        <v>0</v>
+      </c>
+      <c r="K49" s="89"/>
+      <c r="L49" s="89"/>
+      <c r="M49" s="89"/>
+      <c r="N49" s="90"/>
+      <c r="O49" s="43" cm="1">
+        <f t="array" ref="O49">AVERAGE(ABS(P49:S49))</f>
+        <v>0</v>
+      </c>
+      <c r="P49" s="52"/>
+      <c r="Q49" s="52"/>
+      <c r="R49" s="52"/>
+      <c r="S49" s="53"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A50" s="127"/>
+      <c r="B50" s="121"/>
+      <c r="C50" s="125"/>
+      <c r="D50" s="101" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="84" cm="1">
+        <f t="array" ref="E50">AVERAGE(ABS(F50:I50))</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="80"/>
+      <c r="G50" s="80"/>
+      <c r="H50" s="80"/>
+      <c r="I50" s="83"/>
+      <c r="J50" s="84" cm="1">
+        <f t="array" ref="J50">AVERAGE(ABS(K50:N50))</f>
+        <v>0</v>
+      </c>
+      <c r="K50" s="80"/>
+      <c r="L50" s="80"/>
+      <c r="M50" s="80"/>
+      <c r="N50" s="83"/>
+      <c r="O50" s="43" cm="1">
+        <f t="array" ref="O50">AVERAGE(ABS(P50:S50))</f>
+        <v>0</v>
+      </c>
+      <c r="P50" s="50"/>
+      <c r="Q50" s="50"/>
+      <c r="R50" s="50"/>
+      <c r="S50" s="51"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A51" s="127"/>
+      <c r="B51" s="121"/>
+      <c r="C51" s="125"/>
+      <c r="D51" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="87" cm="1">
+        <f t="array" ref="E51">AVERAGE(ABS(F51:I51))</f>
+        <v>5.5275000000000005E-2</v>
+      </c>
+      <c r="F51" s="85">
+        <v>0</v>
+      </c>
+      <c r="G51" s="85">
+        <v>1.49E-2</v>
+      </c>
+      <c r="H51" s="85">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="I51" s="86">
+        <v>-0.19520000000000001</v>
+      </c>
+      <c r="J51" s="87" cm="1">
+        <f t="array" ref="J51">AVERAGE(ABS(K51:N51))</f>
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="K51" s="85">
+        <v>0</v>
+      </c>
+      <c r="L51" s="85">
+        <v>0</v>
+      </c>
+      <c r="M51" s="85">
+        <v>-3.0700000000000002E-2</v>
+      </c>
+      <c r="N51" s="86">
+        <v>-0.33329999999999999</v>
+      </c>
+      <c r="O51" s="43" cm="1">
+        <f t="array" ref="O51">AVERAGE(ABS(P51:S51))</f>
+        <v>4.1999999999999996E-2</v>
+      </c>
+      <c r="P51" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="34">
+        <v>1.34E-2</v>
+      </c>
+      <c r="R51" s="34">
+        <v>-1.04E-2</v>
+      </c>
+      <c r="S51" s="32">
+        <v>-0.14419999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A52" s="127"/>
+      <c r="B52" s="121"/>
+      <c r="C52" s="125" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="43" cm="1">
+        <f t="array" ref="E52">AVERAGE(ABS(F52:I52))</f>
+        <v>0</v>
+      </c>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="43" cm="1">
+        <f t="array" ref="J52">AVERAGE(ABS(K52:N52))</f>
+        <v>0</v>
+      </c>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="82" cm="1">
+        <f t="array" ref="O52">AVERAGE(ABS(P52:S52))</f>
+        <v>0</v>
+      </c>
+      <c r="P52" s="89"/>
+      <c r="Q52" s="89"/>
+      <c r="R52" s="89"/>
+      <c r="S52" s="90"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A53" s="127"/>
+      <c r="B53" s="121"/>
+      <c r="C53" s="125"/>
+      <c r="D53" s="101" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" s="43" cm="1">
+        <f t="array" ref="E53">AVERAGE(ABS(F53:I53))</f>
+        <v>0</v>
+      </c>
+      <c r="F53" s="100"/>
+      <c r="G53" s="100"/>
+      <c r="H53" s="100"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="43" cm="1">
+        <f t="array" ref="J53">AVERAGE(ABS(K53:N53))</f>
+        <v>0</v>
+      </c>
+      <c r="K53" s="100"/>
+      <c r="L53" s="100"/>
+      <c r="M53" s="100"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="84" cm="1">
+        <f t="array" ref="O53">AVERAGE(ABS(P53:S53))</f>
+        <v>0</v>
+      </c>
+      <c r="P53" s="80"/>
+      <c r="Q53" s="80"/>
+      <c r="R53" s="80"/>
+      <c r="S53" s="83"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A54" s="127"/>
+      <c r="B54" s="121"/>
+      <c r="C54" s="129"/>
+      <c r="D54" s="106" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="43" cm="1">
+        <f t="array" ref="E54">AVERAGE(ABS(F54:I54))</f>
+        <v>1.26E-2</v>
+      </c>
+      <c r="F54" s="107">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="G54" s="107">
+        <v>0</v>
+      </c>
+      <c r="H54" s="107">
+        <v>3.49E-2</v>
+      </c>
+      <c r="I54" s="24">
+        <v>-9.5999999999999992E-3</v>
+      </c>
+      <c r="J54" s="43" cm="1">
+        <f t="array" ref="J54">AVERAGE(ABS(K54:N54))</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="K54" s="107">
+        <v>1.18E-2</v>
+      </c>
+      <c r="L54" s="107">
+        <v>0</v>
+      </c>
+      <c r="M54" s="107">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="N54" s="24">
+        <v>-6.0600000000000001E-2</v>
+      </c>
+      <c r="O54" s="87" cm="1">
+        <f t="array" ref="O54">AVERAGE(ABS(P54:S54))</f>
+        <v>1.1874999999999998E-2</v>
+      </c>
+      <c r="P54" s="85">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="Q54" s="85">
+        <v>0</v>
+      </c>
+      <c r="R54" s="85">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="S54" s="86">
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A55" s="127"/>
+      <c r="B55" s="121"/>
+      <c r="C55" s="125" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="105" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="42" cm="1">
+        <f t="array" ref="E55">AVERAGE(ABS(F55:I55))</f>
+        <v>0</v>
+      </c>
+      <c r="F55" s="89"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="89"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="42" cm="1">
+        <f t="array" ref="J55">AVERAGE(ABS(K55:N55))</f>
+        <v>0</v>
+      </c>
+      <c r="K55" s="89"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="89"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="43" cm="1">
+        <f t="array" ref="O55">AVERAGE(ABS(P55:S55))</f>
+        <v>0</v>
+      </c>
+      <c r="P55" s="36"/>
+      <c r="Q55" s="89"/>
+      <c r="R55" s="36"/>
+      <c r="S55" s="90"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A56" s="127"/>
+      <c r="B56" s="121"/>
+      <c r="C56" s="125"/>
+      <c r="D56" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="43" cm="1">
+        <f t="array" ref="E56">AVERAGE(ABS(F56:I56))</f>
+        <v>0</v>
+      </c>
+      <c r="F56" s="80"/>
+      <c r="G56" s="107"/>
+      <c r="H56" s="80"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="43" cm="1">
+        <f t="array" ref="J56">AVERAGE(ABS(K56:N56))</f>
+        <v>0</v>
+      </c>
+      <c r="K56" s="80"/>
+      <c r="L56" s="107"/>
+      <c r="M56" s="80"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="43" cm="1">
+        <f t="array" ref="O56">AVERAGE(ABS(P56:S56))</f>
+        <v>0</v>
+      </c>
+      <c r="P56" s="100"/>
+      <c r="Q56" s="80"/>
+      <c r="R56" s="100"/>
+      <c r="S56" s="83"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A57" s="127"/>
+      <c r="B57" s="123"/>
+      <c r="C57" s="125"/>
+      <c r="D57" s="105" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="40" cm="1">
+        <f t="array" ref="E57">AVERAGE(ABS(F57:I57))</f>
+        <v>2.5350000000000001E-2</v>
+      </c>
+      <c r="F57" s="85">
+        <v>0</v>
+      </c>
+      <c r="G57" s="37">
+        <v>6.1699999999999998E-2</v>
+      </c>
+      <c r="H57" s="85">
+        <v>-1.6400000000000001E-2</v>
+      </c>
+      <c r="I57" s="25">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="J57" s="40" cm="1">
+        <f t="array" ref="J57">AVERAGE(ABS(K57:N57))</f>
+        <v>1.4100000000000001E-2</v>
+      </c>
+      <c r="K57" s="85">
+        <v>0</v>
+      </c>
+      <c r="L57" s="37">
+        <v>4.8800000000000003E-2</v>
+      </c>
+      <c r="M57" s="85">
+        <v>0</v>
+      </c>
+      <c r="N57" s="25">
+        <v>7.6E-3</v>
+      </c>
+      <c r="O57" s="40" cm="1">
+        <f t="array" ref="O57">AVERAGE(ABS(P57:S57))</f>
+        <v>2.7499999999999997E-2</v>
+      </c>
+      <c r="P57" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="85">
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="R57" s="37">
+        <v>-2.0799999999999999E-2</v>
+      </c>
+      <c r="S57" s="86">
+        <v>2.8799999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="39">
+    <mergeCell ref="A46:A57"/>
+    <mergeCell ref="B46:B57"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="O32:S32"/>
+    <mergeCell ref="A34:A45"/>
+    <mergeCell ref="B34:B45"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="A15:A26"/>
+    <mergeCell ref="B15:B26"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="B3:B14"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="Q3:S7"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/experiments/all_results.xlsx
+++ b/experiments/all_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alycia\Documents\adaptive-hypernets\experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ancarey\PycharmProjects\adaptive-hypernets\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327779FE-B97D-4D3D-9E3F-656E0054830B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE533910-BB10-49E9-B67F-C8BCAE1B3EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11784" yWindow="-156" windowWidth="17280" windowHeight="8964" tabRatio="665" firstSheet="3" activeTab="4" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="665" firstSheet="3" activeTab="4" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart2" sheetId="13" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="88">
   <si>
     <t>Model</t>
   </si>
@@ -310,6 +310,21 @@
   </si>
   <si>
     <t>15 min 48 sec</t>
+  </si>
+  <si>
+    <t>dp:60 eo:40</t>
+  </si>
+  <si>
+    <t>h:5e-5, c:.05</t>
+  </si>
+  <si>
+    <t>5 min 14 sec</t>
+  </si>
+  <si>
+    <t>12 min 35 sec</t>
+  </si>
+  <si>
+    <t>18 min 44 sec</t>
   </si>
 </sst>
 </file>
@@ -1200,34 +1215,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1235,6 +1244,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1249,45 +1303,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3989,23 +4004,23 @@
       <selection activeCell="A3" sqref="A3:S75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="28"/>
+    <col min="1" max="2" width="9.140625" style="28"/>
     <col min="3" max="3" width="25" style="77" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="14" width="8.6640625" style="28" customWidth="1"/>
-    <col min="15" max="15" width="13.109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.6640625" style="28" customWidth="1"/>
-    <col min="18" max="18" width="10.5546875" style="28" customWidth="1"/>
-    <col min="19" max="16384" width="9.109375" style="28"/>
+    <col min="4" max="4" width="14.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="8.7109375" style="28" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.7109375" style="28" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" style="28" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C1" s="124" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C1" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="124"/>
+      <c r="D1" s="131"/>
       <c r="E1" s="70"/>
       <c r="F1" s="70"/>
       <c r="G1" s="70"/>
@@ -4021,7 +4036,7 @@
       <c r="Q1" s="70"/>
       <c r="R1" s="70"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C2" s="41"/>
       <c r="D2" s="70"/>
       <c r="E2" s="70"/>
@@ -4039,34 +4054,34 @@
       <c r="Q2" s="26"/>
       <c r="R2" s="70"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="127" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="130" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="127" t="s">
+      <c r="B3" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="127" t="s">
+      <c r="D3" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="127" t="s">
+      <c r="E3" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127" t="s">
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="130" t="s">
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="128" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="70"/>
@@ -4074,11 +4089,11 @@
       <c r="R3" s="70"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="128"/>
-      <c r="B4" s="122"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="123"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
       <c r="E4" s="69" t="s">
         <v>31</v>
       </c>
@@ -4109,20 +4124,20 @@
       <c r="N4" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="122"/>
+      <c r="O4" s="129"/>
       <c r="P4" s="70"/>
       <c r="Q4" s="70"/>
       <c r="R4" s="70"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="123" t="s">
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="120" t="s">
+      <c r="B5" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="120" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="67" t="s">
@@ -4163,16 +4178,16 @@
         <v>58</v>
       </c>
       <c r="P5" s="72"/>
-      <c r="Q5" s="119" t="s">
+      <c r="Q5" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="R5" s="119"/>
-      <c r="S5" s="119"/>
-    </row>
-    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="127"/>
-      <c r="B6" s="121"/>
-      <c r="C6" s="127"/>
+      <c r="R5" s="130"/>
+      <c r="S5" s="130"/>
+    </row>
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="121"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="121"/>
       <c r="D6" s="68" t="s">
         <v>36</v>
       </c>
@@ -4191,14 +4206,14 @@
       <c r="N6" s="24"/>
       <c r="O6" s="24"/>
       <c r="P6" s="70"/>
-      <c r="Q6" s="119"/>
-      <c r="R6" s="119"/>
-      <c r="S6" s="119"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="127"/>
-      <c r="B7" s="121"/>
-      <c r="C7" s="127"/>
+      <c r="Q6" s="130"/>
+      <c r="R6" s="130"/>
+      <c r="S6" s="130"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="121"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="121"/>
       <c r="D7" s="68" t="s">
         <v>35</v>
       </c>
@@ -4237,14 +4252,14 @@
         <v>54</v>
       </c>
       <c r="P7" s="70"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="119"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="127"/>
-      <c r="B8" s="121"/>
-      <c r="C8" s="127"/>
+      <c r="Q7" s="130"/>
+      <c r="R7" s="130"/>
+      <c r="S7" s="130"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="121"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="121"/>
       <c r="D8" s="68" t="s">
         <v>23</v>
       </c>
@@ -4283,14 +4298,14 @@
         <v>47</v>
       </c>
       <c r="P8" s="70"/>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="119"/>
-      <c r="S8" s="119"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="127"/>
-      <c r="B9" s="121"/>
-      <c r="C9" s="125" t="s">
+      <c r="Q8" s="130"/>
+      <c r="R8" s="130"/>
+      <c r="S8" s="130"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="121"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="122" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="68" t="s">
@@ -4331,14 +4346,14 @@
         <v>59</v>
       </c>
       <c r="P9" s="70"/>
-      <c r="Q9" s="119"/>
-      <c r="R9" s="119"/>
-      <c r="S9" s="119"/>
-    </row>
-    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="127"/>
-      <c r="B10" s="121"/>
-      <c r="C10" s="125"/>
+      <c r="Q9" s="130"/>
+      <c r="R9" s="130"/>
+      <c r="S9" s="130"/>
+    </row>
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="121"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="122"/>
       <c r="D10" s="68" t="s">
         <v>36</v>
       </c>
@@ -4357,14 +4372,14 @@
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
       <c r="P10" s="70"/>
-      <c r="Q10" s="119"/>
-      <c r="R10" s="119"/>
-      <c r="S10" s="119"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="127"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="125"/>
+      <c r="Q10" s="130"/>
+      <c r="R10" s="130"/>
+      <c r="S10" s="130"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="121"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="122"/>
       <c r="D11" s="68" t="s">
         <v>35</v>
       </c>
@@ -4403,14 +4418,14 @@
         <v>53</v>
       </c>
       <c r="P11" s="70"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="119"/>
-      <c r="S11" s="119"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="127"/>
-      <c r="B12" s="121"/>
-      <c r="C12" s="125"/>
+      <c r="Q11" s="130"/>
+      <c r="R11" s="130"/>
+      <c r="S11" s="130"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="121"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="122"/>
       <c r="D12" s="68" t="s">
         <v>23</v>
       </c>
@@ -4453,10 +4468,10 @@
       <c r="R12" s="70"/>
       <c r="S12" s="70"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="127"/>
-      <c r="B13" s="121"/>
-      <c r="C13" s="125" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="121"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="122" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="68" t="s">
@@ -4501,10 +4516,10 @@
       <c r="R13" s="70"/>
       <c r="S13" s="70"/>
     </row>
-    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="127"/>
-      <c r="B14" s="121"/>
-      <c r="C14" s="125"/>
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="121"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="122"/>
       <c r="D14" s="68" t="s">
         <v>36</v>
       </c>
@@ -4527,10 +4542,10 @@
       <c r="R14" s="70"/>
       <c r="S14" s="70"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="127"/>
-      <c r="B15" s="121"/>
-      <c r="C15" s="125"/>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="121"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="122"/>
       <c r="D15" s="68" t="s">
         <v>35</v>
       </c>
@@ -4573,10 +4588,10 @@
       <c r="R15" s="70"/>
       <c r="S15" s="70"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="127"/>
-      <c r="B16" s="121"/>
-      <c r="C16" s="125"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="121"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="122"/>
       <c r="D16" s="68" t="s">
         <v>23</v>
       </c>
@@ -4619,10 +4634,10 @@
       <c r="R16" s="70"/>
       <c r="S16" s="70"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="127"/>
-      <c r="B17" s="121"/>
-      <c r="C17" s="125" t="s">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="121"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="122" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="68" t="s">
@@ -4667,10 +4682,10 @@
       <c r="R17" s="70"/>
       <c r="S17" s="70"/>
     </row>
-    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="127"/>
-      <c r="B18" s="121"/>
-      <c r="C18" s="125"/>
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="121"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="122"/>
       <c r="D18" s="68" t="s">
         <v>36</v>
       </c>
@@ -4693,10 +4708,10 @@
       <c r="R18" s="70"/>
       <c r="S18" s="70"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="127"/>
-      <c r="B19" s="121"/>
-      <c r="C19" s="125"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="121"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="122"/>
       <c r="D19" s="68" t="s">
         <v>35</v>
       </c>
@@ -4739,9 +4754,9 @@
       <c r="R19" s="70"/>
       <c r="S19" s="70"/>
     </row>
-    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="128"/>
-      <c r="B20" s="122"/>
+    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="123"/>
+      <c r="B20" s="129"/>
       <c r="C20" s="126"/>
       <c r="D20" s="69" t="s">
         <v>23</v>
@@ -4785,14 +4800,14 @@
       <c r="R20" s="70"/>
       <c r="S20" s="70"/>
     </row>
-    <row r="21" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="123" t="s">
+    <row r="21" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="120" t="s">
+      <c r="B21" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="123" t="s">
+      <c r="C21" s="120" t="s">
         <v>39</v>
       </c>
       <c r="D21" s="67" t="s">
@@ -4833,10 +4848,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="127"/>
-      <c r="B22" s="121"/>
-      <c r="C22" s="127"/>
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="121"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="121"/>
       <c r="D22" s="68" t="s">
         <v>36</v>
       </c>
@@ -4855,10 +4870,10 @@
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="127"/>
-      <c r="B23" s="121"/>
-      <c r="C23" s="127"/>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="121"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="121"/>
       <c r="D23" s="27" t="s">
         <v>35</v>
       </c>
@@ -4898,10 +4913,10 @@
       </c>
       <c r="R23" s="70"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="127"/>
-      <c r="B24" s="121"/>
-      <c r="C24" s="127"/>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="121"/>
+      <c r="B24" s="125"/>
+      <c r="C24" s="121"/>
       <c r="D24" s="27" t="s">
         <v>23</v>
       </c>
@@ -4940,10 +4955,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="127"/>
-      <c r="B25" s="121"/>
-      <c r="C25" s="125" t="s">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="121"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="122" t="s">
         <v>40</v>
       </c>
       <c r="D25" s="68" t="s">
@@ -4984,10 +4999,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="127"/>
-      <c r="B26" s="121"/>
-      <c r="C26" s="125"/>
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="121"/>
+      <c r="B26" s="125"/>
+      <c r="C26" s="122"/>
       <c r="D26" s="68" t="s">
         <v>36</v>
       </c>
@@ -5006,10 +5021,10 @@
       <c r="N26" s="24"/>
       <c r="O26" s="24"/>
     </row>
-    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="127"/>
-      <c r="B27" s="121"/>
-      <c r="C27" s="125"/>
+    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="121"/>
+      <c r="B27" s="125"/>
+      <c r="C27" s="122"/>
       <c r="D27" s="68" t="s">
         <v>35</v>
       </c>
@@ -5048,10 +5063,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="127"/>
-      <c r="B28" s="121"/>
-      <c r="C28" s="125"/>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="121"/>
+      <c r="B28" s="125"/>
+      <c r="C28" s="122"/>
       <c r="D28" s="68" t="s">
         <v>23</v>
       </c>
@@ -5090,10 +5105,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="127"/>
-      <c r="B29" s="121"/>
-      <c r="C29" s="125" t="s">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="121"/>
+      <c r="B29" s="125"/>
+      <c r="C29" s="122" t="s">
         <v>41</v>
       </c>
       <c r="D29" s="68" t="s">
@@ -5134,10 +5149,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="127"/>
-      <c r="B30" s="121"/>
-      <c r="C30" s="125"/>
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="121"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="122"/>
       <c r="D30" s="68" t="s">
         <v>36</v>
       </c>
@@ -5156,10 +5171,10 @@
       <c r="N30" s="24"/>
       <c r="O30" s="24"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="127"/>
-      <c r="B31" s="121"/>
-      <c r="C31" s="125"/>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="121"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="122"/>
       <c r="D31" s="27" t="s">
         <v>35</v>
       </c>
@@ -5198,10 +5213,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="127"/>
-      <c r="B32" s="121"/>
-      <c r="C32" s="125"/>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="121"/>
+      <c r="B32" s="125"/>
+      <c r="C32" s="122"/>
       <c r="D32" s="68" t="s">
         <v>23</v>
       </c>
@@ -5240,10 +5255,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A33" s="127"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="125" t="s">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="121"/>
+      <c r="B33" s="125"/>
+      <c r="C33" s="122" t="s">
         <v>42</v>
       </c>
       <c r="D33" s="68" t="s">
@@ -5284,10 +5299,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="127"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="125"/>
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="121"/>
+      <c r="B34" s="125"/>
+      <c r="C34" s="122"/>
       <c r="D34" s="68" t="s">
         <v>36</v>
       </c>
@@ -5306,10 +5321,10 @@
       <c r="N34" s="24"/>
       <c r="O34" s="24"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" s="127"/>
-      <c r="B35" s="121"/>
-      <c r="C35" s="125"/>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="121"/>
+      <c r="B35" s="125"/>
+      <c r="C35" s="122"/>
       <c r="D35" s="27" t="s">
         <v>35</v>
       </c>
@@ -5348,10 +5363,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" s="127"/>
-      <c r="B36" s="123"/>
-      <c r="C36" s="129"/>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="121"/>
+      <c r="B36" s="120"/>
+      <c r="C36" s="127"/>
       <c r="D36" s="68" t="s">
         <v>23</v>
       </c>
@@ -5390,49 +5405,49 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C37" s="56"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A42" s="127" t="s">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="130" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="127" t="s">
+      <c r="B42" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="127" t="s">
+      <c r="D42" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="127" t="s">
+      <c r="E42" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="127"/>
-      <c r="G42" s="127"/>
-      <c r="H42" s="127"/>
-      <c r="I42" s="127"/>
-      <c r="J42" s="127" t="s">
+      <c r="F42" s="121"/>
+      <c r="G42" s="121"/>
+      <c r="H42" s="121"/>
+      <c r="I42" s="121"/>
+      <c r="J42" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="K42" s="127"/>
-      <c r="L42" s="127"/>
-      <c r="M42" s="127"/>
-      <c r="N42" s="127"/>
-      <c r="O42" s="127" t="s">
+      <c r="K42" s="121"/>
+      <c r="L42" s="121"/>
+      <c r="M42" s="121"/>
+      <c r="N42" s="121"/>
+      <c r="O42" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="P42" s="127"/>
-      <c r="Q42" s="127"/>
-      <c r="R42" s="127"/>
-      <c r="S42" s="127"/>
-    </row>
-    <row r="43" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="128"/>
-      <c r="B43" s="122"/>
-      <c r="C43" s="128"/>
-      <c r="D43" s="128"/>
+      <c r="P42" s="121"/>
+      <c r="Q42" s="121"/>
+      <c r="R42" s="121"/>
+      <c r="S42" s="121"/>
+    </row>
+    <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="123"/>
+      <c r="B43" s="129"/>
+      <c r="C43" s="123"/>
+      <c r="D43" s="123"/>
       <c r="E43" s="69" t="s">
         <v>48</v>
       </c>
@@ -5479,14 +5494,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="123" t="s">
+    <row r="44" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="120" t="s">
+      <c r="B44" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="123" t="s">
+      <c r="C44" s="120" t="s">
         <v>39</v>
       </c>
       <c r="D44" s="67" t="s">
@@ -5541,10 +5556,10 @@
         <v>-0.1346</v>
       </c>
     </row>
-    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="127"/>
-      <c r="B45" s="121"/>
-      <c r="C45" s="127"/>
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="121"/>
+      <c r="B45" s="125"/>
+      <c r="C45" s="121"/>
       <c r="D45" s="68" t="s">
         <v>36</v>
       </c>
@@ -5573,10 +5588,10 @@
       <c r="R45" s="70"/>
       <c r="S45" s="24"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A46" s="127"/>
-      <c r="B46" s="121"/>
-      <c r="C46" s="127"/>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="121"/>
+      <c r="B46" s="125"/>
+      <c r="C46" s="121"/>
       <c r="D46" s="68" t="s">
         <v>35</v>
       </c>
@@ -5629,10 +5644,10 @@
         <v>-0.1346</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" s="127"/>
-      <c r="B47" s="121"/>
-      <c r="C47" s="127"/>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="121"/>
+      <c r="B47" s="125"/>
+      <c r="C47" s="121"/>
       <c r="D47" s="68" t="s">
         <v>23</v>
       </c>
@@ -5685,10 +5700,10 @@
         <v>-0.1346</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A48" s="127"/>
-      <c r="B48" s="121"/>
-      <c r="C48" s="125" t="s">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="121"/>
+      <c r="B48" s="125"/>
+      <c r="C48" s="122" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="68" t="s">
@@ -5743,10 +5758,10 @@
         <v>-0.1346</v>
       </c>
     </row>
-    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="127"/>
-      <c r="B49" s="121"/>
-      <c r="C49" s="125"/>
+    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="121"/>
+      <c r="B49" s="125"/>
+      <c r="C49" s="122"/>
       <c r="D49" s="68" t="s">
         <v>36</v>
       </c>
@@ -5775,10 +5790,10 @@
       <c r="R49" s="70"/>
       <c r="S49" s="24"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" s="127"/>
-      <c r="B50" s="121"/>
-      <c r="C50" s="125"/>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="121"/>
+      <c r="B50" s="125"/>
+      <c r="C50" s="122"/>
       <c r="D50" s="68" t="s">
         <v>35</v>
       </c>
@@ -5831,10 +5846,10 @@
         <v>-0.1346</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A51" s="127"/>
-      <c r="B51" s="121"/>
-      <c r="C51" s="125"/>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="121"/>
+      <c r="B51" s="125"/>
+      <c r="C51" s="122"/>
       <c r="D51" s="68" t="s">
         <v>23</v>
       </c>
@@ -5887,10 +5902,10 @@
         <v>-0.125</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A52" s="127"/>
-      <c r="B52" s="121"/>
-      <c r="C52" s="125" t="s">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="121"/>
+      <c r="B52" s="125"/>
+      <c r="C52" s="122" t="s">
         <v>41</v>
       </c>
       <c r="D52" s="68" t="s">
@@ -5945,10 +5960,10 @@
         <v>-9.6199999999999994E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="127"/>
-      <c r="B53" s="121"/>
-      <c r="C53" s="125"/>
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="121"/>
+      <c r="B53" s="125"/>
+      <c r="C53" s="122"/>
       <c r="D53" s="68" t="s">
         <v>36</v>
       </c>
@@ -5977,10 +5992,10 @@
       <c r="R53" s="80"/>
       <c r="S53" s="83"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A54" s="127"/>
-      <c r="B54" s="121"/>
-      <c r="C54" s="125"/>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="121"/>
+      <c r="B54" s="125"/>
+      <c r="C54" s="122"/>
       <c r="D54" s="68" t="s">
         <v>35</v>
       </c>
@@ -6033,10 +6048,10 @@
         <v>-1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A55" s="127"/>
-      <c r="B55" s="121"/>
-      <c r="C55" s="125"/>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="121"/>
+      <c r="B55" s="125"/>
+      <c r="C55" s="122"/>
       <c r="D55" s="68" t="s">
         <v>23</v>
       </c>
@@ -6089,10 +6104,10 @@
         <v>-3.85E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A56" s="127"/>
-      <c r="B56" s="121"/>
-      <c r="C56" s="125" t="s">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="121"/>
+      <c r="B56" s="125"/>
+      <c r="C56" s="122" t="s">
         <v>42</v>
       </c>
       <c r="D56" s="68" t="s">
@@ -6147,10 +6162,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="127"/>
-      <c r="B57" s="121"/>
-      <c r="C57" s="125"/>
+    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="121"/>
+      <c r="B57" s="125"/>
+      <c r="C57" s="122"/>
       <c r="D57" s="68" t="s">
         <v>36</v>
       </c>
@@ -6179,10 +6194,10 @@
       <c r="R57" s="70"/>
       <c r="S57" s="83"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A58" s="127"/>
-      <c r="B58" s="121"/>
-      <c r="C58" s="125"/>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" s="121"/>
+      <c r="B58" s="125"/>
+      <c r="C58" s="122"/>
       <c r="D58" s="68" t="s">
         <v>35</v>
       </c>
@@ -6235,9 +6250,9 @@
         <v>0.10580000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="128"/>
-      <c r="B59" s="122"/>
+    <row r="59" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="123"/>
+      <c r="B59" s="129"/>
       <c r="C59" s="126"/>
       <c r="D59" s="69" t="s">
         <v>23</v>
@@ -6291,14 +6306,14 @@
         <v